--- a/SubRES_TMPL/SubRes_RSD.xlsx
+++ b/SubRES_TMPL/SubRes_RSD.xlsx
@@ -8,23 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FD81B5-419A-494C-9CCC-C7583E5F428B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B17290-87C3-41E8-9DA2-B9999F194721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="646" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RSD" sheetId="22" r:id="rId1"/>
+    <sheet name="RSD_buildings" sheetId="23" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_.DMD.">#REF!</definedName>
+    <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
+    <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="Cars_12">'[1]TechRep-Doc'!#REF!</definedName>
     <definedName name="ddddd">[2]AGR_Fuels!$A$2</definedName>
     <definedName name="DISCRATE">'[1]TechRep-Doc'!#REF!</definedName>
+    <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="FID_1" localSheetId="0">[1]AGR_Fuels!$A$2</definedName>
     <definedName name="FID_1">[3]AGR_Fuels!$A$2</definedName>
     <definedName name="GROWTH">'[1]TechRep-Doc'!#REF!</definedName>
@@ -33,10 +42,12 @@
     <definedName name="LIFE">'[1]TechRep-Doc'!#REF!</definedName>
     <definedName name="NAs_CCAR">'[1]TechRep-Doc'!#REF!</definedName>
     <definedName name="SETS">'[1]TechRep-Doc'!#REF!</definedName>
+    <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="TRTGAB005">'[1]TechRep-Doc'!#REF!</definedName>
     <definedName name="TRTGAC005">'[1]TechRep-Doc'!#REF!</definedName>
     <definedName name="Trucks_15">'[1]TechRep-Doc'!#REF!</definedName>
     <definedName name="TSUB_COST">'[1]TechRep-Doc'!#REF!</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="x">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -55,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
   <si>
     <t>~FI_T</t>
   </si>
@@ -217,6 +228,54 @@
   </si>
   <si>
     <t>Residential Other Applications - New</t>
+  </si>
+  <si>
+    <t>LIFE</t>
+  </si>
+  <si>
+    <t>000units</t>
+  </si>
+  <si>
+    <t>RSD_Apt</t>
+  </si>
+  <si>
+    <t>Residential Apartment demand</t>
+  </si>
+  <si>
+    <t>RSH_Apt,RSC_Apt,RWH_Apt,RLT_Apt,RPF_Apt</t>
+  </si>
+  <si>
+    <t>RSD_Att</t>
+  </si>
+  <si>
+    <t>RSH_Att,RSC_Att,RWH_Att,RLT_Att,RPF_Att</t>
+  </si>
+  <si>
+    <t>RSD_Det</t>
+  </si>
+  <si>
+    <t>RSH_Det,RSC_Det,RWH_Det,RLT_Det,RPF_Det</t>
+  </si>
+  <si>
+    <t>RSD_Det-NEW</t>
+  </si>
+  <si>
+    <t>RSD_Att-NEW</t>
+  </si>
+  <si>
+    <t>RSD_Apt-NEW</t>
+  </si>
+  <si>
+    <t>NCAP_COST</t>
+  </si>
+  <si>
+    <t>Dummy cost</t>
+  </si>
+  <si>
+    <t>Residential Attached demand - New</t>
+  </si>
+  <si>
+    <t>Residential Detached demand - New</t>
   </si>
 </sst>
 </file>
@@ -224,7 +283,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -440,8 +499,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,6 +797,59 @@
       <sheetData sheetId="48" refreshError="1"/>
       <sheetData sheetId="49" refreshError="1"/>
       <sheetData sheetId="50" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover"/>
+      <sheetName val="Intro"/>
+      <sheetName val="Regions"/>
+      <sheetName val="RES"/>
+      <sheetName val="SETUP"/>
+      <sheetName val="EnergyBalance"/>
+      <sheetName val="RSD_Balance"/>
+      <sheetName val="Fuel-Age_Adj"/>
+      <sheetName val="COMM"/>
+      <sheetName val="EMIS"/>
+      <sheetName val="DIST"/>
+      <sheetName val="Sector_Fuels"/>
+      <sheetName val="Heating Drivers"/>
+      <sheetName val="Non-Heat Drivers"/>
+      <sheetName val="DwellingStocks"/>
+      <sheetName val="SHWLP-Apt"/>
+      <sheetName val="SHWLP-Att"/>
+      <sheetName val="SHWLP-Det"/>
+      <sheetName val="ApartmentEnergyData"/>
+      <sheetName val="AttachedEnergyData"/>
+      <sheetName val="DettachedEnergyData"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1067,8 +1179,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B4:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1277,11 +1389,11 @@
     </row>
     <row r="11" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="str">
-        <f>C22</f>
+        <f t="shared" ref="B11:C15" si="0">C22</f>
         <v>RSDRCW_N1</v>
       </c>
       <c r="C11" s="11" t="str">
-        <f>D22</f>
+        <f t="shared" si="0"/>
         <v>Residential Cloth Washing demand - New</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -1308,11 +1420,11 @@
     </row>
     <row r="12" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="str">
-        <f>C23</f>
+        <f t="shared" si="0"/>
         <v>RSDRCD_N1</v>
       </c>
       <c r="C12" s="8" t="str">
-        <f>D23</f>
+        <f t="shared" si="0"/>
         <v>Residential Cloth Drying demand - New</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -1339,11 +1451,11 @@
     </row>
     <row r="13" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="str">
-        <f>C24</f>
+        <f t="shared" si="0"/>
         <v>RSDRDW_N1</v>
       </c>
       <c r="C13" s="11" t="str">
-        <f>D24</f>
+        <f t="shared" si="0"/>
         <v>Residential Dish Washing demand - New</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -1370,11 +1482,11 @@
     </row>
     <row r="14" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="str">
-        <f>C25</f>
+        <f t="shared" si="0"/>
         <v>RSDROE_N1</v>
       </c>
       <c r="C14" s="8" t="str">
-        <f>D25</f>
+        <f t="shared" si="0"/>
         <v>Residential ELC Appliances - New</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -1401,11 +1513,11 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="str">
-        <f>C26</f>
+        <f t="shared" si="0"/>
         <v>RSDROA_N1</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f>D26</f>
+        <f t="shared" si="0"/>
         <v>Residential Other Applications - New</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1644,4 +1756,222 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2D43F6-97F6-4E25-A1BC-F561B5C1DF16}">
+  <dimension ref="C4:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C7" t="str">
+        <f>D19</f>
+        <v>RSD_Apt-NEW</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7">
+        <v>0.01</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C8" t="str">
+        <f t="shared" ref="C8:C9" si="0">D20</f>
+        <v>RSD_Att-NEW</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8">
+        <v>0.01</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>RSD_Det-NEW</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9">
+        <v>0.01</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="str">
+        <f>D7</f>
+        <v>Residential Apartment demand</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SubRES_TMPL/SubRes_RSD.xlsx
+++ b/SubRES_TMPL/SubRes_RSD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B17290-87C3-41E8-9DA2-B9999F194721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B7C0D6-CA3F-4BCE-BB9C-D513B6059F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="646" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RSD" sheetId="22" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_.DMD.">#REF!</definedName>
@@ -66,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
   <si>
     <t>~FI_T</t>
   </si>
@@ -158,57 +157,15 @@
     <t>RSDELC</t>
   </si>
   <si>
-    <t>RSDRRF</t>
-  </si>
-  <si>
     <t>DMD</t>
   </si>
   <si>
-    <t>RSDRCK</t>
-  </si>
-  <si>
     <t>RSDGASNAT</t>
   </si>
   <si>
     <t>RSDOILLPG</t>
   </si>
   <si>
-    <t>RSDRCW</t>
-  </si>
-  <si>
-    <t>RSDRCD</t>
-  </si>
-  <si>
-    <t>RSDRDW</t>
-  </si>
-  <si>
-    <t>RSDROE</t>
-  </si>
-  <si>
-    <t>RSDROA</t>
-  </si>
-  <si>
-    <t>RSDRRF_N1</t>
-  </si>
-  <si>
-    <t>RSDRCK_N1</t>
-  </si>
-  <si>
-    <t>RSDRCW_N1</t>
-  </si>
-  <si>
-    <t>RSDRCD_N1</t>
-  </si>
-  <si>
-    <t>RSDRDW_N1</t>
-  </si>
-  <si>
-    <t>RSDROE_N1</t>
-  </si>
-  <si>
-    <t>RSDROA_N1</t>
-  </si>
-  <si>
     <t>Residential Refrigeration - New</t>
   </si>
   <si>
@@ -239,43 +196,118 @@
     <t>RSD_Apt</t>
   </si>
   <si>
-    <t>Residential Apartment demand</t>
-  </si>
-  <si>
-    <t>RSH_Apt,RSC_Apt,RWH_Apt,RLT_Apt,RPF_Apt</t>
-  </si>
-  <si>
     <t>RSD_Att</t>
   </si>
   <si>
-    <t>RSH_Att,RSC_Att,RWH_Att,RLT_Att,RPF_Att</t>
-  </si>
-  <si>
     <t>RSD_Det</t>
   </si>
   <si>
-    <t>RSH_Det,RSC_Det,RWH_Det,RLT_Det,RPF_Det</t>
-  </si>
-  <si>
-    <t>RSD_Det-NEW</t>
-  </si>
-  <si>
-    <t>RSD_Att-NEW</t>
-  </si>
-  <si>
-    <t>RSD_Apt-NEW</t>
-  </si>
-  <si>
-    <t>NCAP_COST</t>
-  </si>
-  <si>
-    <t>Dummy cost</t>
-  </si>
-  <si>
-    <t>Residential Attached demand - New</t>
-  </si>
-  <si>
-    <t>Residential Detached demand - New</t>
+    <t>R-BLD_Det-NEW</t>
+  </si>
+  <si>
+    <t>R-BLD_Att-NEW</t>
+  </si>
+  <si>
+    <t>R-BLD_Apt-NEW</t>
+  </si>
+  <si>
+    <t>Residential Building Detached - New</t>
+  </si>
+  <si>
+    <t>Residential Building Apartment - New</t>
+  </si>
+  <si>
+    <t>Residential Building Attached - New</t>
+  </si>
+  <si>
+    <t>RSDSH_Apt</t>
+  </si>
+  <si>
+    <t>RSDSC_Apt</t>
+  </si>
+  <si>
+    <t>RSDWH_Apt</t>
+  </si>
+  <si>
+    <t>RSDLT_Apt</t>
+  </si>
+  <si>
+    <t>RSDPF_Apt</t>
+  </si>
+  <si>
+    <t>RSDSH_Att</t>
+  </si>
+  <si>
+    <t>RSDSC_Att</t>
+  </si>
+  <si>
+    <t>RSDWH_Att</t>
+  </si>
+  <si>
+    <t>RSDLT_Att</t>
+  </si>
+  <si>
+    <t>RSDPF_Att</t>
+  </si>
+  <si>
+    <t>RSDSH_Det</t>
+  </si>
+  <si>
+    <t>RSDSC_Det</t>
+  </si>
+  <si>
+    <t>RSDWH_Det</t>
+  </si>
+  <si>
+    <t>RSDLT_Det</t>
+  </si>
+  <si>
+    <t>RSDPF_Det</t>
+  </si>
+  <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <t>R-RSDRF_NEW</t>
+  </si>
+  <si>
+    <t>R-RSDCK_NEW</t>
+  </si>
+  <si>
+    <t>R-RSDCW_NEW</t>
+  </si>
+  <si>
+    <t>R-RSDCD_NEW</t>
+  </si>
+  <si>
+    <t>R-RSDDW_NEW</t>
+  </si>
+  <si>
+    <t>R-RSDOE_NEW</t>
+  </si>
+  <si>
+    <t>R-RSDOA_NEW</t>
+  </si>
+  <si>
+    <t>RSDRF</t>
+  </si>
+  <si>
+    <t>RSDCK</t>
+  </si>
+  <si>
+    <t>RSDCW</t>
+  </si>
+  <si>
+    <t>RSDCD</t>
+  </si>
+  <si>
+    <t>RSDDW</t>
+  </si>
+  <si>
+    <t>RSDOE</t>
+  </si>
+  <si>
+    <t>RSDOA</t>
   </si>
 </sst>
 </file>
@@ -302,7 +334,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,8 +359,14 @@
         <bgColor theme="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor theme="6" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -472,11 +510,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -501,6 +674,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,59 +984,6 @@
       <sheetData sheetId="48" refreshError="1"/>
       <sheetData sheetId="49" refreshError="1"/>
       <sheetData sheetId="50" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-      <sheetName val="Intro"/>
-      <sheetName val="Regions"/>
-      <sheetName val="RES"/>
-      <sheetName val="SETUP"/>
-      <sheetName val="EnergyBalance"/>
-      <sheetName val="RSD_Balance"/>
-      <sheetName val="Fuel-Age_Adj"/>
-      <sheetName val="COMM"/>
-      <sheetName val="EMIS"/>
-      <sheetName val="DIST"/>
-      <sheetName val="Sector_Fuels"/>
-      <sheetName val="Heating Drivers"/>
-      <sheetName val="Non-Heat Drivers"/>
-      <sheetName val="DwellingStocks"/>
-      <sheetName val="SHWLP-Apt"/>
-      <sheetName val="SHWLP-Att"/>
-      <sheetName val="SHWLP-Det"/>
-      <sheetName val="ApartmentEnergyData"/>
-      <sheetName val="AttachedEnergyData"/>
-      <sheetName val="DettachedEnergyData"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1179,8 +1313,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B4:L26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1282,7 +1416,7 @@
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="str">
         <f>C20</f>
-        <v>RSDRRF_N1</v>
+        <v>R-RSDRF_NEW</v>
       </c>
       <c r="C7" s="11" t="str">
         <f>D20</f>
@@ -1292,7 +1426,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="F7" s="11">
         <v>0.8</v>
@@ -1313,7 +1447,7 @@
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="str">
         <f>C21</f>
-        <v>RSDRCK_N1</v>
+        <v>R-RSDCK_NEW</v>
       </c>
       <c r="C8" s="8" t="str">
         <f>D21</f>
@@ -1323,7 +1457,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8">
@@ -1349,7 +1483,7 @@
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -1370,7 +1504,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1390,7 +1524,7 @@
     <row r="11" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="str">
         <f t="shared" ref="B11:C15" si="0">C22</f>
-        <v>RSDRCW_N1</v>
+        <v>R-RSDCW_NEW</v>
       </c>
       <c r="C11" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1400,7 +1534,7 @@
         <v>29</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="F11" s="11">
         <v>0.7</v>
@@ -1421,7 +1555,7 @@
     <row r="12" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>RSDRCD_N1</v>
+        <v>R-RSDCD_NEW</v>
       </c>
       <c r="C12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1431,7 +1565,7 @@
         <v>29</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="F12" s="8">
         <v>0.6</v>
@@ -1452,7 +1586,7 @@
     <row r="13" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>RSDRDW_N1</v>
+        <v>R-RSDDW_NEW</v>
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1462,7 +1596,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="F13" s="11">
         <v>0.7</v>
@@ -1483,7 +1617,7 @@
     <row r="14" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>RSDROE_N1</v>
+        <v>R-RSDOE_NEW</v>
       </c>
       <c r="C14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1493,7 +1627,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F14" s="8">
         <v>0.85</v>
@@ -1514,7 +1648,7 @@
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>RSDROA_N1</v>
+        <v>R-RSDOA_NEW</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1524,7 +1658,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="F15" s="2">
         <v>0.85</v>
@@ -1575,13 +1709,13 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>17</v>
@@ -1597,13 +1731,13 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>17</v>
@@ -1619,13 +1753,13 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>17</v>
@@ -1641,13 +1775,13 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>17</v>
@@ -1663,13 +1797,13 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>17</v>
@@ -1685,13 +1819,13 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>17</v>
@@ -1707,13 +1841,13 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>17</v>
@@ -1760,10 +1894,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2D43F6-97F6-4E25-A1BC-F561B5C1DF16}">
-  <dimension ref="C4:I21"/>
+  <dimension ref="C4:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1772,203 +1906,369 @@
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="F4" t="s">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+    <row r="14" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E14" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F14" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G14" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H14" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="15" spans="3:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D16" s="31" t="str">
+        <f>D6</f>
+        <v>R-BLD_Apt-NEW</v>
+      </c>
+      <c r="E16" s="25" t="str">
+        <f>E6</f>
+        <v>Residential Building Apartment - New</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="25">
+        <v>100</v>
+      </c>
+      <c r="I16" s="25">
+        <v>1</v>
+      </c>
+      <c r="J16" s="32">
+        <v>1.4820480670008396E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D17" s="33"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D18" s="31"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="32">
+        <v>8.2251262129918352E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D19" s="33"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C7" t="str">
-        <f>D19</f>
-        <v>RSD_Apt-NEW</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="34">
+        <v>4.9822250206190887E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D20" s="31"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="32">
+        <v>1.0266309705907878E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D21" s="33" t="str">
+        <f>D7</f>
+        <v>R-BLD_Att-NEW</v>
+      </c>
+      <c r="E21" s="24" t="str">
+        <f>E7</f>
+        <v>Residential Building Attached - New</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="24">
+        <v>100</v>
+      </c>
+      <c r="I21" s="24">
+        <v>1</v>
+      </c>
+      <c r="J21" s="34">
+        <v>4.1539609916574856E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D22" s="31"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D23" s="33"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7">
-        <v>0.01</v>
-      </c>
-      <c r="H7">
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="34">
+        <v>1.4064457368099048E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D24" s="31"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="32">
+        <v>1.3444460955064912E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D25" s="33"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="34">
+        <v>2.7703485776427552E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D26" s="31" t="str">
+        <f>D8</f>
+        <v>R-BLD_Det-NEW</v>
+      </c>
+      <c r="E26" s="25" t="str">
+        <f>E8</f>
+        <v>Residential Building Detached - New</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="25">
         <v>100</v>
       </c>
-      <c r="I7">
+      <c r="I26" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C8" t="str">
-        <f t="shared" ref="C8:C9" si="0">D20</f>
-        <v>RSD_Att-NEW</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8">
-        <v>0.01</v>
-      </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>RSD_Det-NEW</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="J26" s="32">
+        <v>7.5283956459279863E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D27" s="33"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9">
-        <v>0.01</v>
-      </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D28" s="31"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="32">
+        <v>1.7830953440996895E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D29" s="33"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="34">
+        <v>1.1036083669191172E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E19" t="str">
-        <f>D7</f>
-        <v>Residential Apartment demand</v>
-      </c>
-      <c r="F19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" t="s">
-        <v>55</v>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37">
+        <v>2.2970926283112933E-3</v>
       </c>
     </row>
   </sheetData>

--- a/SubRES_TMPL/SubRes_RSD.xlsx
+++ b/SubRES_TMPL/SubRes_RSD.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B7C0D6-CA3F-4BCE-BB9C-D513B6059F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE4BBD1-0C6D-4EAE-B19F-8EB239B1224C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="646" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RSD" sheetId="22" r:id="rId1"/>
     <sheet name="RSD_buildings" sheetId="23" r:id="rId2"/>
+    <sheet name="RSD_Boilers" sheetId="24" r:id="rId3"/>
+    <sheet name="RSD_OTH" sheetId="25" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_.DMD.">#REF!</definedName>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="108">
   <si>
     <t>~FI_T</t>
   </si>
@@ -308,6 +310,87 @@
   </si>
   <si>
     <t>RSDOA</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>R-SH_Apt_ELC_N1</t>
+  </si>
+  <si>
+    <t>R-SH_Att_ELC_N1</t>
+  </si>
+  <si>
+    <t>R-SH_Det_ELC_N1</t>
+  </si>
+  <si>
+    <t>Residential Space Heating Apartment Electricity to Residential New</t>
+  </si>
+  <si>
+    <t>R-WH_Apt_ELC_N1</t>
+  </si>
+  <si>
+    <t>R-WH_Att_ELC_N1</t>
+  </si>
+  <si>
+    <t>R-WH_Det_ELC_N1</t>
+  </si>
+  <si>
+    <t>Residential Water Heating Apartment Electricity to Residential New</t>
+  </si>
+  <si>
+    <t>NCAP_COST</t>
+  </si>
+  <si>
+    <t>Residential Space Heating Attached Electricity to Residential New</t>
+  </si>
+  <si>
+    <t>Residential Space Heating Detached Electricity to Residential New</t>
+  </si>
+  <si>
+    <t>Residential Water Heating Attached Electricity to Residential New</t>
+  </si>
+  <si>
+    <t>Residential Water Heating Detached Electricity to Residential New</t>
+  </si>
+  <si>
+    <t>R-LT_Apt_N1</t>
+  </si>
+  <si>
+    <t>R-PF_Apt_N1</t>
+  </si>
+  <si>
+    <t>R-LT_Att_N1</t>
+  </si>
+  <si>
+    <t>R-PF_Att_N1</t>
+  </si>
+  <si>
+    <t>R-LT_Det_N1</t>
+  </si>
+  <si>
+    <t>R-PF_Det_N1</t>
+  </si>
+  <si>
+    <t>Residential Lighting Apartment New</t>
+  </si>
+  <si>
+    <t>Residential Pumps &amp; Fans Apartment New</t>
+  </si>
+  <si>
+    <t>Residential Lighting Attached New</t>
+  </si>
+  <si>
+    <t>Residential Pumps &amp; Fans Attached New</t>
+  </si>
+  <si>
+    <t>Residential Lighting Detached New</t>
+  </si>
+  <si>
+    <t>Residential Pumps &amp; Fans Detached New</t>
   </si>
 </sst>
 </file>
@@ -366,7 +449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -645,11 +728,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -688,6 +780,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1311,10 +1407,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B4:L26"/>
+  <dimension ref="B4:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1346,12 +1442,12 @@
     <col min="27" max="27" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1385,8 +1481,11 @@
       <c r="L5" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>23</v>
       </c>
@@ -1412,8 +1511,9 @@
       <c r="L6" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="str">
         <f>C20</f>
         <v>R-RSDRF_NEW</v>
@@ -1443,8 +1543,11 @@
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="str">
         <f>C21</f>
         <v>R-RSDCK_NEW</v>
@@ -1478,8 +1581,11 @@
       <c r="L8" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
@@ -1499,8 +1605,9 @@
       <c r="L9" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
@@ -1520,8 +1627,9 @@
       <c r="L10" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="str">
         <f t="shared" ref="B11:C15" si="0">C22</f>
         <v>R-RSDCW_NEW</v>
@@ -1551,8 +1659,11 @@
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M11" s="12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>R-RSDCD_NEW</v>
@@ -1582,8 +1693,11 @@
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M12" s="9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>R-RSDDW_NEW</v>
@@ -1613,8 +1727,11 @@
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M13" s="12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>R-RSDOE_NEW</v>
@@ -1644,8 +1761,11 @@
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>R-RSDOA_NEW</v>
@@ -1675,6 +1795,7 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
@@ -1894,10 +2015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2D43F6-97F6-4E25-A1BC-F561B5C1DF16}">
-  <dimension ref="C4:J30"/>
+  <dimension ref="C4:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="C4" sqref="C4:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1910,12 +2031,12 @@
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C5" s="13" t="s">
         <v>2</v>
       </c>
@@ -1938,7 +2059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C6" s="16" t="s">
         <v>30</v>
       </c>
@@ -1957,7 +2078,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C7" s="16" t="s">
         <v>30</v>
       </c>
@@ -1976,7 +2097,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C8" s="19" t="s">
         <v>30</v>
       </c>
@@ -1995,12 +2116,12 @@
       <c r="H8" s="20"/>
       <c r="I8" s="21"/>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
       <c r="G13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D14" s="4" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2143,11 @@
       <c r="J14" s="28" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="3:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D15" s="29" t="s">
         <v>23</v>
       </c>
@@ -2039,8 +2163,9 @@
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
       <c r="J15" s="30"/>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D16" s="31" t="str">
         <f>D6</f>
         <v>R-BLD_Apt-NEW</v>
@@ -2064,8 +2189,11 @@
       <c r="J16" s="32">
         <v>1.4820480670008396E-2</v>
       </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="25">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D17" s="33"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24" t="s">
@@ -2077,8 +2205,9 @@
       <c r="J17" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D18" s="31"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25" t="s">
@@ -2090,8 +2219,9 @@
       <c r="J18" s="32">
         <v>8.2251262129918352E-3</v>
       </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D19" s="33"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24" t="s">
@@ -2103,8 +2233,9 @@
       <c r="J19" s="34">
         <v>4.9822250206190887E-3</v>
       </c>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D20" s="31"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25" t="s">
@@ -2116,8 +2247,9 @@
       <c r="J20" s="32">
         <v>1.0266309705907878E-3</v>
       </c>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D21" s="33" t="str">
         <f>D7</f>
         <v>R-BLD_Att-NEW</v>
@@ -2141,8 +2273,11 @@
       <c r="J21" s="34">
         <v>4.1539609916574856E-2</v>
       </c>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="K21" s="24">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D22" s="31"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25" t="s">
@@ -2154,8 +2289,9 @@
       <c r="J22" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D23" s="33"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24" t="s">
@@ -2167,8 +2303,9 @@
       <c r="J23" s="34">
         <v>1.4064457368099048E-2</v>
       </c>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D24" s="31"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25" t="s">
@@ -2180,8 +2317,9 @@
       <c r="J24" s="32">
         <v>1.3444460955064912E-3</v>
       </c>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="K24" s="25"/>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D25" s="33"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24" t="s">
@@ -2193,8 +2331,9 @@
       <c r="J25" s="34">
         <v>2.7703485776427552E-4</v>
       </c>
-    </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D26" s="31" t="str">
         <f>D8</f>
         <v>R-BLD_Det-NEW</v>
@@ -2218,8 +2357,11 @@
       <c r="J26" s="32">
         <v>7.5283956459279863E-2</v>
       </c>
-    </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="25">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D27" s="33"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24" t="s">
@@ -2231,8 +2373,9 @@
       <c r="J27" s="34">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="24"/>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D28" s="31"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25" t="s">
@@ -2244,8 +2387,9 @@
       <c r="J28" s="32">
         <v>1.7830953440996895E-2</v>
       </c>
-    </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="K28" s="25"/>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D29" s="33"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24" t="s">
@@ -2257,8 +2401,9 @@
       <c r="J29" s="34">
         <v>1.1036083669191172E-2</v>
       </c>
-    </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D30" s="35"/>
       <c r="E30" s="36"/>
       <c r="F30" s="36" t="s">
@@ -2270,6 +2415,855 @@
       <c r="J30" s="37">
         <v>2.2970926283112933E-3</v>
       </c>
+      <c r="K30" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A2CE90-9318-48DC-AE66-3D2EBD04129C}">
+  <dimension ref="B4:L21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C16" s="31" t="str">
+        <f t="shared" ref="C16:D21" si="0">C6</f>
+        <v>R-SH_Apt_ELC_N1</v>
+      </c>
+      <c r="D16" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Residential Space Heating Apartment Electricity to Residential New</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="25">
+        <v>20</v>
+      </c>
+      <c r="H16" s="25">
+        <v>1</v>
+      </c>
+      <c r="I16" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J16" s="25">
+        <v>3.0701960784313722</v>
+      </c>
+      <c r="K16" s="25">
+        <v>2.1013453171159005E-3</v>
+      </c>
+      <c r="L16" s="40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C17" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>R-SH_Att_ELC_N1</v>
+      </c>
+      <c r="D17" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>Residential Space Heating Attached Electricity to Residential New</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="24">
+        <v>20</v>
+      </c>
+      <c r="H17" s="24">
+        <v>1</v>
+      </c>
+      <c r="I17" s="24">
+        <v>2020</v>
+      </c>
+      <c r="J17" s="24">
+        <v>3.0701960784313722</v>
+      </c>
+      <c r="K17" s="24">
+        <v>2.1013453171159005E-3</v>
+      </c>
+      <c r="L17" s="41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C18" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>R-SH_Det_ELC_N1</v>
+      </c>
+      <c r="D18" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Residential Space Heating Detached Electricity to Residential New</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="25">
+        <v>20</v>
+      </c>
+      <c r="H18" s="25">
+        <v>1</v>
+      </c>
+      <c r="I18" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J18" s="25">
+        <v>3.0701960784313722</v>
+      </c>
+      <c r="K18" s="25">
+        <v>2.1013453171159005E-3</v>
+      </c>
+      <c r="L18" s="40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>R-WH_Apt_ELC_N1</v>
+      </c>
+      <c r="D19" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Residential Water Heating Apartment Electricity to Residential New</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="25">
+        <v>20</v>
+      </c>
+      <c r="H19" s="25">
+        <v>1</v>
+      </c>
+      <c r="I19" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J19" s="25">
+        <v>3.0701960784313722</v>
+      </c>
+      <c r="K19" s="25">
+        <v>2.1013453171159005E-3</v>
+      </c>
+      <c r="L19" s="40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C20" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>R-WH_Att_ELC_N1</v>
+      </c>
+      <c r="D20" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>Residential Water Heating Attached Electricity to Residential New</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="24">
+        <v>20</v>
+      </c>
+      <c r="H20" s="24">
+        <v>1</v>
+      </c>
+      <c r="I20" s="24">
+        <v>2020</v>
+      </c>
+      <c r="J20" s="24">
+        <v>3.0701960784313722</v>
+      </c>
+      <c r="K20" s="24">
+        <v>2.1013453171159005E-3</v>
+      </c>
+      <c r="L20" s="41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C21" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>R-WH_Det_ELC_N1</v>
+      </c>
+      <c r="D21" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Residential Water Heating Detached Electricity to Residential New</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="25">
+        <v>20</v>
+      </c>
+      <c r="H21" s="25">
+        <v>1</v>
+      </c>
+      <c r="I21" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J21" s="25">
+        <v>3.0701960784313722</v>
+      </c>
+      <c r="K21" s="25">
+        <v>2.1013453171159005E-3</v>
+      </c>
+      <c r="L21" s="40">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F882C1B-5853-4411-BE2E-98858752C5D0}">
+  <dimension ref="B2:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C14" s="31" t="str">
+        <f t="shared" ref="C14:D19" si="0">C4</f>
+        <v>R-LT_Apt_N1</v>
+      </c>
+      <c r="D14" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Residential Lighting Apartment New</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="25">
+        <v>10</v>
+      </c>
+      <c r="H14" s="25">
+        <v>1</v>
+      </c>
+      <c r="I14" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J14" s="25">
+        <v>0.37037039770119351</v>
+      </c>
+      <c r="K14" s="25">
+        <v>4.9822250206190887E-3</v>
+      </c>
+      <c r="L14" s="40">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C15" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>R-PF_Apt_N1</v>
+      </c>
+      <c r="D15" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>Residential Pumps &amp; Fans Apartment New</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="24">
+        <v>10</v>
+      </c>
+      <c r="H15" s="24">
+        <v>1</v>
+      </c>
+      <c r="I15" s="24">
+        <v>2020</v>
+      </c>
+      <c r="J15" s="24">
+        <v>0.37037049989705056</v>
+      </c>
+      <c r="K15" s="24">
+        <v>1.0266309705907878E-3</v>
+      </c>
+      <c r="L15" s="41">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C16" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>R-LT_Att_N1</v>
+      </c>
+      <c r="D16" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Residential Lighting Attached New</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="25">
+        <v>10</v>
+      </c>
+      <c r="H16" s="25">
+        <v>1</v>
+      </c>
+      <c r="I16" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J16" s="25">
+        <v>0.37037039770119351</v>
+      </c>
+      <c r="K16" s="25">
+        <v>4.9822250206190887E-3</v>
+      </c>
+      <c r="L16" s="40">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C17" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>R-PF_Att_N1</v>
+      </c>
+      <c r="D17" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Residential Pumps &amp; Fans Attached New</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="25">
+        <v>10</v>
+      </c>
+      <c r="H17" s="25">
+        <v>1</v>
+      </c>
+      <c r="I17" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J17" s="25">
+        <v>0.37037049989705056</v>
+      </c>
+      <c r="K17" s="25">
+        <v>1.0266309705907878E-3</v>
+      </c>
+      <c r="L17" s="40">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C18" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>R-LT_Det_N1</v>
+      </c>
+      <c r="D18" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>Residential Lighting Detached New</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="24">
+        <v>10</v>
+      </c>
+      <c r="H18" s="24">
+        <v>1</v>
+      </c>
+      <c r="I18" s="24">
+        <v>2020</v>
+      </c>
+      <c r="J18" s="24">
+        <v>0.37037039770119351</v>
+      </c>
+      <c r="K18" s="24">
+        <v>4.9822250206190887E-3</v>
+      </c>
+      <c r="L18" s="41">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>R-PF_Det_N1</v>
+      </c>
+      <c r="D19" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>Residential Pumps &amp; Fans Detached New</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="25">
+        <v>10</v>
+      </c>
+      <c r="H19" s="25">
+        <v>1</v>
+      </c>
+      <c r="I19" s="25">
+        <v>2020</v>
+      </c>
+      <c r="J19" s="25">
+        <v>0.37037049989705056</v>
+      </c>
+      <c r="K19" s="25">
+        <v>1.0266309705907878E-3</v>
+      </c>
+      <c r="L19" s="40">
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRes_RSD.xlsx
+++ b/SubRES_TMPL/SubRes_RSD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE4BBD1-0C6D-4EAE-B19F-8EB239B1224C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675BD7AB-1A85-402F-AA8E-2E21D835BEF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="646" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RSD" sheetId="22" r:id="rId1"/>
@@ -1409,8 +1409,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B4:M26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1544,7 +1544,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -1582,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="M8" s="9">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -1660,7 +1660,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1694,7 +1694,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1728,7 +1728,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1762,7 +1762,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
@@ -2190,7 +2190,7 @@
         <v>1.4820480670008396E-2</v>
       </c>
       <c r="K16" s="25">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.2">
@@ -2274,7 +2274,7 @@
         <v>4.1539609916574856E-2</v>
       </c>
       <c r="K21" s="24">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.2">
@@ -2358,7 +2358,7 @@
         <v>7.5283956459279863E-2</v>
       </c>
       <c r="K26" s="25">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="27" spans="4:11" x14ac:dyDescent="0.2">
@@ -2660,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="25">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J16" s="25">
         <v>3.0701960784313722</v>
@@ -2694,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="24">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J17" s="24">
         <v>3.0701960784313722</v>
@@ -2728,7 +2728,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="25">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J18" s="25">
         <v>3.0701960784313722</v>
@@ -2762,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="25">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J19" s="25">
         <v>3.0701960784313722</v>
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="24">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J20" s="24">
         <v>3.0701960784313722</v>
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="25">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J21" s="25">
         <v>3.0701960784313722</v>
@@ -2851,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F882C1B-5853-4411-BE2E-98858752C5D0}">
   <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3083,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="25">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J14" s="25">
         <v>0.37037039770119351</v>
@@ -3117,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="24">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J15" s="24">
         <v>0.37037049989705056</v>
@@ -3151,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="25">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J16" s="25">
         <v>0.37037039770119351</v>
@@ -3185,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="25">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J17" s="25">
         <v>0.37037049989705056</v>
@@ -3219,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="24">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J18" s="24">
         <v>0.37037039770119351</v>
@@ -3253,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="25">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J19" s="25">
         <v>0.37037049989705056</v>

--- a/SubRES_TMPL/SubRes_RSD.xlsx
+++ b/SubRES_TMPL/SubRes_RSD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB18FC90-5EA4-48AE-ACA2-1FD6B02D3826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BDA242-A3E2-4021-9E95-86C49EA8818C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -1194,7 +1194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="745">
   <si>
     <t>Document type:</t>
   </si>
@@ -3444,6 +3444,12 @@
   </si>
   <si>
     <t>CEFF~RSDWH_Det~2050</t>
+  </si>
+  <si>
+    <t>€/000 unit</t>
+  </si>
+  <si>
+    <t>INCLUDE SOLAR - MIRCOGENERATION HERE..IT IS ANOTHER WAY OF INCREASING THE EFF OF BUILDING</t>
   </si>
 </sst>
 </file>
@@ -4723,7 +4729,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="318">
+  <cellXfs count="321">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5260,6 +5266,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="15" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="21" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8127,14 +8136,14 @@
       <c r="F16" s="222"/>
     </row>
     <row r="17" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="297" t="s">
+      <c r="A17" s="300" t="s">
         <v>502</v>
       </c>
-      <c r="B17" s="297"/>
-      <c r="C17" s="297"/>
-      <c r="D17" s="297"/>
-      <c r="E17" s="297"/>
-      <c r="F17" s="297"/>
+      <c r="B17" s="300"/>
+      <c r="C17" s="300"/>
+      <c r="D17" s="300"/>
+      <c r="E17" s="300"/>
+      <c r="F17" s="300"/>
       <c r="G17" s="224"/>
       <c r="H17" s="224"/>
       <c r="I17" s="225"/>
@@ -8172,13 +8181,13 @@
       <c r="A20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="298" t="s">
+      <c r="B20" s="301" t="s">
         <v>504</v>
       </c>
-      <c r="C20" s="298"/>
-      <c r="D20" s="298"/>
-      <c r="E20" s="298"/>
-      <c r="F20" s="298"/>
+      <c r="C20" s="301"/>
+      <c r="D20" s="301"/>
+      <c r="E20" s="301"/>
+      <c r="F20" s="301"/>
       <c r="G20" s="229"/>
       <c r="H20" s="229"/>
       <c r="I20" s="230"/>
@@ -8192,13 +8201,13 @@
       <c r="A21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="299" t="s">
+      <c r="B21" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="299"/>
-      <c r="D21" s="299"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="299"/>
+      <c r="C21" s="302"/>
+      <c r="D21" s="302"/>
+      <c r="E21" s="302"/>
+      <c r="F21" s="302"/>
       <c r="G21" s="229"/>
       <c r="H21" s="229"/>
       <c r="I21" s="230"/>
@@ -8212,13 +8221,13 @@
       <c r="A22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="299" t="s">
+      <c r="B22" s="302" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="299"/>
-      <c r="D22" s="299"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="299"/>
+      <c r="C22" s="302"/>
+      <c r="D22" s="302"/>
+      <c r="E22" s="302"/>
+      <c r="F22" s="302"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
@@ -8247,22 +8256,22 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="300"/>
-      <c r="B25" s="300"/>
-      <c r="C25" s="300"/>
-      <c r="D25" s="300"/>
-      <c r="E25" s="300"/>
-      <c r="F25" s="300"/>
+      <c r="A25" s="303"/>
+      <c r="B25" s="303"/>
+      <c r="C25" s="303"/>
+      <c r="D25" s="303"/>
+      <c r="E25" s="303"/>
+      <c r="F25" s="303"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="296"/>
-      <c r="B26" s="296"/>
-      <c r="C26" s="296"/>
-      <c r="D26" s="296"/>
-      <c r="E26" s="296"/>
-      <c r="F26" s="296"/>
+      <c r="A26" s="299"/>
+      <c r="B26" s="299"/>
+      <c r="C26" s="299"/>
+      <c r="D26" s="299"/>
+      <c r="E26" s="299"/>
+      <c r="F26" s="299"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="222"/>
@@ -8449,16 +8458,16 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="301" t="s">
+      <c r="B2" s="304" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="302"/>
-      <c r="D2" s="302"/>
-      <c r="E2" s="303"/>
-      <c r="G2" s="301" t="s">
+      <c r="C2" s="305"/>
+      <c r="D2" s="305"/>
+      <c r="E2" s="306"/>
+      <c r="G2" s="304" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="303"/>
+      <c r="H2" s="306"/>
       <c r="I2" s="233"/>
       <c r="J2" s="233"/>
       <c r="K2" s="234"/>
@@ -8800,16 +8809,16 @@
     </row>
     <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="304" t="s">
+      <c r="B20" s="307" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="305"/>
-      <c r="D20" s="305"/>
-      <c r="E20" s="306"/>
-      <c r="G20" s="301" t="s">
+      <c r="C20" s="308"/>
+      <c r="D20" s="308"/>
+      <c r="E20" s="309"/>
+      <c r="G20" s="304" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="303"/>
+      <c r="H20" s="306"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="261" t="s">
@@ -9053,16 +9062,16 @@
     </row>
     <row r="37" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="301" t="s">
+      <c r="B38" s="304" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="302"/>
-      <c r="D38" s="302"/>
-      <c r="E38" s="303"/>
-      <c r="G38" s="307" t="s">
+      <c r="C38" s="305"/>
+      <c r="D38" s="305"/>
+      <c r="E38" s="306"/>
+      <c r="G38" s="310" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="308"/>
+      <c r="H38" s="311"/>
     </row>
     <row r="39" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="282" t="s">
@@ -9163,8 +9172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4660B878-9B9C-4131-8EFF-29EF25ED69C5}">
   <dimension ref="A2:P103"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9176,7 +9185,8 @@
     <col min="5" max="5" width="22.140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="63.140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
-    <col min="8" max="11" width="10.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="5" customWidth="1"/>
+    <col min="9" max="11" width="10.7109375" style="5" customWidth="1"/>
     <col min="12" max="12" width="12" style="5" customWidth="1"/>
     <col min="13" max="23" width="10.7109375" style="5" customWidth="1"/>
     <col min="24" max="26" width="9.85546875" style="5" customWidth="1"/>
@@ -9243,12 +9253,12 @@
       <c r="G4" s="182" t="s">
         <v>340</v>
       </c>
-      <c r="H4" s="312" t="s">
+      <c r="H4" s="315" t="s">
         <v>341</v>
       </c>
-      <c r="I4" s="313"/>
-      <c r="J4" s="313"/>
-      <c r="K4" s="314"/>
+      <c r="I4" s="316"/>
+      <c r="J4" s="316"/>
+      <c r="K4" s="317"/>
       <c r="L4" s="110"/>
       <c r="M4" s="110"/>
       <c r="P4" s="5" t="s">
@@ -9265,12 +9275,12 @@
       <c r="G5" s="87" t="s">
         <v>314</v>
       </c>
-      <c r="H5" s="309" t="s">
-        <v>443</v>
-      </c>
-      <c r="I5" s="310"/>
-      <c r="J5" s="310"/>
-      <c r="K5" s="311"/>
+      <c r="H5" s="312" t="s">
+        <v>743</v>
+      </c>
+      <c r="I5" s="313"/>
+      <c r="J5" s="313"/>
+      <c r="K5" s="314"/>
       <c r="L5" s="111" t="s">
         <v>500</v>
       </c>
@@ -9299,17 +9309,17 @@
       <c r="G6" s="199">
         <v>100</v>
       </c>
-      <c r="H6" s="68">
-        <v>280</v>
-      </c>
-      <c r="I6" s="140">
-        <v>330</v>
-      </c>
-      <c r="J6" s="140">
-        <v>395</v>
-      </c>
-      <c r="K6" s="106">
-        <v>475</v>
+      <c r="H6" s="296">
+        <v>280000000</v>
+      </c>
+      <c r="I6" s="297">
+        <v>330000000</v>
+      </c>
+      <c r="J6" s="297">
+        <v>395000000</v>
+      </c>
+      <c r="K6" s="298">
+        <v>475000000</v>
       </c>
       <c r="L6" s="106">
         <v>1.5</v>
@@ -9396,21 +9406,21 @@
       <c r="G11" s="200">
         <v>100</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="296">
         <f>H6*1.05</f>
-        <v>294</v>
-      </c>
-      <c r="I11" s="69">
+        <v>294000000</v>
+      </c>
+      <c r="I11" s="297">
         <f t="shared" ref="I11:K11" si="0">I6*1.05</f>
-        <v>346.5</v>
-      </c>
-      <c r="J11" s="69">
+        <v>346500000</v>
+      </c>
+      <c r="J11" s="297">
         <f t="shared" si="0"/>
-        <v>414.75</v>
-      </c>
-      <c r="K11" s="106">
+        <v>414750000</v>
+      </c>
+      <c r="K11" s="298">
         <f t="shared" si="0"/>
-        <v>498.75</v>
+        <v>498750000</v>
       </c>
       <c r="L11" s="106">
         <v>1.5</v>
@@ -9489,12 +9499,12 @@
       <c r="G16" s="87" t="s">
         <v>314</v>
       </c>
-      <c r="H16" s="309" t="s">
+      <c r="H16" s="312" t="s">
         <v>443</v>
       </c>
-      <c r="I16" s="310"/>
-      <c r="J16" s="310"/>
-      <c r="K16" s="311"/>
+      <c r="I16" s="313"/>
+      <c r="J16" s="313"/>
+      <c r="K16" s="314"/>
       <c r="L16" s="207"/>
       <c r="M16" s="111" t="s">
         <v>351</v>
@@ -9518,17 +9528,17 @@
       <c r="G17" s="199">
         <v>100</v>
       </c>
-      <c r="H17" s="68">
-        <v>281.5</v>
-      </c>
-      <c r="I17" s="140">
-        <v>355.4</v>
-      </c>
-      <c r="J17" s="140">
-        <v>429.3</v>
-      </c>
-      <c r="K17" s="106">
-        <v>503.2</v>
+      <c r="H17" s="296">
+        <v>281500000</v>
+      </c>
+      <c r="I17" s="297">
+        <v>355400000</v>
+      </c>
+      <c r="J17" s="297">
+        <v>429300000</v>
+      </c>
+      <c r="K17" s="298">
+        <v>503200000</v>
       </c>
       <c r="L17" s="106">
         <v>1.8</v>
@@ -9618,21 +9628,21 @@
       <c r="G22" s="200">
         <v>100</v>
       </c>
-      <c r="H22" s="68">
+      <c r="H22" s="296">
         <f>H17*1.05</f>
-        <v>295.57499999999999</v>
-      </c>
-      <c r="I22" s="69">
+        <v>295575000</v>
+      </c>
+      <c r="I22" s="297">
         <f t="shared" ref="I22:K22" si="1">I17*1.05</f>
-        <v>373.17</v>
-      </c>
-      <c r="J22" s="69">
+        <v>373170000</v>
+      </c>
+      <c r="J22" s="297">
         <f t="shared" si="1"/>
-        <v>450.76500000000004</v>
-      </c>
-      <c r="K22" s="106">
+        <v>450765000</v>
+      </c>
+      <c r="K22" s="298">
         <f t="shared" si="1"/>
-        <v>528.36</v>
+        <v>528360000</v>
       </c>
       <c r="L22" s="106">
         <v>1.8</v>
@@ -9711,12 +9721,12 @@
       <c r="G27" s="87" t="s">
         <v>314</v>
       </c>
-      <c r="H27" s="309" t="s">
+      <c r="H27" s="312" t="s">
         <v>443</v>
       </c>
-      <c r="I27" s="310"/>
-      <c r="J27" s="310"/>
-      <c r="K27" s="311"/>
+      <c r="I27" s="313"/>
+      <c r="J27" s="313"/>
+      <c r="K27" s="314"/>
       <c r="L27" s="207"/>
       <c r="M27" s="111" t="s">
         <v>351</v>
@@ -9740,17 +9750,17 @@
       <c r="G28" s="199">
         <v>100</v>
       </c>
-      <c r="H28" s="68">
-        <v>422.2</v>
-      </c>
-      <c r="I28" s="140">
-        <v>533</v>
-      </c>
-      <c r="J28" s="140">
-        <v>644</v>
-      </c>
-      <c r="K28" s="106">
-        <v>754.8</v>
+      <c r="H28" s="296">
+        <v>422000000</v>
+      </c>
+      <c r="I28" s="297">
+        <v>533000000</v>
+      </c>
+      <c r="J28" s="297">
+        <v>644000000</v>
+      </c>
+      <c r="K28" s="298">
+        <v>754800000</v>
       </c>
       <c r="L28" s="106">
         <v>2</v>
@@ -9837,21 +9847,21 @@
       <c r="G33" s="200">
         <v>100</v>
       </c>
-      <c r="H33" s="68">
+      <c r="H33" s="296">
         <f>H28*1.05</f>
-        <v>443.31</v>
-      </c>
-      <c r="I33" s="69">
+        <v>443100000</v>
+      </c>
+      <c r="I33" s="297">
         <f t="shared" ref="I33:K33" si="2">I28*1.05</f>
-        <v>559.65</v>
-      </c>
-      <c r="J33" s="69">
+        <v>559650000</v>
+      </c>
+      <c r="J33" s="297">
         <f t="shared" si="2"/>
-        <v>676.2</v>
-      </c>
-      <c r="K33" s="106">
+        <v>676200000</v>
+      </c>
+      <c r="K33" s="298">
         <f t="shared" si="2"/>
-        <v>792.54</v>
+        <v>792540000</v>
       </c>
       <c r="L33" s="106">
         <v>2</v>
@@ -10573,8 +10583,8 @@
   </sheetPr>
   <dimension ref="A1:Q202"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10610,6 +10620,11 @@
         <v>429</v>
       </c>
     </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C3" s="234" t="s">
+        <v>744</v>
+      </c>
+    </row>
     <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="188" t="s">
         <v>702</v>
@@ -15419,7 +15434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F8057-C735-4662-BAA6-EEDCF7B57273}">
   <dimension ref="A2:AF204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="F36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
@@ -15559,34 +15574,34 @@
       <c r="F4" s="65" t="s">
         <v>336</v>
       </c>
-      <c r="G4" s="315" t="s">
+      <c r="G4" s="318" t="s">
         <v>337</v>
       </c>
-      <c r="H4" s="316"/>
-      <c r="I4" s="316"/>
-      <c r="J4" s="317"/>
-      <c r="K4" s="315" t="s">
+      <c r="H4" s="319"/>
+      <c r="I4" s="319"/>
+      <c r="J4" s="320"/>
+      <c r="K4" s="318" t="s">
         <v>338</v>
       </c>
-      <c r="L4" s="316"/>
-      <c r="M4" s="316"/>
-      <c r="N4" s="317"/>
-      <c r="O4" s="315" t="s">
+      <c r="L4" s="319"/>
+      <c r="M4" s="319"/>
+      <c r="N4" s="320"/>
+      <c r="O4" s="318" t="s">
         <v>339</v>
       </c>
-      <c r="P4" s="316"/>
-      <c r="Q4" s="316"/>
-      <c r="R4" s="317"/>
-      <c r="S4" s="315" t="s">
+      <c r="P4" s="319"/>
+      <c r="Q4" s="319"/>
+      <c r="R4" s="320"/>
+      <c r="S4" s="318" t="s">
         <v>340</v>
       </c>
-      <c r="T4" s="317"/>
-      <c r="U4" s="312" t="s">
+      <c r="T4" s="320"/>
+      <c r="U4" s="315" t="s">
         <v>341</v>
       </c>
-      <c r="V4" s="313"/>
-      <c r="W4" s="313"/>
-      <c r="X4" s="314"/>
+      <c r="V4" s="316"/>
+      <c r="W4" s="316"/>
+      <c r="X4" s="317"/>
       <c r="Y4" s="110"/>
       <c r="Z4" s="110"/>
       <c r="AA4" s="118" t="s">
@@ -15647,34 +15662,34 @@
       <c r="D6" s="88"/>
       <c r="E6" s="88"/>
       <c r="F6" s="89"/>
-      <c r="G6" s="309" t="s">
+      <c r="G6" s="312" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="310"/>
-      <c r="I6" s="310"/>
-      <c r="J6" s="311"/>
-      <c r="K6" s="310" t="s">
+      <c r="H6" s="313"/>
+      <c r="I6" s="313"/>
+      <c r="J6" s="314"/>
+      <c r="K6" s="313" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="310"/>
-      <c r="M6" s="310"/>
-      <c r="N6" s="311"/>
-      <c r="O6" s="309" t="s">
+      <c r="L6" s="313"/>
+      <c r="M6" s="313"/>
+      <c r="N6" s="314"/>
+      <c r="O6" s="312" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="310"/>
-      <c r="Q6" s="310"/>
-      <c r="R6" s="311"/>
-      <c r="S6" s="309" t="s">
+      <c r="P6" s="313"/>
+      <c r="Q6" s="313"/>
+      <c r="R6" s="314"/>
+      <c r="S6" s="312" t="s">
         <v>314</v>
       </c>
-      <c r="T6" s="311"/>
-      <c r="U6" s="309" t="s">
+      <c r="T6" s="314"/>
+      <c r="U6" s="312" t="s">
         <v>347</v>
       </c>
-      <c r="V6" s="310"/>
-      <c r="W6" s="310"/>
-      <c r="X6" s="311"/>
+      <c r="V6" s="313"/>
+      <c r="W6" s="313"/>
+      <c r="X6" s="314"/>
       <c r="Y6" s="111" t="s">
         <v>348</v>
       </c>
@@ -18646,34 +18661,34 @@
       <c r="F50" s="65" t="s">
         <v>336</v>
       </c>
-      <c r="G50" s="315" t="s">
+      <c r="G50" s="318" t="s">
         <v>337</v>
       </c>
-      <c r="H50" s="316"/>
-      <c r="I50" s="316"/>
-      <c r="J50" s="317"/>
-      <c r="K50" s="315" t="s">
+      <c r="H50" s="319"/>
+      <c r="I50" s="319"/>
+      <c r="J50" s="320"/>
+      <c r="K50" s="318" t="s">
         <v>338</v>
       </c>
-      <c r="L50" s="316"/>
-      <c r="M50" s="316"/>
-      <c r="N50" s="317"/>
-      <c r="O50" s="315" t="s">
+      <c r="L50" s="319"/>
+      <c r="M50" s="319"/>
+      <c r="N50" s="320"/>
+      <c r="O50" s="318" t="s">
         <v>339</v>
       </c>
-      <c r="P50" s="316"/>
-      <c r="Q50" s="316"/>
-      <c r="R50" s="317"/>
-      <c r="S50" s="315" t="s">
+      <c r="P50" s="319"/>
+      <c r="Q50" s="319"/>
+      <c r="R50" s="320"/>
+      <c r="S50" s="318" t="s">
         <v>340</v>
       </c>
-      <c r="T50" s="317"/>
-      <c r="U50" s="312" t="s">
+      <c r="T50" s="320"/>
+      <c r="U50" s="315" t="s">
         <v>341</v>
       </c>
-      <c r="V50" s="313"/>
-      <c r="W50" s="313"/>
-      <c r="X50" s="314"/>
+      <c r="V50" s="316"/>
+      <c r="W50" s="316"/>
+      <c r="X50" s="317"/>
       <c r="Y50" s="110"/>
       <c r="Z50" s="110"/>
       <c r="AA50" s="118" t="s">
@@ -18734,34 +18749,34 @@
       <c r="D52" s="88"/>
       <c r="E52" s="88"/>
       <c r="F52" s="89"/>
-      <c r="G52" s="309" t="s">
+      <c r="G52" s="312" t="s">
         <v>56</v>
       </c>
-      <c r="H52" s="310"/>
-      <c r="I52" s="310"/>
-      <c r="J52" s="311"/>
-      <c r="K52" s="310" t="s">
+      <c r="H52" s="313"/>
+      <c r="I52" s="313"/>
+      <c r="J52" s="314"/>
+      <c r="K52" s="313" t="s">
         <v>56</v>
       </c>
-      <c r="L52" s="310"/>
-      <c r="M52" s="310"/>
-      <c r="N52" s="311"/>
-      <c r="O52" s="309" t="s">
+      <c r="L52" s="313"/>
+      <c r="M52" s="313"/>
+      <c r="N52" s="314"/>
+      <c r="O52" s="312" t="s">
         <v>56</v>
       </c>
-      <c r="P52" s="310"/>
-      <c r="Q52" s="310"/>
-      <c r="R52" s="311"/>
-      <c r="S52" s="309" t="s">
+      <c r="P52" s="313"/>
+      <c r="Q52" s="313"/>
+      <c r="R52" s="314"/>
+      <c r="S52" s="312" t="s">
         <v>314</v>
       </c>
-      <c r="T52" s="311"/>
-      <c r="U52" s="309" t="s">
+      <c r="T52" s="314"/>
+      <c r="U52" s="312" t="s">
         <v>347</v>
       </c>
-      <c r="V52" s="310"/>
-      <c r="W52" s="310"/>
-      <c r="X52" s="311"/>
+      <c r="V52" s="313"/>
+      <c r="W52" s="313"/>
+      <c r="X52" s="314"/>
       <c r="Y52" s="111" t="s">
         <v>348</v>
       </c>
@@ -21733,34 +21748,34 @@
       <c r="F97" s="65" t="s">
         <v>336</v>
       </c>
-      <c r="G97" s="315" t="s">
+      <c r="G97" s="318" t="s">
         <v>337</v>
       </c>
-      <c r="H97" s="316"/>
-      <c r="I97" s="316"/>
-      <c r="J97" s="317"/>
-      <c r="K97" s="315" t="s">
+      <c r="H97" s="319"/>
+      <c r="I97" s="319"/>
+      <c r="J97" s="320"/>
+      <c r="K97" s="318" t="s">
         <v>338</v>
       </c>
-      <c r="L97" s="316"/>
-      <c r="M97" s="316"/>
-      <c r="N97" s="317"/>
-      <c r="O97" s="315" t="s">
+      <c r="L97" s="319"/>
+      <c r="M97" s="319"/>
+      <c r="N97" s="320"/>
+      <c r="O97" s="318" t="s">
         <v>339</v>
       </c>
-      <c r="P97" s="316"/>
-      <c r="Q97" s="316"/>
-      <c r="R97" s="317"/>
-      <c r="S97" s="315" t="s">
+      <c r="P97" s="319"/>
+      <c r="Q97" s="319"/>
+      <c r="R97" s="320"/>
+      <c r="S97" s="318" t="s">
         <v>340</v>
       </c>
-      <c r="T97" s="317"/>
-      <c r="U97" s="312" t="s">
+      <c r="T97" s="320"/>
+      <c r="U97" s="315" t="s">
         <v>341</v>
       </c>
-      <c r="V97" s="313"/>
-      <c r="W97" s="313"/>
-      <c r="X97" s="314"/>
+      <c r="V97" s="316"/>
+      <c r="W97" s="316"/>
+      <c r="X97" s="317"/>
       <c r="Y97" s="110"/>
       <c r="Z97" s="110"/>
       <c r="AA97" s="118" t="s">
@@ -21821,34 +21836,34 @@
       <c r="D99" s="88"/>
       <c r="E99" s="88"/>
       <c r="F99" s="89"/>
-      <c r="G99" s="309" t="s">
+      <c r="G99" s="312" t="s">
         <v>56</v>
       </c>
-      <c r="H99" s="310"/>
-      <c r="I99" s="310"/>
-      <c r="J99" s="311"/>
-      <c r="K99" s="310" t="s">
+      <c r="H99" s="313"/>
+      <c r="I99" s="313"/>
+      <c r="J99" s="314"/>
+      <c r="K99" s="313" t="s">
         <v>56</v>
       </c>
-      <c r="L99" s="310"/>
-      <c r="M99" s="310"/>
-      <c r="N99" s="311"/>
-      <c r="O99" s="309" t="s">
+      <c r="L99" s="313"/>
+      <c r="M99" s="313"/>
+      <c r="N99" s="314"/>
+      <c r="O99" s="312" t="s">
         <v>56</v>
       </c>
-      <c r="P99" s="310"/>
-      <c r="Q99" s="310"/>
-      <c r="R99" s="311"/>
-      <c r="S99" s="309" t="s">
+      <c r="P99" s="313"/>
+      <c r="Q99" s="313"/>
+      <c r="R99" s="314"/>
+      <c r="S99" s="312" t="s">
         <v>314</v>
       </c>
-      <c r="T99" s="311"/>
-      <c r="U99" s="309" t="s">
+      <c r="T99" s="314"/>
+      <c r="U99" s="312" t="s">
         <v>347</v>
       </c>
-      <c r="V99" s="310"/>
-      <c r="W99" s="310"/>
-      <c r="X99" s="311"/>
+      <c r="V99" s="313"/>
+      <c r="W99" s="313"/>
+      <c r="X99" s="314"/>
       <c r="Y99" s="111" t="s">
         <v>348</v>
       </c>
@@ -25858,12 +25873,12 @@
       <c r="I5" s="182"/>
       <c r="J5" s="182"/>
       <c r="K5" s="182"/>
-      <c r="L5" s="312" t="s">
+      <c r="L5" s="315" t="s">
         <v>341</v>
       </c>
-      <c r="M5" s="313"/>
-      <c r="N5" s="313"/>
-      <c r="O5" s="314"/>
+      <c r="M5" s="316"/>
+      <c r="N5" s="316"/>
+      <c r="O5" s="317"/>
       <c r="P5" s="110"/>
       <c r="Q5" s="110" t="s">
         <v>342</v>
@@ -25894,12 +25909,12 @@
       <c r="I6" s="87"/>
       <c r="J6" s="87"/>
       <c r="K6" s="87"/>
-      <c r="L6" s="309" t="s">
+      <c r="L6" s="312" t="s">
         <v>347</v>
       </c>
-      <c r="M6" s="310"/>
-      <c r="N6" s="310"/>
-      <c r="O6" s="311"/>
+      <c r="M6" s="313"/>
+      <c r="N6" s="313"/>
+      <c r="O6" s="314"/>
       <c r="P6" s="111" t="s">
         <v>348</v>
       </c>
@@ -26780,12 +26795,12 @@
       <c r="I4" s="182"/>
       <c r="J4" s="182"/>
       <c r="K4" s="182"/>
-      <c r="L4" s="312" t="s">
+      <c r="L4" s="315" t="s">
         <v>341</v>
       </c>
-      <c r="M4" s="313"/>
-      <c r="N4" s="313"/>
-      <c r="O4" s="314"/>
+      <c r="M4" s="316"/>
+      <c r="N4" s="316"/>
+      <c r="O4" s="317"/>
       <c r="P4" s="110"/>
       <c r="Q4" s="110" t="s">
         <v>342</v>
@@ -26809,12 +26824,12 @@
       <c r="I5" s="87"/>
       <c r="J5" s="87"/>
       <c r="K5" s="87"/>
-      <c r="L5" s="309" t="s">
+      <c r="L5" s="312" t="s">
         <v>347</v>
       </c>
-      <c r="M5" s="310"/>
-      <c r="N5" s="310"/>
-      <c r="O5" s="311"/>
+      <c r="M5" s="313"/>
+      <c r="N5" s="313"/>
+      <c r="O5" s="314"/>
       <c r="P5" s="111" t="s">
         <v>348</v>
       </c>

--- a/SubRES_TMPL/SubRes_RSD.xlsx
+++ b/SubRES_TMPL/SubRes_RSD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BDA242-A3E2-4021-9E95-86C49EA8818C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0778F0-A5B0-4C60-99F3-793415A290B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -9173,7 +9173,7 @@
   <dimension ref="A2:P103"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9325,7 +9325,7 @@
         <v>1.5</v>
       </c>
       <c r="M6" s="197">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.2">
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="M11" s="197">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.2">
@@ -9544,7 +9544,7 @@
         <v>1.8</v>
       </c>
       <c r="M17" s="197">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="O17" s="198" t="s">
         <v>452</v>
@@ -9648,7 +9648,7 @@
         <v>1.8</v>
       </c>
       <c r="M22" s="197">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.2">
@@ -9766,7 +9766,7 @@
         <v>2</v>
       </c>
       <c r="M28" s="197">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.2">
@@ -9867,7 +9867,7 @@
         <v>2</v>
       </c>
       <c r="M33" s="197">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -10583,7 +10583,7 @@
   </sheetPr>
   <dimension ref="A1:Q202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -15434,8 +15434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F8057-C735-4662-BAA6-EEDCF7B57273}">
   <dimension ref="A2:AF204"/>
   <sheetViews>
-    <sheetView topLeftCell="F36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K95" sqref="K95"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AF53" sqref="AF53:AF137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15732,19 +15732,19 @@
         <v>RSDSH_Apt</v>
       </c>
       <c r="G7" s="92">
-        <f ca="1">'[2]JRC Summary'!AD7</f>
+        <f>'[2]JRC Summary'!AD7</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H7" s="81">
-        <f ca="1">'[2]JRC Summary'!AE7</f>
+        <f>'[2]JRC Summary'!AE7</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I7" s="81">
-        <f ca="1">'[2]JRC Summary'!AF7</f>
+        <f>'[2]JRC Summary'!AF7</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J7" s="93">
-        <f ca="1">'[2]JRC Summary'!AG7</f>
+        <f>'[2]JRC Summary'!AG7</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K7" s="96"/>
@@ -15760,23 +15760,23 @@
       </c>
       <c r="T7" s="70"/>
       <c r="U7" s="68">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AA$5</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AA$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="V7" s="69">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$5</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="W7" s="69">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$5</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="X7" s="106">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$5</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="Y7" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$5</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$5</f>
         <v>1.3043478260869565</v>
       </c>
       <c r="Z7" s="115"/>
@@ -15790,7 +15790,7 @@
         <v>0.16</v>
       </c>
       <c r="AF7" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="8" spans="3:32" x14ac:dyDescent="0.2">
@@ -15810,19 +15810,19 @@
         <v>RSDSH_Apt,RSDWH_Apt</v>
       </c>
       <c r="G8" s="94">
-        <f ca="1">'[2]JRC Summary'!AD7</f>
+        <f>'[2]JRC Summary'!AD7</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H8" s="82">
-        <f ca="1">'[2]JRC Summary'!AE7</f>
+        <f>'[2]JRC Summary'!AE7</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I8" s="82">
-        <f ca="1">'[2]JRC Summary'!AF7</f>
+        <f>'[2]JRC Summary'!AF7</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J8" s="95">
-        <f ca="1">'[2]JRC Summary'!AG7</f>
+        <f>'[2]JRC Summary'!AG7</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K8" s="94"/>
@@ -15830,19 +15830,19 @@
       <c r="M8" s="82"/>
       <c r="N8" s="95"/>
       <c r="O8" s="94">
-        <f ca="1">G8*0.7</f>
+        <f>G8*0.7</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="P8" s="82">
-        <f t="shared" ref="P8" ca="1" si="0">H8*0.7</f>
+        <f t="shared" ref="P8" si="0">H8*0.7</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q8" s="82">
-        <f t="shared" ref="Q8" ca="1" si="1">I8*0.7</f>
+        <f t="shared" ref="Q8" si="1">I8*0.7</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="R8" s="95">
-        <f t="shared" ref="R8" ca="1" si="2">J8*0.7</f>
+        <f t="shared" ref="R8" si="2">J8*0.7</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="S8" s="103">
@@ -15850,23 +15850,23 @@
       </c>
       <c r="T8" s="74"/>
       <c r="U8" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AA$6</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AA$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="V8" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$6</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="W8" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$6</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="X8" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$6</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="Y8" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$6</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$6</f>
         <v>1.3043478260869565</v>
       </c>
       <c r="Z8" s="116"/>
@@ -15880,7 +15880,7 @@
         <v>0.16</v>
       </c>
       <c r="AF8" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="9" spans="3:32" x14ac:dyDescent="0.2">
@@ -15900,19 +15900,19 @@
         <v>RSDSH_Apt,RSDWH_Apt</v>
       </c>
       <c r="G9" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="H9" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="I9" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="J9" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="K9" s="92"/>
@@ -15920,19 +15920,19 @@
       <c r="M9" s="81"/>
       <c r="N9" s="93"/>
       <c r="O9" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="P9" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="Q9" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="R9" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="S9" s="104">
@@ -15967,7 +15967,7 @@
         <v>0.16</v>
       </c>
       <c r="AF9" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="10" spans="3:32" x14ac:dyDescent="0.2">
@@ -15987,19 +15987,19 @@
         <v>RSDSH_Apt,RSDWH_Apt</v>
       </c>
       <c r="G10" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$10</f>
         <v>0.80079999999999996</v>
       </c>
       <c r="H10" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="I10" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="J10" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="K10" s="94"/>
@@ -16007,19 +16007,19 @@
       <c r="M10" s="82"/>
       <c r="N10" s="95"/>
       <c r="O10" s="94">
-        <f ca="1">G10*0.7</f>
+        <f>G10*0.7</f>
         <v>0.56055999999999995</v>
       </c>
       <c r="P10" s="82">
-        <f t="shared" ref="P10:R10" ca="1" si="3">H10*0.7</f>
+        <f t="shared" ref="P10:R10" si="3">H10*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="Q10" s="82">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0.57455999999999996</v>
       </c>
       <c r="R10" s="95">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>0.57455999999999996</v>
       </c>
       <c r="S10" s="103">
@@ -16039,7 +16039,7 @@
         <v>93.035670457334589</v>
       </c>
       <c r="Y10" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$10</f>
         <v>5.3472429210134127</v>
       </c>
       <c r="Z10" s="116"/>
@@ -16055,7 +16055,7 @@
         <v>0.16</v>
       </c>
       <c r="AF10" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="11" spans="3:32" x14ac:dyDescent="0.2">
@@ -16075,19 +16075,19 @@
         <v>RSDSH_Apt</v>
       </c>
       <c r="G11" s="92">
-        <f ca="1">'[2]JRC Summary'!$AC$9</f>
+        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H11" s="81">
-        <f ca="1">'[2]JRC Summary'!$AD$9</f>
+        <f>'[2]JRC Summary'!$AD$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I11" s="81">
-        <f ca="1">'[2]JRC Summary'!$AC$9</f>
+        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J11" s="93">
-        <f ca="1">'[2]JRC Summary'!$AC$9</f>
+        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K11" s="92"/>
@@ -16103,23 +16103,23 @@
       </c>
       <c r="T11" s="91"/>
       <c r="U11" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AA$7</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AA$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V11" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$7</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W11" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$7</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X11" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$7</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y11" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$7</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$7</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z11" s="115"/>
@@ -16133,7 +16133,7 @@
         <v>0.16</v>
       </c>
       <c r="AF11" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="12" spans="3:32" x14ac:dyDescent="0.2">
@@ -16153,19 +16153,19 @@
         <v>RSDSH_Apt,RSDWH_Apt</v>
       </c>
       <c r="G12" s="94">
-        <f ca="1">'[2]JRC Summary'!$AC$9</f>
+        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H12" s="82">
-        <f ca="1">'[2]JRC Summary'!$AD$9</f>
+        <f>'[2]JRC Summary'!$AD$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I12" s="82">
-        <f ca="1">'[2]JRC Summary'!$AC$9</f>
+        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J12" s="95">
-        <f ca="1">'[2]JRC Summary'!$AC$9</f>
+        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K12" s="94"/>
@@ -16173,19 +16173,19 @@
       <c r="M12" s="82"/>
       <c r="N12" s="95"/>
       <c r="O12" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="P12" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q12" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="R12" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="S12" s="103">
@@ -16193,23 +16193,23 @@
       </c>
       <c r="T12" s="74"/>
       <c r="U12" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AA$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AA$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="V12" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="W12" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="X12" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="Y12" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$8</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z12" s="116"/>
@@ -16223,7 +16223,7 @@
         <v>0.16</v>
       </c>
       <c r="AF12" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="13" spans="3:32" x14ac:dyDescent="0.2">
@@ -16243,19 +16243,19 @@
         <v>RSDSH_Apt,RSDWH_Apt</v>
       </c>
       <c r="G13" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="H13" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="I13" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="J13" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="K13" s="92"/>
@@ -16263,19 +16263,19 @@
       <c r="M13" s="81"/>
       <c r="N13" s="93"/>
       <c r="O13" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="P13" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="Q13" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="R13" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="S13" s="104">
@@ -16283,23 +16283,23 @@
       </c>
       <c r="T13" s="91"/>
       <c r="U13" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AA$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AA$9</f>
         <v>325.38126012155396</v>
       </c>
       <c r="V13" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$9</f>
         <v>300.73704094347181</v>
       </c>
       <c r="W13" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$9</f>
         <v>251.44860258730745</v>
       </c>
       <c r="X13" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$9</f>
         <v>251.44860258730745</v>
       </c>
       <c r="Y13" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$9</f>
         <v>14.316939890710385</v>
       </c>
       <c r="Z13" s="115"/>
@@ -16315,7 +16315,7 @@
         <v>0.16</v>
       </c>
       <c r="AF13" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="14" spans="3:32" x14ac:dyDescent="0.2">
@@ -16335,19 +16335,19 @@
         <v>RSDSH_Apt,RSDWH_Apt</v>
       </c>
       <c r="G14" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$10</f>
         <v>0.80079999999999996</v>
       </c>
       <c r="H14" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="I14" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="J14" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="K14" s="94"/>
@@ -16355,19 +16355,19 @@
       <c r="M14" s="82"/>
       <c r="N14" s="95"/>
       <c r="O14" s="94">
-        <f ca="1">G14*0.7</f>
+        <f>G14*0.7</f>
         <v>0.56055999999999995</v>
       </c>
       <c r="P14" s="82">
-        <f t="shared" ref="P14:R14" ca="1" si="4">H14*0.7</f>
+        <f t="shared" ref="P14:R14" si="4">H14*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="Q14" s="82">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>0.57455999999999996</v>
       </c>
       <c r="R14" s="95">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>0.57455999999999996</v>
       </c>
       <c r="S14" s="103">
@@ -16375,23 +16375,23 @@
       </c>
       <c r="T14" s="74"/>
       <c r="U14" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AA$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AA$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="V14" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="W14" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="X14" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="Y14" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$10</f>
         <v>5.3472429210134127</v>
       </c>
       <c r="Z14" s="116"/>
@@ -16407,7 +16407,7 @@
         <v>0.16</v>
       </c>
       <c r="AF14" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.2">
@@ -16427,19 +16427,19 @@
         <v>RSDSH_Apt</v>
       </c>
       <c r="G15" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H15" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I15" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J15" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K15" s="92"/>
@@ -16455,23 +16455,23 @@
       </c>
       <c r="T15" s="91"/>
       <c r="U15" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V15" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W15" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X15" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y15" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$11</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z15" s="115"/>
@@ -16485,7 +16485,7 @@
         <v>0.16</v>
       </c>
       <c r="AF15" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="16" spans="3:32" x14ac:dyDescent="0.2">
@@ -16505,19 +16505,19 @@
         <v>RSDSH_Apt,RSDWH_Apt</v>
       </c>
       <c r="G16" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H16" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I16" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J16" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K16" s="94"/>
@@ -16525,19 +16525,19 @@
       <c r="M16" s="82"/>
       <c r="N16" s="95"/>
       <c r="O16" s="94">
-        <f ca="1">G16*0.7</f>
+        <f>G16*0.7</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="P16" s="82">
-        <f t="shared" ref="P16:R16" ca="1" si="5">H16*0.7</f>
+        <f t="shared" ref="P16:R16" si="5">H16*0.7</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q16" s="82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0.60759999999999992</v>
       </c>
       <c r="R16" s="95">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>0.60759999999999992</v>
       </c>
       <c r="S16" s="103">
@@ -16545,23 +16545,23 @@
       </c>
       <c r="T16" s="74"/>
       <c r="U16" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="V16" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="W16" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="X16" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="Y16" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$12</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z16" s="116"/>
@@ -16575,7 +16575,7 @@
         <v>0.16</v>
       </c>
       <c r="AF16" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="17" spans="3:32" x14ac:dyDescent="0.2">
@@ -16595,19 +16595,19 @@
         <v>RSDSH_Apt</v>
       </c>
       <c r="G17" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$13</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="H17" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$13</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="I17" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$13</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="J17" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$13</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="K17" s="92"/>
@@ -16627,7 +16627,7 @@
       <c r="W17" s="79"/>
       <c r="X17" s="108"/>
       <c r="Y17" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$13</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$13</f>
         <v>8.5714285714285712</v>
       </c>
       <c r="Z17" s="115"/>
@@ -16641,7 +16641,7 @@
         <v>0.16</v>
       </c>
       <c r="AF17" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="18" spans="3:32" x14ac:dyDescent="0.2">
@@ -16661,19 +16661,19 @@
         <v>RSDSH_Apt,RSDWH_Apt</v>
       </c>
       <c r="G18" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$14</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="H18" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$14</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="I18" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$14</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="J18" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$14</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="K18" s="99"/>
@@ -16681,19 +16681,19 @@
       <c r="M18" s="100"/>
       <c r="N18" s="101"/>
       <c r="O18" s="99">
-        <f ca="1">G18*0.7</f>
+        <f>G18*0.7</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="P18" s="100">
-        <f t="shared" ref="P18:R18" ca="1" si="6">H18*0.7</f>
+        <f t="shared" ref="P18:R18" si="6">H18*0.7</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="Q18" s="100">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>0.61949999999999994</v>
       </c>
       <c r="R18" s="101">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>0.61949999999999994</v>
       </c>
       <c r="S18" s="105">
@@ -16705,7 +16705,7 @@
       <c r="W18" s="76"/>
       <c r="X18" s="109"/>
       <c r="Y18" s="114">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$14</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$14</f>
         <v>8.5714285714285712</v>
       </c>
       <c r="Z18" s="117"/>
@@ -16718,8 +16718,8 @@
       <c r="AE18" s="116">
         <v>0.16</v>
       </c>
-      <c r="AF18" s="117">
-        <v>2018</v>
+      <c r="AF18" s="116">
+        <v>2019</v>
       </c>
     </row>
     <row r="19" spans="3:32" x14ac:dyDescent="0.2">
@@ -16801,23 +16801,23 @@
       </c>
       <c r="T20" s="129"/>
       <c r="U20" s="130">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$16</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$16</f>
         <v>185</v>
       </c>
       <c r="V20" s="131">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$16</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$16</f>
         <v>185</v>
       </c>
       <c r="W20" s="131">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$16</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$16</f>
         <v>185</v>
       </c>
       <c r="X20" s="132">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$16</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$16</f>
         <v>185</v>
       </c>
       <c r="Y20" s="133">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$16</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$16</f>
         <v>25</v>
       </c>
       <c r="Z20" s="134"/>
@@ -16830,8 +16830,8 @@
       <c r="AE20" s="116">
         <v>0.16</v>
       </c>
-      <c r="AF20" s="134">
-        <v>2018</v>
+      <c r="AF20" s="116">
+        <v>2019</v>
       </c>
     </row>
     <row r="21" spans="3:32" x14ac:dyDescent="0.2">
@@ -16913,23 +16913,23 @@
       </c>
       <c r="T22" s="81"/>
       <c r="U22" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$18</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$18</f>
         <v>606.94444444444434</v>
       </c>
       <c r="V22" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$18</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$18</f>
         <v>549.44444444444434</v>
       </c>
       <c r="W22" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$18</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$18</f>
         <v>523.8888888888888</v>
       </c>
       <c r="X22" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$18</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$18</f>
         <v>523.8888888888888</v>
       </c>
       <c r="Y22" s="136">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$18</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$18</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z22" s="136"/>
@@ -16943,7 +16943,7 @@
         <v>0.16</v>
       </c>
       <c r="AF22" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="23" spans="3:32" x14ac:dyDescent="0.2">
@@ -17003,23 +17003,23 @@
       </c>
       <c r="T23" s="82"/>
       <c r="U23" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$19</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$19</f>
         <v>637.29166666666663</v>
       </c>
       <c r="V23" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$19</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$19</f>
         <v>576.91666666666663</v>
       </c>
       <c r="W23" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$19</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$19</f>
         <v>550.08333333333326</v>
       </c>
       <c r="X23" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$19</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$19</f>
         <v>550.08333333333326</v>
       </c>
       <c r="Y23" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$19</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$19</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z23" s="113"/>
@@ -17033,7 +17033,7 @@
         <v>0.16</v>
       </c>
       <c r="AF23" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="24" spans="3:32" x14ac:dyDescent="0.2">
@@ -17053,19 +17053,19 @@
         <v>RSDSH_Apt</v>
       </c>
       <c r="G24" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$20</f>
         <v>3.3</v>
       </c>
       <c r="H24" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$20</f>
         <v>3.7</v>
       </c>
       <c r="I24" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$20</f>
         <v>4</v>
       </c>
       <c r="J24" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$20</f>
         <v>4</v>
       </c>
       <c r="K24" s="92"/>
@@ -17081,23 +17081,23 @@
       </c>
       <c r="T24" s="81"/>
       <c r="U24" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$20</f>
         <v>212.19058823529411</v>
       </c>
       <c r="V24" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$20</f>
         <v>212.19058823529411</v>
       </c>
       <c r="W24" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$20</f>
         <v>191.20470588235293</v>
       </c>
       <c r="X24" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$20</f>
         <v>191.20470588235293</v>
       </c>
       <c r="Y24" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$20</f>
         <v>7.0588235294117645</v>
       </c>
       <c r="Z24" s="112"/>
@@ -17111,7 +17111,7 @@
         <v>0.16</v>
       </c>
       <c r="AF24" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="25" spans="3:32" x14ac:dyDescent="0.2">
@@ -17131,19 +17131,19 @@
         <v>RSDSH_Apt,RSDWH_Apt</v>
       </c>
       <c r="G25" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$21</f>
         <v>3.3</v>
       </c>
       <c r="H25" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$21</f>
         <v>3.7</v>
       </c>
       <c r="I25" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$21</f>
         <v>4</v>
       </c>
       <c r="J25" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$21</f>
         <v>4</v>
       </c>
       <c r="K25" s="94"/>
@@ -17151,19 +17151,19 @@
       <c r="M25" s="82"/>
       <c r="N25" s="95"/>
       <c r="O25" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$21</f>
         <v>2.3099999999999996</v>
       </c>
       <c r="P25" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$Q$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$Q$21</f>
         <v>2.59</v>
       </c>
       <c r="Q25" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$R$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$R$21</f>
         <v>2.8</v>
       </c>
       <c r="R25" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$S$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$S$21</f>
         <v>2.8</v>
       </c>
       <c r="S25" s="103">
@@ -17171,23 +17171,23 @@
       </c>
       <c r="T25" s="82"/>
       <c r="U25" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$21</f>
         <v>382.30823529411765</v>
       </c>
       <c r="V25" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$21</f>
         <v>382.30823529411765</v>
       </c>
       <c r="W25" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$21</f>
         <v>361.32235294117646</v>
       </c>
       <c r="X25" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$21</f>
         <v>361.32235294117646</v>
       </c>
       <c r="Y25" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$21</f>
         <v>7.0588235294117645</v>
       </c>
       <c r="Z25" s="113"/>
@@ -17201,7 +17201,7 @@
         <v>0.16</v>
       </c>
       <c r="AF25" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="26" spans="3:32" x14ac:dyDescent="0.2">
@@ -17221,19 +17221,19 @@
         <v>RSDSH_Apt,RSDWH_Apt</v>
       </c>
       <c r="G26" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$22</f>
         <v>2.7249999999999996</v>
       </c>
       <c r="H26" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$22</f>
         <v>3.0250000000000004</v>
       </c>
       <c r="I26" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$22</f>
         <v>3.25</v>
       </c>
       <c r="J26" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$22</f>
         <v>3.25</v>
       </c>
       <c r="K26" s="92"/>
@@ -17241,19 +17241,19 @@
       <c r="M26" s="81"/>
       <c r="N26" s="93"/>
       <c r="O26" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$22</f>
         <v>1.393</v>
       </c>
       <c r="P26" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$Q$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$Q$22</f>
         <v>1.4770000000000001</v>
       </c>
       <c r="Q26" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$R$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$R$22</f>
         <v>1.54</v>
       </c>
       <c r="R26" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$S$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$S$22</f>
         <v>1.54</v>
       </c>
       <c r="S26" s="104">
@@ -17261,23 +17261,23 @@
       </c>
       <c r="T26" s="81"/>
       <c r="U26" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$22</f>
         <v>706.69359398496226</v>
       </c>
       <c r="V26" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$22</f>
         <v>682.09990977443601</v>
       </c>
       <c r="W26" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$22</f>
         <v>560.47566917293238</v>
       </c>
       <c r="X26" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$22</f>
         <v>560.47566917293238</v>
       </c>
       <c r="Y26" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$22</f>
         <v>18.980392156862745</v>
       </c>
       <c r="Z26" s="112"/>
@@ -17293,7 +17293,7 @@
         <v>0.16</v>
       </c>
       <c r="AF26" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="27" spans="3:32" x14ac:dyDescent="0.2">
@@ -17313,19 +17313,19 @@
         <v>RSDSH_Apt</v>
       </c>
       <c r="G27" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$23</f>
         <v>3.92</v>
       </c>
       <c r="H27" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$23</f>
         <v>3.92</v>
       </c>
       <c r="I27" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$23</f>
         <v>3.92</v>
       </c>
       <c r="J27" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$23</f>
         <v>3.92</v>
       </c>
       <c r="K27" s="94"/>
@@ -17341,19 +17341,19 @@
       </c>
       <c r="T27" s="82"/>
       <c r="U27" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$23</f>
         <v>806.67391304347848</v>
       </c>
       <c r="V27" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$23</f>
         <v>745.95652173913049</v>
       </c>
       <c r="W27" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$23</f>
         <v>685.23913043478274</v>
       </c>
       <c r="X27" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$23</f>
         <v>685.23913043478274</v>
       </c>
       <c r="Y27" s="113">
@@ -17371,7 +17371,7 @@
         <v>0.16</v>
       </c>
       <c r="AF27" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="28" spans="3:32" x14ac:dyDescent="0.2">
@@ -17391,35 +17391,35 @@
         <v>RSDSH_Apt,RSDSC_Apt</v>
       </c>
       <c r="G28" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$24</f>
         <v>3.92</v>
       </c>
       <c r="H28" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$24</f>
         <v>3.92</v>
       </c>
       <c r="I28" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$24</f>
         <v>3.92</v>
       </c>
       <c r="J28" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$24</f>
         <v>3.92</v>
       </c>
       <c r="K28" s="92">
-        <f ca="1">'[2]JRC Summary'!$AN$20</f>
+        <f>'[2]JRC Summary'!$AN$20</f>
         <v>4.5</v>
       </c>
       <c r="L28" s="81">
-        <f ca="1">'[2]JRC Summary'!$AO$20</f>
+        <f>'[2]JRC Summary'!$AO$20</f>
         <v>4.5</v>
       </c>
       <c r="M28" s="81">
-        <f ca="1">'[2]JRC Summary'!$AP$20</f>
+        <f>'[2]JRC Summary'!$AP$20</f>
         <v>4.5</v>
       </c>
       <c r="N28" s="93">
-        <f ca="1">'[2]JRC Summary'!$AQ$20</f>
+        <f>'[2]JRC Summary'!$AQ$20</f>
         <v>4.5</v>
       </c>
       <c r="O28" s="92"/>
@@ -17431,19 +17431,19 @@
       </c>
       <c r="T28" s="81"/>
       <c r="U28" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$24</f>
         <v>963.84782608695673</v>
       </c>
       <c r="V28" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$24</f>
         <v>903.13043478260863</v>
       </c>
       <c r="W28" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$24</f>
         <v>842.41304347826099</v>
       </c>
       <c r="X28" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$24</f>
         <v>842.41304347826099</v>
       </c>
       <c r="Y28" s="137">
@@ -17461,7 +17461,7 @@
         <v>0.16</v>
       </c>
       <c r="AF28" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="29" spans="3:32" x14ac:dyDescent="0.2">
@@ -17554,19 +17554,19 @@
       </c>
       <c r="T30" s="98"/>
       <c r="U30" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$25</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$25</f>
         <v>971.77777777777783</v>
       </c>
       <c r="V30" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$25</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$25</f>
         <v>860.66666666666663</v>
       </c>
       <c r="W30" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$25</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$25</f>
         <v>860.66666666666663</v>
       </c>
       <c r="X30" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$25</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$25</f>
         <v>860.66666666666663</v>
       </c>
       <c r="Y30" s="136">
@@ -17584,7 +17584,7 @@
         <v>0.16</v>
       </c>
       <c r="AF30" s="139">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="31" spans="3:32" x14ac:dyDescent="0.2">
@@ -17643,19 +17643,19 @@
       </c>
       <c r="T31" s="101"/>
       <c r="U31" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$26</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$26</f>
         <v>1065.68</v>
       </c>
       <c r="V31" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$26</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$26</f>
         <v>1065.68</v>
       </c>
       <c r="W31" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$26</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$26</f>
         <v>1065.68</v>
       </c>
       <c r="X31" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$26</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$26</f>
         <v>1065.68</v>
       </c>
       <c r="Y31" s="114">
@@ -17673,7 +17673,7 @@
         <v>0.16</v>
       </c>
       <c r="AF31" s="117">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="32" spans="3:32" x14ac:dyDescent="0.2">
@@ -17773,7 +17773,7 @@
         <v>1765</v>
       </c>
       <c r="Y33" s="1">
-        <f ca="1">Y24+Y11</f>
+        <f>Y24+Y11</f>
         <v>8.2883317261330767</v>
       </c>
       <c r="Z33" s="134"/>
@@ -17789,7 +17789,7 @@
         <v>0.16</v>
       </c>
       <c r="AF33" s="134">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="34" spans="3:32" x14ac:dyDescent="0.2">
@@ -17914,7 +17914,7 @@
         <v>0.16</v>
       </c>
       <c r="AF35" s="139">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="36" spans="3:32" x14ac:dyDescent="0.2">
@@ -18005,7 +18005,7 @@
         <v>0.16</v>
       </c>
       <c r="AF36" s="117">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="37" spans="3:32" x14ac:dyDescent="0.2">
@@ -18087,23 +18087,23 @@
       </c>
       <c r="T38" s="98"/>
       <c r="U38" s="68">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$74</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$74</f>
         <v>185</v>
       </c>
       <c r="V38" s="69">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$74</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$74</f>
         <v>185</v>
       </c>
       <c r="W38" s="69">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$74</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$74</f>
         <v>185</v>
       </c>
       <c r="X38" s="106">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$74</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$74</f>
         <v>185</v>
       </c>
       <c r="Y38" s="136">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$74</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$74</f>
         <v>25</v>
       </c>
       <c r="Z38" s="136"/>
@@ -18117,7 +18117,7 @@
         <v>0.16</v>
       </c>
       <c r="AF38" s="139">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="39" spans="3:32" x14ac:dyDescent="0.2">
@@ -18161,31 +18161,31 @@
         <v>1</v>
       </c>
       <c r="S39" s="103">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$T$75</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$T$75</f>
         <v>25</v>
       </c>
       <c r="T39" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$U$75</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$U$75</f>
         <v>30</v>
       </c>
       <c r="U39" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$75</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$75</f>
         <v>1582.3760000000002</v>
       </c>
       <c r="V39" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$75</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$75</f>
         <v>1514.231</v>
       </c>
       <c r="W39" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$75</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$75</f>
         <v>1214.3930000000003</v>
       </c>
       <c r="X39" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$75</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$75</f>
         <v>1214.3930000000003</v>
       </c>
       <c r="Y39" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$75</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$75</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z39" s="113"/>
@@ -18199,7 +18199,7 @@
         <v>0.16</v>
       </c>
       <c r="AF39" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="40" spans="3:32" x14ac:dyDescent="0.2">
@@ -18227,44 +18227,44 @@
       <c r="M40" s="81"/>
       <c r="N40" s="93"/>
       <c r="O40" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="P40" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$Q$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$Q$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q40" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$R$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$R$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="R40" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$S$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$S$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="S40" s="104">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$T$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$T$76</f>
         <v>20</v>
       </c>
       <c r="T40" s="93"/>
       <c r="U40" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V40" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W40" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X40" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y40" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$76</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z40" s="112"/>
@@ -18278,7 +18278,7 @@
         <v>0.16</v>
       </c>
       <c r="AF40" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="41" spans="3:32" x14ac:dyDescent="0.2">
@@ -18306,19 +18306,19 @@
       <c r="M41" s="82"/>
       <c r="N41" s="95"/>
       <c r="O41" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="P41" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$Q$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$Q$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="Q41" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$R$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$R$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="R41" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$S$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$S$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="S41" s="103">
@@ -18327,23 +18327,23 @@
       </c>
       <c r="T41" s="95"/>
       <c r="U41" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="V41" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="W41" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="X41" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="Y41" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$77</f>
         <v>8.5714285714285712</v>
       </c>
       <c r="Z41" s="113"/>
@@ -18357,7 +18357,7 @@
         <v>0.16</v>
       </c>
       <c r="AF41" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="42" spans="3:32" x14ac:dyDescent="0.2">
@@ -18385,44 +18385,44 @@
       <c r="M42" s="81"/>
       <c r="N42" s="93"/>
       <c r="O42" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="P42" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$Q$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$Q$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q42" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$R$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$R$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="R42" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$S$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$S$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="S42" s="152">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$T$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$T$78</f>
         <v>20</v>
       </c>
       <c r="T42" s="153"/>
       <c r="U42" s="145">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V42" s="141">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W42" s="141">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X42" s="146">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y42" s="137">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$78</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z42" s="137"/>
@@ -18436,7 +18436,7 @@
         <v>0.16</v>
       </c>
       <c r="AF42" s="142">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="43" spans="3:32" x14ac:dyDescent="0.2">
@@ -18518,23 +18518,23 @@
       </c>
       <c r="T44" s="151"/>
       <c r="U44" s="147">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$80</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$80</f>
         <v>873.99999999999977</v>
       </c>
       <c r="V44" s="148">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$80</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$80</f>
         <v>791.19999999999993</v>
       </c>
       <c r="W44" s="148">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$80</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$80</f>
         <v>754.39999999999986</v>
       </c>
       <c r="X44" s="149">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$80</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$80</f>
         <v>754.39999999999986</v>
       </c>
       <c r="Y44" s="144">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$80</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$80</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z44" s="144"/>
@@ -18548,7 +18548,7 @@
         <v>0.16</v>
       </c>
       <c r="AF44" s="143">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="48" spans="3:32" x14ac:dyDescent="0.2">
@@ -18847,23 +18847,23 @@
       </c>
       <c r="T53" s="70"/>
       <c r="U53" s="68">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AA$5</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AA$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="V53" s="69">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$5</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="W53" s="69">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$5</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="X53" s="106">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$5</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="Y53" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$5</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$5</f>
         <v>1.3043478260869565</v>
       </c>
       <c r="Z53" s="115"/>
@@ -18877,7 +18877,7 @@
         <v>0.16</v>
       </c>
       <c r="AF53" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="54" spans="3:32" x14ac:dyDescent="0.2">
@@ -18937,23 +18937,23 @@
       </c>
       <c r="T54" s="74"/>
       <c r="U54" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AA$6</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AA$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="V54" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$6</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="W54" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$6</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="X54" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$6</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="Y54" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$6</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$6</f>
         <v>1.3043478260869565</v>
       </c>
       <c r="Z54" s="116"/>
@@ -18967,7 +18967,7 @@
         <v>0.16</v>
       </c>
       <c r="AF54" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="55" spans="3:32" x14ac:dyDescent="0.2">
@@ -18987,19 +18987,19 @@
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="G55" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="H55" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="I55" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="J55" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="K55" s="92"/>
@@ -19007,19 +19007,19 @@
       <c r="M55" s="81"/>
       <c r="N55" s="93"/>
       <c r="O55" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="P55" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="Q55" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="R55" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="S55" s="104">
@@ -19054,7 +19054,7 @@
         <v>0.16</v>
       </c>
       <c r="AF55" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="56" spans="3:32" x14ac:dyDescent="0.2">
@@ -19074,19 +19074,19 @@
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="G56" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$10</f>
         <v>0.80079999999999996</v>
       </c>
       <c r="H56" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="I56" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="J56" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="K56" s="94"/>
@@ -19094,19 +19094,19 @@
       <c r="M56" s="82"/>
       <c r="N56" s="95"/>
       <c r="O56" s="94">
-        <f ca="1">G56*0.7</f>
+        <f>G56*0.7</f>
         <v>0.56055999999999995</v>
       </c>
       <c r="P56" s="82">
-        <f t="shared" ref="P56" ca="1" si="15">H56*0.7</f>
+        <f t="shared" ref="P56" si="15">H56*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="Q56" s="82">
-        <f t="shared" ref="Q56" ca="1" si="16">I56*0.7</f>
+        <f t="shared" ref="Q56" si="16">I56*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="R56" s="95">
-        <f t="shared" ref="R56" ca="1" si="17">J56*0.7</f>
+        <f t="shared" ref="R56" si="17">J56*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="S56" s="103">
@@ -19126,7 +19126,7 @@
         <v>93.035670457334589</v>
       </c>
       <c r="Y56" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$10</f>
         <v>5.3472429210134127</v>
       </c>
       <c r="Z56" s="116"/>
@@ -19142,7 +19142,7 @@
         <v>0.16</v>
       </c>
       <c r="AF56" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="57" spans="3:32" x14ac:dyDescent="0.2">
@@ -19162,19 +19162,19 @@
         <v>RSDSH_Att</v>
       </c>
       <c r="G57" s="92">
-        <f ca="1">'[2]JRC Summary'!$AC$9</f>
+        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H57" s="81">
-        <f ca="1">'[2]JRC Summary'!$AD$9</f>
+        <f>'[2]JRC Summary'!$AD$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I57" s="81">
-        <f ca="1">'[2]JRC Summary'!$AC$9</f>
+        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J57" s="93">
-        <f ca="1">'[2]JRC Summary'!$AC$9</f>
+        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K57" s="92"/>
@@ -19190,23 +19190,23 @@
       </c>
       <c r="T57" s="91"/>
       <c r="U57" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AA$7</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AA$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V57" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$7</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W57" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$7</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X57" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$7</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y57" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$7</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$7</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z57" s="115"/>
@@ -19220,7 +19220,7 @@
         <v>0.16</v>
       </c>
       <c r="AF57" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="58" spans="3:32" x14ac:dyDescent="0.2">
@@ -19240,19 +19240,19 @@
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="G58" s="94">
-        <f ca="1">'[2]JRC Summary'!$AC$9</f>
+        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H58" s="82">
-        <f ca="1">'[2]JRC Summary'!$AD$9</f>
+        <f>'[2]JRC Summary'!$AD$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I58" s="82">
-        <f ca="1">'[2]JRC Summary'!$AC$9</f>
+        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J58" s="95">
-        <f ca="1">'[2]JRC Summary'!$AC$9</f>
+        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K58" s="94"/>
@@ -19260,19 +19260,19 @@
       <c r="M58" s="82"/>
       <c r="N58" s="95"/>
       <c r="O58" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="P58" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q58" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="R58" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="S58" s="103">
@@ -19280,23 +19280,23 @@
       </c>
       <c r="T58" s="74"/>
       <c r="U58" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AA$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AA$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="V58" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="W58" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="X58" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="Y58" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$8</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z58" s="116"/>
@@ -19310,7 +19310,7 @@
         <v>0.16</v>
       </c>
       <c r="AF58" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="59" spans="3:32" x14ac:dyDescent="0.2">
@@ -19330,19 +19330,19 @@
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="G59" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="H59" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="I59" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="J59" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="K59" s="92"/>
@@ -19350,19 +19350,19 @@
       <c r="M59" s="81"/>
       <c r="N59" s="93"/>
       <c r="O59" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="P59" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="Q59" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="R59" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="S59" s="104">
@@ -19370,23 +19370,23 @@
       </c>
       <c r="T59" s="91"/>
       <c r="U59" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AA$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AA$9</f>
         <v>325.38126012155396</v>
       </c>
       <c r="V59" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$9</f>
         <v>300.73704094347181</v>
       </c>
       <c r="W59" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$9</f>
         <v>251.44860258730745</v>
       </c>
       <c r="X59" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$9</f>
         <v>251.44860258730745</v>
       </c>
       <c r="Y59" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$9</f>
         <v>14.316939890710385</v>
       </c>
       <c r="Z59" s="115"/>
@@ -19402,7 +19402,7 @@
         <v>0.16</v>
       </c>
       <c r="AF59" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="60" spans="3:32" x14ac:dyDescent="0.2">
@@ -19422,19 +19422,19 @@
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="G60" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$10</f>
         <v>0.80079999999999996</v>
       </c>
       <c r="H60" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="I60" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="J60" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="K60" s="94"/>
@@ -19442,19 +19442,19 @@
       <c r="M60" s="82"/>
       <c r="N60" s="95"/>
       <c r="O60" s="94">
-        <f ca="1">G60*0.7</f>
+        <f>G60*0.7</f>
         <v>0.56055999999999995</v>
       </c>
       <c r="P60" s="82">
-        <f t="shared" ref="P60" ca="1" si="18">H60*0.7</f>
+        <f t="shared" ref="P60" si="18">H60*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="Q60" s="82">
-        <f t="shared" ref="Q60" ca="1" si="19">I60*0.7</f>
+        <f t="shared" ref="Q60" si="19">I60*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="R60" s="95">
-        <f t="shared" ref="R60" ca="1" si="20">J60*0.7</f>
+        <f t="shared" ref="R60" si="20">J60*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="S60" s="103">
@@ -19462,23 +19462,23 @@
       </c>
       <c r="T60" s="74"/>
       <c r="U60" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AA$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AA$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="V60" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="W60" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="X60" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="Y60" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$10</f>
         <v>5.3472429210134127</v>
       </c>
       <c r="Z60" s="116"/>
@@ -19494,7 +19494,7 @@
         <v>0.16</v>
       </c>
       <c r="AF60" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="61" spans="3:32" x14ac:dyDescent="0.2">
@@ -19514,19 +19514,19 @@
         <v>RSDSH_Att</v>
       </c>
       <c r="G61" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H61" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I61" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J61" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K61" s="92"/>
@@ -19542,23 +19542,23 @@
       </c>
       <c r="T61" s="91"/>
       <c r="U61" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V61" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W61" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X61" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y61" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$11</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z61" s="115"/>
@@ -19572,7 +19572,7 @@
         <v>0.16</v>
       </c>
       <c r="AF61" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="62" spans="3:32" x14ac:dyDescent="0.2">
@@ -19592,19 +19592,19 @@
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="G62" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H62" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I62" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J62" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K62" s="94"/>
@@ -19612,19 +19612,19 @@
       <c r="M62" s="82"/>
       <c r="N62" s="95"/>
       <c r="O62" s="94">
-        <f ca="1">G62*0.7</f>
+        <f>G62*0.7</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="P62" s="82">
-        <f t="shared" ref="P62" ca="1" si="21">H62*0.7</f>
+        <f t="shared" ref="P62" si="21">H62*0.7</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q62" s="82">
-        <f t="shared" ref="Q62" ca="1" si="22">I62*0.7</f>
+        <f t="shared" ref="Q62" si="22">I62*0.7</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="R62" s="95">
-        <f t="shared" ref="R62" ca="1" si="23">J62*0.7</f>
+        <f t="shared" ref="R62" si="23">J62*0.7</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="S62" s="103">
@@ -19632,23 +19632,23 @@
       </c>
       <c r="T62" s="74"/>
       <c r="U62" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="V62" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="W62" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="X62" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="Y62" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$12</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z62" s="116"/>
@@ -19662,7 +19662,7 @@
         <v>0.16</v>
       </c>
       <c r="AF62" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="63" spans="3:32" x14ac:dyDescent="0.2">
@@ -19682,19 +19682,19 @@
         <v>RSDSH_Att</v>
       </c>
       <c r="G63" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$13</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="H63" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$13</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="I63" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$13</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="J63" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$13</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="K63" s="92"/>
@@ -19714,7 +19714,7 @@
       <c r="W63" s="79"/>
       <c r="X63" s="108"/>
       <c r="Y63" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$13</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$13</f>
         <v>8.5714285714285712</v>
       </c>
       <c r="Z63" s="115"/>
@@ -19728,7 +19728,7 @@
         <v>0.16</v>
       </c>
       <c r="AF63" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="64" spans="3:32" x14ac:dyDescent="0.2">
@@ -19748,19 +19748,19 @@
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="G64" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$14</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="H64" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$14</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="I64" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$14</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="J64" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$14</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="K64" s="99"/>
@@ -19768,19 +19768,19 @@
       <c r="M64" s="100"/>
       <c r="N64" s="101"/>
       <c r="O64" s="99">
-        <f ca="1">G64*0.7</f>
+        <f>G64*0.7</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="P64" s="100">
-        <f t="shared" ref="P64" ca="1" si="24">H64*0.7</f>
+        <f t="shared" ref="P64" si="24">H64*0.7</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="Q64" s="100">
-        <f t="shared" ref="Q64" ca="1" si="25">I64*0.7</f>
+        <f t="shared" ref="Q64" si="25">I64*0.7</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="R64" s="101">
-        <f t="shared" ref="R64" ca="1" si="26">J64*0.7</f>
+        <f t="shared" ref="R64" si="26">J64*0.7</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="S64" s="105">
@@ -19792,7 +19792,7 @@
       <c r="W64" s="76"/>
       <c r="X64" s="109"/>
       <c r="Y64" s="114">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$14</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$14</f>
         <v>8.5714285714285712</v>
       </c>
       <c r="Z64" s="117"/>
@@ -19806,7 +19806,7 @@
         <v>0.16</v>
       </c>
       <c r="AF64" s="117">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="65" spans="3:32" x14ac:dyDescent="0.2">
@@ -19888,23 +19888,23 @@
       </c>
       <c r="T66" s="129"/>
       <c r="U66" s="130">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$16</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$16</f>
         <v>185</v>
       </c>
       <c r="V66" s="131">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$16</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$16</f>
         <v>185</v>
       </c>
       <c r="W66" s="131">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$16</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$16</f>
         <v>185</v>
       </c>
       <c r="X66" s="132">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$16</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$16</f>
         <v>185</v>
       </c>
       <c r="Y66" s="133">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$16</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$16</f>
         <v>25</v>
       </c>
       <c r="Z66" s="134"/>
@@ -19918,7 +19918,7 @@
         <v>0.16</v>
       </c>
       <c r="AF66" s="134">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="67" spans="3:32" x14ac:dyDescent="0.2">
@@ -20000,23 +20000,23 @@
       </c>
       <c r="T68" s="81"/>
       <c r="U68" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$18</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$18</f>
         <v>606.94444444444434</v>
       </c>
       <c r="V68" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$18</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$18</f>
         <v>549.44444444444434</v>
       </c>
       <c r="W68" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$18</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$18</f>
         <v>523.8888888888888</v>
       </c>
       <c r="X68" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$18</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$18</f>
         <v>523.8888888888888</v>
       </c>
       <c r="Y68" s="136">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$18</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$18</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z68" s="136"/>
@@ -20030,7 +20030,7 @@
         <v>0.16</v>
       </c>
       <c r="AF68" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="69" spans="3:32" x14ac:dyDescent="0.2">
@@ -20090,23 +20090,23 @@
       </c>
       <c r="T69" s="82"/>
       <c r="U69" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$19</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$19</f>
         <v>637.29166666666663</v>
       </c>
       <c r="V69" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$19</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$19</f>
         <v>576.91666666666663</v>
       </c>
       <c r="W69" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$19</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$19</f>
         <v>550.08333333333326</v>
       </c>
       <c r="X69" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$19</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$19</f>
         <v>550.08333333333326</v>
       </c>
       <c r="Y69" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$19</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$19</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z69" s="113"/>
@@ -20120,7 +20120,7 @@
         <v>0.16</v>
       </c>
       <c r="AF69" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="70" spans="3:32" x14ac:dyDescent="0.2">
@@ -20140,19 +20140,19 @@
         <v>RSDSH_Att</v>
       </c>
       <c r="G70" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$20</f>
         <v>3.3</v>
       </c>
       <c r="H70" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$20</f>
         <v>3.7</v>
       </c>
       <c r="I70" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$20</f>
         <v>4</v>
       </c>
       <c r="J70" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$20</f>
         <v>4</v>
       </c>
       <c r="K70" s="92"/>
@@ -20168,23 +20168,23 @@
       </c>
       <c r="T70" s="81"/>
       <c r="U70" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$20</f>
         <v>212.19058823529411</v>
       </c>
       <c r="V70" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$20</f>
         <v>212.19058823529411</v>
       </c>
       <c r="W70" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$20</f>
         <v>191.20470588235293</v>
       </c>
       <c r="X70" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$20</f>
         <v>191.20470588235293</v>
       </c>
       <c r="Y70" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$20</f>
         <v>7.0588235294117645</v>
       </c>
       <c r="Z70" s="112"/>
@@ -20198,7 +20198,7 @@
         <v>0.16</v>
       </c>
       <c r="AF70" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="71" spans="3:32" x14ac:dyDescent="0.2">
@@ -20218,19 +20218,19 @@
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="G71" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$21</f>
         <v>3.3</v>
       </c>
       <c r="H71" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$21</f>
         <v>3.7</v>
       </c>
       <c r="I71" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$21</f>
         <v>4</v>
       </c>
       <c r="J71" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$21</f>
         <v>4</v>
       </c>
       <c r="K71" s="94"/>
@@ -20238,19 +20238,19 @@
       <c r="M71" s="82"/>
       <c r="N71" s="95"/>
       <c r="O71" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$21</f>
         <v>2.3099999999999996</v>
       </c>
       <c r="P71" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$Q$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$Q$21</f>
         <v>2.59</v>
       </c>
       <c r="Q71" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$R$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$R$21</f>
         <v>2.8</v>
       </c>
       <c r="R71" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$S$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$S$21</f>
         <v>2.8</v>
       </c>
       <c r="S71" s="103">
@@ -20258,23 +20258,23 @@
       </c>
       <c r="T71" s="82"/>
       <c r="U71" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$21</f>
         <v>382.30823529411765</v>
       </c>
       <c r="V71" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$21</f>
         <v>382.30823529411765</v>
       </c>
       <c r="W71" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$21</f>
         <v>361.32235294117646</v>
       </c>
       <c r="X71" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$21</f>
         <v>361.32235294117646</v>
       </c>
       <c r="Y71" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$21</f>
         <v>7.0588235294117645</v>
       </c>
       <c r="Z71" s="113"/>
@@ -20288,7 +20288,7 @@
         <v>0.16</v>
       </c>
       <c r="AF71" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="72" spans="3:32" x14ac:dyDescent="0.2">
@@ -20308,19 +20308,19 @@
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="G72" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$22</f>
         <v>2.7249999999999996</v>
       </c>
       <c r="H72" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$22</f>
         <v>3.0250000000000004</v>
       </c>
       <c r="I72" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$22</f>
         <v>3.25</v>
       </c>
       <c r="J72" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$22</f>
         <v>3.25</v>
       </c>
       <c r="K72" s="92"/>
@@ -20328,19 +20328,19 @@
       <c r="M72" s="81"/>
       <c r="N72" s="93"/>
       <c r="O72" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$22</f>
         <v>1.393</v>
       </c>
       <c r="P72" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$Q$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$Q$22</f>
         <v>1.4770000000000001</v>
       </c>
       <c r="Q72" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$R$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$R$22</f>
         <v>1.54</v>
       </c>
       <c r="R72" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$S$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$S$22</f>
         <v>1.54</v>
       </c>
       <c r="S72" s="104">
@@ -20348,23 +20348,23 @@
       </c>
       <c r="T72" s="81"/>
       <c r="U72" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$22</f>
         <v>706.69359398496226</v>
       </c>
       <c r="V72" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$22</f>
         <v>682.09990977443601</v>
       </c>
       <c r="W72" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$22</f>
         <v>560.47566917293238</v>
       </c>
       <c r="X72" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$22</f>
         <v>560.47566917293238</v>
       </c>
       <c r="Y72" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$22</f>
         <v>18.980392156862745</v>
       </c>
       <c r="Z72" s="112"/>
@@ -20380,7 +20380,7 @@
         <v>0.16</v>
       </c>
       <c r="AF72" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="73" spans="3:32" x14ac:dyDescent="0.2">
@@ -20400,19 +20400,19 @@
         <v>RSDSH_Att</v>
       </c>
       <c r="G73" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$23</f>
         <v>3.92</v>
       </c>
       <c r="H73" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$23</f>
         <v>3.92</v>
       </c>
       <c r="I73" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$23</f>
         <v>3.92</v>
       </c>
       <c r="J73" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$23</f>
         <v>3.92</v>
       </c>
       <c r="K73" s="94"/>
@@ -20428,19 +20428,19 @@
       </c>
       <c r="T73" s="82"/>
       <c r="U73" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$23</f>
         <v>806.67391304347848</v>
       </c>
       <c r="V73" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$23</f>
         <v>745.95652173913049</v>
       </c>
       <c r="W73" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$23</f>
         <v>685.23913043478274</v>
       </c>
       <c r="X73" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$23</f>
         <v>685.23913043478274</v>
       </c>
       <c r="Y73" s="113">
@@ -20458,7 +20458,7 @@
         <v>0.16</v>
       </c>
       <c r="AF73" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="74" spans="3:32" x14ac:dyDescent="0.2">
@@ -20478,35 +20478,35 @@
         <v>RSDSH_Att,RSDSC_Att</v>
       </c>
       <c r="G74" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$24</f>
         <v>3.92</v>
       </c>
       <c r="H74" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$24</f>
         <v>3.92</v>
       </c>
       <c r="I74" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$24</f>
         <v>3.92</v>
       </c>
       <c r="J74" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$24</f>
         <v>3.92</v>
       </c>
       <c r="K74" s="92">
-        <f ca="1">'[2]JRC Summary'!$AN$20</f>
+        <f>'[2]JRC Summary'!$AN$20</f>
         <v>4.5</v>
       </c>
       <c r="L74" s="81">
-        <f ca="1">'[2]JRC Summary'!$AO$20</f>
+        <f>'[2]JRC Summary'!$AO$20</f>
         <v>4.5</v>
       </c>
       <c r="M74" s="81">
-        <f ca="1">'[2]JRC Summary'!$AP$20</f>
+        <f>'[2]JRC Summary'!$AP$20</f>
         <v>4.5</v>
       </c>
       <c r="N74" s="93">
-        <f ca="1">'[2]JRC Summary'!$AQ$20</f>
+        <f>'[2]JRC Summary'!$AQ$20</f>
         <v>4.5</v>
       </c>
       <c r="O74" s="92"/>
@@ -20518,19 +20518,19 @@
       </c>
       <c r="T74" s="81"/>
       <c r="U74" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$24</f>
         <v>963.84782608695673</v>
       </c>
       <c r="V74" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$24</f>
         <v>903.13043478260863</v>
       </c>
       <c r="W74" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$24</f>
         <v>842.41304347826099</v>
       </c>
       <c r="X74" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$24</f>
         <v>842.41304347826099</v>
       </c>
       <c r="Y74" s="137">
@@ -20548,7 +20548,7 @@
         <v>0.16</v>
       </c>
       <c r="AF74" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="75" spans="3:32" x14ac:dyDescent="0.2">
@@ -20641,19 +20641,19 @@
       </c>
       <c r="T76" s="98"/>
       <c r="U76" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$25</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$25</f>
         <v>971.77777777777783</v>
       </c>
       <c r="V76" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$25</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$25</f>
         <v>860.66666666666663</v>
       </c>
       <c r="W76" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$25</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$25</f>
         <v>860.66666666666663</v>
       </c>
       <c r="X76" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$25</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$25</f>
         <v>860.66666666666663</v>
       </c>
       <c r="Y76" s="136">
@@ -20671,7 +20671,7 @@
         <v>0.16</v>
       </c>
       <c r="AF76" s="139">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="77" spans="3:32" x14ac:dyDescent="0.2">
@@ -20730,19 +20730,19 @@
       </c>
       <c r="T77" s="101"/>
       <c r="U77" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$26</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$26</f>
         <v>1065.68</v>
       </c>
       <c r="V77" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$26</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$26</f>
         <v>1065.68</v>
       </c>
       <c r="W77" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$26</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$26</f>
         <v>1065.68</v>
       </c>
       <c r="X77" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$26</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$26</f>
         <v>1065.68</v>
       </c>
       <c r="Y77" s="114">
@@ -20760,7 +20760,7 @@
         <v>0.16</v>
       </c>
       <c r="AF77" s="117">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="78" spans="3:32" x14ac:dyDescent="0.2">
@@ -20860,7 +20860,7 @@
         <v>1765</v>
       </c>
       <c r="Y79" s="1">
-        <f ca="1">Y70+Y57</f>
+        <f>Y70+Y57</f>
         <v>8.2883317261330767</v>
       </c>
       <c r="Z79" s="134"/>
@@ -20876,7 +20876,7 @@
         <v>0.16</v>
       </c>
       <c r="AF79" s="134">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="80" spans="3:32" x14ac:dyDescent="0.2">
@@ -21001,7 +21001,7 @@
         <v>0.16</v>
       </c>
       <c r="AF81" s="139">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="82" spans="3:32" x14ac:dyDescent="0.2">
@@ -21092,7 +21092,7 @@
         <v>0.16</v>
       </c>
       <c r="AF82" s="117">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="83" spans="3:32" x14ac:dyDescent="0.2">
@@ -21174,23 +21174,23 @@
       </c>
       <c r="T84" s="98"/>
       <c r="U84" s="68">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$74</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$74</f>
         <v>185</v>
       </c>
       <c r="V84" s="69">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$74</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$74</f>
         <v>185</v>
       </c>
       <c r="W84" s="69">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$74</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$74</f>
         <v>185</v>
       </c>
       <c r="X84" s="106">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$74</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$74</f>
         <v>185</v>
       </c>
       <c r="Y84" s="136">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$74</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$74</f>
         <v>25</v>
       </c>
       <c r="Z84" s="136"/>
@@ -21204,7 +21204,7 @@
         <v>0.16</v>
       </c>
       <c r="AF84" s="139">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="85" spans="3:32" x14ac:dyDescent="0.2">
@@ -21248,31 +21248,31 @@
         <v>1</v>
       </c>
       <c r="S85" s="103">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$T$75</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$T$75</f>
         <v>25</v>
       </c>
       <c r="T85" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$U$75</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$U$75</f>
         <v>30</v>
       </c>
       <c r="U85" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$75</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$75</f>
         <v>1582.3760000000002</v>
       </c>
       <c r="V85" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$75</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$75</f>
         <v>1514.231</v>
       </c>
       <c r="W85" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$75</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$75</f>
         <v>1214.3930000000003</v>
       </c>
       <c r="X85" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$75</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$75</f>
         <v>1214.3930000000003</v>
       </c>
       <c r="Y85" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$75</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$75</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z85" s="113"/>
@@ -21286,7 +21286,7 @@
         <v>0.16</v>
       </c>
       <c r="AF85" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="86" spans="3:32" x14ac:dyDescent="0.2">
@@ -21314,44 +21314,44 @@
       <c r="M86" s="81"/>
       <c r="N86" s="93"/>
       <c r="O86" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="P86" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$Q$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$Q$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q86" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$R$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$R$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="R86" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$S$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$S$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="S86" s="104">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$T$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$T$76</f>
         <v>20</v>
       </c>
       <c r="T86" s="93"/>
       <c r="U86" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V86" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W86" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X86" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y86" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$76</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z86" s="112"/>
@@ -21365,7 +21365,7 @@
         <v>0.16</v>
       </c>
       <c r="AF86" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="87" spans="3:32" x14ac:dyDescent="0.2">
@@ -21393,19 +21393,19 @@
       <c r="M87" s="82"/>
       <c r="N87" s="95"/>
       <c r="O87" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="P87" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$Q$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$Q$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="Q87" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$R$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$R$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="R87" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$S$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$S$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="S87" s="103">
@@ -21414,23 +21414,23 @@
       </c>
       <c r="T87" s="95"/>
       <c r="U87" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="V87" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="W87" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="X87" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="Y87" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$77</f>
         <v>8.5714285714285712</v>
       </c>
       <c r="Z87" s="113"/>
@@ -21444,7 +21444,7 @@
         <v>0.16</v>
       </c>
       <c r="AF87" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="88" spans="3:32" x14ac:dyDescent="0.2">
@@ -21472,44 +21472,44 @@
       <c r="M88" s="81"/>
       <c r="N88" s="93"/>
       <c r="O88" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="P88" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$Q$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$Q$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q88" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$R$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$R$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="R88" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$S$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$S$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="S88" s="152">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$T$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$T$78</f>
         <v>20</v>
       </c>
       <c r="T88" s="153"/>
       <c r="U88" s="145">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V88" s="141">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W88" s="141">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X88" s="146">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y88" s="137">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$78</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z88" s="137"/>
@@ -21523,7 +21523,7 @@
         <v>0.16</v>
       </c>
       <c r="AF88" s="142">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="89" spans="3:32" x14ac:dyDescent="0.2">
@@ -21605,23 +21605,23 @@
       </c>
       <c r="T90" s="151"/>
       <c r="U90" s="147">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$80</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$80</f>
         <v>873.99999999999977</v>
       </c>
       <c r="V90" s="148">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$80</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$80</f>
         <v>791.19999999999993</v>
       </c>
       <c r="W90" s="148">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$80</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$80</f>
         <v>754.39999999999986</v>
       </c>
       <c r="X90" s="149">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$80</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$80</f>
         <v>754.39999999999986</v>
       </c>
       <c r="Y90" s="144">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$80</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$80</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z90" s="144"/>
@@ -21635,7 +21635,7 @@
         <v>0.16</v>
       </c>
       <c r="AF90" s="143">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="95" spans="3:32" x14ac:dyDescent="0.2">
@@ -21934,23 +21934,23 @@
       </c>
       <c r="T100" s="70"/>
       <c r="U100" s="68">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AA$5</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AA$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="V100" s="69">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$5</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="W100" s="69">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$5</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="X100" s="106">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$5</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="Y100" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$5</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$5</f>
         <v>1.3043478260869565</v>
       </c>
       <c r="Z100" s="115"/>
@@ -21964,7 +21964,7 @@
         <v>0.16</v>
       </c>
       <c r="AF100" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="101" spans="3:32" x14ac:dyDescent="0.2">
@@ -22024,23 +22024,23 @@
       </c>
       <c r="T101" s="74"/>
       <c r="U101" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AA$6</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AA$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="V101" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$6</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="W101" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$6</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="X101" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$6</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="Y101" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$6</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$6</f>
         <v>1.3043478260869565</v>
       </c>
       <c r="Z101" s="116"/>
@@ -22054,7 +22054,7 @@
         <v>0.16</v>
       </c>
       <c r="AF101" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="102" spans="3:32" x14ac:dyDescent="0.2">
@@ -22074,19 +22074,19 @@
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="G102" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="H102" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="I102" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="J102" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="K102" s="92"/>
@@ -22094,19 +22094,19 @@
       <c r="M102" s="81"/>
       <c r="N102" s="93"/>
       <c r="O102" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="P102" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="Q102" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="R102" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="S102" s="104">
@@ -22141,7 +22141,7 @@
         <v>0.16</v>
       </c>
       <c r="AF102" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="103" spans="3:32" x14ac:dyDescent="0.2">
@@ -22161,19 +22161,19 @@
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="G103" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$10</f>
         <v>0.80079999999999996</v>
       </c>
       <c r="H103" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="I103" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="J103" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="K103" s="94"/>
@@ -22181,19 +22181,19 @@
       <c r="M103" s="82"/>
       <c r="N103" s="95"/>
       <c r="O103" s="94">
-        <f ca="1">G103*0.7</f>
+        <f>G103*0.7</f>
         <v>0.56055999999999995</v>
       </c>
       <c r="P103" s="82">
-        <f t="shared" ref="P103" ca="1" si="36">H103*0.7</f>
+        <f t="shared" ref="P103" si="36">H103*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="Q103" s="82">
-        <f t="shared" ref="Q103" ca="1" si="37">I103*0.7</f>
+        <f t="shared" ref="Q103" si="37">I103*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="R103" s="95">
-        <f t="shared" ref="R103" ca="1" si="38">J103*0.7</f>
+        <f t="shared" ref="R103" si="38">J103*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="S103" s="103">
@@ -22213,7 +22213,7 @@
         <v>93.035670457334589</v>
       </c>
       <c r="Y103" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$10</f>
         <v>5.3472429210134127</v>
       </c>
       <c r="Z103" s="116"/>
@@ -22229,7 +22229,7 @@
         <v>0.16</v>
       </c>
       <c r="AF103" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="104" spans="3:32" x14ac:dyDescent="0.2">
@@ -22249,19 +22249,19 @@
         <v>RSDSH_Det</v>
       </c>
       <c r="G104" s="92">
-        <f ca="1">'[2]JRC Summary'!$AC$9</f>
+        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H104" s="81">
-        <f ca="1">'[2]JRC Summary'!$AD$9</f>
+        <f>'[2]JRC Summary'!$AD$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I104" s="81">
-        <f ca="1">'[2]JRC Summary'!$AC$9</f>
+        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J104" s="93">
-        <f ca="1">'[2]JRC Summary'!$AC$9</f>
+        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K104" s="92"/>
@@ -22277,23 +22277,23 @@
       </c>
       <c r="T104" s="91"/>
       <c r="U104" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AA$7</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AA$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V104" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$7</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W104" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$7</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X104" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$7</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y104" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$7</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$7</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z104" s="115"/>
@@ -22307,7 +22307,7 @@
         <v>0.16</v>
       </c>
       <c r="AF104" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="105" spans="3:32" x14ac:dyDescent="0.2">
@@ -22327,19 +22327,19 @@
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="G105" s="94">
-        <f ca="1">'[2]JRC Summary'!$AC$9</f>
+        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H105" s="82">
-        <f ca="1">'[2]JRC Summary'!$AD$9</f>
+        <f>'[2]JRC Summary'!$AD$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I105" s="82">
-        <f ca="1">'[2]JRC Summary'!$AC$9</f>
+        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J105" s="95">
-        <f ca="1">'[2]JRC Summary'!$AC$9</f>
+        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K105" s="94"/>
@@ -22347,19 +22347,19 @@
       <c r="M105" s="82"/>
       <c r="N105" s="95"/>
       <c r="O105" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="P105" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q105" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="R105" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="S105" s="103">
@@ -22367,23 +22367,23 @@
       </c>
       <c r="T105" s="74"/>
       <c r="U105" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AA$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AA$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="V105" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="W105" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="X105" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="Y105" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$8</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$8</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z105" s="116"/>
@@ -22397,7 +22397,7 @@
         <v>0.16</v>
       </c>
       <c r="AF105" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="106" spans="3:32" x14ac:dyDescent="0.2">
@@ -22417,19 +22417,19 @@
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="G106" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="H106" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="I106" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="J106" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="K106" s="92"/>
@@ -22437,19 +22437,19 @@
       <c r="M106" s="81"/>
       <c r="N106" s="93"/>
       <c r="O106" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="P106" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="Q106" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="R106" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$O$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="S106" s="104">
@@ -22457,23 +22457,23 @@
       </c>
       <c r="T106" s="91"/>
       <c r="U106" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AA$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AA$9</f>
         <v>325.38126012155396</v>
       </c>
       <c r="V106" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$9</f>
         <v>300.73704094347181</v>
       </c>
       <c r="W106" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$9</f>
         <v>251.44860258730745</v>
       </c>
       <c r="X106" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$9</f>
         <v>251.44860258730745</v>
       </c>
       <c r="Y106" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$9</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$9</f>
         <v>14.316939890710385</v>
       </c>
       <c r="Z106" s="115"/>
@@ -22489,7 +22489,7 @@
         <v>0.16</v>
       </c>
       <c r="AF106" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="107" spans="3:32" x14ac:dyDescent="0.2">
@@ -22509,19 +22509,19 @@
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="G107" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$10</f>
         <v>0.80079999999999996</v>
       </c>
       <c r="H107" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="I107" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="J107" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="K107" s="94"/>
@@ -22529,19 +22529,19 @@
       <c r="M107" s="82"/>
       <c r="N107" s="95"/>
       <c r="O107" s="94">
-        <f ca="1">G107*0.7</f>
+        <f>G107*0.7</f>
         <v>0.56055999999999995</v>
       </c>
       <c r="P107" s="82">
-        <f t="shared" ref="P107" ca="1" si="39">H107*0.7</f>
+        <f t="shared" ref="P107" si="39">H107*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="Q107" s="82">
-        <f t="shared" ref="Q107" ca="1" si="40">I107*0.7</f>
+        <f t="shared" ref="Q107" si="40">I107*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="R107" s="95">
-        <f t="shared" ref="R107" ca="1" si="41">J107*0.7</f>
+        <f t="shared" ref="R107" si="41">J107*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="S107" s="103">
@@ -22549,23 +22549,23 @@
       </c>
       <c r="T107" s="74"/>
       <c r="U107" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AA$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AA$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="V107" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="W107" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="X107" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="Y107" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$10</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$10</f>
         <v>5.3472429210134127</v>
       </c>
       <c r="Z107" s="116"/>
@@ -22581,7 +22581,7 @@
         <v>0.16</v>
       </c>
       <c r="AF107" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="108" spans="3:32" x14ac:dyDescent="0.2">
@@ -22601,19 +22601,19 @@
         <v>RSDSH_Det</v>
       </c>
       <c r="G108" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H108" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I108" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J108" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K108" s="92"/>
@@ -22629,23 +22629,23 @@
       </c>
       <c r="T108" s="91"/>
       <c r="U108" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V108" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W108" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X108" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y108" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$11</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$11</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z108" s="115"/>
@@ -22659,7 +22659,7 @@
         <v>0.16</v>
       </c>
       <c r="AF108" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="109" spans="3:32" x14ac:dyDescent="0.2">
@@ -22679,19 +22679,19 @@
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="G109" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H109" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I109" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J109" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K109" s="94"/>
@@ -22699,19 +22699,19 @@
       <c r="M109" s="82"/>
       <c r="N109" s="95"/>
       <c r="O109" s="94">
-        <f ca="1">G109*0.7</f>
+        <f>G109*0.7</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="P109" s="82">
-        <f t="shared" ref="P109" ca="1" si="42">H109*0.7</f>
+        <f t="shared" ref="P109" si="42">H109*0.7</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q109" s="82">
-        <f t="shared" ref="Q109" ca="1" si="43">I109*0.7</f>
+        <f t="shared" ref="Q109" si="43">I109*0.7</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="R109" s="95">
-        <f t="shared" ref="R109" ca="1" si="44">J109*0.7</f>
+        <f t="shared" ref="R109" si="44">J109*0.7</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="S109" s="103">
@@ -22719,23 +22719,23 @@
       </c>
       <c r="T109" s="74"/>
       <c r="U109" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="V109" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="W109" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="X109" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="Y109" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$12</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$12</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z109" s="116"/>
@@ -22749,7 +22749,7 @@
         <v>0.16</v>
       </c>
       <c r="AF109" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="110" spans="3:32" x14ac:dyDescent="0.2">
@@ -22769,19 +22769,19 @@
         <v>RSDSH_Det</v>
       </c>
       <c r="G110" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$13</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="H110" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$13</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="I110" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$13</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="J110" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$13</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="K110" s="92"/>
@@ -22801,7 +22801,7 @@
       <c r="W110" s="79"/>
       <c r="X110" s="108"/>
       <c r="Y110" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$13</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$13</f>
         <v>8.5714285714285712</v>
       </c>
       <c r="Z110" s="115"/>
@@ -22815,7 +22815,7 @@
         <v>0.16</v>
       </c>
       <c r="AF110" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="111" spans="3:32" x14ac:dyDescent="0.2">
@@ -22835,19 +22835,19 @@
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="G111" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$14</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="H111" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$14</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="I111" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$14</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="J111" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$14</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="K111" s="99"/>
@@ -22855,19 +22855,19 @@
       <c r="M111" s="100"/>
       <c r="N111" s="101"/>
       <c r="O111" s="99">
-        <f ca="1">G111*0.7</f>
+        <f>G111*0.7</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="P111" s="100">
-        <f t="shared" ref="P111" ca="1" si="45">H111*0.7</f>
+        <f t="shared" ref="P111" si="45">H111*0.7</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="Q111" s="100">
-        <f t="shared" ref="Q111" ca="1" si="46">I111*0.7</f>
+        <f t="shared" ref="Q111" si="46">I111*0.7</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="R111" s="101">
-        <f t="shared" ref="R111" ca="1" si="47">J111*0.7</f>
+        <f t="shared" ref="R111" si="47">J111*0.7</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="S111" s="105">
@@ -22879,7 +22879,7 @@
       <c r="W111" s="76"/>
       <c r="X111" s="109"/>
       <c r="Y111" s="114">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$14</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$14</f>
         <v>8.5714285714285712</v>
       </c>
       <c r="Z111" s="117"/>
@@ -22893,7 +22893,7 @@
         <v>0.16</v>
       </c>
       <c r="AF111" s="117">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="112" spans="3:32" x14ac:dyDescent="0.2">
@@ -22975,23 +22975,23 @@
       </c>
       <c r="T113" s="129"/>
       <c r="U113" s="130">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$16</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$16</f>
         <v>185</v>
       </c>
       <c r="V113" s="131">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$16</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$16</f>
         <v>185</v>
       </c>
       <c r="W113" s="131">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$16</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$16</f>
         <v>185</v>
       </c>
       <c r="X113" s="132">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$16</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$16</f>
         <v>185</v>
       </c>
       <c r="Y113" s="133">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$16</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$16</f>
         <v>25</v>
       </c>
       <c r="Z113" s="134"/>
@@ -23005,7 +23005,7 @@
         <v>0.16</v>
       </c>
       <c r="AF113" s="134">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="114" spans="3:32" x14ac:dyDescent="0.2">
@@ -23087,23 +23087,23 @@
       </c>
       <c r="T115" s="81"/>
       <c r="U115" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$18</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$18</f>
         <v>606.94444444444434</v>
       </c>
       <c r="V115" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$18</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$18</f>
         <v>549.44444444444434</v>
       </c>
       <c r="W115" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$18</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$18</f>
         <v>523.8888888888888</v>
       </c>
       <c r="X115" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$18</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$18</f>
         <v>523.8888888888888</v>
       </c>
       <c r="Y115" s="136">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$18</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$18</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z115" s="136"/>
@@ -23117,7 +23117,7 @@
         <v>0.16</v>
       </c>
       <c r="AF115" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="116" spans="3:32" x14ac:dyDescent="0.2">
@@ -23177,23 +23177,23 @@
       </c>
       <c r="T116" s="82"/>
       <c r="U116" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$19</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$19</f>
         <v>637.29166666666663</v>
       </c>
       <c r="V116" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$19</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$19</f>
         <v>576.91666666666663</v>
       </c>
       <c r="W116" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$19</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$19</f>
         <v>550.08333333333326</v>
       </c>
       <c r="X116" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$19</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$19</f>
         <v>550.08333333333326</v>
       </c>
       <c r="Y116" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$19</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$19</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z116" s="113"/>
@@ -23207,7 +23207,7 @@
         <v>0.16</v>
       </c>
       <c r="AF116" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="117" spans="3:32" x14ac:dyDescent="0.2">
@@ -23227,19 +23227,19 @@
         <v>RSDSH_Det</v>
       </c>
       <c r="G117" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$20</f>
         <v>3.3</v>
       </c>
       <c r="H117" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$20</f>
         <v>3.7</v>
       </c>
       <c r="I117" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$20</f>
         <v>4</v>
       </c>
       <c r="J117" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$20</f>
         <v>4</v>
       </c>
       <c r="K117" s="92"/>
@@ -23255,23 +23255,23 @@
       </c>
       <c r="T117" s="81"/>
       <c r="U117" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$20</f>
         <v>212.19058823529411</v>
       </c>
       <c r="V117" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$20</f>
         <v>212.19058823529411</v>
       </c>
       <c r="W117" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$20</f>
         <v>191.20470588235293</v>
       </c>
       <c r="X117" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$20</f>
         <v>191.20470588235293</v>
       </c>
       <c r="Y117" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$20</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$20</f>
         <v>7.0588235294117645</v>
       </c>
       <c r="Z117" s="112"/>
@@ -23285,7 +23285,7 @@
         <v>0.16</v>
       </c>
       <c r="AF117" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="118" spans="3:32" x14ac:dyDescent="0.2">
@@ -23305,19 +23305,19 @@
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="G118" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$21</f>
         <v>3.3</v>
       </c>
       <c r="H118" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$21</f>
         <v>3.7</v>
       </c>
       <c r="I118" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$21</f>
         <v>4</v>
       </c>
       <c r="J118" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$21</f>
         <v>4</v>
       </c>
       <c r="K118" s="94"/>
@@ -23325,19 +23325,19 @@
       <c r="M118" s="82"/>
       <c r="N118" s="95"/>
       <c r="O118" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$21</f>
         <v>2.3099999999999996</v>
       </c>
       <c r="P118" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$Q$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$Q$21</f>
         <v>2.59</v>
       </c>
       <c r="Q118" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$R$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$R$21</f>
         <v>2.8</v>
       </c>
       <c r="R118" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$S$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$S$21</f>
         <v>2.8</v>
       </c>
       <c r="S118" s="103">
@@ -23345,23 +23345,23 @@
       </c>
       <c r="T118" s="82"/>
       <c r="U118" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$21</f>
         <v>382.30823529411765</v>
       </c>
       <c r="V118" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$21</f>
         <v>382.30823529411765</v>
       </c>
       <c r="W118" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$21</f>
         <v>361.32235294117646</v>
       </c>
       <c r="X118" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$21</f>
         <v>361.32235294117646</v>
       </c>
       <c r="Y118" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$21</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$21</f>
         <v>7.0588235294117645</v>
       </c>
       <c r="Z118" s="113"/>
@@ -23375,7 +23375,7 @@
         <v>0.16</v>
       </c>
       <c r="AF118" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="119" spans="3:32" x14ac:dyDescent="0.2">
@@ -23395,19 +23395,19 @@
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="G119" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$22</f>
         <v>2.7249999999999996</v>
       </c>
       <c r="H119" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$22</f>
         <v>3.0250000000000004</v>
       </c>
       <c r="I119" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$22</f>
         <v>3.25</v>
       </c>
       <c r="J119" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$22</f>
         <v>3.25</v>
       </c>
       <c r="K119" s="92"/>
@@ -23415,19 +23415,19 @@
       <c r="M119" s="81"/>
       <c r="N119" s="93"/>
       <c r="O119" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$22</f>
         <v>1.393</v>
       </c>
       <c r="P119" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$Q$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$Q$22</f>
         <v>1.4770000000000001</v>
       </c>
       <c r="Q119" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$R$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$R$22</f>
         <v>1.54</v>
       </c>
       <c r="R119" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$S$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$S$22</f>
         <v>1.54</v>
       </c>
       <c r="S119" s="104">
@@ -23435,23 +23435,23 @@
       </c>
       <c r="T119" s="81"/>
       <c r="U119" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$22</f>
         <v>706.69359398496226</v>
       </c>
       <c r="V119" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$22</f>
         <v>682.09990977443601</v>
       </c>
       <c r="W119" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$22</f>
         <v>560.47566917293238</v>
       </c>
       <c r="X119" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$22</f>
         <v>560.47566917293238</v>
       </c>
       <c r="Y119" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$22</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$22</f>
         <v>18.980392156862745</v>
       </c>
       <c r="Z119" s="112"/>
@@ -23467,7 +23467,7 @@
         <v>0.16</v>
       </c>
       <c r="AF119" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="120" spans="3:32" x14ac:dyDescent="0.2">
@@ -23487,19 +23487,19 @@
         <v>RSDSH_Det</v>
       </c>
       <c r="G120" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$23</f>
         <v>3.92</v>
       </c>
       <c r="H120" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$23</f>
         <v>3.92</v>
       </c>
       <c r="I120" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$23</f>
         <v>3.92</v>
       </c>
       <c r="J120" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$23</f>
         <v>3.92</v>
       </c>
       <c r="K120" s="94"/>
@@ -23515,19 +23515,19 @@
       </c>
       <c r="T120" s="82"/>
       <c r="U120" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$23</f>
         <v>806.67391304347848</v>
       </c>
       <c r="V120" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$23</f>
         <v>745.95652173913049</v>
       </c>
       <c r="W120" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$23</f>
         <v>685.23913043478274</v>
       </c>
       <c r="X120" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$23</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$23</f>
         <v>685.23913043478274</v>
       </c>
       <c r="Y120" s="113">
@@ -23545,7 +23545,7 @@
         <v>0.16</v>
       </c>
       <c r="AF120" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="121" spans="3:32" x14ac:dyDescent="0.2">
@@ -23565,35 +23565,35 @@
         <v>RSDSH_Det,RSDSC_Det</v>
       </c>
       <c r="G121" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$F$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$F$24</f>
         <v>3.92</v>
       </c>
       <c r="H121" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$G$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$G$24</f>
         <v>3.92</v>
       </c>
       <c r="I121" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$H$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$H$24</f>
         <v>3.92</v>
       </c>
       <c r="J121" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$I$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$I$24</f>
         <v>3.92</v>
       </c>
       <c r="K121" s="92">
-        <f ca="1">'[2]JRC Summary'!$AN$20</f>
+        <f>'[2]JRC Summary'!$AN$20</f>
         <v>4.5</v>
       </c>
       <c r="L121" s="81">
-        <f ca="1">'[2]JRC Summary'!$AO$20</f>
+        <f>'[2]JRC Summary'!$AO$20</f>
         <v>4.5</v>
       </c>
       <c r="M121" s="81">
-        <f ca="1">'[2]JRC Summary'!$AP$20</f>
+        <f>'[2]JRC Summary'!$AP$20</f>
         <v>4.5</v>
       </c>
       <c r="N121" s="93">
-        <f ca="1">'[2]JRC Summary'!$AQ$20</f>
+        <f>'[2]JRC Summary'!$AQ$20</f>
         <v>4.5</v>
       </c>
       <c r="O121" s="92"/>
@@ -23605,19 +23605,19 @@
       </c>
       <c r="T121" s="81"/>
       <c r="U121" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$24</f>
         <v>963.84782608695673</v>
       </c>
       <c r="V121" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$24</f>
         <v>903.13043478260863</v>
       </c>
       <c r="W121" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$24</f>
         <v>842.41304347826099</v>
       </c>
       <c r="X121" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$24</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$24</f>
         <v>842.41304347826099</v>
       </c>
       <c r="Y121" s="137">
@@ -23635,7 +23635,7 @@
         <v>0.16</v>
       </c>
       <c r="AF121" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="122" spans="3:32" x14ac:dyDescent="0.2">
@@ -23728,19 +23728,19 @@
       </c>
       <c r="T123" s="98"/>
       <c r="U123" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$25</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$25</f>
         <v>971.77777777777783</v>
       </c>
       <c r="V123" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$25</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$25</f>
         <v>860.66666666666663</v>
       </c>
       <c r="W123" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$25</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$25</f>
         <v>860.66666666666663</v>
       </c>
       <c r="X123" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$25</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$25</f>
         <v>860.66666666666663</v>
       </c>
       <c r="Y123" s="136">
@@ -23758,7 +23758,7 @@
         <v>0.16</v>
       </c>
       <c r="AF123" s="139">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="124" spans="3:32" x14ac:dyDescent="0.2">
@@ -23817,19 +23817,19 @@
       </c>
       <c r="T124" s="101"/>
       <c r="U124" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$26</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$26</f>
         <v>1065.68</v>
       </c>
       <c r="V124" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$26</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$26</f>
         <v>1065.68</v>
       </c>
       <c r="W124" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$26</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$26</f>
         <v>1065.68</v>
       </c>
       <c r="X124" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$26</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$26</f>
         <v>1065.68</v>
       </c>
       <c r="Y124" s="114">
@@ -23847,7 +23847,7 @@
         <v>0.16</v>
       </c>
       <c r="AF124" s="117">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="125" spans="3:32" x14ac:dyDescent="0.2">
@@ -23947,7 +23947,7 @@
         <v>1765</v>
       </c>
       <c r="Y126" s="1">
-        <f ca="1">Y117+Y104</f>
+        <f>Y117+Y104</f>
         <v>8.2883317261330767</v>
       </c>
       <c r="Z126" s="134"/>
@@ -23963,7 +23963,7 @@
         <v>0.16</v>
       </c>
       <c r="AF126" s="134">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="127" spans="3:32" x14ac:dyDescent="0.2">
@@ -24088,7 +24088,7 @@
         <v>0.16</v>
       </c>
       <c r="AF128" s="139">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="129" spans="1:32" x14ac:dyDescent="0.2">
@@ -24179,7 +24179,7 @@
         <v>0.16</v>
       </c>
       <c r="AF129" s="117">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="130" spans="1:32" x14ac:dyDescent="0.2">
@@ -24261,23 +24261,23 @@
       </c>
       <c r="T131" s="98"/>
       <c r="U131" s="68">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$74</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$74</f>
         <v>185</v>
       </c>
       <c r="V131" s="69">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$74</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$74</f>
         <v>185</v>
       </c>
       <c r="W131" s="69">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$74</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$74</f>
         <v>185</v>
       </c>
       <c r="X131" s="106">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$74</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$74</f>
         <v>185</v>
       </c>
       <c r="Y131" s="136">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$74</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$74</f>
         <v>25</v>
       </c>
       <c r="Z131" s="136"/>
@@ -24291,7 +24291,7 @@
         <v>0.16</v>
       </c>
       <c r="AF131" s="139">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="132" spans="1:32" x14ac:dyDescent="0.2">
@@ -24335,31 +24335,31 @@
         <v>1</v>
       </c>
       <c r="S132" s="103">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$T$75</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$T$75</f>
         <v>25</v>
       </c>
       <c r="T132" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$U$75</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$U$75</f>
         <v>30</v>
       </c>
       <c r="U132" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$75</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$75</f>
         <v>1582.3760000000002</v>
       </c>
       <c r="V132" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$75</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$75</f>
         <v>1514.231</v>
       </c>
       <c r="W132" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$75</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$75</f>
         <v>1214.3930000000003</v>
       </c>
       <c r="X132" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$75</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$75</f>
         <v>1214.3930000000003</v>
       </c>
       <c r="Y132" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$75</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$75</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z132" s="113"/>
@@ -24373,7 +24373,7 @@
         <v>0.16</v>
       </c>
       <c r="AF132" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="133" spans="1:32" x14ac:dyDescent="0.2">
@@ -24401,44 +24401,44 @@
       <c r="M133" s="81"/>
       <c r="N133" s="93"/>
       <c r="O133" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="P133" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$Q$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$Q$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q133" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$R$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$R$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="R133" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$S$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$S$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="S133" s="104">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$T$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$T$76</f>
         <v>20</v>
       </c>
       <c r="T133" s="93"/>
       <c r="U133" s="90">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V133" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W133" s="79">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X133" s="108">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y133" s="112">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$76</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$76</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z133" s="112"/>
@@ -24452,7 +24452,7 @@
         <v>0.16</v>
       </c>
       <c r="AF133" s="115">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="134" spans="1:32" x14ac:dyDescent="0.2">
@@ -24480,19 +24480,19 @@
       <c r="M134" s="82"/>
       <c r="N134" s="95"/>
       <c r="O134" s="94">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="P134" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$Q$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$Q$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="Q134" s="82">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$R$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$R$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="R134" s="95">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$S$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$S$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="S134" s="103">
@@ -24501,23 +24501,23 @@
       </c>
       <c r="T134" s="95"/>
       <c r="U134" s="71">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="V134" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="W134" s="72">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="X134" s="107">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="Y134" s="113">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$77</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$77</f>
         <v>8.5714285714285712</v>
       </c>
       <c r="Z134" s="113"/>
@@ -24531,7 +24531,7 @@
         <v>0.16</v>
       </c>
       <c r="AF134" s="116">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="135" spans="1:32" x14ac:dyDescent="0.2">
@@ -24559,44 +24559,44 @@
       <c r="M135" s="81"/>
       <c r="N135" s="93"/>
       <c r="O135" s="92">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$P$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$P$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="P135" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$Q$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$Q$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q135" s="81">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$R$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$R$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="R135" s="93">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$S$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$S$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="S135" s="152">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$T$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$T$78</f>
         <v>20</v>
       </c>
       <c r="T135" s="153"/>
       <c r="U135" s="145">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V135" s="141">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W135" s="141">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X135" s="146">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y135" s="137">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$78</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$78</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z135" s="137"/>
@@ -24610,7 +24610,7 @@
         <v>0.16</v>
       </c>
       <c r="AF135" s="142">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="136" spans="1:32" x14ac:dyDescent="0.2">
@@ -24692,23 +24692,23 @@
       </c>
       <c r="T137" s="151"/>
       <c r="U137" s="147">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AB$80</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AB$80</f>
         <v>873.99999999999977</v>
       </c>
       <c r="V137" s="148">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AC$80</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AC$80</f>
         <v>791.19999999999993</v>
       </c>
       <c r="W137" s="148">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AD$80</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AD$80</f>
         <v>754.39999999999986</v>
       </c>
       <c r="X137" s="149">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AE$80</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AE$80</f>
         <v>754.39999999999986</v>
       </c>
       <c r="Y137" s="144">
-        <f ca="1">'[2]RSD_Heat&amp;Cool'!$AF$80</f>
+        <f>'[2]RSD_Heat&amp;Cool'!$AF$80</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z137" s="144"/>
@@ -24722,7 +24722,7 @@
         <v>0.16</v>
       </c>
       <c r="AF137" s="143">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="138" spans="1:32" ht="15" x14ac:dyDescent="0.25">
@@ -25704,6 +25704,26 @@
     <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="K99:N99"/>
+    <mergeCell ref="O99:R99"/>
+    <mergeCell ref="S99:T99"/>
+    <mergeCell ref="U99:X99"/>
+    <mergeCell ref="G97:J97"/>
+    <mergeCell ref="K97:N97"/>
+    <mergeCell ref="O97:R97"/>
+    <mergeCell ref="S97:T97"/>
+    <mergeCell ref="U97:X97"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="O52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="U50:X50"/>
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="U6:X6"/>
     <mergeCell ref="G4:J4"/>
@@ -25714,26 +25734,6 @@
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="U50:X50"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="O52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="U52:X52"/>
-    <mergeCell ref="G97:J97"/>
-    <mergeCell ref="K97:N97"/>
-    <mergeCell ref="O97:R97"/>
-    <mergeCell ref="S97:T97"/>
-    <mergeCell ref="U97:X97"/>
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="K99:N99"/>
-    <mergeCell ref="O99:R99"/>
-    <mergeCell ref="S99:T99"/>
-    <mergeCell ref="U99:X99"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25748,7 +25748,7 @@
   <dimension ref="C2:W35"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="S7" sqref="S7:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25987,7 +25987,7 @@
         <v>31.54</v>
       </c>
       <c r="S7" s="218">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="U7" s="293">
         <v>0.18</v>
@@ -26051,7 +26051,7 @@
         <v>31.54</v>
       </c>
       <c r="S8" s="219">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="U8" s="293">
         <v>3.5</v>
@@ -26107,7 +26107,7 @@
         <v>31.54</v>
       </c>
       <c r="S9" s="220">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="U9" s="293">
         <v>3.5</v>
@@ -26163,7 +26163,7 @@
         <v>31.54</v>
       </c>
       <c r="S10" s="219">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="U10" s="293">
         <v>3.5</v>
@@ -26227,7 +26227,7 @@
         <v>31.54</v>
       </c>
       <c r="S11" s="220">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="U11" s="293">
         <v>2.2000000000000002</v>
@@ -26291,7 +26291,7 @@
         <v>31.54</v>
       </c>
       <c r="S12" s="219">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="U12" s="293">
         <v>2.5</v>
@@ -26355,7 +26355,7 @@
         <v>31.54</v>
       </c>
       <c r="S13" s="220">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="U13" s="293">
         <v>2.2000000000000002</v>
@@ -26419,7 +26419,7 @@
         <v>31.54</v>
       </c>
       <c r="S14" s="219">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="15" spans="3:23" x14ac:dyDescent="0.2">
@@ -26472,7 +26472,7 @@
         <v>31.54</v>
       </c>
       <c r="S15" s="221">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="T15" s="198" t="s">
         <v>690</v>
@@ -26700,7 +26700,7 @@
   <dimension ref="C2:W347"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:Q5"/>
+      <selection activeCell="S6" sqref="S6:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26895,7 +26895,7 @@
         <v>31.54</v>
       </c>
       <c r="S6" s="218">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="U6" s="198" t="s">
         <v>698</v>
@@ -26956,7 +26956,7 @@
         <v>31.54</v>
       </c>
       <c r="S7" s="219">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="U7" s="292" t="s">
         <v>699</v>
@@ -27014,7 +27014,7 @@
         <v>31.54</v>
       </c>
       <c r="S8" s="220">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="U8" s="198" t="s">
         <v>700</v>
@@ -27072,7 +27072,7 @@
         <v>31.54</v>
       </c>
       <c r="S9" s="219">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="10" spans="3:23" x14ac:dyDescent="0.2">
@@ -27127,7 +27127,7 @@
         <v>31.54</v>
       </c>
       <c r="S10" s="220">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="11" spans="3:23" x14ac:dyDescent="0.2">
@@ -27182,7 +27182,7 @@
         <v>31.54</v>
       </c>
       <c r="S11" s="219">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="14" spans="3:23" x14ac:dyDescent="0.2">

--- a/SubRES_TMPL/SubRes_RSD.xlsx
+++ b/SubRES_TMPL/SubRes_RSD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349597B8-30DC-4FB7-B3DA-34194F4E8B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412E32D9-E33F-4F77-B0FD-A6F27A52CF92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -1194,7 +1194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="743">
   <si>
     <t>Document type:</t>
   </si>
@@ -3439,12 +3439,18 @@
   <si>
     <t>M€/000 unit</t>
   </si>
+  <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <t>*PJ/000dwelling</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -3452,6 +3458,7 @@
     <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
   </numFmts>
   <fonts count="52" x14ac:knownFonts="1">
     <font>
@@ -4705,7 +4712,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="335">
+  <cellXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5251,6 +5258,13 @@
     <xf numFmtId="169" fontId="15" fillId="21" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="15" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="15" fillId="21" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="36" fillId="5" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5326,13 +5340,10 @@
     <xf numFmtId="0" fontId="15" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="36" fillId="5" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="3" fontId="37" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="171" fontId="15" fillId="21" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="20% - Colore 2" xfId="11" xr:uid="{3E3DAF22-4D86-48A9-B6EE-8D230C1E993C}"/>
@@ -6474,8 +6485,8 @@
       <sheetName val="DettachedEnergyData"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="3">
           <cell r="C3" t="str">
@@ -6486,7 +6497,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4">
         <row r="10">
           <cell r="B10" t="str">
@@ -6524,9 +6535,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
       <sheetData sheetId="8">
         <row r="9">
           <cell r="O9" t="str">
@@ -6604,17 +6615,78 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="6">
+          <cell r="J6">
+            <v>1.5953040514247514E-2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="J8">
+            <v>1.3011061382857018E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="J9">
+            <v>5.9683993389879201E-4</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="J10">
+            <v>1.2298414789219477E-4</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="J11">
+            <v>2.6814506269602453E-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="J13">
+            <v>1.0379714580865323E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="J14">
+            <v>8.4710237013756629E-4</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="J15">
+            <v>2.3457687355088344E-4</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="J16">
+            <v>4.7813024530524835E-2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="J18">
+            <v>1.3662048446367654E-2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="J19">
+            <v>1.3953557418383549E-3</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="J20">
+            <v>2.9043456181104398E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8119,14 +8191,14 @@
       <c r="F16" s="219"/>
     </row>
     <row r="17" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="306" t="s">
+      <c r="A17" s="311" t="s">
         <v>497</v>
       </c>
-      <c r="B17" s="306"/>
-      <c r="C17" s="306"/>
-      <c r="D17" s="306"/>
-      <c r="E17" s="306"/>
-      <c r="F17" s="306"/>
+      <c r="B17" s="311"/>
+      <c r="C17" s="311"/>
+      <c r="D17" s="311"/>
+      <c r="E17" s="311"/>
+      <c r="F17" s="311"/>
       <c r="G17" s="221"/>
       <c r="H17" s="221"/>
       <c r="I17" s="222"/>
@@ -8164,13 +8236,13 @@
       <c r="A20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="307" t="s">
+      <c r="B20" s="312" t="s">
         <v>499</v>
       </c>
-      <c r="C20" s="307"/>
-      <c r="D20" s="307"/>
-      <c r="E20" s="307"/>
-      <c r="F20" s="307"/>
+      <c r="C20" s="312"/>
+      <c r="D20" s="312"/>
+      <c r="E20" s="312"/>
+      <c r="F20" s="312"/>
       <c r="G20" s="226"/>
       <c r="H20" s="226"/>
       <c r="I20" s="227"/>
@@ -8184,13 +8256,13 @@
       <c r="A21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="308" t="s">
+      <c r="B21" s="313" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="308"/>
-      <c r="D21" s="308"/>
-      <c r="E21" s="308"/>
-      <c r="F21" s="308"/>
+      <c r="C21" s="313"/>
+      <c r="D21" s="313"/>
+      <c r="E21" s="313"/>
+      <c r="F21" s="313"/>
       <c r="G21" s="226"/>
       <c r="H21" s="226"/>
       <c r="I21" s="227"/>
@@ -8204,13 +8276,13 @@
       <c r="A22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="308" t="s">
+      <c r="B22" s="313" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="308"/>
-      <c r="D22" s="308"/>
-      <c r="E22" s="308"/>
-      <c r="F22" s="308"/>
+      <c r="C22" s="313"/>
+      <c r="D22" s="313"/>
+      <c r="E22" s="313"/>
+      <c r="F22" s="313"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
@@ -8239,22 +8311,22 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="309"/>
-      <c r="B25" s="309"/>
-      <c r="C25" s="309"/>
-      <c r="D25" s="309"/>
-      <c r="E25" s="309"/>
-      <c r="F25" s="309"/>
+      <c r="A25" s="314"/>
+      <c r="B25" s="314"/>
+      <c r="C25" s="314"/>
+      <c r="D25" s="314"/>
+      <c r="E25" s="314"/>
+      <c r="F25" s="314"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="305"/>
-      <c r="B26" s="305"/>
-      <c r="C26" s="305"/>
-      <c r="D26" s="305"/>
-      <c r="E26" s="305"/>
-      <c r="F26" s="305"/>
+      <c r="A26" s="310"/>
+      <c r="B26" s="310"/>
+      <c r="C26" s="310"/>
+      <c r="D26" s="310"/>
+      <c r="E26" s="310"/>
+      <c r="F26" s="310"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="219"/>
@@ -8441,16 +8513,16 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="310" t="s">
+      <c r="B2" s="315" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="311"/>
-      <c r="D2" s="311"/>
-      <c r="E2" s="312"/>
-      <c r="G2" s="310" t="s">
+      <c r="C2" s="316"/>
+      <c r="D2" s="316"/>
+      <c r="E2" s="317"/>
+      <c r="G2" s="315" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="317"/>
       <c r="I2" s="230"/>
       <c r="J2" s="230"/>
       <c r="K2" s="231"/>
@@ -8792,16 +8864,16 @@
     </row>
     <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="313" t="s">
+      <c r="B20" s="318" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="314"/>
-      <c r="D20" s="314"/>
-      <c r="E20" s="315"/>
-      <c r="G20" s="310" t="s">
+      <c r="C20" s="319"/>
+      <c r="D20" s="319"/>
+      <c r="E20" s="320"/>
+      <c r="G20" s="315" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="312"/>
+      <c r="H20" s="317"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="258" t="s">
@@ -9045,16 +9117,16 @@
     </row>
     <row r="37" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="310" t="s">
+      <c r="B38" s="315" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="311"/>
-      <c r="D38" s="311"/>
-      <c r="E38" s="312"/>
-      <c r="G38" s="316" t="s">
+      <c r="C38" s="316"/>
+      <c r="D38" s="316"/>
+      <c r="E38" s="317"/>
+      <c r="G38" s="321" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="317"/>
+      <c r="H38" s="322"/>
     </row>
     <row r="39" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="279" t="s">
@@ -9153,9 +9225,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4660B878-9B9C-4131-8EFF-29EF25ED69C5}">
-  <dimension ref="A2:P103"/>
+  <dimension ref="A2:Q103"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
@@ -9171,18 +9243,19 @@
     <col min="8" max="8" width="12.140625" style="5" customWidth="1"/>
     <col min="9" max="11" width="10.7109375" style="5" customWidth="1"/>
     <col min="12" max="12" width="12" style="5" customWidth="1"/>
-    <col min="13" max="23" width="10.7109375" style="5" customWidth="1"/>
-    <col min="24" max="26" width="9.85546875" style="5" customWidth="1"/>
-    <col min="27" max="29" width="10.7109375" style="5" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="5"/>
+    <col min="13" max="13" width="10" style="5" customWidth="1"/>
+    <col min="14" max="24" width="10.7109375" style="5" customWidth="1"/>
+    <col min="25" max="27" width="9.85546875" style="5" customWidth="1"/>
+    <col min="28" max="30" width="10.7109375" style="5" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:17" x14ac:dyDescent="0.2">
       <c r="F2" s="51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="3:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="61" t="s">
         <v>39</v>
       </c>
@@ -9213,14 +9286,17 @@
       <c r="L3" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="64" t="s">
+      <c r="M3" s="335" t="s">
+        <v>741</v>
+      </c>
+      <c r="N3" s="64" t="s">
         <v>333</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C4" s="63" t="s">
         <v>334</v>
       </c>
@@ -9236,19 +9312,20 @@
       <c r="G4" s="179" t="s">
         <v>340</v>
       </c>
-      <c r="H4" s="321" t="s">
+      <c r="H4" s="326" t="s">
         <v>341</v>
       </c>
-      <c r="I4" s="322"/>
-      <c r="J4" s="322"/>
-      <c r="K4" s="323"/>
+      <c r="I4" s="327"/>
+      <c r="J4" s="327"/>
+      <c r="K4" s="328"/>
       <c r="L4" s="108"/>
       <c r="M4" s="108"/>
-      <c r="P4" s="5" t="s">
+      <c r="N4" s="108"/>
+      <c r="Q4" s="5" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C5" s="85" t="s">
         <v>423</v>
       </c>
@@ -9258,23 +9335,26 @@
       <c r="G5" s="85" t="s">
         <v>314</v>
       </c>
-      <c r="H5" s="324" t="s">
+      <c r="H5" s="329" t="s">
         <v>740</v>
       </c>
-      <c r="I5" s="325"/>
-      <c r="J5" s="325"/>
-      <c r="K5" s="326"/>
+      <c r="I5" s="330"/>
+      <c r="J5" s="330"/>
+      <c r="K5" s="331"/>
       <c r="L5" s="109" t="s">
         <v>495</v>
       </c>
       <c r="M5" s="109" t="s">
+        <v>742</v>
+      </c>
+      <c r="N5" s="109" t="s">
         <v>351</v>
       </c>
-      <c r="P5" s="195" t="s">
+      <c r="Q5" s="195" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C6" s="134" t="str">
         <f>C44</f>
         <v>R-BLD_AptN1</v>
@@ -9307,11 +9387,15 @@
       <c r="L6" s="104">
         <v>1.5</v>
       </c>
-      <c r="M6" s="194">
+      <c r="M6" s="336">
+        <f>[1]ArchetypeDemand!J6/2</f>
+        <v>7.9765202571237571E-3</v>
+      </c>
+      <c r="N6" s="194">
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C7" s="111"/>
       <c r="D7" s="111"/>
       <c r="E7" s="71" t="s">
@@ -9324,9 +9408,13 @@
       <c r="J7" s="297"/>
       <c r="K7" s="298"/>
       <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M7" s="336">
+        <f>M10</f>
+        <v>3.0746036973048694E-5</v>
+      </c>
+      <c r="N7" s="105"/>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C8" s="110"/>
       <c r="D8" s="110"/>
       <c r="E8" s="78" t="s">
@@ -9339,9 +9427,13 @@
       <c r="J8" s="300"/>
       <c r="K8" s="301"/>
       <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M8" s="336">
+        <f>[1]ArchetypeDemand!J8/2</f>
+        <v>6.5055306914285089E-3</v>
+      </c>
+      <c r="N8" s="106"/>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C9" s="111"/>
       <c r="D9" s="111"/>
       <c r="E9" s="71" t="s">
@@ -9354,9 +9446,13 @@
       <c r="J9" s="297"/>
       <c r="K9" s="298"/>
       <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M9" s="336">
+        <f>[1]ArchetypeDemand!J9/2</f>
+        <v>2.98419966949396E-4</v>
+      </c>
+      <c r="N9" s="105"/>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C10" s="135"/>
       <c r="D10" s="135"/>
       <c r="E10" s="171" t="s">
@@ -9369,9 +9465,13 @@
       <c r="J10" s="300"/>
       <c r="K10" s="301"/>
       <c r="L10" s="106"/>
-      <c r="M10" s="144"/>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M10" s="336">
+        <f>[1]ArchetypeDemand!J10/4</f>
+        <v>3.0746036973048694E-5</v>
+      </c>
+      <c r="N10" s="144"/>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C11" s="134" t="str">
         <f>C47</f>
         <v>R-BLD_AptN2</v>
@@ -9408,11 +9508,15 @@
       <c r="L11" s="104">
         <v>1.5</v>
       </c>
-      <c r="M11" s="194">
+      <c r="M11" s="336">
+        <f>M6*0.9</f>
+        <v>7.178868231411382E-3</v>
+      </c>
+      <c r="N11" s="194">
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C12" s="111"/>
       <c r="D12" s="111"/>
       <c r="E12" s="71" t="s">
@@ -9425,9 +9529,13 @@
       <c r="J12" s="297"/>
       <c r="K12" s="298"/>
       <c r="L12" s="105"/>
-      <c r="M12" s="105"/>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M12" s="336">
+        <f t="shared" ref="M12:M15" si="1">M7*0.9</f>
+        <v>2.7671433275743825E-5</v>
+      </c>
+      <c r="N12" s="105"/>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C13" s="110"/>
       <c r="D13" s="110"/>
       <c r="E13" s="78" t="s">
@@ -9440,9 +9548,13 @@
       <c r="J13" s="300"/>
       <c r="K13" s="301"/>
       <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-    </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M13" s="336">
+        <f t="shared" si="1"/>
+        <v>5.8549776222856578E-3</v>
+      </c>
+      <c r="N13" s="106"/>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C14" s="111"/>
       <c r="D14" s="111"/>
       <c r="E14" s="71" t="s">
@@ -9455,9 +9567,13 @@
       <c r="J14" s="297"/>
       <c r="K14" s="298"/>
       <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M14" s="336">
+        <f t="shared" si="1"/>
+        <v>2.6857797025445641E-4</v>
+      </c>
+      <c r="N14" s="105"/>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C15" s="135"/>
       <c r="D15" s="135"/>
       <c r="E15" s="171" t="s">
@@ -9470,9 +9586,13 @@
       <c r="J15" s="303"/>
       <c r="K15" s="304"/>
       <c r="L15" s="144"/>
-      <c r="M15" s="144"/>
-    </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M15" s="336">
+        <f t="shared" si="1"/>
+        <v>2.7671433275743825E-5</v>
+      </c>
+      <c r="N15" s="144"/>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C16" s="85" t="s">
         <v>439</v>
       </c>
@@ -9482,18 +9602,19 @@
       <c r="G16" s="85" t="s">
         <v>314</v>
       </c>
-      <c r="H16" s="318" t="s">
+      <c r="H16" s="323" t="s">
         <v>740</v>
       </c>
-      <c r="I16" s="319"/>
-      <c r="J16" s="319"/>
-      <c r="K16" s="320"/>
+      <c r="I16" s="324"/>
+      <c r="J16" s="324"/>
+      <c r="K16" s="325"/>
       <c r="L16" s="204"/>
-      <c r="M16" s="109" t="s">
+      <c r="M16" s="204"/>
+      <c r="N16" s="109" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="134" t="str">
         <f>C45</f>
         <v>R-BLD_Att-N1</v>
@@ -9526,14 +9647,18 @@
       <c r="L17" s="104">
         <v>1.8</v>
       </c>
-      <c r="M17" s="194">
+      <c r="M17" s="336">
+        <f>[1]ArchetypeDemand!J11/2</f>
+        <v>1.3407253134801227E-2</v>
+      </c>
+      <c r="N17" s="194">
         <v>2019</v>
       </c>
-      <c r="O17" s="195" t="s">
+      <c r="P17" s="195" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="111"/>
       <c r="D18" s="111"/>
       <c r="E18" s="71" t="s">
@@ -9546,9 +9671,13 @@
       <c r="J18" s="297"/>
       <c r="K18" s="298"/>
       <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M18" s="336">
+        <f>M21</f>
+        <v>5.8644218387720861E-5</v>
+      </c>
+      <c r="N18" s="105"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="110"/>
       <c r="D19" s="110"/>
       <c r="E19" s="78" t="s">
@@ -9561,9 +9690,13 @@
       <c r="J19" s="300"/>
       <c r="K19" s="301"/>
       <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M19" s="336">
+        <f>[1]ArchetypeDemand!J13/2</f>
+        <v>5.1898572904326614E-3</v>
+      </c>
+      <c r="N19" s="106"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="111"/>
       <c r="D20" s="111"/>
       <c r="E20" s="71" t="s">
@@ -9576,9 +9709,13 @@
       <c r="J20" s="297"/>
       <c r="K20" s="298"/>
       <c r="L20" s="105"/>
-      <c r="M20" s="105"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M20" s="336">
+        <f>[1]ArchetypeDemand!J14/2</f>
+        <v>4.2355118506878314E-4</v>
+      </c>
+      <c r="N20" s="105"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="135"/>
       <c r="D21" s="135"/>
       <c r="E21" s="171" t="s">
@@ -9591,9 +9728,13 @@
       <c r="J21" s="303"/>
       <c r="K21" s="304"/>
       <c r="L21" s="144"/>
-      <c r="M21" s="144"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M21" s="336">
+        <f>[1]ArchetypeDemand!J15/4</f>
+        <v>5.8644218387720861E-5</v>
+      </c>
+      <c r="N21" s="144"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="134" t="str">
         <f>C48</f>
         <v>R-BLD_Att-N2</v>
@@ -9616,25 +9757,29 @@
         <v>295.57499999999999</v>
       </c>
       <c r="I22" s="294">
-        <f t="shared" ref="I22:K22" si="1">I17*1.05</f>
+        <f t="shared" ref="I22:K22" si="2">I17*1.05</f>
         <v>373.17</v>
       </c>
       <c r="J22" s="294">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>450.76500000000004</v>
       </c>
       <c r="K22" s="295">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>528.36</v>
       </c>
       <c r="L22" s="104">
         <v>1.8</v>
       </c>
-      <c r="M22" s="194">
+      <c r="M22" s="336">
+        <f>M17*0.9</f>
+        <v>1.2066527821321104E-2</v>
+      </c>
+      <c r="N22" s="194">
         <v>2019</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="111"/>
       <c r="D23" s="111"/>
       <c r="E23" s="71" t="s">
@@ -9647,9 +9792,13 @@
       <c r="J23" s="297"/>
       <c r="K23" s="298"/>
       <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M23" s="336">
+        <f t="shared" ref="M23:M26" si="3">M18*0.9</f>
+        <v>5.2779796548948773E-5</v>
+      </c>
+      <c r="N23" s="105"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="110"/>
       <c r="D24" s="110"/>
       <c r="E24" s="78" t="s">
@@ -9662,9 +9811,13 @@
       <c r="J24" s="300"/>
       <c r="K24" s="301"/>
       <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M24" s="336">
+        <f t="shared" si="3"/>
+        <v>4.6708715613893951E-3</v>
+      </c>
+      <c r="N24" s="106"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="111"/>
       <c r="D25" s="111"/>
       <c r="E25" s="71" t="s">
@@ -9677,9 +9830,13 @@
       <c r="J25" s="297"/>
       <c r="K25" s="298"/>
       <c r="L25" s="105"/>
-      <c r="M25" s="105"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M25" s="336">
+        <f t="shared" si="3"/>
+        <v>3.8119606656190485E-4</v>
+      </c>
+      <c r="N25" s="105"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="135"/>
       <c r="D26" s="135"/>
       <c r="E26" s="171" t="s">
@@ -9692,9 +9849,13 @@
       <c r="J26" s="303"/>
       <c r="K26" s="304"/>
       <c r="L26" s="144"/>
-      <c r="M26" s="144"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M26" s="336">
+        <f t="shared" si="3"/>
+        <v>5.2779796548948773E-5</v>
+      </c>
+      <c r="N26" s="144"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="85" t="s">
         <v>446</v>
       </c>
@@ -9704,18 +9865,19 @@
       <c r="G27" s="85" t="s">
         <v>314</v>
       </c>
-      <c r="H27" s="318" t="s">
+      <c r="H27" s="323" t="s">
         <v>740</v>
       </c>
-      <c r="I27" s="319"/>
-      <c r="J27" s="319"/>
-      <c r="K27" s="320"/>
+      <c r="I27" s="324"/>
+      <c r="J27" s="324"/>
+      <c r="K27" s="325"/>
       <c r="L27" s="204"/>
-      <c r="M27" s="109" t="s">
+      <c r="M27" s="204"/>
+      <c r="N27" s="109" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="134" t="str">
         <f>C46</f>
         <v>R-BLD_Det-N1</v>
@@ -9748,11 +9910,15 @@
       <c r="L28" s="104">
         <v>2</v>
       </c>
-      <c r="M28" s="194">
+      <c r="M28" s="336">
+        <f>[1]ArchetypeDemand!J16/2</f>
+        <v>2.3906512265262417E-2</v>
+      </c>
+      <c r="N28" s="194">
         <v>2019</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="111"/>
       <c r="D29" s="111"/>
       <c r="E29" s="71" t="s">
@@ -9765,9 +9931,13 @@
       <c r="J29" s="297"/>
       <c r="K29" s="298"/>
       <c r="L29" s="105"/>
-      <c r="M29" s="105"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M29" s="336">
+        <f>M32</f>
+        <v>7.2608640452760995E-5</v>
+      </c>
+      <c r="N29" s="105"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="110"/>
       <c r="D30" s="110"/>
       <c r="E30" s="78" t="s">
@@ -9780,9 +9950,13 @@
       <c r="J30" s="300"/>
       <c r="K30" s="301"/>
       <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M30" s="336">
+        <f>[1]ArchetypeDemand!J18/2</f>
+        <v>6.8310242231838271E-3</v>
+      </c>
+      <c r="N30" s="106"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="111"/>
       <c r="D31" s="111"/>
       <c r="E31" s="71" t="s">
@@ -9795,9 +9969,13 @@
       <c r="J31" s="297"/>
       <c r="K31" s="298"/>
       <c r="L31" s="105"/>
-      <c r="M31" s="105"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M31" s="336">
+        <f>[1]ArchetypeDemand!J19/2</f>
+        <v>6.9767787091917744E-4</v>
+      </c>
+      <c r="N31" s="105"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="135"/>
       <c r="D32" s="135"/>
       <c r="E32" s="171" t="s">
@@ -9810,9 +9988,13 @@
       <c r="J32" s="303"/>
       <c r="K32" s="304"/>
       <c r="L32" s="144"/>
-      <c r="M32" s="144"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="336">
+        <f>[1]ArchetypeDemand!J20/4</f>
+        <v>7.2608640452760995E-5</v>
+      </c>
+      <c r="N32" s="144"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C33" s="134" t="str">
         <f>C49</f>
         <v>R-BLD_Det-N2</v>
@@ -9835,25 +10017,29 @@
         <v>443.1</v>
       </c>
       <c r="I33" s="294">
-        <f t="shared" ref="I33:K33" si="2">I28*1.05</f>
+        <f t="shared" ref="I33:K33" si="4">I28*1.05</f>
         <v>559.65</v>
       </c>
       <c r="J33" s="294">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>676.2</v>
       </c>
       <c r="K33" s="295">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>792.54</v>
       </c>
       <c r="L33" s="104">
         <v>2</v>
       </c>
-      <c r="M33" s="194">
+      <c r="M33" s="336">
+        <f>M28*0.9</f>
+        <v>2.1515861038736175E-2</v>
+      </c>
+      <c r="N33" s="194">
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C34" s="111"/>
       <c r="D34" s="111"/>
       <c r="E34" s="71" t="s">
@@ -9866,9 +10052,13 @@
       <c r="J34" s="297"/>
       <c r="K34" s="298"/>
       <c r="L34" s="105"/>
-      <c r="M34" s="105"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="336">
+        <f t="shared" ref="M34:M37" si="5">M29*0.9</f>
+        <v>6.5347776407484904E-5</v>
+      </c>
+      <c r="N34" s="105"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C35" s="110"/>
       <c r="D35" s="110"/>
       <c r="E35" s="78" t="s">
@@ -9881,9 +10071,13 @@
       <c r="J35" s="78"/>
       <c r="K35" s="106"/>
       <c r="L35" s="106"/>
-      <c r="M35" s="106"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="336">
+        <f t="shared" si="5"/>
+        <v>6.1479218008654449E-3</v>
+      </c>
+      <c r="N35" s="106"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C36" s="111"/>
       <c r="D36" s="111"/>
       <c r="E36" s="71" t="s">
@@ -9896,9 +10090,13 @@
       <c r="J36" s="71"/>
       <c r="K36" s="105"/>
       <c r="L36" s="105"/>
-      <c r="M36" s="105"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M36" s="336">
+        <f t="shared" si="5"/>
+        <v>6.2791008382725967E-4</v>
+      </c>
+      <c r="N36" s="105"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C37" s="135"/>
       <c r="D37" s="135"/>
       <c r="E37" s="171" t="s">
@@ -9911,9 +10109,13 @@
       <c r="J37" s="171"/>
       <c r="K37" s="144"/>
       <c r="L37" s="144"/>
-      <c r="M37" s="144"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M37" s="336">
+        <f t="shared" si="5"/>
+        <v>6.5347776407484904E-5</v>
+      </c>
+      <c r="N37" s="144"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="56" t="s">
         <v>38</v>
@@ -9926,7 +10128,7 @@
       <c r="H41" s="57"/>
       <c r="I41" s="57"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="58" t="s">
         <v>45</v>
@@ -9950,7 +10152,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="59" t="s">
         <v>539</v>
@@ -9974,7 +10176,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="174" t="s">
         <v>739</v>
@@ -9994,7 +10196,7 @@
       <c r="G44" s="175"/>
       <c r="H44" s="176"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="174" t="s">
         <v>739</v>
@@ -10014,7 +10216,7 @@
       <c r="G45" s="175"/>
       <c r="H45" s="176"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="174" t="s">
         <v>739</v>
@@ -10034,7 +10236,7 @@
       <c r="G46" s="177"/>
       <c r="H46" s="178"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="174" t="s">
         <v>739</v>
@@ -10055,7 +10257,7 @@
       <c r="H47" s="176"/>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="174" t="s">
         <v>739</v>
@@ -10076,7 +10278,7 @@
       <c r="H48" s="176"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="174" t="s">
         <v>739</v>
@@ -10097,7 +10299,7 @@
       <c r="H49" s="178"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -10108,7 +10310,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -10119,7 +10321,7 @@
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -10130,7 +10332,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -10141,7 +10343,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -10152,7 +10354,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -10163,7 +10365,7 @@
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -10174,7 +10376,7 @@
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -10185,7 +10387,7 @@
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -10196,7 +10398,7 @@
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
     </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -10207,7 +10409,7 @@
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -10218,7 +10420,7 @@
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -10230,8 +10432,9 @@
       <c r="I61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="8"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -10243,8 +10446,9 @@
       <c r="I62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="8"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -10256,8 +10460,9 @@
       <c r="I63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="8"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -10269,6 +10474,7 @@
       <c r="I64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
@@ -15417,7 +15623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F8057-C735-4662-BAA6-EEDCF7B57273}">
   <dimension ref="A2:AN170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="T159" sqref="T159"/>
     </sheetView>
   </sheetViews>
@@ -15560,34 +15766,34 @@
       <c r="F4" s="63" t="s">
         <v>336</v>
       </c>
-      <c r="G4" s="327" t="s">
+      <c r="G4" s="332" t="s">
         <v>337</v>
       </c>
-      <c r="H4" s="328"/>
-      <c r="I4" s="328"/>
-      <c r="J4" s="329"/>
-      <c r="K4" s="327" t="s">
+      <c r="H4" s="333"/>
+      <c r="I4" s="333"/>
+      <c r="J4" s="334"/>
+      <c r="K4" s="332" t="s">
         <v>338</v>
       </c>
-      <c r="L4" s="328"/>
-      <c r="M4" s="328"/>
-      <c r="N4" s="329"/>
-      <c r="O4" s="327" t="s">
+      <c r="L4" s="333"/>
+      <c r="M4" s="333"/>
+      <c r="N4" s="334"/>
+      <c r="O4" s="332" t="s">
         <v>339</v>
       </c>
-      <c r="P4" s="328"/>
-      <c r="Q4" s="328"/>
-      <c r="R4" s="329"/>
-      <c r="S4" s="327" t="s">
+      <c r="P4" s="333"/>
+      <c r="Q4" s="333"/>
+      <c r="R4" s="334"/>
+      <c r="S4" s="332" t="s">
         <v>340</v>
       </c>
-      <c r="T4" s="329"/>
-      <c r="U4" s="321" t="s">
+      <c r="T4" s="334"/>
+      <c r="U4" s="326" t="s">
         <v>341</v>
       </c>
-      <c r="V4" s="322"/>
-      <c r="W4" s="322"/>
-      <c r="X4" s="323"/>
+      <c r="V4" s="327"/>
+      <c r="W4" s="327"/>
+      <c r="X4" s="328"/>
       <c r="Y4" s="108"/>
       <c r="Z4" s="108"/>
       <c r="AA4" s="116" t="s">
@@ -15678,34 +15884,34 @@
       <c r="D6" s="86"/>
       <c r="E6" s="86"/>
       <c r="F6" s="87"/>
-      <c r="G6" s="324" t="s">
+      <c r="G6" s="329" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="325"/>
-      <c r="I6" s="325"/>
-      <c r="J6" s="326"/>
-      <c r="K6" s="325" t="s">
+      <c r="H6" s="330"/>
+      <c r="I6" s="330"/>
+      <c r="J6" s="331"/>
+      <c r="K6" s="330" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="325"/>
-      <c r="M6" s="325"/>
-      <c r="N6" s="326"/>
-      <c r="O6" s="324" t="s">
+      <c r="L6" s="330"/>
+      <c r="M6" s="330"/>
+      <c r="N6" s="331"/>
+      <c r="O6" s="329" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="325"/>
-      <c r="Q6" s="325"/>
-      <c r="R6" s="326"/>
-      <c r="S6" s="324" t="s">
+      <c r="P6" s="330"/>
+      <c r="Q6" s="330"/>
+      <c r="R6" s="331"/>
+      <c r="S6" s="329" t="s">
         <v>314</v>
       </c>
-      <c r="T6" s="326"/>
-      <c r="U6" s="324" t="s">
+      <c r="T6" s="331"/>
+      <c r="U6" s="329" t="s">
         <v>347</v>
       </c>
-      <c r="V6" s="325"/>
-      <c r="W6" s="325"/>
-      <c r="X6" s="326"/>
+      <c r="V6" s="330"/>
+      <c r="W6" s="330"/>
+      <c r="X6" s="331"/>
       <c r="Y6" s="109" t="s">
         <v>348</v>
       </c>
@@ -15730,25 +15936,25 @@
       <c r="AF6" s="109" t="s">
         <v>351</v>
       </c>
-      <c r="AH6" s="330" t="s">
+      <c r="AH6" s="305" t="s">
         <v>315</v>
       </c>
-      <c r="AI6" s="330" t="s">
+      <c r="AI6" s="305" t="s">
         <v>316</v>
       </c>
-      <c r="AJ6" s="330" t="s">
+      <c r="AJ6" s="305" t="s">
         <v>53</v>
       </c>
-      <c r="AK6" s="330" t="s">
+      <c r="AK6" s="305" t="s">
         <v>317</v>
       </c>
-      <c r="AL6" s="330" t="s">
+      <c r="AL6" s="305" t="s">
         <v>318</v>
       </c>
-      <c r="AM6" s="330" t="s">
+      <c r="AM6" s="305" t="s">
         <v>319</v>
       </c>
-      <c r="AN6" s="330" t="s">
+      <c r="AN6" s="305" t="s">
         <v>320</v>
       </c>
     </row>
@@ -17119,11 +17325,11 @@
       </c>
       <c r="AH20" s="153"/>
       <c r="AI20" s="152" t="str">
-        <f>C22</f>
+        <f t="shared" ref="AI20:AJ26" si="9">C22</f>
         <v>R-SH_Apt_RSDELC_HPN1</v>
       </c>
       <c r="AJ20" s="152" t="str">
-        <f>D22</f>
+        <f t="shared" si="9"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AK20" s="153" t="s">
@@ -17172,11 +17378,11 @@
       <c r="AF21" s="82"/>
       <c r="AH21" s="155"/>
       <c r="AI21" s="154" t="str">
-        <f>C23</f>
+        <f t="shared" si="9"/>
         <v>R-HC_Apt_RSDELC_HPN1</v>
       </c>
       <c r="AJ21" s="154" t="str">
-        <f>D23</f>
+        <f t="shared" si="9"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AK21" s="155" t="s">
@@ -17269,11 +17475,11 @@
       </c>
       <c r="AH22" s="155"/>
       <c r="AI22" s="154" t="str">
-        <f>C24</f>
+        <f t="shared" si="9"/>
         <v>R-SH_Apt_RSDELC_HPN2</v>
       </c>
       <c r="AJ22" s="154" t="str">
-        <f>D24</f>
+        <f t="shared" si="9"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AK22" s="155" t="s">
@@ -17378,11 +17584,11 @@
       </c>
       <c r="AH23" s="155"/>
       <c r="AI23" s="154" t="str">
-        <f>C25</f>
+        <f t="shared" si="9"/>
         <v>R-H_Apt_RSDELC_HPN1</v>
       </c>
       <c r="AJ23" s="154" t="str">
-        <f>D25</f>
+        <f t="shared" si="9"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AK23" s="155" t="s">
@@ -17473,13 +17679,13 @@
       <c r="AF24" s="113">
         <v>2019</v>
       </c>
-      <c r="AH24" s="331"/>
+      <c r="AH24" s="306"/>
       <c r="AI24" s="154" t="str">
-        <f>C26</f>
+        <f t="shared" si="9"/>
         <v>R-H_Apt_RENSOL_HPN2</v>
       </c>
       <c r="AJ24" s="154" t="str">
-        <f>D26</f>
+        <f t="shared" si="9"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
       <c r="AK24" s="155" t="s">
@@ -17582,13 +17788,13 @@
       <c r="AF25" s="114">
         <v>2019</v>
       </c>
-      <c r="AH25" s="331"/>
+      <c r="AH25" s="306"/>
       <c r="AI25" s="154" t="str">
-        <f>C27</f>
+        <f t="shared" si="9"/>
         <v>R-SH_Apt_RSDELC_HPN3</v>
       </c>
       <c r="AJ25" s="154" t="str">
-        <f>D27</f>
+        <f t="shared" si="9"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AK25" s="155" t="s">
@@ -17695,11 +17901,11 @@
       </c>
       <c r="AH26" s="161"/>
       <c r="AI26" s="157" t="str">
-        <f>C28</f>
+        <f t="shared" si="9"/>
         <v>R-HC_Apt_RSDELC_HPN2</v>
       </c>
       <c r="AJ26" s="157" t="str">
-        <f>D28</f>
+        <f t="shared" si="9"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AK26" s="158" t="s">
@@ -17899,7 +18105,7 @@
       <c r="AF28" s="113">
         <v>2019</v>
       </c>
-      <c r="AH28" s="332"/>
+      <c r="AH28" s="307"/>
       <c r="AI28" s="157" t="str">
         <f>C31</f>
         <v>R-H_Apt_GASNAT_HPN2</v>
@@ -17952,7 +18158,7 @@
       <c r="AD29" s="81"/>
       <c r="AE29" s="82"/>
       <c r="AF29" s="82"/>
-      <c r="AH29" s="333"/>
+      <c r="AH29" s="308"/>
       <c r="AI29" s="160" t="str">
         <f>C33</f>
         <v>R-H_Apt_GASNAT_HHPN1</v>
@@ -18013,15 +18219,15 @@
         <v>1.0149999999999999</v>
       </c>
       <c r="P30" s="95">
-        <f t="shared" ref="P30:R30" si="9">H30*0.7</f>
+        <f t="shared" ref="P30:R30" si="10">H30*0.7</f>
         <v>1.19</v>
       </c>
       <c r="Q30" s="95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.19</v>
       </c>
       <c r="R30" s="96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.19</v>
       </c>
       <c r="S30" s="100">
@@ -18061,7 +18267,7 @@
       <c r="AF30" s="137">
         <v>2019</v>
       </c>
-      <c r="AH30" s="334"/>
+      <c r="AH30" s="309"/>
       <c r="AI30" s="152" t="str">
         <f>C35</f>
         <v>R-H_Apt_RSDHET_N1</v>
@@ -18122,15 +18328,15 @@
         <v>1.085</v>
       </c>
       <c r="P31" s="98">
-        <f t="shared" ref="P31" si="10">H31*0.7</f>
+        <f t="shared" ref="P31" si="11">H31*0.7</f>
         <v>1.085</v>
       </c>
       <c r="Q31" s="98">
-        <f t="shared" ref="Q31" si="11">I31*0.7</f>
+        <f t="shared" ref="Q31" si="12">I31*0.7</f>
         <v>1.1199999999999999</v>
       </c>
       <c r="R31" s="99">
-        <f t="shared" ref="R31" si="12">J31*0.7</f>
+        <f t="shared" ref="R31" si="13">J31*0.7</f>
         <v>1.1199999999999999</v>
       </c>
       <c r="S31" s="103">
@@ -18223,13 +18429,13 @@
       <c r="AD32" s="81"/>
       <c r="AE32" s="82"/>
       <c r="AF32" s="82"/>
-      <c r="AH32" s="334"/>
+      <c r="AH32" s="309"/>
       <c r="AI32" s="152" t="str">
-        <f>C38</f>
+        <f t="shared" ref="AI32:AJ36" si="14">C38</f>
         <v>R-WH_Apt_RSDELC_N1</v>
       </c>
       <c r="AJ32" s="152" t="str">
-        <f>D38</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">Residential Electric Water Heater </v>
       </c>
       <c r="AK32" s="153" t="s">
@@ -18280,15 +18486,15 @@
         <v>2.17</v>
       </c>
       <c r="P33" s="98">
-        <f t="shared" ref="P33:R33" si="13">H33*0.7</f>
+        <f t="shared" ref="P33:R33" si="15">H33*0.7</f>
         <v>2.2749999999999999</v>
       </c>
       <c r="Q33" s="98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.38</v>
       </c>
       <c r="R33" s="99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.52</v>
       </c>
       <c r="S33" s="5">
@@ -18327,11 +18533,11 @@
       </c>
       <c r="AH33" s="4"/>
       <c r="AI33" s="154" t="str">
-        <f>C39</f>
+        <f t="shared" si="14"/>
         <v>R-WH_Apt_RENSOL_N1</v>
       </c>
       <c r="AJ33" s="154" t="str">
-        <f>D39</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">Residential Solar Water Heater </v>
       </c>
       <c r="AK33" s="155" t="s">
@@ -18380,11 +18586,11 @@
       <c r="AF34" s="82"/>
       <c r="AH34" s="4"/>
       <c r="AI34" s="154" t="str">
-        <f>C40</f>
+        <f t="shared" si="14"/>
         <v>R-WH_Apt_GASNAT_N1</v>
       </c>
       <c r="AJ34" s="154" t="str">
-        <f>D40</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">Residential Gas Water Heater </v>
       </c>
       <c r="AK34" s="155" t="s">
@@ -18490,11 +18696,11 @@
       </c>
       <c r="AH35" s="4"/>
       <c r="AI35" s="154" t="str">
-        <f>C41</f>
+        <f t="shared" si="14"/>
         <v>R-WH_Apt_BIOWOO_N1</v>
       </c>
       <c r="AJ35" s="154" t="str">
-        <f>D41</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">Residential Biomass Water Heater </v>
       </c>
       <c r="AK35" s="155" t="s">
@@ -18600,11 +18806,11 @@
       </c>
       <c r="AH36" s="164"/>
       <c r="AI36" s="157" t="str">
-        <f>C42</f>
+        <f t="shared" si="14"/>
         <v>R-WH_Apt_OILLPG_N1</v>
       </c>
       <c r="AJ36" s="157" t="str">
-        <f>D42</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">Residential Liquid Petroleum Gas Water Heater </v>
       </c>
       <c r="AK36" s="158" t="s">
@@ -18751,7 +18957,7 @@
     </row>
     <row r="39" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C39" s="77" t="str">
-        <f t="shared" ref="C39:C42" si="14">"R-WH_Apt"&amp;"_"&amp;RIGHT(E39,6)&amp;"_N1"</f>
+        <f t="shared" ref="C39:C42" si="16">"R-WH_Apt"&amp;"_"&amp;RIGHT(E39,6)&amp;"_N1"</f>
         <v>R-WH_Apt_RENSOL_N1</v>
       </c>
       <c r="D39" s="70" t="s">
@@ -18833,7 +19039,7 @@
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C40" s="77" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>R-WH_Apt_GASNAT_N1</v>
       </c>
       <c r="D40" s="77" t="s">
@@ -18912,7 +19118,7 @@
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C41" s="77" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>R-WH_Apt_BIOWOO_N1</v>
       </c>
       <c r="D41" s="70" t="s">
@@ -18991,7 +19197,7 @@
     </row>
     <row r="42" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C42" s="77" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>R-WH_Apt_OILLPG_N1</v>
       </c>
       <c r="D42" s="139" t="s">
@@ -19290,34 +19496,34 @@
       <c r="F50" s="63" t="s">
         <v>336</v>
       </c>
-      <c r="G50" s="327" t="s">
+      <c r="G50" s="332" t="s">
         <v>337</v>
       </c>
-      <c r="H50" s="328"/>
-      <c r="I50" s="328"/>
-      <c r="J50" s="329"/>
-      <c r="K50" s="327" t="s">
+      <c r="H50" s="333"/>
+      <c r="I50" s="333"/>
+      <c r="J50" s="334"/>
+      <c r="K50" s="332" t="s">
         <v>338</v>
       </c>
-      <c r="L50" s="328"/>
-      <c r="M50" s="328"/>
-      <c r="N50" s="329"/>
-      <c r="O50" s="327" t="s">
+      <c r="L50" s="333"/>
+      <c r="M50" s="333"/>
+      <c r="N50" s="334"/>
+      <c r="O50" s="332" t="s">
         <v>339</v>
       </c>
-      <c r="P50" s="328"/>
-      <c r="Q50" s="328"/>
-      <c r="R50" s="329"/>
-      <c r="S50" s="327" t="s">
+      <c r="P50" s="333"/>
+      <c r="Q50" s="333"/>
+      <c r="R50" s="334"/>
+      <c r="S50" s="332" t="s">
         <v>340</v>
       </c>
-      <c r="T50" s="329"/>
-      <c r="U50" s="321" t="s">
+      <c r="T50" s="334"/>
+      <c r="U50" s="326" t="s">
         <v>341</v>
       </c>
-      <c r="V50" s="322"/>
-      <c r="W50" s="322"/>
-      <c r="X50" s="323"/>
+      <c r="V50" s="327"/>
+      <c r="W50" s="327"/>
+      <c r="X50" s="328"/>
       <c r="Y50" s="108"/>
       <c r="Z50" s="108"/>
       <c r="AA50" s="116" t="s">
@@ -19408,34 +19614,34 @@
       <c r="D52" s="86"/>
       <c r="E52" s="86"/>
       <c r="F52" s="87"/>
-      <c r="G52" s="324" t="s">
+      <c r="G52" s="329" t="s">
         <v>56</v>
       </c>
-      <c r="H52" s="325"/>
-      <c r="I52" s="325"/>
-      <c r="J52" s="326"/>
-      <c r="K52" s="325" t="s">
+      <c r="H52" s="330"/>
+      <c r="I52" s="330"/>
+      <c r="J52" s="331"/>
+      <c r="K52" s="330" t="s">
         <v>56</v>
       </c>
-      <c r="L52" s="325"/>
-      <c r="M52" s="325"/>
-      <c r="N52" s="326"/>
-      <c r="O52" s="324" t="s">
+      <c r="L52" s="330"/>
+      <c r="M52" s="330"/>
+      <c r="N52" s="331"/>
+      <c r="O52" s="329" t="s">
         <v>56</v>
       </c>
-      <c r="P52" s="325"/>
-      <c r="Q52" s="325"/>
-      <c r="R52" s="326"/>
-      <c r="S52" s="324" t="s">
+      <c r="P52" s="330"/>
+      <c r="Q52" s="330"/>
+      <c r="R52" s="331"/>
+      <c r="S52" s="329" t="s">
         <v>314</v>
       </c>
-      <c r="T52" s="326"/>
-      <c r="U52" s="324" t="s">
+      <c r="T52" s="331"/>
+      <c r="U52" s="329" t="s">
         <v>347</v>
       </c>
-      <c r="V52" s="325"/>
-      <c r="W52" s="325"/>
-      <c r="X52" s="326"/>
+      <c r="V52" s="330"/>
+      <c r="W52" s="330"/>
+      <c r="X52" s="331"/>
       <c r="Y52" s="109" t="s">
         <v>348</v>
       </c>
@@ -19460,25 +19666,25 @@
       <c r="AF52" s="109" t="s">
         <v>351</v>
       </c>
-      <c r="AH52" s="330" t="s">
+      <c r="AH52" s="305" t="s">
         <v>315</v>
       </c>
-      <c r="AI52" s="330" t="s">
+      <c r="AI52" s="305" t="s">
         <v>316</v>
       </c>
-      <c r="AJ52" s="330" t="s">
+      <c r="AJ52" s="305" t="s">
         <v>53</v>
       </c>
-      <c r="AK52" s="330" t="s">
+      <c r="AK52" s="305" t="s">
         <v>317</v>
       </c>
-      <c r="AL52" s="330" t="s">
+      <c r="AL52" s="305" t="s">
         <v>318</v>
       </c>
-      <c r="AM52" s="330" t="s">
+      <c r="AM52" s="305" t="s">
         <v>319</v>
       </c>
-      <c r="AN52" s="330" t="s">
+      <c r="AN52" s="305" t="s">
         <v>320</v>
       </c>
     </row>
@@ -19622,15 +19828,15 @@
         <v>0.6825</v>
       </c>
       <c r="P54" s="80">
-        <f t="shared" ref="P54" si="15">H54*0.7</f>
+        <f t="shared" ref="P54" si="17">H54*0.7</f>
         <v>0.6895</v>
       </c>
       <c r="Q54" s="80">
-        <f t="shared" ref="Q54" si="16">I54*0.7</f>
+        <f t="shared" ref="Q54" si="18">I54*0.7</f>
         <v>0</v>
       </c>
       <c r="R54" s="93">
-        <f t="shared" ref="R54" si="17">J54*0.7</f>
+        <f t="shared" ref="R54" si="19">J54*0.7</f>
         <v>0</v>
       </c>
       <c r="S54" s="101">
@@ -19672,11 +19878,11 @@
       </c>
       <c r="AH54" s="155"/>
       <c r="AI54" s="154" t="str">
-        <f t="shared" ref="AI54:AI64" si="18">C54</f>
+        <f t="shared" ref="AI54:AI64" si="20">C54</f>
         <v>R-H_Att_OILKER_N1</v>
       </c>
       <c r="AJ54" s="154" t="str">
-        <f t="shared" ref="AJ54:AJ64" si="19">D54</f>
+        <f t="shared" ref="AJ54:AJ64" si="21">D54</f>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AK54" s="155" t="s">
@@ -19778,11 +19984,11 @@
       </c>
       <c r="AH55" s="155"/>
       <c r="AI55" s="154" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>R-H_Att_OILKER_N2</v>
       </c>
       <c r="AJ55" s="154" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
       <c r="AK55" s="155" t="s">
@@ -19837,15 +20043,15 @@
         <v>0.56055999999999995</v>
       </c>
       <c r="P56" s="80">
-        <f t="shared" ref="P56" si="20">H56*0.7</f>
+        <f t="shared" ref="P56" si="22">H56*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="Q56" s="80">
-        <f t="shared" ref="Q56" si="21">I56*0.7</f>
+        <f t="shared" ref="Q56" si="23">I56*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="R56" s="93">
-        <f t="shared" ref="R56" si="22">J56*0.7</f>
+        <f t="shared" ref="R56" si="24">J56*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="S56" s="101">
@@ -19885,11 +20091,11 @@
       </c>
       <c r="AH56" s="155"/>
       <c r="AI56" s="154" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>R-H_Att_OILKER_N3</v>
       </c>
       <c r="AJ56" s="154" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
       <c r="AK56" s="156" t="s">
@@ -19980,11 +20186,11 @@
       </c>
       <c r="AH57" s="155"/>
       <c r="AI57" s="154" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>R-SH_Att_GASNAT_N1</v>
       </c>
       <c r="AJ57" s="154" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AK57" s="155" t="s">
@@ -20089,11 +20295,11 @@
       </c>
       <c r="AH58" s="155"/>
       <c r="AI58" s="154" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>R-H_Att_GASNAT_N1</v>
       </c>
       <c r="AJ58" s="154" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AK58" s="155" t="s">
@@ -20200,11 +20406,11 @@
       </c>
       <c r="AH59" s="155"/>
       <c r="AI59" s="154" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>R-H_Att_GASNAT_N2</v>
       </c>
       <c r="AJ59" s="154" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
       <c r="AK59" s="155" t="s">
@@ -20259,15 +20465,15 @@
         <v>0.56055999999999995</v>
       </c>
       <c r="P60" s="80">
-        <f t="shared" ref="P60" si="23">H60*0.7</f>
+        <f t="shared" ref="P60" si="25">H60*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="Q60" s="80">
-        <f t="shared" ref="Q60" si="24">I60*0.7</f>
+        <f t="shared" ref="Q60" si="26">I60*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="R60" s="93">
-        <f t="shared" ref="R60" si="25">J60*0.7</f>
+        <f t="shared" ref="R60" si="27">J60*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="S60" s="101">
@@ -20311,11 +20517,11 @@
       </c>
       <c r="AH60" s="155"/>
       <c r="AI60" s="154" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>R-H_Att_GASNAT_N3</v>
       </c>
       <c r="AJ60" s="154" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
       <c r="AK60" s="155" t="s">
@@ -20408,11 +20614,11 @@
       </c>
       <c r="AH61" s="155"/>
       <c r="AI61" s="154" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>R-SH_Att_OILLPG_N1</v>
       </c>
       <c r="AJ61" s="154" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AK61" s="155" t="s">
@@ -20467,15 +20673,15 @@
         <v>0.60759999999999992</v>
       </c>
       <c r="P62" s="80">
-        <f t="shared" ref="P62" si="26">H62*0.7</f>
+        <f t="shared" ref="P62" si="28">H62*0.7</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q62" s="80">
-        <f t="shared" ref="Q62" si="27">I62*0.7</f>
+        <f t="shared" ref="Q62" si="29">I62*0.7</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="R62" s="93">
-        <f t="shared" ref="R62" si="28">J62*0.7</f>
+        <f t="shared" ref="R62" si="30">J62*0.7</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="S62" s="101">
@@ -20517,11 +20723,11 @@
       </c>
       <c r="AH62" s="155"/>
       <c r="AI62" s="154" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>R-H_Att_OILLPG_N1</v>
       </c>
       <c r="AJ62" s="154" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AK62" s="155" t="s">
@@ -20602,11 +20808,11 @@
       </c>
       <c r="AH63" s="155"/>
       <c r="AI63" s="154" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>R-SH_Att_BIOWOO_N1</v>
       </c>
       <c r="AJ63" s="154" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AK63" s="155" t="s">
@@ -20661,15 +20867,15 @@
         <v>0.61949999999999994</v>
       </c>
       <c r="P64" s="98">
-        <f t="shared" ref="P64" si="29">H64*0.7</f>
+        <f t="shared" ref="P64" si="31">H64*0.7</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="Q64" s="98">
-        <f t="shared" ref="Q64" si="30">I64*0.7</f>
+        <f t="shared" ref="Q64" si="32">I64*0.7</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="R64" s="99">
-        <f t="shared" ref="R64" si="31">J64*0.7</f>
+        <f t="shared" ref="R64" si="33">J64*0.7</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="S64" s="103">
@@ -20699,11 +20905,11 @@
       </c>
       <c r="AH64" s="158"/>
       <c r="AI64" s="157" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>R-H_Att_BIOWOO_N1</v>
       </c>
       <c r="AJ64" s="157" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AK64" s="158" t="s">
@@ -20849,11 +21055,11 @@
       </c>
       <c r="AH66" s="153"/>
       <c r="AI66" s="152" t="str">
-        <f>C68</f>
+        <f t="shared" ref="AI66:AJ72" si="34">C68</f>
         <v>R-SH_Att_RSDELC_HPN1</v>
       </c>
       <c r="AJ66" s="152" t="str">
-        <f>D68</f>
+        <f t="shared" si="34"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AK66" s="153" t="s">
@@ -20902,11 +21108,11 @@
       <c r="AF67" s="82"/>
       <c r="AH67" s="155"/>
       <c r="AI67" s="154" t="str">
-        <f>C69</f>
+        <f t="shared" si="34"/>
         <v>R-HC_Att_RSDELC_HPN1</v>
       </c>
       <c r="AJ67" s="154" t="str">
-        <f>D69</f>
+        <f t="shared" si="34"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AK67" s="155" t="s">
@@ -20999,11 +21205,11 @@
       </c>
       <c r="AH68" s="155"/>
       <c r="AI68" s="154" t="str">
-        <f>C70</f>
+        <f t="shared" si="34"/>
         <v>R-SH_Att_RSDELC_HPN2</v>
       </c>
       <c r="AJ68" s="154" t="str">
-        <f>D70</f>
+        <f t="shared" si="34"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AK68" s="155" t="s">
@@ -21108,11 +21314,11 @@
       </c>
       <c r="AH69" s="155"/>
       <c r="AI69" s="154" t="str">
-        <f>C71</f>
+        <f t="shared" si="34"/>
         <v>R-H_Att_RSDELC_HPN1</v>
       </c>
       <c r="AJ69" s="154" t="str">
-        <f>D71</f>
+        <f t="shared" si="34"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AK69" s="155" t="s">
@@ -21203,13 +21409,13 @@
       <c r="AF70" s="113">
         <v>2019</v>
       </c>
-      <c r="AH70" s="331"/>
+      <c r="AH70" s="306"/>
       <c r="AI70" s="154" t="str">
-        <f>C72</f>
+        <f t="shared" si="34"/>
         <v>R-H_Att_RENSOL_HPN2</v>
       </c>
       <c r="AJ70" s="154" t="str">
-        <f>D72</f>
+        <f t="shared" si="34"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
       <c r="AK70" s="155" t="s">
@@ -21312,13 +21518,13 @@
       <c r="AF71" s="114">
         <v>2019</v>
       </c>
-      <c r="AH71" s="331"/>
+      <c r="AH71" s="306"/>
       <c r="AI71" s="154" t="str">
-        <f>C73</f>
+        <f t="shared" si="34"/>
         <v>R-SH_Att_RSDELC_HPN3</v>
       </c>
       <c r="AJ71" s="154" t="str">
-        <f>D73</f>
+        <f t="shared" si="34"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AK71" s="155" t="s">
@@ -21425,11 +21631,11 @@
       </c>
       <c r="AH72" s="161"/>
       <c r="AI72" s="157" t="str">
-        <f>C74</f>
+        <f t="shared" si="34"/>
         <v>R-HC_Att_RSDELC_HPN2</v>
       </c>
       <c r="AJ72" s="157" t="str">
-        <f>D74</f>
+        <f t="shared" si="34"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AK72" s="158" t="s">
@@ -21629,7 +21835,7 @@
       <c r="AF74" s="113">
         <v>2019</v>
       </c>
-      <c r="AH74" s="332"/>
+      <c r="AH74" s="307"/>
       <c r="AI74" s="157" t="str">
         <f>C77</f>
         <v>R-H_Att_GASNAT_HPN2</v>
@@ -21682,7 +21888,7 @@
       <c r="AD75" s="81"/>
       <c r="AE75" s="82"/>
       <c r="AF75" s="82"/>
-      <c r="AH75" s="333"/>
+      <c r="AH75" s="308"/>
       <c r="AI75" s="160" t="str">
         <f>C79</f>
         <v>R-H_Att_GASNAT_HHPN1</v>
@@ -21743,15 +21949,15 @@
         <v>1.0149999999999999</v>
       </c>
       <c r="P76" s="95">
-        <f t="shared" ref="P76:P77" si="32">H76*0.7</f>
+        <f t="shared" ref="P76:P77" si="35">H76*0.7</f>
         <v>1.19</v>
       </c>
       <c r="Q76" s="95">
-        <f t="shared" ref="Q76:Q77" si="33">I76*0.7</f>
+        <f t="shared" ref="Q76:Q77" si="36">I76*0.7</f>
         <v>1.19</v>
       </c>
       <c r="R76" s="96">
-        <f t="shared" ref="R76:R77" si="34">J76*0.7</f>
+        <f t="shared" ref="R76:R77" si="37">J76*0.7</f>
         <v>1.19</v>
       </c>
       <c r="S76" s="100">
@@ -21791,7 +21997,7 @@
       <c r="AF76" s="137">
         <v>2019</v>
       </c>
-      <c r="AH76" s="334"/>
+      <c r="AH76" s="309"/>
       <c r="AI76" s="152" t="str">
         <f>C81</f>
         <v>R-H_Att_RSDHET_N1</v>
@@ -21852,15 +22058,15 @@
         <v>1.085</v>
       </c>
       <c r="P77" s="98">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1.085</v>
       </c>
       <c r="Q77" s="98">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="R77" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="S77" s="103">
@@ -21953,13 +22159,13 @@
       <c r="AD78" s="81"/>
       <c r="AE78" s="82"/>
       <c r="AF78" s="82"/>
-      <c r="AH78" s="334"/>
+      <c r="AH78" s="309"/>
       <c r="AI78" s="152" t="str">
-        <f>C84</f>
+        <f t="shared" ref="AI78:AJ82" si="38">C84</f>
         <v>R-WH_Att_RSDELC_N1</v>
       </c>
       <c r="AJ78" s="152" t="str">
-        <f>D84</f>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">Residential Electric Water Heater </v>
       </c>
       <c r="AK78" s="153" t="s">
@@ -22010,15 +22216,15 @@
         <v>2.17</v>
       </c>
       <c r="P79" s="98">
-        <f t="shared" ref="P79" si="35">H79*0.7</f>
+        <f t="shared" ref="P79" si="39">H79*0.7</f>
         <v>2.2749999999999999</v>
       </c>
       <c r="Q79" s="98">
-        <f t="shared" ref="Q79" si="36">I79*0.7</f>
+        <f t="shared" ref="Q79" si="40">I79*0.7</f>
         <v>2.38</v>
       </c>
       <c r="R79" s="99">
-        <f t="shared" ref="R79" si="37">J79*0.7</f>
+        <f t="shared" ref="R79" si="41">J79*0.7</f>
         <v>2.52</v>
       </c>
       <c r="S79" s="5">
@@ -22057,11 +22263,11 @@
       </c>
       <c r="AH79" s="4"/>
       <c r="AI79" s="154" t="str">
-        <f>C85</f>
+        <f t="shared" si="38"/>
         <v>R-WH_Att_RENSOL_N1</v>
       </c>
       <c r="AJ79" s="154" t="str">
-        <f>D85</f>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">Residential Solar Water Heater </v>
       </c>
       <c r="AK79" s="155" t="s">
@@ -22110,11 +22316,11 @@
       <c r="AF80" s="82"/>
       <c r="AH80" s="4"/>
       <c r="AI80" s="154" t="str">
-        <f>C86</f>
+        <f t="shared" si="38"/>
         <v>R-WH_Att_GASNAT_N1</v>
       </c>
       <c r="AJ80" s="154" t="str">
-        <f>D86</f>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">Residential Gas Water Heater </v>
       </c>
       <c r="AK80" s="155" t="s">
@@ -22220,11 +22426,11 @@
       </c>
       <c r="AH81" s="4"/>
       <c r="AI81" s="154" t="str">
-        <f>C87</f>
+        <f t="shared" si="38"/>
         <v>R-WH_Att_BIOWOO_N1</v>
       </c>
       <c r="AJ81" s="154" t="str">
-        <f>D87</f>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">Residential Biomass Water Heater </v>
       </c>
       <c r="AK81" s="155" t="s">
@@ -22330,11 +22536,11 @@
       </c>
       <c r="AH82" s="164"/>
       <c r="AI82" s="157" t="str">
-        <f>C88</f>
+        <f t="shared" si="38"/>
         <v>R-WH_Att_OILLPG_N1</v>
       </c>
       <c r="AJ82" s="157" t="str">
-        <f>D88</f>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">Residential Liquid Petroleum Gas Water Heater </v>
       </c>
       <c r="AK82" s="158" t="s">
@@ -23020,34 +23226,34 @@
       <c r="F97" s="63" t="s">
         <v>336</v>
       </c>
-      <c r="G97" s="327" t="s">
+      <c r="G97" s="332" t="s">
         <v>337</v>
       </c>
-      <c r="H97" s="328"/>
-      <c r="I97" s="328"/>
-      <c r="J97" s="329"/>
-      <c r="K97" s="327" t="s">
+      <c r="H97" s="333"/>
+      <c r="I97" s="333"/>
+      <c r="J97" s="334"/>
+      <c r="K97" s="332" t="s">
         <v>338</v>
       </c>
-      <c r="L97" s="328"/>
-      <c r="M97" s="328"/>
-      <c r="N97" s="329"/>
-      <c r="O97" s="327" t="s">
+      <c r="L97" s="333"/>
+      <c r="M97" s="333"/>
+      <c r="N97" s="334"/>
+      <c r="O97" s="332" t="s">
         <v>339</v>
       </c>
-      <c r="P97" s="328"/>
-      <c r="Q97" s="328"/>
-      <c r="R97" s="329"/>
-      <c r="S97" s="327" t="s">
+      <c r="P97" s="333"/>
+      <c r="Q97" s="333"/>
+      <c r="R97" s="334"/>
+      <c r="S97" s="332" t="s">
         <v>340</v>
       </c>
-      <c r="T97" s="329"/>
-      <c r="U97" s="321" t="s">
+      <c r="T97" s="334"/>
+      <c r="U97" s="326" t="s">
         <v>341</v>
       </c>
-      <c r="V97" s="322"/>
-      <c r="W97" s="322"/>
-      <c r="X97" s="323"/>
+      <c r="V97" s="327"/>
+      <c r="W97" s="327"/>
+      <c r="X97" s="328"/>
       <c r="Y97" s="108"/>
       <c r="Z97" s="108"/>
       <c r="AA97" s="116" t="s">
@@ -23138,34 +23344,34 @@
       <c r="D99" s="86"/>
       <c r="E99" s="86"/>
       <c r="F99" s="87"/>
-      <c r="G99" s="324" t="s">
+      <c r="G99" s="329" t="s">
         <v>56</v>
       </c>
-      <c r="H99" s="325"/>
-      <c r="I99" s="325"/>
-      <c r="J99" s="326"/>
-      <c r="K99" s="325" t="s">
+      <c r="H99" s="330"/>
+      <c r="I99" s="330"/>
+      <c r="J99" s="331"/>
+      <c r="K99" s="330" t="s">
         <v>56</v>
       </c>
-      <c r="L99" s="325"/>
-      <c r="M99" s="325"/>
-      <c r="N99" s="326"/>
-      <c r="O99" s="324" t="s">
+      <c r="L99" s="330"/>
+      <c r="M99" s="330"/>
+      <c r="N99" s="331"/>
+      <c r="O99" s="329" t="s">
         <v>56</v>
       </c>
-      <c r="P99" s="325"/>
-      <c r="Q99" s="325"/>
-      <c r="R99" s="326"/>
-      <c r="S99" s="324" t="s">
+      <c r="P99" s="330"/>
+      <c r="Q99" s="330"/>
+      <c r="R99" s="331"/>
+      <c r="S99" s="329" t="s">
         <v>314</v>
       </c>
-      <c r="T99" s="326"/>
-      <c r="U99" s="324" t="s">
+      <c r="T99" s="331"/>
+      <c r="U99" s="329" t="s">
         <v>347</v>
       </c>
-      <c r="V99" s="325"/>
-      <c r="W99" s="325"/>
-      <c r="X99" s="326"/>
+      <c r="V99" s="330"/>
+      <c r="W99" s="330"/>
+      <c r="X99" s="331"/>
       <c r="Y99" s="109" t="s">
         <v>348</v>
       </c>
@@ -23190,25 +23396,25 @@
       <c r="AF99" s="109" t="s">
         <v>351</v>
       </c>
-      <c r="AH99" s="330" t="s">
+      <c r="AH99" s="305" t="s">
         <v>315</v>
       </c>
-      <c r="AI99" s="330" t="s">
+      <c r="AI99" s="305" t="s">
         <v>316</v>
       </c>
-      <c r="AJ99" s="330" t="s">
+      <c r="AJ99" s="305" t="s">
         <v>53</v>
       </c>
-      <c r="AK99" s="330" t="s">
+      <c r="AK99" s="305" t="s">
         <v>317</v>
       </c>
-      <c r="AL99" s="330" t="s">
+      <c r="AL99" s="305" t="s">
         <v>318</v>
       </c>
-      <c r="AM99" s="330" t="s">
+      <c r="AM99" s="305" t="s">
         <v>319</v>
       </c>
-      <c r="AN99" s="330" t="s">
+      <c r="AN99" s="305" t="s">
         <v>320</v>
       </c>
     </row>
@@ -23352,15 +23558,15 @@
         <v>0</v>
       </c>
       <c r="P101" s="80">
-        <f t="shared" ref="P101" si="38">H101*0.7</f>
+        <f t="shared" ref="P101" si="42">H101*0.7</f>
         <v>0</v>
       </c>
       <c r="Q101" s="80">
-        <f t="shared" ref="Q101" si="39">I101*0.7</f>
+        <f t="shared" ref="Q101" si="43">I101*0.7</f>
         <v>0</v>
       </c>
       <c r="R101" s="93">
-        <f t="shared" ref="R101" si="40">J101*0.7</f>
+        <f t="shared" ref="R101" si="44">J101*0.7</f>
         <v>0</v>
       </c>
       <c r="S101" s="101">
@@ -23402,11 +23608,11 @@
       </c>
       <c r="AH101" s="155"/>
       <c r="AI101" s="154" t="str">
-        <f t="shared" ref="AI101:AI111" si="41">C101</f>
+        <f t="shared" ref="AI101:AI111" si="45">C101</f>
         <v>R-H_Det_OILKER_N1</v>
       </c>
       <c r="AJ101" s="154" t="str">
-        <f t="shared" ref="AJ101:AJ111" si="42">D101</f>
+        <f t="shared" ref="AJ101:AJ111" si="46">D101</f>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AK101" s="155" t="s">
@@ -23508,11 +23714,11 @@
       </c>
       <c r="AH102" s="155"/>
       <c r="AI102" s="154" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>R-H_Det_OILKER_N2</v>
       </c>
       <c r="AJ102" s="154" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
       <c r="AK102" s="155" t="s">
@@ -23567,15 +23773,15 @@
         <v>0.56055999999999995</v>
       </c>
       <c r="P103" s="80">
-        <f t="shared" ref="P103" si="43">H103*0.7</f>
+        <f t="shared" ref="P103" si="47">H103*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="Q103" s="80">
-        <f t="shared" ref="Q103" si="44">I103*0.7</f>
+        <f t="shared" ref="Q103" si="48">I103*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="R103" s="93">
-        <f t="shared" ref="R103" si="45">J103*0.7</f>
+        <f t="shared" ref="R103" si="49">J103*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="S103" s="101">
@@ -23615,11 +23821,11 @@
       </c>
       <c r="AH103" s="155"/>
       <c r="AI103" s="154" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>R-H_Det_OILKER_N3</v>
       </c>
       <c r="AJ103" s="154" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
       <c r="AK103" s="156" t="s">
@@ -23710,11 +23916,11 @@
       </c>
       <c r="AH104" s="155"/>
       <c r="AI104" s="154" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>R-SH_Det_GASNAT_N1</v>
       </c>
       <c r="AJ104" s="154" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AK104" s="155" t="s">
@@ -23819,11 +24025,11 @@
       </c>
       <c r="AH105" s="155"/>
       <c r="AI105" s="154" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>R-H_Det_GASNAT_N1</v>
       </c>
       <c r="AJ105" s="154" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AK105" s="155" t="s">
@@ -23930,11 +24136,11 @@
       </c>
       <c r="AH106" s="155"/>
       <c r="AI106" s="154" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>R-H_Det_GASNAT_N2</v>
       </c>
       <c r="AJ106" s="154" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
       <c r="AK106" s="155" t="s">
@@ -23989,15 +24195,15 @@
         <v>0.56055999999999995</v>
       </c>
       <c r="P107" s="80">
-        <f t="shared" ref="P107" si="46">H107*0.7</f>
+        <f t="shared" ref="P107" si="50">H107*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="Q107" s="80">
-        <f t="shared" ref="Q107" si="47">I107*0.7</f>
+        <f t="shared" ref="Q107" si="51">I107*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="R107" s="93">
-        <f t="shared" ref="R107" si="48">J107*0.7</f>
+        <f t="shared" ref="R107" si="52">J107*0.7</f>
         <v>0.57455999999999996</v>
       </c>
       <c r="S107" s="101">
@@ -24041,11 +24247,11 @@
       </c>
       <c r="AH107" s="155"/>
       <c r="AI107" s="154" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>R-H_Det_GASNAT_N3</v>
       </c>
       <c r="AJ107" s="154" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
       <c r="AK107" s="155" t="s">
@@ -24138,11 +24344,11 @@
       </c>
       <c r="AH108" s="155"/>
       <c r="AI108" s="154" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>R-SH_Det_OILLPG_N1</v>
       </c>
       <c r="AJ108" s="154" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AK108" s="155" t="s">
@@ -24197,15 +24403,15 @@
         <v>0.60759999999999992</v>
       </c>
       <c r="P109" s="80">
-        <f t="shared" ref="P109" si="49">H109*0.7</f>
+        <f t="shared" ref="P109" si="53">H109*0.7</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q109" s="80">
-        <f t="shared" ref="Q109" si="50">I109*0.7</f>
+        <f t="shared" ref="Q109" si="54">I109*0.7</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="R109" s="93">
-        <f t="shared" ref="R109" si="51">J109*0.7</f>
+        <f t="shared" ref="R109" si="55">J109*0.7</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="S109" s="101">
@@ -24247,11 +24453,11 @@
       </c>
       <c r="AH109" s="155"/>
       <c r="AI109" s="154" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>R-H_Det_OILLPG_N1</v>
       </c>
       <c r="AJ109" s="154" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AK109" s="155" t="s">
@@ -24332,11 +24538,11 @@
       </c>
       <c r="AH110" s="155"/>
       <c r="AI110" s="154" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>R-SH_Det_BIOWOO_N1</v>
       </c>
       <c r="AJ110" s="154" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AK110" s="155" t="s">
@@ -24391,15 +24597,15 @@
         <v>0.61949999999999994</v>
       </c>
       <c r="P111" s="98">
-        <f t="shared" ref="P111" si="52">H111*0.7</f>
+        <f t="shared" ref="P111" si="56">H111*0.7</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="Q111" s="98">
-        <f t="shared" ref="Q111" si="53">I111*0.7</f>
+        <f t="shared" ref="Q111" si="57">I111*0.7</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="R111" s="99">
-        <f t="shared" ref="R111" si="54">J111*0.7</f>
+        <f t="shared" ref="R111" si="58">J111*0.7</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="S111" s="103">
@@ -24429,11 +24635,11 @@
       </c>
       <c r="AH111" s="158"/>
       <c r="AI111" s="157" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>R-H_Det_BIOWOO_N1</v>
       </c>
       <c r="AJ111" s="157" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AK111" s="158" t="s">
@@ -24579,11 +24785,11 @@
       </c>
       <c r="AH113" s="153"/>
       <c r="AI113" s="152" t="str">
-        <f>C115</f>
+        <f t="shared" ref="AI113:AJ119" si="59">C115</f>
         <v>R-SH_Det_RSDELC_HPN1</v>
       </c>
       <c r="AJ113" s="152" t="str">
-        <f>D115</f>
+        <f t="shared" si="59"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AK113" s="153" t="s">
@@ -24632,11 +24838,11 @@
       <c r="AF114" s="82"/>
       <c r="AH114" s="155"/>
       <c r="AI114" s="154" t="str">
-        <f>C116</f>
+        <f t="shared" si="59"/>
         <v>R-HC_Det_RSDELC_HPN1</v>
       </c>
       <c r="AJ114" s="154" t="str">
-        <f>D116</f>
+        <f t="shared" si="59"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AK114" s="155" t="s">
@@ -24729,11 +24935,11 @@
       </c>
       <c r="AH115" s="155"/>
       <c r="AI115" s="154" t="str">
-        <f>C117</f>
+        <f t="shared" si="59"/>
         <v>R-SH_Det_RSDELC_HPN2</v>
       </c>
       <c r="AJ115" s="154" t="str">
-        <f>D117</f>
+        <f t="shared" si="59"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AK115" s="155" t="s">
@@ -24838,11 +25044,11 @@
       </c>
       <c r="AH116" s="155"/>
       <c r="AI116" s="154" t="str">
-        <f>C118</f>
+        <f t="shared" si="59"/>
         <v>R-H_Det_RSDELC_HPN1</v>
       </c>
       <c r="AJ116" s="154" t="str">
-        <f>D118</f>
+        <f t="shared" si="59"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AK116" s="155" t="s">
@@ -24933,13 +25139,13 @@
       <c r="AF117" s="113">
         <v>2019</v>
       </c>
-      <c r="AH117" s="331"/>
+      <c r="AH117" s="306"/>
       <c r="AI117" s="154" t="str">
-        <f>C119</f>
+        <f t="shared" si="59"/>
         <v>R-H_Det_RENSOL_HPN2</v>
       </c>
       <c r="AJ117" s="154" t="str">
-        <f>D119</f>
+        <f t="shared" si="59"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
       <c r="AK117" s="155" t="s">
@@ -25042,13 +25248,13 @@
       <c r="AF118" s="114">
         <v>2019</v>
       </c>
-      <c r="AH118" s="331"/>
+      <c r="AH118" s="306"/>
       <c r="AI118" s="154" t="str">
-        <f>C120</f>
+        <f t="shared" si="59"/>
         <v>R-SH_Det_RSDELC_HPN3</v>
       </c>
       <c r="AJ118" s="154" t="str">
-        <f>D120</f>
+        <f t="shared" si="59"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AK118" s="155" t="s">
@@ -25155,11 +25361,11 @@
       </c>
       <c r="AH119" s="161"/>
       <c r="AI119" s="157" t="str">
-        <f>C121</f>
+        <f t="shared" si="59"/>
         <v>R-HC_Det_RSDELC_HPN2</v>
       </c>
       <c r="AJ119" s="157" t="str">
-        <f>D121</f>
+        <f t="shared" si="59"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AK119" s="158" t="s">
@@ -25359,7 +25565,7 @@
       <c r="AF121" s="113">
         <v>2019</v>
       </c>
-      <c r="AH121" s="332"/>
+      <c r="AH121" s="307"/>
       <c r="AI121" s="157" t="str">
         <f>C124</f>
         <v>R-H_Det_GASNAT_HPN2</v>
@@ -25412,7 +25618,7 @@
       <c r="AD122" s="81"/>
       <c r="AE122" s="82"/>
       <c r="AF122" s="82"/>
-      <c r="AH122" s="333"/>
+      <c r="AH122" s="308"/>
       <c r="AI122" s="160" t="str">
         <f>C126</f>
         <v>R-H_Det_GASNAT_HHPN1</v>
@@ -25473,15 +25679,15 @@
         <v>1.0149999999999999</v>
       </c>
       <c r="P123" s="95">
-        <f t="shared" ref="P123:P124" si="55">H123*0.7</f>
+        <f t="shared" ref="P123:P124" si="60">H123*0.7</f>
         <v>1.19</v>
       </c>
       <c r="Q123" s="95">
-        <f t="shared" ref="Q123:Q124" si="56">I123*0.7</f>
+        <f t="shared" ref="Q123:Q124" si="61">I123*0.7</f>
         <v>1.19</v>
       </c>
       <c r="R123" s="96">
-        <f t="shared" ref="R123:R124" si="57">J123*0.7</f>
+        <f t="shared" ref="R123:R124" si="62">J123*0.7</f>
         <v>1.19</v>
       </c>
       <c r="S123" s="100">
@@ -25521,7 +25727,7 @@
       <c r="AF123" s="137">
         <v>2019</v>
       </c>
-      <c r="AH123" s="334"/>
+      <c r="AH123" s="309"/>
       <c r="AI123" s="152" t="str">
         <f>C128</f>
         <v>R-H_Det_RSDHET_N1</v>
@@ -25582,15 +25788,15 @@
         <v>1.085</v>
       </c>
       <c r="P124" s="98">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>1.085</v>
       </c>
       <c r="Q124" s="98">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="R124" s="99">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="S124" s="103">
@@ -25683,13 +25889,13 @@
       <c r="AD125" s="81"/>
       <c r="AE125" s="82"/>
       <c r="AF125" s="82"/>
-      <c r="AH125" s="334"/>
+      <c r="AH125" s="309"/>
       <c r="AI125" s="152" t="str">
-        <f>C131</f>
+        <f t="shared" ref="AI125:AJ129" si="63">C131</f>
         <v>R-WH_Det_RSDELC_N1</v>
       </c>
       <c r="AJ125" s="152" t="str">
-        <f>D131</f>
+        <f t="shared" si="63"/>
         <v xml:space="preserve">Residential Electric Water Heater </v>
       </c>
       <c r="AK125" s="153" t="s">
@@ -25740,15 +25946,15 @@
         <v>2.17</v>
       </c>
       <c r="P126" s="98">
-        <f t="shared" ref="P126" si="58">H126*0.7</f>
+        <f t="shared" ref="P126" si="64">H126*0.7</f>
         <v>2.2749999999999999</v>
       </c>
       <c r="Q126" s="98">
-        <f t="shared" ref="Q126" si="59">I126*0.7</f>
+        <f t="shared" ref="Q126" si="65">I126*0.7</f>
         <v>2.38</v>
       </c>
       <c r="R126" s="99">
-        <f t="shared" ref="R126" si="60">J126*0.7</f>
+        <f t="shared" ref="R126" si="66">J126*0.7</f>
         <v>2.52</v>
       </c>
       <c r="S126" s="5">
@@ -25787,11 +25993,11 @@
       </c>
       <c r="AH126" s="4"/>
       <c r="AI126" s="154" t="str">
-        <f>C132</f>
+        <f t="shared" si="63"/>
         <v>R-WH_Det_RENSOL_N1</v>
       </c>
       <c r="AJ126" s="154" t="str">
-        <f>D132</f>
+        <f t="shared" si="63"/>
         <v xml:space="preserve">Residential Solar Water Heater </v>
       </c>
       <c r="AK126" s="155" t="s">
@@ -25840,11 +26046,11 @@
       <c r="AF127" s="82"/>
       <c r="AH127" s="4"/>
       <c r="AI127" s="154" t="str">
-        <f>C133</f>
+        <f t="shared" si="63"/>
         <v>R-WH_Det_GASNAT_N1</v>
       </c>
       <c r="AJ127" s="154" t="str">
-        <f>D133</f>
+        <f t="shared" si="63"/>
         <v xml:space="preserve">Residential Gas Water Heater </v>
       </c>
       <c r="AK127" s="155" t="s">
@@ -25950,11 +26156,11 @@
       </c>
       <c r="AH128" s="4"/>
       <c r="AI128" s="154" t="str">
-        <f>C134</f>
+        <f t="shared" si="63"/>
         <v>R-WH_Det_BIOWOO_N1</v>
       </c>
       <c r="AJ128" s="154" t="str">
-        <f>D134</f>
+        <f t="shared" si="63"/>
         <v xml:space="preserve">Residential Biomass Water Heater </v>
       </c>
       <c r="AK128" s="155" t="s">
@@ -26060,11 +26266,11 @@
       </c>
       <c r="AH129" s="164"/>
       <c r="AI129" s="157" t="str">
-        <f>C135</f>
+        <f t="shared" si="63"/>
         <v>R-WH_Det_OILLPG_N1</v>
       </c>
       <c r="AJ129" s="157" t="str">
-        <f>D135</f>
+        <f t="shared" si="63"/>
         <v xml:space="preserve">Residential Liquid Petroleum Gas Water Heater </v>
       </c>
       <c r="AK129" s="158" t="s">
@@ -26877,26 +27083,6 @@
     <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="K99:N99"/>
-    <mergeCell ref="O99:R99"/>
-    <mergeCell ref="S99:T99"/>
-    <mergeCell ref="U99:X99"/>
-    <mergeCell ref="G97:J97"/>
-    <mergeCell ref="K97:N97"/>
-    <mergeCell ref="O97:R97"/>
-    <mergeCell ref="S97:T97"/>
-    <mergeCell ref="U97:X97"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="O52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="U52:X52"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="U50:X50"/>
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="U6:X6"/>
     <mergeCell ref="G4:J4"/>
@@ -26907,6 +27093,26 @@
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="O52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="G97:J97"/>
+    <mergeCell ref="K97:N97"/>
+    <mergeCell ref="O97:R97"/>
+    <mergeCell ref="S97:T97"/>
+    <mergeCell ref="U97:X97"/>
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="K99:N99"/>
+    <mergeCell ref="O99:R99"/>
+    <mergeCell ref="S99:T99"/>
+    <mergeCell ref="U99:X99"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27046,12 +27252,12 @@
       <c r="I5" s="179"/>
       <c r="J5" s="179"/>
       <c r="K5" s="179"/>
-      <c r="L5" s="321" t="s">
+      <c r="L5" s="326" t="s">
         <v>341</v>
       </c>
-      <c r="M5" s="322"/>
-      <c r="N5" s="322"/>
-      <c r="O5" s="323"/>
+      <c r="M5" s="327"/>
+      <c r="N5" s="327"/>
+      <c r="O5" s="328"/>
       <c r="P5" s="108"/>
       <c r="Q5" s="108" t="s">
         <v>342</v>
@@ -27082,12 +27288,12 @@
       <c r="I6" s="85"/>
       <c r="J6" s="85"/>
       <c r="K6" s="85"/>
-      <c r="L6" s="324" t="s">
+      <c r="L6" s="329" t="s">
         <v>347</v>
       </c>
-      <c r="M6" s="325"/>
-      <c r="N6" s="325"/>
-      <c r="O6" s="326"/>
+      <c r="M6" s="330"/>
+      <c r="N6" s="330"/>
+      <c r="O6" s="331"/>
       <c r="P6" s="109" t="s">
         <v>348</v>
       </c>
@@ -27968,12 +28174,12 @@
       <c r="I4" s="179"/>
       <c r="J4" s="179"/>
       <c r="K4" s="179"/>
-      <c r="L4" s="321" t="s">
+      <c r="L4" s="326" t="s">
         <v>341</v>
       </c>
-      <c r="M4" s="322"/>
-      <c r="N4" s="322"/>
-      <c r="O4" s="323"/>
+      <c r="M4" s="327"/>
+      <c r="N4" s="327"/>
+      <c r="O4" s="328"/>
       <c r="P4" s="108"/>
       <c r="Q4" s="108" t="s">
         <v>342</v>
@@ -27997,12 +28203,12 @@
       <c r="I5" s="85"/>
       <c r="J5" s="85"/>
       <c r="K5" s="85"/>
-      <c r="L5" s="324" t="s">
+      <c r="L5" s="329" t="s">
         <v>347</v>
       </c>
-      <c r="M5" s="325"/>
-      <c r="N5" s="325"/>
-      <c r="O5" s="326"/>
+      <c r="M5" s="330"/>
+      <c r="N5" s="330"/>
+      <c r="O5" s="331"/>
       <c r="P5" s="109" t="s">
         <v>348</v>
       </c>

--- a/SubRES_TMPL/SubRes_RSD.xlsx
+++ b/SubRES_TMPL/SubRes_RSD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EE2416-C657-469C-ABF3-62EB39A13594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66D8D33-4069-42BB-81A2-21A7D0299988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -100,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE7" authorId="0" shapeId="0" xr:uid="{374DB055-F5C1-43ED-915B-ECEEEDC762B6}">
+    <comment ref="AF7" authorId="0" shapeId="0" xr:uid="{374DB055-F5C1-43ED-915B-ECEEEDC762B6}">
       <text>
         <r>
           <rPr>
@@ -163,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE22" authorId="0" shapeId="0" xr:uid="{F19EEDD9-40FA-4C77-BA59-94989115B440}">
+    <comment ref="AF22" authorId="0" shapeId="0" xr:uid="{F19EEDD9-40FA-4C77-BA59-94989115B440}">
       <text>
         <r>
           <rPr>
@@ -187,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE30" authorId="0" shapeId="0" xr:uid="{30208F95-74ED-463A-A1CC-D482F3089D6E}">
+    <comment ref="AF30" authorId="0" shapeId="0" xr:uid="{30208F95-74ED-463A-A1CC-D482F3089D6E}">
       <text>
         <r>
           <rPr>
@@ -283,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE35" authorId="0" shapeId="0" xr:uid="{D9076208-C8AA-410C-81B8-2443BFFB1211}">
+    <comment ref="AF35" authorId="0" shapeId="0" xr:uid="{D9076208-C8AA-410C-81B8-2443BFFB1211}">
       <text>
         <r>
           <rPr>
@@ -307,7 +307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE38" authorId="0" shapeId="0" xr:uid="{DA4C13AE-FFDF-40BF-8BDA-E1A08DDB6A95}">
+    <comment ref="AF38" authorId="0" shapeId="0" xr:uid="{DA4C13AE-FFDF-40BF-8BDA-E1A08DDB6A95}">
       <text>
         <r>
           <rPr>
@@ -346,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE53" authorId="0" shapeId="0" xr:uid="{43FB8299-38F2-46F1-8559-95F979595FFC}">
+    <comment ref="AF53" authorId="0" shapeId="0" xr:uid="{43FB8299-38F2-46F1-8559-95F979595FFC}">
       <text>
         <r>
           <rPr>
@@ -409,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE68" authorId="0" shapeId="0" xr:uid="{340771D5-736F-42CE-A63F-718F9844CD4D}">
+    <comment ref="AF68" authorId="0" shapeId="0" xr:uid="{340771D5-736F-42CE-A63F-718F9844CD4D}">
       <text>
         <r>
           <rPr>
@@ -433,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE76" authorId="0" shapeId="0" xr:uid="{0229FA06-64B4-467F-946B-7F7C53199F62}">
+    <comment ref="AF76" authorId="0" shapeId="0" xr:uid="{0229FA06-64B4-467F-946B-7F7C53199F62}">
       <text>
         <r>
           <rPr>
@@ -529,7 +529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE81" authorId="0" shapeId="0" xr:uid="{40BC19F2-198F-47E4-B41D-B57CC542BB05}">
+    <comment ref="AF81" authorId="0" shapeId="0" xr:uid="{40BC19F2-198F-47E4-B41D-B57CC542BB05}">
       <text>
         <r>
           <rPr>
@@ -553,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE84" authorId="0" shapeId="0" xr:uid="{6766A61E-F720-4158-8B4A-A87867904048}">
+    <comment ref="AF84" authorId="0" shapeId="0" xr:uid="{6766A61E-F720-4158-8B4A-A87867904048}">
       <text>
         <r>
           <rPr>
@@ -592,7 +592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE100" authorId="0" shapeId="0" xr:uid="{0F890FA3-BF1E-437F-8BB2-AA54458E96F4}">
+    <comment ref="AF100" authorId="0" shapeId="0" xr:uid="{0F890FA3-BF1E-437F-8BB2-AA54458E96F4}">
       <text>
         <r>
           <rPr>
@@ -655,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE115" authorId="0" shapeId="0" xr:uid="{2E9EF8BA-0935-45E2-92A1-83B7F59AAD3C}">
+    <comment ref="AF115" authorId="0" shapeId="0" xr:uid="{2E9EF8BA-0935-45E2-92A1-83B7F59AAD3C}">
       <text>
         <r>
           <rPr>
@@ -679,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE123" authorId="0" shapeId="0" xr:uid="{7400F6F7-4C87-4DD5-B5ED-4866D90D28FA}">
+    <comment ref="AF123" authorId="0" shapeId="0" xr:uid="{7400F6F7-4C87-4DD5-B5ED-4866D90D28FA}">
       <text>
         <r>
           <rPr>
@@ -775,7 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE128" authorId="0" shapeId="0" xr:uid="{D2AD4E33-3B18-400B-9393-DECADB8DB458}">
+    <comment ref="AF128" authorId="0" shapeId="0" xr:uid="{D2AD4E33-3B18-400B-9393-DECADB8DB458}">
       <text>
         <r>
           <rPr>
@@ -799,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE131" authorId="0" shapeId="0" xr:uid="{859C2CB6-0A09-403D-9757-97A522A5833A}">
+    <comment ref="AF131" authorId="0" shapeId="0" xr:uid="{859C2CB6-0A09-403D-9757-97A522A5833A}">
       <text>
         <r>
           <rPr>
@@ -1194,7 +1194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="746">
   <si>
     <t>Document type:</t>
   </si>
@@ -3447,6 +3447,12 @@
   </si>
   <si>
     <t>Use Ankita's Projections and Find Correlation between Appliance Usage and Occupancy Rate</t>
+  </si>
+  <si>
+    <t>Share-I~0</t>
+  </si>
+  <si>
+    <t>I/E rule</t>
   </si>
 </sst>
 </file>
@@ -4715,7 +4721,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="338">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5335,6 +5341,9 @@
     <xf numFmtId="0" fontId="15" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5344,9 +5353,7 @@
     <xf numFmtId="0" fontId="15" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="1" fontId="15" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="20% - Colore 2" xfId="11" xr:uid="{3E3DAF22-4D86-48A9-B6EE-8D230C1E993C}"/>
@@ -6623,62 +6630,17 @@
       <sheetData sheetId="11">
         <row r="6">
           <cell r="J6">
-            <v>1.5953040514247514E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="J8">
-            <v>1.3011061382857018E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="J9">
-            <v>5.9683993389879201E-4</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="J10">
-            <v>1.2298414789219477E-4</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="11">
           <cell r="J11">
-            <v>2.6814506269602453E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="J13">
-            <v>1.0379714580865323E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="J14">
-            <v>8.4710237013756629E-4</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="J15">
-            <v>2.3457687355088344E-4</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="16">
           <cell r="J16">
-            <v>4.7813024530524835E-2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="J18">
-            <v>1.3662048446367654E-2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="J19">
-            <v>1.3953557418383549E-3</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="J20">
-            <v>2.9043456181104398E-4</v>
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -9230,7 +9192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4660B878-9B9C-4131-8EFF-29EF25ED69C5}">
   <dimension ref="A2:Q103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
@@ -9392,7 +9354,7 @@
       </c>
       <c r="M6" s="310">
         <f>[1]ArchetypeDemand!J6/2</f>
-        <v>7.9765202571237571E-3</v>
+        <v>0.5</v>
       </c>
       <c r="N6" s="194">
         <v>2020</v>
@@ -9413,7 +9375,7 @@
       <c r="L7" s="105"/>
       <c r="M7" s="310">
         <f>M10</f>
-        <v>3.0746036973048694E-5</v>
+        <v>0</v>
       </c>
       <c r="N7" s="105"/>
     </row>
@@ -9432,7 +9394,7 @@
       <c r="L8" s="106"/>
       <c r="M8" s="310">
         <f>[1]ArchetypeDemand!J8/2</f>
-        <v>6.5055306914285089E-3</v>
+        <v>0</v>
       </c>
       <c r="N8" s="106"/>
     </row>
@@ -9451,7 +9413,7 @@
       <c r="L9" s="105"/>
       <c r="M9" s="310">
         <f>[1]ArchetypeDemand!J9/2</f>
-        <v>2.98419966949396E-4</v>
+        <v>0</v>
       </c>
       <c r="N9" s="105"/>
     </row>
@@ -9470,7 +9432,7 @@
       <c r="L10" s="106"/>
       <c r="M10" s="310">
         <f>[1]ArchetypeDemand!J10/4</f>
-        <v>3.0746036973048694E-5</v>
+        <v>0</v>
       </c>
       <c r="N10" s="144"/>
     </row>
@@ -9513,7 +9475,7 @@
       </c>
       <c r="M11" s="310">
         <f>M6*0.9</f>
-        <v>7.178868231411382E-3</v>
+        <v>0.45</v>
       </c>
       <c r="N11" s="194">
         <v>2020</v>
@@ -9534,7 +9496,7 @@
       <c r="L12" s="105"/>
       <c r="M12" s="310">
         <f t="shared" ref="M12:M15" si="1">M7*0.9</f>
-        <v>2.7671433275743825E-5</v>
+        <v>0</v>
       </c>
       <c r="N12" s="105"/>
     </row>
@@ -9553,7 +9515,7 @@
       <c r="L13" s="106"/>
       <c r="M13" s="310">
         <f t="shared" si="1"/>
-        <v>5.8549776222856578E-3</v>
+        <v>0</v>
       </c>
       <c r="N13" s="106"/>
     </row>
@@ -9572,7 +9534,7 @@
       <c r="L14" s="105"/>
       <c r="M14" s="310">
         <f t="shared" si="1"/>
-        <v>2.6857797025445641E-4</v>
+        <v>0</v>
       </c>
       <c r="N14" s="105"/>
     </row>
@@ -9591,7 +9553,7 @@
       <c r="L15" s="144"/>
       <c r="M15" s="310">
         <f t="shared" si="1"/>
-        <v>2.7671433275743825E-5</v>
+        <v>0</v>
       </c>
       <c r="N15" s="144"/>
     </row>
@@ -9652,7 +9614,7 @@
       </c>
       <c r="M17" s="310">
         <f>[1]ArchetypeDemand!J11/2</f>
-        <v>1.3407253134801227E-2</v>
+        <v>0.5</v>
       </c>
       <c r="N17" s="194">
         <v>2020</v>
@@ -9676,7 +9638,7 @@
       <c r="L18" s="105"/>
       <c r="M18" s="310">
         <f>M21</f>
-        <v>5.8644218387720861E-5</v>
+        <v>0</v>
       </c>
       <c r="N18" s="105"/>
     </row>
@@ -9695,7 +9657,7 @@
       <c r="L19" s="106"/>
       <c r="M19" s="310">
         <f>[1]ArchetypeDemand!J13/2</f>
-        <v>5.1898572904326614E-3</v>
+        <v>0</v>
       </c>
       <c r="N19" s="106"/>
     </row>
@@ -9714,13 +9676,13 @@
       <c r="L20" s="105"/>
       <c r="M20" s="310">
         <f>[1]ArchetypeDemand!J14/2</f>
-        <v>4.2355118506878314E-4</v>
+        <v>0</v>
       </c>
       <c r="N20" s="105"/>
-      <c r="P20" s="336" t="s">
+      <c r="P20" s="333" t="s">
         <v>743</v>
       </c>
-      <c r="Q20" s="336"/>
+      <c r="Q20" s="333"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="135"/>
@@ -9737,11 +9699,11 @@
       <c r="L21" s="144"/>
       <c r="M21" s="310">
         <f>[1]ArchetypeDemand!J15/4</f>
-        <v>5.8644218387720861E-5</v>
+        <v>0</v>
       </c>
       <c r="N21" s="144"/>
-      <c r="P21" s="336"/>
-      <c r="Q21" s="336"/>
+      <c r="P21" s="333"/>
+      <c r="Q21" s="333"/>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="134" t="str">
@@ -9782,13 +9744,13 @@
       </c>
       <c r="M22" s="310">
         <f>M17*0.9</f>
-        <v>1.2066527821321104E-2</v>
+        <v>0.45</v>
       </c>
       <c r="N22" s="194">
         <v>2020</v>
       </c>
-      <c r="P22" s="336"/>
-      <c r="Q22" s="336"/>
+      <c r="P22" s="333"/>
+      <c r="Q22" s="333"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="111"/>
@@ -9805,11 +9767,11 @@
       <c r="L23" s="105"/>
       <c r="M23" s="310">
         <f t="shared" ref="M23:M26" si="3">M18*0.9</f>
-        <v>5.2779796548948773E-5</v>
+        <v>0</v>
       </c>
       <c r="N23" s="105"/>
-      <c r="P23" s="336"/>
-      <c r="Q23" s="336"/>
+      <c r="P23" s="333"/>
+      <c r="Q23" s="333"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="110"/>
@@ -9826,11 +9788,11 @@
       <c r="L24" s="106"/>
       <c r="M24" s="310">
         <f t="shared" si="3"/>
-        <v>4.6708715613893951E-3</v>
+        <v>0</v>
       </c>
       <c r="N24" s="106"/>
-      <c r="P24" s="336"/>
-      <c r="Q24" s="336"/>
+      <c r="P24" s="333"/>
+      <c r="Q24" s="333"/>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="111"/>
@@ -9847,7 +9809,7 @@
       <c r="L25" s="105"/>
       <c r="M25" s="310">
         <f t="shared" si="3"/>
-        <v>3.8119606656190485E-4</v>
+        <v>0</v>
       </c>
       <c r="N25" s="105"/>
     </row>
@@ -9866,7 +9828,7 @@
       <c r="L26" s="144"/>
       <c r="M26" s="310">
         <f t="shared" si="3"/>
-        <v>5.2779796548948773E-5</v>
+        <v>0</v>
       </c>
       <c r="N26" s="144"/>
     </row>
@@ -9927,7 +9889,7 @@
       </c>
       <c r="M28" s="310">
         <f>[1]ArchetypeDemand!J16/2</f>
-        <v>2.3906512265262417E-2</v>
+        <v>0.5</v>
       </c>
       <c r="N28" s="194">
         <v>2020</v>
@@ -9948,7 +9910,7 @@
       <c r="L29" s="105"/>
       <c r="M29" s="310">
         <f>M32</f>
-        <v>7.2608640452760995E-5</v>
+        <v>0</v>
       </c>
       <c r="N29" s="105"/>
     </row>
@@ -9967,7 +9929,7 @@
       <c r="L30" s="106"/>
       <c r="M30" s="310">
         <f>[1]ArchetypeDemand!J18/2</f>
-        <v>6.8310242231838271E-3</v>
+        <v>0</v>
       </c>
       <c r="N30" s="106"/>
     </row>
@@ -9986,7 +9948,7 @@
       <c r="L31" s="105"/>
       <c r="M31" s="310">
         <f>[1]ArchetypeDemand!J19/2</f>
-        <v>6.9767787091917744E-4</v>
+        <v>0</v>
       </c>
       <c r="N31" s="105"/>
     </row>
@@ -10005,7 +9967,7 @@
       <c r="L32" s="144"/>
       <c r="M32" s="310">
         <f>[1]ArchetypeDemand!J20/4</f>
-        <v>7.2608640452760995E-5</v>
+        <v>0</v>
       </c>
       <c r="N32" s="144"/>
     </row>
@@ -10048,7 +10010,7 @@
       </c>
       <c r="M33" s="310">
         <f>M28*0.9</f>
-        <v>2.1515861038736175E-2</v>
+        <v>0.45</v>
       </c>
       <c r="N33" s="194">
         <v>2020</v>
@@ -10069,7 +10031,7 @@
       <c r="L34" s="105"/>
       <c r="M34" s="310">
         <f t="shared" ref="M34:M37" si="5">M29*0.9</f>
-        <v>6.5347776407484904E-5</v>
+        <v>0</v>
       </c>
       <c r="N34" s="105"/>
     </row>
@@ -10088,7 +10050,7 @@
       <c r="L35" s="106"/>
       <c r="M35" s="310">
         <f t="shared" si="5"/>
-        <v>6.1479218008654449E-3</v>
+        <v>0</v>
       </c>
       <c r="N35" s="106"/>
     </row>
@@ -10107,7 +10069,7 @@
       <c r="L36" s="105"/>
       <c r="M36" s="310">
         <f t="shared" si="5"/>
-        <v>6.2791008382725967E-4</v>
+        <v>0</v>
       </c>
       <c r="N36" s="105"/>
     </row>
@@ -10126,7 +10088,7 @@
       <c r="L37" s="144"/>
       <c r="M37" s="310">
         <f t="shared" si="5"/>
-        <v>6.5347776407484904E-5</v>
+        <v>0</v>
       </c>
       <c r="N37" s="144"/>
     </row>
@@ -15637,10 +15599,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F8057-C735-4662-BAA6-EEDCF7B57273}">
-  <dimension ref="A2:AN170"/>
+  <dimension ref="A2:AO170"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="U96" sqref="U96"/>
+    <sheetView tabSelected="1" topLeftCell="E79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC92" sqref="AC92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15666,7 +15628,9 @@
     <col min="19" max="20" width="10.7109375" style="5" customWidth="1"/>
     <col min="21" max="21" width="11.7109375" style="5" customWidth="1"/>
     <col min="22" max="26" width="10.7109375" style="5" customWidth="1"/>
-    <col min="27" max="29" width="9.85546875" style="5" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" style="5" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" style="5" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="5" customWidth="1"/>
     <col min="30" max="32" width="10.7109375" style="5" customWidth="1"/>
     <col min="33" max="34" width="9.140625" style="5"/>
     <col min="35" max="35" width="24.28515625" style="5" customWidth="1"/>
@@ -15674,12 +15638,12 @@
     <col min="37" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:41" x14ac:dyDescent="0.2">
       <c r="G2" s="51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="3:40" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:41" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="61" t="s">
         <v>39</v>
       </c>
@@ -15762,16 +15726,19 @@
         <v>390</v>
       </c>
       <c r="AD3" s="64" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE3" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="AE3" s="64" t="s">
+      <c r="AF3" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="AF3" s="64" t="s">
+      <c r="AG3" s="64" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="3:40" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:41" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C4" s="63" t="s">
         <v>333</v>
       </c>
@@ -15784,28 +15751,28 @@
       <c r="F4" s="63" t="s">
         <v>335</v>
       </c>
-      <c r="G4" s="333" t="s">
+      <c r="G4" s="334" t="s">
         <v>336</v>
       </c>
-      <c r="H4" s="334"/>
-      <c r="I4" s="334"/>
-      <c r="J4" s="335"/>
-      <c r="K4" s="333" t="s">
+      <c r="H4" s="335"/>
+      <c r="I4" s="335"/>
+      <c r="J4" s="336"/>
+      <c r="K4" s="334" t="s">
         <v>337</v>
       </c>
-      <c r="L4" s="334"/>
-      <c r="M4" s="334"/>
-      <c r="N4" s="335"/>
-      <c r="O4" s="333" t="s">
+      <c r="L4" s="335"/>
+      <c r="M4" s="335"/>
+      <c r="N4" s="336"/>
+      <c r="O4" s="334" t="s">
         <v>338</v>
       </c>
-      <c r="P4" s="334"/>
-      <c r="Q4" s="334"/>
-      <c r="R4" s="335"/>
-      <c r="S4" s="333" t="s">
+      <c r="P4" s="335"/>
+      <c r="Q4" s="335"/>
+      <c r="R4" s="336"/>
+      <c r="S4" s="334" t="s">
         <v>339</v>
       </c>
-      <c r="T4" s="335"/>
+      <c r="T4" s="336"/>
       <c r="U4" s="327" t="s">
         <v>340</v>
       </c>
@@ -15823,24 +15790,27 @@
       <c r="AC4" s="119" t="s">
         <v>683</v>
       </c>
-      <c r="AD4" s="108" t="s">
+      <c r="AD4" s="119" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE4" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="AE4" s="108" t="s">
+      <c r="AF4" s="108" t="s">
         <v>341</v>
       </c>
-      <c r="AF4" s="108"/>
-      <c r="AH4" s="56" t="s">
+      <c r="AG4" s="108"/>
+      <c r="AI4" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="AI4" s="57"/>
       <c r="AJ4" s="57"/>
       <c r="AK4" s="57"/>
       <c r="AL4" s="57"/>
       <c r="AM4" s="57"/>
       <c r="AN4" s="57"/>
-    </row>
-    <row r="5" spans="3:40" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AO4" s="57"/>
+    </row>
+    <row r="5" spans="3:41" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="61" t="s">
         <v>710</v>
       </c>
@@ -15873,29 +15843,30 @@
       <c r="AD5" s="61"/>
       <c r="AE5" s="61"/>
       <c r="AF5" s="61"/>
-      <c r="AH5" s="58" t="s">
+      <c r="AG5" s="61"/>
+      <c r="AI5" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="AI5" s="58" t="s">
+      <c r="AJ5" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="AJ5" s="58" t="s">
+      <c r="AK5" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AK5" s="58" t="s">
+      <c r="AL5" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="AL5" s="58" t="s">
+      <c r="AM5" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="AM5" s="58" t="s">
+      <c r="AN5" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="AN5" s="58" t="s">
+      <c r="AO5" s="58" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="6" spans="3:40" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:41" ht="33.75" x14ac:dyDescent="0.2">
       <c r="C6" s="85" t="s">
         <v>57</v>
       </c>
@@ -15945,38 +15916,39 @@
       <c r="AC6" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="AD6" s="118" t="s">
+      <c r="AD6" s="109"/>
+      <c r="AE6" s="118" t="s">
         <v>349</v>
       </c>
-      <c r="AE6" s="109" t="s">
+      <c r="AF6" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="AF6" s="109" t="s">
+      <c r="AG6" s="109" t="s">
         <v>350</v>
       </c>
-      <c r="AH6" s="305" t="s">
+      <c r="AI6" s="305" t="s">
         <v>314</v>
       </c>
-      <c r="AI6" s="305" t="s">
+      <c r="AJ6" s="305" t="s">
         <v>315</v>
       </c>
-      <c r="AJ6" s="305" t="s">
+      <c r="AK6" s="305" t="s">
         <v>53</v>
       </c>
-      <c r="AK6" s="305" t="s">
+      <c r="AL6" s="305" t="s">
         <v>316</v>
       </c>
-      <c r="AL6" s="305" t="s">
+      <c r="AM6" s="305" t="s">
         <v>317</v>
       </c>
-      <c r="AM6" s="305" t="s">
+      <c r="AN6" s="305" t="s">
         <v>318</v>
       </c>
-      <c r="AN6" s="305" t="s">
+      <c r="AO6" s="305" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="77" t="str">
         <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E7,6)&amp;"_N1"</f>
         <v>R-SH_Apt_OILKER_N1</v>
@@ -16044,38 +16016,39 @@
       <c r="AA7" s="90"/>
       <c r="AB7" s="120"/>
       <c r="AC7" s="120"/>
-      <c r="AD7" s="110">
+      <c r="AD7" s="120"/>
+      <c r="AE7" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE7" s="113">
+      <c r="AF7" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF7" s="113">
+      <c r="AG7" s="113">
         <v>2020</v>
       </c>
-      <c r="AH7" s="155" t="s">
+      <c r="AI7" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="AI7" s="154" t="str">
+      <c r="AJ7" s="154" t="str">
         <f>C7</f>
         <v>R-SH_Apt_OILKER_N1</v>
       </c>
-      <c r="AJ7" s="154" t="str">
+      <c r="AK7" s="154" t="str">
         <f>D7</f>
         <v>Residential Kerosene Heating Oil - New 1 SH</v>
       </c>
-      <c r="AK7" s="155" t="s">
+      <c r="AL7" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL7" s="155" t="s">
+      <c r="AM7" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM7" s="155"/>
-      <c r="AN7" s="155" t="s">
+      <c r="AN7" s="155"/>
+      <c r="AO7" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" s="70" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E8,6)&amp;"_N1"</f>
         <v>R-H_Apt_OILKER_N1</v>
@@ -16155,36 +16128,37 @@
       <c r="AA8" s="92"/>
       <c r="AB8" s="121"/>
       <c r="AC8" s="121"/>
-      <c r="AD8" s="111">
+      <c r="AD8" s="121"/>
+      <c r="AE8" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE8" s="114">
+      <c r="AF8" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF8" s="114">
+      <c r="AG8" s="114">
         <v>2020</v>
       </c>
-      <c r="AH8" s="155"/>
-      <c r="AI8" s="154" t="str">
-        <f t="shared" ref="AI8:AI18" si="3">C8</f>
+      <c r="AI8" s="155"/>
+      <c r="AJ8" s="154" t="str">
+        <f t="shared" ref="AJ8:AJ18" si="3">C8</f>
         <v>R-H_Apt_OILKER_N1</v>
       </c>
-      <c r="AJ8" s="154" t="str">
-        <f t="shared" ref="AJ8:AJ18" si="4">D8</f>
+      <c r="AK8" s="154" t="str">
+        <f t="shared" ref="AK8:AK18" si="4">D8</f>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
-      <c r="AK8" s="155" t="s">
+      <c r="AL8" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL8" s="155" t="s">
+      <c r="AM8" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM8" s="155"/>
-      <c r="AN8" s="155" t="s">
+      <c r="AN8" s="155"/>
+      <c r="AO8" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="77" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E9,6)&amp;"_N2"</f>
         <v>R-H_Apt_OILKER_N2</v>
@@ -16261,36 +16235,39 @@
       </c>
       <c r="AB9" s="120"/>
       <c r="AC9" s="120"/>
-      <c r="AD9" s="110">
+      <c r="AD9" s="337">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE9" s="113">
+      <c r="AF9" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF9" s="113">
+      <c r="AG9" s="113">
         <v>2020</v>
       </c>
-      <c r="AH9" s="155"/>
-      <c r="AI9" s="154" t="str">
+      <c r="AI9" s="155"/>
+      <c r="AJ9" s="154" t="str">
         <f t="shared" si="3"/>
         <v>R-H_Apt_OILKER_N2</v>
       </c>
-      <c r="AJ9" s="154" t="str">
+      <c r="AK9" s="154" t="str">
         <f t="shared" si="4"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
-      <c r="AK9" s="155" t="s">
+      <c r="AL9" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL9" s="155" t="s">
+      <c r="AM9" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM9" s="155"/>
-      <c r="AN9" s="155" t="s">
+      <c r="AN9" s="155"/>
+      <c r="AO9" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" s="70" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E10,6)&amp;"_N3"</f>
         <v>R-H_Apt_OILKER_N3</v>
@@ -16368,34 +16345,37 @@
         <v>0.47</v>
       </c>
       <c r="AC10" s="121"/>
-      <c r="AD10" s="111">
+      <c r="AD10" s="114">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE10" s="114">
+      <c r="AF10" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF10" s="114">
+      <c r="AG10" s="114">
         <v>2020</v>
       </c>
-      <c r="AH10" s="155"/>
-      <c r="AI10" s="154" t="str">
+      <c r="AI10" s="155"/>
+      <c r="AJ10" s="154" t="str">
         <f t="shared" si="3"/>
         <v>R-H_Apt_OILKER_N3</v>
       </c>
-      <c r="AJ10" s="154" t="str">
+      <c r="AK10" s="154" t="str">
         <f t="shared" si="4"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
-      <c r="AK10" s="156" t="s">
+      <c r="AL10" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="AL10" s="156" t="s">
+      <c r="AM10" s="156" t="s">
         <v>495</v>
       </c>
-      <c r="AM10" s="155"/>
       <c r="AN10" s="155"/>
-    </row>
-    <row r="11" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO10" s="155"/>
+    </row>
+    <row r="11" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C11" s="77" t="str">
         <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E11,6)&amp;"_N1"</f>
         <v>R-SH_Apt_GASNAT_N1</v>
@@ -16463,36 +16443,37 @@
       <c r="AA11" s="90"/>
       <c r="AB11" s="120"/>
       <c r="AC11" s="120"/>
-      <c r="AD11" s="110">
+      <c r="AD11" s="120"/>
+      <c r="AE11" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE11" s="113">
+      <c r="AF11" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF11" s="113">
+      <c r="AG11" s="113">
         <v>2020</v>
       </c>
-      <c r="AH11" s="155"/>
-      <c r="AI11" s="154" t="str">
+      <c r="AI11" s="155"/>
+      <c r="AJ11" s="154" t="str">
         <f t="shared" si="3"/>
         <v>R-SH_Apt_GASNAT_N1</v>
       </c>
-      <c r="AJ11" s="154" t="str">
+      <c r="AK11" s="154" t="str">
         <f t="shared" si="4"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
-      <c r="AK11" s="155" t="s">
+      <c r="AL11" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL11" s="155" t="s">
+      <c r="AM11" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM11" s="155"/>
-      <c r="AN11" s="155" t="s">
+      <c r="AN11" s="155"/>
+      <c r="AO11" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="70" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E12,6)&amp;"_N1"</f>
         <v>R-H_Apt_GASNAT_N1</v>
@@ -16572,36 +16553,37 @@
       <c r="AA12" s="92"/>
       <c r="AB12" s="121"/>
       <c r="AC12" s="121"/>
-      <c r="AD12" s="111">
+      <c r="AD12" s="121"/>
+      <c r="AE12" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE12" s="114">
+      <c r="AF12" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF12" s="114">
+      <c r="AG12" s="114">
         <v>2020</v>
       </c>
-      <c r="AH12" s="155"/>
-      <c r="AI12" s="154" t="str">
+      <c r="AI12" s="155"/>
+      <c r="AJ12" s="154" t="str">
         <f t="shared" si="3"/>
         <v>R-H_Apt_GASNAT_N1</v>
       </c>
-      <c r="AJ12" s="154" t="str">
+      <c r="AK12" s="154" t="str">
         <f t="shared" si="4"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
-      <c r="AK12" s="155" t="s">
+      <c r="AL12" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL12" s="155" t="s">
+      <c r="AM12" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM12" s="155"/>
-      <c r="AN12" s="155" t="s">
+      <c r="AN12" s="155"/>
+      <c r="AO12" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C13" s="77" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E13,6)&amp;"_N2"</f>
         <v>R-H_Apt_GASNAT_N2</v>
@@ -16683,36 +16665,39 @@
       </c>
       <c r="AB13" s="120"/>
       <c r="AC13" s="120"/>
-      <c r="AD13" s="110">
+      <c r="AD13" s="337">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE13" s="113">
+      <c r="AF13" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF13" s="113">
+      <c r="AG13" s="113">
         <v>2020</v>
       </c>
-      <c r="AH13" s="155"/>
-      <c r="AI13" s="154" t="str">
+      <c r="AI13" s="155"/>
+      <c r="AJ13" s="154" t="str">
         <f t="shared" si="3"/>
         <v>R-H_Apt_GASNAT_N2</v>
       </c>
-      <c r="AJ13" s="154" t="str">
+      <c r="AK13" s="154" t="str">
         <f t="shared" si="4"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
-      <c r="AK13" s="155" t="s">
+      <c r="AL13" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL13" s="155" t="s">
+      <c r="AM13" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM13" s="155"/>
-      <c r="AN13" s="155" t="s">
+      <c r="AN13" s="155"/>
+      <c r="AO13" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C14" s="70" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E14,6)&amp;"_N3"</f>
         <v>R-H_Apt_GASNAT_N3</v>
@@ -16794,36 +16779,39 @@
         <v>0.47</v>
       </c>
       <c r="AC14" s="121"/>
-      <c r="AD14" s="111">
+      <c r="AD14" s="114">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE14" s="114">
+      <c r="AF14" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF14" s="114">
+      <c r="AG14" s="114">
         <v>2020</v>
       </c>
-      <c r="AH14" s="155"/>
-      <c r="AI14" s="154" t="str">
+      <c r="AI14" s="155"/>
+      <c r="AJ14" s="154" t="str">
         <f t="shared" si="3"/>
         <v>R-H_Apt_GASNAT_N3</v>
       </c>
-      <c r="AJ14" s="154" t="str">
+      <c r="AK14" s="154" t="str">
         <f t="shared" si="4"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
-      <c r="AK14" s="155" t="s">
+      <c r="AL14" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL14" s="155" t="s">
+      <c r="AM14" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM14" s="155"/>
-      <c r="AN14" s="155" t="s">
+      <c r="AN14" s="155"/>
+      <c r="AO14" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="15" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C15" s="77" t="str">
         <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E15,6)&amp;"_N1"</f>
         <v>R-SH_Apt_OILLPG_N1</v>
@@ -16891,36 +16879,37 @@
       <c r="AA15" s="90"/>
       <c r="AB15" s="120"/>
       <c r="AC15" s="120"/>
-      <c r="AD15" s="110">
+      <c r="AD15" s="120"/>
+      <c r="AE15" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE15" s="113">
+      <c r="AF15" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF15" s="113">
+      <c r="AG15" s="113">
         <v>2020</v>
       </c>
-      <c r="AH15" s="155"/>
-      <c r="AI15" s="154" t="str">
+      <c r="AI15" s="155"/>
+      <c r="AJ15" s="154" t="str">
         <f t="shared" si="3"/>
         <v>R-SH_Apt_OILLPG_N1</v>
       </c>
-      <c r="AJ15" s="154" t="str">
+      <c r="AK15" s="154" t="str">
         <f t="shared" si="4"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
-      <c r="AK15" s="155" t="s">
+      <c r="AL15" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL15" s="155" t="s">
+      <c r="AM15" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM15" s="155"/>
-      <c r="AN15" s="155" t="s">
+      <c r="AN15" s="155"/>
+      <c r="AO15" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C16" s="70" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E16,6)&amp;"_N1"</f>
         <v>R-H_Apt_OILLPG_N1</v>
@@ -17000,36 +16989,37 @@
       <c r="AA16" s="92"/>
       <c r="AB16" s="121"/>
       <c r="AC16" s="121"/>
-      <c r="AD16" s="111">
+      <c r="AD16" s="121"/>
+      <c r="AE16" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE16" s="114">
+      <c r="AF16" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF16" s="114">
+      <c r="AG16" s="114">
         <v>2020</v>
       </c>
-      <c r="AH16" s="155"/>
-      <c r="AI16" s="154" t="str">
+      <c r="AI16" s="155"/>
+      <c r="AJ16" s="154" t="str">
         <f t="shared" si="3"/>
         <v>R-H_Apt_OILLPG_N1</v>
       </c>
-      <c r="AJ16" s="154" t="str">
+      <c r="AK16" s="154" t="str">
         <f t="shared" si="4"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
-      <c r="AK16" s="155" t="s">
+      <c r="AL16" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL16" s="155" t="s">
+      <c r="AM16" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM16" s="155"/>
-      <c r="AN16" s="155" t="s">
+      <c r="AN16" s="155"/>
+      <c r="AO16" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="17" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C17" s="77" t="str">
         <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E17,6)&amp;"_N1"</f>
         <v>R-SH_Apt_BIOWOO_N1</v>
@@ -17085,36 +17075,37 @@
       <c r="AA17" s="90"/>
       <c r="AB17" s="120"/>
       <c r="AC17" s="120"/>
-      <c r="AD17" s="110">
+      <c r="AD17" s="120"/>
+      <c r="AE17" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE17" s="113">
+      <c r="AF17" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF17" s="113">
+      <c r="AG17" s="113">
         <v>2020</v>
       </c>
-      <c r="AH17" s="155"/>
-      <c r="AI17" s="154" t="str">
+      <c r="AI17" s="155"/>
+      <c r="AJ17" s="154" t="str">
         <f t="shared" si="3"/>
         <v>R-SH_Apt_BIOWOO_N1</v>
       </c>
-      <c r="AJ17" s="154" t="str">
+      <c r="AK17" s="154" t="str">
         <f t="shared" si="4"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
-      <c r="AK17" s="155" t="s">
+      <c r="AL17" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL17" s="155" t="s">
+      <c r="AM17" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM17" s="155"/>
-      <c r="AN17" s="155" t="s">
+      <c r="AN17" s="155"/>
+      <c r="AO17" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="18" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="74" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E18,6)&amp;"_N1"</f>
         <v>R-H_Apt_BIOWOO_N1</v>
@@ -17182,36 +17173,37 @@
       <c r="AA18" s="97"/>
       <c r="AB18" s="122"/>
       <c r="AC18" s="122"/>
-      <c r="AD18" s="112">
+      <c r="AD18" s="122"/>
+      <c r="AE18" s="112">
         <v>31.54</v>
       </c>
-      <c r="AE18" s="114">
+      <c r="AF18" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF18" s="114">
+      <c r="AG18" s="114">
         <v>2020</v>
       </c>
-      <c r="AH18" s="158"/>
-      <c r="AI18" s="157" t="str">
+      <c r="AI18" s="158"/>
+      <c r="AJ18" s="157" t="str">
         <f t="shared" si="3"/>
         <v>R-H_Apt_BIOWOO_N1</v>
       </c>
-      <c r="AJ18" s="157" t="str">
+      <c r="AK18" s="157" t="str">
         <f t="shared" si="4"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
-      <c r="AK18" s="158" t="s">
+      <c r="AL18" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="AL18" s="158" t="s">
+      <c r="AM18" s="158" t="s">
         <v>495</v>
       </c>
-      <c r="AM18" s="158"/>
-      <c r="AN18" s="158" t="s">
+      <c r="AN18" s="158"/>
+      <c r="AO18" s="158" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="19" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="81" t="s">
         <v>365</v>
       </c>
@@ -17241,30 +17233,31 @@
       <c r="AA19" s="84"/>
       <c r="AB19" s="84"/>
       <c r="AC19" s="84"/>
-      <c r="AD19" s="81"/>
-      <c r="AE19" s="82"/>
+      <c r="AD19" s="84"/>
+      <c r="AE19" s="81"/>
       <c r="AF19" s="82"/>
-      <c r="AH19" s="159"/>
-      <c r="AI19" s="160" t="str">
+      <c r="AG19" s="82"/>
+      <c r="AI19" s="159"/>
+      <c r="AJ19" s="160" t="str">
         <f>C20</f>
         <v>R-SH_Apt_RSDELC_N1</v>
       </c>
-      <c r="AJ19" s="160" t="str">
+      <c r="AK19" s="160" t="str">
         <f>D20</f>
         <v>Residential Electric Heater - New 1 SH</v>
       </c>
-      <c r="AK19" s="159" t="s">
+      <c r="AL19" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="AL19" s="159" t="s">
+      <c r="AM19" s="159" t="s">
         <v>495</v>
       </c>
-      <c r="AM19" s="159"/>
-      <c r="AN19" s="159" t="s">
+      <c r="AN19" s="159"/>
+      <c r="AO19" s="159" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C20" s="77" t="str">
         <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E20,6)&amp;"_N1"</f>
         <v>R-SH_Apt_RSDELC_N1</v>
@@ -17332,36 +17325,37 @@
       <c r="AA20" s="133"/>
       <c r="AB20" s="133"/>
       <c r="AC20" s="133"/>
-      <c r="AD20" s="131">
+      <c r="AD20" s="133"/>
+      <c r="AE20" s="131">
         <v>31.54</v>
       </c>
-      <c r="AE20" s="114">
+      <c r="AF20" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF20" s="114">
+      <c r="AG20" s="114">
         <v>2020</v>
       </c>
-      <c r="AH20" s="153"/>
-      <c r="AI20" s="152" t="str">
-        <f t="shared" ref="AI20:AJ26" si="9">C22</f>
+      <c r="AI20" s="153"/>
+      <c r="AJ20" s="152" t="str">
+        <f t="shared" ref="AJ20:AK26" si="9">C22</f>
         <v>R-SH_Apt_RSDELC_HPN1</v>
       </c>
-      <c r="AJ20" s="152" t="str">
+      <c r="AK20" s="152" t="str">
         <f t="shared" si="9"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
-      <c r="AK20" s="153" t="s">
+      <c r="AL20" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="AL20" s="153" t="s">
+      <c r="AM20" s="153" t="s">
         <v>495</v>
       </c>
-      <c r="AM20" s="153"/>
-      <c r="AN20" s="153" t="s">
+      <c r="AN20" s="153"/>
+      <c r="AO20" s="153" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C21" s="81" t="s">
         <v>367</v>
       </c>
@@ -17391,30 +17385,31 @@
       <c r="AA21" s="84"/>
       <c r="AB21" s="84"/>
       <c r="AC21" s="84"/>
-      <c r="AD21" s="81"/>
-      <c r="AE21" s="82"/>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="81"/>
       <c r="AF21" s="82"/>
-      <c r="AH21" s="155"/>
-      <c r="AI21" s="154" t="str">
+      <c r="AG21" s="82"/>
+      <c r="AI21" s="155"/>
+      <c r="AJ21" s="154" t="str">
         <f t="shared" si="9"/>
         <v>R-HC_Apt_RSDELC_HPN1</v>
       </c>
-      <c r="AJ21" s="154" t="str">
+      <c r="AK21" s="154" t="str">
         <f t="shared" si="9"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
-      <c r="AK21" s="155" t="s">
+      <c r="AL21" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL21" s="155" t="s">
+      <c r="AM21" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM21" s="155"/>
-      <c r="AN21" s="155" t="s">
+      <c r="AN21" s="155"/>
+      <c r="AO21" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="22" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C22" s="77" t="str">
         <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E22,6)&amp;"_HPN1"</f>
         <v>R-SH_Apt_RSDELC_HPN1</v>
@@ -17482,36 +17477,37 @@
       <c r="AA22" s="134"/>
       <c r="AB22" s="134"/>
       <c r="AC22" s="134"/>
-      <c r="AD22" s="134">
+      <c r="AD22" s="134"/>
+      <c r="AE22" s="134">
         <v>31.54</v>
       </c>
-      <c r="AE22" s="113">
+      <c r="AF22" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF22" s="113">
+      <c r="AG22" s="113">
         <v>2020</v>
       </c>
-      <c r="AH22" s="155"/>
-      <c r="AI22" s="154" t="str">
+      <c r="AI22" s="155"/>
+      <c r="AJ22" s="154" t="str">
         <f t="shared" si="9"/>
         <v>R-SH_Apt_RSDELC_HPN2</v>
       </c>
-      <c r="AJ22" s="154" t="str">
+      <c r="AK22" s="154" t="str">
         <f t="shared" si="9"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
-      <c r="AK22" s="155" t="s">
+      <c r="AL22" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL22" s="155" t="s">
+      <c r="AM22" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM22" s="155"/>
-      <c r="AN22" s="155" t="s">
+      <c r="AN22" s="155"/>
+      <c r="AO22" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C23" s="77" t="str">
         <f>"R-HC_Apt"&amp;"_"&amp;RIGHT(E23,6)&amp;"_HPN1"</f>
         <v>R-HC_Apt_RSDELC_HPN1</v>
@@ -17591,36 +17587,37 @@
       <c r="AA23" s="111"/>
       <c r="AB23" s="111"/>
       <c r="AC23" s="111"/>
-      <c r="AD23" s="111">
+      <c r="AD23" s="111"/>
+      <c r="AE23" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE23" s="114">
+      <c r="AF23" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF23" s="114">
+      <c r="AG23" s="114">
         <v>2020</v>
       </c>
-      <c r="AH23" s="155"/>
-      <c r="AI23" s="154" t="str">
+      <c r="AI23" s="155"/>
+      <c r="AJ23" s="154" t="str">
         <f t="shared" si="9"/>
         <v>R-H_Apt_RSDELC_HPN1</v>
       </c>
-      <c r="AJ23" s="154" t="str">
+      <c r="AK23" s="154" t="str">
         <f t="shared" si="9"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
-      <c r="AK23" s="155" t="s">
+      <c r="AL23" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL23" s="155" t="s">
+      <c r="AM23" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM23" s="155"/>
-      <c r="AN23" s="155" t="s">
+      <c r="AN23" s="155"/>
+      <c r="AO23" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C24" s="77" t="str">
         <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E24,6)&amp;"_HPN2"</f>
         <v>R-SH_Apt_RSDELC_HPN2</v>
@@ -17688,36 +17685,37 @@
       <c r="AA24" s="110"/>
       <c r="AB24" s="110"/>
       <c r="AC24" s="110"/>
-      <c r="AD24" s="110">
+      <c r="AD24" s="110"/>
+      <c r="AE24" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE24" s="113">
+      <c r="AF24" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF24" s="113">
+      <c r="AG24" s="113">
         <v>2020</v>
       </c>
-      <c r="AH24" s="306"/>
-      <c r="AI24" s="154" t="str">
+      <c r="AI24" s="306"/>
+      <c r="AJ24" s="154" t="str">
         <f t="shared" si="9"/>
         <v>R-H_Apt_RENSOL_HPN2</v>
       </c>
-      <c r="AJ24" s="154" t="str">
+      <c r="AK24" s="154" t="str">
         <f t="shared" si="9"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
-      <c r="AK24" s="155" t="s">
+      <c r="AL24" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL24" s="155" t="s">
+      <c r="AM24" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM24" s="155"/>
-      <c r="AN24" s="155" t="s">
+      <c r="AN24" s="155"/>
+      <c r="AO24" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C25" s="77" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E25,6)&amp;"_HPN1"</f>
         <v>R-H_Apt_RSDELC_HPN1</v>
@@ -17797,36 +17795,37 @@
       <c r="AA25" s="111"/>
       <c r="AB25" s="111"/>
       <c r="AC25" s="111"/>
-      <c r="AD25" s="111">
+      <c r="AD25" s="111"/>
+      <c r="AE25" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE25" s="114">
+      <c r="AF25" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF25" s="114">
+      <c r="AG25" s="114">
         <v>2020</v>
       </c>
-      <c r="AH25" s="306"/>
-      <c r="AI25" s="154" t="str">
+      <c r="AI25" s="306"/>
+      <c r="AJ25" s="154" t="str">
         <f t="shared" si="9"/>
         <v>R-SH_Apt_RSDELC_HPN3</v>
       </c>
-      <c r="AJ25" s="154" t="str">
+      <c r="AK25" s="154" t="str">
         <f t="shared" si="9"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
-      <c r="AK25" s="155" t="s">
+      <c r="AL25" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL25" s="155" t="s">
+      <c r="AM25" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM25" s="155"/>
-      <c r="AN25" s="155" t="s">
+      <c r="AN25" s="155"/>
+      <c r="AO25" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="77" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E26,6)&amp;"_HPN2"</f>
         <v>R-H_Apt_RENSOL_HPN2</v>
@@ -17908,36 +17907,39 @@
       </c>
       <c r="AB26" s="110"/>
       <c r="AC26" s="110"/>
-      <c r="AD26" s="110">
+      <c r="AD26" s="337">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE26" s="113">
+      <c r="AF26" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF26" s="113">
+      <c r="AG26" s="113">
         <v>2020</v>
       </c>
-      <c r="AH26" s="161"/>
-      <c r="AI26" s="157" t="str">
+      <c r="AI26" s="161"/>
+      <c r="AJ26" s="157" t="str">
         <f t="shared" si="9"/>
         <v>R-HC_Apt_RSDELC_HPN2</v>
       </c>
-      <c r="AJ26" s="157" t="str">
+      <c r="AK26" s="157" t="str">
         <f t="shared" si="9"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
-      <c r="AK26" s="158" t="s">
+      <c r="AL26" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="AL26" s="158" t="s">
+      <c r="AM26" s="158" t="s">
         <v>495</v>
       </c>
-      <c r="AM26" s="158"/>
-      <c r="AN26" s="158" t="s">
+      <c r="AN26" s="158"/>
+      <c r="AO26" s="158" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C27" s="77" t="str">
         <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E27,6)&amp;"_HPN3"</f>
         <v>R-SH_Apt_RSDELC_HPN3</v>
@@ -18005,36 +18007,37 @@
       <c r="AA27" s="111"/>
       <c r="AB27" s="111"/>
       <c r="AC27" s="111"/>
-      <c r="AD27" s="111">
+      <c r="AD27" s="111"/>
+      <c r="AE27" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE27" s="114">
+      <c r="AF27" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF27" s="114">
+      <c r="AG27" s="114">
         <v>2020</v>
       </c>
-      <c r="AH27" s="162"/>
-      <c r="AI27" s="152" t="str">
+      <c r="AI27" s="162"/>
+      <c r="AJ27" s="152" t="str">
         <f>C30</f>
         <v>R-H_Apt_GASNAT_HPN1</v>
       </c>
-      <c r="AJ27" s="152" t="str">
+      <c r="AK27" s="152" t="str">
         <f>D30</f>
         <v>Residential Gas Absorption Heat Pump - Air to Water - SH + WH</v>
       </c>
-      <c r="AK27" s="153" t="s">
+      <c r="AL27" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="AL27" s="153" t="s">
+      <c r="AM27" s="153" t="s">
         <v>495</v>
       </c>
-      <c r="AM27" s="153"/>
-      <c r="AN27" s="153" t="s">
+      <c r="AN27" s="153"/>
+      <c r="AO27" s="153" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="77" t="str">
         <f>"R-HC_Apt"&amp;"_"&amp;RIGHT(E28,6)&amp;"_HPN2"</f>
         <v>R-HC_Apt_RSDELC_HPN2</v>
@@ -18114,36 +18117,37 @@
       <c r="AA28" s="135"/>
       <c r="AB28" s="135"/>
       <c r="AC28" s="135"/>
-      <c r="AD28" s="135">
+      <c r="AD28" s="135"/>
+      <c r="AE28" s="135">
         <v>31.54</v>
       </c>
-      <c r="AE28" s="113">
+      <c r="AF28" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF28" s="113">
+      <c r="AG28" s="113">
         <v>2020</v>
       </c>
-      <c r="AH28" s="307"/>
-      <c r="AI28" s="157" t="str">
+      <c r="AI28" s="307"/>
+      <c r="AJ28" s="157" t="str">
         <f>C31</f>
         <v>R-H_Apt_GASNAT_HPN2</v>
       </c>
-      <c r="AJ28" s="157" t="str">
+      <c r="AK28" s="157" t="str">
         <f>D31</f>
         <v>Residential Gas Engine Heat Pump - Air to Water - SH + WH</v>
       </c>
-      <c r="AK28" s="158" t="s">
+      <c r="AL28" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="AL28" s="158" t="s">
+      <c r="AM28" s="158" t="s">
         <v>495</v>
       </c>
-      <c r="AM28" s="158"/>
-      <c r="AN28" s="158" t="s">
+      <c r="AN28" s="158"/>
+      <c r="AO28" s="158" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="81" t="s">
         <v>376</v>
       </c>
@@ -18173,30 +18177,31 @@
       <c r="AA29" s="84"/>
       <c r="AB29" s="84"/>
       <c r="AC29" s="84"/>
-      <c r="AD29" s="81"/>
-      <c r="AE29" s="82"/>
+      <c r="AD29" s="84"/>
+      <c r="AE29" s="81"/>
       <c r="AF29" s="82"/>
-      <c r="AH29" s="308"/>
-      <c r="AI29" s="160" t="str">
+      <c r="AG29" s="82"/>
+      <c r="AI29" s="308"/>
+      <c r="AJ29" s="160" t="str">
         <f>C33</f>
         <v>R-H_Apt_GASNAT_HHPN1</v>
       </c>
-      <c r="AJ29" s="160" t="str">
+      <c r="AK29" s="160" t="str">
         <f>D33</f>
         <v>Residential Gas Hybrid Heat Pump - Air to Water - SH + WH</v>
       </c>
-      <c r="AK29" s="159" t="s">
+      <c r="AL29" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="AL29" s="159" t="s">
+      <c r="AM29" s="159" t="s">
         <v>495</v>
       </c>
-      <c r="AM29" s="159"/>
-      <c r="AN29" s="159" t="s">
+      <c r="AN29" s="159"/>
+      <c r="AO29" s="159" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C30" s="77" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E30,6)&amp;"_HPN1"</f>
         <v>R-H_Apt_GASNAT_HPN1</v>
@@ -18276,36 +18281,37 @@
       <c r="AA30" s="104"/>
       <c r="AB30" s="134"/>
       <c r="AC30" s="134"/>
-      <c r="AD30" s="134">
+      <c r="AD30" s="134"/>
+      <c r="AE30" s="134">
         <v>31.54</v>
       </c>
-      <c r="AE30" s="113">
+      <c r="AF30" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF30" s="137">
+      <c r="AG30" s="137">
         <v>2020</v>
       </c>
-      <c r="AH30" s="309"/>
-      <c r="AI30" s="152" t="str">
+      <c r="AI30" s="309"/>
+      <c r="AJ30" s="152" t="str">
         <f>C35</f>
         <v>R-H_Apt_RSDHET_N1</v>
       </c>
-      <c r="AJ30" s="152" t="str">
+      <c r="AK30" s="152" t="str">
         <f>D35</f>
         <v>Residential District Heating Centralized - SH + WH</v>
       </c>
-      <c r="AK30" s="153" t="s">
+      <c r="AL30" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="AL30" s="153" t="s">
+      <c r="AM30" s="153" t="s">
         <v>495</v>
       </c>
-      <c r="AM30" s="153"/>
-      <c r="AN30" s="153" t="s">
+      <c r="AN30" s="153"/>
+      <c r="AO30" s="153" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="77" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E31,6)&amp;"_HPN2"</f>
         <v>R-H_Apt_GASNAT_HPN2</v>
@@ -18385,36 +18391,37 @@
       <c r="AA31" s="107"/>
       <c r="AB31" s="112"/>
       <c r="AC31" s="112"/>
-      <c r="AD31" s="112">
+      <c r="AD31" s="112"/>
+      <c r="AE31" s="112">
         <v>31.54</v>
       </c>
-      <c r="AE31" s="114">
+      <c r="AF31" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF31" s="115">
+      <c r="AG31" s="115">
         <v>2020</v>
       </c>
-      <c r="AH31" s="164"/>
-      <c r="AI31" s="157" t="str">
+      <c r="AI31" s="164"/>
+      <c r="AJ31" s="157" t="str">
         <f>C36</f>
         <v>R-H_Apt_RSDHET_N2</v>
       </c>
-      <c r="AJ31" s="157" t="str">
+      <c r="AK31" s="157" t="str">
         <f>D36</f>
         <v>Residential District Heating Decentralized - SH + WH</v>
       </c>
-      <c r="AK31" s="158" t="s">
+      <c r="AL31" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="AL31" s="158" t="s">
+      <c r="AM31" s="158" t="s">
         <v>495</v>
       </c>
-      <c r="AM31" s="158"/>
-      <c r="AN31" s="158" t="s">
+      <c r="AN31" s="158"/>
+      <c r="AO31" s="158" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="32" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C32" s="81" t="s">
         <v>368</v>
       </c>
@@ -18444,30 +18451,31 @@
       <c r="AA32" s="84"/>
       <c r="AB32" s="84"/>
       <c r="AC32" s="84"/>
-      <c r="AD32" s="81"/>
-      <c r="AE32" s="82"/>
+      <c r="AD32" s="84"/>
+      <c r="AE32" s="81"/>
       <c r="AF32" s="82"/>
-      <c r="AH32" s="309"/>
-      <c r="AI32" s="152" t="str">
-        <f t="shared" ref="AI32:AJ36" si="14">C38</f>
+      <c r="AG32" s="82"/>
+      <c r="AI32" s="309"/>
+      <c r="AJ32" s="152" t="str">
+        <f t="shared" ref="AJ32:AK36" si="14">C38</f>
         <v>R-WH_Apt_RSDELC_N1</v>
       </c>
-      <c r="AJ32" s="152" t="str">
+      <c r="AK32" s="152" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">Residential Electric Water Heater </v>
       </c>
-      <c r="AK32" s="153" t="s">
+      <c r="AL32" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="AL32" s="153" t="s">
+      <c r="AM32" s="153" t="s">
         <v>495</v>
       </c>
-      <c r="AM32" s="153"/>
-      <c r="AN32" s="153" t="s">
+      <c r="AN32" s="153"/>
+      <c r="AO32" s="153" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="33" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C33" s="77" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E33,6)&amp;"_HHPN1"</f>
         <v>R-H_Apt_GASNAT_HHPN1</v>
@@ -18540,36 +18548,39 @@
       <c r="AC33" s="133">
         <v>0.3</v>
       </c>
-      <c r="AD33" s="131">
+      <c r="AD33" s="114">
+        <v>5</v>
+      </c>
+      <c r="AE33" s="131">
         <v>31.54</v>
       </c>
-      <c r="AE33" s="114">
+      <c r="AF33" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF33" s="132">
+      <c r="AG33" s="132">
         <v>2020</v>
       </c>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="154" t="str">
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="154" t="str">
         <f t="shared" si="14"/>
         <v>R-WH_Apt_RENSOL_N1</v>
       </c>
-      <c r="AJ33" s="154" t="str">
+      <c r="AK33" s="154" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">Residential Solar Water Heater </v>
       </c>
-      <c r="AK33" s="155" t="s">
+      <c r="AL33" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL33" s="155" t="s">
+      <c r="AM33" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM33" s="155"/>
-      <c r="AN33" s="155" t="s">
+      <c r="AN33" s="155"/>
+      <c r="AO33" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C34" s="81" t="s">
         <v>379</v>
       </c>
@@ -18599,30 +18610,31 @@
       <c r="AA34" s="84"/>
       <c r="AB34" s="84"/>
       <c r="AC34" s="84"/>
-      <c r="AD34" s="81"/>
-      <c r="AE34" s="82"/>
+      <c r="AD34" s="84"/>
+      <c r="AE34" s="81"/>
       <c r="AF34" s="82"/>
-      <c r="AH34" s="4"/>
-      <c r="AI34" s="154" t="str">
+      <c r="AG34" s="82"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="154" t="str">
         <f t="shared" si="14"/>
         <v>R-WH_Apt_GASNAT_N1</v>
       </c>
-      <c r="AJ34" s="154" t="str">
+      <c r="AK34" s="154" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">Residential Gas Water Heater </v>
       </c>
-      <c r="AK34" s="155" t="s">
+      <c r="AL34" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL34" s="155" t="s">
+      <c r="AM34" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM34" s="155"/>
-      <c r="AN34" s="155" t="s">
+      <c r="AN34" s="155"/>
+      <c r="AO34" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C35" s="70" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E35,6)&amp;"_N1"</f>
         <v>R-H_Apt_RSDHET_N1</v>
@@ -18703,36 +18715,37 @@
       <c r="AA35" s="134"/>
       <c r="AB35" s="134"/>
       <c r="AC35" s="134"/>
-      <c r="AD35" s="134">
+      <c r="AD35" s="134"/>
+      <c r="AE35" s="134">
         <v>31.54</v>
       </c>
-      <c r="AE35" s="113">
+      <c r="AF35" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF35" s="137">
+      <c r="AG35" s="137">
         <v>2020</v>
       </c>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="154" t="str">
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="154" t="str">
         <f t="shared" si="14"/>
         <v>R-WH_Apt_BIOWOO_N1</v>
       </c>
-      <c r="AJ35" s="154" t="str">
+      <c r="AK35" s="154" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">Residential Biomass Water Heater </v>
       </c>
-      <c r="AK35" s="155" t="s">
+      <c r="AL35" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL35" s="155" t="s">
+      <c r="AM35" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM35" s="155"/>
-      <c r="AN35" s="155" t="s">
+      <c r="AN35" s="155"/>
+      <c r="AO35" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="36" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="70" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E36,6)&amp;"_N2"</f>
         <v>R-H_Apt_RSDHET_N2</v>
@@ -18813,36 +18826,37 @@
       <c r="AA36" s="111"/>
       <c r="AB36" s="111"/>
       <c r="AC36" s="111"/>
-      <c r="AD36" s="112">
+      <c r="AD36" s="111"/>
+      <c r="AE36" s="112">
         <v>31.54</v>
       </c>
-      <c r="AE36" s="114">
+      <c r="AF36" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF36" s="115">
+      <c r="AG36" s="115">
         <v>2020</v>
       </c>
-      <c r="AH36" s="164"/>
-      <c r="AI36" s="157" t="str">
+      <c r="AI36" s="164"/>
+      <c r="AJ36" s="157" t="str">
         <f t="shared" si="14"/>
         <v>R-WH_Apt_OILLPG_N1</v>
       </c>
-      <c r="AJ36" s="157" t="str">
+      <c r="AK36" s="157" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">Residential Liquid Petroleum Gas Water Heater </v>
       </c>
-      <c r="AK36" s="158" t="s">
+      <c r="AL36" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="AL36" s="158" t="s">
+      <c r="AM36" s="158" t="s">
         <v>495</v>
       </c>
-      <c r="AM36" s="158"/>
-      <c r="AN36" s="158" t="s">
+      <c r="AN36" s="158"/>
+      <c r="AO36" s="158" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="37" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C37" s="81" t="s">
         <v>382</v>
       </c>
@@ -18872,30 +18886,31 @@
       <c r="AA37" s="84"/>
       <c r="AB37" s="84"/>
       <c r="AC37" s="84"/>
-      <c r="AD37" s="81"/>
-      <c r="AE37" s="82"/>
+      <c r="AD37" s="84"/>
+      <c r="AE37" s="81"/>
       <c r="AF37" s="82"/>
-      <c r="AH37" s="4"/>
-      <c r="AI37" s="154" t="str">
+      <c r="AG37" s="82"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="154" t="str">
         <f>C44</f>
         <v>R-SC_Apt_RSDELC_N1</v>
       </c>
-      <c r="AJ37" s="154" t="str">
+      <c r="AK37" s="154" t="str">
         <f>D44</f>
         <v>Residential Electric Air Conditioning</v>
       </c>
-      <c r="AK37" s="153" t="s">
+      <c r="AL37" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="AL37" s="153" t="s">
+      <c r="AM37" s="153" t="s">
         <v>495</v>
       </c>
-      <c r="AM37" s="153"/>
-      <c r="AN37" s="153" t="s">
+      <c r="AN37" s="153"/>
+      <c r="AO37" s="153" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="38" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C38" s="77" t="str">
         <f>"R-WH_Apt"&amp;"_"&amp;RIGHT(E38,6)&amp;"_N1"</f>
         <v>R-WH_Apt_RSDELC_N1</v>
@@ -18963,17 +18978,18 @@
       <c r="AA38" s="134"/>
       <c r="AB38" s="134"/>
       <c r="AC38" s="134"/>
-      <c r="AD38" s="134">
+      <c r="AD38" s="134"/>
+      <c r="AE38" s="134">
         <v>31.54</v>
       </c>
-      <c r="AE38" s="113">
+      <c r="AF38" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF38" s="137">
+      <c r="AG38" s="137">
         <v>2020</v>
       </c>
     </row>
-    <row r="39" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C39" s="77" t="str">
         <f t="shared" ref="C39:C42" si="16">"R-WH_Apt"&amp;"_"&amp;RIGHT(E39,6)&amp;"_N1"</f>
         <v>R-WH_Apt_RENSOL_N1</v>
@@ -19045,17 +19061,18 @@
       <c r="AA39" s="111"/>
       <c r="AB39" s="111"/>
       <c r="AC39" s="111"/>
-      <c r="AD39" s="111">
+      <c r="AD39" s="111"/>
+      <c r="AE39" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE39" s="114">
+      <c r="AF39" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF39" s="114">
+      <c r="AG39" s="114">
         <v>2020</v>
       </c>
     </row>
-    <row r="40" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C40" s="77" t="str">
         <f t="shared" si="16"/>
         <v>R-WH_Apt_GASNAT_N1</v>
@@ -19124,17 +19141,18 @@
       <c r="AA40" s="110"/>
       <c r="AB40" s="110"/>
       <c r="AC40" s="110"/>
-      <c r="AD40" s="110">
+      <c r="AD40" s="110"/>
+      <c r="AE40" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE40" s="113">
+      <c r="AF40" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF40" s="113">
+      <c r="AG40" s="113">
         <v>2020</v>
       </c>
     </row>
-    <row r="41" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C41" s="77" t="str">
         <f t="shared" si="16"/>
         <v>R-WH_Apt_BIOWOO_N1</v>
@@ -19203,17 +19221,18 @@
       <c r="AA41" s="111"/>
       <c r="AB41" s="111"/>
       <c r="AC41" s="111"/>
-      <c r="AD41" s="111">
+      <c r="AD41" s="111"/>
+      <c r="AE41" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE41" s="114">
+      <c r="AF41" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF41" s="114">
+      <c r="AG41" s="114">
         <v>2020</v>
       </c>
     </row>
-    <row r="42" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C42" s="77" t="str">
         <f t="shared" si="16"/>
         <v>R-WH_Apt_OILLPG_N1</v>
@@ -19282,17 +19301,18 @@
       <c r="AA42" s="135"/>
       <c r="AB42" s="135"/>
       <c r="AC42" s="135"/>
-      <c r="AD42" s="135">
+      <c r="AD42" s="135"/>
+      <c r="AE42" s="135">
         <v>31.54</v>
       </c>
-      <c r="AE42" s="113">
+      <c r="AF42" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF42" s="140">
+      <c r="AG42" s="140">
         <v>2020</v>
       </c>
     </row>
-    <row r="43" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C43" s="81" t="s">
         <v>388</v>
       </c>
@@ -19322,11 +19342,12 @@
       <c r="AA43" s="84"/>
       <c r="AB43" s="84"/>
       <c r="AC43" s="84"/>
-      <c r="AD43" s="81"/>
-      <c r="AE43" s="82"/>
+      <c r="AD43" s="84"/>
+      <c r="AE43" s="81"/>
       <c r="AF43" s="82"/>
-    </row>
-    <row r="44" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="AG43" s="82"/>
+    </row>
+    <row r="44" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C44" s="77" t="str">
         <f>"R-SC_Apt"&amp;"_"&amp;RIGHT(E44,6)&amp;"_N1"</f>
         <v>R-SC_Apt_RSDELC_N1</v>
@@ -19394,22 +19415,23 @@
       <c r="AA44" s="142"/>
       <c r="AB44" s="142"/>
       <c r="AC44" s="142"/>
-      <c r="AD44" s="142">
+      <c r="AD44" s="142"/>
+      <c r="AE44" s="142">
         <v>31.54</v>
       </c>
-      <c r="AE44" s="113">
+      <c r="AF44" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF44" s="141">
+      <c r="AG44" s="141">
         <v>2020</v>
       </c>
     </row>
-    <row r="48" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:41" x14ac:dyDescent="0.2">
       <c r="G48" s="51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="3:40" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:41" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C49" s="61" t="s">
         <v>39</v>
       </c>
@@ -19492,16 +19514,19 @@
         <v>390</v>
       </c>
       <c r="AD49" s="64" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE49" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="AE49" s="64" t="s">
+      <c r="AF49" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="AF49" s="64" t="s">
+      <c r="AG49" s="64" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="50" spans="3:40" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:41" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C50" s="63" t="s">
         <v>333</v>
       </c>
@@ -19514,28 +19539,28 @@
       <c r="F50" s="63" t="s">
         <v>335</v>
       </c>
-      <c r="G50" s="333" t="s">
+      <c r="G50" s="334" t="s">
         <v>336</v>
       </c>
-      <c r="H50" s="334"/>
-      <c r="I50" s="334"/>
-      <c r="J50" s="335"/>
-      <c r="K50" s="333" t="s">
+      <c r="H50" s="335"/>
+      <c r="I50" s="335"/>
+      <c r="J50" s="336"/>
+      <c r="K50" s="334" t="s">
         <v>337</v>
       </c>
-      <c r="L50" s="334"/>
-      <c r="M50" s="334"/>
-      <c r="N50" s="335"/>
-      <c r="O50" s="333" t="s">
+      <c r="L50" s="335"/>
+      <c r="M50" s="335"/>
+      <c r="N50" s="336"/>
+      <c r="O50" s="334" t="s">
         <v>338</v>
       </c>
-      <c r="P50" s="334"/>
-      <c r="Q50" s="334"/>
-      <c r="R50" s="335"/>
-      <c r="S50" s="333" t="s">
+      <c r="P50" s="335"/>
+      <c r="Q50" s="335"/>
+      <c r="R50" s="336"/>
+      <c r="S50" s="334" t="s">
         <v>339</v>
       </c>
-      <c r="T50" s="335"/>
+      <c r="T50" s="336"/>
       <c r="U50" s="327" t="s">
         <v>340</v>
       </c>
@@ -19553,24 +19578,27 @@
       <c r="AC50" s="119" t="s">
         <v>683</v>
       </c>
-      <c r="AD50" s="108" t="s">
+      <c r="AD50" s="119" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE50" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="AE50" s="108" t="s">
+      <c r="AF50" s="108" t="s">
         <v>341</v>
       </c>
-      <c r="AF50" s="108"/>
-      <c r="AH50" s="56" t="s">
+      <c r="AG50" s="108"/>
+      <c r="AI50" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="AI50" s="57"/>
       <c r="AJ50" s="57"/>
       <c r="AK50" s="57"/>
       <c r="AL50" s="57"/>
       <c r="AM50" s="57"/>
       <c r="AN50" s="57"/>
-    </row>
-    <row r="51" spans="3:40" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AO50" s="57"/>
+    </row>
+    <row r="51" spans="3:41" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C51" s="61" t="s">
         <v>711</v>
       </c>
@@ -19603,29 +19631,30 @@
       <c r="AD51" s="61"/>
       <c r="AE51" s="61"/>
       <c r="AF51" s="61"/>
-      <c r="AH51" s="58" t="s">
+      <c r="AG51" s="61"/>
+      <c r="AI51" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="AI51" s="58" t="s">
+      <c r="AJ51" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="AJ51" s="58" t="s">
+      <c r="AK51" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AK51" s="58" t="s">
+      <c r="AL51" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="AL51" s="58" t="s">
+      <c r="AM51" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="AM51" s="58" t="s">
+      <c r="AN51" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="AN51" s="58" t="s">
+      <c r="AO51" s="58" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="52" spans="3:40" ht="45" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:41" ht="33.75" x14ac:dyDescent="0.2">
       <c r="C52" s="85" t="s">
         <v>57</v>
       </c>
@@ -19675,38 +19704,39 @@
       <c r="AC52" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="AD52" s="118" t="s">
+      <c r="AD52" s="109"/>
+      <c r="AE52" s="118" t="s">
         <v>349</v>
       </c>
-      <c r="AE52" s="109" t="s">
+      <c r="AF52" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="AF52" s="109" t="s">
+      <c r="AG52" s="109" t="s">
         <v>350</v>
       </c>
-      <c r="AH52" s="305" t="s">
+      <c r="AI52" s="305" t="s">
         <v>314</v>
       </c>
-      <c r="AI52" s="305" t="s">
+      <c r="AJ52" s="305" t="s">
         <v>315</v>
       </c>
-      <c r="AJ52" s="305" t="s">
+      <c r="AK52" s="305" t="s">
         <v>53</v>
       </c>
-      <c r="AK52" s="305" t="s">
+      <c r="AL52" s="305" t="s">
         <v>316</v>
       </c>
-      <c r="AL52" s="305" t="s">
+      <c r="AM52" s="305" t="s">
         <v>317</v>
       </c>
-      <c r="AM52" s="305" t="s">
+      <c r="AN52" s="305" t="s">
         <v>318</v>
       </c>
-      <c r="AN52" s="305" t="s">
+      <c r="AO52" s="305" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="53" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C53" s="77" t="str">
         <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E53,6)&amp;"_N1"</f>
         <v>R-SH_Att_OILKER_N1</v>
@@ -19774,38 +19804,39 @@
       <c r="AA53" s="90"/>
       <c r="AB53" s="120"/>
       <c r="AC53" s="120"/>
-      <c r="AD53" s="110">
+      <c r="AD53" s="120"/>
+      <c r="AE53" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE53" s="113">
+      <c r="AF53" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF53" s="113">
+      <c r="AG53" s="113">
         <v>2020</v>
       </c>
-      <c r="AH53" s="155" t="s">
+      <c r="AI53" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="AI53" s="154" t="str">
+      <c r="AJ53" s="154" t="str">
         <f>C53</f>
         <v>R-SH_Att_OILKER_N1</v>
       </c>
-      <c r="AJ53" s="154" t="str">
+      <c r="AK53" s="154" t="str">
         <f>D53</f>
         <v>Residential Kerosene Heating Oil - New 1 SH</v>
       </c>
-      <c r="AK53" s="155" t="s">
+      <c r="AL53" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL53" s="155" t="s">
+      <c r="AM53" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM53" s="155"/>
-      <c r="AN53" s="155" t="s">
+      <c r="AN53" s="155"/>
+      <c r="AO53" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="54" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C54" s="70" t="str">
         <f>"R-H_Att"&amp;"_"&amp;RIGHT(E54,6)&amp;"_N1"</f>
         <v>R-H_Att_OILKER_N1</v>
@@ -19885,36 +19916,37 @@
       <c r="AA54" s="92"/>
       <c r="AB54" s="121"/>
       <c r="AC54" s="121"/>
-      <c r="AD54" s="111">
+      <c r="AD54" s="121"/>
+      <c r="AE54" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE54" s="114">
+      <c r="AF54" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF54" s="114">
+      <c r="AG54" s="114">
         <v>2020</v>
       </c>
-      <c r="AH54" s="155"/>
-      <c r="AI54" s="154" t="str">
-        <f t="shared" ref="AI54:AI64" si="20">C54</f>
+      <c r="AI54" s="155"/>
+      <c r="AJ54" s="154" t="str">
+        <f t="shared" ref="AJ54:AJ64" si="20">C54</f>
         <v>R-H_Att_OILKER_N1</v>
       </c>
-      <c r="AJ54" s="154" t="str">
-        <f t="shared" ref="AJ54:AJ64" si="21">D54</f>
+      <c r="AK54" s="154" t="str">
+        <f t="shared" ref="AK54:AK64" si="21">D54</f>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
-      <c r="AK54" s="155" t="s">
+      <c r="AL54" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL54" s="155" t="s">
+      <c r="AM54" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM54" s="155"/>
-      <c r="AN54" s="155" t="s">
+      <c r="AN54" s="155"/>
+      <c r="AO54" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="55" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C55" s="77" t="str">
         <f>"R-H_Att"&amp;"_"&amp;RIGHT(E55,6)&amp;"_N2"</f>
         <v>R-H_Att_OILKER_N2</v>
@@ -19991,36 +20023,39 @@
       </c>
       <c r="AB55" s="120"/>
       <c r="AC55" s="120"/>
-      <c r="AD55" s="110">
+      <c r="AD55" s="337">
+        <v>5</v>
+      </c>
+      <c r="AE55" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE55" s="113">
+      <c r="AF55" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF55" s="113">
+      <c r="AG55" s="113">
         <v>2020</v>
       </c>
-      <c r="AH55" s="155"/>
-      <c r="AI55" s="154" t="str">
+      <c r="AI55" s="155"/>
+      <c r="AJ55" s="154" t="str">
         <f t="shared" si="20"/>
         <v>R-H_Att_OILKER_N2</v>
       </c>
-      <c r="AJ55" s="154" t="str">
+      <c r="AK55" s="154" t="str">
         <f t="shared" si="21"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
-      <c r="AK55" s="155" t="s">
+      <c r="AL55" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL55" s="155" t="s">
+      <c r="AM55" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM55" s="155"/>
-      <c r="AN55" s="155" t="s">
+      <c r="AN55" s="155"/>
+      <c r="AO55" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="56" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C56" s="70" t="str">
         <f>"R-H_Att"&amp;"_"&amp;RIGHT(E56,6)&amp;"_N3"</f>
         <v>R-H_Att_OILKER_N3</v>
@@ -20098,34 +20133,37 @@
         <v>0.47</v>
       </c>
       <c r="AC56" s="121"/>
-      <c r="AD56" s="111">
+      <c r="AD56" s="114">
+        <v>5</v>
+      </c>
+      <c r="AE56" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE56" s="114">
+      <c r="AF56" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF56" s="114">
+      <c r="AG56" s="114">
         <v>2020</v>
       </c>
-      <c r="AH56" s="155"/>
-      <c r="AI56" s="154" t="str">
+      <c r="AI56" s="155"/>
+      <c r="AJ56" s="154" t="str">
         <f t="shared" si="20"/>
         <v>R-H_Att_OILKER_N3</v>
       </c>
-      <c r="AJ56" s="154" t="str">
+      <c r="AK56" s="154" t="str">
         <f t="shared" si="21"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
-      <c r="AK56" s="156" t="s">
+      <c r="AL56" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="AL56" s="156" t="s">
+      <c r="AM56" s="156" t="s">
         <v>495</v>
       </c>
-      <c r="AM56" s="155"/>
       <c r="AN56" s="155"/>
-    </row>
-    <row r="57" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO56" s="155"/>
+    </row>
+    <row r="57" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C57" s="77" t="str">
         <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E57,6)&amp;"_N1"</f>
         <v>R-SH_Att_GASNAT_N1</v>
@@ -20193,36 +20231,37 @@
       <c r="AA57" s="90"/>
       <c r="AB57" s="120"/>
       <c r="AC57" s="120"/>
-      <c r="AD57" s="110">
+      <c r="AD57" s="120"/>
+      <c r="AE57" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE57" s="113">
+      <c r="AF57" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF57" s="113">
+      <c r="AG57" s="113">
         <v>2020</v>
       </c>
-      <c r="AH57" s="155"/>
-      <c r="AI57" s="154" t="str">
+      <c r="AI57" s="155"/>
+      <c r="AJ57" s="154" t="str">
         <f t="shared" si="20"/>
         <v>R-SH_Att_GASNAT_N1</v>
       </c>
-      <c r="AJ57" s="154" t="str">
+      <c r="AK57" s="154" t="str">
         <f t="shared" si="21"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
-      <c r="AK57" s="155" t="s">
+      <c r="AL57" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL57" s="155" t="s">
+      <c r="AM57" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM57" s="155"/>
-      <c r="AN57" s="155" t="s">
+      <c r="AN57" s="155"/>
+      <c r="AO57" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="58" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C58" s="70" t="str">
         <f>"R-H_Att"&amp;"_"&amp;RIGHT(E58,6)&amp;"_N1"</f>
         <v>R-H_Att_GASNAT_N1</v>
@@ -20302,36 +20341,37 @@
       <c r="AA58" s="92"/>
       <c r="AB58" s="121"/>
       <c r="AC58" s="121"/>
-      <c r="AD58" s="111">
+      <c r="AD58" s="121"/>
+      <c r="AE58" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE58" s="114">
+      <c r="AF58" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF58" s="114">
+      <c r="AG58" s="114">
         <v>2020</v>
       </c>
-      <c r="AH58" s="155"/>
-      <c r="AI58" s="154" t="str">
+      <c r="AI58" s="155"/>
+      <c r="AJ58" s="154" t="str">
         <f t="shared" si="20"/>
         <v>R-H_Att_GASNAT_N1</v>
       </c>
-      <c r="AJ58" s="154" t="str">
+      <c r="AK58" s="154" t="str">
         <f t="shared" si="21"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
-      <c r="AK58" s="155" t="s">
+      <c r="AL58" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL58" s="155" t="s">
+      <c r="AM58" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM58" s="155"/>
-      <c r="AN58" s="155" t="s">
+      <c r="AN58" s="155"/>
+      <c r="AO58" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="59" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C59" s="77" t="str">
         <f>"R-H_Att"&amp;"_"&amp;RIGHT(E59,6)&amp;"_N2"</f>
         <v>R-H_Att_GASNAT_N2</v>
@@ -20413,36 +20453,39 @@
       </c>
       <c r="AB59" s="120"/>
       <c r="AC59" s="120"/>
-      <c r="AD59" s="110">
+      <c r="AD59" s="337">
+        <v>5</v>
+      </c>
+      <c r="AE59" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE59" s="113">
+      <c r="AF59" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF59" s="113">
+      <c r="AG59" s="113">
         <v>2020</v>
       </c>
-      <c r="AH59" s="155"/>
-      <c r="AI59" s="154" t="str">
+      <c r="AI59" s="155"/>
+      <c r="AJ59" s="154" t="str">
         <f t="shared" si="20"/>
         <v>R-H_Att_GASNAT_N2</v>
       </c>
-      <c r="AJ59" s="154" t="str">
+      <c r="AK59" s="154" t="str">
         <f t="shared" si="21"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
-      <c r="AK59" s="155" t="s">
+      <c r="AL59" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL59" s="155" t="s">
+      <c r="AM59" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM59" s="155"/>
-      <c r="AN59" s="155" t="s">
+      <c r="AN59" s="155"/>
+      <c r="AO59" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="60" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C60" s="70" t="str">
         <f>"R-H_Att"&amp;"_"&amp;RIGHT(E60,6)&amp;"_N3"</f>
         <v>R-H_Att_GASNAT_N3</v>
@@ -20524,36 +20567,39 @@
         <v>0.47</v>
       </c>
       <c r="AC60" s="121"/>
-      <c r="AD60" s="111">
+      <c r="AD60" s="114">
+        <v>5</v>
+      </c>
+      <c r="AE60" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE60" s="114">
+      <c r="AF60" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF60" s="114">
+      <c r="AG60" s="114">
         <v>2020</v>
       </c>
-      <c r="AH60" s="155"/>
-      <c r="AI60" s="154" t="str">
+      <c r="AI60" s="155"/>
+      <c r="AJ60" s="154" t="str">
         <f t="shared" si="20"/>
         <v>R-H_Att_GASNAT_N3</v>
       </c>
-      <c r="AJ60" s="154" t="str">
+      <c r="AK60" s="154" t="str">
         <f t="shared" si="21"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
-      <c r="AK60" s="155" t="s">
+      <c r="AL60" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL60" s="155" t="s">
+      <c r="AM60" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM60" s="155"/>
-      <c r="AN60" s="155" t="s">
+      <c r="AN60" s="155"/>
+      <c r="AO60" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="61" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C61" s="77" t="str">
         <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E61,6)&amp;"_N1"</f>
         <v>R-SH_Att_OILLPG_N1</v>
@@ -20621,36 +20667,37 @@
       <c r="AA61" s="90"/>
       <c r="AB61" s="120"/>
       <c r="AC61" s="120"/>
-      <c r="AD61" s="110">
+      <c r="AD61" s="120"/>
+      <c r="AE61" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE61" s="113">
+      <c r="AF61" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF61" s="113">
+      <c r="AG61" s="113">
         <v>2020</v>
       </c>
-      <c r="AH61" s="155"/>
-      <c r="AI61" s="154" t="str">
+      <c r="AI61" s="155"/>
+      <c r="AJ61" s="154" t="str">
         <f t="shared" si="20"/>
         <v>R-SH_Att_OILLPG_N1</v>
       </c>
-      <c r="AJ61" s="154" t="str">
+      <c r="AK61" s="154" t="str">
         <f t="shared" si="21"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
-      <c r="AK61" s="155" t="s">
+      <c r="AL61" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL61" s="155" t="s">
+      <c r="AM61" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM61" s="155"/>
-      <c r="AN61" s="155" t="s">
+      <c r="AN61" s="155"/>
+      <c r="AO61" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="62" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C62" s="70" t="str">
         <f>"R-H_Att"&amp;"_"&amp;RIGHT(E62,6)&amp;"_N1"</f>
         <v>R-H_Att_OILLPG_N1</v>
@@ -20730,36 +20777,37 @@
       <c r="AA62" s="92"/>
       <c r="AB62" s="121"/>
       <c r="AC62" s="121"/>
-      <c r="AD62" s="111">
+      <c r="AD62" s="121"/>
+      <c r="AE62" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE62" s="114">
+      <c r="AF62" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF62" s="114">
+      <c r="AG62" s="114">
         <v>2020</v>
       </c>
-      <c r="AH62" s="155"/>
-      <c r="AI62" s="154" t="str">
+      <c r="AI62" s="155"/>
+      <c r="AJ62" s="154" t="str">
         <f t="shared" si="20"/>
         <v>R-H_Att_OILLPG_N1</v>
       </c>
-      <c r="AJ62" s="154" t="str">
+      <c r="AK62" s="154" t="str">
         <f t="shared" si="21"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
-      <c r="AK62" s="155" t="s">
+      <c r="AL62" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL62" s="155" t="s">
+      <c r="AM62" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM62" s="155"/>
-      <c r="AN62" s="155" t="s">
+      <c r="AN62" s="155"/>
+      <c r="AO62" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="63" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C63" s="77" t="str">
         <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E63,6)&amp;"_N1"</f>
         <v>R-SH_Att_BIOWOO_N1</v>
@@ -20815,36 +20863,37 @@
       <c r="AA63" s="90"/>
       <c r="AB63" s="120"/>
       <c r="AC63" s="120"/>
-      <c r="AD63" s="110">
+      <c r="AD63" s="120"/>
+      <c r="AE63" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE63" s="113">
+      <c r="AF63" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF63" s="113">
+      <c r="AG63" s="113">
         <v>2020</v>
       </c>
-      <c r="AH63" s="155"/>
-      <c r="AI63" s="154" t="str">
+      <c r="AI63" s="155"/>
+      <c r="AJ63" s="154" t="str">
         <f t="shared" si="20"/>
         <v>R-SH_Att_BIOWOO_N1</v>
       </c>
-      <c r="AJ63" s="154" t="str">
+      <c r="AK63" s="154" t="str">
         <f t="shared" si="21"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
-      <c r="AK63" s="155" t="s">
+      <c r="AL63" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL63" s="155" t="s">
+      <c r="AM63" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM63" s="155"/>
-      <c r="AN63" s="155" t="s">
+      <c r="AN63" s="155"/>
+      <c r="AO63" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="64" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C64" s="74" t="str">
         <f>"R-H_Att"&amp;"_"&amp;RIGHT(E64,6)&amp;"_N1"</f>
         <v>R-H_Att_BIOWOO_N1</v>
@@ -20912,36 +20961,37 @@
       <c r="AA64" s="97"/>
       <c r="AB64" s="122"/>
       <c r="AC64" s="122"/>
-      <c r="AD64" s="112">
+      <c r="AD64" s="122"/>
+      <c r="AE64" s="112">
         <v>31.54</v>
       </c>
-      <c r="AE64" s="114">
+      <c r="AF64" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF64" s="115">
+      <c r="AG64" s="115">
         <v>2020</v>
       </c>
-      <c r="AH64" s="158"/>
-      <c r="AI64" s="157" t="str">
+      <c r="AI64" s="158"/>
+      <c r="AJ64" s="157" t="str">
         <f t="shared" si="20"/>
         <v>R-H_Att_BIOWOO_N1</v>
       </c>
-      <c r="AJ64" s="157" t="str">
+      <c r="AK64" s="157" t="str">
         <f t="shared" si="21"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
-      <c r="AK64" s="158" t="s">
+      <c r="AL64" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="AL64" s="158" t="s">
+      <c r="AM64" s="158" t="s">
         <v>495</v>
       </c>
-      <c r="AM64" s="158"/>
-      <c r="AN64" s="158" t="s">
+      <c r="AN64" s="158"/>
+      <c r="AO64" s="158" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="65" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C65" s="81" t="s">
         <v>365</v>
       </c>
@@ -20971,30 +21021,31 @@
       <c r="AA65" s="84"/>
       <c r="AB65" s="84"/>
       <c r="AC65" s="84"/>
-      <c r="AD65" s="81"/>
-      <c r="AE65" s="82"/>
+      <c r="AD65" s="84"/>
+      <c r="AE65" s="81"/>
       <c r="AF65" s="82"/>
-      <c r="AH65" s="159"/>
-      <c r="AI65" s="160" t="str">
+      <c r="AG65" s="82"/>
+      <c r="AI65" s="159"/>
+      <c r="AJ65" s="160" t="str">
         <f>C66</f>
         <v>R-SH_Att_RSDELC_N1</v>
       </c>
-      <c r="AJ65" s="160" t="str">
+      <c r="AK65" s="160" t="str">
         <f>D66</f>
         <v>Residential Electric Heater - New 1 SH</v>
       </c>
-      <c r="AK65" s="159" t="s">
+      <c r="AL65" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="AL65" s="159" t="s">
+      <c r="AM65" s="159" t="s">
         <v>495</v>
       </c>
-      <c r="AM65" s="159"/>
-      <c r="AN65" s="159" t="s">
+      <c r="AN65" s="159"/>
+      <c r="AO65" s="159" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="66" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C66" s="77" t="str">
         <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E66,6)&amp;"_N1"</f>
         <v>R-SH_Att_RSDELC_N1</v>
@@ -21062,36 +21113,37 @@
       <c r="AA66" s="133"/>
       <c r="AB66" s="133"/>
       <c r="AC66" s="133"/>
-      <c r="AD66" s="131">
+      <c r="AD66" s="133"/>
+      <c r="AE66" s="131">
         <v>31.54</v>
       </c>
-      <c r="AE66" s="114">
+      <c r="AF66" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF66" s="132">
+      <c r="AG66" s="132">
         <v>2020</v>
       </c>
-      <c r="AH66" s="153"/>
-      <c r="AI66" s="152" t="str">
-        <f t="shared" ref="AI66:AJ72" si="34">C68</f>
+      <c r="AI66" s="153"/>
+      <c r="AJ66" s="152" t="str">
+        <f t="shared" ref="AJ66:AK72" si="34">C68</f>
         <v>R-SH_Att_RSDELC_HPN1</v>
       </c>
-      <c r="AJ66" s="152" t="str">
+      <c r="AK66" s="152" t="str">
         <f t="shared" si="34"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
-      <c r="AK66" s="153" t="s">
+      <c r="AL66" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="AL66" s="153" t="s">
+      <c r="AM66" s="153" t="s">
         <v>495</v>
       </c>
-      <c r="AM66" s="153"/>
-      <c r="AN66" s="153" t="s">
+      <c r="AN66" s="153"/>
+      <c r="AO66" s="153" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="67" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C67" s="81" t="s">
         <v>367</v>
       </c>
@@ -21121,30 +21173,31 @@
       <c r="AA67" s="84"/>
       <c r="AB67" s="84"/>
       <c r="AC67" s="84"/>
-      <c r="AD67" s="81"/>
-      <c r="AE67" s="82"/>
+      <c r="AD67" s="84"/>
+      <c r="AE67" s="81"/>
       <c r="AF67" s="82"/>
-      <c r="AH67" s="155"/>
-      <c r="AI67" s="154" t="str">
+      <c r="AG67" s="82"/>
+      <c r="AI67" s="155"/>
+      <c r="AJ67" s="154" t="str">
         <f t="shared" si="34"/>
         <v>R-HC_Att_RSDELC_HPN1</v>
       </c>
-      <c r="AJ67" s="154" t="str">
+      <c r="AK67" s="154" t="str">
         <f t="shared" si="34"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
-      <c r="AK67" s="155" t="s">
+      <c r="AL67" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL67" s="155" t="s">
+      <c r="AM67" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM67" s="155"/>
-      <c r="AN67" s="155" t="s">
+      <c r="AN67" s="155"/>
+      <c r="AO67" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="68" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C68" s="77" t="str">
         <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E68,6)&amp;"_HPN1"</f>
         <v>R-SH_Att_RSDELC_HPN1</v>
@@ -21212,36 +21265,37 @@
       <c r="AA68" s="134"/>
       <c r="AB68" s="134"/>
       <c r="AC68" s="134"/>
-      <c r="AD68" s="134">
+      <c r="AD68" s="134"/>
+      <c r="AE68" s="134">
         <v>31.54</v>
       </c>
-      <c r="AE68" s="113">
+      <c r="AF68" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF68" s="113">
+      <c r="AG68" s="113">
         <v>2020</v>
       </c>
-      <c r="AH68" s="155"/>
-      <c r="AI68" s="154" t="str">
+      <c r="AI68" s="155"/>
+      <c r="AJ68" s="154" t="str">
         <f t="shared" si="34"/>
         <v>R-SH_Att_RSDELC_HPN2</v>
       </c>
-      <c r="AJ68" s="154" t="str">
+      <c r="AK68" s="154" t="str">
         <f t="shared" si="34"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
-      <c r="AK68" s="155" t="s">
+      <c r="AL68" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL68" s="155" t="s">
+      <c r="AM68" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM68" s="155"/>
-      <c r="AN68" s="155" t="s">
+      <c r="AN68" s="155"/>
+      <c r="AO68" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="69" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C69" s="77" t="str">
         <f>"R-HC_Att"&amp;"_"&amp;RIGHT(E69,6)&amp;"_HPN1"</f>
         <v>R-HC_Att_RSDELC_HPN1</v>
@@ -21321,36 +21375,37 @@
       <c r="AA69" s="111"/>
       <c r="AB69" s="111"/>
       <c r="AC69" s="111"/>
-      <c r="AD69" s="111">
+      <c r="AD69" s="111"/>
+      <c r="AE69" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE69" s="114">
+      <c r="AF69" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF69" s="114">
+      <c r="AG69" s="114">
         <v>2020</v>
       </c>
-      <c r="AH69" s="155"/>
-      <c r="AI69" s="154" t="str">
+      <c r="AI69" s="155"/>
+      <c r="AJ69" s="154" t="str">
         <f t="shared" si="34"/>
         <v>R-H_Att_RSDELC_HPN1</v>
       </c>
-      <c r="AJ69" s="154" t="str">
+      <c r="AK69" s="154" t="str">
         <f t="shared" si="34"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
-      <c r="AK69" s="155" t="s">
+      <c r="AL69" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL69" s="155" t="s">
+      <c r="AM69" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM69" s="155"/>
-      <c r="AN69" s="155" t="s">
+      <c r="AN69" s="155"/>
+      <c r="AO69" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="70" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C70" s="77" t="str">
         <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E70,6)&amp;"_HPN2"</f>
         <v>R-SH_Att_RSDELC_HPN2</v>
@@ -21418,36 +21473,37 @@
       <c r="AA70" s="110"/>
       <c r="AB70" s="110"/>
       <c r="AC70" s="110"/>
-      <c r="AD70" s="110">
+      <c r="AD70" s="110"/>
+      <c r="AE70" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE70" s="113">
+      <c r="AF70" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF70" s="113">
+      <c r="AG70" s="113">
         <v>2020</v>
       </c>
-      <c r="AH70" s="306"/>
-      <c r="AI70" s="154" t="str">
+      <c r="AI70" s="306"/>
+      <c r="AJ70" s="154" t="str">
         <f t="shared" si="34"/>
         <v>R-H_Att_RENSOL_HPN2</v>
       </c>
-      <c r="AJ70" s="154" t="str">
+      <c r="AK70" s="154" t="str">
         <f t="shared" si="34"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
-      <c r="AK70" s="155" t="s">
+      <c r="AL70" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL70" s="155" t="s">
+      <c r="AM70" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM70" s="155"/>
-      <c r="AN70" s="155" t="s">
+      <c r="AN70" s="155"/>
+      <c r="AO70" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="71" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C71" s="77" t="str">
         <f>"R-H_Att"&amp;"_"&amp;RIGHT(E71,6)&amp;"_HPN1"</f>
         <v>R-H_Att_RSDELC_HPN1</v>
@@ -21527,36 +21583,37 @@
       <c r="AA71" s="111"/>
       <c r="AB71" s="111"/>
       <c r="AC71" s="111"/>
-      <c r="AD71" s="111">
+      <c r="AD71" s="111"/>
+      <c r="AE71" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE71" s="114">
+      <c r="AF71" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF71" s="114">
+      <c r="AG71" s="114">
         <v>2020</v>
       </c>
-      <c r="AH71" s="306"/>
-      <c r="AI71" s="154" t="str">
+      <c r="AI71" s="306"/>
+      <c r="AJ71" s="154" t="str">
         <f t="shared" si="34"/>
         <v>R-SH_Att_RSDELC_HPN3</v>
       </c>
-      <c r="AJ71" s="154" t="str">
+      <c r="AK71" s="154" t="str">
         <f t="shared" si="34"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
-      <c r="AK71" s="155" t="s">
+      <c r="AL71" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL71" s="155" t="s">
+      <c r="AM71" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM71" s="155"/>
-      <c r="AN71" s="155" t="s">
+      <c r="AN71" s="155"/>
+      <c r="AO71" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="72" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C72" s="77" t="str">
         <f>"R-H_Att"&amp;"_"&amp;RIGHT(E72,6)&amp;"_HPN2"</f>
         <v>R-H_Att_RENSOL_HPN2</v>
@@ -21638,36 +21695,39 @@
       </c>
       <c r="AB72" s="110"/>
       <c r="AC72" s="110"/>
-      <c r="AD72" s="110">
+      <c r="AD72" s="337">
+        <v>5</v>
+      </c>
+      <c r="AE72" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE72" s="113">
+      <c r="AF72" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF72" s="113">
+      <c r="AG72" s="113">
         <v>2020</v>
       </c>
-      <c r="AH72" s="161"/>
-      <c r="AI72" s="157" t="str">
+      <c r="AI72" s="161"/>
+      <c r="AJ72" s="157" t="str">
         <f t="shared" si="34"/>
         <v>R-HC_Att_RSDELC_HPN2</v>
       </c>
-      <c r="AJ72" s="157" t="str">
+      <c r="AK72" s="157" t="str">
         <f t="shared" si="34"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
-      <c r="AK72" s="158" t="s">
+      <c r="AL72" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="AL72" s="158" t="s">
+      <c r="AM72" s="158" t="s">
         <v>495</v>
       </c>
-      <c r="AM72" s="158"/>
-      <c r="AN72" s="158" t="s">
+      <c r="AN72" s="158"/>
+      <c r="AO72" s="158" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="73" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C73" s="77" t="str">
         <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E73,6)&amp;"_HPN3"</f>
         <v>R-SH_Att_RSDELC_HPN3</v>
@@ -21735,36 +21795,37 @@
       <c r="AA73" s="111"/>
       <c r="AB73" s="111"/>
       <c r="AC73" s="111"/>
-      <c r="AD73" s="111">
+      <c r="AD73" s="111"/>
+      <c r="AE73" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE73" s="114">
+      <c r="AF73" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF73" s="114">
+      <c r="AG73" s="114">
         <v>2020</v>
       </c>
-      <c r="AH73" s="162"/>
-      <c r="AI73" s="152" t="str">
+      <c r="AI73" s="162"/>
+      <c r="AJ73" s="152" t="str">
         <f>C76</f>
         <v>R-H_Att_GASNAT_HPN1</v>
       </c>
-      <c r="AJ73" s="152" t="str">
+      <c r="AK73" s="152" t="str">
         <f>D76</f>
         <v>Residential Gas Absorption Heat Pump - Air to Water - SH + WH</v>
       </c>
-      <c r="AK73" s="153" t="s">
+      <c r="AL73" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="AL73" s="153" t="s">
+      <c r="AM73" s="153" t="s">
         <v>495</v>
       </c>
-      <c r="AM73" s="153"/>
-      <c r="AN73" s="153" t="s">
+      <c r="AN73" s="153"/>
+      <c r="AO73" s="153" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="74" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C74" s="77" t="str">
         <f>"R-HC_Att"&amp;"_"&amp;RIGHT(E74,6)&amp;"_HPN2"</f>
         <v>R-HC_Att_RSDELC_HPN2</v>
@@ -21844,36 +21905,37 @@
       <c r="AA74" s="135"/>
       <c r="AB74" s="135"/>
       <c r="AC74" s="135"/>
-      <c r="AD74" s="135">
+      <c r="AD74" s="135"/>
+      <c r="AE74" s="135">
         <v>31.54</v>
       </c>
-      <c r="AE74" s="113">
+      <c r="AF74" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF74" s="113">
+      <c r="AG74" s="113">
         <v>2020</v>
       </c>
-      <c r="AH74" s="307"/>
-      <c r="AI74" s="157" t="str">
+      <c r="AI74" s="307"/>
+      <c r="AJ74" s="157" t="str">
         <f>C77</f>
         <v>R-H_Att_GASNAT_HPN2</v>
       </c>
-      <c r="AJ74" s="157" t="str">
+      <c r="AK74" s="157" t="str">
         <f>D77</f>
         <v>Residential Gas Engine Heat Pump - Air to Water - SH + WH</v>
       </c>
-      <c r="AK74" s="158" t="s">
+      <c r="AL74" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="AL74" s="158" t="s">
+      <c r="AM74" s="158" t="s">
         <v>495</v>
       </c>
-      <c r="AM74" s="158"/>
-      <c r="AN74" s="158" t="s">
+      <c r="AN74" s="158"/>
+      <c r="AO74" s="158" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="75" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C75" s="81" t="s">
         <v>376</v>
       </c>
@@ -21903,30 +21965,31 @@
       <c r="AA75" s="84"/>
       <c r="AB75" s="84"/>
       <c r="AC75" s="84"/>
-      <c r="AD75" s="81"/>
-      <c r="AE75" s="82"/>
+      <c r="AD75" s="84"/>
+      <c r="AE75" s="81"/>
       <c r="AF75" s="82"/>
-      <c r="AH75" s="308"/>
-      <c r="AI75" s="160" t="str">
+      <c r="AG75" s="82"/>
+      <c r="AI75" s="308"/>
+      <c r="AJ75" s="160" t="str">
         <f>C79</f>
         <v>R-H_Att_GASNAT_HHPN1</v>
       </c>
-      <c r="AJ75" s="160" t="str">
+      <c r="AK75" s="160" t="str">
         <f>D79</f>
         <v>Residential Gas Hybrid Heat Pump - Air to Water - SH + WH</v>
       </c>
-      <c r="AK75" s="159" t="s">
+      <c r="AL75" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="AL75" s="159" t="s">
+      <c r="AM75" s="159" t="s">
         <v>495</v>
       </c>
-      <c r="AM75" s="159"/>
-      <c r="AN75" s="159" t="s">
+      <c r="AN75" s="159"/>
+      <c r="AO75" s="159" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="76" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C76" s="77" t="str">
         <f>"R-H_Att"&amp;"_"&amp;RIGHT(E76,6)&amp;"_HPN1"</f>
         <v>R-H_Att_GASNAT_HPN1</v>
@@ -22006,36 +22069,37 @@
       <c r="AA76" s="104"/>
       <c r="AB76" s="134"/>
       <c r="AC76" s="134"/>
-      <c r="AD76" s="134">
+      <c r="AD76" s="134"/>
+      <c r="AE76" s="134">
         <v>31.54</v>
       </c>
-      <c r="AE76" s="113">
+      <c r="AF76" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF76" s="137">
+      <c r="AG76" s="137">
         <v>2020</v>
       </c>
-      <c r="AH76" s="309"/>
-      <c r="AI76" s="152" t="str">
+      <c r="AI76" s="309"/>
+      <c r="AJ76" s="152" t="str">
         <f>C81</f>
         <v>R-H_Att_RSDHET_N1</v>
       </c>
-      <c r="AJ76" s="152" t="str">
+      <c r="AK76" s="152" t="str">
         <f>D81</f>
         <v>Residential District Heating Centralized - SH + WH</v>
       </c>
-      <c r="AK76" s="153" t="s">
+      <c r="AL76" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="AL76" s="153" t="s">
+      <c r="AM76" s="153" t="s">
         <v>495</v>
       </c>
-      <c r="AM76" s="153"/>
-      <c r="AN76" s="153" t="s">
+      <c r="AN76" s="153"/>
+      <c r="AO76" s="153" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="77" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C77" s="77" t="str">
         <f>"R-H_Att"&amp;"_"&amp;RIGHT(E77,6)&amp;"_HPN2"</f>
         <v>R-H_Att_GASNAT_HPN2</v>
@@ -22115,36 +22179,37 @@
       <c r="AA77" s="107"/>
       <c r="AB77" s="112"/>
       <c r="AC77" s="112"/>
-      <c r="AD77" s="112">
+      <c r="AD77" s="112"/>
+      <c r="AE77" s="112">
         <v>31.54</v>
       </c>
-      <c r="AE77" s="114">
+      <c r="AF77" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF77" s="115">
+      <c r="AG77" s="115">
         <v>2020</v>
       </c>
-      <c r="AH77" s="164"/>
-      <c r="AI77" s="157" t="str">
+      <c r="AI77" s="164"/>
+      <c r="AJ77" s="157" t="str">
         <f>C82</f>
         <v>R-H_Att_RSDHET_N2</v>
       </c>
-      <c r="AJ77" s="157" t="str">
+      <c r="AK77" s="157" t="str">
         <f>D82</f>
         <v>Residential District Heating Decentralized - SH + WH</v>
       </c>
-      <c r="AK77" s="158" t="s">
+      <c r="AL77" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="AL77" s="158" t="s">
+      <c r="AM77" s="158" t="s">
         <v>495</v>
       </c>
-      <c r="AM77" s="158"/>
-      <c r="AN77" s="158" t="s">
+      <c r="AN77" s="158"/>
+      <c r="AO77" s="158" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="78" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C78" s="81" t="s">
         <v>368</v>
       </c>
@@ -22174,30 +22239,31 @@
       <c r="AA78" s="84"/>
       <c r="AB78" s="84"/>
       <c r="AC78" s="84"/>
-      <c r="AD78" s="81"/>
-      <c r="AE78" s="82"/>
+      <c r="AD78" s="84"/>
+      <c r="AE78" s="81"/>
       <c r="AF78" s="82"/>
-      <c r="AH78" s="309"/>
-      <c r="AI78" s="152" t="str">
-        <f t="shared" ref="AI78:AJ82" si="38">C84</f>
+      <c r="AG78" s="82"/>
+      <c r="AI78" s="309"/>
+      <c r="AJ78" s="152" t="str">
+        <f t="shared" ref="AJ78:AK82" si="38">C84</f>
         <v>R-WH_Att_RSDELC_N1</v>
       </c>
-      <c r="AJ78" s="152" t="str">
+      <c r="AK78" s="152" t="str">
         <f t="shared" si="38"/>
         <v xml:space="preserve">Residential Electric Water Heater </v>
       </c>
-      <c r="AK78" s="153" t="s">
+      <c r="AL78" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="AL78" s="153" t="s">
+      <c r="AM78" s="153" t="s">
         <v>495</v>
       </c>
-      <c r="AM78" s="153"/>
-      <c r="AN78" s="153" t="s">
+      <c r="AN78" s="153"/>
+      <c r="AO78" s="153" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="79" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C79" s="77" t="str">
         <f>"R-H_Att"&amp;"_"&amp;RIGHT(E79,6)&amp;"_HHPN1"</f>
         <v>R-H_Att_GASNAT_HHPN1</v>
@@ -22270,36 +22336,39 @@
       <c r="AC79" s="133">
         <v>0.3</v>
       </c>
-      <c r="AD79" s="131">
+      <c r="AD79" s="114">
+        <v>5</v>
+      </c>
+      <c r="AE79" s="131">
         <v>31.54</v>
       </c>
-      <c r="AE79" s="114">
+      <c r="AF79" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF79" s="132">
+      <c r="AG79" s="132">
         <v>2020</v>
       </c>
-      <c r="AH79" s="4"/>
-      <c r="AI79" s="154" t="str">
+      <c r="AI79" s="4"/>
+      <c r="AJ79" s="154" t="str">
         <f t="shared" si="38"/>
         <v>R-WH_Att_RENSOL_N1</v>
       </c>
-      <c r="AJ79" s="154" t="str">
+      <c r="AK79" s="154" t="str">
         <f t="shared" si="38"/>
         <v xml:space="preserve">Residential Solar Water Heater </v>
       </c>
-      <c r="AK79" s="155" t="s">
+      <c r="AL79" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL79" s="155" t="s">
+      <c r="AM79" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM79" s="155"/>
-      <c r="AN79" s="155" t="s">
+      <c r="AN79" s="155"/>
+      <c r="AO79" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="80" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C80" s="81" t="s">
         <v>379</v>
       </c>
@@ -22329,30 +22398,31 @@
       <c r="AA80" s="84"/>
       <c r="AB80" s="84"/>
       <c r="AC80" s="84"/>
-      <c r="AD80" s="81"/>
-      <c r="AE80" s="82"/>
+      <c r="AD80" s="84"/>
+      <c r="AE80" s="81"/>
       <c r="AF80" s="82"/>
-      <c r="AH80" s="4"/>
-      <c r="AI80" s="154" t="str">
+      <c r="AG80" s="82"/>
+      <c r="AI80" s="4"/>
+      <c r="AJ80" s="154" t="str">
         <f t="shared" si="38"/>
         <v>R-WH_Att_GASNAT_N1</v>
       </c>
-      <c r="AJ80" s="154" t="str">
+      <c r="AK80" s="154" t="str">
         <f t="shared" si="38"/>
         <v xml:space="preserve">Residential Gas Water Heater </v>
       </c>
-      <c r="AK80" s="155" t="s">
+      <c r="AL80" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL80" s="155" t="s">
+      <c r="AM80" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM80" s="155"/>
-      <c r="AN80" s="155" t="s">
+      <c r="AN80" s="155"/>
+      <c r="AO80" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="81" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C81" s="70" t="str">
         <f>"R-H_Att"&amp;"_"&amp;RIGHT(E81,6)&amp;"_N1"</f>
         <v>R-H_Att_RSDHET_N1</v>
@@ -22433,36 +22503,37 @@
       <c r="AA81" s="134"/>
       <c r="AB81" s="134"/>
       <c r="AC81" s="134"/>
-      <c r="AD81" s="134">
+      <c r="AD81" s="134"/>
+      <c r="AE81" s="134">
         <v>31.54</v>
       </c>
-      <c r="AE81" s="113">
+      <c r="AF81" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF81" s="137">
+      <c r="AG81" s="137">
         <v>2020</v>
       </c>
-      <c r="AH81" s="4"/>
-      <c r="AI81" s="154" t="str">
+      <c r="AI81" s="4"/>
+      <c r="AJ81" s="154" t="str">
         <f t="shared" si="38"/>
         <v>R-WH_Att_BIOWOO_N1</v>
       </c>
-      <c r="AJ81" s="154" t="str">
+      <c r="AK81" s="154" t="str">
         <f t="shared" si="38"/>
         <v xml:space="preserve">Residential Biomass Water Heater </v>
       </c>
-      <c r="AK81" s="155" t="s">
+      <c r="AL81" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL81" s="155" t="s">
+      <c r="AM81" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM81" s="155"/>
-      <c r="AN81" s="155" t="s">
+      <c r="AN81" s="155"/>
+      <c r="AO81" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="82" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C82" s="70" t="str">
         <f>"R-H_Att"&amp;"_"&amp;RIGHT(E82,6)&amp;"_N2"</f>
         <v>R-H_Att_RSDHET_N2</v>
@@ -22543,36 +22614,37 @@
       <c r="AA82" s="111"/>
       <c r="AB82" s="111"/>
       <c r="AC82" s="111"/>
-      <c r="AD82" s="112">
+      <c r="AD82" s="111"/>
+      <c r="AE82" s="112">
         <v>31.54</v>
       </c>
-      <c r="AE82" s="114">
+      <c r="AF82" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF82" s="115">
+      <c r="AG82" s="115">
         <v>2020</v>
       </c>
-      <c r="AH82" s="164"/>
-      <c r="AI82" s="157" t="str">
+      <c r="AI82" s="164"/>
+      <c r="AJ82" s="157" t="str">
         <f t="shared" si="38"/>
         <v>R-WH_Att_OILLPG_N1</v>
       </c>
-      <c r="AJ82" s="157" t="str">
+      <c r="AK82" s="157" t="str">
         <f t="shared" si="38"/>
         <v xml:space="preserve">Residential Liquid Petroleum Gas Water Heater </v>
       </c>
-      <c r="AK82" s="158" t="s">
+      <c r="AL82" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="AL82" s="158" t="s">
+      <c r="AM82" s="158" t="s">
         <v>495</v>
       </c>
-      <c r="AM82" s="158"/>
-      <c r="AN82" s="158" t="s">
+      <c r="AN82" s="158"/>
+      <c r="AO82" s="158" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="83" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C83" s="81" t="s">
         <v>382</v>
       </c>
@@ -22602,30 +22674,31 @@
       <c r="AA83" s="84"/>
       <c r="AB83" s="84"/>
       <c r="AC83" s="84"/>
-      <c r="AD83" s="81"/>
-      <c r="AE83" s="82"/>
+      <c r="AD83" s="84"/>
+      <c r="AE83" s="81"/>
       <c r="AF83" s="82"/>
-      <c r="AH83" s="4"/>
-      <c r="AI83" s="154" t="str">
+      <c r="AG83" s="82"/>
+      <c r="AI83" s="4"/>
+      <c r="AJ83" s="154" t="str">
         <f>C90</f>
         <v>R-SC_Att_RSDELC_N1</v>
       </c>
-      <c r="AJ83" s="154" t="str">
+      <c r="AK83" s="154" t="str">
         <f>D90</f>
         <v>Residential Electric Air Conditioning</v>
       </c>
-      <c r="AK83" s="153" t="s">
+      <c r="AL83" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="AL83" s="153" t="s">
+      <c r="AM83" s="153" t="s">
         <v>495</v>
       </c>
-      <c r="AM83" s="153"/>
-      <c r="AN83" s="153" t="s">
+      <c r="AN83" s="153"/>
+      <c r="AO83" s="153" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="84" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C84" s="77" t="str">
         <f>"R-WH_Att"&amp;"_"&amp;RIGHT(E84,6)&amp;"_N1"</f>
         <v>R-WH_Att_RSDELC_N1</v>
@@ -22693,17 +22766,18 @@
       <c r="AA84" s="134"/>
       <c r="AB84" s="134"/>
       <c r="AC84" s="134"/>
-      <c r="AD84" s="134">
+      <c r="AD84" s="134"/>
+      <c r="AE84" s="134">
         <v>31.54</v>
       </c>
-      <c r="AE84" s="113">
+      <c r="AF84" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF84" s="137">
+      <c r="AG84" s="137">
         <v>2020</v>
       </c>
     </row>
-    <row r="85" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C85" s="77" t="str">
         <f>"R-WH_Att"&amp;"_"&amp;RIGHT(E85,6)&amp;"_N1"</f>
         <v>R-WH_Att_RENSOL_N1</v>
@@ -22775,17 +22849,18 @@
       <c r="AA85" s="111"/>
       <c r="AB85" s="111"/>
       <c r="AC85" s="111"/>
-      <c r="AD85" s="111">
+      <c r="AD85" s="111"/>
+      <c r="AE85" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE85" s="114">
+      <c r="AF85" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF85" s="114">
+      <c r="AG85" s="114">
         <v>2020</v>
       </c>
     </row>
-    <row r="86" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C86" s="77" t="str">
         <f>"R-WH_Att"&amp;"_"&amp;RIGHT(E86,6)&amp;"_N1"</f>
         <v>R-WH_Att_GASNAT_N1</v>
@@ -22854,17 +22929,18 @@
       <c r="AA86" s="110"/>
       <c r="AB86" s="110"/>
       <c r="AC86" s="110"/>
-      <c r="AD86" s="110">
+      <c r="AD86" s="110"/>
+      <c r="AE86" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE86" s="113">
+      <c r="AF86" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF86" s="113">
+      <c r="AG86" s="113">
         <v>2020</v>
       </c>
     </row>
-    <row r="87" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C87" s="77" t="str">
         <f>"R-WH_Att"&amp;"_"&amp;RIGHT(E87,6)&amp;"_N1"</f>
         <v>R-WH_Att_BIOWOO_N1</v>
@@ -22933,17 +23009,18 @@
       <c r="AA87" s="111"/>
       <c r="AB87" s="111"/>
       <c r="AC87" s="111"/>
-      <c r="AD87" s="111">
+      <c r="AD87" s="111"/>
+      <c r="AE87" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE87" s="114">
+      <c r="AF87" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF87" s="114">
+      <c r="AG87" s="114">
         <v>2020</v>
       </c>
     </row>
-    <row r="88" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C88" s="77" t="str">
         <f>"R-WH_Att"&amp;"_"&amp;RIGHT(E88,6)&amp;"_N1"</f>
         <v>R-WH_Att_OILLPG_N1</v>
@@ -23012,17 +23089,18 @@
       <c r="AA88" s="135"/>
       <c r="AB88" s="135"/>
       <c r="AC88" s="135"/>
-      <c r="AD88" s="135">
+      <c r="AD88" s="135"/>
+      <c r="AE88" s="135">
         <v>31.54</v>
       </c>
-      <c r="AE88" s="113">
+      <c r="AF88" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF88" s="140">
+      <c r="AG88" s="140">
         <v>2020</v>
       </c>
     </row>
-    <row r="89" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C89" s="81" t="s">
         <v>388</v>
       </c>
@@ -23052,11 +23130,12 @@
       <c r="AA89" s="84"/>
       <c r="AB89" s="84"/>
       <c r="AC89" s="84"/>
-      <c r="AD89" s="81"/>
-      <c r="AE89" s="82"/>
+      <c r="AD89" s="84"/>
+      <c r="AE89" s="81"/>
       <c r="AF89" s="82"/>
-    </row>
-    <row r="90" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="AG89" s="82"/>
+    </row>
+    <row r="90" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C90" s="77" t="str">
         <f>"R-SC_Att"&amp;"_"&amp;RIGHT(E90,6)&amp;"_N1"</f>
         <v>R-SC_Att_RSDELC_N1</v>
@@ -23124,22 +23203,23 @@
       <c r="AA90" s="142"/>
       <c r="AB90" s="142"/>
       <c r="AC90" s="142"/>
-      <c r="AD90" s="142">
+      <c r="AD90" s="142"/>
+      <c r="AE90" s="142">
         <v>31.54</v>
       </c>
-      <c r="AE90" s="113">
+      <c r="AF90" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF90" s="141">
+      <c r="AG90" s="141">
         <v>2020</v>
       </c>
     </row>
-    <row r="95" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:41" x14ac:dyDescent="0.2">
       <c r="G95" s="51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="3:40" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:41" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C96" s="61" t="s">
         <v>39</v>
       </c>
@@ -23222,16 +23302,19 @@
         <v>390</v>
       </c>
       <c r="AD96" s="64" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE96" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="AE96" s="64" t="s">
+      <c r="AF96" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="AF96" s="64" t="s">
+      <c r="AG96" s="64" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="97" spans="3:40" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:41" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C97" s="63" t="s">
         <v>333</v>
       </c>
@@ -23244,28 +23327,28 @@
       <c r="F97" s="63" t="s">
         <v>335</v>
       </c>
-      <c r="G97" s="333" t="s">
+      <c r="G97" s="334" t="s">
         <v>336</v>
       </c>
-      <c r="H97" s="334"/>
-      <c r="I97" s="334"/>
-      <c r="J97" s="335"/>
-      <c r="K97" s="333" t="s">
+      <c r="H97" s="335"/>
+      <c r="I97" s="335"/>
+      <c r="J97" s="336"/>
+      <c r="K97" s="334" t="s">
         <v>337</v>
       </c>
-      <c r="L97" s="334"/>
-      <c r="M97" s="334"/>
-      <c r="N97" s="335"/>
-      <c r="O97" s="333" t="s">
+      <c r="L97" s="335"/>
+      <c r="M97" s="335"/>
+      <c r="N97" s="336"/>
+      <c r="O97" s="334" t="s">
         <v>338</v>
       </c>
-      <c r="P97" s="334"/>
-      <c r="Q97" s="334"/>
-      <c r="R97" s="335"/>
-      <c r="S97" s="333" t="s">
+      <c r="P97" s="335"/>
+      <c r="Q97" s="335"/>
+      <c r="R97" s="336"/>
+      <c r="S97" s="334" t="s">
         <v>339</v>
       </c>
-      <c r="T97" s="335"/>
+      <c r="T97" s="336"/>
       <c r="U97" s="327" t="s">
         <v>340</v>
       </c>
@@ -23283,24 +23366,27 @@
       <c r="AC97" s="119" t="s">
         <v>683</v>
       </c>
-      <c r="AD97" s="108" t="s">
+      <c r="AD97" s="119" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE97" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="AE97" s="108" t="s">
+      <c r="AF97" s="108" t="s">
         <v>341</v>
       </c>
-      <c r="AF97" s="108"/>
-      <c r="AH97" s="56" t="s">
+      <c r="AG97" s="108"/>
+      <c r="AI97" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="AI97" s="57"/>
       <c r="AJ97" s="57"/>
       <c r="AK97" s="57"/>
       <c r="AL97" s="57"/>
       <c r="AM97" s="57"/>
       <c r="AN97" s="57"/>
-    </row>
-    <row r="98" spans="3:40" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AO97" s="57"/>
+    </row>
+    <row r="98" spans="3:41" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C98" s="61" t="s">
         <v>712</v>
       </c>
@@ -23333,29 +23419,30 @@
       <c r="AD98" s="61"/>
       <c r="AE98" s="61"/>
       <c r="AF98" s="61"/>
-      <c r="AH98" s="58" t="s">
+      <c r="AG98" s="61"/>
+      <c r="AI98" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="AI98" s="58" t="s">
+      <c r="AJ98" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="AJ98" s="58" t="s">
+      <c r="AK98" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AK98" s="58" t="s">
+      <c r="AL98" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="AL98" s="58" t="s">
+      <c r="AM98" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="AM98" s="58" t="s">
+      <c r="AN98" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="AN98" s="58" t="s">
+      <c r="AO98" s="58" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="99" spans="3:40" ht="45" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:41" ht="33.75" x14ac:dyDescent="0.2">
       <c r="C99" s="85" t="s">
         <v>57</v>
       </c>
@@ -23405,38 +23492,39 @@
       <c r="AC99" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="AD99" s="118" t="s">
+      <c r="AD99" s="109"/>
+      <c r="AE99" s="118" t="s">
         <v>349</v>
       </c>
-      <c r="AE99" s="109" t="s">
+      <c r="AF99" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="AF99" s="109" t="s">
+      <c r="AG99" s="109" t="s">
         <v>350</v>
       </c>
-      <c r="AH99" s="305" t="s">
+      <c r="AI99" s="305" t="s">
         <v>314</v>
       </c>
-      <c r="AI99" s="305" t="s">
+      <c r="AJ99" s="305" t="s">
         <v>315</v>
       </c>
-      <c r="AJ99" s="305" t="s">
+      <c r="AK99" s="305" t="s">
         <v>53</v>
       </c>
-      <c r="AK99" s="305" t="s">
+      <c r="AL99" s="305" t="s">
         <v>316</v>
       </c>
-      <c r="AL99" s="305" t="s">
+      <c r="AM99" s="305" t="s">
         <v>317</v>
       </c>
-      <c r="AM99" s="305" t="s">
+      <c r="AN99" s="305" t="s">
         <v>318</v>
       </c>
-      <c r="AN99" s="305" t="s">
+      <c r="AO99" s="305" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="100" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C100" s="77" t="str">
         <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E100,6)&amp;"_N1"</f>
         <v>R-SH_Det_OILKER_N1</v>
@@ -23504,38 +23592,39 @@
       <c r="AA100" s="90"/>
       <c r="AB100" s="120"/>
       <c r="AC100" s="120"/>
-      <c r="AD100" s="110">
+      <c r="AD100" s="120"/>
+      <c r="AE100" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE100" s="113">
+      <c r="AF100" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF100" s="113">
+      <c r="AG100" s="113">
         <v>2020</v>
       </c>
-      <c r="AH100" s="155" t="s">
+      <c r="AI100" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="AI100" s="154" t="str">
+      <c r="AJ100" s="154" t="str">
         <f>C100</f>
         <v>R-SH_Det_OILKER_N1</v>
       </c>
-      <c r="AJ100" s="154" t="str">
+      <c r="AK100" s="154" t="str">
         <f>D100</f>
         <v>Residential Kerosene Heating Oil - New 1 SH</v>
       </c>
-      <c r="AK100" s="155" t="s">
+      <c r="AL100" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL100" s="155" t="s">
+      <c r="AM100" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM100" s="155"/>
-      <c r="AN100" s="155" t="s">
+      <c r="AN100" s="155"/>
+      <c r="AO100" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="101" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C101" s="70" t="str">
         <f>"R-H_Det"&amp;"_"&amp;RIGHT(E101,6)&amp;"_N1"</f>
         <v>R-H_Det_OILKER_N1</v>
@@ -23615,36 +23704,37 @@
       <c r="AA101" s="92"/>
       <c r="AB101" s="121"/>
       <c r="AC101" s="121"/>
-      <c r="AD101" s="111">
+      <c r="AD101" s="121"/>
+      <c r="AE101" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE101" s="114">
+      <c r="AF101" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF101" s="114">
+      <c r="AG101" s="114">
         <v>2020</v>
       </c>
-      <c r="AH101" s="155"/>
-      <c r="AI101" s="154" t="str">
-        <f t="shared" ref="AI101:AI111" si="45">C101</f>
+      <c r="AI101" s="155"/>
+      <c r="AJ101" s="154" t="str">
+        <f t="shared" ref="AJ101:AJ111" si="45">C101</f>
         <v>R-H_Det_OILKER_N1</v>
       </c>
-      <c r="AJ101" s="154" t="str">
-        <f t="shared" ref="AJ101:AJ111" si="46">D101</f>
+      <c r="AK101" s="154" t="str">
+        <f t="shared" ref="AK101:AK111" si="46">D101</f>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
-      <c r="AK101" s="155" t="s">
+      <c r="AL101" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL101" s="155" t="s">
+      <c r="AM101" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM101" s="155"/>
-      <c r="AN101" s="155" t="s">
+      <c r="AN101" s="155"/>
+      <c r="AO101" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="102" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C102" s="77" t="str">
         <f>"R-H_Det"&amp;"_"&amp;RIGHT(E102,6)&amp;"_N2"</f>
         <v>R-H_Det_OILKER_N2</v>
@@ -23721,36 +23811,39 @@
       </c>
       <c r="AB102" s="120"/>
       <c r="AC102" s="120"/>
-      <c r="AD102" s="110">
+      <c r="AD102" s="337">
+        <v>5</v>
+      </c>
+      <c r="AE102" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE102" s="113">
+      <c r="AF102" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF102" s="113">
+      <c r="AG102" s="113">
         <v>2020</v>
       </c>
-      <c r="AH102" s="155"/>
-      <c r="AI102" s="154" t="str">
+      <c r="AI102" s="155"/>
+      <c r="AJ102" s="154" t="str">
         <f t="shared" si="45"/>
         <v>R-H_Det_OILKER_N2</v>
       </c>
-      <c r="AJ102" s="154" t="str">
+      <c r="AK102" s="154" t="str">
         <f t="shared" si="46"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
-      <c r="AK102" s="155" t="s">
+      <c r="AL102" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL102" s="155" t="s">
+      <c r="AM102" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM102" s="155"/>
-      <c r="AN102" s="155" t="s">
+      <c r="AN102" s="155"/>
+      <c r="AO102" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="103" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C103" s="70" t="str">
         <f>"R-H_Det"&amp;"_"&amp;RIGHT(E103,6)&amp;"_N3"</f>
         <v>R-H_Det_OILKER_N3</v>
@@ -23828,34 +23921,37 @@
         <v>0.47</v>
       </c>
       <c r="AC103" s="121"/>
-      <c r="AD103" s="111">
+      <c r="AD103" s="114">
+        <v>5</v>
+      </c>
+      <c r="AE103" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE103" s="114">
+      <c r="AF103" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF103" s="114">
+      <c r="AG103" s="114">
         <v>2020</v>
       </c>
-      <c r="AH103" s="155"/>
-      <c r="AI103" s="154" t="str">
+      <c r="AI103" s="155"/>
+      <c r="AJ103" s="154" t="str">
         <f t="shared" si="45"/>
         <v>R-H_Det_OILKER_N3</v>
       </c>
-      <c r="AJ103" s="154" t="str">
+      <c r="AK103" s="154" t="str">
         <f t="shared" si="46"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
-      <c r="AK103" s="156" t="s">
+      <c r="AL103" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="AL103" s="156" t="s">
+      <c r="AM103" s="156" t="s">
         <v>495</v>
       </c>
-      <c r="AM103" s="155"/>
       <c r="AN103" s="155"/>
-    </row>
-    <row r="104" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO103" s="155"/>
+    </row>
+    <row r="104" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C104" s="77" t="str">
         <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E104,6)&amp;"_N1"</f>
         <v>R-SH_Det_GASNAT_N1</v>
@@ -23923,36 +24019,37 @@
       <c r="AA104" s="90"/>
       <c r="AB104" s="120"/>
       <c r="AC104" s="120"/>
-      <c r="AD104" s="110">
+      <c r="AD104" s="120"/>
+      <c r="AE104" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE104" s="113">
+      <c r="AF104" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF104" s="113">
+      <c r="AG104" s="113">
         <v>2020</v>
       </c>
-      <c r="AH104" s="155"/>
-      <c r="AI104" s="154" t="str">
+      <c r="AI104" s="155"/>
+      <c r="AJ104" s="154" t="str">
         <f t="shared" si="45"/>
         <v>R-SH_Det_GASNAT_N1</v>
       </c>
-      <c r="AJ104" s="154" t="str">
+      <c r="AK104" s="154" t="str">
         <f t="shared" si="46"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
-      <c r="AK104" s="155" t="s">
+      <c r="AL104" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL104" s="155" t="s">
+      <c r="AM104" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM104" s="155"/>
-      <c r="AN104" s="155" t="s">
+      <c r="AN104" s="155"/>
+      <c r="AO104" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="105" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C105" s="70" t="str">
         <f>"R-H_Det"&amp;"_"&amp;RIGHT(E105,6)&amp;"_N1"</f>
         <v>R-H_Det_GASNAT_N1</v>
@@ -24032,36 +24129,37 @@
       <c r="AA105" s="92"/>
       <c r="AB105" s="121"/>
       <c r="AC105" s="121"/>
-      <c r="AD105" s="111">
+      <c r="AD105" s="121"/>
+      <c r="AE105" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE105" s="114">
+      <c r="AF105" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF105" s="114">
+      <c r="AG105" s="114">
         <v>2020</v>
       </c>
-      <c r="AH105" s="155"/>
-      <c r="AI105" s="154" t="str">
+      <c r="AI105" s="155"/>
+      <c r="AJ105" s="154" t="str">
         <f t="shared" si="45"/>
         <v>R-H_Det_GASNAT_N1</v>
       </c>
-      <c r="AJ105" s="154" t="str">
+      <c r="AK105" s="154" t="str">
         <f t="shared" si="46"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
-      <c r="AK105" s="155" t="s">
+      <c r="AL105" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL105" s="155" t="s">
+      <c r="AM105" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM105" s="155"/>
-      <c r="AN105" s="155" t="s">
+      <c r="AN105" s="155"/>
+      <c r="AO105" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="106" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C106" s="77" t="str">
         <f>"R-H_Det"&amp;"_"&amp;RIGHT(E106,6)&amp;"_N2"</f>
         <v>R-H_Det_GASNAT_N2</v>
@@ -24143,36 +24241,39 @@
       </c>
       <c r="AB106" s="120"/>
       <c r="AC106" s="120"/>
-      <c r="AD106" s="110">
+      <c r="AD106" s="337">
+        <v>5</v>
+      </c>
+      <c r="AE106" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE106" s="113">
+      <c r="AF106" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF106" s="113">
+      <c r="AG106" s="113">
         <v>2020</v>
       </c>
-      <c r="AH106" s="155"/>
-      <c r="AI106" s="154" t="str">
+      <c r="AI106" s="155"/>
+      <c r="AJ106" s="154" t="str">
         <f t="shared" si="45"/>
         <v>R-H_Det_GASNAT_N2</v>
       </c>
-      <c r="AJ106" s="154" t="str">
+      <c r="AK106" s="154" t="str">
         <f t="shared" si="46"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
-      <c r="AK106" s="155" t="s">
+      <c r="AL106" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL106" s="155" t="s">
+      <c r="AM106" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM106" s="155"/>
-      <c r="AN106" s="155" t="s">
+      <c r="AN106" s="155"/>
+      <c r="AO106" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="107" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C107" s="70" t="str">
         <f>"R-H_Det"&amp;"_"&amp;RIGHT(E107,6)&amp;"_N3"</f>
         <v>R-H_Det_GASNAT_N3</v>
@@ -24254,36 +24355,39 @@
         <v>0.47</v>
       </c>
       <c r="AC107" s="121"/>
-      <c r="AD107" s="111">
+      <c r="AD107" s="114">
+        <v>5</v>
+      </c>
+      <c r="AE107" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE107" s="114">
+      <c r="AF107" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF107" s="114">
+      <c r="AG107" s="114">
         <v>2020</v>
       </c>
-      <c r="AH107" s="155"/>
-      <c r="AI107" s="154" t="str">
+      <c r="AI107" s="155"/>
+      <c r="AJ107" s="154" t="str">
         <f t="shared" si="45"/>
         <v>R-H_Det_GASNAT_N3</v>
       </c>
-      <c r="AJ107" s="154" t="str">
+      <c r="AK107" s="154" t="str">
         <f t="shared" si="46"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
-      <c r="AK107" s="155" t="s">
+      <c r="AL107" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL107" s="155" t="s">
+      <c r="AM107" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM107" s="155"/>
-      <c r="AN107" s="155" t="s">
+      <c r="AN107" s="155"/>
+      <c r="AO107" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="108" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C108" s="77" t="str">
         <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E108,6)&amp;"_N1"</f>
         <v>R-SH_Det_OILLPG_N1</v>
@@ -24351,36 +24455,37 @@
       <c r="AA108" s="90"/>
       <c r="AB108" s="120"/>
       <c r="AC108" s="120"/>
-      <c r="AD108" s="110">
+      <c r="AD108" s="120"/>
+      <c r="AE108" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE108" s="113">
+      <c r="AF108" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF108" s="113">
+      <c r="AG108" s="113">
         <v>2020</v>
       </c>
-      <c r="AH108" s="155"/>
-      <c r="AI108" s="154" t="str">
+      <c r="AI108" s="155"/>
+      <c r="AJ108" s="154" t="str">
         <f t="shared" si="45"/>
         <v>R-SH_Det_OILLPG_N1</v>
       </c>
-      <c r="AJ108" s="154" t="str">
+      <c r="AK108" s="154" t="str">
         <f t="shared" si="46"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
-      <c r="AK108" s="155" t="s">
+      <c r="AL108" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL108" s="155" t="s">
+      <c r="AM108" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM108" s="155"/>
-      <c r="AN108" s="155" t="s">
+      <c r="AN108" s="155"/>
+      <c r="AO108" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="109" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C109" s="70" t="str">
         <f>"R-H_Det"&amp;"_"&amp;RIGHT(E109,6)&amp;"_N1"</f>
         <v>R-H_Det_OILLPG_N1</v>
@@ -24460,36 +24565,37 @@
       <c r="AA109" s="92"/>
       <c r="AB109" s="121"/>
       <c r="AC109" s="121"/>
-      <c r="AD109" s="111">
+      <c r="AD109" s="121"/>
+      <c r="AE109" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE109" s="114">
+      <c r="AF109" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF109" s="114">
+      <c r="AG109" s="114">
         <v>2020</v>
       </c>
-      <c r="AH109" s="155"/>
-      <c r="AI109" s="154" t="str">
+      <c r="AI109" s="155"/>
+      <c r="AJ109" s="154" t="str">
         <f t="shared" si="45"/>
         <v>R-H_Det_OILLPG_N1</v>
       </c>
-      <c r="AJ109" s="154" t="str">
+      <c r="AK109" s="154" t="str">
         <f t="shared" si="46"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
-      <c r="AK109" s="155" t="s">
+      <c r="AL109" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL109" s="155" t="s">
+      <c r="AM109" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM109" s="155"/>
-      <c r="AN109" s="155" t="s">
+      <c r="AN109" s="155"/>
+      <c r="AO109" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="110" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C110" s="77" t="str">
         <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E110,6)&amp;"_N1"</f>
         <v>R-SH_Det_BIOWOO_N1</v>
@@ -24545,36 +24651,37 @@
       <c r="AA110" s="90"/>
       <c r="AB110" s="120"/>
       <c r="AC110" s="120"/>
-      <c r="AD110" s="110">
+      <c r="AD110" s="120"/>
+      <c r="AE110" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE110" s="113">
+      <c r="AF110" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF110" s="113">
+      <c r="AG110" s="113">
         <v>2020</v>
       </c>
-      <c r="AH110" s="155"/>
-      <c r="AI110" s="154" t="str">
+      <c r="AI110" s="155"/>
+      <c r="AJ110" s="154" t="str">
         <f t="shared" si="45"/>
         <v>R-SH_Det_BIOWOO_N1</v>
       </c>
-      <c r="AJ110" s="154" t="str">
+      <c r="AK110" s="154" t="str">
         <f t="shared" si="46"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
-      <c r="AK110" s="155" t="s">
+      <c r="AL110" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL110" s="155" t="s">
+      <c r="AM110" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM110" s="155"/>
-      <c r="AN110" s="155" t="s">
+      <c r="AN110" s="155"/>
+      <c r="AO110" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="111" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C111" s="74" t="str">
         <f>"R-H_Det"&amp;"_"&amp;RIGHT(E111,6)&amp;"_N1"</f>
         <v>R-H_Det_BIOWOO_N1</v>
@@ -24642,36 +24749,37 @@
       <c r="AA111" s="97"/>
       <c r="AB111" s="122"/>
       <c r="AC111" s="122"/>
-      <c r="AD111" s="112">
+      <c r="AD111" s="122"/>
+      <c r="AE111" s="112">
         <v>31.54</v>
       </c>
-      <c r="AE111" s="114">
+      <c r="AF111" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF111" s="115">
+      <c r="AG111" s="115">
         <v>2020</v>
       </c>
-      <c r="AH111" s="158"/>
-      <c r="AI111" s="157" t="str">
+      <c r="AI111" s="158"/>
+      <c r="AJ111" s="157" t="str">
         <f t="shared" si="45"/>
         <v>R-H_Det_BIOWOO_N1</v>
       </c>
-      <c r="AJ111" s="157" t="str">
+      <c r="AK111" s="157" t="str">
         <f t="shared" si="46"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
-      <c r="AK111" s="158" t="s">
+      <c r="AL111" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="AL111" s="158" t="s">
+      <c r="AM111" s="158" t="s">
         <v>495</v>
       </c>
-      <c r="AM111" s="158"/>
-      <c r="AN111" s="158" t="s">
+      <c r="AN111" s="158"/>
+      <c r="AO111" s="158" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="112" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C112" s="81" t="s">
         <v>365</v>
       </c>
@@ -24701,30 +24809,31 @@
       <c r="AA112" s="84"/>
       <c r="AB112" s="84"/>
       <c r="AC112" s="84"/>
-      <c r="AD112" s="81"/>
-      <c r="AE112" s="82"/>
+      <c r="AD112" s="84"/>
+      <c r="AE112" s="81"/>
       <c r="AF112" s="82"/>
-      <c r="AH112" s="159"/>
-      <c r="AI112" s="160" t="str">
+      <c r="AG112" s="82"/>
+      <c r="AI112" s="159"/>
+      <c r="AJ112" s="160" t="str">
         <f>C113</f>
         <v>R-SH_Det_RSDELC_N1</v>
       </c>
-      <c r="AJ112" s="160" t="str">
+      <c r="AK112" s="160" t="str">
         <f>D113</f>
         <v>Residential Electric Heater - New 1 SH</v>
       </c>
-      <c r="AK112" s="159" t="s">
+      <c r="AL112" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="AL112" s="159" t="s">
+      <c r="AM112" s="159" t="s">
         <v>495</v>
       </c>
-      <c r="AM112" s="159"/>
-      <c r="AN112" s="159" t="s">
+      <c r="AN112" s="159"/>
+      <c r="AO112" s="159" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="113" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C113" s="77" t="str">
         <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E113,6)&amp;"_N1"</f>
         <v>R-SH_Det_RSDELC_N1</v>
@@ -24792,36 +24901,37 @@
       <c r="AA113" s="133"/>
       <c r="AB113" s="133"/>
       <c r="AC113" s="133"/>
-      <c r="AD113" s="131">
+      <c r="AD113" s="133"/>
+      <c r="AE113" s="131">
         <v>31.54</v>
       </c>
-      <c r="AE113" s="114">
+      <c r="AF113" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF113" s="132">
+      <c r="AG113" s="132">
         <v>2020</v>
       </c>
-      <c r="AH113" s="153"/>
-      <c r="AI113" s="152" t="str">
-        <f t="shared" ref="AI113:AJ119" si="59">C115</f>
+      <c r="AI113" s="153"/>
+      <c r="AJ113" s="152" t="str">
+        <f t="shared" ref="AJ113:AK119" si="59">C115</f>
         <v>R-SH_Det_RSDELC_HPN1</v>
       </c>
-      <c r="AJ113" s="152" t="str">
+      <c r="AK113" s="152" t="str">
         <f t="shared" si="59"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
-      <c r="AK113" s="153" t="s">
+      <c r="AL113" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="AL113" s="153" t="s">
+      <c r="AM113" s="153" t="s">
         <v>495</v>
       </c>
-      <c r="AM113" s="153"/>
-      <c r="AN113" s="153" t="s">
+      <c r="AN113" s="153"/>
+      <c r="AO113" s="153" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="114" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C114" s="81" t="s">
         <v>367</v>
       </c>
@@ -24851,30 +24961,31 @@
       <c r="AA114" s="84"/>
       <c r="AB114" s="84"/>
       <c r="AC114" s="84"/>
-      <c r="AD114" s="81"/>
-      <c r="AE114" s="82"/>
+      <c r="AD114" s="84"/>
+      <c r="AE114" s="81"/>
       <c r="AF114" s="82"/>
-      <c r="AH114" s="155"/>
-      <c r="AI114" s="154" t="str">
+      <c r="AG114" s="82"/>
+      <c r="AI114" s="155"/>
+      <c r="AJ114" s="154" t="str">
         <f t="shared" si="59"/>
         <v>R-HC_Det_RSDELC_HPN1</v>
       </c>
-      <c r="AJ114" s="154" t="str">
+      <c r="AK114" s="154" t="str">
         <f t="shared" si="59"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
-      <c r="AK114" s="155" t="s">
+      <c r="AL114" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL114" s="155" t="s">
+      <c r="AM114" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM114" s="155"/>
-      <c r="AN114" s="155" t="s">
+      <c r="AN114" s="155"/>
+      <c r="AO114" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="115" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C115" s="77" t="str">
         <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E115,6)&amp;"_HPN1"</f>
         <v>R-SH_Det_RSDELC_HPN1</v>
@@ -24942,36 +25053,37 @@
       <c r="AA115" s="134"/>
       <c r="AB115" s="134"/>
       <c r="AC115" s="134"/>
-      <c r="AD115" s="134">
+      <c r="AD115" s="134"/>
+      <c r="AE115" s="134">
         <v>31.54</v>
       </c>
-      <c r="AE115" s="113">
+      <c r="AF115" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF115" s="113">
+      <c r="AG115" s="113">
         <v>2020</v>
       </c>
-      <c r="AH115" s="155"/>
-      <c r="AI115" s="154" t="str">
+      <c r="AI115" s="155"/>
+      <c r="AJ115" s="154" t="str">
         <f t="shared" si="59"/>
         <v>R-SH_Det_RSDELC_HPN2</v>
       </c>
-      <c r="AJ115" s="154" t="str">
+      <c r="AK115" s="154" t="str">
         <f t="shared" si="59"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
-      <c r="AK115" s="155" t="s">
+      <c r="AL115" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL115" s="155" t="s">
+      <c r="AM115" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM115" s="155"/>
-      <c r="AN115" s="155" t="s">
+      <c r="AN115" s="155"/>
+      <c r="AO115" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="116" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C116" s="77" t="str">
         <f>"R-HC_Det"&amp;"_"&amp;RIGHT(E116,6)&amp;"_HPN1"</f>
         <v>R-HC_Det_RSDELC_HPN1</v>
@@ -25051,36 +25163,37 @@
       <c r="AA116" s="111"/>
       <c r="AB116" s="111"/>
       <c r="AC116" s="111"/>
-      <c r="AD116" s="111">
+      <c r="AD116" s="111"/>
+      <c r="AE116" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE116" s="114">
+      <c r="AF116" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF116" s="114">
+      <c r="AG116" s="114">
         <v>2020</v>
       </c>
-      <c r="AH116" s="155"/>
-      <c r="AI116" s="154" t="str">
+      <c r="AI116" s="155"/>
+      <c r="AJ116" s="154" t="str">
         <f t="shared" si="59"/>
         <v>R-H_Det_RSDELC_HPN1</v>
       </c>
-      <c r="AJ116" s="154" t="str">
+      <c r="AK116" s="154" t="str">
         <f t="shared" si="59"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
-      <c r="AK116" s="155" t="s">
+      <c r="AL116" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL116" s="155" t="s">
+      <c r="AM116" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM116" s="155"/>
-      <c r="AN116" s="155" t="s">
+      <c r="AN116" s="155"/>
+      <c r="AO116" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="117" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C117" s="77" t="str">
         <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E117,6)&amp;"_HPN2"</f>
         <v>R-SH_Det_RSDELC_HPN2</v>
@@ -25148,36 +25261,37 @@
       <c r="AA117" s="110"/>
       <c r="AB117" s="110"/>
       <c r="AC117" s="110"/>
-      <c r="AD117" s="110">
+      <c r="AD117" s="110"/>
+      <c r="AE117" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE117" s="113">
+      <c r="AF117" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF117" s="113">
+      <c r="AG117" s="113">
         <v>2020</v>
       </c>
-      <c r="AH117" s="306"/>
-      <c r="AI117" s="154" t="str">
+      <c r="AI117" s="306"/>
+      <c r="AJ117" s="154" t="str">
         <f t="shared" si="59"/>
         <v>R-H_Det_RENSOL_HPN2</v>
       </c>
-      <c r="AJ117" s="154" t="str">
+      <c r="AK117" s="154" t="str">
         <f t="shared" si="59"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
-      <c r="AK117" s="155" t="s">
+      <c r="AL117" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL117" s="155" t="s">
+      <c r="AM117" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM117" s="155"/>
-      <c r="AN117" s="155" t="s">
+      <c r="AN117" s="155"/>
+      <c r="AO117" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="118" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C118" s="77" t="str">
         <f>"R-H_Det"&amp;"_"&amp;RIGHT(E118,6)&amp;"_HPN1"</f>
         <v>R-H_Det_RSDELC_HPN1</v>
@@ -25257,36 +25371,37 @@
       <c r="AA118" s="111"/>
       <c r="AB118" s="111"/>
       <c r="AC118" s="111"/>
-      <c r="AD118" s="111">
+      <c r="AD118" s="111"/>
+      <c r="AE118" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE118" s="114">
+      <c r="AF118" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF118" s="114">
+      <c r="AG118" s="114">
         <v>2020</v>
       </c>
-      <c r="AH118" s="306"/>
-      <c r="AI118" s="154" t="str">
+      <c r="AI118" s="306"/>
+      <c r="AJ118" s="154" t="str">
         <f t="shared" si="59"/>
         <v>R-SH_Det_RSDELC_HPN3</v>
       </c>
-      <c r="AJ118" s="154" t="str">
+      <c r="AK118" s="154" t="str">
         <f t="shared" si="59"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
-      <c r="AK118" s="155" t="s">
+      <c r="AL118" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL118" s="155" t="s">
+      <c r="AM118" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM118" s="155"/>
-      <c r="AN118" s="155" t="s">
+      <c r="AN118" s="155"/>
+      <c r="AO118" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="119" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C119" s="77" t="str">
         <f>"R-H_Det"&amp;"_"&amp;RIGHT(E119,6)&amp;"_HPN2"</f>
         <v>R-H_Det_RENSOL_HPN2</v>
@@ -25368,36 +25483,39 @@
       </c>
       <c r="AB119" s="110"/>
       <c r="AC119" s="110"/>
-      <c r="AD119" s="110">
+      <c r="AD119" s="337">
+        <v>5</v>
+      </c>
+      <c r="AE119" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE119" s="113">
+      <c r="AF119" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF119" s="113">
+      <c r="AG119" s="113">
         <v>2020</v>
       </c>
-      <c r="AH119" s="161"/>
-      <c r="AI119" s="157" t="str">
+      <c r="AI119" s="161"/>
+      <c r="AJ119" s="157" t="str">
         <f t="shared" si="59"/>
         <v>R-HC_Det_RSDELC_HPN2</v>
       </c>
-      <c r="AJ119" s="157" t="str">
+      <c r="AK119" s="157" t="str">
         <f t="shared" si="59"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
-      <c r="AK119" s="158" t="s">
+      <c r="AL119" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="AL119" s="158" t="s">
+      <c r="AM119" s="158" t="s">
         <v>495</v>
       </c>
-      <c r="AM119" s="158"/>
-      <c r="AN119" s="158" t="s">
+      <c r="AN119" s="158"/>
+      <c r="AO119" s="158" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="120" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C120" s="77" t="str">
         <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E120,6)&amp;"_HPN3"</f>
         <v>R-SH_Det_RSDELC_HPN3</v>
@@ -25465,36 +25583,37 @@
       <c r="AA120" s="111"/>
       <c r="AB120" s="111"/>
       <c r="AC120" s="111"/>
-      <c r="AD120" s="111">
+      <c r="AD120" s="111"/>
+      <c r="AE120" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE120" s="114">
+      <c r="AF120" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF120" s="114">
+      <c r="AG120" s="114">
         <v>2020</v>
       </c>
-      <c r="AH120" s="162"/>
-      <c r="AI120" s="152" t="str">
+      <c r="AI120" s="162"/>
+      <c r="AJ120" s="152" t="str">
         <f>C123</f>
         <v>R-H_Det_GASNAT_HPN1</v>
       </c>
-      <c r="AJ120" s="152" t="str">
+      <c r="AK120" s="152" t="str">
         <f>D123</f>
         <v>Residential Gas Absorption Heat Pump - Air to Water - SH + WH</v>
       </c>
-      <c r="AK120" s="153" t="s">
+      <c r="AL120" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="AL120" s="153" t="s">
+      <c r="AM120" s="153" t="s">
         <v>495</v>
       </c>
-      <c r="AM120" s="153"/>
-      <c r="AN120" s="153" t="s">
+      <c r="AN120" s="153"/>
+      <c r="AO120" s="153" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="121" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C121" s="77" t="str">
         <f>"R-HC_Det"&amp;"_"&amp;RIGHT(E121,6)&amp;"_HPN2"</f>
         <v>R-HC_Det_RSDELC_HPN2</v>
@@ -25574,36 +25693,37 @@
       <c r="AA121" s="135"/>
       <c r="AB121" s="135"/>
       <c r="AC121" s="135"/>
-      <c r="AD121" s="135">
+      <c r="AD121" s="135"/>
+      <c r="AE121" s="135">
         <v>31.54</v>
       </c>
-      <c r="AE121" s="113">
+      <c r="AF121" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF121" s="113">
+      <c r="AG121" s="113">
         <v>2020</v>
       </c>
-      <c r="AH121" s="307"/>
-      <c r="AI121" s="157" t="str">
+      <c r="AI121" s="307"/>
+      <c r="AJ121" s="157" t="str">
         <f>C124</f>
         <v>R-H_Det_GASNAT_HPN2</v>
       </c>
-      <c r="AJ121" s="157" t="str">
+      <c r="AK121" s="157" t="str">
         <f>D124</f>
         <v>Residential Gas Engine Heat Pump - Air to Water - SH + WH</v>
       </c>
-      <c r="AK121" s="158" t="s">
+      <c r="AL121" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="AL121" s="158" t="s">
+      <c r="AM121" s="158" t="s">
         <v>495</v>
       </c>
-      <c r="AM121" s="158"/>
-      <c r="AN121" s="158" t="s">
+      <c r="AN121" s="158"/>
+      <c r="AO121" s="158" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="122" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C122" s="81" t="s">
         <v>376</v>
       </c>
@@ -25633,30 +25753,31 @@
       <c r="AA122" s="84"/>
       <c r="AB122" s="84"/>
       <c r="AC122" s="84"/>
-      <c r="AD122" s="81"/>
-      <c r="AE122" s="82"/>
+      <c r="AD122" s="84"/>
+      <c r="AE122" s="81"/>
       <c r="AF122" s="82"/>
-      <c r="AH122" s="308"/>
-      <c r="AI122" s="160" t="str">
+      <c r="AG122" s="82"/>
+      <c r="AI122" s="308"/>
+      <c r="AJ122" s="160" t="str">
         <f>C126</f>
         <v>R-H_Det_GASNAT_HHPN1</v>
       </c>
-      <c r="AJ122" s="160" t="str">
+      <c r="AK122" s="160" t="str">
         <f>D126</f>
         <v>Residential Gas Hybrid Heat Pump - Air to Water - SH + WH</v>
       </c>
-      <c r="AK122" s="159" t="s">
+      <c r="AL122" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="AL122" s="159" t="s">
+      <c r="AM122" s="159" t="s">
         <v>495</v>
       </c>
-      <c r="AM122" s="159"/>
-      <c r="AN122" s="159" t="s">
+      <c r="AN122" s="159"/>
+      <c r="AO122" s="159" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="123" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C123" s="77" t="str">
         <f>"R-H_Det"&amp;"_"&amp;RIGHT(E123,6)&amp;"_HPN1"</f>
         <v>R-H_Det_GASNAT_HPN1</v>
@@ -25736,36 +25857,37 @@
       <c r="AA123" s="104"/>
       <c r="AB123" s="134"/>
       <c r="AC123" s="134"/>
-      <c r="AD123" s="134">
+      <c r="AD123" s="134"/>
+      <c r="AE123" s="134">
         <v>31.54</v>
       </c>
-      <c r="AE123" s="113">
+      <c r="AF123" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF123" s="137">
+      <c r="AG123" s="137">
         <v>2020</v>
       </c>
-      <c r="AH123" s="309"/>
-      <c r="AI123" s="152" t="str">
+      <c r="AI123" s="309"/>
+      <c r="AJ123" s="152" t="str">
         <f>C128</f>
         <v>R-H_Det_RSDHET_N1</v>
       </c>
-      <c r="AJ123" s="152" t="str">
+      <c r="AK123" s="152" t="str">
         <f>D128</f>
         <v>Residential District Heating Centralized - SH + WH</v>
       </c>
-      <c r="AK123" s="153" t="s">
+      <c r="AL123" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="AL123" s="153" t="s">
+      <c r="AM123" s="153" t="s">
         <v>495</v>
       </c>
-      <c r="AM123" s="153"/>
-      <c r="AN123" s="153" t="s">
+      <c r="AN123" s="153"/>
+      <c r="AO123" s="153" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="124" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C124" s="77" t="str">
         <f>"R-H_Det"&amp;"_"&amp;RIGHT(E124,6)&amp;"_HPN2"</f>
         <v>R-H_Det_GASNAT_HPN2</v>
@@ -25845,36 +25967,37 @@
       <c r="AA124" s="107"/>
       <c r="AB124" s="112"/>
       <c r="AC124" s="112"/>
-      <c r="AD124" s="112">
+      <c r="AD124" s="112"/>
+      <c r="AE124" s="112">
         <v>31.54</v>
       </c>
-      <c r="AE124" s="114">
+      <c r="AF124" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF124" s="115">
+      <c r="AG124" s="115">
         <v>2020</v>
       </c>
-      <c r="AH124" s="164"/>
-      <c r="AI124" s="157" t="str">
+      <c r="AI124" s="164"/>
+      <c r="AJ124" s="157" t="str">
         <f>C129</f>
         <v>R-H_Det_RSDHET_N2</v>
       </c>
-      <c r="AJ124" s="157" t="str">
+      <c r="AK124" s="157" t="str">
         <f>D129</f>
         <v>Residential District Heating Decentralized - SH + WH</v>
       </c>
-      <c r="AK124" s="158" t="s">
+      <c r="AL124" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="AL124" s="158" t="s">
+      <c r="AM124" s="158" t="s">
         <v>495</v>
       </c>
-      <c r="AM124" s="158"/>
-      <c r="AN124" s="158" t="s">
+      <c r="AN124" s="158"/>
+      <c r="AO124" s="158" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="125" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C125" s="81" t="s">
         <v>368</v>
       </c>
@@ -25904,30 +26027,31 @@
       <c r="AA125" s="84"/>
       <c r="AB125" s="84"/>
       <c r="AC125" s="84"/>
-      <c r="AD125" s="81"/>
-      <c r="AE125" s="82"/>
+      <c r="AD125" s="84"/>
+      <c r="AE125" s="81"/>
       <c r="AF125" s="82"/>
-      <c r="AH125" s="309"/>
-      <c r="AI125" s="152" t="str">
-        <f t="shared" ref="AI125:AJ129" si="63">C131</f>
+      <c r="AG125" s="82"/>
+      <c r="AI125" s="309"/>
+      <c r="AJ125" s="152" t="str">
+        <f t="shared" ref="AJ125:AK129" si="63">C131</f>
         <v>R-WH_Det_RSDELC_N1</v>
       </c>
-      <c r="AJ125" s="152" t="str">
+      <c r="AK125" s="152" t="str">
         <f t="shared" si="63"/>
         <v xml:space="preserve">Residential Electric Water Heater </v>
       </c>
-      <c r="AK125" s="153" t="s">
+      <c r="AL125" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="AL125" s="153" t="s">
+      <c r="AM125" s="153" t="s">
         <v>495</v>
       </c>
-      <c r="AM125" s="153"/>
-      <c r="AN125" s="153" t="s">
+      <c r="AN125" s="153"/>
+      <c r="AO125" s="153" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="126" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C126" s="77" t="str">
         <f>"R-H_Det"&amp;"_"&amp;RIGHT(E126,6)&amp;"_HHPN1"</f>
         <v>R-H_Det_GASNAT_HHPN1</v>
@@ -26000,36 +26124,39 @@
       <c r="AC126" s="133">
         <v>0.3</v>
       </c>
-      <c r="AD126" s="131">
+      <c r="AD126" s="114">
+        <v>5</v>
+      </c>
+      <c r="AE126" s="131">
         <v>31.54</v>
       </c>
-      <c r="AE126" s="114">
+      <c r="AF126" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF126" s="132">
+      <c r="AG126" s="132">
         <v>2020</v>
       </c>
-      <c r="AH126" s="4"/>
-      <c r="AI126" s="154" t="str">
+      <c r="AI126" s="4"/>
+      <c r="AJ126" s="154" t="str">
         <f t="shared" si="63"/>
         <v>R-WH_Det_RENSOL_N1</v>
       </c>
-      <c r="AJ126" s="154" t="str">
+      <c r="AK126" s="154" t="str">
         <f t="shared" si="63"/>
         <v xml:space="preserve">Residential Solar Water Heater </v>
       </c>
-      <c r="AK126" s="155" t="s">
+      <c r="AL126" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL126" s="155" t="s">
+      <c r="AM126" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM126" s="155"/>
-      <c r="AN126" s="155" t="s">
+      <c r="AN126" s="155"/>
+      <c r="AO126" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="127" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C127" s="81" t="s">
         <v>379</v>
       </c>
@@ -26059,30 +26186,31 @@
       <c r="AA127" s="84"/>
       <c r="AB127" s="84"/>
       <c r="AC127" s="84"/>
-      <c r="AD127" s="81"/>
-      <c r="AE127" s="82"/>
+      <c r="AD127" s="84"/>
+      <c r="AE127" s="81"/>
       <c r="AF127" s="82"/>
-      <c r="AH127" s="4"/>
-      <c r="AI127" s="154" t="str">
+      <c r="AG127" s="82"/>
+      <c r="AI127" s="4"/>
+      <c r="AJ127" s="154" t="str">
         <f t="shared" si="63"/>
         <v>R-WH_Det_GASNAT_N1</v>
       </c>
-      <c r="AJ127" s="154" t="str">
+      <c r="AK127" s="154" t="str">
         <f t="shared" si="63"/>
         <v xml:space="preserve">Residential Gas Water Heater </v>
       </c>
-      <c r="AK127" s="155" t="s">
+      <c r="AL127" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL127" s="155" t="s">
+      <c r="AM127" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM127" s="155"/>
-      <c r="AN127" s="155" t="s">
+      <c r="AN127" s="155"/>
+      <c r="AO127" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="128" spans="3:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C128" s="70" t="str">
         <f>"R-H_Det"&amp;"_"&amp;RIGHT(E128,6)&amp;"_N1"</f>
         <v>R-H_Det_RSDHET_N1</v>
@@ -26163,36 +26291,37 @@
       <c r="AA128" s="134"/>
       <c r="AB128" s="134"/>
       <c r="AC128" s="134"/>
-      <c r="AD128" s="134">
+      <c r="AD128" s="134"/>
+      <c r="AE128" s="134">
         <v>31.54</v>
       </c>
-      <c r="AE128" s="113">
+      <c r="AF128" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF128" s="137">
+      <c r="AG128" s="137">
         <v>2020</v>
       </c>
-      <c r="AH128" s="4"/>
-      <c r="AI128" s="154" t="str">
+      <c r="AI128" s="4"/>
+      <c r="AJ128" s="154" t="str">
         <f t="shared" si="63"/>
         <v>R-WH_Det_BIOWOO_N1</v>
       </c>
-      <c r="AJ128" s="154" t="str">
+      <c r="AK128" s="154" t="str">
         <f t="shared" si="63"/>
         <v xml:space="preserve">Residential Biomass Water Heater </v>
       </c>
-      <c r="AK128" s="155" t="s">
+      <c r="AL128" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="AL128" s="155" t="s">
+      <c r="AM128" s="155" t="s">
         <v>495</v>
       </c>
-      <c r="AM128" s="155"/>
-      <c r="AN128" s="155" t="s">
+      <c r="AN128" s="155"/>
+      <c r="AO128" s="155" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="129" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C129" s="70" t="str">
         <f>"R-H_Det"&amp;"_"&amp;RIGHT(E129,6)&amp;"_N2"</f>
         <v>R-H_Det_RSDHET_N2</v>
@@ -26273,36 +26402,37 @@
       <c r="AA129" s="111"/>
       <c r="AB129" s="111"/>
       <c r="AC129" s="111"/>
-      <c r="AD129" s="112">
+      <c r="AD129" s="111"/>
+      <c r="AE129" s="112">
         <v>31.54</v>
       </c>
-      <c r="AE129" s="114">
+      <c r="AF129" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF129" s="115">
+      <c r="AG129" s="115">
         <v>2020</v>
       </c>
-      <c r="AH129" s="164"/>
-      <c r="AI129" s="157" t="str">
+      <c r="AI129" s="164"/>
+      <c r="AJ129" s="157" t="str">
         <f t="shared" si="63"/>
         <v>R-WH_Det_OILLPG_N1</v>
       </c>
-      <c r="AJ129" s="157" t="str">
+      <c r="AK129" s="157" t="str">
         <f t="shared" si="63"/>
         <v xml:space="preserve">Residential Liquid Petroleum Gas Water Heater </v>
       </c>
-      <c r="AK129" s="158" t="s">
+      <c r="AL129" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="AL129" s="158" t="s">
+      <c r="AM129" s="158" t="s">
         <v>495</v>
       </c>
-      <c r="AM129" s="158"/>
-      <c r="AN129" s="158" t="s">
+      <c r="AN129" s="158"/>
+      <c r="AO129" s="158" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="130" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C130" s="81" t="s">
         <v>382</v>
       </c>
@@ -26332,30 +26462,31 @@
       <c r="AA130" s="84"/>
       <c r="AB130" s="84"/>
       <c r="AC130" s="84"/>
-      <c r="AD130" s="81"/>
-      <c r="AE130" s="82"/>
+      <c r="AD130" s="84"/>
+      <c r="AE130" s="81"/>
       <c r="AF130" s="82"/>
-      <c r="AH130" s="4"/>
-      <c r="AI130" s="154" t="str">
+      <c r="AG130" s="82"/>
+      <c r="AI130" s="4"/>
+      <c r="AJ130" s="154" t="str">
         <f>C137</f>
         <v>R-SC_Det_RSDELC_N1</v>
       </c>
-      <c r="AJ130" s="154" t="str">
+      <c r="AK130" s="154" t="str">
         <f>D137</f>
         <v>Residential Electric Air Conditioning</v>
       </c>
-      <c r="AK130" s="153" t="s">
+      <c r="AL130" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="AL130" s="153" t="s">
+      <c r="AM130" s="153" t="s">
         <v>495</v>
       </c>
-      <c r="AM130" s="153"/>
-      <c r="AN130" s="153" t="s">
+      <c r="AN130" s="153"/>
+      <c r="AO130" s="153" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="131" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C131" s="77" t="str">
         <f>"R-WH_Det"&amp;"_"&amp;RIGHT(E131,6)&amp;"_N1"</f>
         <v>R-WH_Det_RSDELC_N1</v>
@@ -26423,17 +26554,18 @@
       <c r="AA131" s="134"/>
       <c r="AB131" s="134"/>
       <c r="AC131" s="134"/>
-      <c r="AD131" s="134">
+      <c r="AD131" s="134"/>
+      <c r="AE131" s="134">
         <v>31.54</v>
       </c>
-      <c r="AE131" s="113">
+      <c r="AF131" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF131" s="137">
+      <c r="AG131" s="137">
         <v>2020</v>
       </c>
     </row>
-    <row r="132" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C132" s="77" t="str">
         <f>"R-WH_Det"&amp;"_"&amp;RIGHT(E132,6)&amp;"_N1"</f>
         <v>R-WH_Det_RENSOL_N1</v>
@@ -26505,17 +26637,18 @@
       <c r="AA132" s="111"/>
       <c r="AB132" s="111"/>
       <c r="AC132" s="111"/>
-      <c r="AD132" s="111">
+      <c r="AD132" s="111"/>
+      <c r="AE132" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE132" s="114">
+      <c r="AF132" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF132" s="114">
+      <c r="AG132" s="114">
         <v>2020</v>
       </c>
     </row>
-    <row r="133" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C133" s="77" t="str">
         <f>"R-WH_Det"&amp;"_"&amp;RIGHT(E133,6)&amp;"_N1"</f>
         <v>R-WH_Det_GASNAT_N1</v>
@@ -26584,17 +26717,18 @@
       <c r="AA133" s="110"/>
       <c r="AB133" s="110"/>
       <c r="AC133" s="110"/>
-      <c r="AD133" s="110">
+      <c r="AD133" s="110"/>
+      <c r="AE133" s="110">
         <v>31.54</v>
       </c>
-      <c r="AE133" s="113">
+      <c r="AF133" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF133" s="113">
+      <c r="AG133" s="113">
         <v>2020</v>
       </c>
     </row>
-    <row r="134" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C134" s="77" t="str">
         <f>"R-WH_Det"&amp;"_"&amp;RIGHT(E134,6)&amp;"_N1"</f>
         <v>R-WH_Det_BIOWOO_N1</v>
@@ -26663,17 +26797,18 @@
       <c r="AA134" s="111"/>
       <c r="AB134" s="111"/>
       <c r="AC134" s="111"/>
-      <c r="AD134" s="111">
+      <c r="AD134" s="111"/>
+      <c r="AE134" s="111">
         <v>31.54</v>
       </c>
-      <c r="AE134" s="114">
+      <c r="AF134" s="114">
         <v>0.16</v>
       </c>
-      <c r="AF134" s="114">
+      <c r="AG134" s="114">
         <v>2020</v>
       </c>
     </row>
-    <row r="135" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C135" s="77" t="str">
         <f>"R-WH_Det"&amp;"_"&amp;RIGHT(E135,6)&amp;"_N1"</f>
         <v>R-WH_Det_OILLPG_N1</v>
@@ -26742,17 +26877,18 @@
       <c r="AA135" s="135"/>
       <c r="AB135" s="135"/>
       <c r="AC135" s="135"/>
-      <c r="AD135" s="135">
+      <c r="AD135" s="135"/>
+      <c r="AE135" s="135">
         <v>31.54</v>
       </c>
-      <c r="AE135" s="113">
+      <c r="AF135" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF135" s="140">
+      <c r="AG135" s="140">
         <v>2020</v>
       </c>
     </row>
-    <row r="136" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C136" s="81" t="s">
         <v>388</v>
       </c>
@@ -26782,11 +26918,12 @@
       <c r="AA136" s="84"/>
       <c r="AB136" s="84"/>
       <c r="AC136" s="84"/>
-      <c r="AD136" s="81"/>
-      <c r="AE136" s="82"/>
+      <c r="AD136" s="84"/>
+      <c r="AE136" s="81"/>
       <c r="AF136" s="82"/>
-    </row>
-    <row r="137" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AG136" s="82"/>
+    </row>
+    <row r="137" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C137" s="77" t="str">
         <f>"R-SC_Det"&amp;"_"&amp;RIGHT(E137,6)&amp;"_N1"</f>
         <v>R-SC_Det_RSDELC_N1</v>
@@ -26854,17 +26991,18 @@
       <c r="AA137" s="142"/>
       <c r="AB137" s="142"/>
       <c r="AC137" s="142"/>
-      <c r="AD137" s="142">
+      <c r="AD137" s="142"/>
+      <c r="AE137" s="142">
         <v>31.54</v>
       </c>
-      <c r="AE137" s="113">
+      <c r="AF137" s="113">
         <v>0.16</v>
       </c>
-      <c r="AF137" s="141">
+      <c r="AG137" s="141">
         <v>2020</v>
       </c>
     </row>
-    <row r="138" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C138" s="8"/>
       <c r="H138" s="52"/>
       <c r="I138" s="52"/>
@@ -26883,7 +27021,7 @@
       <c r="V138" s="53"/>
       <c r="Y138" s="52"/>
     </row>
-    <row r="139" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="H139" s="52"/>
       <c r="I139" s="52"/>
       <c r="J139" s="52"/>
@@ -26901,15 +27039,15 @@
       <c r="V139" s="53"/>
       <c r="Y139" s="52"/>
     </row>
-    <row r="140" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
       <c r="I142" s="57"/>
     </row>
-    <row r="143" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
     </row>
-    <row r="144" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -27101,26 +27239,6 @@
     <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="K99:N99"/>
-    <mergeCell ref="O99:R99"/>
-    <mergeCell ref="S99:T99"/>
-    <mergeCell ref="U99:X99"/>
-    <mergeCell ref="G97:J97"/>
-    <mergeCell ref="K97:N97"/>
-    <mergeCell ref="O97:R97"/>
-    <mergeCell ref="S97:T97"/>
-    <mergeCell ref="U97:X97"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="O52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="U52:X52"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="U50:X50"/>
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="U6:X6"/>
     <mergeCell ref="G4:J4"/>
@@ -27131,6 +27249,26 @@
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="O52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="G97:J97"/>
+    <mergeCell ref="K97:N97"/>
+    <mergeCell ref="O97:R97"/>
+    <mergeCell ref="S97:T97"/>
+    <mergeCell ref="U97:X97"/>
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="K99:N99"/>
+    <mergeCell ref="O99:R99"/>
+    <mergeCell ref="S99:T99"/>
+    <mergeCell ref="U99:X99"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRes_RSD.xlsx
+++ b/SubRES_TMPL/SubRes_RSD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD012FC-D397-46EC-A255-530DE06C0310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA60F79-E998-4C6D-9D3E-887A2CA03AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -8265,8 +8265,8 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17368,8 +17368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F8057-C735-4662-BAA6-EEDCF7B57273}">
   <dimension ref="A2:AO170"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AF101" sqref="AF101:AF138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17787,9 +17787,7 @@
       <c r="AE7" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF7" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF7" s="113"/>
       <c r="AG7" s="113">
         <v>2020</v>
       </c>
@@ -17899,9 +17897,7 @@
       <c r="AE8" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF8" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF8" s="114"/>
       <c r="AG8" s="114">
         <v>2020</v>
       </c>
@@ -18008,9 +18004,7 @@
       <c r="AE9" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF9" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF9" s="113"/>
       <c r="AG9" s="113">
         <v>2020</v>
       </c>
@@ -18118,9 +18112,7 @@
       <c r="AE10" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF10" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF10" s="114"/>
       <c r="AG10" s="114">
         <v>2020</v>
       </c>
@@ -18214,9 +18206,7 @@
       <c r="AE11" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF11" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF11" s="113"/>
       <c r="AG11" s="113">
         <v>2020</v>
       </c>
@@ -18324,9 +18314,7 @@
       <c r="AE12" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF12" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF12" s="114"/>
       <c r="AG12" s="114">
         <v>2020</v>
       </c>
@@ -18438,9 +18426,7 @@
       <c r="AE13" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF13" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF13" s="113"/>
       <c r="AG13" s="113">
         <v>2020</v>
       </c>
@@ -18552,9 +18538,7 @@
       <c r="AE14" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF14" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF14" s="114"/>
       <c r="AG14" s="114">
         <v>2020</v>
       </c>
@@ -18650,9 +18634,7 @@
       <c r="AE15" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF15" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF15" s="113"/>
       <c r="AG15" s="113">
         <v>2020</v>
       </c>
@@ -18760,9 +18742,7 @@
       <c r="AE16" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF16" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF16" s="114"/>
       <c r="AG16" s="114">
         <v>2020</v>
       </c>
@@ -18846,9 +18826,7 @@
       <c r="AE17" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF17" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF17" s="113"/>
       <c r="AG17" s="113">
         <v>2020</v>
       </c>
@@ -18944,9 +18922,7 @@
       <c r="AE18" s="112">
         <v>31.54</v>
       </c>
-      <c r="AF18" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF18" s="114"/>
       <c r="AG18" s="114">
         <v>2020</v>
       </c>
@@ -19126,9 +19102,7 @@
       <c r="AE21" s="131">
         <v>31.54</v>
       </c>
-      <c r="AF21" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF21" s="114"/>
       <c r="AG21" s="114">
         <v>2020</v>
       </c>
@@ -19278,9 +19252,7 @@
       <c r="AE23" s="134">
         <v>31.54</v>
       </c>
-      <c r="AF23" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF23" s="113"/>
       <c r="AG23" s="113">
         <v>2020</v>
       </c>
@@ -19388,9 +19360,7 @@
       <c r="AE24" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF24" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF24" s="114"/>
       <c r="AG24" s="114">
         <v>2020</v>
       </c>
@@ -19486,9 +19456,7 @@
       <c r="AE25" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF25" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF25" s="113"/>
       <c r="AG25" s="113">
         <v>2020</v>
       </c>
@@ -19596,9 +19564,7 @@
       <c r="AE26" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF26" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF26" s="114"/>
       <c r="AG26" s="114">
         <v>2020</v>
       </c>
@@ -19710,9 +19676,7 @@
       <c r="AE27" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF27" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF27" s="113"/>
       <c r="AG27" s="113">
         <v>2020</v>
       </c>
@@ -19808,9 +19772,7 @@
       <c r="AE28" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF28" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF28" s="114"/>
       <c r="AG28" s="114">
         <v>2020</v>
       </c>
@@ -19918,9 +19880,7 @@
       <c r="AE29" s="135">
         <v>31.54</v>
       </c>
-      <c r="AF29" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF29" s="113"/>
       <c r="AG29" s="113">
         <v>2020</v>
       </c>
@@ -20082,9 +20042,7 @@
       <c r="AE31" s="134">
         <v>31.54</v>
       </c>
-      <c r="AF31" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF31" s="113"/>
       <c r="AG31" s="137">
         <v>2020</v>
       </c>
@@ -20192,9 +20150,7 @@
       <c r="AE32" s="112">
         <v>31.54</v>
       </c>
-      <c r="AF32" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF32" s="114"/>
       <c r="AG32" s="115">
         <v>2020</v>
       </c>
@@ -20351,9 +20307,7 @@
       <c r="AE34" s="131">
         <v>31.54</v>
       </c>
-      <c r="AF34" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF34" s="114"/>
       <c r="AG34" s="132">
         <v>2020</v>
       </c>
@@ -20516,9 +20470,7 @@
       <c r="AE36" s="134">
         <v>31.54</v>
       </c>
-      <c r="AF36" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF36" s="113"/>
       <c r="AG36" s="137">
         <v>2020</v>
       </c>
@@ -20627,9 +20579,7 @@
       <c r="AE37" s="112">
         <v>31.54</v>
       </c>
-      <c r="AF37" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF37" s="114"/>
       <c r="AG37" s="115">
         <v>2020</v>
       </c>
@@ -20760,9 +20710,7 @@
       <c r="AE39" s="134">
         <v>31.54</v>
       </c>
-      <c r="AF39" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF39" s="113"/>
       <c r="AG39" s="137">
         <v>2020</v>
       </c>
@@ -20843,9 +20791,7 @@
       <c r="AE40" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF40" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF40" s="114"/>
       <c r="AG40" s="114">
         <v>2020</v>
       </c>
@@ -20923,9 +20869,7 @@
       <c r="AE41" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF41" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF41" s="113"/>
       <c r="AG41" s="113">
         <v>2020</v>
       </c>
@@ -21003,9 +20947,7 @@
       <c r="AE42" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF42" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF42" s="114"/>
       <c r="AG42" s="114">
         <v>2020</v>
       </c>
@@ -21083,9 +21025,7 @@
       <c r="AE43" s="135">
         <v>31.54</v>
       </c>
-      <c r="AF43" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF43" s="113"/>
       <c r="AG43" s="140">
         <v>2020</v>
       </c>
@@ -21197,9 +21137,7 @@
       <c r="AE45" s="142">
         <v>31.54</v>
       </c>
-      <c r="AF45" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF45" s="113"/>
       <c r="AG45" s="141">
         <v>2020</v>
       </c>
@@ -21607,9 +21545,7 @@
       <c r="AE54" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF54" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF54" s="113"/>
       <c r="AG54" s="113">
         <v>2020</v>
       </c>
@@ -21717,9 +21653,7 @@
       <c r="AE55" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF55" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF55" s="114"/>
       <c r="AG55" s="114">
         <v>2020</v>
       </c>
@@ -21826,9 +21760,7 @@
       <c r="AE56" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF56" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF56" s="113"/>
       <c r="AG56" s="113">
         <v>2020</v>
       </c>
@@ -21934,9 +21866,7 @@
       <c r="AE57" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF57" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF57" s="114"/>
       <c r="AG57" s="114">
         <v>2020</v>
       </c>
@@ -22032,9 +21962,7 @@
       <c r="AE58" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF58" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF58" s="113"/>
       <c r="AG58" s="113">
         <v>2020</v>
       </c>
@@ -22142,9 +22070,7 @@
       <c r="AE59" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF59" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF59" s="114"/>
       <c r="AG59" s="114">
         <v>2020</v>
       </c>
@@ -22256,9 +22182,7 @@
       <c r="AE60" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF60" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF60" s="113"/>
       <c r="AG60" s="113">
         <v>2020</v>
       </c>
@@ -22370,9 +22294,7 @@
       <c r="AE61" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF61" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF61" s="114"/>
       <c r="AG61" s="114">
         <v>2020</v>
       </c>
@@ -22468,9 +22390,7 @@
       <c r="AE62" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF62" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF62" s="113"/>
       <c r="AG62" s="113">
         <v>2020</v>
       </c>
@@ -22578,9 +22498,7 @@
       <c r="AE63" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF63" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF63" s="114"/>
       <c r="AG63" s="114">
         <v>2020</v>
       </c>
@@ -22664,9 +22582,7 @@
       <c r="AE64" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF64" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF64" s="113"/>
       <c r="AG64" s="113">
         <v>2020</v>
       </c>
@@ -22762,9 +22678,7 @@
       <c r="AE65" s="112">
         <v>31.54</v>
       </c>
-      <c r="AF65" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF65" s="114"/>
       <c r="AG65" s="115">
         <v>2020</v>
       </c>
@@ -22914,9 +22828,7 @@
       <c r="AE67" s="131">
         <v>31.54</v>
       </c>
-      <c r="AF67" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF67" s="114"/>
       <c r="AG67" s="132">
         <v>2020</v>
       </c>
@@ -23066,9 +22978,7 @@
       <c r="AE69" s="134">
         <v>31.54</v>
       </c>
-      <c r="AF69" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF69" s="113"/>
       <c r="AG69" s="113">
         <v>2020</v>
       </c>
@@ -23176,9 +23086,7 @@
       <c r="AE70" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF70" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF70" s="114"/>
       <c r="AG70" s="114">
         <v>2020</v>
       </c>
@@ -23274,9 +23182,7 @@
       <c r="AE71" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF71" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF71" s="113"/>
       <c r="AG71" s="113">
         <v>2020</v>
       </c>
@@ -23384,9 +23290,7 @@
       <c r="AE72" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF72" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF72" s="114"/>
       <c r="AG72" s="114">
         <v>2020</v>
       </c>
@@ -23498,9 +23402,7 @@
       <c r="AE73" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF73" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF73" s="113"/>
       <c r="AG73" s="113">
         <v>2020</v>
       </c>
@@ -23596,9 +23498,7 @@
       <c r="AE74" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF74" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF74" s="114"/>
       <c r="AG74" s="114">
         <v>2020</v>
       </c>
@@ -23706,9 +23606,7 @@
       <c r="AE75" s="135">
         <v>31.54</v>
       </c>
-      <c r="AF75" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF75" s="113"/>
       <c r="AG75" s="113">
         <v>2020</v>
       </c>
@@ -23870,9 +23768,7 @@
       <c r="AE77" s="134">
         <v>31.54</v>
       </c>
-      <c r="AF77" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF77" s="113"/>
       <c r="AG77" s="137">
         <v>2020</v>
       </c>
@@ -23980,9 +23876,7 @@
       <c r="AE78" s="112">
         <v>31.54</v>
       </c>
-      <c r="AF78" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF78" s="114"/>
       <c r="AG78" s="115">
         <v>2020</v>
       </c>
@@ -24139,9 +24033,7 @@
       <c r="AE80" s="131">
         <v>31.54</v>
       </c>
-      <c r="AF80" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF80" s="114"/>
       <c r="AG80" s="132">
         <v>2020</v>
       </c>
@@ -24304,9 +24196,7 @@
       <c r="AE82" s="134">
         <v>31.54</v>
       </c>
-      <c r="AF82" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF82" s="113"/>
       <c r="AG82" s="137">
         <v>2020</v>
       </c>
@@ -24415,9 +24305,7 @@
       <c r="AE83" s="112">
         <v>31.54</v>
       </c>
-      <c r="AF83" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF83" s="114"/>
       <c r="AG83" s="115">
         <v>2020</v>
       </c>
@@ -24548,9 +24436,7 @@
       <c r="AE85" s="134">
         <v>31.54</v>
       </c>
-      <c r="AF85" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF85" s="113"/>
       <c r="AG85" s="137">
         <v>2020</v>
       </c>
@@ -24631,9 +24517,7 @@
       <c r="AE86" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF86" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF86" s="114"/>
       <c r="AG86" s="114">
         <v>2020</v>
       </c>
@@ -24711,9 +24595,7 @@
       <c r="AE87" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF87" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF87" s="113"/>
       <c r="AG87" s="113">
         <v>2020</v>
       </c>
@@ -24791,9 +24673,7 @@
       <c r="AE88" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF88" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF88" s="114"/>
       <c r="AG88" s="114">
         <v>2020</v>
       </c>
@@ -24871,9 +24751,7 @@
       <c r="AE89" s="135">
         <v>31.54</v>
       </c>
-      <c r="AF89" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF89" s="113"/>
       <c r="AG89" s="140">
         <v>2020</v>
       </c>
@@ -24985,9 +24863,7 @@
       <c r="AE91" s="142">
         <v>31.54</v>
       </c>
-      <c r="AF91" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF91" s="113"/>
       <c r="AG91" s="141">
         <v>2020</v>
       </c>
@@ -25395,9 +25271,7 @@
       <c r="AE101" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF101" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF101" s="113"/>
       <c r="AG101" s="113">
         <v>2020</v>
       </c>
@@ -25505,9 +25379,7 @@
       <c r="AE102" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF102" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF102" s="114"/>
       <c r="AG102" s="114">
         <v>2020</v>
       </c>
@@ -25614,9 +25486,7 @@
       <c r="AE103" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF103" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF103" s="113"/>
       <c r="AG103" s="113">
         <v>2020</v>
       </c>
@@ -25722,9 +25592,7 @@
       <c r="AE104" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF104" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF104" s="114"/>
       <c r="AG104" s="114">
         <v>2020</v>
       </c>
@@ -25820,9 +25688,7 @@
       <c r="AE105" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF105" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF105" s="113"/>
       <c r="AG105" s="113">
         <v>2020</v>
       </c>
@@ -25930,9 +25796,7 @@
       <c r="AE106" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF106" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF106" s="114"/>
       <c r="AG106" s="114">
         <v>2020</v>
       </c>
@@ -26044,9 +25908,7 @@
       <c r="AE107" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF107" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF107" s="113"/>
       <c r="AG107" s="113">
         <v>2020</v>
       </c>
@@ -26158,9 +26020,7 @@
       <c r="AE108" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF108" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF108" s="114"/>
       <c r="AG108" s="114">
         <v>2020</v>
       </c>
@@ -26256,9 +26116,7 @@
       <c r="AE109" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF109" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF109" s="113"/>
       <c r="AG109" s="113">
         <v>2020</v>
       </c>
@@ -26366,9 +26224,7 @@
       <c r="AE110" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF110" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF110" s="114"/>
       <c r="AG110" s="114">
         <v>2020</v>
       </c>
@@ -26452,9 +26308,7 @@
       <c r="AE111" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF111" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF111" s="113"/>
       <c r="AG111" s="113">
         <v>2020</v>
       </c>
@@ -26550,9 +26404,7 @@
       <c r="AE112" s="112">
         <v>31.54</v>
       </c>
-      <c r="AF112" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF112" s="114"/>
       <c r="AG112" s="115">
         <v>2020</v>
       </c>
@@ -26702,9 +26554,7 @@
       <c r="AE114" s="131">
         <v>31.54</v>
       </c>
-      <c r="AF114" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF114" s="114"/>
       <c r="AG114" s="132">
         <v>2020</v>
       </c>
@@ -26854,9 +26704,7 @@
       <c r="AE116" s="134">
         <v>31.54</v>
       </c>
-      <c r="AF116" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF116" s="113"/>
       <c r="AG116" s="113">
         <v>2020</v>
       </c>
@@ -26964,9 +26812,7 @@
       <c r="AE117" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF117" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF117" s="114"/>
       <c r="AG117" s="114">
         <v>2020</v>
       </c>
@@ -27062,9 +26908,7 @@
       <c r="AE118" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF118" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF118" s="113"/>
       <c r="AG118" s="113">
         <v>2020</v>
       </c>
@@ -27172,9 +27016,7 @@
       <c r="AE119" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF119" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF119" s="114"/>
       <c r="AG119" s="114">
         <v>2020</v>
       </c>
@@ -27286,9 +27128,7 @@
       <c r="AE120" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF120" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF120" s="113"/>
       <c r="AG120" s="113">
         <v>2020</v>
       </c>
@@ -27384,9 +27224,7 @@
       <c r="AE121" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF121" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF121" s="114"/>
       <c r="AG121" s="114">
         <v>2020</v>
       </c>
@@ -27494,9 +27332,7 @@
       <c r="AE122" s="135">
         <v>31.54</v>
       </c>
-      <c r="AF122" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF122" s="113"/>
       <c r="AG122" s="113">
         <v>2020</v>
       </c>
@@ -27658,9 +27494,7 @@
       <c r="AE124" s="134">
         <v>31.54</v>
       </c>
-      <c r="AF124" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF124" s="113"/>
       <c r="AG124" s="137">
         <v>2020</v>
       </c>
@@ -27768,9 +27602,7 @@
       <c r="AE125" s="112">
         <v>31.54</v>
       </c>
-      <c r="AF125" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF125" s="114"/>
       <c r="AG125" s="115">
         <v>2020</v>
       </c>
@@ -27927,9 +27759,7 @@
       <c r="AE127" s="131">
         <v>31.54</v>
       </c>
-      <c r="AF127" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF127" s="114"/>
       <c r="AG127" s="132">
         <v>2020</v>
       </c>
@@ -28092,9 +27922,7 @@
       <c r="AE129" s="134">
         <v>31.54</v>
       </c>
-      <c r="AF129" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF129" s="113"/>
       <c r="AG129" s="137">
         <v>2020</v>
       </c>
@@ -28203,9 +28031,7 @@
       <c r="AE130" s="112">
         <v>31.54</v>
       </c>
-      <c r="AF130" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF130" s="114"/>
       <c r="AG130" s="115">
         <v>2020</v>
       </c>
@@ -28336,9 +28162,7 @@
       <c r="AE132" s="134">
         <v>31.54</v>
       </c>
-      <c r="AF132" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF132" s="113"/>
       <c r="AG132" s="137">
         <v>2020</v>
       </c>
@@ -28419,9 +28243,7 @@
       <c r="AE133" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF133" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF133" s="114"/>
       <c r="AG133" s="114">
         <v>2020</v>
       </c>
@@ -28499,9 +28321,7 @@
       <c r="AE134" s="110">
         <v>31.54</v>
       </c>
-      <c r="AF134" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF134" s="113"/>
       <c r="AG134" s="113">
         <v>2020</v>
       </c>
@@ -28579,9 +28399,7 @@
       <c r="AE135" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF135" s="114">
-        <v>0.16</v>
-      </c>
+      <c r="AF135" s="114"/>
       <c r="AG135" s="114">
         <v>2020</v>
       </c>
@@ -28659,9 +28477,7 @@
       <c r="AE136" s="135">
         <v>31.54</v>
       </c>
-      <c r="AF136" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF136" s="113"/>
       <c r="AG136" s="140">
         <v>2020</v>
       </c>
@@ -28773,9 +28589,7 @@
       <c r="AE138" s="142">
         <v>31.54</v>
       </c>
-      <c r="AF138" s="113">
-        <v>0.16</v>
-      </c>
+      <c r="AF138" s="113"/>
       <c r="AG138" s="141">
         <v>2020</v>
       </c>
@@ -29018,6 +28832,26 @@
     <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="G100:J100"/>
+    <mergeCell ref="K100:N100"/>
+    <mergeCell ref="O100:R100"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="U100:X100"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="K98:N98"/>
+    <mergeCell ref="O98:R98"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="U98:X98"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:X51"/>
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="U6:X6"/>
     <mergeCell ref="G4:J4"/>
@@ -29028,26 +28862,6 @@
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:X51"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="K98:N98"/>
-    <mergeCell ref="O98:R98"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="U98:X98"/>
-    <mergeCell ref="G100:J100"/>
-    <mergeCell ref="K100:N100"/>
-    <mergeCell ref="O100:R100"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="U100:X100"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30008,7 +29822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFF4867-10C8-4ED5-9BE1-6E89AAC9887A}">
   <dimension ref="C2:W347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>

--- a/SubRES_TMPL/SubRes_RSD.xlsx
+++ b/SubRES_TMPL/SubRes_RSD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA60F79-E998-4C6D-9D3E-887A2CA03AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EADE00-FFF8-408B-A2FB-4EAF1E1D430A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -17,11 +17,6 @@
     <sheet name="RSD_Light+Pumps+Fans" sheetId="59" r:id="rId7"/>
     <sheet name="EPA" sheetId="49" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <definedNames>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
@@ -1212,7 +1207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="806">
   <si>
     <t>Document type:</t>
   </si>
@@ -3561,6 +3556,96 @@
   </si>
   <si>
     <t>RSDBIODSL</t>
+  </si>
+  <si>
+    <t>LIFE</t>
+  </si>
+  <si>
+    <t>NCAP_COST-2017</t>
+  </si>
+  <si>
+    <t>NCAP_COST-2020</t>
+  </si>
+  <si>
+    <t>NCAP_COST-2025</t>
+  </si>
+  <si>
+    <t>NCAP_COST-2030</t>
+  </si>
+  <si>
+    <t>NCAP_COST-2040</t>
+  </si>
+  <si>
+    <t>NCAP_COST-2050</t>
+  </si>
+  <si>
+    <t>EFF-2017</t>
+  </si>
+  <si>
+    <t>EFF-2020</t>
+  </si>
+  <si>
+    <t>EFF-2025</t>
+  </si>
+  <si>
+    <t>EFF-2030</t>
+  </si>
+  <si>
+    <t>EFF-2040</t>
+  </si>
+  <si>
+    <t>EFF-2050</t>
+  </si>
+  <si>
+    <t>RSDOILKER</t>
+  </si>
+  <si>
+    <t>RSDRENSOL,RSDOILKER</t>
+  </si>
+  <si>
+    <t>RSDBIOWOO,RSDOILKER</t>
+  </si>
+  <si>
+    <t>RSDRENSOL,RSDGASNAT</t>
+  </si>
+  <si>
+    <t>RSDBIOWOO,RSDGASNAT</t>
+  </si>
+  <si>
+    <t>RSDBIOWOO</t>
+  </si>
+  <si>
+    <t>RSDELC,RSDRENSOL</t>
+  </si>
+  <si>
+    <t>RSDELC,RSDGASNAT</t>
+  </si>
+  <si>
+    <t>RSDHET</t>
+  </si>
+  <si>
+    <t>RSDRENSOL</t>
+  </si>
+  <si>
+    <t>RSDSH_Apt,RSDWH_Apt</t>
+  </si>
+  <si>
+    <t>RSDSH_Apt,RSDSC_Apt</t>
+  </si>
+  <si>
+    <t>RSDSH_Att,RSDWH_Att</t>
+  </si>
+  <si>
+    <t>RSDSH_Att,RSDSC_Att</t>
+  </si>
+  <si>
+    <t>RSDSH_Det,RSDWH_Det</t>
+  </si>
+  <si>
+    <t>RSDSH_Det,RSDSC_Det</t>
+  </si>
+  <si>
+    <t>IE,National</t>
   </si>
 </sst>
 </file>
@@ -6737,1200 +6822,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-      <sheetName val="Intro"/>
-      <sheetName val="Regions"/>
-      <sheetName val="RES"/>
-      <sheetName val="SETUP"/>
-      <sheetName val="EnergyBalance"/>
-      <sheetName val="RSD_Balance"/>
-      <sheetName val="Fuel-Age_Adj"/>
-      <sheetName val="COMM"/>
-      <sheetName val="EMIS"/>
-      <sheetName val="Sector_Fuels"/>
-      <sheetName val="ArchetypeDemand"/>
-      <sheetName val="Non-ArchetypeDemand"/>
-      <sheetName val="DwellingStocks"/>
-      <sheetName val="SHWLP-Apt"/>
-      <sheetName val="SHWLP-Att"/>
-      <sheetName val="SHWLP-Det"/>
-      <sheetName val="ApartmentEnergyData"/>
-      <sheetName val="AttachedEnergyData"/>
-      <sheetName val="DettachedEnergyData"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>IE</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>National</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>RSDOILLPG</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>RSDOILKER</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>RSDGASNAT</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>RSDRENSOL</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>RSDBIOWOO</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>RSDELC</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>RSDHET</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="9">
-          <cell r="O9" t="str">
-            <v>RSDSH_Apt</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="O10" t="str">
-            <v>RSDSH_Att</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="O11" t="str">
-            <v>RSDSH_Det</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="O12" t="str">
-            <v>RSDSC_Apt</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="O13" t="str">
-            <v>RSDSC_Att</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="O14" t="str">
-            <v>RSDSC_Det</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="O15" t="str">
-            <v>RSDWH_Apt</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="O16" t="str">
-            <v>RSDWH_Att</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="O17" t="str">
-            <v>RSDWH_Det</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="O18" t="str">
-            <v>RSDLT_Apt</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="O19" t="str">
-            <v>RSDLT_Att</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="O20" t="str">
-            <v>RSDLT_Det</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="O21" t="str">
-            <v>RSDPF_Apt</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="O22" t="str">
-            <v>RSDPF_Att</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="O23" t="str">
-            <v>RSDPF_Det</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Legend"/>
-      <sheetName val="RSD_Heat&amp;Cool"/>
-      <sheetName val="COM_Heat&amp;Cool"/>
-      <sheetName val="COM_mCHP"/>
-      <sheetName val="JRC Summary"/>
-      <sheetName val="2.1 HOB-oil_PT"/>
-      <sheetName val="2.1 HOB-oil_PT_large"/>
-      <sheetName val="2.2 HOB-gas_PT"/>
-      <sheetName val="2.2 HOB-gas_PT_large"/>
-      <sheetName val="2.3 HOB-biomass_PT"/>
-      <sheetName val="2.3 HOB-biomass_PT_large"/>
-      <sheetName val="2.4 HOB-wood_PT"/>
-      <sheetName val="2.5 HP-e-air-to-air_PT"/>
-      <sheetName val="2.5 HP-e-air-to-air_PT_large"/>
-      <sheetName val="2.6 HP-e-air-to-water_PT"/>
-      <sheetName val="2.6 HP-e-air-to-water_PT_large"/>
-      <sheetName val="2.7 HP-e-ground_PT"/>
-      <sheetName val="2.8 HP-e-groundwater"/>
-      <sheetName val="2.9 HP-e-ventilation_PT"/>
-      <sheetName val="2.10 GHP-a-airbrine-water"/>
-      <sheetName val="2.11 GHP-ad-brine-water"/>
-      <sheetName val="2.12 GHP-eng-airbrine-water"/>
-      <sheetName val="2.13 GHP-eng-groundwater"/>
-      <sheetName val="CHP-eng-micro-turbine"/>
-      <sheetName val="CHP-eng-gas_PT"/>
-      <sheetName val="CHP-eng-gas_PT_large"/>
-      <sheetName val="CHP-eng-diesel"/>
-      <sheetName val="CHP-eng-stirling"/>
-      <sheetName val="CHP-fc-gas_PT"/>
-      <sheetName val="CHP-fc-hydrogen_PT"/>
-      <sheetName val="Solar_PT"/>
-      <sheetName val="Solar_PT_large"/>
-      <sheetName val="Electric_PT"/>
-      <sheetName val="Storage_PT"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="AA5">
-            <v>78.826086956521735</v>
-          </cell>
-          <cell r="AC5">
-            <v>78.826086956521735</v>
-          </cell>
-          <cell r="AD5">
-            <v>78.826086956521735</v>
-          </cell>
-          <cell r="AE5">
-            <v>78.826086956521735</v>
-          </cell>
-          <cell r="AF5">
-            <v>1.3043478260869565</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="AA6">
-            <v>82.767391304347825</v>
-          </cell>
-          <cell r="AC6">
-            <v>82.767391304347825</v>
-          </cell>
-          <cell r="AD6">
-            <v>82.767391304347825</v>
-          </cell>
-          <cell r="AE6">
-            <v>82.767391304347825</v>
-          </cell>
-          <cell r="AF6">
-            <v>1.3043478260869565</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="AA7">
-            <v>62.01691785038426</v>
-          </cell>
-          <cell r="AC7">
-            <v>62.01691785038426</v>
-          </cell>
-          <cell r="AD7">
-            <v>62.01691785038426</v>
-          </cell>
-          <cell r="AE7">
-            <v>62.01691785038426</v>
-          </cell>
-          <cell r="AF7">
-            <v>1.2295081967213115</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="P8">
-            <v>0.60759999999999992</v>
-          </cell>
-          <cell r="AA8">
-            <v>65.117763742903477</v>
-          </cell>
-          <cell r="AC8">
-            <v>65.117763742903477</v>
-          </cell>
-          <cell r="AD8">
-            <v>65.117763742903477</v>
-          </cell>
-          <cell r="AE8">
-            <v>65.117763742903477</v>
-          </cell>
-          <cell r="AF8">
-            <v>1.2295081967213115</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>0.90100000000000002</v>
-          </cell>
-          <cell r="G9">
-            <v>0.90100000000000002</v>
-          </cell>
-          <cell r="H9">
-            <v>0.90100000000000002</v>
-          </cell>
-          <cell r="I9">
-            <v>0.90100000000000002</v>
-          </cell>
-          <cell r="O9">
-            <v>0.88227999999999995</v>
-          </cell>
-          <cell r="AA9">
-            <v>325.38126012155396</v>
-          </cell>
-          <cell r="AC9">
-            <v>300.73704094347181</v>
-          </cell>
-          <cell r="AD9">
-            <v>251.44860258730745</v>
-          </cell>
-          <cell r="AE9">
-            <v>251.44860258730745</v>
-          </cell>
-          <cell r="AF9">
-            <v>14.316939890710385</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>0.80079999999999996</v>
-          </cell>
-          <cell r="G10">
-            <v>0.82079999999999997</v>
-          </cell>
-          <cell r="H10">
-            <v>0.82079999999999997</v>
-          </cell>
-          <cell r="I10">
-            <v>0.82079999999999997</v>
-          </cell>
-          <cell r="AA10">
-            <v>89.356293659586896</v>
-          </cell>
-          <cell r="AC10">
-            <v>89.356293659586896</v>
-          </cell>
-          <cell r="AD10">
-            <v>89.356293659586896</v>
-          </cell>
-          <cell r="AE10">
-            <v>89.356293659586896</v>
-          </cell>
-          <cell r="AF10">
-            <v>5.3472429210134127</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>0.86799999999999999</v>
-          </cell>
-          <cell r="G11">
-            <v>0.86799999999999999</v>
-          </cell>
-          <cell r="H11">
-            <v>0.86799999999999999</v>
-          </cell>
-          <cell r="I11">
-            <v>0.86799999999999999</v>
-          </cell>
-          <cell r="AB11">
-            <v>62.01691785038426</v>
-          </cell>
-          <cell r="AC11">
-            <v>62.01691785038426</v>
-          </cell>
-          <cell r="AD11">
-            <v>62.01691785038426</v>
-          </cell>
-          <cell r="AE11">
-            <v>62.01691785038426</v>
-          </cell>
-          <cell r="AF11">
-            <v>1.2295081967213115</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>0.86799999999999999</v>
-          </cell>
-          <cell r="G12">
-            <v>0.86799999999999999</v>
-          </cell>
-          <cell r="H12">
-            <v>0.86799999999999999</v>
-          </cell>
-          <cell r="I12">
-            <v>0.86799999999999999</v>
-          </cell>
-          <cell r="AB12">
-            <v>65.117763742903477</v>
-          </cell>
-          <cell r="AC12">
-            <v>65.117763742903477</v>
-          </cell>
-          <cell r="AD12">
-            <v>65.117763742903477</v>
-          </cell>
-          <cell r="AE12">
-            <v>65.117763742903477</v>
-          </cell>
-          <cell r="AF12">
-            <v>1.2295081967213115</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>0.88500000000000001</v>
-          </cell>
-          <cell r="G13">
-            <v>0.88500000000000001</v>
-          </cell>
-          <cell r="H13">
-            <v>0.88500000000000001</v>
-          </cell>
-          <cell r="I13">
-            <v>0.88500000000000001</v>
-          </cell>
-          <cell r="AF13">
-            <v>8.5714285714285712</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>0.88500000000000001</v>
-          </cell>
-          <cell r="G14">
-            <v>0.88500000000000001</v>
-          </cell>
-          <cell r="H14">
-            <v>0.88500000000000001</v>
-          </cell>
-          <cell r="I14">
-            <v>0.88500000000000001</v>
-          </cell>
-          <cell r="AF14">
-            <v>8.5714285714285712</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>1</v>
-          </cell>
-          <cell r="G16">
-            <v>1</v>
-          </cell>
-          <cell r="H16">
-            <v>1</v>
-          </cell>
-          <cell r="I16">
-            <v>1</v>
-          </cell>
-          <cell r="AB16">
-            <v>185</v>
-          </cell>
-          <cell r="AC16">
-            <v>185</v>
-          </cell>
-          <cell r="AD16">
-            <v>185</v>
-          </cell>
-          <cell r="AE16">
-            <v>185</v>
-          </cell>
-          <cell r="AF16">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="AB18">
-            <v>606.94444444444434</v>
-          </cell>
-          <cell r="AC18">
-            <v>549.44444444444434</v>
-          </cell>
-          <cell r="AD18">
-            <v>523.8888888888888</v>
-          </cell>
-          <cell r="AE18">
-            <v>523.8888888888888</v>
-          </cell>
-          <cell r="AF18">
-            <v>16.666666666666668</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="AB19">
-            <v>637.29166666666663</v>
-          </cell>
-          <cell r="AC19">
-            <v>576.91666666666663</v>
-          </cell>
-          <cell r="AD19">
-            <v>550.08333333333326</v>
-          </cell>
-          <cell r="AE19">
-            <v>550.08333333333326</v>
-          </cell>
-          <cell r="AF19">
-            <v>16.666666666666668</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>3.3</v>
-          </cell>
-          <cell r="G20">
-            <v>3.7</v>
-          </cell>
-          <cell r="H20">
-            <v>4</v>
-          </cell>
-          <cell r="I20">
-            <v>4</v>
-          </cell>
-          <cell r="AB20">
-            <v>212.19058823529411</v>
-          </cell>
-          <cell r="AC20">
-            <v>212.19058823529411</v>
-          </cell>
-          <cell r="AD20">
-            <v>191.20470588235293</v>
-          </cell>
-          <cell r="AE20">
-            <v>191.20470588235293</v>
-          </cell>
-          <cell r="AF20">
-            <v>7.0588235294117645</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>3.3</v>
-          </cell>
-          <cell r="G21">
-            <v>3.7</v>
-          </cell>
-          <cell r="H21">
-            <v>4</v>
-          </cell>
-          <cell r="I21">
-            <v>4</v>
-          </cell>
-          <cell r="P21">
-            <v>2.3099999999999996</v>
-          </cell>
-          <cell r="Q21">
-            <v>2.59</v>
-          </cell>
-          <cell r="R21">
-            <v>2.8</v>
-          </cell>
-          <cell r="S21">
-            <v>2.8</v>
-          </cell>
-          <cell r="AB21">
-            <v>382.30823529411765</v>
-          </cell>
-          <cell r="AC21">
-            <v>382.30823529411765</v>
-          </cell>
-          <cell r="AD21">
-            <v>361.32235294117646</v>
-          </cell>
-          <cell r="AE21">
-            <v>361.32235294117646</v>
-          </cell>
-          <cell r="AF21">
-            <v>7.0588235294117645</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>2.7249999999999996</v>
-          </cell>
-          <cell r="G22">
-            <v>3.0250000000000004</v>
-          </cell>
-          <cell r="H22">
-            <v>3.25</v>
-          </cell>
-          <cell r="I22">
-            <v>3.25</v>
-          </cell>
-          <cell r="P22">
-            <v>1.393</v>
-          </cell>
-          <cell r="Q22">
-            <v>1.4770000000000001</v>
-          </cell>
-          <cell r="R22">
-            <v>1.54</v>
-          </cell>
-          <cell r="S22">
-            <v>1.54</v>
-          </cell>
-          <cell r="AB22">
-            <v>706.69359398496226</v>
-          </cell>
-          <cell r="AC22">
-            <v>682.09990977443601</v>
-          </cell>
-          <cell r="AD22">
-            <v>560.47566917293238</v>
-          </cell>
-          <cell r="AE22">
-            <v>560.47566917293238</v>
-          </cell>
-          <cell r="AF22">
-            <v>18.980392156862745</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>3.92</v>
-          </cell>
-          <cell r="G23">
-            <v>3.92</v>
-          </cell>
-          <cell r="H23">
-            <v>3.92</v>
-          </cell>
-          <cell r="I23">
-            <v>3.92</v>
-          </cell>
-          <cell r="AB23">
-            <v>806.67391304347848</v>
-          </cell>
-          <cell r="AC23">
-            <v>745.95652173913049</v>
-          </cell>
-          <cell r="AD23">
-            <v>685.23913043478274</v>
-          </cell>
-          <cell r="AE23">
-            <v>685.23913043478274</v>
-          </cell>
-          <cell r="AF23">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>3.92</v>
-          </cell>
-          <cell r="G24">
-            <v>3.92</v>
-          </cell>
-          <cell r="H24">
-            <v>3.92</v>
-          </cell>
-          <cell r="I24">
-            <v>3.92</v>
-          </cell>
-          <cell r="AB24">
-            <v>963.84782608695673</v>
-          </cell>
-          <cell r="AC24">
-            <v>903.13043478260863</v>
-          </cell>
-          <cell r="AD24">
-            <v>842.41304347826099</v>
-          </cell>
-          <cell r="AE24">
-            <v>842.41304347826099</v>
-          </cell>
-          <cell r="AF24">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>1.45</v>
-          </cell>
-          <cell r="G25">
-            <v>1.7</v>
-          </cell>
-          <cell r="H25">
-            <v>1.7</v>
-          </cell>
-          <cell r="I25">
-            <v>1.7</v>
-          </cell>
-          <cell r="AB25">
-            <v>971.77777777777783</v>
-          </cell>
-          <cell r="AC25">
-            <v>860.66666666666663</v>
-          </cell>
-          <cell r="AD25">
-            <v>860.66666666666663</v>
-          </cell>
-          <cell r="AE25">
-            <v>860.66666666666663</v>
-          </cell>
-          <cell r="AF25">
-            <v>13.055555555555555</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>1.55</v>
-          </cell>
-          <cell r="G26">
-            <v>1.55</v>
-          </cell>
-          <cell r="H26">
-            <v>1.6</v>
-          </cell>
-          <cell r="I26">
-            <v>1.6</v>
-          </cell>
-          <cell r="AB26">
-            <v>1065.68</v>
-          </cell>
-          <cell r="AC26">
-            <v>1065.68</v>
-          </cell>
-          <cell r="AD26">
-            <v>1065.68</v>
-          </cell>
-          <cell r="AE26">
-            <v>1065.68</v>
-          </cell>
-          <cell r="AF26">
-            <v>4.7</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28">
-            <v>0.98</v>
-          </cell>
-          <cell r="G28">
-            <v>0.98</v>
-          </cell>
-          <cell r="H28">
-            <v>0.98</v>
-          </cell>
-          <cell r="I28">
-            <v>0.98</v>
-          </cell>
-          <cell r="P28">
-            <v>0.98</v>
-          </cell>
-          <cell r="Q28">
-            <v>0.98</v>
-          </cell>
-          <cell r="R28">
-            <v>0.98</v>
-          </cell>
-          <cell r="S28">
-            <v>0.98</v>
-          </cell>
-          <cell r="T28">
-            <v>20</v>
-          </cell>
-          <cell r="AB28">
-            <v>250</v>
-          </cell>
-          <cell r="AC28">
-            <v>250</v>
-          </cell>
-          <cell r="AD28">
-            <v>250</v>
-          </cell>
-          <cell r="AE28">
-            <v>250</v>
-          </cell>
-          <cell r="AF28">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29">
-            <v>0.98</v>
-          </cell>
-          <cell r="G29">
-            <v>0.98</v>
-          </cell>
-          <cell r="H29">
-            <v>0.98</v>
-          </cell>
-          <cell r="I29">
-            <v>0.98</v>
-          </cell>
-          <cell r="P29">
-            <v>0.98</v>
-          </cell>
-          <cell r="Q29">
-            <v>0.98</v>
-          </cell>
-          <cell r="R29">
-            <v>0.98</v>
-          </cell>
-          <cell r="S29">
-            <v>0.98</v>
-          </cell>
-          <cell r="T29">
-            <v>20</v>
-          </cell>
-          <cell r="AB29">
-            <v>250</v>
-          </cell>
-          <cell r="AC29">
-            <v>250</v>
-          </cell>
-          <cell r="AD29">
-            <v>250</v>
-          </cell>
-          <cell r="AE29">
-            <v>250</v>
-          </cell>
-          <cell r="AF29">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="F61">
-            <v>3.2</v>
-          </cell>
-          <cell r="G61">
-            <v>3.7</v>
-          </cell>
-          <cell r="H61">
-            <v>4</v>
-          </cell>
-          <cell r="I61">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="K62">
-            <v>3.2</v>
-          </cell>
-          <cell r="L62">
-            <v>3.7</v>
-          </cell>
-          <cell r="M62">
-            <v>4</v>
-          </cell>
-          <cell r="N62">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="P74">
-            <v>1</v>
-          </cell>
-          <cell r="Q74">
-            <v>1</v>
-          </cell>
-          <cell r="R74">
-            <v>1</v>
-          </cell>
-          <cell r="S74">
-            <v>1</v>
-          </cell>
-          <cell r="AB74">
-            <v>185</v>
-          </cell>
-          <cell r="AC74">
-            <v>185</v>
-          </cell>
-          <cell r="AD74">
-            <v>185</v>
-          </cell>
-          <cell r="AE74">
-            <v>185</v>
-          </cell>
-          <cell r="AF74">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="P75">
-            <v>1</v>
-          </cell>
-          <cell r="Q75">
-            <v>1</v>
-          </cell>
-          <cell r="R75">
-            <v>1</v>
-          </cell>
-          <cell r="S75">
-            <v>1</v>
-          </cell>
-          <cell r="T75">
-            <v>25</v>
-          </cell>
-          <cell r="U75">
-            <v>30</v>
-          </cell>
-          <cell r="AB75">
-            <v>1582.3760000000002</v>
-          </cell>
-          <cell r="AC75">
-            <v>1514.231</v>
-          </cell>
-          <cell r="AD75">
-            <v>1214.3930000000003</v>
-          </cell>
-          <cell r="AE75">
-            <v>1214.3930000000003</v>
-          </cell>
-          <cell r="AF75">
-            <v>16.666666666666668</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="P76">
-            <v>0.60759999999999992</v>
-          </cell>
-          <cell r="Q76">
-            <v>0.60759999999999992</v>
-          </cell>
-          <cell r="R76">
-            <v>0.60759999999999992</v>
-          </cell>
-          <cell r="S76">
-            <v>0.60759999999999992</v>
-          </cell>
-          <cell r="T76">
-            <v>20</v>
-          </cell>
-          <cell r="AB76">
-            <v>62.01691785038426</v>
-          </cell>
-          <cell r="AC76">
-            <v>62.01691785038426</v>
-          </cell>
-          <cell r="AD76">
-            <v>62.01691785038426</v>
-          </cell>
-          <cell r="AE76">
-            <v>62.01691785038426</v>
-          </cell>
-          <cell r="AF76">
-            <v>1.2295081967213115</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="P77">
-            <v>0.61949999999999994</v>
-          </cell>
-          <cell r="Q77">
-            <v>0.61949999999999994</v>
-          </cell>
-          <cell r="R77">
-            <v>0.61949999999999994</v>
-          </cell>
-          <cell r="S77">
-            <v>0.61949999999999994</v>
-          </cell>
-          <cell r="T77">
-            <v>20</v>
-          </cell>
-          <cell r="AB77">
-            <v>211.49571428571429</v>
-          </cell>
-          <cell r="AC77">
-            <v>211.49571428571429</v>
-          </cell>
-          <cell r="AD77">
-            <v>211.49571428571429</v>
-          </cell>
-          <cell r="AE77">
-            <v>211.49571428571429</v>
-          </cell>
-          <cell r="AF77">
-            <v>8.5714285714285712</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="P78">
-            <v>0.60759999999999992</v>
-          </cell>
-          <cell r="Q78">
-            <v>0.60759999999999992</v>
-          </cell>
-          <cell r="R78">
-            <v>0.60759999999999992</v>
-          </cell>
-          <cell r="S78">
-            <v>0.60759999999999992</v>
-          </cell>
-          <cell r="T78">
-            <v>20</v>
-          </cell>
-          <cell r="AB78">
-            <v>62.01691785038426</v>
-          </cell>
-          <cell r="AC78">
-            <v>62.01691785038426</v>
-          </cell>
-          <cell r="AD78">
-            <v>62.01691785038426</v>
-          </cell>
-          <cell r="AE78">
-            <v>62.01691785038426</v>
-          </cell>
-          <cell r="AF78">
-            <v>1.2295081967213115</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="K80">
-            <v>3.2</v>
-          </cell>
-          <cell r="L80">
-            <v>3.7</v>
-          </cell>
-          <cell r="M80">
-            <v>4</v>
-          </cell>
-          <cell r="N80">
-            <v>4</v>
-          </cell>
-          <cell r="AB80">
-            <v>873.99999999999977</v>
-          </cell>
-          <cell r="AC80">
-            <v>791.19999999999993</v>
-          </cell>
-          <cell r="AD80">
-            <v>754.39999999999986</v>
-          </cell>
-          <cell r="AE80">
-            <v>754.39999999999986</v>
-          </cell>
-          <cell r="AF80">
-            <v>16.666666666666668</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="7">
-          <cell r="AD7">
-            <v>0.86799999999999999</v>
-          </cell>
-          <cell r="AE7">
-            <v>0.86799999999999999</v>
-          </cell>
-          <cell r="AF7">
-            <v>0.86799999999999999</v>
-          </cell>
-          <cell r="AG7">
-            <v>0.86799999999999999</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="AC9">
-            <v>0.86799999999999999</v>
-          </cell>
-          <cell r="AD9">
-            <v>0.86799999999999999</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="AN20">
-            <v>4.5</v>
-          </cell>
-          <cell r="AO20">
-            <v>4.5</v>
-          </cell>
-          <cell r="AP20">
-            <v>4.5</v>
-          </cell>
-          <cell r="AQ20">
-            <v>4.5</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="AD53">
-            <v>0.97499999999999998</v>
-          </cell>
-          <cell r="AE53">
-            <v>0.98499999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="SETUP"/>
-      <sheetName val="RSD"/>
-      <sheetName val="EPA"/>
-      <sheetName val="Temp"/>
-      <sheetName val="ProcessCharac_SolPV"/>
-      <sheetName val="DH_HEAT"/>
-      <sheetName val="HP_HEAT"/>
-      <sheetName val="EC-TIMES data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="F1" t="str">
-            <v>AFA</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>START</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>LIFE</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>NCAP_COST-2017</v>
-          </cell>
-          <cell r="N1" t="str">
-            <v>NCAP_COST-2020</v>
-          </cell>
-          <cell r="O1" t="str">
-            <v>NCAP_COST-2025</v>
-          </cell>
-          <cell r="P1" t="str">
-            <v>NCAP_COST-2030</v>
-          </cell>
-          <cell r="Q1" t="str">
-            <v>NCAP_COST-2040</v>
-          </cell>
-          <cell r="R1" t="str">
-            <v>NCAP_COST-2050</v>
-          </cell>
-          <cell r="S1" t="str">
-            <v>EFF-2017</v>
-          </cell>
-          <cell r="T1" t="str">
-            <v>EFF-2020</v>
-          </cell>
-          <cell r="U1" t="str">
-            <v>EFF-2025</v>
-          </cell>
-          <cell r="V1" t="str">
-            <v>EFF-2030</v>
-          </cell>
-          <cell r="W1" t="str">
-            <v>EFF-2040</v>
-          </cell>
-          <cell r="X1" t="str">
-            <v>EFF-2050</v>
-          </cell>
-          <cell r="Z1" t="str">
-            <v>FIXOM</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8265,7 +7156,7 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17:F17"/>
     </sheetView>
   </sheetViews>
@@ -17368,8 +16259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F8057-C735-4662-BAA6-EEDCF7B57273}">
   <dimension ref="A2:AO170"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AF101" sqref="AF101:AF138"/>
+    <sheetView tabSelected="1" topLeftCell="L15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17723,28 +16614,22 @@
       <c r="D7" s="77" t="s">
         <v>352</v>
       </c>
-      <c r="E7" s="78" t="str">
-        <f>[1]SETUP!$B$12</f>
-        <v>RSDOILKER</v>
-      </c>
-      <c r="F7" s="77" t="str">
-        <f>[1]COMM!$O$9</f>
-        <v>RSDSH_Apt</v>
+      <c r="E7" s="78" t="s">
+        <v>789</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>410</v>
       </c>
       <c r="G7" s="90">
-        <f>'[2]JRC Summary'!AD7</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H7" s="79">
-        <f>'[2]JRC Summary'!AE7</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I7" s="79">
-        <f>'[2]JRC Summary'!AF7</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J7" s="91">
-        <f>'[2]JRC Summary'!AG7</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K7" s="94"/>
@@ -17760,23 +16645,18 @@
       </c>
       <c r="T7" s="68"/>
       <c r="U7" s="66">
-        <f>'[2]RSD_Heat&amp;Cool'!$AA$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="V7" s="67">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="W7" s="67">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="X7" s="104">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="Y7" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$5</f>
         <v>1.3043478260869565</v>
       </c>
       <c r="Z7" s="113"/>
@@ -17821,28 +16701,22 @@
       <c r="D8" s="70" t="s">
         <v>353</v>
       </c>
-      <c r="E8" s="71" t="str">
-        <f>[1]SETUP!$B$12</f>
-        <v>RSDOILKER</v>
-      </c>
-      <c r="F8" s="70" t="str">
-        <f>[1]COMM!$O$9&amp;","&amp;[1]COMM!$O$15</f>
-        <v>RSDSH_Apt,RSDWH_Apt</v>
+      <c r="E8" s="71" t="s">
+        <v>789</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>799</v>
       </c>
       <c r="G8" s="92">
-        <f>'[2]JRC Summary'!AD7</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H8" s="80">
-        <f>'[2]JRC Summary'!AE7</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I8" s="80">
-        <f>'[2]JRC Summary'!AF7</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J8" s="93">
-        <f>'[2]JRC Summary'!AG7</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K8" s="92"/>
@@ -17870,23 +16744,18 @@
       </c>
       <c r="T8" s="72"/>
       <c r="U8" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AA$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="V8" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="W8" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="X8" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="Y8" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$6</f>
         <v>1.3043478260869565</v>
       </c>
       <c r="Z8" s="114"/>
@@ -17929,28 +16798,22 @@
       <c r="D9" s="77" t="s">
         <v>354</v>
       </c>
-      <c r="E9" s="78" t="str">
-        <f>[1]SETUP!$B$17&amp;","&amp;[1]SETUP!$B$12</f>
-        <v>RSDRENSOL,RSDOILKER</v>
-      </c>
-      <c r="F9" s="77" t="str">
-        <f>[1]COMM!$O$9&amp;","&amp;[1]COMM!$O$15</f>
-        <v>RSDSH_Apt,RSDWH_Apt</v>
+      <c r="E9" s="78" t="s">
+        <v>790</v>
+      </c>
+      <c r="F9" s="77" t="s">
+        <v>799</v>
       </c>
       <c r="G9" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="H9" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="I9" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="J9" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="K9" s="90"/>
@@ -17958,19 +16821,15 @@
       <c r="M9" s="79"/>
       <c r="N9" s="91"/>
       <c r="O9" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="P9" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="Q9" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="R9" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="S9" s="102">
@@ -18036,28 +16895,22 @@
       <c r="D10" s="70" t="s">
         <v>358</v>
       </c>
-      <c r="E10" s="71" t="str">
-        <f>[1]SETUP!$B$18&amp;","&amp;[1]SETUP!$B$12</f>
-        <v>RSDBIOWOO,RSDOILKER</v>
-      </c>
-      <c r="F10" s="70" t="str">
-        <f>[1]COMM!$O$9&amp;","&amp;[1]COMM!$O$15</f>
-        <v>RSDSH_Apt,RSDWH_Apt</v>
+      <c r="E10" s="71" t="s">
+        <v>791</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>799</v>
       </c>
       <c r="G10" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$10</f>
         <v>0.80079999999999996</v>
       </c>
       <c r="H10" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="I10" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="J10" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="K10" s="92"/>
@@ -18097,7 +16950,6 @@
         <v>93.035670457334589</v>
       </c>
       <c r="Y10" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$10</f>
         <v>5.3472429210134127</v>
       </c>
       <c r="Z10" s="114"/>
@@ -18142,28 +16994,22 @@
       <c r="D11" s="77" t="s">
         <v>351</v>
       </c>
-      <c r="E11" s="78" t="str">
-        <f>[1]SETUP!$B$16</f>
-        <v>RSDGASNAT</v>
-      </c>
-      <c r="F11" s="77" t="str">
-        <f>[1]COMM!$O$9</f>
-        <v>RSDSH_Apt</v>
+      <c r="E11" s="78" t="s">
+        <v>451</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>410</v>
       </c>
       <c r="G11" s="90">
-        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H11" s="79">
-        <f>'[2]JRC Summary'!$AD$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I11" s="79">
-        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J11" s="91">
-        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K11" s="90"/>
@@ -18179,23 +17025,18 @@
       </c>
       <c r="T11" s="89"/>
       <c r="U11" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AA$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V11" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W11" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X11" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y11" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$7</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z11" s="113"/>
@@ -18238,28 +17079,22 @@
       <c r="D12" s="70" t="s">
         <v>355</v>
       </c>
-      <c r="E12" s="71" t="str">
-        <f>[1]SETUP!$B$16</f>
-        <v>RSDGASNAT</v>
-      </c>
-      <c r="F12" s="70" t="str">
-        <f>[1]COMM!$O$9&amp;","&amp;[1]COMM!$O$15</f>
-        <v>RSDSH_Apt,RSDWH_Apt</v>
+      <c r="E12" s="71" t="s">
+        <v>451</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>799</v>
       </c>
       <c r="G12" s="92">
-        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H12" s="80">
-        <f>'[2]JRC Summary'!$AD$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I12" s="80">
-        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J12" s="93">
-        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K12" s="92"/>
@@ -18267,19 +17102,15 @@
       <c r="M12" s="80"/>
       <c r="N12" s="93"/>
       <c r="O12" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="P12" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q12" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="R12" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="S12" s="101">
@@ -18287,23 +17118,18 @@
       </c>
       <c r="T12" s="72"/>
       <c r="U12" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AA$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="V12" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="W12" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="X12" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="Y12" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$8</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z12" s="114"/>
@@ -18346,28 +17172,22 @@
       <c r="D13" s="77" t="s">
         <v>356</v>
       </c>
-      <c r="E13" s="78" t="str">
-        <f>[1]SETUP!$B$17&amp;","&amp;[1]SETUP!$B$16</f>
-        <v>RSDRENSOL,RSDGASNAT</v>
-      </c>
-      <c r="F13" s="77" t="str">
-        <f>[1]COMM!$O$9&amp;","&amp;[1]COMM!$O$15</f>
-        <v>RSDSH_Apt,RSDWH_Apt</v>
+      <c r="E13" s="78" t="s">
+        <v>792</v>
+      </c>
+      <c r="F13" s="77" t="s">
+        <v>799</v>
       </c>
       <c r="G13" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="H13" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="I13" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="J13" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="K13" s="90"/>
@@ -18375,19 +17195,15 @@
       <c r="M13" s="79"/>
       <c r="N13" s="91"/>
       <c r="O13" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="P13" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="Q13" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="R13" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="S13" s="102">
@@ -18395,23 +17211,18 @@
       </c>
       <c r="T13" s="89"/>
       <c r="U13" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AA$9</f>
         <v>325.38126012155396</v>
       </c>
       <c r="V13" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$9</f>
         <v>300.73704094347181</v>
       </c>
       <c r="W13" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$9</f>
         <v>251.44860258730745</v>
       </c>
       <c r="X13" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$9</f>
         <v>251.44860258730745</v>
       </c>
       <c r="Y13" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$9</f>
         <v>14.316939890710385</v>
       </c>
       <c r="Z13" s="113"/>
@@ -18458,28 +17269,22 @@
       <c r="D14" s="70" t="s">
         <v>357</v>
       </c>
-      <c r="E14" s="71" t="str">
-        <f>[1]SETUP!$B$18&amp;","&amp;[1]SETUP!$B$16</f>
-        <v>RSDBIOWOO,RSDGASNAT</v>
-      </c>
-      <c r="F14" s="70" t="str">
-        <f>[1]COMM!$O$9&amp;","&amp;[1]COMM!$O$15</f>
-        <v>RSDSH_Apt,RSDWH_Apt</v>
+      <c r="E14" s="71" t="s">
+        <v>793</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>799</v>
       </c>
       <c r="G14" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$10</f>
         <v>0.80079999999999996</v>
       </c>
       <c r="H14" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="I14" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="J14" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="K14" s="92"/>
@@ -18507,23 +17312,18 @@
       </c>
       <c r="T14" s="72"/>
       <c r="U14" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AA$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="V14" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="W14" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="X14" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="Y14" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$10</f>
         <v>5.3472429210134127</v>
       </c>
       <c r="Z14" s="114"/>
@@ -18570,28 +17370,22 @@
       <c r="D15" s="77" t="s">
         <v>361</v>
       </c>
-      <c r="E15" s="78" t="str">
-        <f>[1]SETUP!$B$10</f>
-        <v>RSDOILLPG</v>
-      </c>
-      <c r="F15" s="77" t="str">
-        <f>[1]COMM!$O$9</f>
-        <v>RSDSH_Apt</v>
+      <c r="E15" s="78" t="s">
+        <v>452</v>
+      </c>
+      <c r="F15" s="77" t="s">
+        <v>410</v>
       </c>
       <c r="G15" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H15" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I15" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J15" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K15" s="90"/>
@@ -18607,23 +17401,18 @@
       </c>
       <c r="T15" s="89"/>
       <c r="U15" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V15" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W15" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X15" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y15" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$11</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z15" s="113"/>
@@ -18666,28 +17455,22 @@
       <c r="D16" s="70" t="s">
         <v>362</v>
       </c>
-      <c r="E16" s="71" t="str">
-        <f>[1]SETUP!$B$10</f>
-        <v>RSDOILLPG</v>
-      </c>
-      <c r="F16" s="70" t="str">
-        <f>[1]COMM!$O$9&amp;","&amp;[1]COMM!$O$15</f>
-        <v>RSDSH_Apt,RSDWH_Apt</v>
+      <c r="E16" s="71" t="s">
+        <v>452</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>799</v>
       </c>
       <c r="G16" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H16" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I16" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J16" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K16" s="92"/>
@@ -18715,23 +17498,18 @@
       </c>
       <c r="T16" s="72"/>
       <c r="U16" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="V16" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="W16" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="X16" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="Y16" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$12</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z16" s="114"/>
@@ -18774,28 +17552,22 @@
       <c r="D17" s="77" t="s">
         <v>363</v>
       </c>
-      <c r="E17" s="78" t="str">
-        <f>[1]SETUP!$B$18</f>
-        <v>RSDBIOWOO</v>
-      </c>
-      <c r="F17" s="77" t="str">
-        <f>[1]COMM!$O$9</f>
-        <v>RSDSH_Apt</v>
+      <c r="E17" s="78" t="s">
+        <v>794</v>
+      </c>
+      <c r="F17" s="77" t="s">
+        <v>410</v>
       </c>
       <c r="G17" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="H17" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="I17" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="J17" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="K17" s="90"/>
@@ -18815,7 +17587,6 @@
       <c r="W17" s="77"/>
       <c r="X17" s="106"/>
       <c r="Y17" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$13</f>
         <v>8.5714285714285712</v>
       </c>
       <c r="Z17" s="113"/>
@@ -18858,28 +17629,22 @@
       <c r="D18" s="74" t="s">
         <v>364</v>
       </c>
-      <c r="E18" s="75" t="str">
-        <f>[1]SETUP!$B$18</f>
-        <v>RSDBIOWOO</v>
-      </c>
-      <c r="F18" s="74" t="str">
-        <f>[1]COMM!$O$9&amp;","&amp;[1]COMM!$O$15</f>
-        <v>RSDSH_Apt,RSDWH_Apt</v>
+      <c r="E18" s="75" t="s">
+        <v>794</v>
+      </c>
+      <c r="F18" s="74" t="s">
+        <v>799</v>
       </c>
       <c r="G18" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="H18" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="I18" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="J18" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="K18" s="97"/>
@@ -18911,7 +17676,6 @@
       <c r="W18" s="74"/>
       <c r="X18" s="107"/>
       <c r="Y18" s="112">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$14</f>
         <v>8.5714285714285712</v>
       </c>
       <c r="Z18" s="115"/>
@@ -19038,28 +17802,22 @@
       <c r="D21" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="E21" s="71" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F21" s="70" t="str">
-        <f>[1]COMM!$O$9</f>
-        <v>RSDSH_Apt</v>
+      <c r="E21" s="71" t="s">
+        <v>448</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>410</v>
       </c>
       <c r="G21" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$16</f>
         <v>1</v>
       </c>
       <c r="H21" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$16</f>
         <v>1</v>
       </c>
       <c r="I21" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$16</f>
         <v>1</v>
       </c>
       <c r="J21" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$16</f>
         <v>1</v>
       </c>
       <c r="K21" s="123"/>
@@ -19075,23 +17833,18 @@
       </c>
       <c r="T21" s="127"/>
       <c r="U21" s="128">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$16</f>
         <v>185</v>
       </c>
       <c r="V21" s="129">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$16</f>
         <v>185</v>
       </c>
       <c r="W21" s="129">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$16</f>
         <v>185</v>
       </c>
       <c r="X21" s="130">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$16</f>
         <v>185</v>
       </c>
       <c r="Y21" s="131">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$16</f>
         <v>25</v>
       </c>
       <c r="Z21" s="132"/>
@@ -19188,28 +17941,22 @@
       <c r="D23" s="77" t="s">
         <v>369</v>
       </c>
-      <c r="E23" s="78" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F23" s="77" t="str">
-        <f>[1]COMM!$O$9</f>
-        <v>RSDSH_Apt</v>
+      <c r="E23" s="78" t="s">
+        <v>448</v>
+      </c>
+      <c r="F23" s="77" t="s">
+        <v>410</v>
       </c>
       <c r="G23" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$61</f>
         <v>3.2</v>
       </c>
       <c r="H23" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$61</f>
         <v>3.7</v>
       </c>
       <c r="I23" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$61</f>
         <v>4</v>
       </c>
       <c r="J23" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$61</f>
         <v>4</v>
       </c>
       <c r="K23" s="90"/>
@@ -19225,23 +17972,18 @@
       </c>
       <c r="T23" s="79"/>
       <c r="U23" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$18</f>
         <v>606.94444444444434</v>
       </c>
       <c r="V23" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$18</f>
         <v>549.44444444444434</v>
       </c>
       <c r="W23" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$18</f>
         <v>523.8888888888888</v>
       </c>
       <c r="X23" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$18</f>
         <v>523.8888888888888</v>
       </c>
       <c r="Y23" s="134">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$18</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z23" s="134"/>
@@ -19284,44 +18026,34 @@
       <c r="D24" s="70" t="s">
         <v>370</v>
       </c>
-      <c r="E24" s="71" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F24" s="70" t="str">
-        <f>[1]COMM!$O$9&amp;","&amp;[1]COMM!$O$12</f>
-        <v>RSDSH_Apt,RSDSC_Apt</v>
+      <c r="E24" s="71" t="s">
+        <v>448</v>
+      </c>
+      <c r="F24" s="70" t="s">
+        <v>800</v>
       </c>
       <c r="G24" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$61</f>
         <v>3.2</v>
       </c>
       <c r="H24" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$61</f>
         <v>3.7</v>
       </c>
       <c r="I24" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$61</f>
         <v>4</v>
       </c>
       <c r="J24" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$61</f>
         <v>4</v>
       </c>
       <c r="K24" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$K$62</f>
         <v>3.2</v>
       </c>
       <c r="L24" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$L$62</f>
         <v>3.7</v>
       </c>
       <c r="M24" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$M$62</f>
         <v>4</v>
       </c>
       <c r="N24" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$N$62</f>
         <v>4</v>
       </c>
       <c r="O24" s="92"/>
@@ -19333,23 +18065,18 @@
       </c>
       <c r="T24" s="80"/>
       <c r="U24" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$19</f>
         <v>637.29166666666663</v>
       </c>
       <c r="V24" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$19</f>
         <v>576.91666666666663</v>
       </c>
       <c r="W24" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$19</f>
         <v>550.08333333333326</v>
       </c>
       <c r="X24" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$19</f>
         <v>550.08333333333326</v>
       </c>
       <c r="Y24" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$19</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z24" s="111"/>
@@ -19392,28 +18119,22 @@
       <c r="D25" s="77" t="s">
         <v>371</v>
       </c>
-      <c r="E25" s="78" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F25" s="77" t="str">
-        <f>[1]COMM!$O$9</f>
-        <v>RSDSH_Apt</v>
+      <c r="E25" s="78" t="s">
+        <v>448</v>
+      </c>
+      <c r="F25" s="77" t="s">
+        <v>410</v>
       </c>
       <c r="G25" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$20</f>
         <v>3.3</v>
       </c>
       <c r="H25" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$20</f>
         <v>3.7</v>
       </c>
       <c r="I25" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$20</f>
         <v>4</v>
       </c>
       <c r="J25" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$20</f>
         <v>4</v>
       </c>
       <c r="K25" s="90"/>
@@ -19429,23 +18150,18 @@
       </c>
       <c r="T25" s="79"/>
       <c r="U25" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$20</f>
         <v>212.19058823529411</v>
       </c>
       <c r="V25" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$20</f>
         <v>212.19058823529411</v>
       </c>
       <c r="W25" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$20</f>
         <v>191.20470588235293</v>
       </c>
       <c r="X25" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$20</f>
         <v>191.20470588235293</v>
       </c>
       <c r="Y25" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$20</f>
         <v>7.0588235294117645</v>
       </c>
       <c r="Z25" s="110"/>
@@ -19488,28 +18204,22 @@
       <c r="D26" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="E26" s="71" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F26" s="70" t="str">
-        <f>[1]COMM!$O$9&amp;","&amp;[1]COMM!$O$15</f>
-        <v>RSDSH_Apt,RSDWH_Apt</v>
+      <c r="E26" s="71" t="s">
+        <v>448</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>799</v>
       </c>
       <c r="G26" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$21</f>
         <v>3.3</v>
       </c>
       <c r="H26" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$21</f>
         <v>3.7</v>
       </c>
       <c r="I26" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$21</f>
         <v>4</v>
       </c>
       <c r="J26" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$21</f>
         <v>4</v>
       </c>
       <c r="K26" s="92"/>
@@ -19517,19 +18227,15 @@
       <c r="M26" s="80"/>
       <c r="N26" s="93"/>
       <c r="O26" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$21</f>
         <v>2.3099999999999996</v>
       </c>
       <c r="P26" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$21</f>
         <v>2.59</v>
       </c>
       <c r="Q26" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$21</f>
         <v>2.8</v>
       </c>
       <c r="R26" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$21</f>
         <v>2.8</v>
       </c>
       <c r="S26" s="101">
@@ -19537,23 +18243,18 @@
       </c>
       <c r="T26" s="80"/>
       <c r="U26" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$21</f>
         <v>382.30823529411765</v>
       </c>
       <c r="V26" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$21</f>
         <v>382.30823529411765</v>
       </c>
       <c r="W26" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$21</f>
         <v>361.32235294117646</v>
       </c>
       <c r="X26" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$21</f>
         <v>361.32235294117646</v>
       </c>
       <c r="Y26" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$21</f>
         <v>7.0588235294117645</v>
       </c>
       <c r="Z26" s="111"/>
@@ -19596,28 +18297,22 @@
       <c r="D27" s="77" t="s">
         <v>373</v>
       </c>
-      <c r="E27" s="78" t="str">
-        <f>[1]SETUP!$B$26&amp;","&amp;[1]SETUP!$B$17</f>
-        <v>RSDELC,RSDRENSOL</v>
-      </c>
-      <c r="F27" s="77" t="str">
-        <f>[1]COMM!$O$9&amp;","&amp;[1]COMM!$O$15</f>
-        <v>RSDSH_Apt,RSDWH_Apt</v>
+      <c r="E27" s="78" t="s">
+        <v>795</v>
+      </c>
+      <c r="F27" s="77" t="s">
+        <v>799</v>
       </c>
       <c r="G27" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$22</f>
         <v>2.7249999999999996</v>
       </c>
       <c r="H27" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$22</f>
         <v>3.0250000000000004</v>
       </c>
       <c r="I27" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$22</f>
         <v>3.25</v>
       </c>
       <c r="J27" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$22</f>
         <v>3.25</v>
       </c>
       <c r="K27" s="90"/>
@@ -19625,19 +18320,15 @@
       <c r="M27" s="79"/>
       <c r="N27" s="91"/>
       <c r="O27" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$22</f>
         <v>1.393</v>
       </c>
       <c r="P27" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$22</f>
         <v>1.4770000000000001</v>
       </c>
       <c r="Q27" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$22</f>
         <v>1.54</v>
       </c>
       <c r="R27" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$22</f>
         <v>1.54</v>
       </c>
       <c r="S27" s="102">
@@ -19645,23 +18336,18 @@
       </c>
       <c r="T27" s="79"/>
       <c r="U27" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$22</f>
         <v>706.69359398496226</v>
       </c>
       <c r="V27" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$22</f>
         <v>682.09990977443601</v>
       </c>
       <c r="W27" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$22</f>
         <v>560.47566917293238</v>
       </c>
       <c r="X27" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$22</f>
         <v>560.47566917293238</v>
       </c>
       <c r="Y27" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$22</f>
         <v>18.980392156862745</v>
       </c>
       <c r="Z27" s="110"/>
@@ -19708,28 +18394,22 @@
       <c r="D28" s="70" t="s">
         <v>374</v>
       </c>
-      <c r="E28" s="71" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F28" s="70" t="str">
-        <f>[1]COMM!$O$9</f>
-        <v>RSDSH_Apt</v>
+      <c r="E28" s="71" t="s">
+        <v>448</v>
+      </c>
+      <c r="F28" s="70" t="s">
+        <v>410</v>
       </c>
       <c r="G28" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$23</f>
         <v>3.92</v>
       </c>
       <c r="H28" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$23</f>
         <v>3.92</v>
       </c>
       <c r="I28" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$23</f>
         <v>3.92</v>
       </c>
       <c r="J28" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$23</f>
         <v>3.92</v>
       </c>
       <c r="K28" s="92"/>
@@ -19745,23 +18425,18 @@
       </c>
       <c r="T28" s="80"/>
       <c r="U28" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$23</f>
         <v>806.67391304347848</v>
       </c>
       <c r="V28" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$23</f>
         <v>745.95652173913049</v>
       </c>
       <c r="W28" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$23</f>
         <v>685.23913043478274</v>
       </c>
       <c r="X28" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$23</f>
         <v>685.23913043478274</v>
       </c>
       <c r="Y28" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$23</f>
         <v>20</v>
       </c>
       <c r="Z28" s="111"/>
@@ -19804,44 +18479,34 @@
       <c r="D29" s="77" t="s">
         <v>375</v>
       </c>
-      <c r="E29" s="78" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F29" s="77" t="str">
-        <f>[1]COMM!$O$9&amp;","&amp;[1]COMM!$O$12</f>
-        <v>RSDSH_Apt,RSDSC_Apt</v>
+      <c r="E29" s="78" t="s">
+        <v>448</v>
+      </c>
+      <c r="F29" s="77" t="s">
+        <v>800</v>
       </c>
       <c r="G29" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$24</f>
         <v>3.92</v>
       </c>
       <c r="H29" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$24</f>
         <v>3.92</v>
       </c>
       <c r="I29" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$24</f>
         <v>3.92</v>
       </c>
       <c r="J29" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$24</f>
         <v>3.92</v>
       </c>
       <c r="K29" s="90">
-        <f>'[2]JRC Summary'!$AN$20</f>
         <v>4.5</v>
       </c>
       <c r="L29" s="79">
-        <f>'[2]JRC Summary'!$AO$20</f>
         <v>4.5</v>
       </c>
       <c r="M29" s="79">
-        <f>'[2]JRC Summary'!$AP$20</f>
         <v>4.5</v>
       </c>
       <c r="N29" s="91">
-        <f>'[2]JRC Summary'!$AQ$20</f>
         <v>4.5</v>
       </c>
       <c r="O29" s="90"/>
@@ -19853,23 +18518,18 @@
       </c>
       <c r="T29" s="79"/>
       <c r="U29" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$24</f>
         <v>963.84782608695673</v>
       </c>
       <c r="V29" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$24</f>
         <v>903.13043478260863</v>
       </c>
       <c r="W29" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$24</f>
         <v>842.41304347826099</v>
       </c>
       <c r="X29" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$24</f>
         <v>842.41304347826099</v>
       </c>
       <c r="Y29" s="135">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$24</f>
         <v>20</v>
       </c>
       <c r="Z29" s="135"/>
@@ -19966,28 +18626,22 @@
       <c r="D31" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="E31" s="138" t="str">
-        <f>[1]SETUP!$B$16</f>
-        <v>RSDGASNAT</v>
-      </c>
-      <c r="F31" s="138" t="str">
-        <f>[1]COMM!$O$9&amp;","&amp;[1]COMM!$O$15</f>
-        <v>RSDSH_Apt,RSDWH_Apt</v>
+      <c r="E31" s="138" t="s">
+        <v>451</v>
+      </c>
+      <c r="F31" s="138" t="s">
+        <v>799</v>
       </c>
       <c r="G31" s="94">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$25</f>
         <v>1.45</v>
       </c>
       <c r="H31" s="95">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$25</f>
         <v>1.7</v>
       </c>
       <c r="I31" s="95">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$25</f>
         <v>1.7</v>
       </c>
       <c r="J31" s="96">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$25</f>
         <v>1.7</v>
       </c>
       <c r="K31" s="94"/>
@@ -20015,23 +18669,18 @@
       </c>
       <c r="T31" s="96"/>
       <c r="U31" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$25</f>
         <v>971.77777777777783</v>
       </c>
       <c r="V31" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$25</f>
         <v>860.66666666666663</v>
       </c>
       <c r="W31" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$25</f>
         <v>860.66666666666663</v>
       </c>
       <c r="X31" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$25</f>
         <v>860.66666666666663</v>
       </c>
       <c r="Y31" s="134">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$25</f>
         <v>13.055555555555555</v>
       </c>
       <c r="Z31" s="134"/>
@@ -20074,28 +18723,22 @@
       <c r="D32" s="74" t="s">
         <v>378</v>
       </c>
-      <c r="E32" s="75" t="str">
-        <f>[1]SETUP!$B$16</f>
-        <v>RSDGASNAT</v>
-      </c>
-      <c r="F32" s="75" t="str">
-        <f>[1]COMM!$O$9&amp;","&amp;[1]COMM!$O$15</f>
-        <v>RSDSH_Apt,RSDWH_Apt</v>
+      <c r="E32" s="75" t="s">
+        <v>451</v>
+      </c>
+      <c r="F32" s="75" t="s">
+        <v>799</v>
       </c>
       <c r="G32" s="97">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$26</f>
         <v>1.55</v>
       </c>
       <c r="H32" s="98">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$26</f>
         <v>1.55</v>
       </c>
       <c r="I32" s="98">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$26</f>
         <v>1.6</v>
       </c>
       <c r="J32" s="99">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$26</f>
         <v>1.6</v>
       </c>
       <c r="K32" s="97"/>
@@ -20123,23 +18766,18 @@
       </c>
       <c r="T32" s="99"/>
       <c r="U32" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$26</f>
         <v>1065.68</v>
       </c>
       <c r="V32" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$26</f>
         <v>1065.68</v>
       </c>
       <c r="W32" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$26</f>
         <v>1065.68</v>
       </c>
       <c r="X32" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$26</f>
         <v>1065.68</v>
       </c>
       <c r="Y32" s="112">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$26</f>
         <v>4.7</v>
       </c>
       <c r="Z32" s="112"/>
@@ -20236,13 +18874,11 @@
       <c r="D34" s="129" t="s">
         <v>402</v>
       </c>
-      <c r="E34" s="173" t="str">
-        <f>[1]SETUP!$B$26&amp;","&amp;[1]SETUP!$B$16</f>
-        <v>RSDELC,RSDGASNAT</v>
-      </c>
-      <c r="F34" s="77" t="str">
-        <f>[1]COMM!$O$9&amp;","&amp;[1]COMM!$O$15</f>
-        <v>RSDSH_Apt,RSDWH_Apt</v>
+      <c r="E34" s="173" t="s">
+        <v>796</v>
+      </c>
+      <c r="F34" s="77" t="s">
+        <v>799</v>
       </c>
       <c r="G34" s="97">
         <v>3.1</v>
@@ -20393,28 +19029,22 @@
       <c r="D36" s="67" t="s">
         <v>380</v>
       </c>
-      <c r="E36" s="138" t="str">
-        <f>[1]SETUP!$B$27</f>
-        <v>RSDHET</v>
-      </c>
-      <c r="F36" s="138" t="str">
-        <f>[1]COMM!$O$9&amp;","&amp;[1]COMM!$O$15</f>
-        <v>RSDSH_Apt,RSDWH_Apt</v>
+      <c r="E36" s="138" t="s">
+        <v>797</v>
+      </c>
+      <c r="F36" s="138" t="s">
+        <v>799</v>
       </c>
       <c r="G36" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$28</f>
         <v>0.98</v>
       </c>
       <c r="H36" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$28</f>
         <v>0.98</v>
       </c>
       <c r="I36" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$28</f>
         <v>0.98</v>
       </c>
       <c r="J36" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$28</f>
         <v>0.98</v>
       </c>
       <c r="K36" s="90"/>
@@ -20422,44 +19052,34 @@
       <c r="M36" s="79"/>
       <c r="N36" s="91"/>
       <c r="O36" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$28</f>
         <v>0.98</v>
       </c>
       <c r="P36" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$28</f>
         <v>0.98</v>
       </c>
       <c r="Q36" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$28</f>
         <v>0.98</v>
       </c>
       <c r="R36" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$28</f>
         <v>0.98</v>
       </c>
       <c r="S36" s="100">
-        <f>'[2]RSD_Heat&amp;Cool'!$T$29</f>
         <v>20</v>
       </c>
       <c r="T36" s="96"/>
       <c r="U36" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$28</f>
         <v>250</v>
       </c>
       <c r="V36" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$28</f>
         <v>250</v>
       </c>
       <c r="W36" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$28</f>
         <v>250</v>
       </c>
       <c r="X36" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$28</f>
         <v>250</v>
       </c>
       <c r="Y36" s="134">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$28</f>
         <v>15</v>
       </c>
       <c r="Z36" s="134"/>
@@ -20502,28 +19122,22 @@
       <c r="D37" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="E37" s="75" t="str">
-        <f>[1]SETUP!$B$27</f>
-        <v>RSDHET</v>
-      </c>
-      <c r="F37" s="75" t="str">
-        <f>[1]COMM!$O$9&amp;","&amp;[1]COMM!$O$15</f>
-        <v>RSDSH_Apt,RSDWH_Apt</v>
+      <c r="E37" s="75" t="s">
+        <v>797</v>
+      </c>
+      <c r="F37" s="75" t="s">
+        <v>799</v>
       </c>
       <c r="G37" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$29</f>
         <v>0.98</v>
       </c>
       <c r="H37" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$29</f>
         <v>0.98</v>
       </c>
       <c r="I37" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$29</f>
         <v>0.98</v>
       </c>
       <c r="J37" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$29</f>
         <v>0.98</v>
       </c>
       <c r="K37" s="92"/>
@@ -20531,44 +19145,34 @@
       <c r="M37" s="80"/>
       <c r="N37" s="93"/>
       <c r="O37" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$29</f>
         <v>0.98</v>
       </c>
       <c r="P37" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$29</f>
         <v>0.98</v>
       </c>
       <c r="Q37" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$29</f>
         <v>0.98</v>
       </c>
       <c r="R37" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$29</f>
         <v>0.98</v>
       </c>
       <c r="S37" s="103">
-        <f>'[2]RSD_Heat&amp;Cool'!$T$28</f>
         <v>20</v>
       </c>
       <c r="T37" s="99"/>
       <c r="U37" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$29</f>
         <v>250</v>
       </c>
       <c r="V37" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$29</f>
         <v>250</v>
       </c>
       <c r="W37" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$29</f>
         <v>250</v>
       </c>
       <c r="X37" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$29</f>
         <v>250</v>
       </c>
       <c r="Y37" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$29</f>
         <v>15</v>
       </c>
       <c r="Z37" s="111"/>
@@ -20646,13 +19250,11 @@
       <c r="D39" s="67" t="s">
         <v>383</v>
       </c>
-      <c r="E39" s="138" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F39" s="67" t="str">
-        <f>[1]COMM!$O$15</f>
-        <v>RSDWH_Apt</v>
+      <c r="E39" s="138" t="s">
+        <v>448</v>
+      </c>
+      <c r="F39" s="67" t="s">
+        <v>412</v>
       </c>
       <c r="G39" s="90"/>
       <c r="H39" s="79"/>
@@ -20663,19 +19265,15 @@
       <c r="M39" s="79"/>
       <c r="N39" s="91"/>
       <c r="O39" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$74</f>
         <v>1</v>
       </c>
       <c r="P39" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$74</f>
         <v>1</v>
       </c>
       <c r="Q39" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$74</f>
         <v>1</v>
       </c>
       <c r="R39" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$74</f>
         <v>1</v>
       </c>
       <c r="S39" s="100">
@@ -20683,23 +19281,18 @@
       </c>
       <c r="T39" s="96"/>
       <c r="U39" s="66">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$74</f>
         <v>185</v>
       </c>
       <c r="V39" s="67">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$74</f>
         <v>185</v>
       </c>
       <c r="W39" s="67">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$74</f>
         <v>185</v>
       </c>
       <c r="X39" s="104">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$74</f>
         <v>185</v>
       </c>
       <c r="Y39" s="134">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$74</f>
         <v>25</v>
       </c>
       <c r="Z39" s="134"/>
@@ -20723,13 +19316,11 @@
       <c r="D40" s="70" t="s">
         <v>384</v>
       </c>
-      <c r="E40" s="71" t="str">
-        <f>[1]SETUP!$B$17</f>
-        <v>RSDRENSOL</v>
-      </c>
-      <c r="F40" s="70" t="str">
-        <f>[1]COMM!$O$15</f>
-        <v>RSDWH_Apt</v>
+      <c r="E40" s="71" t="s">
+        <v>798</v>
+      </c>
+      <c r="F40" s="70" t="s">
+        <v>412</v>
       </c>
       <c r="G40" s="92"/>
       <c r="H40" s="80"/>
@@ -20740,47 +19331,36 @@
       <c r="M40" s="80"/>
       <c r="N40" s="93"/>
       <c r="O40" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$75</f>
         <v>1</v>
       </c>
       <c r="P40" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$75</f>
         <v>1</v>
       </c>
       <c r="Q40" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$75</f>
         <v>1</v>
       </c>
       <c r="R40" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$75</f>
         <v>1</v>
       </c>
       <c r="S40" s="101">
-        <f>'[2]RSD_Heat&amp;Cool'!$T$75</f>
         <v>25</v>
       </c>
       <c r="T40" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$U$75</f>
         <v>30</v>
       </c>
       <c r="U40" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$75</f>
         <v>1582.3760000000002</v>
       </c>
       <c r="V40" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$75</f>
         <v>1514.231</v>
       </c>
       <c r="W40" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$75</f>
         <v>1214.3930000000003</v>
       </c>
       <c r="X40" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$75</f>
         <v>1214.3930000000003</v>
       </c>
       <c r="Y40" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$75</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z40" s="111"/>
@@ -20804,13 +19384,11 @@
       <c r="D41" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="E41" s="78" t="str">
-        <f>[1]SETUP!$B$16</f>
-        <v>RSDGASNAT</v>
-      </c>
-      <c r="F41" s="77" t="str">
-        <f>[1]COMM!$O$15</f>
-        <v>RSDWH_Apt</v>
+      <c r="E41" s="78" t="s">
+        <v>451</v>
+      </c>
+      <c r="F41" s="77" t="s">
+        <v>412</v>
       </c>
       <c r="G41" s="90"/>
       <c r="H41" s="79"/>
@@ -20821,44 +19399,34 @@
       <c r="M41" s="79"/>
       <c r="N41" s="91"/>
       <c r="O41" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="P41" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q41" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="R41" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="S41" s="102">
-        <f>'[2]RSD_Heat&amp;Cool'!$T$76</f>
         <v>20</v>
       </c>
       <c r="T41" s="91"/>
       <c r="U41" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V41" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W41" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X41" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y41" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$76</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z41" s="110"/>
@@ -20882,13 +19450,11 @@
       <c r="D42" s="70" t="s">
         <v>385</v>
       </c>
-      <c r="E42" s="71" t="str">
-        <f>[1]SETUP!$B$18</f>
-        <v>RSDBIOWOO</v>
-      </c>
-      <c r="F42" s="70" t="str">
-        <f>[1]COMM!$O$15</f>
-        <v>RSDWH_Apt</v>
+      <c r="E42" s="71" t="s">
+        <v>794</v>
+      </c>
+      <c r="F42" s="70" t="s">
+        <v>412</v>
       </c>
       <c r="G42" s="92"/>
       <c r="H42" s="80"/>
@@ -20899,44 +19465,34 @@
       <c r="M42" s="80"/>
       <c r="N42" s="93"/>
       <c r="O42" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="P42" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="Q42" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="R42" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="S42" s="101">
-        <f>'[2]RSD_Heat&amp;Cool'!$T$77</f>
         <v>20</v>
       </c>
       <c r="T42" s="93"/>
       <c r="U42" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="V42" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="W42" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="X42" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="Y42" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$77</f>
         <v>8.5714285714285712</v>
       </c>
       <c r="Z42" s="111"/>
@@ -20960,13 +19516,11 @@
       <c r="D43" s="139" t="s">
         <v>387</v>
       </c>
-      <c r="E43" s="171" t="str">
-        <f>[1]SETUP!$B$10</f>
-        <v>RSDOILLPG</v>
-      </c>
-      <c r="F43" s="139" t="str">
-        <f>[1]COMM!$O$15</f>
-        <v>RSDWH_Apt</v>
+      <c r="E43" s="171" t="s">
+        <v>452</v>
+      </c>
+      <c r="F43" s="139" t="s">
+        <v>412</v>
       </c>
       <c r="G43" s="90"/>
       <c r="H43" s="79"/>
@@ -20977,44 +19531,34 @@
       <c r="M43" s="79"/>
       <c r="N43" s="91"/>
       <c r="O43" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="P43" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q43" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="R43" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="S43" s="150">
-        <f>'[2]RSD_Heat&amp;Cool'!$T$78</f>
         <v>20</v>
       </c>
       <c r="T43" s="151"/>
       <c r="U43" s="143">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V43" s="139">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W43" s="139">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X43" s="144">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y43" s="135">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$78</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z43" s="135"/>
@@ -21073,32 +19617,26 @@
       <c r="D45" s="146" t="s">
         <v>389</v>
       </c>
-      <c r="E45" s="169" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F45" s="170" t="str">
-        <f>[1]COMM!$O$12</f>
-        <v>RSDSC_Apt</v>
+      <c r="E45" s="169" t="s">
+        <v>448</v>
+      </c>
+      <c r="F45" s="170" t="s">
+        <v>411</v>
       </c>
       <c r="G45" s="165"/>
       <c r="H45" s="166"/>
       <c r="I45" s="166"/>
       <c r="J45" s="149"/>
       <c r="K45" s="165">
-        <f>'[2]RSD_Heat&amp;Cool'!$K$80</f>
         <v>3.2</v>
       </c>
       <c r="L45" s="166">
-        <f>'[2]RSD_Heat&amp;Cool'!$L$80</f>
         <v>3.7</v>
       </c>
       <c r="M45" s="166">
-        <f>'[2]RSD_Heat&amp;Cool'!$M$80</f>
         <v>4</v>
       </c>
       <c r="N45" s="149">
-        <f>'[2]RSD_Heat&amp;Cool'!$N$80</f>
         <v>4</v>
       </c>
       <c r="O45" s="165"/>
@@ -21110,23 +19648,18 @@
       </c>
       <c r="T45" s="149"/>
       <c r="U45" s="145">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$80</f>
         <v>873.99999999999977</v>
       </c>
       <c r="V45" s="146">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$80</f>
         <v>791.19999999999993</v>
       </c>
       <c r="W45" s="146">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$80</f>
         <v>754.39999999999986</v>
       </c>
       <c r="X45" s="147">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$80</f>
         <v>754.39999999999986</v>
       </c>
       <c r="Y45" s="142">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$80</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z45" s="142"/>
@@ -21481,28 +20014,22 @@
       <c r="D54" s="77" t="s">
         <v>352</v>
       </c>
-      <c r="E54" s="78" t="str">
-        <f>[1]SETUP!$B$12</f>
-        <v>RSDOILKER</v>
-      </c>
-      <c r="F54" s="77" t="str">
-        <f>[1]COMM!$O$10</f>
-        <v>RSDSH_Att</v>
+      <c r="E54" s="78" t="s">
+        <v>789</v>
+      </c>
+      <c r="F54" s="77" t="s">
+        <v>433</v>
       </c>
       <c r="G54" s="90">
-        <f>'[2]JRC Summary'!AD53</f>
         <v>0.97499999999999998</v>
       </c>
       <c r="H54" s="79">
-        <f>'[2]JRC Summary'!AE53</f>
         <v>0.98499999999999999</v>
       </c>
       <c r="I54" s="79">
-        <f>'[2]JRC Summary'!AF53</f>
         <v>0</v>
       </c>
       <c r="J54" s="91">
-        <f>'[2]JRC Summary'!AG53</f>
         <v>0</v>
       </c>
       <c r="K54" s="94"/>
@@ -21518,23 +20045,18 @@
       </c>
       <c r="T54" s="68"/>
       <c r="U54" s="66">
-        <f>'[2]RSD_Heat&amp;Cool'!$AA$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="V54" s="67">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="W54" s="67">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="X54" s="104">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="Y54" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$5</f>
         <v>1.3043478260869565</v>
       </c>
       <c r="Z54" s="113"/>
@@ -21577,28 +20099,22 @@
       <c r="D55" s="70" t="s">
         <v>353</v>
       </c>
-      <c r="E55" s="71" t="str">
-        <f>[1]SETUP!$B$12</f>
-        <v>RSDOILKER</v>
-      </c>
-      <c r="F55" s="70" t="str">
-        <f>[1]COMM!$O$10&amp;","&amp;[1]COMM!$O$16</f>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="E55" s="71" t="s">
+        <v>789</v>
+      </c>
+      <c r="F55" s="70" t="s">
+        <v>801</v>
       </c>
       <c r="G55" s="92">
-        <f>'[2]JRC Summary'!AD53</f>
         <v>0.97499999999999998</v>
       </c>
       <c r="H55" s="80">
-        <f>'[2]JRC Summary'!AE53</f>
         <v>0.98499999999999999</v>
       </c>
       <c r="I55" s="80">
-        <f>'[2]JRC Summary'!AF53</f>
         <v>0</v>
       </c>
       <c r="J55" s="93">
-        <f>'[2]JRC Summary'!AG53</f>
         <v>0</v>
       </c>
       <c r="K55" s="92"/>
@@ -21626,23 +20142,18 @@
       </c>
       <c r="T55" s="72"/>
       <c r="U55" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AA$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="V55" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="W55" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="X55" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="Y55" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$6</f>
         <v>1.3043478260869565</v>
       </c>
       <c r="Z55" s="114"/>
@@ -21685,28 +20196,22 @@
       <c r="D56" s="77" t="s">
         <v>354</v>
       </c>
-      <c r="E56" s="78" t="str">
-        <f>[1]SETUP!$B$17&amp;","&amp;[1]SETUP!$B$12</f>
-        <v>RSDRENSOL,RSDOILKER</v>
-      </c>
-      <c r="F56" s="77" t="str">
-        <f>[1]COMM!$O$10&amp;","&amp;[1]COMM!$O$16</f>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="E56" s="78" t="s">
+        <v>790</v>
+      </c>
+      <c r="F56" s="77" t="s">
+        <v>801</v>
       </c>
       <c r="G56" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="H56" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="I56" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="J56" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="K56" s="90"/>
@@ -21714,19 +20219,15 @@
       <c r="M56" s="79"/>
       <c r="N56" s="91"/>
       <c r="O56" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="P56" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="Q56" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="R56" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="S56" s="102">
@@ -21790,28 +20291,22 @@
       <c r="D57" s="70" t="s">
         <v>358</v>
       </c>
-      <c r="E57" s="71" t="str">
-        <f>[1]SETUP!$B$18&amp;","&amp;[1]SETUP!$B$12</f>
-        <v>RSDBIOWOO,RSDOILKER</v>
-      </c>
-      <c r="F57" s="70" t="str">
-        <f>[1]COMM!$O$10&amp;","&amp;[1]COMM!$O$16</f>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="E57" s="71" t="s">
+        <v>791</v>
+      </c>
+      <c r="F57" s="70" t="s">
+        <v>801</v>
       </c>
       <c r="G57" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$10</f>
         <v>0.80079999999999996</v>
       </c>
       <c r="H57" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="I57" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="J57" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="K57" s="92"/>
@@ -21851,7 +20346,6 @@
         <v>93.035670457334589</v>
       </c>
       <c r="Y57" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$10</f>
         <v>5.3472429210134127</v>
       </c>
       <c r="Z57" s="114"/>
@@ -21898,28 +20392,22 @@
       <c r="D58" s="77" t="s">
         <v>351</v>
       </c>
-      <c r="E58" s="78" t="str">
-        <f>[1]SETUP!$B$16</f>
-        <v>RSDGASNAT</v>
-      </c>
-      <c r="F58" s="77" t="str">
-        <f>[1]COMM!$O$10</f>
-        <v>RSDSH_Att</v>
+      <c r="E58" s="78" t="s">
+        <v>451</v>
+      </c>
+      <c r="F58" s="77" t="s">
+        <v>433</v>
       </c>
       <c r="G58" s="90">
-        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H58" s="79">
-        <f>'[2]JRC Summary'!$AD$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I58" s="79">
-        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J58" s="91">
-        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K58" s="90"/>
@@ -21935,23 +20423,18 @@
       </c>
       <c r="T58" s="89"/>
       <c r="U58" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AA$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V58" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W58" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X58" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y58" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$7</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z58" s="113"/>
@@ -21994,28 +20477,22 @@
       <c r="D59" s="70" t="s">
         <v>355</v>
       </c>
-      <c r="E59" s="71" t="str">
-        <f>[1]SETUP!$B$16</f>
-        <v>RSDGASNAT</v>
-      </c>
-      <c r="F59" s="70" t="str">
-        <f>[1]COMM!$O$10&amp;","&amp;[1]COMM!$O$16</f>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="E59" s="71" t="s">
+        <v>451</v>
+      </c>
+      <c r="F59" s="70" t="s">
+        <v>801</v>
       </c>
       <c r="G59" s="92">
-        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H59" s="80">
-        <f>'[2]JRC Summary'!$AD$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I59" s="80">
-        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J59" s="93">
-        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K59" s="92"/>
@@ -22023,19 +20500,15 @@
       <c r="M59" s="80"/>
       <c r="N59" s="93"/>
       <c r="O59" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="P59" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q59" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="R59" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="S59" s="101">
@@ -22043,23 +20516,18 @@
       </c>
       <c r="T59" s="72"/>
       <c r="U59" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AA$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="V59" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="W59" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="X59" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="Y59" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$8</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z59" s="114"/>
@@ -22102,28 +20570,22 @@
       <c r="D60" s="77" t="s">
         <v>356</v>
       </c>
-      <c r="E60" s="78" t="str">
-        <f>[1]SETUP!$B$17&amp;","&amp;[1]SETUP!$B$16</f>
-        <v>RSDRENSOL,RSDGASNAT</v>
-      </c>
-      <c r="F60" s="77" t="str">
-        <f>[1]COMM!$O$10&amp;","&amp;[1]COMM!$O$16</f>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="E60" s="78" t="s">
+        <v>792</v>
+      </c>
+      <c r="F60" s="77" t="s">
+        <v>801</v>
       </c>
       <c r="G60" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="H60" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="I60" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="J60" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="K60" s="90"/>
@@ -22131,19 +20593,15 @@
       <c r="M60" s="79"/>
       <c r="N60" s="91"/>
       <c r="O60" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="P60" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="Q60" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="R60" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="S60" s="102">
@@ -22151,23 +20609,18 @@
       </c>
       <c r="T60" s="89"/>
       <c r="U60" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AA$9</f>
         <v>325.38126012155396</v>
       </c>
       <c r="V60" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$9</f>
         <v>300.73704094347181</v>
       </c>
       <c r="W60" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$9</f>
         <v>251.44860258730745</v>
       </c>
       <c r="X60" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$9</f>
         <v>251.44860258730745</v>
       </c>
       <c r="Y60" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$9</f>
         <v>14.316939890710385</v>
       </c>
       <c r="Z60" s="113"/>
@@ -22214,28 +20667,22 @@
       <c r="D61" s="70" t="s">
         <v>357</v>
       </c>
-      <c r="E61" s="71" t="str">
-        <f>[1]SETUP!$B$18&amp;","&amp;[1]SETUP!$B$16</f>
-        <v>RSDBIOWOO,RSDGASNAT</v>
-      </c>
-      <c r="F61" s="70" t="str">
-        <f>[1]COMM!$O$10&amp;","&amp;[1]COMM!$O$16</f>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="E61" s="71" t="s">
+        <v>793</v>
+      </c>
+      <c r="F61" s="70" t="s">
+        <v>801</v>
       </c>
       <c r="G61" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$10</f>
         <v>0.80079999999999996</v>
       </c>
       <c r="H61" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="I61" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="J61" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="K61" s="92"/>
@@ -22263,23 +20710,18 @@
       </c>
       <c r="T61" s="72"/>
       <c r="U61" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AA$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="V61" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="W61" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="X61" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="Y61" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$10</f>
         <v>5.3472429210134127</v>
       </c>
       <c r="Z61" s="114"/>
@@ -22326,28 +20768,22 @@
       <c r="D62" s="77" t="s">
         <v>361</v>
       </c>
-      <c r="E62" s="78" t="str">
-        <f>[1]SETUP!$B$10</f>
-        <v>RSDOILLPG</v>
-      </c>
-      <c r="F62" s="77" t="str">
-        <f>[1]COMM!$O$10</f>
-        <v>RSDSH_Att</v>
+      <c r="E62" s="78" t="s">
+        <v>452</v>
+      </c>
+      <c r="F62" s="77" t="s">
+        <v>433</v>
       </c>
       <c r="G62" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H62" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I62" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J62" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K62" s="90"/>
@@ -22363,23 +20799,18 @@
       </c>
       <c r="T62" s="89"/>
       <c r="U62" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V62" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W62" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X62" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y62" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$11</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z62" s="113"/>
@@ -22422,28 +20853,22 @@
       <c r="D63" s="70" t="s">
         <v>362</v>
       </c>
-      <c r="E63" s="71" t="str">
-        <f>[1]SETUP!$B$10</f>
-        <v>RSDOILLPG</v>
-      </c>
-      <c r="F63" s="70" t="str">
-        <f>[1]COMM!$O$10&amp;","&amp;[1]COMM!$O$16</f>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="E63" s="71" t="s">
+        <v>452</v>
+      </c>
+      <c r="F63" s="70" t="s">
+        <v>801</v>
       </c>
       <c r="G63" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H63" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I63" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J63" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K63" s="92"/>
@@ -22471,23 +20896,18 @@
       </c>
       <c r="T63" s="72"/>
       <c r="U63" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="V63" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="W63" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="X63" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="Y63" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$12</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z63" s="114"/>
@@ -22530,28 +20950,22 @@
       <c r="D64" s="77" t="s">
         <v>363</v>
       </c>
-      <c r="E64" s="78" t="str">
-        <f>[1]SETUP!$B$18</f>
-        <v>RSDBIOWOO</v>
-      </c>
-      <c r="F64" s="77" t="str">
-        <f>[1]COMM!$O$10</f>
-        <v>RSDSH_Att</v>
+      <c r="E64" s="78" t="s">
+        <v>794</v>
+      </c>
+      <c r="F64" s="77" t="s">
+        <v>433</v>
       </c>
       <c r="G64" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="H64" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="I64" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="J64" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="K64" s="90"/>
@@ -22571,7 +20985,6 @@
       <c r="W64" s="77"/>
       <c r="X64" s="106"/>
       <c r="Y64" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$13</f>
         <v>8.5714285714285712</v>
       </c>
       <c r="Z64" s="113"/>
@@ -22614,28 +21027,22 @@
       <c r="D65" s="74" t="s">
         <v>364</v>
       </c>
-      <c r="E65" s="75" t="str">
-        <f>[1]SETUP!$B$18</f>
-        <v>RSDBIOWOO</v>
-      </c>
-      <c r="F65" s="74" t="str">
-        <f>[1]COMM!$O$10&amp;","&amp;[1]COMM!$O$16</f>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="E65" s="75" t="s">
+        <v>794</v>
+      </c>
+      <c r="F65" s="74" t="s">
+        <v>801</v>
       </c>
       <c r="G65" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="H65" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="I65" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="J65" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="K65" s="97"/>
@@ -22667,7 +21074,6 @@
       <c r="W65" s="74"/>
       <c r="X65" s="107"/>
       <c r="Y65" s="112">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$14</f>
         <v>8.5714285714285712</v>
       </c>
       <c r="Z65" s="115"/>
@@ -22764,28 +21170,22 @@
       <c r="D67" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="E67" s="71" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F67" s="70" t="str">
-        <f>[1]COMM!$O$10</f>
-        <v>RSDSH_Att</v>
+      <c r="E67" s="71" t="s">
+        <v>448</v>
+      </c>
+      <c r="F67" s="70" t="s">
+        <v>433</v>
       </c>
       <c r="G67" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$16</f>
         <v>1</v>
       </c>
       <c r="H67" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$16</f>
         <v>1</v>
       </c>
       <c r="I67" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$16</f>
         <v>1</v>
       </c>
       <c r="J67" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$16</f>
         <v>1</v>
       </c>
       <c r="K67" s="123"/>
@@ -22801,23 +21201,18 @@
       </c>
       <c r="T67" s="127"/>
       <c r="U67" s="128">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$16</f>
         <v>185</v>
       </c>
       <c r="V67" s="129">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$16</f>
         <v>185</v>
       </c>
       <c r="W67" s="129">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$16</f>
         <v>185</v>
       </c>
       <c r="X67" s="130">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$16</f>
         <v>185</v>
       </c>
       <c r="Y67" s="131">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$16</f>
         <v>25</v>
       </c>
       <c r="Z67" s="132"/>
@@ -22914,28 +21309,22 @@
       <c r="D69" s="77" t="s">
         <v>369</v>
       </c>
-      <c r="E69" s="78" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F69" s="77" t="str">
-        <f>[1]COMM!$O$10</f>
-        <v>RSDSH_Att</v>
+      <c r="E69" s="78" t="s">
+        <v>448</v>
+      </c>
+      <c r="F69" s="77" t="s">
+        <v>433</v>
       </c>
       <c r="G69" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$61</f>
         <v>3.2</v>
       </c>
       <c r="H69" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$61</f>
         <v>3.7</v>
       </c>
       <c r="I69" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$61</f>
         <v>4</v>
       </c>
       <c r="J69" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$61</f>
         <v>4</v>
       </c>
       <c r="K69" s="90"/>
@@ -22951,23 +21340,18 @@
       </c>
       <c r="T69" s="79"/>
       <c r="U69" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$18</f>
         <v>606.94444444444434</v>
       </c>
       <c r="V69" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$18</f>
         <v>549.44444444444434</v>
       </c>
       <c r="W69" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$18</f>
         <v>523.8888888888888</v>
       </c>
       <c r="X69" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$18</f>
         <v>523.8888888888888</v>
       </c>
       <c r="Y69" s="134">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$18</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z69" s="134"/>
@@ -23010,44 +21394,34 @@
       <c r="D70" s="70" t="s">
         <v>370</v>
       </c>
-      <c r="E70" s="71" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F70" s="70" t="str">
-        <f>[1]COMM!$O$10&amp;","&amp;[1]COMM!$O$13</f>
-        <v>RSDSH_Att,RSDSC_Att</v>
+      <c r="E70" s="71" t="s">
+        <v>448</v>
+      </c>
+      <c r="F70" s="70" t="s">
+        <v>802</v>
       </c>
       <c r="G70" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$61</f>
         <v>3.2</v>
       </c>
       <c r="H70" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$61</f>
         <v>3.7</v>
       </c>
       <c r="I70" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$61</f>
         <v>4</v>
       </c>
       <c r="J70" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$61</f>
         <v>4</v>
       </c>
       <c r="K70" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$K$62</f>
         <v>3.2</v>
       </c>
       <c r="L70" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$L$62</f>
         <v>3.7</v>
       </c>
       <c r="M70" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$M$62</f>
         <v>4</v>
       </c>
       <c r="N70" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$N$62</f>
         <v>4</v>
       </c>
       <c r="O70" s="92"/>
@@ -23059,23 +21433,18 @@
       </c>
       <c r="T70" s="80"/>
       <c r="U70" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$19</f>
         <v>637.29166666666663</v>
       </c>
       <c r="V70" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$19</f>
         <v>576.91666666666663</v>
       </c>
       <c r="W70" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$19</f>
         <v>550.08333333333326</v>
       </c>
       <c r="X70" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$19</f>
         <v>550.08333333333326</v>
       </c>
       <c r="Y70" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$19</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z70" s="111"/>
@@ -23118,28 +21487,22 @@
       <c r="D71" s="77" t="s">
         <v>371</v>
       </c>
-      <c r="E71" s="78" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F71" s="77" t="str">
-        <f>[1]COMM!$O$10</f>
-        <v>RSDSH_Att</v>
+      <c r="E71" s="78" t="s">
+        <v>448</v>
+      </c>
+      <c r="F71" s="77" t="s">
+        <v>433</v>
       </c>
       <c r="G71" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$20</f>
         <v>3.3</v>
       </c>
       <c r="H71" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$20</f>
         <v>3.7</v>
       </c>
       <c r="I71" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$20</f>
         <v>4</v>
       </c>
       <c r="J71" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$20</f>
         <v>4</v>
       </c>
       <c r="K71" s="90"/>
@@ -23155,23 +21518,18 @@
       </c>
       <c r="T71" s="79"/>
       <c r="U71" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$20</f>
         <v>212.19058823529411</v>
       </c>
       <c r="V71" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$20</f>
         <v>212.19058823529411</v>
       </c>
       <c r="W71" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$20</f>
         <v>191.20470588235293</v>
       </c>
       <c r="X71" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$20</f>
         <v>191.20470588235293</v>
       </c>
       <c r="Y71" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$20</f>
         <v>7.0588235294117645</v>
       </c>
       <c r="Z71" s="110"/>
@@ -23214,28 +21572,22 @@
       <c r="D72" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="E72" s="71" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F72" s="70" t="str">
-        <f>[1]COMM!$O$10&amp;","&amp;[1]COMM!$O$16</f>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="E72" s="71" t="s">
+        <v>448</v>
+      </c>
+      <c r="F72" s="70" t="s">
+        <v>801</v>
       </c>
       <c r="G72" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$21</f>
         <v>3.3</v>
       </c>
       <c r="H72" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$21</f>
         <v>3.7</v>
       </c>
       <c r="I72" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$21</f>
         <v>4</v>
       </c>
       <c r="J72" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$21</f>
         <v>4</v>
       </c>
       <c r="K72" s="92"/>
@@ -23243,19 +21595,15 @@
       <c r="M72" s="80"/>
       <c r="N72" s="93"/>
       <c r="O72" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$21</f>
         <v>2.3099999999999996</v>
       </c>
       <c r="P72" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$21</f>
         <v>2.59</v>
       </c>
       <c r="Q72" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$21</f>
         <v>2.8</v>
       </c>
       <c r="R72" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$21</f>
         <v>2.8</v>
       </c>
       <c r="S72" s="101">
@@ -23263,23 +21611,18 @@
       </c>
       <c r="T72" s="80"/>
       <c r="U72" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$21</f>
         <v>382.30823529411765</v>
       </c>
       <c r="V72" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$21</f>
         <v>382.30823529411765</v>
       </c>
       <c r="W72" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$21</f>
         <v>361.32235294117646</v>
       </c>
       <c r="X72" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$21</f>
         <v>361.32235294117646</v>
       </c>
       <c r="Y72" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$21</f>
         <v>7.0588235294117645</v>
       </c>
       <c r="Z72" s="111"/>
@@ -23322,28 +21665,22 @@
       <c r="D73" s="77" t="s">
         <v>373</v>
       </c>
-      <c r="E73" s="78" t="str">
-        <f>[1]SETUP!$B$26&amp;","&amp;[1]SETUP!$B$17</f>
-        <v>RSDELC,RSDRENSOL</v>
-      </c>
-      <c r="F73" s="77" t="str">
-        <f>[1]COMM!$O$10&amp;","&amp;[1]COMM!$O$16</f>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="E73" s="78" t="s">
+        <v>795</v>
+      </c>
+      <c r="F73" s="77" t="s">
+        <v>801</v>
       </c>
       <c r="G73" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$22</f>
         <v>2.7249999999999996</v>
       </c>
       <c r="H73" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$22</f>
         <v>3.0250000000000004</v>
       </c>
       <c r="I73" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$22</f>
         <v>3.25</v>
       </c>
       <c r="J73" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$22</f>
         <v>3.25</v>
       </c>
       <c r="K73" s="90"/>
@@ -23351,19 +21688,15 @@
       <c r="M73" s="79"/>
       <c r="N73" s="91"/>
       <c r="O73" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$22</f>
         <v>1.393</v>
       </c>
       <c r="P73" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$22</f>
         <v>1.4770000000000001</v>
       </c>
       <c r="Q73" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$22</f>
         <v>1.54</v>
       </c>
       <c r="R73" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$22</f>
         <v>1.54</v>
       </c>
       <c r="S73" s="102">
@@ -23371,23 +21704,18 @@
       </c>
       <c r="T73" s="79"/>
       <c r="U73" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$22</f>
         <v>706.69359398496226</v>
       </c>
       <c r="V73" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$22</f>
         <v>682.09990977443601</v>
       </c>
       <c r="W73" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$22</f>
         <v>560.47566917293238</v>
       </c>
       <c r="X73" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$22</f>
         <v>560.47566917293238</v>
       </c>
       <c r="Y73" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$22</f>
         <v>18.980392156862745</v>
       </c>
       <c r="Z73" s="110"/>
@@ -23434,28 +21762,22 @@
       <c r="D74" s="70" t="s">
         <v>374</v>
       </c>
-      <c r="E74" s="71" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F74" s="70" t="str">
-        <f>[1]COMM!$O$10</f>
-        <v>RSDSH_Att</v>
+      <c r="E74" s="71" t="s">
+        <v>448</v>
+      </c>
+      <c r="F74" s="70" t="s">
+        <v>433</v>
       </c>
       <c r="G74" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$23</f>
         <v>3.92</v>
       </c>
       <c r="H74" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$23</f>
         <v>3.92</v>
       </c>
       <c r="I74" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$23</f>
         <v>3.92</v>
       </c>
       <c r="J74" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$23</f>
         <v>3.92</v>
       </c>
       <c r="K74" s="92"/>
@@ -23471,23 +21793,18 @@
       </c>
       <c r="T74" s="80"/>
       <c r="U74" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$23</f>
         <v>806.67391304347848</v>
       </c>
       <c r="V74" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$23</f>
         <v>745.95652173913049</v>
       </c>
       <c r="W74" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$23</f>
         <v>685.23913043478274</v>
       </c>
       <c r="X74" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$23</f>
         <v>685.23913043478274</v>
       </c>
       <c r="Y74" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$23</f>
         <v>20</v>
       </c>
       <c r="Z74" s="111"/>
@@ -23530,44 +21847,34 @@
       <c r="D75" s="77" t="s">
         <v>375</v>
       </c>
-      <c r="E75" s="78" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F75" s="77" t="str">
-        <f>[1]COMM!$O$10&amp;","&amp;[1]COMM!$O$13</f>
-        <v>RSDSH_Att,RSDSC_Att</v>
+      <c r="E75" s="78" t="s">
+        <v>448</v>
+      </c>
+      <c r="F75" s="77" t="s">
+        <v>802</v>
       </c>
       <c r="G75" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$24</f>
         <v>3.92</v>
       </c>
       <c r="H75" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$24</f>
         <v>3.92</v>
       </c>
       <c r="I75" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$24</f>
         <v>3.92</v>
       </c>
       <c r="J75" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$24</f>
         <v>3.92</v>
       </c>
       <c r="K75" s="90">
-        <f>'[2]JRC Summary'!$AN$20</f>
         <v>4.5</v>
       </c>
       <c r="L75" s="79">
-        <f>'[2]JRC Summary'!$AO$20</f>
         <v>4.5</v>
       </c>
       <c r="M75" s="79">
-        <f>'[2]JRC Summary'!$AP$20</f>
         <v>4.5</v>
       </c>
       <c r="N75" s="91">
-        <f>'[2]JRC Summary'!$AQ$20</f>
         <v>4.5</v>
       </c>
       <c r="O75" s="90"/>
@@ -23579,23 +21886,18 @@
       </c>
       <c r="T75" s="79"/>
       <c r="U75" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$24</f>
         <v>963.84782608695673</v>
       </c>
       <c r="V75" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$24</f>
         <v>903.13043478260863</v>
       </c>
       <c r="W75" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$24</f>
         <v>842.41304347826099</v>
       </c>
       <c r="X75" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$24</f>
         <v>842.41304347826099</v>
       </c>
       <c r="Y75" s="135">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$24</f>
         <v>20</v>
       </c>
       <c r="Z75" s="135"/>
@@ -23692,28 +21994,22 @@
       <c r="D77" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="E77" s="138" t="str">
-        <f>[1]SETUP!$B$16</f>
-        <v>RSDGASNAT</v>
-      </c>
-      <c r="F77" s="138" t="str">
-        <f>[1]COMM!$O$10&amp;","&amp;[1]COMM!$O$16</f>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="E77" s="138" t="s">
+        <v>451</v>
+      </c>
+      <c r="F77" s="138" t="s">
+        <v>801</v>
       </c>
       <c r="G77" s="94">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$25</f>
         <v>1.45</v>
       </c>
       <c r="H77" s="95">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$25</f>
         <v>1.7</v>
       </c>
       <c r="I77" s="95">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$25</f>
         <v>1.7</v>
       </c>
       <c r="J77" s="96">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$25</f>
         <v>1.7</v>
       </c>
       <c r="K77" s="94"/>
@@ -23741,23 +22037,18 @@
       </c>
       <c r="T77" s="96"/>
       <c r="U77" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$25</f>
         <v>971.77777777777783</v>
       </c>
       <c r="V77" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$25</f>
         <v>860.66666666666663</v>
       </c>
       <c r="W77" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$25</f>
         <v>860.66666666666663</v>
       </c>
       <c r="X77" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$25</f>
         <v>860.66666666666663</v>
       </c>
       <c r="Y77" s="134">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$25</f>
         <v>13.055555555555555</v>
       </c>
       <c r="Z77" s="134"/>
@@ -23800,28 +22091,22 @@
       <c r="D78" s="74" t="s">
         <v>378</v>
       </c>
-      <c r="E78" s="75" t="str">
-        <f>[1]SETUP!$B$16</f>
-        <v>RSDGASNAT</v>
-      </c>
-      <c r="F78" s="75" t="str">
-        <f>[1]COMM!$O$10&amp;","&amp;[1]COMM!$O$16</f>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="E78" s="75" t="s">
+        <v>451</v>
+      </c>
+      <c r="F78" s="75" t="s">
+        <v>801</v>
       </c>
       <c r="G78" s="97">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$26</f>
         <v>1.55</v>
       </c>
       <c r="H78" s="98">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$26</f>
         <v>1.55</v>
       </c>
       <c r="I78" s="98">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$26</f>
         <v>1.6</v>
       </c>
       <c r="J78" s="99">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$26</f>
         <v>1.6</v>
       </c>
       <c r="K78" s="97"/>
@@ -23849,23 +22134,18 @@
       </c>
       <c r="T78" s="99"/>
       <c r="U78" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$26</f>
         <v>1065.68</v>
       </c>
       <c r="V78" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$26</f>
         <v>1065.68</v>
       </c>
       <c r="W78" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$26</f>
         <v>1065.68</v>
       </c>
       <c r="X78" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$26</f>
         <v>1065.68</v>
       </c>
       <c r="Y78" s="112">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$26</f>
         <v>4.7</v>
       </c>
       <c r="Z78" s="112"/>
@@ -23962,13 +22242,11 @@
       <c r="D80" s="129" t="s">
         <v>402</v>
       </c>
-      <c r="E80" s="173" t="str">
-        <f>[1]SETUP!$B$26&amp;","&amp;[1]SETUP!$B$16</f>
-        <v>RSDELC,RSDGASNAT</v>
-      </c>
-      <c r="F80" s="77" t="str">
-        <f>[1]COMM!$O$10&amp;","&amp;[1]COMM!$O$16</f>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="E80" s="173" t="s">
+        <v>796</v>
+      </c>
+      <c r="F80" s="77" t="s">
+        <v>801</v>
       </c>
       <c r="G80" s="97">
         <v>3.1</v>
@@ -24119,28 +22397,22 @@
       <c r="D82" s="67" t="s">
         <v>380</v>
       </c>
-      <c r="E82" s="138" t="str">
-        <f>[1]SETUP!$B$27</f>
-        <v>RSDHET</v>
-      </c>
-      <c r="F82" s="138" t="str">
-        <f>[1]COMM!$O$10&amp;","&amp;[1]COMM!$O$16</f>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="E82" s="138" t="s">
+        <v>797</v>
+      </c>
+      <c r="F82" s="138" t="s">
+        <v>801</v>
       </c>
       <c r="G82" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$28</f>
         <v>0.98</v>
       </c>
       <c r="H82" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$28</f>
         <v>0.98</v>
       </c>
       <c r="I82" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$28</f>
         <v>0.98</v>
       </c>
       <c r="J82" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$28</f>
         <v>0.98</v>
       </c>
       <c r="K82" s="90"/>
@@ -24148,44 +22420,34 @@
       <c r="M82" s="79"/>
       <c r="N82" s="91"/>
       <c r="O82" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$28</f>
         <v>0.98</v>
       </c>
       <c r="P82" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$28</f>
         <v>0.98</v>
       </c>
       <c r="Q82" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$28</f>
         <v>0.98</v>
       </c>
       <c r="R82" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$28</f>
         <v>0.98</v>
       </c>
       <c r="S82" s="100">
-        <f>'[2]RSD_Heat&amp;Cool'!$T$29</f>
         <v>20</v>
       </c>
       <c r="T82" s="96"/>
       <c r="U82" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$28</f>
         <v>250</v>
       </c>
       <c r="V82" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$28</f>
         <v>250</v>
       </c>
       <c r="W82" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$28</f>
         <v>250</v>
       </c>
       <c r="X82" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$28</f>
         <v>250</v>
       </c>
       <c r="Y82" s="134">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$28</f>
         <v>15</v>
       </c>
       <c r="Z82" s="134"/>
@@ -24228,28 +22490,22 @@
       <c r="D83" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="E83" s="75" t="str">
-        <f>[1]SETUP!$B$27</f>
-        <v>RSDHET</v>
-      </c>
-      <c r="F83" s="75" t="str">
-        <f>[1]COMM!$O$10&amp;","&amp;[1]COMM!$O$16</f>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="E83" s="75" t="s">
+        <v>797</v>
+      </c>
+      <c r="F83" s="75" t="s">
+        <v>801</v>
       </c>
       <c r="G83" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$29</f>
         <v>0.98</v>
       </c>
       <c r="H83" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$29</f>
         <v>0.98</v>
       </c>
       <c r="I83" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$29</f>
         <v>0.98</v>
       </c>
       <c r="J83" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$29</f>
         <v>0.98</v>
       </c>
       <c r="K83" s="92"/>
@@ -24257,44 +22513,34 @@
       <c r="M83" s="80"/>
       <c r="N83" s="93"/>
       <c r="O83" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$29</f>
         <v>0.98</v>
       </c>
       <c r="P83" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$29</f>
         <v>0.98</v>
       </c>
       <c r="Q83" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$29</f>
         <v>0.98</v>
       </c>
       <c r="R83" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$29</f>
         <v>0.98</v>
       </c>
       <c r="S83" s="103">
-        <f>'[2]RSD_Heat&amp;Cool'!$T$28</f>
         <v>20</v>
       </c>
       <c r="T83" s="99"/>
       <c r="U83" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$29</f>
         <v>250</v>
       </c>
       <c r="V83" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$29</f>
         <v>250</v>
       </c>
       <c r="W83" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$29</f>
         <v>250</v>
       </c>
       <c r="X83" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$29</f>
         <v>250</v>
       </c>
       <c r="Y83" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$29</f>
         <v>15</v>
       </c>
       <c r="Z83" s="111"/>
@@ -24372,13 +22618,11 @@
       <c r="D85" s="67" t="s">
         <v>383</v>
       </c>
-      <c r="E85" s="138" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F85" s="67" t="str">
-        <f>[1]COMM!$O$16</f>
-        <v>RSDWH_Att</v>
+      <c r="E85" s="138" t="s">
+        <v>448</v>
+      </c>
+      <c r="F85" s="67" t="s">
+        <v>436</v>
       </c>
       <c r="G85" s="90"/>
       <c r="H85" s="79"/>
@@ -24389,19 +22633,15 @@
       <c r="M85" s="79"/>
       <c r="N85" s="91"/>
       <c r="O85" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$74</f>
         <v>1</v>
       </c>
       <c r="P85" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$74</f>
         <v>1</v>
       </c>
       <c r="Q85" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$74</f>
         <v>1</v>
       </c>
       <c r="R85" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$74</f>
         <v>1</v>
       </c>
       <c r="S85" s="100">
@@ -24409,23 +22649,18 @@
       </c>
       <c r="T85" s="96"/>
       <c r="U85" s="66">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$74</f>
         <v>185</v>
       </c>
       <c r="V85" s="67">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$74</f>
         <v>185</v>
       </c>
       <c r="W85" s="67">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$74</f>
         <v>185</v>
       </c>
       <c r="X85" s="104">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$74</f>
         <v>185</v>
       </c>
       <c r="Y85" s="134">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$74</f>
         <v>25</v>
       </c>
       <c r="Z85" s="134"/>
@@ -24449,13 +22684,11 @@
       <c r="D86" s="70" t="s">
         <v>384</v>
       </c>
-      <c r="E86" s="71" t="str">
-        <f>[1]SETUP!$B$17</f>
-        <v>RSDRENSOL</v>
-      </c>
-      <c r="F86" s="70" t="str">
-        <f>[1]COMM!$O$16</f>
-        <v>RSDWH_Att</v>
+      <c r="E86" s="71" t="s">
+        <v>798</v>
+      </c>
+      <c r="F86" s="70" t="s">
+        <v>436</v>
       </c>
       <c r="G86" s="92"/>
       <c r="H86" s="80"/>
@@ -24466,47 +22699,36 @@
       <c r="M86" s="80"/>
       <c r="N86" s="93"/>
       <c r="O86" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$75</f>
         <v>1</v>
       </c>
       <c r="P86" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$75</f>
         <v>1</v>
       </c>
       <c r="Q86" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$75</f>
         <v>1</v>
       </c>
       <c r="R86" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$75</f>
         <v>1</v>
       </c>
       <c r="S86" s="101">
-        <f>'[2]RSD_Heat&amp;Cool'!$T$75</f>
         <v>25</v>
       </c>
       <c r="T86" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$U$75</f>
         <v>30</v>
       </c>
       <c r="U86" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$75</f>
         <v>1582.3760000000002</v>
       </c>
       <c r="V86" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$75</f>
         <v>1514.231</v>
       </c>
       <c r="W86" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$75</f>
         <v>1214.3930000000003</v>
       </c>
       <c r="X86" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$75</f>
         <v>1214.3930000000003</v>
       </c>
       <c r="Y86" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$75</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z86" s="111"/>
@@ -24530,13 +22752,11 @@
       <c r="D87" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="E87" s="78" t="str">
-        <f>[1]SETUP!$B$16</f>
-        <v>RSDGASNAT</v>
-      </c>
-      <c r="F87" s="77" t="str">
-        <f>[1]COMM!$O$16</f>
-        <v>RSDWH_Att</v>
+      <c r="E87" s="78" t="s">
+        <v>451</v>
+      </c>
+      <c r="F87" s="77" t="s">
+        <v>436</v>
       </c>
       <c r="G87" s="90"/>
       <c r="H87" s="79"/>
@@ -24547,44 +22767,34 @@
       <c r="M87" s="79"/>
       <c r="N87" s="91"/>
       <c r="O87" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="P87" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q87" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="R87" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="S87" s="102">
-        <f>'[2]RSD_Heat&amp;Cool'!$T$76</f>
         <v>20</v>
       </c>
       <c r="T87" s="91"/>
       <c r="U87" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V87" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W87" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X87" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y87" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$76</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z87" s="110"/>
@@ -24608,13 +22818,11 @@
       <c r="D88" s="70" t="s">
         <v>385</v>
       </c>
-      <c r="E88" s="71" t="str">
-        <f>[1]SETUP!$B$18</f>
-        <v>RSDBIOWOO</v>
-      </c>
-      <c r="F88" s="70" t="str">
-        <f>[1]COMM!$O$16</f>
-        <v>RSDWH_Att</v>
+      <c r="E88" s="71" t="s">
+        <v>794</v>
+      </c>
+      <c r="F88" s="70" t="s">
+        <v>436</v>
       </c>
       <c r="G88" s="92"/>
       <c r="H88" s="80"/>
@@ -24625,44 +22833,34 @@
       <c r="M88" s="80"/>
       <c r="N88" s="93"/>
       <c r="O88" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="P88" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="Q88" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="R88" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="S88" s="101">
-        <f>'[2]RSD_Heat&amp;Cool'!$T$77</f>
         <v>20</v>
       </c>
       <c r="T88" s="93"/>
       <c r="U88" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="V88" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="W88" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="X88" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="Y88" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$77</f>
         <v>8.5714285714285712</v>
       </c>
       <c r="Z88" s="111"/>
@@ -24686,13 +22884,11 @@
       <c r="D89" s="139" t="s">
         <v>387</v>
       </c>
-      <c r="E89" s="171" t="str">
-        <f>[1]SETUP!$B$10</f>
-        <v>RSDOILLPG</v>
-      </c>
-      <c r="F89" s="139" t="str">
-        <f>[1]COMM!$O$16</f>
-        <v>RSDWH_Att</v>
+      <c r="E89" s="171" t="s">
+        <v>452</v>
+      </c>
+      <c r="F89" s="139" t="s">
+        <v>436</v>
       </c>
       <c r="G89" s="90"/>
       <c r="H89" s="79"/>
@@ -24703,44 +22899,34 @@
       <c r="M89" s="79"/>
       <c r="N89" s="91"/>
       <c r="O89" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="P89" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q89" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="R89" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="S89" s="150">
-        <f>'[2]RSD_Heat&amp;Cool'!$T$78</f>
         <v>20</v>
       </c>
       <c r="T89" s="151"/>
       <c r="U89" s="143">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V89" s="139">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W89" s="139">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X89" s="144">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y89" s="135">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$78</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z89" s="135"/>
@@ -24799,32 +22985,26 @@
       <c r="D91" s="146" t="s">
         <v>389</v>
       </c>
-      <c r="E91" s="169" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F91" s="170" t="str">
-        <f>[1]COMM!$O$13</f>
-        <v>RSDSC_Att</v>
+      <c r="E91" s="169" t="s">
+        <v>448</v>
+      </c>
+      <c r="F91" s="170" t="s">
+        <v>435</v>
       </c>
       <c r="G91" s="165"/>
       <c r="H91" s="166"/>
       <c r="I91" s="166"/>
       <c r="J91" s="149"/>
       <c r="K91" s="165">
-        <f>'[2]RSD_Heat&amp;Cool'!$K$80</f>
         <v>3.2</v>
       </c>
       <c r="L91" s="166">
-        <f>'[2]RSD_Heat&amp;Cool'!$L$80</f>
         <v>3.7</v>
       </c>
       <c r="M91" s="166">
-        <f>'[2]RSD_Heat&amp;Cool'!$M$80</f>
         <v>4</v>
       </c>
       <c r="N91" s="149">
-        <f>'[2]RSD_Heat&amp;Cool'!$N$80</f>
         <v>4</v>
       </c>
       <c r="O91" s="165"/>
@@ -24836,23 +23016,18 @@
       </c>
       <c r="T91" s="149"/>
       <c r="U91" s="145">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$80</f>
         <v>873.99999999999977</v>
       </c>
       <c r="V91" s="146">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$80</f>
         <v>791.19999999999993</v>
       </c>
       <c r="W91" s="146">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$80</f>
         <v>754.39999999999986</v>
       </c>
       <c r="X91" s="147">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$80</f>
         <v>754.39999999999986</v>
       </c>
       <c r="Y91" s="142">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$80</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z91" s="142"/>
@@ -25207,28 +23382,22 @@
       <c r="D101" s="77" t="s">
         <v>352</v>
       </c>
-      <c r="E101" s="78" t="str">
-        <f>[1]SETUP!$B$12</f>
-        <v>RSDOILKER</v>
-      </c>
-      <c r="F101" s="77" t="str">
-        <f>[1]COMM!$O$11</f>
-        <v>RSDSH_Det</v>
+      <c r="E101" s="78" t="s">
+        <v>789</v>
+      </c>
+      <c r="F101" s="77" t="s">
+        <v>441</v>
       </c>
       <c r="G101" s="90">
-        <f>'[2]JRC Summary'!AD100</f>
         <v>0</v>
       </c>
       <c r="H101" s="79">
-        <f>'[2]JRC Summary'!AE100</f>
         <v>0</v>
       </c>
       <c r="I101" s="79">
-        <f>'[2]JRC Summary'!AF100</f>
         <v>0</v>
       </c>
       <c r="J101" s="91">
-        <f>'[2]JRC Summary'!AG100</f>
         <v>0</v>
       </c>
       <c r="K101" s="94"/>
@@ -25244,23 +23413,18 @@
       </c>
       <c r="T101" s="68"/>
       <c r="U101" s="66">
-        <f>'[2]RSD_Heat&amp;Cool'!$AA$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="V101" s="67">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="W101" s="67">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="X101" s="104">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$5</f>
         <v>78.826086956521735</v>
       </c>
       <c r="Y101" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$5</f>
         <v>1.3043478260869565</v>
       </c>
       <c r="Z101" s="113"/>
@@ -25303,28 +23467,22 @@
       <c r="D102" s="70" t="s">
         <v>353</v>
       </c>
-      <c r="E102" s="71" t="str">
-        <f>[1]SETUP!$B$12</f>
-        <v>RSDOILKER</v>
-      </c>
-      <c r="F102" s="70" t="str">
-        <f>[1]COMM!$O$11&amp;","&amp;[1]COMM!$O$17</f>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="E102" s="71" t="s">
+        <v>789</v>
+      </c>
+      <c r="F102" s="70" t="s">
+        <v>803</v>
       </c>
       <c r="G102" s="92">
-        <f>'[2]JRC Summary'!AD100</f>
         <v>0</v>
       </c>
       <c r="H102" s="80">
-        <f>'[2]JRC Summary'!AE100</f>
         <v>0</v>
       </c>
       <c r="I102" s="80">
-        <f>'[2]JRC Summary'!AF100</f>
         <v>0</v>
       </c>
       <c r="J102" s="93">
-        <f>'[2]JRC Summary'!AG100</f>
         <v>0</v>
       </c>
       <c r="K102" s="92"/>
@@ -25352,23 +23510,18 @@
       </c>
       <c r="T102" s="72"/>
       <c r="U102" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AA$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="V102" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="W102" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="X102" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$6</f>
         <v>82.767391304347825</v>
       </c>
       <c r="Y102" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$6</f>
         <v>1.3043478260869565</v>
       </c>
       <c r="Z102" s="114"/>
@@ -25411,28 +23564,22 @@
       <c r="D103" s="77" t="s">
         <v>354</v>
       </c>
-      <c r="E103" s="78" t="str">
-        <f>[1]SETUP!$B$17&amp;","&amp;[1]SETUP!$B$12</f>
-        <v>RSDRENSOL,RSDOILKER</v>
-      </c>
-      <c r="F103" s="77" t="str">
-        <f>[1]COMM!$O$11&amp;","&amp;[1]COMM!$O$17</f>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="E103" s="78" t="s">
+        <v>790</v>
+      </c>
+      <c r="F103" s="77" t="s">
+        <v>803</v>
       </c>
       <c r="G103" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="H103" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="I103" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="J103" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="K103" s="90"/>
@@ -25440,19 +23587,15 @@
       <c r="M103" s="79"/>
       <c r="N103" s="91"/>
       <c r="O103" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="P103" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="Q103" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="R103" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="S103" s="102">
@@ -25516,28 +23659,22 @@
       <c r="D104" s="70" t="s">
         <v>358</v>
       </c>
-      <c r="E104" s="71" t="str">
-        <f>[1]SETUP!$B$18&amp;","&amp;[1]SETUP!$B$12</f>
-        <v>RSDBIOWOO,RSDOILKER</v>
-      </c>
-      <c r="F104" s="70" t="str">
-        <f>[1]COMM!$O$11&amp;","&amp;[1]COMM!$O$17</f>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="E104" s="71" t="s">
+        <v>791</v>
+      </c>
+      <c r="F104" s="70" t="s">
+        <v>803</v>
       </c>
       <c r="G104" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$10</f>
         <v>0.80079999999999996</v>
       </c>
       <c r="H104" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="I104" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="J104" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="K104" s="92"/>
@@ -25577,7 +23714,6 @@
         <v>93.035670457334589</v>
       </c>
       <c r="Y104" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$10</f>
         <v>5.3472429210134127</v>
       </c>
       <c r="Z104" s="114"/>
@@ -25624,28 +23760,22 @@
       <c r="D105" s="77" t="s">
         <v>351</v>
       </c>
-      <c r="E105" s="78" t="str">
-        <f>[1]SETUP!$B$16</f>
-        <v>RSDGASNAT</v>
-      </c>
-      <c r="F105" s="77" t="str">
-        <f>[1]COMM!$O$11</f>
-        <v>RSDSH_Det</v>
+      <c r="E105" s="78" t="s">
+        <v>451</v>
+      </c>
+      <c r="F105" s="77" t="s">
+        <v>441</v>
       </c>
       <c r="G105" s="90">
-        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H105" s="79">
-        <f>'[2]JRC Summary'!$AD$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I105" s="79">
-        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J105" s="91">
-        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K105" s="90"/>
@@ -25661,23 +23791,18 @@
       </c>
       <c r="T105" s="89"/>
       <c r="U105" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AA$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V105" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W105" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X105" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$7</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y105" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$7</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z105" s="113"/>
@@ -25720,28 +23845,22 @@
       <c r="D106" s="70" t="s">
         <v>355</v>
       </c>
-      <c r="E106" s="71" t="str">
-        <f>[1]SETUP!$B$16</f>
-        <v>RSDGASNAT</v>
-      </c>
-      <c r="F106" s="70" t="str">
-        <f>[1]COMM!$O$11&amp;","&amp;[1]COMM!$O$17</f>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="E106" s="71" t="s">
+        <v>451</v>
+      </c>
+      <c r="F106" s="70" t="s">
+        <v>803</v>
       </c>
       <c r="G106" s="92">
-        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H106" s="80">
-        <f>'[2]JRC Summary'!$AD$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I106" s="80">
-        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J106" s="93">
-        <f>'[2]JRC Summary'!$AC$9</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K106" s="92"/>
@@ -25749,19 +23868,15 @@
       <c r="M106" s="80"/>
       <c r="N106" s="93"/>
       <c r="O106" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="P106" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q106" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="R106" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$8</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="S106" s="101">
@@ -25769,23 +23884,18 @@
       </c>
       <c r="T106" s="72"/>
       <c r="U106" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AA$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="V106" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="W106" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="X106" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$8</f>
         <v>65.117763742903477</v>
       </c>
       <c r="Y106" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$8</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z106" s="114"/>
@@ -25828,28 +23938,22 @@
       <c r="D107" s="77" t="s">
         <v>356</v>
       </c>
-      <c r="E107" s="78" t="str">
-        <f>[1]SETUP!$B$17&amp;","&amp;[1]SETUP!$B$16</f>
-        <v>RSDRENSOL,RSDGASNAT</v>
-      </c>
-      <c r="F107" s="77" t="str">
-        <f>[1]COMM!$O$11&amp;","&amp;[1]COMM!$O$17</f>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="E107" s="78" t="s">
+        <v>792</v>
+      </c>
+      <c r="F107" s="77" t="s">
+        <v>803</v>
       </c>
       <c r="G107" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="H107" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="I107" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="J107" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$9</f>
         <v>0.90100000000000002</v>
       </c>
       <c r="K107" s="90"/>
@@ -25857,19 +23961,15 @@
       <c r="M107" s="79"/>
       <c r="N107" s="91"/>
       <c r="O107" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="P107" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="Q107" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="R107" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$O$9</f>
         <v>0.88227999999999995</v>
       </c>
       <c r="S107" s="102">
@@ -25877,23 +23977,18 @@
       </c>
       <c r="T107" s="89"/>
       <c r="U107" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AA$9</f>
         <v>325.38126012155396</v>
       </c>
       <c r="V107" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$9</f>
         <v>300.73704094347181</v>
       </c>
       <c r="W107" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$9</f>
         <v>251.44860258730745</v>
       </c>
       <c r="X107" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$9</f>
         <v>251.44860258730745</v>
       </c>
       <c r="Y107" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$9</f>
         <v>14.316939890710385</v>
       </c>
       <c r="Z107" s="113"/>
@@ -25940,28 +24035,22 @@
       <c r="D108" s="70" t="s">
         <v>357</v>
       </c>
-      <c r="E108" s="71" t="str">
-        <f>[1]SETUP!$B$18&amp;","&amp;[1]SETUP!$B$16</f>
-        <v>RSDBIOWOO,RSDGASNAT</v>
-      </c>
-      <c r="F108" s="70" t="str">
-        <f>[1]COMM!$O$11&amp;","&amp;[1]COMM!$O$17</f>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="E108" s="71" t="s">
+        <v>793</v>
+      </c>
+      <c r="F108" s="70" t="s">
+        <v>803</v>
       </c>
       <c r="G108" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$10</f>
         <v>0.80079999999999996</v>
       </c>
       <c r="H108" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="I108" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="J108" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$10</f>
         <v>0.82079999999999997</v>
       </c>
       <c r="K108" s="92"/>
@@ -25989,23 +24078,18 @@
       </c>
       <c r="T108" s="72"/>
       <c r="U108" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AA$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="V108" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="W108" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="X108" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$10</f>
         <v>89.356293659586896</v>
       </c>
       <c r="Y108" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$10</f>
         <v>5.3472429210134127</v>
       </c>
       <c r="Z108" s="114"/>
@@ -26052,28 +24136,22 @@
       <c r="D109" s="77" t="s">
         <v>361</v>
       </c>
-      <c r="E109" s="78" t="str">
-        <f>[1]SETUP!$B$10</f>
-        <v>RSDOILLPG</v>
-      </c>
-      <c r="F109" s="77" t="str">
-        <f>[1]COMM!$O$11</f>
-        <v>RSDSH_Det</v>
+      <c r="E109" s="78" t="s">
+        <v>452</v>
+      </c>
+      <c r="F109" s="77" t="s">
+        <v>441</v>
       </c>
       <c r="G109" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H109" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I109" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J109" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$11</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K109" s="90"/>
@@ -26089,23 +24167,18 @@
       </c>
       <c r="T109" s="89"/>
       <c r="U109" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V109" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W109" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X109" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$11</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y109" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$11</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z109" s="113"/>
@@ -26148,28 +24221,22 @@
       <c r="D110" s="70" t="s">
         <v>362</v>
       </c>
-      <c r="E110" s="71" t="str">
-        <f>[1]SETUP!$B$10</f>
-        <v>RSDOILLPG</v>
-      </c>
-      <c r="F110" s="70" t="str">
-        <f>[1]COMM!$O$11&amp;","&amp;[1]COMM!$O$17</f>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="E110" s="71" t="s">
+        <v>452</v>
+      </c>
+      <c r="F110" s="70" t="s">
+        <v>803</v>
       </c>
       <c r="G110" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="H110" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="I110" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="J110" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$12</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="K110" s="92"/>
@@ -26197,23 +24264,18 @@
       </c>
       <c r="T110" s="72"/>
       <c r="U110" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="V110" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="W110" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="X110" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$12</f>
         <v>65.117763742903477</v>
       </c>
       <c r="Y110" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$12</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z110" s="114"/>
@@ -26256,28 +24318,22 @@
       <c r="D111" s="77" t="s">
         <v>363</v>
       </c>
-      <c r="E111" s="78" t="str">
-        <f>[1]SETUP!$B$18</f>
-        <v>RSDBIOWOO</v>
-      </c>
-      <c r="F111" s="77" t="str">
-        <f>[1]COMM!$O$11</f>
-        <v>RSDSH_Det</v>
+      <c r="E111" s="78" t="s">
+        <v>794</v>
+      </c>
+      <c r="F111" s="77" t="s">
+        <v>441</v>
       </c>
       <c r="G111" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="H111" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="I111" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="J111" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$13</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="K111" s="90"/>
@@ -26297,7 +24353,6 @@
       <c r="W111" s="77"/>
       <c r="X111" s="106"/>
       <c r="Y111" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$13</f>
         <v>8.5714285714285712</v>
       </c>
       <c r="Z111" s="113"/>
@@ -26340,28 +24395,22 @@
       <c r="D112" s="74" t="s">
         <v>364</v>
       </c>
-      <c r="E112" s="75" t="str">
-        <f>[1]SETUP!$B$18</f>
-        <v>RSDBIOWOO</v>
-      </c>
-      <c r="F112" s="74" t="str">
-        <f>[1]COMM!$O$11&amp;","&amp;[1]COMM!$O$17</f>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="E112" s="75" t="s">
+        <v>794</v>
+      </c>
+      <c r="F112" s="74" t="s">
+        <v>803</v>
       </c>
       <c r="G112" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="H112" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="I112" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="J112" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$14</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="K112" s="97"/>
@@ -26393,7 +24442,6 @@
       <c r="W112" s="74"/>
       <c r="X112" s="107"/>
       <c r="Y112" s="112">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$14</f>
         <v>8.5714285714285712</v>
       </c>
       <c r="Z112" s="115"/>
@@ -26490,28 +24538,22 @@
       <c r="D114" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="E114" s="71" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F114" s="70" t="str">
-        <f>[1]COMM!$O$11</f>
-        <v>RSDSH_Det</v>
+      <c r="E114" s="71" t="s">
+        <v>448</v>
+      </c>
+      <c r="F114" s="70" t="s">
+        <v>441</v>
       </c>
       <c r="G114" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$16</f>
         <v>1</v>
       </c>
       <c r="H114" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$16</f>
         <v>1</v>
       </c>
       <c r="I114" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$16</f>
         <v>1</v>
       </c>
       <c r="J114" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$16</f>
         <v>1</v>
       </c>
       <c r="K114" s="123"/>
@@ -26527,23 +24569,18 @@
       </c>
       <c r="T114" s="127"/>
       <c r="U114" s="128">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$16</f>
         <v>185</v>
       </c>
       <c r="V114" s="129">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$16</f>
         <v>185</v>
       </c>
       <c r="W114" s="129">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$16</f>
         <v>185</v>
       </c>
       <c r="X114" s="130">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$16</f>
         <v>185</v>
       </c>
       <c r="Y114" s="131">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$16</f>
         <v>25</v>
       </c>
       <c r="Z114" s="132"/>
@@ -26640,28 +24677,22 @@
       <c r="D116" s="77" t="s">
         <v>369</v>
       </c>
-      <c r="E116" s="78" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F116" s="77" t="str">
-        <f>[1]COMM!$O$11</f>
-        <v>RSDSH_Det</v>
+      <c r="E116" s="78" t="s">
+        <v>448</v>
+      </c>
+      <c r="F116" s="77" t="s">
+        <v>441</v>
       </c>
       <c r="G116" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$61</f>
         <v>3.2</v>
       </c>
       <c r="H116" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$61</f>
         <v>3.7</v>
       </c>
       <c r="I116" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$61</f>
         <v>4</v>
       </c>
       <c r="J116" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$61</f>
         <v>4</v>
       </c>
       <c r="K116" s="90"/>
@@ -26677,23 +24708,18 @@
       </c>
       <c r="T116" s="79"/>
       <c r="U116" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$18</f>
         <v>606.94444444444434</v>
       </c>
       <c r="V116" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$18</f>
         <v>549.44444444444434</v>
       </c>
       <c r="W116" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$18</f>
         <v>523.8888888888888</v>
       </c>
       <c r="X116" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$18</f>
         <v>523.8888888888888</v>
       </c>
       <c r="Y116" s="134">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$18</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z116" s="134"/>
@@ -26736,44 +24762,34 @@
       <c r="D117" s="70" t="s">
         <v>370</v>
       </c>
-      <c r="E117" s="71" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F117" s="70" t="str">
-        <f>[1]COMM!$O$11&amp;","&amp;[1]COMM!$O$14</f>
-        <v>RSDSH_Det,RSDSC_Det</v>
+      <c r="E117" s="71" t="s">
+        <v>448</v>
+      </c>
+      <c r="F117" s="70" t="s">
+        <v>804</v>
       </c>
       <c r="G117" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$61</f>
         <v>3.2</v>
       </c>
       <c r="H117" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$61</f>
         <v>3.7</v>
       </c>
       <c r="I117" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$61</f>
         <v>4</v>
       </c>
       <c r="J117" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$61</f>
         <v>4</v>
       </c>
       <c r="K117" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$K$62</f>
         <v>3.2</v>
       </c>
       <c r="L117" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$L$62</f>
         <v>3.7</v>
       </c>
       <c r="M117" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$M$62</f>
         <v>4</v>
       </c>
       <c r="N117" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$N$62</f>
         <v>4</v>
       </c>
       <c r="O117" s="92"/>
@@ -26785,23 +24801,18 @@
       </c>
       <c r="T117" s="80"/>
       <c r="U117" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$19</f>
         <v>637.29166666666663</v>
       </c>
       <c r="V117" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$19</f>
         <v>576.91666666666663</v>
       </c>
       <c r="W117" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$19</f>
         <v>550.08333333333326</v>
       </c>
       <c r="X117" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$19</f>
         <v>550.08333333333326</v>
       </c>
       <c r="Y117" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$19</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z117" s="111"/>
@@ -26844,28 +24855,22 @@
       <c r="D118" s="77" t="s">
         <v>371</v>
       </c>
-      <c r="E118" s="78" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F118" s="77" t="str">
-        <f>[1]COMM!$O$11</f>
-        <v>RSDSH_Det</v>
+      <c r="E118" s="78" t="s">
+        <v>448</v>
+      </c>
+      <c r="F118" s="77" t="s">
+        <v>441</v>
       </c>
       <c r="G118" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$20</f>
         <v>3.3</v>
       </c>
       <c r="H118" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$20</f>
         <v>3.7</v>
       </c>
       <c r="I118" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$20</f>
         <v>4</v>
       </c>
       <c r="J118" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$20</f>
         <v>4</v>
       </c>
       <c r="K118" s="90"/>
@@ -26881,23 +24886,18 @@
       </c>
       <c r="T118" s="79"/>
       <c r="U118" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$20</f>
         <v>212.19058823529411</v>
       </c>
       <c r="V118" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$20</f>
         <v>212.19058823529411</v>
       </c>
       <c r="W118" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$20</f>
         <v>191.20470588235293</v>
       </c>
       <c r="X118" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$20</f>
         <v>191.20470588235293</v>
       </c>
       <c r="Y118" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$20</f>
         <v>7.0588235294117645</v>
       </c>
       <c r="Z118" s="110"/>
@@ -26940,28 +24940,22 @@
       <c r="D119" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="E119" s="71" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F119" s="70" t="str">
-        <f>[1]COMM!$O$11&amp;","&amp;[1]COMM!$O$17</f>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="E119" s="71" t="s">
+        <v>448</v>
+      </c>
+      <c r="F119" s="70" t="s">
+        <v>803</v>
       </c>
       <c r="G119" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$21</f>
         <v>3.3</v>
       </c>
       <c r="H119" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$21</f>
         <v>3.7</v>
       </c>
       <c r="I119" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$21</f>
         <v>4</v>
       </c>
       <c r="J119" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$21</f>
         <v>4</v>
       </c>
       <c r="K119" s="92"/>
@@ -26969,19 +24963,15 @@
       <c r="M119" s="80"/>
       <c r="N119" s="93"/>
       <c r="O119" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$21</f>
         <v>2.3099999999999996</v>
       </c>
       <c r="P119" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$21</f>
         <v>2.59</v>
       </c>
       <c r="Q119" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$21</f>
         <v>2.8</v>
       </c>
       <c r="R119" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$21</f>
         <v>2.8</v>
       </c>
       <c r="S119" s="101">
@@ -26989,23 +24979,18 @@
       </c>
       <c r="T119" s="80"/>
       <c r="U119" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$21</f>
         <v>382.30823529411765</v>
       </c>
       <c r="V119" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$21</f>
         <v>382.30823529411765</v>
       </c>
       <c r="W119" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$21</f>
         <v>361.32235294117646</v>
       </c>
       <c r="X119" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$21</f>
         <v>361.32235294117646</v>
       </c>
       <c r="Y119" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$21</f>
         <v>7.0588235294117645</v>
       </c>
       <c r="Z119" s="111"/>
@@ -27048,28 +25033,22 @@
       <c r="D120" s="77" t="s">
         <v>373</v>
       </c>
-      <c r="E120" s="78" t="str">
-        <f>[1]SETUP!$B$26&amp;","&amp;[1]SETUP!$B$17</f>
-        <v>RSDELC,RSDRENSOL</v>
-      </c>
-      <c r="F120" s="77" t="str">
-        <f>[1]COMM!$O$11&amp;","&amp;[1]COMM!$O$17</f>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="E120" s="78" t="s">
+        <v>795</v>
+      </c>
+      <c r="F120" s="77" t="s">
+        <v>803</v>
       </c>
       <c r="G120" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$22</f>
         <v>2.7249999999999996</v>
       </c>
       <c r="H120" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$22</f>
         <v>3.0250000000000004</v>
       </c>
       <c r="I120" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$22</f>
         <v>3.25</v>
       </c>
       <c r="J120" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$22</f>
         <v>3.25</v>
       </c>
       <c r="K120" s="90"/>
@@ -27077,19 +25056,15 @@
       <c r="M120" s="79"/>
       <c r="N120" s="91"/>
       <c r="O120" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$22</f>
         <v>1.393</v>
       </c>
       <c r="P120" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$22</f>
         <v>1.4770000000000001</v>
       </c>
       <c r="Q120" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$22</f>
         <v>1.54</v>
       </c>
       <c r="R120" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$22</f>
         <v>1.54</v>
       </c>
       <c r="S120" s="102">
@@ -27097,23 +25072,18 @@
       </c>
       <c r="T120" s="79"/>
       <c r="U120" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$22</f>
         <v>706.69359398496226</v>
       </c>
       <c r="V120" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$22</f>
         <v>682.09990977443601</v>
       </c>
       <c r="W120" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$22</f>
         <v>560.47566917293238</v>
       </c>
       <c r="X120" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$22</f>
         <v>560.47566917293238</v>
       </c>
       <c r="Y120" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$22</f>
         <v>18.980392156862745</v>
       </c>
       <c r="Z120" s="110"/>
@@ -27160,28 +25130,22 @@
       <c r="D121" s="70" t="s">
         <v>374</v>
       </c>
-      <c r="E121" s="71" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F121" s="70" t="str">
-        <f>[1]COMM!$O$11</f>
-        <v>RSDSH_Det</v>
+      <c r="E121" s="71" t="s">
+        <v>448</v>
+      </c>
+      <c r="F121" s="70" t="s">
+        <v>441</v>
       </c>
       <c r="G121" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$23</f>
         <v>3.92</v>
       </c>
       <c r="H121" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$23</f>
         <v>3.92</v>
       </c>
       <c r="I121" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$23</f>
         <v>3.92</v>
       </c>
       <c r="J121" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$23</f>
         <v>3.92</v>
       </c>
       <c r="K121" s="92"/>
@@ -27197,23 +25161,18 @@
       </c>
       <c r="T121" s="80"/>
       <c r="U121" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$23</f>
         <v>806.67391304347848</v>
       </c>
       <c r="V121" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$23</f>
         <v>745.95652173913049</v>
       </c>
       <c r="W121" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$23</f>
         <v>685.23913043478274</v>
       </c>
       <c r="X121" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$23</f>
         <v>685.23913043478274</v>
       </c>
       <c r="Y121" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$23</f>
         <v>20</v>
       </c>
       <c r="Z121" s="111"/>
@@ -27256,44 +25215,34 @@
       <c r="D122" s="77" t="s">
         <v>375</v>
       </c>
-      <c r="E122" s="78" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F122" s="77" t="str">
-        <f>[1]COMM!$O$11&amp;","&amp;[1]COMM!$O$14</f>
-        <v>RSDSH_Det,RSDSC_Det</v>
+      <c r="E122" s="78" t="s">
+        <v>448</v>
+      </c>
+      <c r="F122" s="77" t="s">
+        <v>804</v>
       </c>
       <c r="G122" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$24</f>
         <v>3.92</v>
       </c>
       <c r="H122" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$24</f>
         <v>3.92</v>
       </c>
       <c r="I122" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$24</f>
         <v>3.92</v>
       </c>
       <c r="J122" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$24</f>
         <v>3.92</v>
       </c>
       <c r="K122" s="90">
-        <f>'[2]JRC Summary'!$AN$20</f>
         <v>4.5</v>
       </c>
       <c r="L122" s="79">
-        <f>'[2]JRC Summary'!$AO$20</f>
         <v>4.5</v>
       </c>
       <c r="M122" s="79">
-        <f>'[2]JRC Summary'!$AP$20</f>
         <v>4.5</v>
       </c>
       <c r="N122" s="91">
-        <f>'[2]JRC Summary'!$AQ$20</f>
         <v>4.5</v>
       </c>
       <c r="O122" s="90"/>
@@ -27305,23 +25254,18 @@
       </c>
       <c r="T122" s="79"/>
       <c r="U122" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$24</f>
         <v>963.84782608695673</v>
       </c>
       <c r="V122" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$24</f>
         <v>903.13043478260863</v>
       </c>
       <c r="W122" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$24</f>
         <v>842.41304347826099</v>
       </c>
       <c r="X122" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$24</f>
         <v>842.41304347826099</v>
       </c>
       <c r="Y122" s="135">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$24</f>
         <v>20</v>
       </c>
       <c r="Z122" s="135"/>
@@ -27418,28 +25362,22 @@
       <c r="D124" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="E124" s="138" t="str">
-        <f>[1]SETUP!$B$16</f>
-        <v>RSDGASNAT</v>
-      </c>
-      <c r="F124" s="138" t="str">
-        <f>[1]COMM!$O$11&amp;","&amp;[1]COMM!$O$17</f>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="E124" s="138" t="s">
+        <v>451</v>
+      </c>
+      <c r="F124" s="138" t="s">
+        <v>803</v>
       </c>
       <c r="G124" s="94">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$25</f>
         <v>1.45</v>
       </c>
       <c r="H124" s="95">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$25</f>
         <v>1.7</v>
       </c>
       <c r="I124" s="95">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$25</f>
         <v>1.7</v>
       </c>
       <c r="J124" s="96">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$25</f>
         <v>1.7</v>
       </c>
       <c r="K124" s="94"/>
@@ -27467,23 +25405,18 @@
       </c>
       <c r="T124" s="96"/>
       <c r="U124" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$25</f>
         <v>971.77777777777783</v>
       </c>
       <c r="V124" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$25</f>
         <v>860.66666666666663</v>
       </c>
       <c r="W124" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$25</f>
         <v>860.66666666666663</v>
       </c>
       <c r="X124" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$25</f>
         <v>860.66666666666663</v>
       </c>
       <c r="Y124" s="134">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$25</f>
         <v>13.055555555555555</v>
       </c>
       <c r="Z124" s="134"/>
@@ -27526,28 +25459,22 @@
       <c r="D125" s="74" t="s">
         <v>378</v>
       </c>
-      <c r="E125" s="75" t="str">
-        <f>[1]SETUP!$B$16</f>
-        <v>RSDGASNAT</v>
-      </c>
-      <c r="F125" s="75" t="str">
-        <f>[1]COMM!$O$11&amp;","&amp;[1]COMM!$O$17</f>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="E125" s="75" t="s">
+        <v>451</v>
+      </c>
+      <c r="F125" s="75" t="s">
+        <v>803</v>
       </c>
       <c r="G125" s="97">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$26</f>
         <v>1.55</v>
       </c>
       <c r="H125" s="98">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$26</f>
         <v>1.55</v>
       </c>
       <c r="I125" s="98">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$26</f>
         <v>1.6</v>
       </c>
       <c r="J125" s="99">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$26</f>
         <v>1.6</v>
       </c>
       <c r="K125" s="97"/>
@@ -27575,23 +25502,18 @@
       </c>
       <c r="T125" s="99"/>
       <c r="U125" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$26</f>
         <v>1065.68</v>
       </c>
       <c r="V125" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$26</f>
         <v>1065.68</v>
       </c>
       <c r="W125" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$26</f>
         <v>1065.68</v>
       </c>
       <c r="X125" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$26</f>
         <v>1065.68</v>
       </c>
       <c r="Y125" s="112">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$26</f>
         <v>4.7</v>
       </c>
       <c r="Z125" s="112"/>
@@ -27688,13 +25610,11 @@
       <c r="D127" s="129" t="s">
         <v>402</v>
       </c>
-      <c r="E127" s="173" t="str">
-        <f>[1]SETUP!$B$26&amp;","&amp;[1]SETUP!$B$16</f>
-        <v>RSDELC,RSDGASNAT</v>
-      </c>
-      <c r="F127" s="77" t="str">
-        <f>[1]COMM!$O$11&amp;","&amp;[1]COMM!$O$17</f>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="E127" s="173" t="s">
+        <v>796</v>
+      </c>
+      <c r="F127" s="77" t="s">
+        <v>803</v>
       </c>
       <c r="G127" s="97">
         <v>3.1</v>
@@ -27845,28 +25765,22 @@
       <c r="D129" s="67" t="s">
         <v>380</v>
       </c>
-      <c r="E129" s="138" t="str">
-        <f>[1]SETUP!$B$27</f>
-        <v>RSDHET</v>
-      </c>
-      <c r="F129" s="138" t="str">
-        <f>[1]COMM!$O$11&amp;","&amp;[1]COMM!$O$17</f>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="E129" s="138" t="s">
+        <v>797</v>
+      </c>
+      <c r="F129" s="138" t="s">
+        <v>803</v>
       </c>
       <c r="G129" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$28</f>
         <v>0.98</v>
       </c>
       <c r="H129" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$28</f>
         <v>0.98</v>
       </c>
       <c r="I129" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$28</f>
         <v>0.98</v>
       </c>
       <c r="J129" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$28</f>
         <v>0.98</v>
       </c>
       <c r="K129" s="90"/>
@@ -27874,44 +25788,34 @@
       <c r="M129" s="79"/>
       <c r="N129" s="91"/>
       <c r="O129" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$28</f>
         <v>0.98</v>
       </c>
       <c r="P129" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$28</f>
         <v>0.98</v>
       </c>
       <c r="Q129" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$28</f>
         <v>0.98</v>
       </c>
       <c r="R129" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$28</f>
         <v>0.98</v>
       </c>
       <c r="S129" s="100">
-        <f>'[2]RSD_Heat&amp;Cool'!$T$29</f>
         <v>20</v>
       </c>
       <c r="T129" s="96"/>
       <c r="U129" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$28</f>
         <v>250</v>
       </c>
       <c r="V129" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$28</f>
         <v>250</v>
       </c>
       <c r="W129" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$28</f>
         <v>250</v>
       </c>
       <c r="X129" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$28</f>
         <v>250</v>
       </c>
       <c r="Y129" s="134">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$28</f>
         <v>15</v>
       </c>
       <c r="Z129" s="134"/>
@@ -27954,28 +25858,22 @@
       <c r="D130" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="E130" s="75" t="str">
-        <f>[1]SETUP!$B$27</f>
-        <v>RSDHET</v>
-      </c>
-      <c r="F130" s="75" t="str">
-        <f>[1]COMM!$O$11&amp;","&amp;[1]COMM!$O$17</f>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="E130" s="75" t="s">
+        <v>797</v>
+      </c>
+      <c r="F130" s="75" t="s">
+        <v>803</v>
       </c>
       <c r="G130" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$F$29</f>
         <v>0.98</v>
       </c>
       <c r="H130" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$G$29</f>
         <v>0.98</v>
       </c>
       <c r="I130" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$H$29</f>
         <v>0.98</v>
       </c>
       <c r="J130" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$I$29</f>
         <v>0.98</v>
       </c>
       <c r="K130" s="92"/>
@@ -27983,44 +25881,34 @@
       <c r="M130" s="80"/>
       <c r="N130" s="93"/>
       <c r="O130" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$29</f>
         <v>0.98</v>
       </c>
       <c r="P130" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$29</f>
         <v>0.98</v>
       </c>
       <c r="Q130" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$29</f>
         <v>0.98</v>
       </c>
       <c r="R130" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$29</f>
         <v>0.98</v>
       </c>
       <c r="S130" s="103">
-        <f>'[2]RSD_Heat&amp;Cool'!$T$28</f>
         <v>20</v>
       </c>
       <c r="T130" s="99"/>
       <c r="U130" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$29</f>
         <v>250</v>
       </c>
       <c r="V130" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$29</f>
         <v>250</v>
       </c>
       <c r="W130" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$29</f>
         <v>250</v>
       </c>
       <c r="X130" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$29</f>
         <v>250</v>
       </c>
       <c r="Y130" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$29</f>
         <v>15</v>
       </c>
       <c r="Z130" s="111"/>
@@ -28098,13 +25986,11 @@
       <c r="D132" s="67" t="s">
         <v>383</v>
       </c>
-      <c r="E132" s="138" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F132" s="67" t="str">
-        <f>[1]COMM!$O$17</f>
-        <v>RSDWH_Det</v>
+      <c r="E132" s="138" t="s">
+        <v>448</v>
+      </c>
+      <c r="F132" s="67" t="s">
+        <v>444</v>
       </c>
       <c r="G132" s="90"/>
       <c r="H132" s="79"/>
@@ -28115,19 +26001,15 @@
       <c r="M132" s="79"/>
       <c r="N132" s="91"/>
       <c r="O132" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$74</f>
         <v>1</v>
       </c>
       <c r="P132" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$74</f>
         <v>1</v>
       </c>
       <c r="Q132" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$74</f>
         <v>1</v>
       </c>
       <c r="R132" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$74</f>
         <v>1</v>
       </c>
       <c r="S132" s="100">
@@ -28135,23 +26017,18 @@
       </c>
       <c r="T132" s="96"/>
       <c r="U132" s="66">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$74</f>
         <v>185</v>
       </c>
       <c r="V132" s="67">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$74</f>
         <v>185</v>
       </c>
       <c r="W132" s="67">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$74</f>
         <v>185</v>
       </c>
       <c r="X132" s="104">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$74</f>
         <v>185</v>
       </c>
       <c r="Y132" s="134">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$74</f>
         <v>25</v>
       </c>
       <c r="Z132" s="134"/>
@@ -28175,13 +26052,11 @@
       <c r="D133" s="70" t="s">
         <v>384</v>
       </c>
-      <c r="E133" s="71" t="str">
-        <f>[1]SETUP!$B$17</f>
-        <v>RSDRENSOL</v>
-      </c>
-      <c r="F133" s="70" t="str">
-        <f>[1]COMM!$O$17</f>
-        <v>RSDWH_Det</v>
+      <c r="E133" s="71" t="s">
+        <v>798</v>
+      </c>
+      <c r="F133" s="70" t="s">
+        <v>444</v>
       </c>
       <c r="G133" s="92"/>
       <c r="H133" s="80"/>
@@ -28192,47 +26067,36 @@
       <c r="M133" s="80"/>
       <c r="N133" s="93"/>
       <c r="O133" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$75</f>
         <v>1</v>
       </c>
       <c r="P133" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$75</f>
         <v>1</v>
       </c>
       <c r="Q133" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$75</f>
         <v>1</v>
       </c>
       <c r="R133" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$75</f>
         <v>1</v>
       </c>
       <c r="S133" s="101">
-        <f>'[2]RSD_Heat&amp;Cool'!$T$75</f>
         <v>25</v>
       </c>
       <c r="T133" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$U$75</f>
         <v>30</v>
       </c>
       <c r="U133" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$75</f>
         <v>1582.3760000000002</v>
       </c>
       <c r="V133" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$75</f>
         <v>1514.231</v>
       </c>
       <c r="W133" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$75</f>
         <v>1214.3930000000003</v>
       </c>
       <c r="X133" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$75</f>
         <v>1214.3930000000003</v>
       </c>
       <c r="Y133" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$75</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z133" s="111"/>
@@ -28256,13 +26120,11 @@
       <c r="D134" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="E134" s="78" t="str">
-        <f>[1]SETUP!$B$16</f>
-        <v>RSDGASNAT</v>
-      </c>
-      <c r="F134" s="77" t="str">
-        <f>[1]COMM!$O$17</f>
-        <v>RSDWH_Det</v>
+      <c r="E134" s="78" t="s">
+        <v>451</v>
+      </c>
+      <c r="F134" s="77" t="s">
+        <v>444</v>
       </c>
       <c r="G134" s="90"/>
       <c r="H134" s="79"/>
@@ -28273,44 +26135,34 @@
       <c r="M134" s="79"/>
       <c r="N134" s="91"/>
       <c r="O134" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="P134" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q134" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="R134" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$76</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="S134" s="102">
-        <f>'[2]RSD_Heat&amp;Cool'!$T$76</f>
         <v>20</v>
       </c>
       <c r="T134" s="91"/>
       <c r="U134" s="88">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V134" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W134" s="77">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X134" s="106">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$76</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y134" s="110">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$76</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z134" s="110"/>
@@ -28334,13 +26186,11 @@
       <c r="D135" s="70" t="s">
         <v>385</v>
       </c>
-      <c r="E135" s="71" t="str">
-        <f>[1]SETUP!$B$18</f>
-        <v>RSDBIOWOO</v>
-      </c>
-      <c r="F135" s="70" t="str">
-        <f>[1]COMM!$O$17</f>
-        <v>RSDWH_Det</v>
+      <c r="E135" s="71" t="s">
+        <v>794</v>
+      </c>
+      <c r="F135" s="70" t="s">
+        <v>444</v>
       </c>
       <c r="G135" s="92"/>
       <c r="H135" s="80"/>
@@ -28351,44 +26201,34 @@
       <c r="M135" s="80"/>
       <c r="N135" s="93"/>
       <c r="O135" s="92">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="P135" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="Q135" s="80">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="R135" s="93">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$77</f>
         <v>0.61949999999999994</v>
       </c>
       <c r="S135" s="101">
-        <f>'[2]RSD_Heat&amp;Cool'!$T$77</f>
         <v>20</v>
       </c>
       <c r="T135" s="93"/>
       <c r="U135" s="69">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="V135" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="W135" s="70">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="X135" s="105">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$77</f>
         <v>211.49571428571429</v>
       </c>
       <c r="Y135" s="111">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$77</f>
         <v>8.5714285714285712</v>
       </c>
       <c r="Z135" s="111"/>
@@ -28412,13 +26252,11 @@
       <c r="D136" s="139" t="s">
         <v>387</v>
       </c>
-      <c r="E136" s="171" t="str">
-        <f>[1]SETUP!$B$10</f>
-        <v>RSDOILLPG</v>
-      </c>
-      <c r="F136" s="139" t="str">
-        <f>[1]COMM!$O$17</f>
-        <v>RSDWH_Det</v>
+      <c r="E136" s="171" t="s">
+        <v>452</v>
+      </c>
+      <c r="F136" s="139" t="s">
+        <v>444</v>
       </c>
       <c r="G136" s="90"/>
       <c r="H136" s="79"/>
@@ -28429,44 +26267,34 @@
       <c r="M136" s="79"/>
       <c r="N136" s="91"/>
       <c r="O136" s="90">
-        <f>'[2]RSD_Heat&amp;Cool'!$P$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="P136" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$Q$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="Q136" s="79">
-        <f>'[2]RSD_Heat&amp;Cool'!$R$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="R136" s="91">
-        <f>'[2]RSD_Heat&amp;Cool'!$S$78</f>
         <v>0.60759999999999992</v>
       </c>
       <c r="S136" s="150">
-        <f>'[2]RSD_Heat&amp;Cool'!$T$78</f>
         <v>20</v>
       </c>
       <c r="T136" s="151"/>
       <c r="U136" s="143">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="V136" s="139">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="W136" s="139">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="X136" s="144">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$78</f>
         <v>62.01691785038426</v>
       </c>
       <c r="Y136" s="135">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$78</f>
         <v>1.2295081967213115</v>
       </c>
       <c r="Z136" s="135"/>
@@ -28525,32 +26353,26 @@
       <c r="D138" s="146" t="s">
         <v>389</v>
       </c>
-      <c r="E138" s="169" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F138" s="170" t="str">
-        <f>[1]COMM!$O$14</f>
-        <v>RSDSC_Det</v>
+      <c r="E138" s="169" t="s">
+        <v>448</v>
+      </c>
+      <c r="F138" s="170" t="s">
+        <v>443</v>
       </c>
       <c r="G138" s="165"/>
       <c r="H138" s="166"/>
       <c r="I138" s="166"/>
       <c r="J138" s="149"/>
       <c r="K138" s="165">
-        <f>'[2]RSD_Heat&amp;Cool'!$K$80</f>
         <v>3.2</v>
       </c>
       <c r="L138" s="166">
-        <f>'[2]RSD_Heat&amp;Cool'!$L$80</f>
         <v>3.7</v>
       </c>
       <c r="M138" s="166">
-        <f>'[2]RSD_Heat&amp;Cool'!$M$80</f>
         <v>4</v>
       </c>
       <c r="N138" s="149">
-        <f>'[2]RSD_Heat&amp;Cool'!$N$80</f>
         <v>4</v>
       </c>
       <c r="O138" s="165"/>
@@ -28562,23 +26384,18 @@
       </c>
       <c r="T138" s="149"/>
       <c r="U138" s="145">
-        <f>'[2]RSD_Heat&amp;Cool'!$AB$80</f>
         <v>873.99999999999977</v>
       </c>
       <c r="V138" s="146">
-        <f>'[2]RSD_Heat&amp;Cool'!$AC$80</f>
         <v>791.19999999999993</v>
       </c>
       <c r="W138" s="146">
-        <f>'[2]RSD_Heat&amp;Cool'!$AD$80</f>
         <v>754.39999999999986</v>
       </c>
       <c r="X138" s="147">
-        <f>'[2]RSD_Heat&amp;Cool'!$AE$80</f>
         <v>754.39999999999986</v>
       </c>
       <c r="Y138" s="142">
-        <f>'[2]RSD_Heat&amp;Cool'!$AF$80</f>
         <v>16.666666666666668</v>
       </c>
       <c r="Z138" s="142"/>
@@ -28692,9 +26509,8 @@
       <c r="A148" s="163" t="s">
         <v>325</v>
       </c>
-      <c r="B148" s="154" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT([1]Regions!$C$3,1)&lt;&gt;"*",[1]Regions!$C$3,""),IF(LEFT([1]Regions!$D$3,1)&lt;&gt;"*",[1]Regions!$D$3,""))</f>
-        <v>IE,National</v>
+      <c r="B148" s="154" t="s">
+        <v>805</v>
       </c>
       <c r="C148" s="168" t="s">
         <v>33</v>
@@ -28717,9 +26533,8 @@
     </row>
     <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
-      <c r="B149" s="154" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT([1]Regions!$C$3,1)&lt;&gt;"*",[1]Regions!$C$3,""),IF(LEFT([1]Regions!$D$3,1)&lt;&gt;"*",[1]Regions!$D$3,""))</f>
-        <v>IE,National</v>
+      <c r="B149" s="154" t="s">
+        <v>805</v>
       </c>
       <c r="C149" s="154" t="s">
         <v>391</v>
@@ -28737,9 +26552,8 @@
     </row>
     <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
-      <c r="B150" s="154" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT([1]Regions!$C$3,1)&lt;&gt;"*",[1]Regions!$C$3,""),IF(LEFT([1]Regions!$D$3,1)&lt;&gt;"*",[1]Regions!$D$3,""))</f>
-        <v>IE,National</v>
+      <c r="B150" s="154" t="s">
+        <v>805</v>
       </c>
       <c r="C150" s="154" t="s">
         <v>392</v>
@@ -28757,9 +26571,8 @@
     </row>
     <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="163"/>
-      <c r="B151" s="154" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT([1]Regions!$C$3,1)&lt;&gt;"*",[1]Regions!$C$3,""),IF(LEFT([1]Regions!$D$3,1)&lt;&gt;"*",[1]Regions!$D$3,""))</f>
-        <v>IE,National</v>
+      <c r="B151" s="154" t="s">
+        <v>805</v>
       </c>
       <c r="C151" s="154" t="s">
         <v>393</v>
@@ -28777,9 +26590,8 @@
     </row>
     <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
-      <c r="B152" s="154" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT([1]Regions!$C$3,1)&lt;&gt;"*",[1]Regions!$C$3,""),IF(LEFT([1]Regions!$D$3,1)&lt;&gt;"*",[1]Regions!$D$3,""))</f>
-        <v>IE,National</v>
+      <c r="B152" s="154" t="s">
+        <v>805</v>
       </c>
       <c r="C152" s="154" t="s">
         <v>394</v>
@@ -28797,9 +26609,8 @@
     </row>
     <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
-      <c r="B153" s="154" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT([1]Regions!$C$3,1)&lt;&gt;"*",[1]Regions!$C$3,""),IF(LEFT([1]Regions!$D$3,1)&lt;&gt;"*",[1]Regions!$D$3,""))</f>
-        <v>IE,National</v>
+      <c r="B153" s="154" t="s">
+        <v>805</v>
       </c>
       <c r="C153" s="154" t="s">
         <v>395</v>
@@ -28832,26 +26643,6 @@
     <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="G100:J100"/>
-    <mergeCell ref="K100:N100"/>
-    <mergeCell ref="O100:R100"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="U100:X100"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="K98:N98"/>
-    <mergeCell ref="O98:R98"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="U98:X98"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:X51"/>
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="U6:X6"/>
     <mergeCell ref="G4:J4"/>
@@ -28862,6 +26653,26 @@
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="K98:N98"/>
+    <mergeCell ref="O98:R98"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="U98:X98"/>
+    <mergeCell ref="G100:J100"/>
+    <mergeCell ref="K100:N100"/>
+    <mergeCell ref="O100:R100"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="U100:X100"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29975,13 +27786,11 @@
         <f t="shared" si="0"/>
         <v>Residential Lighting Apartment New</v>
       </c>
-      <c r="E6" s="71" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F6" s="206" t="str">
-        <f>[1]COMM!$O$18</f>
-        <v>RSDLT_Apt</v>
+      <c r="E6" s="71" t="s">
+        <v>448</v>
+      </c>
+      <c r="F6" s="206" t="s">
+        <v>413</v>
       </c>
       <c r="G6" s="214">
         <v>10</v>
@@ -30034,13 +27843,11 @@
         <f t="shared" si="0"/>
         <v>Residential Pumps &amp; Fans Apartment New</v>
       </c>
-      <c r="E7" s="197" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F7" s="208" t="str">
-        <f>[1]COMM!$O$21</f>
-        <v>RSDPF_Apt</v>
+      <c r="E7" s="197" t="s">
+        <v>448</v>
+      </c>
+      <c r="F7" s="208" t="s">
+        <v>414</v>
       </c>
       <c r="G7" s="215">
         <v>15</v>
@@ -30090,13 +27897,11 @@
         <f t="shared" si="0"/>
         <v>Residential Lighting Attached New</v>
       </c>
-      <c r="E8" s="71" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F8" s="210" t="str">
-        <f>[1]COMM!$O$19</f>
-        <v>RSDLT_Att</v>
+      <c r="E8" s="71" t="s">
+        <v>448</v>
+      </c>
+      <c r="F8" s="210" t="s">
+        <v>437</v>
       </c>
       <c r="G8" s="216">
         <v>10</v>
@@ -30146,13 +27951,11 @@
         <f t="shared" si="0"/>
         <v>Residential Pumps &amp; Fans Attached New</v>
       </c>
-      <c r="E9" s="197" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F9" s="208" t="str">
-        <f>[1]COMM!$O$22</f>
-        <v>RSDPF_Att</v>
+      <c r="E9" s="197" t="s">
+        <v>448</v>
+      </c>
+      <c r="F9" s="208" t="s">
+        <v>438</v>
       </c>
       <c r="G9" s="215">
         <v>15</v>
@@ -30199,13 +28002,11 @@
         <f t="shared" si="0"/>
         <v>Residential Lighting Detached New</v>
       </c>
-      <c r="E10" s="71" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F10" s="210" t="str">
-        <f>[1]COMM!$O$20</f>
-        <v>RSDLT_Det</v>
+      <c r="E10" s="71" t="s">
+        <v>448</v>
+      </c>
+      <c r="F10" s="210" t="s">
+        <v>445</v>
       </c>
       <c r="G10" s="216">
         <v>10</v>
@@ -30252,13 +28053,11 @@
         <f t="shared" si="0"/>
         <v>Residential Pumps &amp; Fans Detached New</v>
       </c>
-      <c r="E11" s="197" t="str">
-        <f>[1]SETUP!$B$26</f>
-        <v>RSDELC</v>
-      </c>
-      <c r="F11" s="208" t="str">
-        <f>[1]COMM!$O$23</f>
-        <v>RSDPF_Det</v>
+      <c r="E11" s="197" t="s">
+        <v>448</v>
+      </c>
+      <c r="F11" s="208" t="s">
+        <v>446</v>
       </c>
       <c r="G11" s="215">
         <v>15</v>
@@ -32882,76 +30681,60 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
-      <c r="G1" s="9" t="str">
-        <f>[3]RSD!K1</f>
-        <v>START</v>
-      </c>
-      <c r="H1" s="9" t="str">
-        <f>[3]RSD!L1</f>
-        <v>LIFE</v>
+      <c r="G1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>776</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
-      <c r="L1" s="9" t="str">
-        <f>[3]RSD!M1</f>
-        <v>NCAP_COST-2017</v>
-      </c>
-      <c r="M1" s="9" t="str">
-        <f>[3]RSD!N1</f>
-        <v>NCAP_COST-2020</v>
-      </c>
-      <c r="N1" s="9" t="str">
-        <f>[3]RSD!O1</f>
-        <v>NCAP_COST-2025</v>
-      </c>
-      <c r="O1" s="9" t="str">
-        <f>[3]RSD!P1</f>
-        <v>NCAP_COST-2030</v>
-      </c>
-      <c r="P1" s="9" t="str">
-        <f>[3]RSD!Q1</f>
-        <v>NCAP_COST-2040</v>
-      </c>
-      <c r="Q1" s="9" t="str">
-        <f>[3]RSD!R1</f>
-        <v>NCAP_COST-2050</v>
+      <c r="L1" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>782</v>
       </c>
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
-      <c r="U1" s="9" t="str">
-        <f>[3]RSD!S1</f>
-        <v>EFF-2017</v>
-      </c>
-      <c r="V1" s="9" t="str">
-        <f>[3]RSD!T1</f>
-        <v>EFF-2020</v>
-      </c>
-      <c r="W1" s="9" t="str">
-        <f>[3]RSD!U1</f>
-        <v>EFF-2025</v>
-      </c>
-      <c r="X1" s="9" t="str">
-        <f>[3]RSD!V1</f>
-        <v>EFF-2030</v>
-      </c>
-      <c r="Y1" s="9" t="str">
-        <f>[3]RSD!W1</f>
-        <v>EFF-2040</v>
-      </c>
-      <c r="Z1" s="9" t="str">
-        <f>[3]RSD!X1</f>
-        <v>EFF-2050</v>
+      <c r="U1" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>788</v>
       </c>
       <c r="AA1" s="11"/>
-      <c r="AB1" s="9" t="str">
-        <f>[3]RSD!F1</f>
-        <v>AFA</v>
-      </c>
-      <c r="AC1" s="9" t="str">
-        <f>[3]RSD!Z1</f>
-        <v>FIXOM</v>
+      <c r="AB1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="AD1" s="11"/>
       <c r="AE1" s="11"/>

--- a/SubRES_TMPL/SubRes_RSD.xlsx
+++ b/SubRES_TMPL/SubRes_RSD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6CDE9D-6722-4980-877E-B9EA14D0288F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3F6A0E-273E-42FB-BB0D-09CD80B024CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
   </bookViews>
@@ -16258,8 +16258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F8057-C735-4662-BAA6-EEDCF7B57273}">
   <dimension ref="A2:AO170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U111" sqref="U111:X111"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18034,7 +18034,7 @@
       </c>
     </row>
     <row r="24" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C24" s="76" t="str">
+      <c r="C24" s="70" t="str">
         <f>"R-HC_Apt"&amp;"_"&amp;RIGHT(E24,6)&amp;"_HPN1"</f>
         <v>R-HC_Apt_RSDELC_HPN1</v>
       </c>
@@ -18212,7 +18212,7 @@
       </c>
     </row>
     <row r="26" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="76" t="str">
+      <c r="C26" s="70" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E26,6)&amp;"_HPN1"</f>
         <v>R-H_Apt_RSDELC_HPN1</v>
       </c>
@@ -18402,7 +18402,7 @@
       </c>
     </row>
     <row r="28" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="76" t="str">
+      <c r="C28" s="70" t="str">
         <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E28,6)&amp;"_HPN3"</f>
         <v>R-SH_Apt_RSDELC_HPN3</v>
       </c>
@@ -18731,7 +18731,7 @@
       </c>
     </row>
     <row r="32" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C32" s="76" t="str">
+      <c r="C32" s="70" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E32,6)&amp;"_HPN2"</f>
         <v>R-H_Apt_GASNAT_HPN2</v>
       </c>
@@ -19037,7 +19037,7 @@
       </c>
     </row>
     <row r="36" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="70" t="str">
+      <c r="C36" s="76" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E36,6)&amp;"_N1"</f>
         <v>R-H_Apt_RSDHET_N1</v>
       </c>
@@ -19324,7 +19324,7 @@
       </c>
     </row>
     <row r="40" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C40" s="76" t="str">
+      <c r="C40" s="70" t="str">
         <f t="shared" ref="C40:C43" si="15">"R-WH_Apt"&amp;"_"&amp;RIGHT(E40,6)&amp;"_N1"</f>
         <v>R-WH_Apt_RENSOL_N1</v>
       </c>
@@ -19458,7 +19458,7 @@
       </c>
     </row>
     <row r="42" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C42" s="76" t="str">
+      <c r="C42" s="70" t="str">
         <f t="shared" si="15"/>
         <v>R-WH_Apt_BIOWOO_N1</v>
       </c>
@@ -26690,26 +26690,6 @@
     <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="G100:J100"/>
-    <mergeCell ref="K100:N100"/>
-    <mergeCell ref="O100:R100"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="U100:X100"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="K98:N98"/>
-    <mergeCell ref="O98:R98"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="U98:X98"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:X51"/>
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="U6:X6"/>
     <mergeCell ref="G4:J4"/>
@@ -26720,6 +26700,26 @@
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="K98:N98"/>
+    <mergeCell ref="O98:R98"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="U98:X98"/>
+    <mergeCell ref="G100:J100"/>
+    <mergeCell ref="K100:N100"/>
+    <mergeCell ref="O100:R100"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="U100:X100"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRes_RSD.xlsx
+++ b/SubRES_TMPL/SubRes_RSD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3F6A0E-273E-42FB-BB0D-09CD80B024CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D28D4E-FD08-497E-ADF8-E36C76EA9A88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -98,21 +98,6 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="O7" authorId="0" shapeId="0" xr:uid="{22157847-591C-4F82-B9DF-A33D999C0BB4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="AF7" authorId="0" shapeId="0" xr:uid="{374DB055-F5C1-43ED-915B-ECEEEDC762B6}">
       <text>
         <r>
@@ -152,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{D3BAD786-F081-4BAB-B2A1-60A36FA3224F}">
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{7F2FC688-9EFD-436A-9727-748A7EA825DC}">
       <text>
         <r>
           <rPr>
@@ -221,30 +206,6 @@
           </rPr>
           <t xml:space="preserve">
 from TIMES-Starter</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G34" authorId="0" shapeId="0" xr:uid="{5ED39361-1BF6-49B1-B498-CCC4698510A8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Element Energy - Hybrid Heat Pump Study Final Report</t>
         </r>
       </text>
     </comment>
@@ -344,21 +305,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="O54" authorId="0" shapeId="0" xr:uid="{64508FDA-C44D-4B01-83E8-32480F85FAA4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="AF54" authorId="0" shapeId="0" xr:uid="{43FB8299-38F2-46F1-8559-95F979595FFC}">
       <text>
         <r>
@@ -383,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O55" authorId="0" shapeId="0" xr:uid="{6D5426BC-A9FD-4A75-9777-A94CB297237A}">
+    <comment ref="O55" authorId="0" shapeId="0" xr:uid="{E45F68E1-FE4B-49B1-9116-F8E53395A76B}">
       <text>
         <r>
           <rPr>
@@ -398,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G56" authorId="0" shapeId="0" xr:uid="{CF1652EC-41D7-4CE1-9668-6F6E3106EAD5}">
+    <comment ref="G60" authorId="0" shapeId="0" xr:uid="{2B894309-01C1-483E-BE14-F173630551CD}">
       <text>
         <r>
           <rPr>
@@ -470,31 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G80" authorId="0" shapeId="0" xr:uid="{D6E2AE82-F3C2-4EFA-A8B1-A535597F0557}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Element Energy - Hybrid Heat Pump Study Final Report</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K80" authorId="0" shapeId="0" xr:uid="{5DC8EF33-4551-4834-8724-A181D9C12464}">
+    <comment ref="K80" authorId="0" shapeId="0" xr:uid="{E26997F1-021A-4ED9-9557-6378828469C6}">
       <text>
         <r>
           <rPr>
@@ -590,21 +512,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="O101" authorId="0" shapeId="0" xr:uid="{F851B9BA-EBBC-4A7F-A16B-D7F6BEA0FCAE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="AF101" authorId="0" shapeId="0" xr:uid="{0F890FA3-BF1E-437F-8BB2-AA54458E96F4}">
       <text>
         <r>
@@ -629,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O102" authorId="0" shapeId="0" xr:uid="{F13B1811-D48B-4F1D-9043-2FF6883B870A}">
+    <comment ref="O102" authorId="0" shapeId="0" xr:uid="{AFB26998-A853-40AD-8103-F6F25556BACA}">
       <text>
         <r>
           <rPr>
@@ -644,7 +551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G103" authorId="0" shapeId="0" xr:uid="{582C334A-D35F-47CB-9884-5A415012E3B0}">
+    <comment ref="G107" authorId="0" shapeId="0" xr:uid="{08FC7738-95FB-4099-8A73-FF3C9F2C8EDB}">
       <text>
         <r>
           <rPr>
@@ -716,31 +623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G127" authorId="0" shapeId="0" xr:uid="{298579BB-CD98-4137-937D-465AA0AF35E2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Element Energy - Hybrid Heat Pump Study Final Report</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K127" authorId="0" shapeId="0" xr:uid="{7A064822-AA12-4051-AD2F-515E40B17894}">
+    <comment ref="K127" authorId="0" shapeId="0" xr:uid="{D916E831-41C1-488B-B9E6-511CE63C30B4}">
       <text>
         <r>
           <rPr>
@@ -1207,7 +1090,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="807">
   <si>
     <t>Document type:</t>
   </si>
@@ -3646,6 +3529,9 @@
   </si>
   <si>
     <t>IE,National</t>
+  </si>
+  <si>
+    <t>Thermal efficiency - UPD Tables used</t>
   </si>
 </sst>
 </file>
@@ -5008,7 +4894,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="363">
+  <cellXfs count="393">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5706,6 +5592,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="21" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="31" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="20% - Colore 2" xfId="11" xr:uid="{3E3DAF22-4D86-48A9-B6EE-8D230C1E993C}"/>
@@ -16258,8 +16174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F8057-C735-4662-BAA6-EEDCF7B57273}">
   <dimension ref="A2:AO170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:C43"/>
+    <sheetView tabSelected="1" topLeftCell="B88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N108" sqref="N108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16409,7 +16325,7 @@
         <v>335</v>
       </c>
       <c r="G4" s="359" t="s">
-        <v>336</v>
+        <v>806</v>
       </c>
       <c r="H4" s="360"/>
       <c r="I4" s="360"/>
@@ -16610,39 +16526,39 @@
         <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E7,6)&amp;"_N1"</f>
         <v>R-SH_Apt_OILKER_N1</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="66" t="s">
         <v>352</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="137" t="s">
         <v>789</v>
       </c>
-      <c r="F7" s="76" t="s">
+      <c r="F7" s="103" t="s">
         <v>410</v>
       </c>
-      <c r="G7" s="89">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="H7" s="78">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="I7" s="78">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="J7" s="90">
-        <v>0.86799999999999999</v>
+      <c r="G7" s="369">
+        <v>1</v>
+      </c>
+      <c r="H7" s="370">
+        <v>1</v>
+      </c>
+      <c r="I7" s="370">
+        <v>1</v>
+      </c>
+      <c r="J7" s="371">
+        <v>1</v>
       </c>
       <c r="K7" s="93"/>
       <c r="L7" s="94"/>
       <c r="M7" s="94"/>
       <c r="N7" s="95"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="95"/>
+      <c r="O7" s="369"/>
+      <c r="P7" s="370"/>
+      <c r="Q7" s="370"/>
+      <c r="R7" s="371"/>
       <c r="S7" s="99">
         <v>20</v>
       </c>
-      <c r="T7" s="68"/>
+      <c r="T7" s="137"/>
       <c r="U7" s="66">
         <v>78.826086956521735</v>
       </c>
@@ -16655,19 +16571,19 @@
       <c r="X7" s="103">
         <v>78.826086956521735</v>
       </c>
-      <c r="Y7" s="109">
+      <c r="Y7" s="133">
         <v>1.3043478260869565</v>
       </c>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="89"/>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="119"/>
-      <c r="AD7" s="119"/>
-      <c r="AE7" s="109">
+      <c r="Z7" s="136"/>
+      <c r="AA7" s="391"/>
+      <c r="AB7" s="391"/>
+      <c r="AC7" s="391"/>
+      <c r="AD7" s="391"/>
+      <c r="AE7" s="133">
         <v>31.54</v>
       </c>
-      <c r="AF7" s="112"/>
-      <c r="AG7" s="112">
+      <c r="AF7" s="136"/>
+      <c r="AG7" s="136">
         <v>2020</v>
       </c>
       <c r="AI7" s="154" t="s">
@@ -16697,51 +16613,51 @@
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E8,6)&amp;"_N1"</f>
         <v>R-H_Apt_OILKER_N1</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="69" t="s">
         <v>353</v>
       </c>
       <c r="E8" s="71" t="s">
         <v>789</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="104" t="s">
         <v>799</v>
       </c>
-      <c r="G8" s="91">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="H8" s="79">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="I8" s="79">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="J8" s="92">
-        <v>0.86799999999999999</v>
+      <c r="G8" s="366">
+        <v>1</v>
+      </c>
+      <c r="H8" s="367">
+        <v>1</v>
+      </c>
+      <c r="I8" s="367">
+        <v>1</v>
+      </c>
+      <c r="J8" s="368">
+        <v>1</v>
       </c>
       <c r="K8" s="91"/>
       <c r="L8" s="79"/>
       <c r="M8" s="79"/>
       <c r="N8" s="92"/>
-      <c r="O8" s="91">
+      <c r="O8" s="366">
         <f>G8*0.7</f>
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="P8" s="79">
-        <f t="shared" ref="P8" si="0">H8*0.7</f>
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="Q8" s="79">
-        <f t="shared" ref="Q8" si="1">I8*0.7</f>
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="R8" s="92">
-        <f t="shared" ref="R8" si="2">J8*0.7</f>
-        <v>0.60759999999999992</v>
+        <v>0.7</v>
+      </c>
+      <c r="P8" s="367">
+        <f t="shared" ref="P8:P9" si="0">H8*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="Q8" s="367">
+        <f t="shared" ref="Q8:Q9" si="1">I8*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="R8" s="368">
+        <f t="shared" ref="R8:R9" si="2">J8*0.7</f>
+        <v>0.7</v>
       </c>
       <c r="S8" s="100">
         <v>20</v>
       </c>
-      <c r="T8" s="72"/>
+      <c r="T8" s="71"/>
       <c r="U8" s="69">
         <v>82.767391304347825</v>
       </c>
@@ -16758,7 +16674,7 @@
         <v>1.3043478260869565</v>
       </c>
       <c r="Z8" s="113"/>
-      <c r="AA8" s="91"/>
+      <c r="AA8" s="120"/>
       <c r="AB8" s="120"/>
       <c r="AC8" s="120"/>
       <c r="AD8" s="120"/>
@@ -16794,47 +16710,51 @@
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E9,6)&amp;"_N2"</f>
         <v>R-H_Apt_OILKER_N2</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="87" t="s">
         <v>354</v>
       </c>
       <c r="E9" s="77" t="s">
         <v>790</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="105" t="s">
         <v>799</v>
       </c>
-      <c r="G9" s="89">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="H9" s="78">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="I9" s="78">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="J9" s="90">
-        <v>0.90100000000000002</v>
+      <c r="G9" s="363">
+        <v>1</v>
+      </c>
+      <c r="H9" s="364">
+        <v>1</v>
+      </c>
+      <c r="I9" s="364">
+        <v>1</v>
+      </c>
+      <c r="J9" s="365">
+        <v>1</v>
       </c>
       <c r="K9" s="89"/>
       <c r="L9" s="78"/>
       <c r="M9" s="78"/>
       <c r="N9" s="90"/>
-      <c r="O9" s="89">
-        <v>0.88227999999999995</v>
-      </c>
-      <c r="P9" s="78">
-        <v>0.88227999999999995</v>
-      </c>
-      <c r="Q9" s="78">
-        <v>0.88227999999999995</v>
-      </c>
-      <c r="R9" s="90">
-        <v>0.88227999999999995</v>
+      <c r="O9" s="363">
+        <f>G9*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="P9" s="364">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q9" s="364">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="R9" s="365">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
       </c>
       <c r="S9" s="101">
         <v>20</v>
       </c>
-      <c r="T9" s="88"/>
+      <c r="T9" s="77"/>
       <c r="U9" s="87">
         <v>341.76736674638045</v>
       </c>
@@ -16851,7 +16771,7 @@
         <v>14.38</v>
       </c>
       <c r="Z9" s="112"/>
-      <c r="AA9" s="89">
+      <c r="AA9" s="119">
         <v>0.22</v>
       </c>
       <c r="AB9" s="119"/>
@@ -16891,51 +16811,51 @@
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E10,6)&amp;"_N3"</f>
         <v>R-H_Apt_OILKER_N3</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="69" t="s">
         <v>358</v>
       </c>
       <c r="E10" s="71" t="s">
         <v>791</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="104" t="s">
         <v>799</v>
       </c>
-      <c r="G10" s="91">
-        <v>0.80079999999999996</v>
-      </c>
-      <c r="H10" s="79">
-        <v>0.82079999999999997</v>
-      </c>
-      <c r="I10" s="79">
-        <v>0.82079999999999997</v>
-      </c>
-      <c r="J10" s="92">
-        <v>0.82079999999999997</v>
+      <c r="G10" s="366">
+        <v>1</v>
+      </c>
+      <c r="H10" s="367">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="I10" s="367">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="J10" s="368">
+        <v>1.0249999999999999</v>
       </c>
       <c r="K10" s="91"/>
       <c r="L10" s="79"/>
       <c r="M10" s="79"/>
       <c r="N10" s="92"/>
-      <c r="O10" s="91">
+      <c r="O10" s="366">
         <f>G10*0.7</f>
-        <v>0.56055999999999995</v>
-      </c>
-      <c r="P10" s="79">
+        <v>0.7</v>
+      </c>
+      <c r="P10" s="367">
         <f t="shared" ref="P10:R10" si="5">H10*0.7</f>
-        <v>0.57455999999999996</v>
-      </c>
-      <c r="Q10" s="79">
+        <v>0.71749999999999992</v>
+      </c>
+      <c r="Q10" s="367">
         <f t="shared" si="5"/>
-        <v>0.57455999999999996</v>
-      </c>
-      <c r="R10" s="92">
+        <v>0.71749999999999992</v>
+      </c>
+      <c r="R10" s="368">
         <f t="shared" si="5"/>
-        <v>0.57455999999999996</v>
+        <v>0.71749999999999992</v>
       </c>
       <c r="S10" s="100">
         <v>20</v>
       </c>
-      <c r="T10" s="72"/>
+      <c r="T10" s="71"/>
       <c r="U10" s="69">
         <v>93.035670457334589</v>
       </c>
@@ -16952,7 +16872,7 @@
         <v>5.3472429210134127</v>
       </c>
       <c r="Z10" s="113"/>
-      <c r="AA10" s="91"/>
+      <c r="AA10" s="120"/>
       <c r="AB10" s="120">
         <v>0.47</v>
       </c>
@@ -16990,39 +16910,39 @@
         <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E11,6)&amp;"_N1"</f>
         <v>R-SH_Apt_GASNAT_N1</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="87" t="s">
         <v>351</v>
       </c>
       <c r="E11" s="77" t="s">
         <v>451</v>
       </c>
-      <c r="F11" s="76" t="s">
+      <c r="F11" s="105" t="s">
         <v>410</v>
       </c>
-      <c r="G11" s="89">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="H11" s="78">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="I11" s="78">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="J11" s="90">
-        <v>0.86799999999999999</v>
+      <c r="G11" s="363">
+        <v>1</v>
+      </c>
+      <c r="H11" s="364">
+        <v>1</v>
+      </c>
+      <c r="I11" s="364">
+        <v>1</v>
+      </c>
+      <c r="J11" s="365">
+        <v>1</v>
       </c>
       <c r="K11" s="89"/>
       <c r="L11" s="78"/>
       <c r="M11" s="78"/>
       <c r="N11" s="90"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="90"/>
+      <c r="O11" s="363"/>
+      <c r="P11" s="364"/>
+      <c r="Q11" s="364"/>
+      <c r="R11" s="365"/>
       <c r="S11" s="101">
         <v>20</v>
       </c>
-      <c r="T11" s="88"/>
+      <c r="T11" s="77"/>
       <c r="U11" s="87">
         <v>62.01691785038426</v>
       </c>
@@ -17039,7 +16959,7 @@
         <v>1.2295081967213115</v>
       </c>
       <c r="Z11" s="112"/>
-      <c r="AA11" s="89"/>
+      <c r="AA11" s="119"/>
       <c r="AB11" s="119"/>
       <c r="AC11" s="119"/>
       <c r="AD11" s="119"/>
@@ -17075,47 +16995,51 @@
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E12,6)&amp;"_N1"</f>
         <v>R-H_Apt_GASNAT_N1</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="69" t="s">
         <v>355</v>
       </c>
       <c r="E12" s="71" t="s">
         <v>451</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="104" t="s">
         <v>799</v>
       </c>
-      <c r="G12" s="91">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="H12" s="79">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="I12" s="79">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="J12" s="92">
-        <v>0.86799999999999999</v>
+      <c r="G12" s="366">
+        <v>1</v>
+      </c>
+      <c r="H12" s="367">
+        <v>1</v>
+      </c>
+      <c r="I12" s="367">
+        <v>1</v>
+      </c>
+      <c r="J12" s="368">
+        <v>1</v>
       </c>
       <c r="K12" s="91"/>
       <c r="L12" s="79"/>
       <c r="M12" s="79"/>
       <c r="N12" s="92"/>
-      <c r="O12" s="91">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="P12" s="79">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="Q12" s="79">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="R12" s="92">
-        <v>0.60759999999999992</v>
+      <c r="O12" s="366">
+        <f>G12*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="P12" s="367">
+        <f t="shared" ref="P12:P13" si="6">H12*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="Q12" s="367">
+        <f t="shared" ref="Q12:Q13" si="7">I12*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="R12" s="368">
+        <f t="shared" ref="R12:R13" si="8">J12*0.7</f>
+        <v>0.7</v>
       </c>
       <c r="S12" s="100">
         <v>20</v>
       </c>
-      <c r="T12" s="72"/>
+      <c r="T12" s="71"/>
       <c r="U12" s="69">
         <v>65.117763742903477</v>
       </c>
@@ -17132,7 +17056,7 @@
         <v>1.2295081967213115</v>
       </c>
       <c r="Z12" s="113"/>
-      <c r="AA12" s="91"/>
+      <c r="AA12" s="120"/>
       <c r="AB12" s="120"/>
       <c r="AC12" s="120"/>
       <c r="AD12" s="120"/>
@@ -17168,47 +17092,51 @@
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E13,6)&amp;"_N2"</f>
         <v>R-H_Apt_GASNAT_N2</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="87" t="s">
         <v>356</v>
       </c>
       <c r="E13" s="77" t="s">
         <v>792</v>
       </c>
-      <c r="F13" s="76" t="s">
+      <c r="F13" s="105" t="s">
         <v>799</v>
       </c>
-      <c r="G13" s="89">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="H13" s="78">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="I13" s="78">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="J13" s="90">
-        <v>0.90100000000000002</v>
+      <c r="G13" s="363">
+        <v>1</v>
+      </c>
+      <c r="H13" s="364">
+        <v>1</v>
+      </c>
+      <c r="I13" s="364">
+        <v>1</v>
+      </c>
+      <c r="J13" s="365">
+        <v>1</v>
       </c>
       <c r="K13" s="89"/>
       <c r="L13" s="78"/>
       <c r="M13" s="78"/>
       <c r="N13" s="90"/>
-      <c r="O13" s="89">
-        <v>0.88227999999999995</v>
-      </c>
-      <c r="P13" s="78">
-        <v>0.88227999999999995</v>
-      </c>
-      <c r="Q13" s="78">
-        <v>0.88227999999999995</v>
-      </c>
-      <c r="R13" s="90">
-        <v>0.88227999999999995</v>
+      <c r="O13" s="363">
+        <f>G13*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="P13" s="364">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q13" s="364">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="R13" s="365">
+        <f t="shared" si="8"/>
+        <v>0.7</v>
       </c>
       <c r="S13" s="101">
         <v>20</v>
       </c>
-      <c r="T13" s="88"/>
+      <c r="T13" s="77"/>
       <c r="U13" s="87">
         <v>325.38126012155396</v>
       </c>
@@ -17225,7 +17153,7 @@
         <v>14.316939890710385</v>
       </c>
       <c r="Z13" s="112"/>
-      <c r="AA13" s="89">
+      <c r="AA13" s="119">
         <v>0.22</v>
       </c>
       <c r="AB13" s="119"/>
@@ -17265,51 +17193,51 @@
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E14,6)&amp;"_N3"</f>
         <v>R-H_Apt_GASNAT_N3</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="69" t="s">
         <v>357</v>
       </c>
       <c r="E14" s="71" t="s">
         <v>793</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="104" t="s">
         <v>799</v>
       </c>
-      <c r="G14" s="91">
-        <v>0.80079999999999996</v>
-      </c>
-      <c r="H14" s="79">
-        <v>0.82079999999999997</v>
-      </c>
-      <c r="I14" s="79">
-        <v>0.82079999999999997</v>
-      </c>
-      <c r="J14" s="92">
-        <v>0.82079999999999997</v>
+      <c r="G14" s="366">
+        <v>1</v>
+      </c>
+      <c r="H14" s="367">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="I14" s="367">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="J14" s="368">
+        <v>1.0249999999999999</v>
       </c>
       <c r="K14" s="91"/>
       <c r="L14" s="79"/>
       <c r="M14" s="79"/>
       <c r="N14" s="92"/>
-      <c r="O14" s="91">
+      <c r="O14" s="366">
         <f>G14*0.7</f>
-        <v>0.56055999999999995</v>
-      </c>
-      <c r="P14" s="79">
-        <f t="shared" ref="P14:R14" si="6">H14*0.7</f>
-        <v>0.57455999999999996</v>
-      </c>
-      <c r="Q14" s="79">
-        <f t="shared" si="6"/>
-        <v>0.57455999999999996</v>
-      </c>
-      <c r="R14" s="92">
-        <f t="shared" si="6"/>
-        <v>0.57455999999999996</v>
+        <v>0.7</v>
+      </c>
+      <c r="P14" s="367">
+        <f t="shared" ref="P14:R14" si="9">H14*0.7</f>
+        <v>0.71749999999999992</v>
+      </c>
+      <c r="Q14" s="367">
+        <f t="shared" si="9"/>
+        <v>0.71749999999999992</v>
+      </c>
+      <c r="R14" s="368">
+        <f t="shared" si="9"/>
+        <v>0.71749999999999992</v>
       </c>
       <c r="S14" s="100">
         <v>20</v>
       </c>
-      <c r="T14" s="72"/>
+      <c r="T14" s="71"/>
       <c r="U14" s="69">
         <v>89.356293659586896</v>
       </c>
@@ -17326,7 +17254,7 @@
         <v>5.3472429210134127</v>
       </c>
       <c r="Z14" s="113"/>
-      <c r="AA14" s="91"/>
+      <c r="AA14" s="120"/>
       <c r="AB14" s="120">
         <v>0.47</v>
       </c>
@@ -17366,39 +17294,39 @@
         <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E15,6)&amp;"_N1"</f>
         <v>R-SH_Apt_OILLPG_N1</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="87" t="s">
         <v>361</v>
       </c>
       <c r="E15" s="77" t="s">
         <v>452</v>
       </c>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="105" t="s">
         <v>410</v>
       </c>
-      <c r="G15" s="89">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="H15" s="78">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="I15" s="78">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="J15" s="90">
-        <v>0.86799999999999999</v>
+      <c r="G15" s="363">
+        <v>1</v>
+      </c>
+      <c r="H15" s="364">
+        <v>1</v>
+      </c>
+      <c r="I15" s="364">
+        <v>1</v>
+      </c>
+      <c r="J15" s="365">
+        <v>1</v>
       </c>
       <c r="K15" s="89"/>
       <c r="L15" s="78"/>
       <c r="M15" s="78"/>
       <c r="N15" s="90"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="90"/>
+      <c r="O15" s="363"/>
+      <c r="P15" s="364"/>
+      <c r="Q15" s="364"/>
+      <c r="R15" s="365"/>
       <c r="S15" s="101">
         <v>20</v>
       </c>
-      <c r="T15" s="88"/>
+      <c r="T15" s="77"/>
       <c r="U15" s="87">
         <v>62.01691785038426</v>
       </c>
@@ -17415,7 +17343,7 @@
         <v>1.2295081967213115</v>
       </c>
       <c r="Z15" s="112"/>
-      <c r="AA15" s="89"/>
+      <c r="AA15" s="119"/>
       <c r="AB15" s="119"/>
       <c r="AC15" s="119"/>
       <c r="AD15" s="119"/>
@@ -17451,51 +17379,51 @@
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E16,6)&amp;"_N1"</f>
         <v>R-H_Apt_OILLPG_N1</v>
       </c>
-      <c r="D16" s="70" t="s">
+      <c r="D16" s="69" t="s">
         <v>362</v>
       </c>
       <c r="E16" s="71" t="s">
         <v>452</v>
       </c>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="104" t="s">
         <v>799</v>
       </c>
-      <c r="G16" s="91">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="H16" s="79">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="I16" s="79">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="J16" s="92">
-        <v>0.86799999999999999</v>
+      <c r="G16" s="366">
+        <v>1</v>
+      </c>
+      <c r="H16" s="367">
+        <v>1</v>
+      </c>
+      <c r="I16" s="367">
+        <v>1</v>
+      </c>
+      <c r="J16" s="368">
+        <v>1</v>
       </c>
       <c r="K16" s="91"/>
       <c r="L16" s="79"/>
       <c r="M16" s="79"/>
       <c r="N16" s="92"/>
-      <c r="O16" s="91">
+      <c r="O16" s="366">
         <f>G16*0.7</f>
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="P16" s="79">
-        <f t="shared" ref="P16:R16" si="7">H16*0.7</f>
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="Q16" s="79">
-        <f t="shared" si="7"/>
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="R16" s="92">
-        <f t="shared" si="7"/>
-        <v>0.60759999999999992</v>
+        <v>0.7</v>
+      </c>
+      <c r="P16" s="367">
+        <f t="shared" ref="P16:R16" si="10">H16*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="Q16" s="367">
+        <f t="shared" si="10"/>
+        <v>0.7</v>
+      </c>
+      <c r="R16" s="368">
+        <f t="shared" si="10"/>
+        <v>0.7</v>
       </c>
       <c r="S16" s="100">
         <v>20</v>
       </c>
-      <c r="T16" s="72"/>
+      <c r="T16" s="71"/>
       <c r="U16" s="69">
         <v>65.117763742903477</v>
       </c>
@@ -17512,7 +17440,7 @@
         <v>1.2295081967213115</v>
       </c>
       <c r="Z16" s="113"/>
-      <c r="AA16" s="91"/>
+      <c r="AA16" s="120"/>
       <c r="AB16" s="120"/>
       <c r="AC16" s="120"/>
       <c r="AD16" s="120"/>
@@ -17548,39 +17476,39 @@
         <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E17,6)&amp;"_N1"</f>
         <v>R-SH_Apt_BIOWOO_N1</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="87" t="s">
         <v>363</v>
       </c>
       <c r="E17" s="77" t="s">
         <v>794</v>
       </c>
-      <c r="F17" s="76" t="s">
+      <c r="F17" s="105" t="s">
         <v>410</v>
       </c>
-      <c r="G17" s="89">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H17" s="78">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="I17" s="78">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="J17" s="90">
-        <v>0.88500000000000001</v>
+      <c r="G17" s="363">
+        <v>1</v>
+      </c>
+      <c r="H17" s="364">
+        <v>1</v>
+      </c>
+      <c r="I17" s="364">
+        <v>1</v>
+      </c>
+      <c r="J17" s="365">
+        <v>1</v>
       </c>
       <c r="K17" s="89"/>
       <c r="L17" s="78"/>
       <c r="M17" s="78"/>
       <c r="N17" s="90"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="90"/>
+      <c r="O17" s="363"/>
+      <c r="P17" s="364"/>
+      <c r="Q17" s="364"/>
+      <c r="R17" s="365"/>
       <c r="S17" s="101">
         <v>20</v>
       </c>
-      <c r="T17" s="88"/>
+      <c r="T17" s="77"/>
       <c r="U17" s="87">
         <v>211.49571428571429</v>
       </c>
@@ -17597,7 +17525,7 @@
         <v>8.5714285714285712</v>
       </c>
       <c r="Z17" s="112"/>
-      <c r="AA17" s="89"/>
+      <c r="AA17" s="119"/>
       <c r="AB17" s="119"/>
       <c r="AC17" s="119"/>
       <c r="AD17" s="119"/>
@@ -17633,51 +17561,51 @@
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E18,6)&amp;"_N1"</f>
         <v>R-H_Apt_BIOWOO_N1</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="69" t="s">
         <v>364</v>
       </c>
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="71" t="s">
         <v>794</v>
       </c>
-      <c r="F18" s="73" t="s">
+      <c r="F18" s="104" t="s">
         <v>799</v>
       </c>
-      <c r="G18" s="91">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H18" s="79">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="I18" s="79">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="J18" s="92">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="K18" s="96"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="96">
+      <c r="G18" s="366">
+        <v>1</v>
+      </c>
+      <c r="H18" s="367">
+        <v>1</v>
+      </c>
+      <c r="I18" s="367">
+        <v>1</v>
+      </c>
+      <c r="J18" s="368">
+        <v>1</v>
+      </c>
+      <c r="K18" s="91"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="366">
         <f>G18*0.7</f>
-        <v>0.61949999999999994</v>
-      </c>
-      <c r="P18" s="97">
+        <v>0.7</v>
+      </c>
+      <c r="P18" s="367">
         <f>H18*0.7</f>
-        <v>0.61949999999999994</v>
-      </c>
-      <c r="Q18" s="97">
+        <v>0.7</v>
+      </c>
+      <c r="Q18" s="367">
         <f>I18*0.7</f>
-        <v>0.61949999999999994</v>
-      </c>
-      <c r="R18" s="98">
+        <v>0.7</v>
+      </c>
+      <c r="R18" s="368">
         <f>J18*0.7</f>
-        <v>0.61949999999999994</v>
-      </c>
-      <c r="S18" s="102">
+        <v>0.7</v>
+      </c>
+      <c r="S18" s="100">
         <v>20</v>
       </c>
-      <c r="T18" s="75"/>
+      <c r="T18" s="71"/>
       <c r="U18" s="69">
         <v>211.49571428571429</v>
       </c>
@@ -17690,15 +17618,15 @@
       <c r="X18" s="104">
         <v>211.49571428571429</v>
       </c>
-      <c r="Y18" s="111">
+      <c r="Y18" s="110">
         <v>8.5714285714285712</v>
       </c>
-      <c r="Z18" s="114"/>
-      <c r="AA18" s="96"/>
-      <c r="AB18" s="121"/>
-      <c r="AC18" s="121"/>
-      <c r="AD18" s="121"/>
-      <c r="AE18" s="111">
+      <c r="Z18" s="113"/>
+      <c r="AA18" s="120"/>
+      <c r="AB18" s="120"/>
+      <c r="AC18" s="120"/>
+      <c r="AD18" s="120"/>
+      <c r="AE18" s="110">
         <v>31.54</v>
       </c>
       <c r="AF18" s="113"/>
@@ -17729,12 +17657,72 @@
       <c r="C19" s="335" t="s">
         <v>773</v>
       </c>
-      <c r="D19" s="335" t="s">
+      <c r="D19" s="377" t="s">
         <v>774</v>
       </c>
-      <c r="E19" s="194" t="s">
+      <c r="E19" s="170" t="s">
         <v>775</v>
       </c>
+      <c r="F19" s="143"/>
+      <c r="G19" s="372">
+        <v>1</v>
+      </c>
+      <c r="H19" s="373">
+        <v>1</v>
+      </c>
+      <c r="I19" s="373">
+        <v>1</v>
+      </c>
+      <c r="J19" s="374">
+        <v>1</v>
+      </c>
+      <c r="K19" s="375"/>
+      <c r="L19" s="376"/>
+      <c r="M19" s="376"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="372">
+        <f>G19*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="P19" s="373">
+        <f>H19*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="Q19" s="373">
+        <f>I19*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="R19" s="374">
+        <f>J19*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="S19" s="149">
+        <v>20</v>
+      </c>
+      <c r="T19" s="170"/>
+      <c r="U19" s="142">
+        <v>78.826086956521735</v>
+      </c>
+      <c r="V19" s="138">
+        <v>78.826086956521735</v>
+      </c>
+      <c r="W19" s="138">
+        <v>78.826086956521735</v>
+      </c>
+      <c r="X19" s="143">
+        <v>78.826086956521735</v>
+      </c>
+      <c r="Y19" s="134">
+        <v>1.3043478260869565</v>
+      </c>
+      <c r="Z19" s="390"/>
+      <c r="AA19" s="390"/>
+      <c r="AB19" s="390"/>
+      <c r="AC19" s="390"/>
+      <c r="AD19" s="390"/>
+      <c r="AE19" s="390"/>
+      <c r="AF19" s="390"/>
+      <c r="AG19" s="390"/>
       <c r="AI19" s="158"/>
       <c r="AJ19" s="159" t="str">
         <f>C21</f>
@@ -17791,11 +17779,11 @@
       <c r="AG20" s="81"/>
       <c r="AI20" s="152"/>
       <c r="AJ20" s="151" t="str">
-        <f t="shared" ref="AJ20:AK26" si="8">C23</f>
+        <f t="shared" ref="AJ20:AK26" si="11">C23</f>
         <v>R-SH_Apt_RSDELC_HPN1</v>
       </c>
       <c r="AK20" s="151" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AL20" s="152" t="s">
@@ -17810,29 +17798,29 @@
       </c>
     </row>
     <row r="21" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C21" s="76" t="str">
+      <c r="C21" s="144" t="str">
         <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E21,6)&amp;"_N1"</f>
         <v>R-SH_Apt_RSDELC_N1</v>
       </c>
-      <c r="D21" s="70" t="s">
+      <c r="D21" s="128" t="s">
         <v>366</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="172" t="s">
         <v>448</v>
       </c>
-      <c r="F21" s="70" t="s">
+      <c r="F21" s="129" t="s">
         <v>410</v>
       </c>
-      <c r="G21" s="91">
+      <c r="G21" s="378">
         <v>1</v>
       </c>
-      <c r="H21" s="79">
+      <c r="H21" s="379">
         <v>1</v>
       </c>
-      <c r="I21" s="79">
+      <c r="I21" s="379">
         <v>1</v>
       </c>
-      <c r="J21" s="92">
+      <c r="J21" s="380">
         <v>1</v>
       </c>
       <c r="K21" s="122"/>
@@ -17843,7 +17831,7 @@
       <c r="P21" s="123"/>
       <c r="Q21" s="123"/>
       <c r="R21" s="124"/>
-      <c r="S21" s="125">
+      <c r="S21" s="172">
         <v>15</v>
       </c>
       <c r="T21" s="126"/>
@@ -17870,17 +17858,17 @@
       <c r="AE21" s="130">
         <v>31.54</v>
       </c>
-      <c r="AF21" s="113"/>
-      <c r="AG21" s="113">
+      <c r="AF21" s="131"/>
+      <c r="AG21" s="131">
         <v>2020</v>
       </c>
       <c r="AI21" s="154"/>
       <c r="AJ21" s="153" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>R-HC_Apt_RSDELC_HPN1</v>
       </c>
       <c r="AK21" s="153" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AL21" s="154" t="s">
@@ -17930,11 +17918,11 @@
       <c r="AG22" s="81"/>
       <c r="AI22" s="154"/>
       <c r="AJ22" s="153" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>R-SH_Apt_RSDELC_HPN2</v>
       </c>
       <c r="AK22" s="153" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AL22" s="154" t="s">
@@ -17949,53 +17937,53 @@
       </c>
     </row>
     <row r="23" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C23" s="76" t="str">
+      <c r="C23" s="66" t="str">
         <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E23,6)&amp;"_HPN1"</f>
         <v>R-SH_Apt_RSDELC_HPN1</v>
       </c>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="67" t="s">
         <v>369</v>
       </c>
-      <c r="E23" s="77" t="s">
+      <c r="E23" s="137" t="s">
         <v>448</v>
       </c>
-      <c r="F23" s="76" t="s">
+      <c r="F23" s="103" t="s">
         <v>410</v>
       </c>
-      <c r="G23" s="89">
-        <v>3.2</v>
-      </c>
-      <c r="H23" s="78">
-        <v>3.7</v>
-      </c>
-      <c r="I23" s="78">
-        <v>4</v>
-      </c>
-      <c r="J23" s="90">
-        <v>4</v>
-      </c>
-      <c r="K23" s="89"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="101">
+      <c r="G23" s="369">
+        <v>1</v>
+      </c>
+      <c r="H23" s="370">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="I23" s="370">
+        <v>1.25</v>
+      </c>
+      <c r="J23" s="371">
+        <v>1.25</v>
+      </c>
+      <c r="K23" s="369"/>
+      <c r="L23" s="370"/>
+      <c r="M23" s="370"/>
+      <c r="N23" s="371"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="99">
         <v>20</v>
       </c>
-      <c r="T23" s="78"/>
-      <c r="U23" s="87">
+      <c r="T23" s="95"/>
+      <c r="U23" s="66">
         <v>606.94444444444434</v>
       </c>
-      <c r="V23" s="76">
+      <c r="V23" s="67">
         <v>549.44444444444434</v>
       </c>
-      <c r="W23" s="76">
+      <c r="W23" s="67">
         <v>523.8888888888888</v>
       </c>
-      <c r="X23" s="105">
+      <c r="X23" s="103">
         <v>523.8888888888888</v>
       </c>
       <c r="Y23" s="133">
@@ -18009,17 +17997,17 @@
       <c r="AE23" s="133">
         <v>31.54</v>
       </c>
-      <c r="AF23" s="112"/>
+      <c r="AF23" s="136"/>
       <c r="AG23" s="112">
         <v>2020</v>
       </c>
       <c r="AI23" s="154"/>
       <c r="AJ23" s="153" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>R-H_Apt_RSDELC_HPN1</v>
       </c>
       <c r="AK23" s="153" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AL23" s="154" t="s">
@@ -18034,7 +18022,7 @@
       </c>
     </row>
     <row r="24" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C24" s="70" t="str">
+      <c r="C24" s="69" t="str">
         <f>"R-HC_Apt"&amp;"_"&amp;RIGHT(E24,6)&amp;"_HPN1"</f>
         <v>R-HC_Apt_RSDELC_HPN1</v>
       </c>
@@ -18044,32 +18032,32 @@
       <c r="E24" s="71" t="s">
         <v>448</v>
       </c>
-      <c r="F24" s="70" t="s">
+      <c r="F24" s="104" t="s">
         <v>800</v>
       </c>
-      <c r="G24" s="91">
-        <v>3.2</v>
-      </c>
-      <c r="H24" s="79">
-        <v>3.7</v>
-      </c>
-      <c r="I24" s="79">
-        <v>4</v>
-      </c>
-      <c r="J24" s="92">
-        <v>4</v>
-      </c>
-      <c r="K24" s="91">
-        <v>3.2</v>
-      </c>
-      <c r="L24" s="79">
-        <v>3.7</v>
-      </c>
-      <c r="M24" s="79">
-        <v>4</v>
-      </c>
-      <c r="N24" s="92">
-        <v>4</v>
+      <c r="G24" s="366">
+        <v>1</v>
+      </c>
+      <c r="H24" s="367">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="I24" s="367">
+        <v>1.25</v>
+      </c>
+      <c r="J24" s="368">
+        <v>1.25</v>
+      </c>
+      <c r="K24" s="366">
+        <v>1</v>
+      </c>
+      <c r="L24" s="367">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="M24" s="367">
+        <v>1.25</v>
+      </c>
+      <c r="N24" s="368">
+        <v>1.25</v>
       </c>
       <c r="O24" s="91"/>
       <c r="P24" s="79"/>
@@ -18078,7 +18066,7 @@
       <c r="S24" s="100">
         <v>20</v>
       </c>
-      <c r="T24" s="79"/>
+      <c r="T24" s="92"/>
       <c r="U24" s="69">
         <v>637.29166666666663</v>
       </c>
@@ -18108,11 +18096,11 @@
       </c>
       <c r="AI24" s="304"/>
       <c r="AJ24" s="153" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>R-H_Apt_RENSOL_HPN2</v>
       </c>
       <c r="AK24" s="153" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
       <c r="AL24" s="154" t="s">
@@ -18127,7 +18115,7 @@
       </c>
     </row>
     <row r="25" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C25" s="76" t="str">
+      <c r="C25" s="87" t="str">
         <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E25,6)&amp;"_HPN2"</f>
         <v>R-SH_Apt_RSDELC_HPN2</v>
       </c>
@@ -18137,25 +18125,25 @@
       <c r="E25" s="77" t="s">
         <v>448</v>
       </c>
-      <c r="F25" s="76" t="s">
+      <c r="F25" s="105" t="s">
         <v>410</v>
       </c>
-      <c r="G25" s="89">
-        <v>3.3</v>
-      </c>
-      <c r="H25" s="78">
-        <v>3.7</v>
-      </c>
-      <c r="I25" s="78">
-        <v>4</v>
-      </c>
-      <c r="J25" s="90">
-        <v>4</v>
-      </c>
-      <c r="K25" s="89"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="90"/>
+      <c r="G25" s="363">
+        <v>1</v>
+      </c>
+      <c r="H25" s="364">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I25" s="364">
+        <v>1.21</v>
+      </c>
+      <c r="J25" s="365">
+        <v>1.21</v>
+      </c>
+      <c r="K25" s="363"/>
+      <c r="L25" s="364"/>
+      <c r="M25" s="364"/>
+      <c r="N25" s="365"/>
       <c r="O25" s="89"/>
       <c r="P25" s="78"/>
       <c r="Q25" s="78"/>
@@ -18163,7 +18151,7 @@
       <c r="S25" s="101">
         <v>20</v>
       </c>
-      <c r="T25" s="78"/>
+      <c r="T25" s="90"/>
       <c r="U25" s="87">
         <v>212.19058823529411</v>
       </c>
@@ -18193,11 +18181,11 @@
       </c>
       <c r="AI25" s="304"/>
       <c r="AJ25" s="153" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>R-SH_Apt_RSDELC_HPN3</v>
       </c>
       <c r="AK25" s="153" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AL25" s="154" t="s">
@@ -18212,7 +18200,7 @@
       </c>
     </row>
     <row r="26" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="70" t="str">
+      <c r="C26" s="69" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E26,6)&amp;"_HPN1"</f>
         <v>R-H_Apt_RSDELC_HPN1</v>
       </c>
@@ -18222,41 +18210,45 @@
       <c r="E26" s="71" t="s">
         <v>448</v>
       </c>
-      <c r="F26" s="70" t="s">
+      <c r="F26" s="104" t="s">
         <v>799</v>
       </c>
-      <c r="G26" s="91">
-        <v>3.3</v>
-      </c>
-      <c r="H26" s="79">
-        <v>3.7</v>
-      </c>
-      <c r="I26" s="79">
-        <v>4</v>
-      </c>
-      <c r="J26" s="92">
-        <v>4</v>
-      </c>
-      <c r="K26" s="91"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="91">
-        <v>2.3099999999999996</v>
-      </c>
-      <c r="P26" s="79">
-        <v>2.59</v>
-      </c>
-      <c r="Q26" s="79">
-        <v>2.8</v>
-      </c>
-      <c r="R26" s="92">
-        <v>2.8</v>
+      <c r="G26" s="366">
+        <v>1</v>
+      </c>
+      <c r="H26" s="367">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I26" s="367">
+        <v>1.21</v>
+      </c>
+      <c r="J26" s="368">
+        <v>1.21</v>
+      </c>
+      <c r="K26" s="366"/>
+      <c r="L26" s="367"/>
+      <c r="M26" s="367"/>
+      <c r="N26" s="368"/>
+      <c r="O26" s="366">
+        <f>G26*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="P26" s="367">
+        <f t="shared" ref="P26:R27" si="12">H26*0.7</f>
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="Q26" s="367">
+        <f t="shared" si="12"/>
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="R26" s="368">
+        <f t="shared" si="12"/>
+        <v>0.84699999999999998</v>
       </c>
       <c r="S26" s="100">
         <v>20</v>
       </c>
-      <c r="T26" s="79"/>
+      <c r="T26" s="92"/>
       <c r="U26" s="69">
         <v>382.30823529411765</v>
       </c>
@@ -18286,11 +18278,11 @@
       </c>
       <c r="AI26" s="160"/>
       <c r="AJ26" s="156" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>R-HC_Apt_RSDELC_HPN2</v>
       </c>
       <c r="AK26" s="156" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AL26" s="157" t="s">
@@ -18305,7 +18297,7 @@
       </c>
     </row>
     <row r="27" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C27" s="76" t="str">
+      <c r="C27" s="87" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E27,6)&amp;"_HPN2"</f>
         <v>R-H_Apt_RENSOL_HPN2</v>
       </c>
@@ -18315,41 +18307,45 @@
       <c r="E27" s="77" t="s">
         <v>795</v>
       </c>
-      <c r="F27" s="76" t="s">
+      <c r="F27" s="105" t="s">
         <v>799</v>
       </c>
-      <c r="G27" s="89">
-        <v>2.7249999999999996</v>
-      </c>
-      <c r="H27" s="78">
-        <v>3.0250000000000004</v>
-      </c>
-      <c r="I27" s="78">
-        <v>3.25</v>
-      </c>
-      <c r="J27" s="90">
-        <v>3.25</v>
-      </c>
-      <c r="K27" s="89"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="89">
-        <v>1.393</v>
-      </c>
-      <c r="P27" s="78">
-        <v>1.4770000000000001</v>
-      </c>
-      <c r="Q27" s="78">
-        <v>1.54</v>
-      </c>
-      <c r="R27" s="90">
-        <v>1.54</v>
+      <c r="G27" s="363">
+        <v>1</v>
+      </c>
+      <c r="H27" s="364">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I27" s="364">
+        <v>1.19</v>
+      </c>
+      <c r="J27" s="365">
+        <v>1.19</v>
+      </c>
+      <c r="K27" s="363"/>
+      <c r="L27" s="364"/>
+      <c r="M27" s="364"/>
+      <c r="N27" s="365"/>
+      <c r="O27" s="363">
+        <f>G27*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="P27" s="364">
+        <f t="shared" si="12"/>
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="Q27" s="364">
+        <f t="shared" si="12"/>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="R27" s="365">
+        <f t="shared" si="12"/>
+        <v>0.83299999999999996</v>
       </c>
       <c r="S27" s="101">
         <v>20</v>
       </c>
-      <c r="T27" s="78"/>
+      <c r="T27" s="90"/>
       <c r="U27" s="87">
         <v>706.69359398496226</v>
       </c>
@@ -18402,7 +18398,7 @@
       </c>
     </row>
     <row r="28" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="70" t="str">
+      <c r="C28" s="69" t="str">
         <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E28,6)&amp;"_HPN3"</f>
         <v>R-SH_Apt_RSDELC_HPN3</v>
       </c>
@@ -18412,25 +18408,25 @@
       <c r="E28" s="71" t="s">
         <v>448</v>
       </c>
-      <c r="F28" s="70" t="s">
+      <c r="F28" s="104" t="s">
         <v>410</v>
       </c>
-      <c r="G28" s="91">
-        <v>3.92</v>
-      </c>
-      <c r="H28" s="79">
-        <v>3.92</v>
-      </c>
-      <c r="I28" s="79">
-        <v>3.92</v>
-      </c>
-      <c r="J28" s="92">
-        <v>3.92</v>
-      </c>
-      <c r="K28" s="91"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="92"/>
+      <c r="G28" s="366">
+        <v>1</v>
+      </c>
+      <c r="H28" s="367">
+        <v>1</v>
+      </c>
+      <c r="I28" s="367">
+        <v>1</v>
+      </c>
+      <c r="J28" s="368">
+        <v>1</v>
+      </c>
+      <c r="K28" s="366"/>
+      <c r="L28" s="367"/>
+      <c r="M28" s="367"/>
+      <c r="N28" s="368"/>
       <c r="O28" s="91"/>
       <c r="P28" s="79"/>
       <c r="Q28" s="79"/>
@@ -18438,7 +18434,7 @@
       <c r="S28" s="100">
         <v>20</v>
       </c>
-      <c r="T28" s="79"/>
+      <c r="T28" s="92"/>
       <c r="U28" s="69">
         <v>806.67391304347848</v>
       </c>
@@ -18487,61 +18483,61 @@
       </c>
     </row>
     <row r="29" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="76" t="str">
+      <c r="C29" s="142" t="str">
         <f>"R-HC_Apt"&amp;"_"&amp;RIGHT(E29,6)&amp;"_HPN2"</f>
         <v>R-HC_Apt_RSDELC_HPN2</v>
       </c>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="138" t="s">
         <v>375</v>
       </c>
-      <c r="E29" s="77" t="s">
+      <c r="E29" s="170" t="s">
         <v>448</v>
       </c>
-      <c r="F29" s="76" t="s">
+      <c r="F29" s="143" t="s">
         <v>800</v>
       </c>
-      <c r="G29" s="89">
-        <v>3.92</v>
-      </c>
-      <c r="H29" s="78">
-        <v>3.92</v>
-      </c>
-      <c r="I29" s="78">
-        <v>3.92</v>
-      </c>
-      <c r="J29" s="90">
-        <v>3.92</v>
-      </c>
-      <c r="K29" s="89">
-        <v>4.5</v>
-      </c>
-      <c r="L29" s="78">
-        <v>4.5</v>
-      </c>
-      <c r="M29" s="78">
-        <v>4.5</v>
-      </c>
-      <c r="N29" s="90">
-        <v>4.5</v>
-      </c>
-      <c r="O29" s="89"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="101">
+      <c r="G29" s="372">
+        <v>1</v>
+      </c>
+      <c r="H29" s="373">
+        <v>1</v>
+      </c>
+      <c r="I29" s="373">
+        <v>1</v>
+      </c>
+      <c r="J29" s="374">
+        <v>1</v>
+      </c>
+      <c r="K29" s="372">
+        <v>1</v>
+      </c>
+      <c r="L29" s="373">
+        <v>1</v>
+      </c>
+      <c r="M29" s="373">
+        <v>1</v>
+      </c>
+      <c r="N29" s="374">
+        <v>1</v>
+      </c>
+      <c r="O29" s="375"/>
+      <c r="P29" s="376"/>
+      <c r="Q29" s="376"/>
+      <c r="R29" s="150"/>
+      <c r="S29" s="149">
         <v>20</v>
       </c>
-      <c r="T29" s="78"/>
-      <c r="U29" s="87">
+      <c r="T29" s="150"/>
+      <c r="U29" s="142">
         <v>963.84782608695673</v>
       </c>
-      <c r="V29" s="76">
+      <c r="V29" s="138">
         <v>903.13043478260863</v>
       </c>
-      <c r="W29" s="76">
+      <c r="W29" s="138">
         <v>842.41304347826099</v>
       </c>
-      <c r="X29" s="105">
+      <c r="X29" s="143">
         <v>842.41304347826099</v>
       </c>
       <c r="Y29" s="134">
@@ -18555,7 +18551,7 @@
       <c r="AE29" s="134">
         <v>31.54</v>
       </c>
-      <c r="AF29" s="112"/>
+      <c r="AF29" s="139"/>
       <c r="AG29" s="112">
         <v>2020</v>
       </c>
@@ -18634,7 +18630,7 @@
       </c>
     </row>
     <row r="31" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="76" t="str">
+      <c r="C31" s="66" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E31,6)&amp;"_HPN1"</f>
         <v>R-H_Apt_GASNAT_HPN1</v>
       </c>
@@ -18647,52 +18643,52 @@
       <c r="F31" s="137" t="s">
         <v>799</v>
       </c>
-      <c r="G31" s="93">
-        <v>1.45</v>
-      </c>
-      <c r="H31" s="94">
-        <v>1.7</v>
-      </c>
-      <c r="I31" s="94">
-        <v>1.7</v>
-      </c>
-      <c r="J31" s="95">
-        <v>1.7</v>
+      <c r="G31" s="369">
+        <v>1</v>
+      </c>
+      <c r="H31" s="370">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="I31" s="370">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="J31" s="371">
+        <v>1.1719999999999999</v>
       </c>
       <c r="K31" s="93"/>
       <c r="L31" s="94"/>
       <c r="M31" s="94"/>
       <c r="N31" s="95"/>
-      <c r="O31" s="93">
+      <c r="O31" s="369">
         <f>G31*0.7</f>
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="P31" s="94">
-        <f t="shared" ref="P31:R31" si="9">H31*0.7</f>
-        <v>1.19</v>
-      </c>
-      <c r="Q31" s="94">
-        <f t="shared" si="9"/>
-        <v>1.19</v>
-      </c>
-      <c r="R31" s="95">
-        <f t="shared" si="9"/>
-        <v>1.19</v>
-      </c>
-      <c r="S31" s="99">
+        <v>0.7</v>
+      </c>
+      <c r="P31" s="370">
+        <f t="shared" ref="P31:R31" si="13">H31*0.7</f>
+        <v>0.82039999999999991</v>
+      </c>
+      <c r="Q31" s="370">
+        <f t="shared" si="13"/>
+        <v>0.82039999999999991</v>
+      </c>
+      <c r="R31" s="371">
+        <f t="shared" si="13"/>
+        <v>0.82039999999999991</v>
+      </c>
+      <c r="S31" s="137">
         <v>20</v>
       </c>
       <c r="T31" s="95"/>
-      <c r="U31" s="87">
+      <c r="U31" s="66">
         <v>971.77777777777783</v>
       </c>
-      <c r="V31" s="76">
+      <c r="V31" s="67">
         <v>860.66666666666663</v>
       </c>
-      <c r="W31" s="76">
+      <c r="W31" s="67">
         <v>860.66666666666663</v>
       </c>
-      <c r="X31" s="105">
+      <c r="X31" s="103">
         <v>860.66666666666663</v>
       </c>
       <c r="Y31" s="133">
@@ -18706,7 +18702,7 @@
       <c r="AE31" s="133">
         <v>31.54</v>
       </c>
-      <c r="AF31" s="112"/>
+      <c r="AF31" s="136"/>
       <c r="AG31" s="136">
         <v>2020</v>
       </c>
@@ -18731,7 +18727,7 @@
       </c>
     </row>
     <row r="32" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C32" s="70" t="str">
+      <c r="C32" s="381" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E32,6)&amp;"_HPN2"</f>
         <v>R-H_Apt_GASNAT_HPN2</v>
       </c>
@@ -18744,52 +18740,52 @@
       <c r="F32" s="74" t="s">
         <v>799</v>
       </c>
-      <c r="G32" s="96">
-        <v>1.55</v>
-      </c>
-      <c r="H32" s="97">
-        <v>1.55</v>
-      </c>
-      <c r="I32" s="97">
-        <v>1.6</v>
-      </c>
-      <c r="J32" s="98">
-        <v>1.6</v>
+      <c r="G32" s="382">
+        <v>1</v>
+      </c>
+      <c r="H32" s="383">
+        <v>1</v>
+      </c>
+      <c r="I32" s="383">
+        <v>1.032</v>
+      </c>
+      <c r="J32" s="384">
+        <v>1.032</v>
       </c>
       <c r="K32" s="96"/>
       <c r="L32" s="97"/>
       <c r="M32" s="97"/>
       <c r="N32" s="98"/>
-      <c r="O32" s="96">
+      <c r="O32" s="382">
         <f>G32*0.7</f>
-        <v>1.085</v>
-      </c>
-      <c r="P32" s="97">
-        <f t="shared" ref="P32" si="10">H32*0.7</f>
-        <v>1.085</v>
-      </c>
-      <c r="Q32" s="97">
-        <f t="shared" ref="Q32" si="11">I32*0.7</f>
-        <v>1.1199999999999999</v>
-      </c>
-      <c r="R32" s="98">
-        <f t="shared" ref="R32" si="12">J32*0.7</f>
-        <v>1.1199999999999999</v>
-      </c>
-      <c r="S32" s="102">
+        <v>0.7</v>
+      </c>
+      <c r="P32" s="383">
+        <f t="shared" ref="P32" si="14">H32*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="Q32" s="383">
+        <f t="shared" ref="Q32" si="15">I32*0.7</f>
+        <v>0.72239999999999993</v>
+      </c>
+      <c r="R32" s="384">
+        <f t="shared" ref="R32" si="16">J32*0.7</f>
+        <v>0.72239999999999993</v>
+      </c>
+      <c r="S32" s="74">
         <v>20</v>
       </c>
       <c r="T32" s="98"/>
-      <c r="U32" s="69">
+      <c r="U32" s="381">
         <v>1065.68</v>
       </c>
-      <c r="V32" s="70">
+      <c r="V32" s="73">
         <v>1065.68</v>
       </c>
-      <c r="W32" s="70">
+      <c r="W32" s="73">
         <v>1065.68</v>
       </c>
-      <c r="X32" s="104">
+      <c r="X32" s="106">
         <v>1065.68</v>
       </c>
       <c r="Y32" s="111">
@@ -18803,17 +18799,17 @@
       <c r="AE32" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF32" s="113"/>
+      <c r="AF32" s="114"/>
       <c r="AG32" s="114">
         <v>2020</v>
       </c>
       <c r="AI32" s="307"/>
       <c r="AJ32" s="151" t="str">
-        <f t="shared" ref="AJ32:AK36" si="13">C39</f>
+        <f t="shared" ref="AJ32:AK36" si="17">C39</f>
         <v>R-WH_Apt_RSDELC_N1</v>
       </c>
       <c r="AK32" s="151" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Residential Electric Water Heater </v>
       </c>
       <c r="AL32" s="152" t="s">
@@ -18863,11 +18859,11 @@
       <c r="AG33" s="81"/>
       <c r="AI33" s="4"/>
       <c r="AJ33" s="153" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>R-WH_Apt_RENSOL_N1</v>
       </c>
       <c r="AK33" s="153" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Residential Solar Water Heater </v>
       </c>
       <c r="AL33" s="154" t="s">
@@ -18882,7 +18878,7 @@
       </c>
     </row>
     <row r="34" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C34" s="76" t="str">
+      <c r="C34" s="144" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E34,6)&amp;"_HHPN1"</f>
         <v>R-H_Apt_GASNAT_HHPN1</v>
       </c>
@@ -18892,57 +18888,58 @@
       <c r="E34" s="172" t="s">
         <v>796</v>
       </c>
-      <c r="F34" s="76" t="s">
+      <c r="F34" s="146" t="s">
         <v>799</v>
       </c>
-      <c r="G34" s="96">
-        <v>3.1</v>
-      </c>
-      <c r="H34" s="97">
-        <v>3.25</v>
-      </c>
-      <c r="I34" s="97">
-        <v>3.4</v>
-      </c>
-      <c r="J34" s="98">
-        <v>3.6</v>
+      <c r="G34" s="382">
+        <v>1</v>
+      </c>
+      <c r="H34" s="383">
+        <v>1.048</v>
+      </c>
+      <c r="I34" s="383">
+        <v>1.097</v>
+      </c>
+      <c r="J34" s="383">
+        <v>1.161</v>
       </c>
       <c r="K34" s="96"/>
       <c r="L34" s="97"/>
       <c r="M34" s="97"/>
       <c r="N34" s="98"/>
-      <c r="O34" s="96">
+      <c r="O34" s="382">
         <f>G34*0.7</f>
-        <v>2.17</v>
-      </c>
-      <c r="P34" s="97">
-        <f t="shared" ref="P34:R34" si="14">H34*0.7</f>
-        <v>2.2749999999999999</v>
-      </c>
-      <c r="Q34" s="97">
-        <f t="shared" si="14"/>
-        <v>2.38</v>
-      </c>
-      <c r="R34" s="98">
-        <f t="shared" si="14"/>
-        <v>2.52</v>
-      </c>
-      <c r="S34" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="P34" s="383">
+        <f t="shared" ref="P34:R34" si="18">H34*0.7</f>
+        <v>0.73360000000000003</v>
+      </c>
+      <c r="Q34" s="383">
+        <f t="shared" si="18"/>
+        <v>0.76789999999999992</v>
+      </c>
+      <c r="R34" s="384">
+        <f t="shared" si="18"/>
+        <v>0.81269999999999998</v>
+      </c>
+      <c r="S34" s="385">
         <v>20</v>
       </c>
-      <c r="U34" s="69">
+      <c r="T34" s="386"/>
+      <c r="U34" s="127">
         <v>2320</v>
       </c>
-      <c r="V34" s="70">
+      <c r="V34" s="128">
         <v>1972</v>
       </c>
-      <c r="W34" s="70">
+      <c r="W34" s="128">
         <v>1861</v>
       </c>
-      <c r="X34" s="104">
+      <c r="X34" s="129">
         <v>1765</v>
       </c>
-      <c r="Y34" s="1">
+      <c r="Y34" s="392">
         <f>Y25+Y11</f>
         <v>8.2883317261330767</v>
       </c>
@@ -18958,17 +18955,17 @@
       <c r="AE34" s="130">
         <v>31.54</v>
       </c>
-      <c r="AF34" s="113"/>
+      <c r="AF34" s="131"/>
       <c r="AG34" s="131">
         <v>2020</v>
       </c>
       <c r="AI34" s="4"/>
       <c r="AJ34" s="153" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>R-WH_Apt_GASNAT_N1</v>
       </c>
       <c r="AK34" s="153" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Residential Gas Water Heater </v>
       </c>
       <c r="AL34" s="154" t="s">
@@ -19018,11 +19015,11 @@
       <c r="AG35" s="81"/>
       <c r="AI35" s="4"/>
       <c r="AJ35" s="153" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>R-WH_Apt_BIOWOO_N1</v>
       </c>
       <c r="AK35" s="153" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Residential Biomass Water Heater </v>
       </c>
       <c r="AL35" s="154" t="s">
@@ -19037,7 +19034,7 @@
       </c>
     </row>
     <row r="36" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="76" t="str">
+      <c r="C36" s="66" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E36,6)&amp;"_N1"</f>
         <v>R-H_Apt_RSDHET_N1</v>
       </c>
@@ -19047,51 +19044,51 @@
       <c r="E36" s="137" t="s">
         <v>797</v>
       </c>
-      <c r="F36" s="137" t="s">
+      <c r="F36" s="68" t="s">
         <v>799</v>
       </c>
-      <c r="G36" s="89">
-        <v>0.98</v>
-      </c>
-      <c r="H36" s="78">
-        <v>0.98</v>
-      </c>
-      <c r="I36" s="78">
-        <v>0.98</v>
-      </c>
-      <c r="J36" s="90">
-        <v>0.98</v>
-      </c>
-      <c r="K36" s="89"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="89">
-        <v>0.98</v>
-      </c>
-      <c r="P36" s="78">
-        <v>0.98</v>
-      </c>
-      <c r="Q36" s="78">
-        <v>0.98</v>
-      </c>
-      <c r="R36" s="90">
-        <v>0.98</v>
+      <c r="G36" s="369">
+        <v>1</v>
+      </c>
+      <c r="H36" s="370">
+        <v>1</v>
+      </c>
+      <c r="I36" s="370">
+        <v>1</v>
+      </c>
+      <c r="J36" s="371">
+        <v>1</v>
+      </c>
+      <c r="K36" s="93"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="369">
+        <v>1</v>
+      </c>
+      <c r="P36" s="370">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="370">
+        <v>1</v>
+      </c>
+      <c r="R36" s="371">
+        <v>1</v>
       </c>
       <c r="S36" s="99">
         <v>20</v>
       </c>
       <c r="T36" s="95"/>
-      <c r="U36" s="87">
+      <c r="U36" s="66">
         <v>250</v>
       </c>
-      <c r="V36" s="76">
+      <c r="V36" s="67">
         <v>250</v>
       </c>
-      <c r="W36" s="76">
+      <c r="W36" s="67">
         <v>250</v>
       </c>
-      <c r="X36" s="105">
+      <c r="X36" s="103">
         <v>250</v>
       </c>
       <c r="Y36" s="133">
@@ -19105,17 +19102,17 @@
       <c r="AE36" s="133">
         <v>31.54</v>
       </c>
-      <c r="AF36" s="112"/>
+      <c r="AF36" s="136"/>
       <c r="AG36" s="136">
         <v>2020</v>
       </c>
       <c r="AI36" s="163"/>
       <c r="AJ36" s="156" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>R-WH_Apt_OILLPG_N1</v>
       </c>
       <c r="AK36" s="156" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Residential Liquid Petroleum Gas Water Heater </v>
       </c>
       <c r="AL36" s="157" t="s">
@@ -19130,7 +19127,7 @@
       </c>
     </row>
     <row r="37" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C37" s="70" t="str">
+      <c r="C37" s="381" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E37,6)&amp;"_N2"</f>
         <v>R-H_Apt_RSDHET_N2</v>
       </c>
@@ -19140,51 +19137,51 @@
       <c r="E37" s="74" t="s">
         <v>797</v>
       </c>
-      <c r="F37" s="74" t="s">
+      <c r="F37" s="75" t="s">
         <v>799</v>
       </c>
-      <c r="G37" s="91">
-        <v>0.98</v>
-      </c>
-      <c r="H37" s="79">
-        <v>0.98</v>
-      </c>
-      <c r="I37" s="79">
-        <v>0.98</v>
-      </c>
-      <c r="J37" s="92">
-        <v>0.98</v>
-      </c>
-      <c r="K37" s="91"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="92"/>
-      <c r="O37" s="91">
-        <v>0.98</v>
-      </c>
-      <c r="P37" s="79">
-        <v>0.98</v>
-      </c>
-      <c r="Q37" s="79">
-        <v>0.98</v>
-      </c>
-      <c r="R37" s="92">
-        <v>0.98</v>
+      <c r="G37" s="382">
+        <v>1</v>
+      </c>
+      <c r="H37" s="383">
+        <v>1</v>
+      </c>
+      <c r="I37" s="383">
+        <v>1</v>
+      </c>
+      <c r="J37" s="384">
+        <v>1</v>
+      </c>
+      <c r="K37" s="96"/>
+      <c r="L37" s="97"/>
+      <c r="M37" s="97"/>
+      <c r="N37" s="98"/>
+      <c r="O37" s="382">
+        <v>1</v>
+      </c>
+      <c r="P37" s="383">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="383">
+        <v>1</v>
+      </c>
+      <c r="R37" s="384">
+        <v>1</v>
       </c>
       <c r="S37" s="102">
         <v>20</v>
       </c>
       <c r="T37" s="98"/>
-      <c r="U37" s="69">
+      <c r="U37" s="381">
         <v>250</v>
       </c>
-      <c r="V37" s="70">
+      <c r="V37" s="73">
         <v>250</v>
       </c>
-      <c r="W37" s="70">
+      <c r="W37" s="73">
         <v>250</v>
       </c>
-      <c r="X37" s="104">
+      <c r="X37" s="106">
         <v>250</v>
       </c>
       <c r="Y37" s="110">
@@ -19198,7 +19195,7 @@
       <c r="AE37" s="111">
         <v>31.54</v>
       </c>
-      <c r="AF37" s="113"/>
+      <c r="AF37" s="114"/>
       <c r="AG37" s="114">
         <v>2020</v>
       </c>
@@ -19271,31 +19268,31 @@
       <c r="F39" s="67" t="s">
         <v>412</v>
       </c>
-      <c r="G39" s="89"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="90"/>
-      <c r="O39" s="89">
+      <c r="G39" s="93"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="94"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="369">
         <v>1</v>
       </c>
-      <c r="P39" s="78">
+      <c r="P39" s="370">
         <v>1</v>
       </c>
-      <c r="Q39" s="78">
+      <c r="Q39" s="370">
         <v>1</v>
       </c>
-      <c r="R39" s="90">
+      <c r="R39" s="371">
         <v>1</v>
       </c>
       <c r="S39" s="99">
         <v>15</v>
       </c>
       <c r="T39" s="95"/>
-      <c r="U39" s="66">
+      <c r="U39" s="67">
         <v>185</v>
       </c>
       <c r="V39" s="67">
@@ -19318,14 +19315,14 @@
       <c r="AE39" s="133">
         <v>31.54</v>
       </c>
-      <c r="AF39" s="112"/>
+      <c r="AF39" s="136"/>
       <c r="AG39" s="136">
         <v>2020</v>
       </c>
     </row>
     <row r="40" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C40" s="70" t="str">
-        <f t="shared" ref="C40:C43" si="15">"R-WH_Apt"&amp;"_"&amp;RIGHT(E40,6)&amp;"_N1"</f>
+        <f t="shared" ref="C40:C43" si="19">"R-WH_Apt"&amp;"_"&amp;RIGHT(E40,6)&amp;"_N1"</f>
         <v>R-WH_Apt_RENSOL_N1</v>
       </c>
       <c r="D40" s="70" t="s">
@@ -19345,25 +19342,25 @@
       <c r="L40" s="79"/>
       <c r="M40" s="79"/>
       <c r="N40" s="92"/>
-      <c r="O40" s="91">
+      <c r="O40" s="366">
         <v>1</v>
       </c>
-      <c r="P40" s="79">
+      <c r="P40" s="367">
         <v>1</v>
       </c>
-      <c r="Q40" s="79">
+      <c r="Q40" s="367">
         <v>1</v>
       </c>
-      <c r="R40" s="92">
+      <c r="R40" s="368">
         <v>1</v>
       </c>
       <c r="S40" s="100">
         <v>25</v>
       </c>
-      <c r="T40" s="69">
+      <c r="T40" s="104">
         <v>30</v>
       </c>
-      <c r="U40" s="69">
+      <c r="U40" s="70">
         <v>1582.3760000000002</v>
       </c>
       <c r="V40" s="70">
@@ -19393,7 +19390,7 @@
     </row>
     <row r="41" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C41" s="76" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>R-WH_Apt_GASNAT_N1</v>
       </c>
       <c r="D41" s="76" t="s">
@@ -19413,23 +19410,23 @@
       <c r="L41" s="78"/>
       <c r="M41" s="78"/>
       <c r="N41" s="90"/>
-      <c r="O41" s="89">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="P41" s="78">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="Q41" s="78">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="R41" s="90">
-        <v>0.60759999999999992</v>
+      <c r="O41" s="363">
+        <v>0.7</v>
+      </c>
+      <c r="P41" s="364">
+        <v>0.7</v>
+      </c>
+      <c r="Q41" s="364">
+        <v>0.7</v>
+      </c>
+      <c r="R41" s="365">
+        <v>0.7</v>
       </c>
       <c r="S41" s="101">
         <v>20</v>
       </c>
       <c r="T41" s="90"/>
-      <c r="U41" s="87">
+      <c r="U41" s="76">
         <v>62.01691785038426</v>
       </c>
       <c r="V41" s="76">
@@ -19459,7 +19456,7 @@
     </row>
     <row r="42" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C42" s="70" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>R-WH_Apt_BIOWOO_N1</v>
       </c>
       <c r="D42" s="70" t="s">
@@ -19479,23 +19476,23 @@
       <c r="L42" s="79"/>
       <c r="M42" s="79"/>
       <c r="N42" s="92"/>
-      <c r="O42" s="91">
-        <v>0.61949999999999994</v>
-      </c>
-      <c r="P42" s="79">
-        <v>0.61949999999999994</v>
-      </c>
-      <c r="Q42" s="79">
-        <v>0.61949999999999994</v>
-      </c>
-      <c r="R42" s="92">
-        <v>0.61949999999999994</v>
+      <c r="O42" s="366">
+        <v>0.7</v>
+      </c>
+      <c r="P42" s="367">
+        <v>0.7</v>
+      </c>
+      <c r="Q42" s="367">
+        <v>0.7</v>
+      </c>
+      <c r="R42" s="368">
+        <v>0.7</v>
       </c>
       <c r="S42" s="100">
         <v>20</v>
       </c>
       <c r="T42" s="92"/>
-      <c r="U42" s="69">
+      <c r="U42" s="70">
         <v>211.49571428571429</v>
       </c>
       <c r="V42" s="70">
@@ -19525,7 +19522,7 @@
     </row>
     <row r="43" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C43" s="76" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>R-WH_Apt_OILLPG_N1</v>
       </c>
       <c r="D43" s="138" t="s">
@@ -19537,31 +19534,31 @@
       <c r="F43" s="138" t="s">
         <v>412</v>
       </c>
-      <c r="G43" s="89"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="90"/>
-      <c r="O43" s="89">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="P43" s="78">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="Q43" s="78">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="R43" s="90">
-        <v>0.60759999999999992</v>
+      <c r="G43" s="375"/>
+      <c r="H43" s="376"/>
+      <c r="I43" s="376"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="375"/>
+      <c r="L43" s="376"/>
+      <c r="M43" s="376"/>
+      <c r="N43" s="150"/>
+      <c r="O43" s="372">
+        <v>0.7</v>
+      </c>
+      <c r="P43" s="373">
+        <v>0.7</v>
+      </c>
+      <c r="Q43" s="373">
+        <v>0.7</v>
+      </c>
+      <c r="R43" s="374">
+        <v>0.7</v>
       </c>
       <c r="S43" s="149">
         <v>20</v>
       </c>
       <c r="T43" s="150"/>
-      <c r="U43" s="142">
+      <c r="U43" s="138">
         <v>62.01691785038426</v>
       </c>
       <c r="V43" s="138">
@@ -19584,7 +19581,7 @@
       <c r="AE43" s="134">
         <v>31.54</v>
       </c>
-      <c r="AF43" s="112"/>
+      <c r="AF43" s="139"/>
       <c r="AG43" s="139">
         <v>2020</v>
       </c>
@@ -19641,20 +19638,20 @@
       <c r="G45" s="164"/>
       <c r="H45" s="165"/>
       <c r="I45" s="165"/>
-      <c r="J45" s="148"/>
-      <c r="K45" s="164">
-        <v>3.2</v>
-      </c>
-      <c r="L45" s="165">
-        <v>3.7</v>
-      </c>
-      <c r="M45" s="165">
-        <v>4</v>
-      </c>
-      <c r="N45" s="148">
-        <v>4</v>
-      </c>
-      <c r="O45" s="164"/>
+      <c r="J45" s="165"/>
+      <c r="K45" s="387">
+        <v>1</v>
+      </c>
+      <c r="L45" s="388">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="M45" s="388">
+        <v>1.25</v>
+      </c>
+      <c r="N45" s="389">
+        <v>1.25</v>
+      </c>
+      <c r="O45" s="165"/>
       <c r="P45" s="165"/>
       <c r="Q45" s="165"/>
       <c r="R45" s="148"/>
@@ -19685,7 +19682,7 @@
       <c r="AE45" s="141">
         <v>31.54</v>
       </c>
-      <c r="AF45" s="112"/>
+      <c r="AF45" s="140"/>
       <c r="AG45" s="140">
         <v>2020</v>
       </c>
@@ -20035,26 +20032,26 @@
       <c r="F54" s="76" t="s">
         <v>433</v>
       </c>
-      <c r="G54" s="89">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="H54" s="78">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="I54" s="78">
-        <v>0</v>
-      </c>
-      <c r="J54" s="90">
-        <v>0</v>
+      <c r="G54" s="369">
+        <v>1</v>
+      </c>
+      <c r="H54" s="370">
+        <v>1</v>
+      </c>
+      <c r="I54" s="370">
+        <v>1</v>
+      </c>
+      <c r="J54" s="371">
+        <v>1</v>
       </c>
       <c r="K54" s="93"/>
       <c r="L54" s="94"/>
       <c r="M54" s="94"/>
       <c r="N54" s="95"/>
-      <c r="O54" s="93"/>
-      <c r="P54" s="94"/>
-      <c r="Q54" s="94"/>
-      <c r="R54" s="95"/>
+      <c r="O54" s="369"/>
+      <c r="P54" s="370"/>
+      <c r="Q54" s="370"/>
+      <c r="R54" s="371"/>
       <c r="S54" s="99">
         <v>20</v>
       </c>
@@ -20088,11 +20085,11 @@
       </c>
       <c r="AI54" s="154"/>
       <c r="AJ54" s="153" t="str">
-        <f t="shared" ref="AJ54:AJ64" si="16">C55</f>
+        <f t="shared" ref="AJ54:AJ64" si="20">C55</f>
         <v>R-H_Att_OILKER_N1</v>
       </c>
       <c r="AK54" s="153" t="str">
-        <f t="shared" ref="AK54:AK64" si="17">D55</f>
+        <f t="shared" ref="AK54:AK64" si="21">D55</f>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AL54" s="154" t="s">
@@ -20120,37 +20117,37 @@
       <c r="F55" s="70" t="s">
         <v>801</v>
       </c>
-      <c r="G55" s="91">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="H55" s="79">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="I55" s="79">
-        <v>0</v>
-      </c>
-      <c r="J55" s="92">
-        <v>0</v>
+      <c r="G55" s="366">
+        <v>1</v>
+      </c>
+      <c r="H55" s="367">
+        <v>1</v>
+      </c>
+      <c r="I55" s="367">
+        <v>1</v>
+      </c>
+      <c r="J55" s="368">
+        <v>1</v>
       </c>
       <c r="K55" s="91"/>
       <c r="L55" s="79"/>
       <c r="M55" s="79"/>
       <c r="N55" s="92"/>
-      <c r="O55" s="91">
+      <c r="O55" s="366">
         <f>G55*0.7</f>
-        <v>0.6825</v>
-      </c>
-      <c r="P55" s="79">
-        <f t="shared" ref="P55" si="18">H55*0.7</f>
-        <v>0.6895</v>
-      </c>
-      <c r="Q55" s="79">
-        <f t="shared" ref="Q55" si="19">I55*0.7</f>
-        <v>0</v>
-      </c>
-      <c r="R55" s="92">
-        <f t="shared" ref="R55" si="20">J55*0.7</f>
-        <v>0</v>
+        <v>0.7</v>
+      </c>
+      <c r="P55" s="367">
+        <f t="shared" ref="P55:P57" si="22">H55*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="Q55" s="367">
+        <f t="shared" ref="Q55:Q57" si="23">I55*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="R55" s="368">
+        <f t="shared" ref="R55:R57" si="24">J55*0.7</f>
+        <v>0.7</v>
       </c>
       <c r="S55" s="100">
         <v>20</v>
@@ -20185,11 +20182,11 @@
       </c>
       <c r="AI55" s="154"/>
       <c r="AJ55" s="153" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>R-H_Att_OILKER_N2</v>
       </c>
       <c r="AK55" s="153" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
       <c r="AL55" s="154" t="s">
@@ -20217,33 +20214,37 @@
       <c r="F56" s="76" t="s">
         <v>801</v>
       </c>
-      <c r="G56" s="89">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="H56" s="78">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="I56" s="78">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="J56" s="90">
-        <v>0.90100000000000002</v>
+      <c r="G56" s="363">
+        <v>1</v>
+      </c>
+      <c r="H56" s="364">
+        <v>1</v>
+      </c>
+      <c r="I56" s="364">
+        <v>1</v>
+      </c>
+      <c r="J56" s="365">
+        <v>1</v>
       </c>
       <c r="K56" s="89"/>
       <c r="L56" s="78"/>
       <c r="M56" s="78"/>
       <c r="N56" s="90"/>
-      <c r="O56" s="89">
-        <v>0.88227999999999995</v>
-      </c>
-      <c r="P56" s="78">
-        <v>0.88227999999999995</v>
-      </c>
-      <c r="Q56" s="78">
-        <v>0.88227999999999995</v>
-      </c>
-      <c r="R56" s="90">
-        <v>0.88227999999999995</v>
+      <c r="O56" s="363">
+        <f>G56*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="P56" s="364">
+        <f t="shared" si="22"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q56" s="364">
+        <f t="shared" si="23"/>
+        <v>0.7</v>
+      </c>
+      <c r="R56" s="365">
+        <f t="shared" si="24"/>
+        <v>0.7</v>
       </c>
       <c r="S56" s="101">
         <v>20</v>
@@ -20282,11 +20283,11 @@
       </c>
       <c r="AI56" s="154"/>
       <c r="AJ56" s="153" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>R-H_Att_OILKER_N3</v>
       </c>
       <c r="AK56" s="153" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
       <c r="AL56" s="155" t="s">
@@ -20312,37 +20313,37 @@
       <c r="F57" s="70" t="s">
         <v>801</v>
       </c>
-      <c r="G57" s="91">
-        <v>0.80079999999999996</v>
-      </c>
-      <c r="H57" s="79">
-        <v>0.82079999999999997</v>
-      </c>
-      <c r="I57" s="79">
-        <v>0.82079999999999997</v>
-      </c>
-      <c r="J57" s="92">
-        <v>0.82079999999999997</v>
+      <c r="G57" s="366">
+        <v>1</v>
+      </c>
+      <c r="H57" s="367">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="I57" s="367">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="J57" s="368">
+        <v>1.0249999999999999</v>
       </c>
       <c r="K57" s="91"/>
       <c r="L57" s="79"/>
       <c r="M57" s="79"/>
       <c r="N57" s="92"/>
-      <c r="O57" s="91">
+      <c r="O57" s="366">
         <f>G57*0.7</f>
-        <v>0.56055999999999995</v>
-      </c>
-      <c r="P57" s="79">
-        <f t="shared" ref="P57" si="21">H57*0.7</f>
-        <v>0.57455999999999996</v>
-      </c>
-      <c r="Q57" s="79">
-        <f t="shared" ref="Q57" si="22">I57*0.7</f>
-        <v>0.57455999999999996</v>
-      </c>
-      <c r="R57" s="92">
-        <f t="shared" ref="R57" si="23">J57*0.7</f>
-        <v>0.57455999999999996</v>
+        <v>0.7</v>
+      </c>
+      <c r="P57" s="367">
+        <f t="shared" si="22"/>
+        <v>0.71749999999999992</v>
+      </c>
+      <c r="Q57" s="367">
+        <f t="shared" si="23"/>
+        <v>0.71749999999999992</v>
+      </c>
+      <c r="R57" s="368">
+        <f t="shared" si="24"/>
+        <v>0.71749999999999992</v>
       </c>
       <c r="S57" s="100">
         <v>20</v>
@@ -20381,11 +20382,11 @@
       </c>
       <c r="AI57" s="154"/>
       <c r="AJ57" s="153" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>R-SH_Att_GASNAT_N1</v>
       </c>
       <c r="AK57" s="153" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AL57" s="154" t="s">
@@ -20413,26 +20414,26 @@
       <c r="F58" s="76" t="s">
         <v>433</v>
       </c>
-      <c r="G58" s="89">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="H58" s="78">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="I58" s="78">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="J58" s="90">
-        <v>0.86799999999999999</v>
+      <c r="G58" s="363">
+        <v>1</v>
+      </c>
+      <c r="H58" s="364">
+        <v>1</v>
+      </c>
+      <c r="I58" s="364">
+        <v>1</v>
+      </c>
+      <c r="J58" s="365">
+        <v>1</v>
       </c>
       <c r="K58" s="89"/>
       <c r="L58" s="78"/>
       <c r="M58" s="78"/>
       <c r="N58" s="90"/>
-      <c r="O58" s="89"/>
-      <c r="P58" s="78"/>
-      <c r="Q58" s="78"/>
-      <c r="R58" s="90"/>
+      <c r="O58" s="363"/>
+      <c r="P58" s="364"/>
+      <c r="Q58" s="364"/>
+      <c r="R58" s="365"/>
       <c r="S58" s="101">
         <v>20</v>
       </c>
@@ -20466,11 +20467,11 @@
       </c>
       <c r="AI58" s="154"/>
       <c r="AJ58" s="153" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>R-H_Att_GASNAT_N1</v>
       </c>
       <c r="AK58" s="153" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AL58" s="154" t="s">
@@ -20498,33 +20499,37 @@
       <c r="F59" s="70" t="s">
         <v>801</v>
       </c>
-      <c r="G59" s="91">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="H59" s="79">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="I59" s="79">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="J59" s="92">
-        <v>0.86799999999999999</v>
+      <c r="G59" s="366">
+        <v>1</v>
+      </c>
+      <c r="H59" s="367">
+        <v>1</v>
+      </c>
+      <c r="I59" s="367">
+        <v>1</v>
+      </c>
+      <c r="J59" s="368">
+        <v>1</v>
       </c>
       <c r="K59" s="91"/>
       <c r="L59" s="79"/>
       <c r="M59" s="79"/>
       <c r="N59" s="92"/>
-      <c r="O59" s="91">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="P59" s="79">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="Q59" s="79">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="R59" s="92">
-        <v>0.60759999999999992</v>
+      <c r="O59" s="366">
+        <f>G59*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="P59" s="367">
+        <f t="shared" ref="P59:P61" si="25">H59*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="Q59" s="367">
+        <f t="shared" ref="Q59:Q61" si="26">I59*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="R59" s="368">
+        <f t="shared" ref="R59:R61" si="27">J59*0.7</f>
+        <v>0.7</v>
       </c>
       <c r="S59" s="100">
         <v>20</v>
@@ -20559,11 +20564,11 @@
       </c>
       <c r="AI59" s="154"/>
       <c r="AJ59" s="153" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>R-H_Att_GASNAT_N2</v>
       </c>
       <c r="AK59" s="153" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
       <c r="AL59" s="154" t="s">
@@ -20591,33 +20596,37 @@
       <c r="F60" s="76" t="s">
         <v>801</v>
       </c>
-      <c r="G60" s="89">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="H60" s="78">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="I60" s="78">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="J60" s="90">
-        <v>0.90100000000000002</v>
+      <c r="G60" s="363">
+        <v>1</v>
+      </c>
+      <c r="H60" s="364">
+        <v>1</v>
+      </c>
+      <c r="I60" s="364">
+        <v>1</v>
+      </c>
+      <c r="J60" s="365">
+        <v>1</v>
       </c>
       <c r="K60" s="89"/>
       <c r="L60" s="78"/>
       <c r="M60" s="78"/>
       <c r="N60" s="90"/>
-      <c r="O60" s="89">
-        <v>0.88227999999999995</v>
-      </c>
-      <c r="P60" s="78">
-        <v>0.88227999999999995</v>
-      </c>
-      <c r="Q60" s="78">
-        <v>0.88227999999999995</v>
-      </c>
-      <c r="R60" s="90">
-        <v>0.88227999999999995</v>
+      <c r="O60" s="363">
+        <f>G60*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="P60" s="364">
+        <f t="shared" si="25"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q60" s="364">
+        <f t="shared" si="26"/>
+        <v>0.7</v>
+      </c>
+      <c r="R60" s="365">
+        <f t="shared" si="27"/>
+        <v>0.7</v>
       </c>
       <c r="S60" s="101">
         <v>20</v>
@@ -20656,11 +20665,11 @@
       </c>
       <c r="AI60" s="154"/>
       <c r="AJ60" s="153" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>R-H_Att_GASNAT_N3</v>
       </c>
       <c r="AK60" s="153" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
       <c r="AL60" s="154" t="s">
@@ -20688,37 +20697,37 @@
       <c r="F61" s="70" t="s">
         <v>801</v>
       </c>
-      <c r="G61" s="91">
-        <v>0.80079999999999996</v>
-      </c>
-      <c r="H61" s="79">
-        <v>0.82079999999999997</v>
-      </c>
-      <c r="I61" s="79">
-        <v>0.82079999999999997</v>
-      </c>
-      <c r="J61" s="92">
-        <v>0.82079999999999997</v>
+      <c r="G61" s="366">
+        <v>1</v>
+      </c>
+      <c r="H61" s="367">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="I61" s="367">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="J61" s="368">
+        <v>1.0249999999999999</v>
       </c>
       <c r="K61" s="91"/>
       <c r="L61" s="79"/>
       <c r="M61" s="79"/>
       <c r="N61" s="92"/>
-      <c r="O61" s="91">
+      <c r="O61" s="366">
         <f>G61*0.7</f>
-        <v>0.56055999999999995</v>
-      </c>
-      <c r="P61" s="79">
-        <f t="shared" ref="P61" si="24">H61*0.7</f>
-        <v>0.57455999999999996</v>
-      </c>
-      <c r="Q61" s="79">
-        <f t="shared" ref="Q61" si="25">I61*0.7</f>
-        <v>0.57455999999999996</v>
-      </c>
-      <c r="R61" s="92">
-        <f t="shared" ref="R61" si="26">J61*0.7</f>
-        <v>0.57455999999999996</v>
+        <v>0.7</v>
+      </c>
+      <c r="P61" s="367">
+        <f t="shared" si="25"/>
+        <v>0.71749999999999992</v>
+      </c>
+      <c r="Q61" s="367">
+        <f t="shared" si="26"/>
+        <v>0.71749999999999992</v>
+      </c>
+      <c r="R61" s="368">
+        <f t="shared" si="27"/>
+        <v>0.71749999999999992</v>
       </c>
       <c r="S61" s="100">
         <v>20</v>
@@ -20757,11 +20766,11 @@
       </c>
       <c r="AI61" s="154"/>
       <c r="AJ61" s="153" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>R-SH_Att_OILLPG_N1</v>
       </c>
       <c r="AK61" s="153" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AL61" s="154" t="s">
@@ -20789,26 +20798,26 @@
       <c r="F62" s="76" t="s">
         <v>433</v>
       </c>
-      <c r="G62" s="89">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="H62" s="78">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="I62" s="78">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="J62" s="90">
-        <v>0.86799999999999999</v>
+      <c r="G62" s="363">
+        <v>1</v>
+      </c>
+      <c r="H62" s="364">
+        <v>1</v>
+      </c>
+      <c r="I62" s="364">
+        <v>1</v>
+      </c>
+      <c r="J62" s="365">
+        <v>1</v>
       </c>
       <c r="K62" s="89"/>
       <c r="L62" s="78"/>
       <c r="M62" s="78"/>
       <c r="N62" s="90"/>
-      <c r="O62" s="89"/>
-      <c r="P62" s="78"/>
-      <c r="Q62" s="78"/>
-      <c r="R62" s="90"/>
+      <c r="O62" s="363"/>
+      <c r="P62" s="364"/>
+      <c r="Q62" s="364"/>
+      <c r="R62" s="365"/>
       <c r="S62" s="101">
         <v>20</v>
       </c>
@@ -20842,11 +20851,11 @@
       </c>
       <c r="AI62" s="154"/>
       <c r="AJ62" s="153" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>R-H_Att_OILLPG_N1</v>
       </c>
       <c r="AK62" s="153" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AL62" s="154" t="s">
@@ -20874,37 +20883,37 @@
       <c r="F63" s="70" t="s">
         <v>801</v>
       </c>
-      <c r="G63" s="91">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="H63" s="79">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="I63" s="79">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="J63" s="92">
-        <v>0.86799999999999999</v>
+      <c r="G63" s="366">
+        <v>1</v>
+      </c>
+      <c r="H63" s="367">
+        <v>1</v>
+      </c>
+      <c r="I63" s="367">
+        <v>1</v>
+      </c>
+      <c r="J63" s="368">
+        <v>1</v>
       </c>
       <c r="K63" s="91"/>
       <c r="L63" s="79"/>
       <c r="M63" s="79"/>
       <c r="N63" s="92"/>
-      <c r="O63" s="91">
+      <c r="O63" s="366">
         <f>G63*0.7</f>
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="P63" s="79">
-        <f t="shared" ref="P63" si="27">H63*0.7</f>
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="Q63" s="79">
-        <f t="shared" ref="Q63" si="28">I63*0.7</f>
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="R63" s="92">
-        <f t="shared" ref="R63" si="29">J63*0.7</f>
-        <v>0.60759999999999992</v>
+        <v>0.7</v>
+      </c>
+      <c r="P63" s="367">
+        <f t="shared" ref="P63" si="28">H63*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="Q63" s="367">
+        <f t="shared" ref="Q63" si="29">I63*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="R63" s="368">
+        <f t="shared" ref="R63" si="30">J63*0.7</f>
+        <v>0.7</v>
       </c>
       <c r="S63" s="100">
         <v>20</v>
@@ -20939,11 +20948,11 @@
       </c>
       <c r="AI63" s="154"/>
       <c r="AJ63" s="153" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>R-SH_Att_BIOWOO_N1</v>
       </c>
       <c r="AK63" s="153" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AL63" s="154" t="s">
@@ -20971,26 +20980,26 @@
       <c r="F64" s="76" t="s">
         <v>433</v>
       </c>
-      <c r="G64" s="89">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H64" s="78">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="I64" s="78">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="J64" s="90">
-        <v>0.88500000000000001</v>
+      <c r="G64" s="363">
+        <v>1</v>
+      </c>
+      <c r="H64" s="364">
+        <v>1</v>
+      </c>
+      <c r="I64" s="364">
+        <v>1</v>
+      </c>
+      <c r="J64" s="365">
+        <v>1</v>
       </c>
       <c r="K64" s="89"/>
       <c r="L64" s="78"/>
       <c r="M64" s="78"/>
       <c r="N64" s="90"/>
-      <c r="O64" s="89"/>
-      <c r="P64" s="78"/>
-      <c r="Q64" s="78"/>
-      <c r="R64" s="90"/>
+      <c r="O64" s="363"/>
+      <c r="P64" s="364"/>
+      <c r="Q64" s="364"/>
+      <c r="R64" s="365"/>
       <c r="S64" s="101">
         <v>20</v>
       </c>
@@ -21024,11 +21033,11 @@
       </c>
       <c r="AI64" s="157"/>
       <c r="AJ64" s="156" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>R-H_Att_BIOWOO_N1</v>
       </c>
       <c r="AK64" s="156" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AL64" s="157" t="s">
@@ -21056,37 +21065,37 @@
       <c r="F65" s="73" t="s">
         <v>801</v>
       </c>
-      <c r="G65" s="91">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H65" s="79">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="I65" s="79">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="J65" s="92">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="K65" s="96"/>
-      <c r="L65" s="97"/>
-      <c r="M65" s="97"/>
-      <c r="N65" s="98"/>
-      <c r="O65" s="96">
+      <c r="G65" s="366">
+        <v>1</v>
+      </c>
+      <c r="H65" s="367">
+        <v>1</v>
+      </c>
+      <c r="I65" s="367">
+        <v>1</v>
+      </c>
+      <c r="J65" s="368">
+        <v>1</v>
+      </c>
+      <c r="K65" s="91"/>
+      <c r="L65" s="79"/>
+      <c r="M65" s="79"/>
+      <c r="N65" s="92"/>
+      <c r="O65" s="366">
         <f>G65*0.7</f>
-        <v>0.61949999999999994</v>
-      </c>
-      <c r="P65" s="97">
-        <f t="shared" ref="P65" si="30">H65*0.7</f>
-        <v>0.61949999999999994</v>
-      </c>
-      <c r="Q65" s="97">
-        <f t="shared" ref="Q65" si="31">I65*0.7</f>
-        <v>0.61949999999999994</v>
-      </c>
-      <c r="R65" s="98">
-        <f t="shared" ref="R65" si="32">J65*0.7</f>
-        <v>0.61949999999999994</v>
+        <v>0.7</v>
+      </c>
+      <c r="P65" s="367">
+        <f>H65*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="Q65" s="367">
+        <f>I65*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="R65" s="368">
+        <f>J65*0.7</f>
+        <v>0.7</v>
       </c>
       <c r="S65" s="102">
         <v>20</v>
@@ -21175,11 +21184,11 @@
       <c r="AG66" s="81"/>
       <c r="AI66" s="152"/>
       <c r="AJ66" s="151" t="str">
-        <f t="shared" ref="AJ66:AK72" si="33">C69</f>
+        <f t="shared" ref="AJ66:AK72" si="31">C69</f>
         <v>R-SH_Att_RSDELC_HPN1</v>
       </c>
       <c r="AK66" s="151" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AL66" s="152" t="s">
@@ -21207,16 +21216,16 @@
       <c r="F67" s="70" t="s">
         <v>433</v>
       </c>
-      <c r="G67" s="91">
+      <c r="G67" s="378">
         <v>1</v>
       </c>
-      <c r="H67" s="79">
+      <c r="H67" s="379">
         <v>1</v>
       </c>
-      <c r="I67" s="79">
+      <c r="I67" s="379">
         <v>1</v>
       </c>
-      <c r="J67" s="92">
+      <c r="J67" s="380">
         <v>1</v>
       </c>
       <c r="K67" s="122"/>
@@ -21260,11 +21269,11 @@
       </c>
       <c r="AI67" s="154"/>
       <c r="AJ67" s="153" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>R-HC_Att_RSDELC_HPN1</v>
       </c>
       <c r="AK67" s="153" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AL67" s="154" t="s">
@@ -21314,11 +21323,11 @@
       <c r="AG68" s="81"/>
       <c r="AI68" s="154"/>
       <c r="AJ68" s="153" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>R-SH_Att_RSDELC_HPN2</v>
       </c>
       <c r="AK68" s="153" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AL68" s="154" t="s">
@@ -21346,26 +21355,26 @@
       <c r="F69" s="76" t="s">
         <v>433</v>
       </c>
-      <c r="G69" s="89">
-        <v>3.2</v>
-      </c>
-      <c r="H69" s="78">
-        <v>3.7</v>
-      </c>
-      <c r="I69" s="78">
-        <v>4</v>
-      </c>
-      <c r="J69" s="90">
-        <v>4</v>
-      </c>
-      <c r="K69" s="89"/>
-      <c r="L69" s="78"/>
-      <c r="M69" s="78"/>
-      <c r="N69" s="90"/>
-      <c r="O69" s="89"/>
-      <c r="P69" s="78"/>
-      <c r="Q69" s="78"/>
-      <c r="R69" s="90"/>
+      <c r="G69" s="369">
+        <v>1</v>
+      </c>
+      <c r="H69" s="370">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="I69" s="370">
+        <v>1.25</v>
+      </c>
+      <c r="J69" s="371">
+        <v>1.25</v>
+      </c>
+      <c r="K69" s="369"/>
+      <c r="L69" s="370"/>
+      <c r="M69" s="370"/>
+      <c r="N69" s="371"/>
+      <c r="O69" s="93"/>
+      <c r="P69" s="94"/>
+      <c r="Q69" s="94"/>
+      <c r="R69" s="95"/>
       <c r="S69" s="101">
         <v>20</v>
       </c>
@@ -21399,11 +21408,11 @@
       </c>
       <c r="AI69" s="154"/>
       <c r="AJ69" s="153" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>R-H_Att_RSDELC_HPN1</v>
       </c>
       <c r="AK69" s="153" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AL69" s="154" t="s">
@@ -21431,29 +21440,29 @@
       <c r="F70" s="70" t="s">
         <v>802</v>
       </c>
-      <c r="G70" s="91">
-        <v>3.2</v>
-      </c>
-      <c r="H70" s="79">
-        <v>3.7</v>
-      </c>
-      <c r="I70" s="79">
-        <v>4</v>
-      </c>
-      <c r="J70" s="92">
-        <v>4</v>
-      </c>
-      <c r="K70" s="91">
-        <v>3.2</v>
-      </c>
-      <c r="L70" s="79">
-        <v>3.7</v>
-      </c>
-      <c r="M70" s="79">
-        <v>4</v>
-      </c>
-      <c r="N70" s="92">
-        <v>4</v>
+      <c r="G70" s="366">
+        <v>1</v>
+      </c>
+      <c r="H70" s="367">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="I70" s="367">
+        <v>1.25</v>
+      </c>
+      <c r="J70" s="368">
+        <v>1.25</v>
+      </c>
+      <c r="K70" s="366">
+        <v>1</v>
+      </c>
+      <c r="L70" s="367">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="M70" s="367">
+        <v>1.25</v>
+      </c>
+      <c r="N70" s="368">
+        <v>1.25</v>
       </c>
       <c r="O70" s="91"/>
       <c r="P70" s="79"/>
@@ -21492,11 +21501,11 @@
       </c>
       <c r="AI70" s="304"/>
       <c r="AJ70" s="153" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>R-H_Att_RENSOL_HPN2</v>
       </c>
       <c r="AK70" s="153" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
       <c r="AL70" s="154" t="s">
@@ -21524,22 +21533,22 @@
       <c r="F71" s="76" t="s">
         <v>433</v>
       </c>
-      <c r="G71" s="89">
-        <v>3.3</v>
-      </c>
-      <c r="H71" s="78">
-        <v>3.7</v>
-      </c>
-      <c r="I71" s="78">
-        <v>4</v>
-      </c>
-      <c r="J71" s="90">
-        <v>4</v>
-      </c>
-      <c r="K71" s="89"/>
-      <c r="L71" s="78"/>
-      <c r="M71" s="78"/>
-      <c r="N71" s="90"/>
+      <c r="G71" s="363">
+        <v>1</v>
+      </c>
+      <c r="H71" s="364">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I71" s="364">
+        <v>1.21</v>
+      </c>
+      <c r="J71" s="365">
+        <v>1.21</v>
+      </c>
+      <c r="K71" s="363"/>
+      <c r="L71" s="364"/>
+      <c r="M71" s="364"/>
+      <c r="N71" s="365"/>
       <c r="O71" s="89"/>
       <c r="P71" s="78"/>
       <c r="Q71" s="78"/>
@@ -21577,11 +21586,11 @@
       </c>
       <c r="AI71" s="304"/>
       <c r="AJ71" s="153" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>R-SH_Att_RSDELC_HPN3</v>
       </c>
       <c r="AK71" s="153" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AL71" s="154" t="s">
@@ -21609,33 +21618,37 @@
       <c r="F72" s="70" t="s">
         <v>801</v>
       </c>
-      <c r="G72" s="91">
-        <v>3.3</v>
-      </c>
-      <c r="H72" s="79">
-        <v>3.7</v>
-      </c>
-      <c r="I72" s="79">
-        <v>4</v>
-      </c>
-      <c r="J72" s="92">
-        <v>4</v>
-      </c>
-      <c r="K72" s="91"/>
-      <c r="L72" s="79"/>
-      <c r="M72" s="79"/>
-      <c r="N72" s="92"/>
-      <c r="O72" s="91">
-        <v>2.3099999999999996</v>
-      </c>
-      <c r="P72" s="79">
-        <v>2.59</v>
-      </c>
-      <c r="Q72" s="79">
-        <v>2.8</v>
-      </c>
-      <c r="R72" s="92">
-        <v>2.8</v>
+      <c r="G72" s="366">
+        <v>1</v>
+      </c>
+      <c r="H72" s="367">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I72" s="367">
+        <v>1.21</v>
+      </c>
+      <c r="J72" s="368">
+        <v>1.21</v>
+      </c>
+      <c r="K72" s="366"/>
+      <c r="L72" s="367"/>
+      <c r="M72" s="367"/>
+      <c r="N72" s="368"/>
+      <c r="O72" s="366">
+        <f>G72*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="P72" s="367">
+        <f t="shared" ref="P72:P73" si="32">H72*0.7</f>
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="Q72" s="367">
+        <f t="shared" ref="Q72:Q73" si="33">I72*0.7</f>
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="R72" s="368">
+        <f t="shared" ref="R72:R73" si="34">J72*0.7</f>
+        <v>0.84699999999999998</v>
       </c>
       <c r="S72" s="100">
         <v>20</v>
@@ -21670,11 +21683,11 @@
       </c>
       <c r="AI72" s="160"/>
       <c r="AJ72" s="156" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>R-HC_Att_RSDELC_HPN2</v>
       </c>
       <c r="AK72" s="156" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AL72" s="157" t="s">
@@ -21702,33 +21715,37 @@
       <c r="F73" s="76" t="s">
         <v>801</v>
       </c>
-      <c r="G73" s="89">
-        <v>2.7249999999999996</v>
-      </c>
-      <c r="H73" s="78">
-        <v>3.0250000000000004</v>
-      </c>
-      <c r="I73" s="78">
-        <v>3.25</v>
-      </c>
-      <c r="J73" s="90">
-        <v>3.25</v>
-      </c>
-      <c r="K73" s="89"/>
-      <c r="L73" s="78"/>
-      <c r="M73" s="78"/>
-      <c r="N73" s="90"/>
-      <c r="O73" s="89">
-        <v>1.393</v>
-      </c>
-      <c r="P73" s="78">
-        <v>1.4770000000000001</v>
-      </c>
-      <c r="Q73" s="78">
-        <v>1.54</v>
-      </c>
-      <c r="R73" s="90">
-        <v>1.54</v>
+      <c r="G73" s="363">
+        <v>1</v>
+      </c>
+      <c r="H73" s="364">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I73" s="364">
+        <v>1.19</v>
+      </c>
+      <c r="J73" s="365">
+        <v>1.19</v>
+      </c>
+      <c r="K73" s="363"/>
+      <c r="L73" s="364"/>
+      <c r="M73" s="364"/>
+      <c r="N73" s="365"/>
+      <c r="O73" s="363">
+        <f>G73*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="P73" s="364">
+        <f t="shared" si="32"/>
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="Q73" s="364">
+        <f t="shared" si="33"/>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="R73" s="365">
+        <f t="shared" si="34"/>
+        <v>0.83299999999999996</v>
       </c>
       <c r="S73" s="101">
         <v>20</v>
@@ -21799,22 +21816,22 @@
       <c r="F74" s="70" t="s">
         <v>433</v>
       </c>
-      <c r="G74" s="91">
-        <v>3.92</v>
-      </c>
-      <c r="H74" s="79">
-        <v>3.92</v>
-      </c>
-      <c r="I74" s="79">
-        <v>3.92</v>
-      </c>
-      <c r="J74" s="92">
-        <v>3.92</v>
-      </c>
-      <c r="K74" s="91"/>
-      <c r="L74" s="79"/>
-      <c r="M74" s="79"/>
-      <c r="N74" s="92"/>
+      <c r="G74" s="366">
+        <v>1</v>
+      </c>
+      <c r="H74" s="367">
+        <v>1</v>
+      </c>
+      <c r="I74" s="367">
+        <v>1</v>
+      </c>
+      <c r="J74" s="368">
+        <v>1</v>
+      </c>
+      <c r="K74" s="366"/>
+      <c r="L74" s="367"/>
+      <c r="M74" s="367"/>
+      <c r="N74" s="368"/>
       <c r="O74" s="91"/>
       <c r="P74" s="79"/>
       <c r="Q74" s="79"/>
@@ -21884,34 +21901,34 @@
       <c r="F75" s="76" t="s">
         <v>802</v>
       </c>
-      <c r="G75" s="89">
-        <v>3.92</v>
-      </c>
-      <c r="H75" s="78">
-        <v>3.92</v>
-      </c>
-      <c r="I75" s="78">
-        <v>3.92</v>
-      </c>
-      <c r="J75" s="90">
-        <v>3.92</v>
-      </c>
-      <c r="K75" s="89">
-        <v>4.5</v>
-      </c>
-      <c r="L75" s="78">
-        <v>4.5</v>
-      </c>
-      <c r="M75" s="78">
-        <v>4.5</v>
-      </c>
-      <c r="N75" s="90">
-        <v>4.5</v>
-      </c>
-      <c r="O75" s="89"/>
-      <c r="P75" s="78"/>
-      <c r="Q75" s="78"/>
-      <c r="R75" s="90"/>
+      <c r="G75" s="372">
+        <v>1</v>
+      </c>
+      <c r="H75" s="373">
+        <v>1</v>
+      </c>
+      <c r="I75" s="373">
+        <v>1</v>
+      </c>
+      <c r="J75" s="374">
+        <v>1</v>
+      </c>
+      <c r="K75" s="372">
+        <v>1</v>
+      </c>
+      <c r="L75" s="373">
+        <v>1</v>
+      </c>
+      <c r="M75" s="373">
+        <v>1</v>
+      </c>
+      <c r="N75" s="374">
+        <v>1</v>
+      </c>
+      <c r="O75" s="375"/>
+      <c r="P75" s="376"/>
+      <c r="Q75" s="376"/>
+      <c r="R75" s="150"/>
       <c r="S75" s="101">
         <v>20</v>
       </c>
@@ -22031,37 +22048,37 @@
       <c r="F77" s="137" t="s">
         <v>801</v>
       </c>
-      <c r="G77" s="93">
-        <v>1.45</v>
-      </c>
-      <c r="H77" s="94">
-        <v>1.7</v>
-      </c>
-      <c r="I77" s="94">
-        <v>1.7</v>
-      </c>
-      <c r="J77" s="95">
-        <v>1.7</v>
+      <c r="G77" s="369">
+        <v>1</v>
+      </c>
+      <c r="H77" s="370">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="I77" s="370">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="J77" s="371">
+        <v>1.1719999999999999</v>
       </c>
       <c r="K77" s="93"/>
       <c r="L77" s="94"/>
       <c r="M77" s="94"/>
       <c r="N77" s="95"/>
-      <c r="O77" s="93">
+      <c r="O77" s="369">
         <f>G77*0.7</f>
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="P77" s="94">
-        <f t="shared" ref="P77:P78" si="34">H77*0.7</f>
-        <v>1.19</v>
-      </c>
-      <c r="Q77" s="94">
-        <f t="shared" ref="Q77:Q78" si="35">I77*0.7</f>
-        <v>1.19</v>
-      </c>
-      <c r="R77" s="95">
-        <f t="shared" ref="R77:R78" si="36">J77*0.7</f>
-        <v>1.19</v>
+        <v>0.7</v>
+      </c>
+      <c r="P77" s="370">
+        <f t="shared" ref="P77:P78" si="35">H77*0.7</f>
+        <v>0.82039999999999991</v>
+      </c>
+      <c r="Q77" s="370">
+        <f t="shared" ref="Q77:Q78" si="36">I77*0.7</f>
+        <v>0.82039999999999991</v>
+      </c>
+      <c r="R77" s="371">
+        <f t="shared" ref="R77:R78" si="37">J77*0.7</f>
+        <v>0.82039999999999991</v>
       </c>
       <c r="S77" s="99">
         <v>20</v>
@@ -22128,37 +22145,37 @@
       <c r="F78" s="74" t="s">
         <v>801</v>
       </c>
-      <c r="G78" s="96">
-        <v>1.55</v>
-      </c>
-      <c r="H78" s="97">
-        <v>1.55</v>
-      </c>
-      <c r="I78" s="97">
-        <v>1.6</v>
-      </c>
-      <c r="J78" s="98">
-        <v>1.6</v>
+      <c r="G78" s="382">
+        <v>1</v>
+      </c>
+      <c r="H78" s="383">
+        <v>1</v>
+      </c>
+      <c r="I78" s="383">
+        <v>1.032</v>
+      </c>
+      <c r="J78" s="384">
+        <v>1.032</v>
       </c>
       <c r="K78" s="96"/>
       <c r="L78" s="97"/>
       <c r="M78" s="97"/>
       <c r="N78" s="98"/>
-      <c r="O78" s="96">
+      <c r="O78" s="382">
         <f>G78*0.7</f>
-        <v>1.085</v>
-      </c>
-      <c r="P78" s="97">
-        <f t="shared" si="34"/>
-        <v>1.085</v>
-      </c>
-      <c r="Q78" s="97">
+        <v>0.7</v>
+      </c>
+      <c r="P78" s="383">
         <f t="shared" si="35"/>
-        <v>1.1199999999999999</v>
-      </c>
-      <c r="R78" s="98">
+        <v>0.7</v>
+      </c>
+      <c r="Q78" s="383">
         <f t="shared" si="36"/>
-        <v>1.1199999999999999</v>
+        <v>0.72239999999999993</v>
+      </c>
+      <c r="R78" s="384">
+        <f t="shared" si="37"/>
+        <v>0.72239999999999993</v>
       </c>
       <c r="S78" s="102">
         <v>20</v>
@@ -22193,11 +22210,11 @@
       </c>
       <c r="AI78" s="307"/>
       <c r="AJ78" s="151" t="str">
-        <f t="shared" ref="AJ78:AK82" si="37">C85</f>
+        <f t="shared" ref="AJ78:AK82" si="38">C85</f>
         <v>R-WH_Att_RSDELC_N1</v>
       </c>
       <c r="AK78" s="151" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">Residential Electric Water Heater </v>
       </c>
       <c r="AL78" s="152" t="s">
@@ -22247,11 +22264,11 @@
       <c r="AG79" s="81"/>
       <c r="AI79" s="4"/>
       <c r="AJ79" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>R-WH_Att_RENSOL_N1</v>
       </c>
       <c r="AK79" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">Residential Solar Water Heater </v>
       </c>
       <c r="AL79" s="154" t="s">
@@ -22279,37 +22296,37 @@
       <c r="F80" s="76" t="s">
         <v>801</v>
       </c>
-      <c r="G80" s="96">
-        <v>3.1</v>
-      </c>
-      <c r="H80" s="97">
-        <v>3.25</v>
-      </c>
-      <c r="I80" s="97">
-        <v>3.4</v>
-      </c>
-      <c r="J80" s="98">
-        <v>3.6</v>
+      <c r="G80" s="382">
+        <v>1</v>
+      </c>
+      <c r="H80" s="383">
+        <v>1.048</v>
+      </c>
+      <c r="I80" s="383">
+        <v>1.097</v>
+      </c>
+      <c r="J80" s="383">
+        <v>1.161</v>
       </c>
       <c r="K80" s="96"/>
       <c r="L80" s="97"/>
       <c r="M80" s="97"/>
       <c r="N80" s="98"/>
-      <c r="O80" s="96">
+      <c r="O80" s="382">
         <f>G80*0.7</f>
-        <v>2.17</v>
-      </c>
-      <c r="P80" s="97">
-        <f t="shared" ref="P80" si="38">H80*0.7</f>
-        <v>2.2749999999999999</v>
-      </c>
-      <c r="Q80" s="97">
-        <f t="shared" ref="Q80" si="39">I80*0.7</f>
-        <v>2.38</v>
-      </c>
-      <c r="R80" s="98">
-        <f t="shared" ref="R80" si="40">J80*0.7</f>
-        <v>2.52</v>
+        <v>0.7</v>
+      </c>
+      <c r="P80" s="383">
+        <f t="shared" ref="P80" si="39">H80*0.7</f>
+        <v>0.73360000000000003</v>
+      </c>
+      <c r="Q80" s="383">
+        <f t="shared" ref="Q80" si="40">I80*0.7</f>
+        <v>0.76789999999999992</v>
+      </c>
+      <c r="R80" s="384">
+        <f t="shared" ref="R80" si="41">J80*0.7</f>
+        <v>0.81269999999999998</v>
       </c>
       <c r="S80" s="5">
         <v>20</v>
@@ -22348,11 +22365,11 @@
       </c>
       <c r="AI80" s="4"/>
       <c r="AJ80" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>R-WH_Att_GASNAT_N1</v>
       </c>
       <c r="AK80" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">Residential Gas Water Heater </v>
       </c>
       <c r="AL80" s="154" t="s">
@@ -22402,11 +22419,11 @@
       <c r="AG81" s="81"/>
       <c r="AI81" s="4"/>
       <c r="AJ81" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>R-WH_Att_BIOWOO_N1</v>
       </c>
       <c r="AK81" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">Residential Biomass Water Heater </v>
       </c>
       <c r="AL81" s="154" t="s">
@@ -22434,33 +22451,33 @@
       <c r="F82" s="137" t="s">
         <v>801</v>
       </c>
-      <c r="G82" s="89">
-        <v>0.98</v>
-      </c>
-      <c r="H82" s="78">
-        <v>0.98</v>
-      </c>
-      <c r="I82" s="78">
-        <v>0.98</v>
-      </c>
-      <c r="J82" s="90">
-        <v>0.98</v>
-      </c>
-      <c r="K82" s="89"/>
-      <c r="L82" s="78"/>
-      <c r="M82" s="78"/>
-      <c r="N82" s="90"/>
-      <c r="O82" s="89">
-        <v>0.98</v>
-      </c>
-      <c r="P82" s="78">
-        <v>0.98</v>
-      </c>
-      <c r="Q82" s="78">
-        <v>0.98</v>
-      </c>
-      <c r="R82" s="90">
-        <v>0.98</v>
+      <c r="G82" s="369">
+        <v>1</v>
+      </c>
+      <c r="H82" s="370">
+        <v>1</v>
+      </c>
+      <c r="I82" s="370">
+        <v>1</v>
+      </c>
+      <c r="J82" s="371">
+        <v>1</v>
+      </c>
+      <c r="K82" s="93"/>
+      <c r="L82" s="94"/>
+      <c r="M82" s="94"/>
+      <c r="N82" s="95"/>
+      <c r="O82" s="369">
+        <v>1</v>
+      </c>
+      <c r="P82" s="370">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="370">
+        <v>1</v>
+      </c>
+      <c r="R82" s="371">
+        <v>1</v>
       </c>
       <c r="S82" s="99">
         <v>20</v>
@@ -22495,11 +22512,11 @@
       </c>
       <c r="AI82" s="163"/>
       <c r="AJ82" s="156" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>R-WH_Att_OILLPG_N1</v>
       </c>
       <c r="AK82" s="156" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">Residential Liquid Petroleum Gas Water Heater </v>
       </c>
       <c r="AL82" s="157" t="s">
@@ -22527,33 +22544,33 @@
       <c r="F83" s="74" t="s">
         <v>801</v>
       </c>
-      <c r="G83" s="91">
-        <v>0.98</v>
-      </c>
-      <c r="H83" s="79">
-        <v>0.98</v>
-      </c>
-      <c r="I83" s="79">
-        <v>0.98</v>
-      </c>
-      <c r="J83" s="92">
-        <v>0.98</v>
-      </c>
-      <c r="K83" s="91"/>
-      <c r="L83" s="79"/>
-      <c r="M83" s="79"/>
-      <c r="N83" s="92"/>
-      <c r="O83" s="91">
-        <v>0.98</v>
-      </c>
-      <c r="P83" s="79">
-        <v>0.98</v>
-      </c>
-      <c r="Q83" s="79">
-        <v>0.98</v>
-      </c>
-      <c r="R83" s="92">
-        <v>0.98</v>
+      <c r="G83" s="382">
+        <v>1</v>
+      </c>
+      <c r="H83" s="383">
+        <v>1</v>
+      </c>
+      <c r="I83" s="383">
+        <v>1</v>
+      </c>
+      <c r="J83" s="384">
+        <v>1</v>
+      </c>
+      <c r="K83" s="96"/>
+      <c r="L83" s="97"/>
+      <c r="M83" s="97"/>
+      <c r="N83" s="98"/>
+      <c r="O83" s="382">
+        <v>1</v>
+      </c>
+      <c r="P83" s="383">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="383">
+        <v>1</v>
+      </c>
+      <c r="R83" s="384">
+        <v>1</v>
       </c>
       <c r="S83" s="102">
         <v>20</v>
@@ -22655,24 +22672,24 @@
       <c r="F85" s="67" t="s">
         <v>436</v>
       </c>
-      <c r="G85" s="89"/>
-      <c r="H85" s="78"/>
-      <c r="I85" s="78"/>
-      <c r="J85" s="90"/>
-      <c r="K85" s="89"/>
-      <c r="L85" s="78"/>
-      <c r="M85" s="78"/>
-      <c r="N85" s="90"/>
-      <c r="O85" s="89">
+      <c r="G85" s="93"/>
+      <c r="H85" s="94"/>
+      <c r="I85" s="94"/>
+      <c r="J85" s="95"/>
+      <c r="K85" s="93"/>
+      <c r="L85" s="94"/>
+      <c r="M85" s="94"/>
+      <c r="N85" s="95"/>
+      <c r="O85" s="369">
         <v>1</v>
       </c>
-      <c r="P85" s="78">
+      <c r="P85" s="370">
         <v>1</v>
       </c>
-      <c r="Q85" s="78">
+      <c r="Q85" s="370">
         <v>1</v>
       </c>
-      <c r="R85" s="90">
+      <c r="R85" s="371">
         <v>1</v>
       </c>
       <c r="S85" s="99">
@@ -22729,16 +22746,16 @@
       <c r="L86" s="79"/>
       <c r="M86" s="79"/>
       <c r="N86" s="92"/>
-      <c r="O86" s="91">
+      <c r="O86" s="366">
         <v>1</v>
       </c>
-      <c r="P86" s="79">
+      <c r="P86" s="367">
         <v>1</v>
       </c>
-      <c r="Q86" s="79">
+      <c r="Q86" s="367">
         <v>1</v>
       </c>
-      <c r="R86" s="92">
+      <c r="R86" s="368">
         <v>1</v>
       </c>
       <c r="S86" s="100">
@@ -22797,17 +22814,17 @@
       <c r="L87" s="78"/>
       <c r="M87" s="78"/>
       <c r="N87" s="90"/>
-      <c r="O87" s="89">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="P87" s="78">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="Q87" s="78">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="R87" s="90">
-        <v>0.60759999999999992</v>
+      <c r="O87" s="363">
+        <v>0.7</v>
+      </c>
+      <c r="P87" s="364">
+        <v>0.7</v>
+      </c>
+      <c r="Q87" s="364">
+        <v>0.7</v>
+      </c>
+      <c r="R87" s="365">
+        <v>0.7</v>
       </c>
       <c r="S87" s="101">
         <v>20</v>
@@ -22863,17 +22880,17 @@
       <c r="L88" s="79"/>
       <c r="M88" s="79"/>
       <c r="N88" s="92"/>
-      <c r="O88" s="91">
-        <v>0.61949999999999994</v>
-      </c>
-      <c r="P88" s="79">
-        <v>0.61949999999999994</v>
-      </c>
-      <c r="Q88" s="79">
-        <v>0.61949999999999994</v>
-      </c>
-      <c r="R88" s="92">
-        <v>0.61949999999999994</v>
+      <c r="O88" s="366">
+        <v>0.7</v>
+      </c>
+      <c r="P88" s="367">
+        <v>0.7</v>
+      </c>
+      <c r="Q88" s="367">
+        <v>0.7</v>
+      </c>
+      <c r="R88" s="368">
+        <v>0.7</v>
       </c>
       <c r="S88" s="100">
         <v>20</v>
@@ -22921,25 +22938,25 @@
       <c r="F89" s="138" t="s">
         <v>436</v>
       </c>
-      <c r="G89" s="89"/>
-      <c r="H89" s="78"/>
-      <c r="I89" s="78"/>
-      <c r="J89" s="90"/>
-      <c r="K89" s="89"/>
-      <c r="L89" s="78"/>
-      <c r="M89" s="78"/>
-      <c r="N89" s="90"/>
-      <c r="O89" s="89">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="P89" s="78">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="Q89" s="78">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="R89" s="90">
-        <v>0.60759999999999992</v>
+      <c r="G89" s="375"/>
+      <c r="H89" s="376"/>
+      <c r="I89" s="376"/>
+      <c r="J89" s="150"/>
+      <c r="K89" s="375"/>
+      <c r="L89" s="376"/>
+      <c r="M89" s="376"/>
+      <c r="N89" s="150"/>
+      <c r="O89" s="372">
+        <v>0.7</v>
+      </c>
+      <c r="P89" s="373">
+        <v>0.7</v>
+      </c>
+      <c r="Q89" s="373">
+        <v>0.7</v>
+      </c>
+      <c r="R89" s="374">
+        <v>0.7</v>
       </c>
       <c r="S89" s="149">
         <v>20</v>
@@ -23025,20 +23042,20 @@
       <c r="G91" s="164"/>
       <c r="H91" s="165"/>
       <c r="I91" s="165"/>
-      <c r="J91" s="148"/>
-      <c r="K91" s="164">
-        <v>3.2</v>
-      </c>
-      <c r="L91" s="165">
-        <v>3.7</v>
-      </c>
-      <c r="M91" s="165">
-        <v>4</v>
-      </c>
-      <c r="N91" s="148">
-        <v>4</v>
-      </c>
-      <c r="O91" s="164"/>
+      <c r="J91" s="165"/>
+      <c r="K91" s="387">
+        <v>1</v>
+      </c>
+      <c r="L91" s="388">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="M91" s="388">
+        <v>1.25</v>
+      </c>
+      <c r="N91" s="389">
+        <v>1.25</v>
+      </c>
+      <c r="O91" s="165"/>
       <c r="P91" s="165"/>
       <c r="Q91" s="165"/>
       <c r="R91" s="148"/>
@@ -23419,26 +23436,26 @@
       <c r="F101" s="76" t="s">
         <v>441</v>
       </c>
-      <c r="G101" s="89">
-        <v>0</v>
-      </c>
-      <c r="H101" s="78">
-        <v>0</v>
-      </c>
-      <c r="I101" s="78">
-        <v>0</v>
-      </c>
-      <c r="J101" s="90">
-        <v>0</v>
+      <c r="G101" s="369">
+        <v>1</v>
+      </c>
+      <c r="H101" s="370">
+        <v>1</v>
+      </c>
+      <c r="I101" s="370">
+        <v>1</v>
+      </c>
+      <c r="J101" s="371">
+        <v>1</v>
       </c>
       <c r="K101" s="93"/>
       <c r="L101" s="94"/>
       <c r="M101" s="94"/>
       <c r="N101" s="95"/>
-      <c r="O101" s="93"/>
-      <c r="P101" s="94"/>
-      <c r="Q101" s="94"/>
-      <c r="R101" s="95"/>
+      <c r="O101" s="369"/>
+      <c r="P101" s="370"/>
+      <c r="Q101" s="370"/>
+      <c r="R101" s="371"/>
       <c r="S101" s="99">
         <v>20</v>
       </c>
@@ -23472,11 +23489,11 @@
       </c>
       <c r="AI101" s="154"/>
       <c r="AJ101" s="153" t="str">
-        <f t="shared" ref="AJ101:AJ111" si="41">C102</f>
+        <f t="shared" ref="AJ101:AJ111" si="42">C102</f>
         <v>R-H_Det_OILKER_N1</v>
       </c>
       <c r="AK101" s="153" t="str">
-        <f t="shared" ref="AK101:AK111" si="42">D102</f>
+        <f t="shared" ref="AK101:AK111" si="43">D102</f>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AL101" s="154" t="s">
@@ -23504,37 +23521,37 @@
       <c r="F102" s="70" t="s">
         <v>803</v>
       </c>
-      <c r="G102" s="91">
-        <v>0</v>
-      </c>
-      <c r="H102" s="79">
-        <v>0</v>
-      </c>
-      <c r="I102" s="79">
-        <v>0</v>
-      </c>
-      <c r="J102" s="92">
-        <v>0</v>
+      <c r="G102" s="366">
+        <v>1</v>
+      </c>
+      <c r="H102" s="367">
+        <v>1</v>
+      </c>
+      <c r="I102" s="367">
+        <v>1</v>
+      </c>
+      <c r="J102" s="368">
+        <v>1</v>
       </c>
       <c r="K102" s="91"/>
       <c r="L102" s="79"/>
       <c r="M102" s="79"/>
       <c r="N102" s="92"/>
-      <c r="O102" s="91">
+      <c r="O102" s="366">
         <f>G102*0.7</f>
-        <v>0</v>
-      </c>
-      <c r="P102" s="79">
-        <f t="shared" ref="P102" si="43">H102*0.7</f>
-        <v>0</v>
-      </c>
-      <c r="Q102" s="79">
-        <f t="shared" ref="Q102" si="44">I102*0.7</f>
-        <v>0</v>
-      </c>
-      <c r="R102" s="92">
-        <f t="shared" ref="R102" si="45">J102*0.7</f>
-        <v>0</v>
+        <v>0.7</v>
+      </c>
+      <c r="P102" s="367">
+        <f t="shared" ref="P102:P104" si="44">H102*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="Q102" s="367">
+        <f t="shared" ref="Q102:Q104" si="45">I102*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="R102" s="368">
+        <f t="shared" ref="R102:R104" si="46">J102*0.7</f>
+        <v>0.7</v>
       </c>
       <c r="S102" s="100">
         <v>20</v>
@@ -23569,11 +23586,11 @@
       </c>
       <c r="AI102" s="154"/>
       <c r="AJ102" s="153" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>R-H_Det_OILKER_N2</v>
       </c>
       <c r="AK102" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
       <c r="AL102" s="154" t="s">
@@ -23601,33 +23618,37 @@
       <c r="F103" s="76" t="s">
         <v>803</v>
       </c>
-      <c r="G103" s="89">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="H103" s="78">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="I103" s="78">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="J103" s="90">
-        <v>0.90100000000000002</v>
+      <c r="G103" s="363">
+        <v>1</v>
+      </c>
+      <c r="H103" s="364">
+        <v>1</v>
+      </c>
+      <c r="I103" s="364">
+        <v>1</v>
+      </c>
+      <c r="J103" s="365">
+        <v>1</v>
       </c>
       <c r="K103" s="89"/>
       <c r="L103" s="78"/>
       <c r="M103" s="78"/>
       <c r="N103" s="90"/>
-      <c r="O103" s="89">
-        <v>0.88227999999999995</v>
-      </c>
-      <c r="P103" s="78">
-        <v>0.88227999999999995</v>
-      </c>
-      <c r="Q103" s="78">
-        <v>0.88227999999999995</v>
-      </c>
-      <c r="R103" s="90">
-        <v>0.88227999999999995</v>
+      <c r="O103" s="363">
+        <f>G103*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="P103" s="364">
+        <f t="shared" si="44"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q103" s="364">
+        <f t="shared" si="45"/>
+        <v>0.7</v>
+      </c>
+      <c r="R103" s="365">
+        <f t="shared" si="46"/>
+        <v>0.7</v>
       </c>
       <c r="S103" s="101">
         <v>20</v>
@@ -23666,11 +23687,11 @@
       </c>
       <c r="AI103" s="154"/>
       <c r="AJ103" s="153" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>R-H_Det_OILKER_N3</v>
       </c>
       <c r="AK103" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
       <c r="AL103" s="155" t="s">
@@ -23696,37 +23717,37 @@
       <c r="F104" s="70" t="s">
         <v>803</v>
       </c>
-      <c r="G104" s="91">
-        <v>0.80079999999999996</v>
-      </c>
-      <c r="H104" s="79">
-        <v>0.82079999999999997</v>
-      </c>
-      <c r="I104" s="79">
-        <v>0.82079999999999997</v>
-      </c>
-      <c r="J104" s="92">
-        <v>0.82079999999999997</v>
+      <c r="G104" s="366">
+        <v>1</v>
+      </c>
+      <c r="H104" s="367">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="I104" s="367">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="J104" s="368">
+        <v>1.0249999999999999</v>
       </c>
       <c r="K104" s="91"/>
       <c r="L104" s="79"/>
       <c r="M104" s="79"/>
       <c r="N104" s="92"/>
-      <c r="O104" s="91">
+      <c r="O104" s="366">
         <f>G104*0.7</f>
-        <v>0.56055999999999995</v>
-      </c>
-      <c r="P104" s="79">
-        <f t="shared" ref="P104" si="46">H104*0.7</f>
-        <v>0.57455999999999996</v>
-      </c>
-      <c r="Q104" s="79">
-        <f t="shared" ref="Q104" si="47">I104*0.7</f>
-        <v>0.57455999999999996</v>
-      </c>
-      <c r="R104" s="92">
-        <f t="shared" ref="R104" si="48">J104*0.7</f>
-        <v>0.57455999999999996</v>
+        <v>0.7</v>
+      </c>
+      <c r="P104" s="367">
+        <f t="shared" si="44"/>
+        <v>0.71749999999999992</v>
+      </c>
+      <c r="Q104" s="367">
+        <f t="shared" si="45"/>
+        <v>0.71749999999999992</v>
+      </c>
+      <c r="R104" s="368">
+        <f t="shared" si="46"/>
+        <v>0.71749999999999992</v>
       </c>
       <c r="S104" s="100">
         <v>20</v>
@@ -23765,11 +23786,11 @@
       </c>
       <c r="AI104" s="154"/>
       <c r="AJ104" s="153" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>R-SH_Det_GASNAT_N1</v>
       </c>
       <c r="AK104" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AL104" s="154" t="s">
@@ -23797,26 +23818,26 @@
       <c r="F105" s="76" t="s">
         <v>441</v>
       </c>
-      <c r="G105" s="89">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="H105" s="78">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="I105" s="78">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="J105" s="90">
-        <v>0.86799999999999999</v>
+      <c r="G105" s="363">
+        <v>1</v>
+      </c>
+      <c r="H105" s="364">
+        <v>1</v>
+      </c>
+      <c r="I105" s="364">
+        <v>1</v>
+      </c>
+      <c r="J105" s="365">
+        <v>1</v>
       </c>
       <c r="K105" s="89"/>
       <c r="L105" s="78"/>
       <c r="M105" s="78"/>
       <c r="N105" s="90"/>
-      <c r="O105" s="89"/>
-      <c r="P105" s="78"/>
-      <c r="Q105" s="78"/>
-      <c r="R105" s="90"/>
+      <c r="O105" s="363"/>
+      <c r="P105" s="364"/>
+      <c r="Q105" s="364"/>
+      <c r="R105" s="365"/>
       <c r="S105" s="101">
         <v>20</v>
       </c>
@@ -23850,11 +23871,11 @@
       </c>
       <c r="AI105" s="154"/>
       <c r="AJ105" s="153" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>R-H_Det_GASNAT_N1</v>
       </c>
       <c r="AK105" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AL105" s="154" t="s">
@@ -23882,33 +23903,37 @@
       <c r="F106" s="70" t="s">
         <v>803</v>
       </c>
-      <c r="G106" s="91">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="H106" s="79">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="I106" s="79">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="J106" s="92">
-        <v>0.86799999999999999</v>
+      <c r="G106" s="366">
+        <v>1</v>
+      </c>
+      <c r="H106" s="367">
+        <v>1</v>
+      </c>
+      <c r="I106" s="367">
+        <v>1</v>
+      </c>
+      <c r="J106" s="368">
+        <v>1</v>
       </c>
       <c r="K106" s="91"/>
       <c r="L106" s="79"/>
       <c r="M106" s="79"/>
       <c r="N106" s="92"/>
-      <c r="O106" s="91">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="P106" s="79">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="Q106" s="79">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="R106" s="92">
-        <v>0.60759999999999992</v>
+      <c r="O106" s="366">
+        <f>G106*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="P106" s="367">
+        <f t="shared" ref="P106:P108" si="47">H106*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="Q106" s="367">
+        <f t="shared" ref="Q106:Q108" si="48">I106*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="R106" s="368">
+        <f t="shared" ref="R106:R108" si="49">J106*0.7</f>
+        <v>0.7</v>
       </c>
       <c r="S106" s="100">
         <v>20</v>
@@ -23943,11 +23968,11 @@
       </c>
       <c r="AI106" s="154"/>
       <c r="AJ106" s="153" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>R-H_Det_GASNAT_N2</v>
       </c>
       <c r="AK106" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
       <c r="AL106" s="154" t="s">
@@ -23975,33 +24000,37 @@
       <c r="F107" s="76" t="s">
         <v>803</v>
       </c>
-      <c r="G107" s="89">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="H107" s="78">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="I107" s="78">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="J107" s="90">
-        <v>0.90100000000000002</v>
+      <c r="G107" s="363">
+        <v>1</v>
+      </c>
+      <c r="H107" s="364">
+        <v>1</v>
+      </c>
+      <c r="I107" s="364">
+        <v>1</v>
+      </c>
+      <c r="J107" s="365">
+        <v>1</v>
       </c>
       <c r="K107" s="89"/>
       <c r="L107" s="78"/>
       <c r="M107" s="78"/>
       <c r="N107" s="90"/>
-      <c r="O107" s="89">
-        <v>0.88227999999999995</v>
-      </c>
-      <c r="P107" s="78">
-        <v>0.88227999999999995</v>
-      </c>
-      <c r="Q107" s="78">
-        <v>0.88227999999999995</v>
-      </c>
-      <c r="R107" s="90">
-        <v>0.88227999999999995</v>
+      <c r="O107" s="363">
+        <f>G107*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="P107" s="364">
+        <f t="shared" si="47"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q107" s="364">
+        <f t="shared" si="48"/>
+        <v>0.7</v>
+      </c>
+      <c r="R107" s="365">
+        <f t="shared" si="49"/>
+        <v>0.7</v>
       </c>
       <c r="S107" s="101">
         <v>20</v>
@@ -24040,11 +24069,11 @@
       </c>
       <c r="AI107" s="154"/>
       <c r="AJ107" s="153" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>R-H_Det_GASNAT_N3</v>
       </c>
       <c r="AK107" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
       <c r="AL107" s="154" t="s">
@@ -24072,37 +24101,37 @@
       <c r="F108" s="70" t="s">
         <v>803</v>
       </c>
-      <c r="G108" s="91">
-        <v>0.80079999999999996</v>
-      </c>
-      <c r="H108" s="79">
-        <v>0.82079999999999997</v>
-      </c>
-      <c r="I108" s="79">
-        <v>0.82079999999999997</v>
-      </c>
-      <c r="J108" s="92">
-        <v>0.82079999999999997</v>
+      <c r="G108" s="366">
+        <v>1</v>
+      </c>
+      <c r="H108" s="367">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="I108" s="367">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="J108" s="368">
+        <v>1.0249999999999999</v>
       </c>
       <c r="K108" s="91"/>
       <c r="L108" s="79"/>
       <c r="M108" s="79"/>
       <c r="N108" s="92"/>
-      <c r="O108" s="91">
+      <c r="O108" s="366">
         <f>G108*0.7</f>
-        <v>0.56055999999999995</v>
-      </c>
-      <c r="P108" s="79">
-        <f t="shared" ref="P108" si="49">H108*0.7</f>
-        <v>0.57455999999999996</v>
-      </c>
-      <c r="Q108" s="79">
-        <f t="shared" ref="Q108" si="50">I108*0.7</f>
-        <v>0.57455999999999996</v>
-      </c>
-      <c r="R108" s="92">
-        <f t="shared" ref="R108" si="51">J108*0.7</f>
-        <v>0.57455999999999996</v>
+        <v>0.7</v>
+      </c>
+      <c r="P108" s="367">
+        <f t="shared" si="47"/>
+        <v>0.71749999999999992</v>
+      </c>
+      <c r="Q108" s="367">
+        <f t="shared" si="48"/>
+        <v>0.71749999999999992</v>
+      </c>
+      <c r="R108" s="368">
+        <f t="shared" si="49"/>
+        <v>0.71749999999999992</v>
       </c>
       <c r="S108" s="100">
         <v>20</v>
@@ -24141,11 +24170,11 @@
       </c>
       <c r="AI108" s="154"/>
       <c r="AJ108" s="153" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>R-SH_Det_OILLPG_N1</v>
       </c>
       <c r="AK108" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AL108" s="154" t="s">
@@ -24173,26 +24202,26 @@
       <c r="F109" s="76" t="s">
         <v>441</v>
       </c>
-      <c r="G109" s="89">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="H109" s="78">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="I109" s="78">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="J109" s="90">
-        <v>0.86799999999999999</v>
+      <c r="G109" s="363">
+        <v>1</v>
+      </c>
+      <c r="H109" s="364">
+        <v>1</v>
+      </c>
+      <c r="I109" s="364">
+        <v>1</v>
+      </c>
+      <c r="J109" s="365">
+        <v>1</v>
       </c>
       <c r="K109" s="89"/>
       <c r="L109" s="78"/>
       <c r="M109" s="78"/>
       <c r="N109" s="90"/>
-      <c r="O109" s="89"/>
-      <c r="P109" s="78"/>
-      <c r="Q109" s="78"/>
-      <c r="R109" s="90"/>
+      <c r="O109" s="363"/>
+      <c r="P109" s="364"/>
+      <c r="Q109" s="364"/>
+      <c r="R109" s="365"/>
       <c r="S109" s="101">
         <v>20</v>
       </c>
@@ -24226,11 +24255,11 @@
       </c>
       <c r="AI109" s="154"/>
       <c r="AJ109" s="153" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>R-H_Det_OILLPG_N1</v>
       </c>
       <c r="AK109" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AL109" s="154" t="s">
@@ -24258,37 +24287,37 @@
       <c r="F110" s="70" t="s">
         <v>803</v>
       </c>
-      <c r="G110" s="91">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="H110" s="79">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="I110" s="79">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="J110" s="92">
-        <v>0.86799999999999999</v>
+      <c r="G110" s="366">
+        <v>1</v>
+      </c>
+      <c r="H110" s="367">
+        <v>1</v>
+      </c>
+      <c r="I110" s="367">
+        <v>1</v>
+      </c>
+      <c r="J110" s="368">
+        <v>1</v>
       </c>
       <c r="K110" s="91"/>
       <c r="L110" s="79"/>
       <c r="M110" s="79"/>
       <c r="N110" s="92"/>
-      <c r="O110" s="91">
+      <c r="O110" s="366">
         <f>G110*0.7</f>
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="P110" s="79">
-        <f t="shared" ref="P110" si="52">H110*0.7</f>
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="Q110" s="79">
-        <f t="shared" ref="Q110" si="53">I110*0.7</f>
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="R110" s="92">
-        <f t="shared" ref="R110" si="54">J110*0.7</f>
-        <v>0.60759999999999992</v>
+        <v>0.7</v>
+      </c>
+      <c r="P110" s="367">
+        <f t="shared" ref="P110" si="50">H110*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="Q110" s="367">
+        <f t="shared" ref="Q110" si="51">I110*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="R110" s="368">
+        <f t="shared" ref="R110" si="52">J110*0.7</f>
+        <v>0.7</v>
       </c>
       <c r="S110" s="100">
         <v>20</v>
@@ -24323,11 +24352,11 @@
       </c>
       <c r="AI110" s="154"/>
       <c r="AJ110" s="153" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>R-SH_Det_BIOWOO_N1</v>
       </c>
       <c r="AK110" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AL110" s="154" t="s">
@@ -24355,26 +24384,26 @@
       <c r="F111" s="76" t="s">
         <v>441</v>
       </c>
-      <c r="G111" s="89">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H111" s="78">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="I111" s="78">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="J111" s="90">
-        <v>0.88500000000000001</v>
+      <c r="G111" s="363">
+        <v>1</v>
+      </c>
+      <c r="H111" s="364">
+        <v>1</v>
+      </c>
+      <c r="I111" s="364">
+        <v>1</v>
+      </c>
+      <c r="J111" s="365">
+        <v>1</v>
       </c>
       <c r="K111" s="89"/>
       <c r="L111" s="78"/>
       <c r="M111" s="78"/>
       <c r="N111" s="90"/>
-      <c r="O111" s="89"/>
-      <c r="P111" s="78"/>
-      <c r="Q111" s="78"/>
-      <c r="R111" s="90"/>
+      <c r="O111" s="363"/>
+      <c r="P111" s="364"/>
+      <c r="Q111" s="364"/>
+      <c r="R111" s="365"/>
       <c r="S111" s="101">
         <v>20</v>
       </c>
@@ -24408,11 +24437,11 @@
       </c>
       <c r="AI111" s="157"/>
       <c r="AJ111" s="156" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>R-H_Det_BIOWOO_N1</v>
       </c>
       <c r="AK111" s="156" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AL111" s="157" t="s">
@@ -24440,37 +24469,37 @@
       <c r="F112" s="73" t="s">
         <v>803</v>
       </c>
-      <c r="G112" s="91">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H112" s="79">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="I112" s="79">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="J112" s="92">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="K112" s="96"/>
-      <c r="L112" s="97"/>
-      <c r="M112" s="97"/>
-      <c r="N112" s="98"/>
-      <c r="O112" s="96">
+      <c r="G112" s="366">
+        <v>1</v>
+      </c>
+      <c r="H112" s="367">
+        <v>1</v>
+      </c>
+      <c r="I112" s="367">
+        <v>1</v>
+      </c>
+      <c r="J112" s="368">
+        <v>1</v>
+      </c>
+      <c r="K112" s="91"/>
+      <c r="L112" s="79"/>
+      <c r="M112" s="79"/>
+      <c r="N112" s="92"/>
+      <c r="O112" s="366">
         <f>G112*0.7</f>
-        <v>0.61949999999999994</v>
-      </c>
-      <c r="P112" s="97">
-        <f t="shared" ref="P112" si="55">H112*0.7</f>
-        <v>0.61949999999999994</v>
-      </c>
-      <c r="Q112" s="97">
-        <f t="shared" ref="Q112" si="56">I112*0.7</f>
-        <v>0.61949999999999994</v>
-      </c>
-      <c r="R112" s="98">
-        <f t="shared" ref="R112" si="57">J112*0.7</f>
-        <v>0.61949999999999994</v>
+        <v>0.7</v>
+      </c>
+      <c r="P112" s="367">
+        <f>H112*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="Q112" s="367">
+        <f>I112*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="R112" s="368">
+        <f>J112*0.7</f>
+        <v>0.7</v>
       </c>
       <c r="S112" s="102">
         <v>20</v>
@@ -24559,11 +24588,11 @@
       <c r="AG113" s="81"/>
       <c r="AI113" s="152"/>
       <c r="AJ113" s="151" t="str">
-        <f t="shared" ref="AJ113:AK119" si="58">C116</f>
+        <f t="shared" ref="AJ113:AK119" si="53">C116</f>
         <v>R-SH_Det_RSDELC_HPN1</v>
       </c>
       <c r="AK113" s="151" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AL113" s="152" t="s">
@@ -24591,16 +24620,16 @@
       <c r="F114" s="70" t="s">
         <v>441</v>
       </c>
-      <c r="G114" s="91">
+      <c r="G114" s="378">
         <v>1</v>
       </c>
-      <c r="H114" s="79">
+      <c r="H114" s="379">
         <v>1</v>
       </c>
-      <c r="I114" s="79">
+      <c r="I114" s="379">
         <v>1</v>
       </c>
-      <c r="J114" s="92">
+      <c r="J114" s="380">
         <v>1</v>
       </c>
       <c r="K114" s="122"/>
@@ -24644,11 +24673,11 @@
       </c>
       <c r="AI114" s="154"/>
       <c r="AJ114" s="153" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>R-HC_Det_RSDELC_HPN1</v>
       </c>
       <c r="AK114" s="153" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AL114" s="154" t="s">
@@ -24698,11 +24727,11 @@
       <c r="AG115" s="81"/>
       <c r="AI115" s="154"/>
       <c r="AJ115" s="153" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>R-SH_Det_RSDELC_HPN2</v>
       </c>
       <c r="AK115" s="153" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AL115" s="154" t="s">
@@ -24730,26 +24759,26 @@
       <c r="F116" s="76" t="s">
         <v>441</v>
       </c>
-      <c r="G116" s="89">
-        <v>3.2</v>
-      </c>
-      <c r="H116" s="78">
-        <v>3.7</v>
-      </c>
-      <c r="I116" s="78">
-        <v>4</v>
-      </c>
-      <c r="J116" s="90">
-        <v>4</v>
-      </c>
-      <c r="K116" s="89"/>
-      <c r="L116" s="78"/>
-      <c r="M116" s="78"/>
-      <c r="N116" s="90"/>
-      <c r="O116" s="89"/>
-      <c r="P116" s="78"/>
-      <c r="Q116" s="78"/>
-      <c r="R116" s="90"/>
+      <c r="G116" s="369">
+        <v>1</v>
+      </c>
+      <c r="H116" s="370">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="I116" s="370">
+        <v>1.25</v>
+      </c>
+      <c r="J116" s="371">
+        <v>1.25</v>
+      </c>
+      <c r="K116" s="369"/>
+      <c r="L116" s="370"/>
+      <c r="M116" s="370"/>
+      <c r="N116" s="371"/>
+      <c r="O116" s="93"/>
+      <c r="P116" s="94"/>
+      <c r="Q116" s="94"/>
+      <c r="R116" s="95"/>
       <c r="S116" s="101">
         <v>20</v>
       </c>
@@ -24783,11 +24812,11 @@
       </c>
       <c r="AI116" s="154"/>
       <c r="AJ116" s="153" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>R-H_Det_RSDELC_HPN1</v>
       </c>
       <c r="AK116" s="153" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AL116" s="154" t="s">
@@ -24815,29 +24844,29 @@
       <c r="F117" s="70" t="s">
         <v>804</v>
       </c>
-      <c r="G117" s="91">
-        <v>3.2</v>
-      </c>
-      <c r="H117" s="79">
-        <v>3.7</v>
-      </c>
-      <c r="I117" s="79">
-        <v>4</v>
-      </c>
-      <c r="J117" s="92">
-        <v>4</v>
-      </c>
-      <c r="K117" s="91">
-        <v>3.2</v>
-      </c>
-      <c r="L117" s="79">
-        <v>3.7</v>
-      </c>
-      <c r="M117" s="79">
-        <v>4</v>
-      </c>
-      <c r="N117" s="92">
-        <v>4</v>
+      <c r="G117" s="366">
+        <v>1</v>
+      </c>
+      <c r="H117" s="367">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="I117" s="367">
+        <v>1.25</v>
+      </c>
+      <c r="J117" s="368">
+        <v>1.25</v>
+      </c>
+      <c r="K117" s="366">
+        <v>1</v>
+      </c>
+      <c r="L117" s="367">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="M117" s="367">
+        <v>1.25</v>
+      </c>
+      <c r="N117" s="368">
+        <v>1.25</v>
       </c>
       <c r="O117" s="91"/>
       <c r="P117" s="79"/>
@@ -24876,11 +24905,11 @@
       </c>
       <c r="AI117" s="304"/>
       <c r="AJ117" s="153" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>R-H_Det_RENSOL_HPN2</v>
       </c>
       <c r="AK117" s="153" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
       <c r="AL117" s="154" t="s">
@@ -24908,22 +24937,22 @@
       <c r="F118" s="76" t="s">
         <v>441</v>
       </c>
-      <c r="G118" s="89">
-        <v>3.3</v>
-      </c>
-      <c r="H118" s="78">
-        <v>3.7</v>
-      </c>
-      <c r="I118" s="78">
-        <v>4</v>
-      </c>
-      <c r="J118" s="90">
-        <v>4</v>
-      </c>
-      <c r="K118" s="89"/>
-      <c r="L118" s="78"/>
-      <c r="M118" s="78"/>
-      <c r="N118" s="90"/>
+      <c r="G118" s="363">
+        <v>1</v>
+      </c>
+      <c r="H118" s="364">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I118" s="364">
+        <v>1.21</v>
+      </c>
+      <c r="J118" s="365">
+        <v>1.21</v>
+      </c>
+      <c r="K118" s="363"/>
+      <c r="L118" s="364"/>
+      <c r="M118" s="364"/>
+      <c r="N118" s="365"/>
       <c r="O118" s="89"/>
       <c r="P118" s="78"/>
       <c r="Q118" s="78"/>
@@ -24961,11 +24990,11 @@
       </c>
       <c r="AI118" s="304"/>
       <c r="AJ118" s="153" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>R-SH_Det_RSDELC_HPN3</v>
       </c>
       <c r="AK118" s="153" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AL118" s="154" t="s">
@@ -24993,33 +25022,37 @@
       <c r="F119" s="70" t="s">
         <v>803</v>
       </c>
-      <c r="G119" s="91">
-        <v>3.3</v>
-      </c>
-      <c r="H119" s="79">
-        <v>3.7</v>
-      </c>
-      <c r="I119" s="79">
-        <v>4</v>
-      </c>
-      <c r="J119" s="92">
-        <v>4</v>
-      </c>
-      <c r="K119" s="91"/>
-      <c r="L119" s="79"/>
-      <c r="M119" s="79"/>
-      <c r="N119" s="92"/>
-      <c r="O119" s="91">
-        <v>2.3099999999999996</v>
-      </c>
-      <c r="P119" s="79">
-        <v>2.59</v>
-      </c>
-      <c r="Q119" s="79">
-        <v>2.8</v>
-      </c>
-      <c r="R119" s="92">
-        <v>2.8</v>
+      <c r="G119" s="366">
+        <v>1</v>
+      </c>
+      <c r="H119" s="367">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I119" s="367">
+        <v>1.21</v>
+      </c>
+      <c r="J119" s="368">
+        <v>1.21</v>
+      </c>
+      <c r="K119" s="366"/>
+      <c r="L119" s="367"/>
+      <c r="M119" s="367"/>
+      <c r="N119" s="368"/>
+      <c r="O119" s="366">
+        <f>G119*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="P119" s="367">
+        <f t="shared" ref="P119:P120" si="54">H119*0.7</f>
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="Q119" s="367">
+        <f t="shared" ref="Q119:Q120" si="55">I119*0.7</f>
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="R119" s="368">
+        <f t="shared" ref="R119:R120" si="56">J119*0.7</f>
+        <v>0.84699999999999998</v>
       </c>
       <c r="S119" s="100">
         <v>20</v>
@@ -25054,11 +25087,11 @@
       </c>
       <c r="AI119" s="160"/>
       <c r="AJ119" s="156" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>R-HC_Det_RSDELC_HPN2</v>
       </c>
       <c r="AK119" s="156" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AL119" s="157" t="s">
@@ -25086,33 +25119,37 @@
       <c r="F120" s="76" t="s">
         <v>803</v>
       </c>
-      <c r="G120" s="89">
-        <v>2.7249999999999996</v>
-      </c>
-      <c r="H120" s="78">
-        <v>3.0250000000000004</v>
-      </c>
-      <c r="I120" s="78">
-        <v>3.25</v>
-      </c>
-      <c r="J120" s="90">
-        <v>3.25</v>
-      </c>
-      <c r="K120" s="89"/>
-      <c r="L120" s="78"/>
-      <c r="M120" s="78"/>
-      <c r="N120" s="90"/>
-      <c r="O120" s="89">
-        <v>1.393</v>
-      </c>
-      <c r="P120" s="78">
-        <v>1.4770000000000001</v>
-      </c>
-      <c r="Q120" s="78">
-        <v>1.54</v>
-      </c>
-      <c r="R120" s="90">
-        <v>1.54</v>
+      <c r="G120" s="363">
+        <v>1</v>
+      </c>
+      <c r="H120" s="364">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I120" s="364">
+        <v>1.19</v>
+      </c>
+      <c r="J120" s="365">
+        <v>1.19</v>
+      </c>
+      <c r="K120" s="363"/>
+      <c r="L120" s="364"/>
+      <c r="M120" s="364"/>
+      <c r="N120" s="365"/>
+      <c r="O120" s="363">
+        <f>G120*0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="P120" s="364">
+        <f t="shared" si="54"/>
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="Q120" s="364">
+        <f t="shared" si="55"/>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="R120" s="365">
+        <f t="shared" si="56"/>
+        <v>0.83299999999999996</v>
       </c>
       <c r="S120" s="101">
         <v>20</v>
@@ -25183,22 +25220,22 @@
       <c r="F121" s="70" t="s">
         <v>441</v>
       </c>
-      <c r="G121" s="91">
-        <v>3.92</v>
-      </c>
-      <c r="H121" s="79">
-        <v>3.92</v>
-      </c>
-      <c r="I121" s="79">
-        <v>3.92</v>
-      </c>
-      <c r="J121" s="92">
-        <v>3.92</v>
-      </c>
-      <c r="K121" s="91"/>
-      <c r="L121" s="79"/>
-      <c r="M121" s="79"/>
-      <c r="N121" s="92"/>
+      <c r="G121" s="366">
+        <v>1</v>
+      </c>
+      <c r="H121" s="367">
+        <v>1</v>
+      </c>
+      <c r="I121" s="367">
+        <v>1</v>
+      </c>
+      <c r="J121" s="368">
+        <v>1</v>
+      </c>
+      <c r="K121" s="366"/>
+      <c r="L121" s="367"/>
+      <c r="M121" s="367"/>
+      <c r="N121" s="368"/>
       <c r="O121" s="91"/>
       <c r="P121" s="79"/>
       <c r="Q121" s="79"/>
@@ -25268,34 +25305,34 @@
       <c r="F122" s="76" t="s">
         <v>804</v>
       </c>
-      <c r="G122" s="89">
-        <v>3.92</v>
-      </c>
-      <c r="H122" s="78">
-        <v>3.92</v>
-      </c>
-      <c r="I122" s="78">
-        <v>3.92</v>
-      </c>
-      <c r="J122" s="90">
-        <v>3.92</v>
-      </c>
-      <c r="K122" s="89">
-        <v>4.5</v>
-      </c>
-      <c r="L122" s="78">
-        <v>4.5</v>
-      </c>
-      <c r="M122" s="78">
-        <v>4.5</v>
-      </c>
-      <c r="N122" s="90">
-        <v>4.5</v>
-      </c>
-      <c r="O122" s="89"/>
-      <c r="P122" s="78"/>
-      <c r="Q122" s="78"/>
-      <c r="R122" s="90"/>
+      <c r="G122" s="372">
+        <v>1</v>
+      </c>
+      <c r="H122" s="373">
+        <v>1</v>
+      </c>
+      <c r="I122" s="373">
+        <v>1</v>
+      </c>
+      <c r="J122" s="374">
+        <v>1</v>
+      </c>
+      <c r="K122" s="372">
+        <v>1</v>
+      </c>
+      <c r="L122" s="373">
+        <v>1</v>
+      </c>
+      <c r="M122" s="373">
+        <v>1</v>
+      </c>
+      <c r="N122" s="374">
+        <v>1</v>
+      </c>
+      <c r="O122" s="375"/>
+      <c r="P122" s="376"/>
+      <c r="Q122" s="376"/>
+      <c r="R122" s="150"/>
       <c r="S122" s="101">
         <v>20</v>
       </c>
@@ -25415,37 +25452,37 @@
       <c r="F124" s="137" t="s">
         <v>803</v>
       </c>
-      <c r="G124" s="93">
-        <v>1.45</v>
-      </c>
-      <c r="H124" s="94">
-        <v>1.7</v>
-      </c>
-      <c r="I124" s="94">
-        <v>1.7</v>
-      </c>
-      <c r="J124" s="95">
-        <v>1.7</v>
+      <c r="G124" s="369">
+        <v>1</v>
+      </c>
+      <c r="H124" s="370">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="I124" s="370">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="J124" s="371">
+        <v>1.1719999999999999</v>
       </c>
       <c r="K124" s="93"/>
       <c r="L124" s="94"/>
       <c r="M124" s="94"/>
       <c r="N124" s="95"/>
-      <c r="O124" s="93">
+      <c r="O124" s="369">
         <f>G124*0.7</f>
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="P124" s="94">
-        <f t="shared" ref="P124:P125" si="59">H124*0.7</f>
-        <v>1.19</v>
-      </c>
-      <c r="Q124" s="94">
-        <f t="shared" ref="Q124:Q125" si="60">I124*0.7</f>
-        <v>1.19</v>
-      </c>
-      <c r="R124" s="95">
-        <f t="shared" ref="R124:R125" si="61">J124*0.7</f>
-        <v>1.19</v>
+        <v>0.7</v>
+      </c>
+      <c r="P124" s="370">
+        <f t="shared" ref="P124:P125" si="57">H124*0.7</f>
+        <v>0.82039999999999991</v>
+      </c>
+      <c r="Q124" s="370">
+        <f t="shared" ref="Q124:Q125" si="58">I124*0.7</f>
+        <v>0.82039999999999991</v>
+      </c>
+      <c r="R124" s="371">
+        <f t="shared" ref="R124:R125" si="59">J124*0.7</f>
+        <v>0.82039999999999991</v>
       </c>
       <c r="S124" s="99">
         <v>20</v>
@@ -25512,37 +25549,37 @@
       <c r="F125" s="74" t="s">
         <v>803</v>
       </c>
-      <c r="G125" s="96">
-        <v>1.55</v>
-      </c>
-      <c r="H125" s="97">
-        <v>1.55</v>
-      </c>
-      <c r="I125" s="97">
-        <v>1.6</v>
-      </c>
-      <c r="J125" s="98">
-        <v>1.6</v>
+      <c r="G125" s="382">
+        <v>1</v>
+      </c>
+      <c r="H125" s="383">
+        <v>1</v>
+      </c>
+      <c r="I125" s="383">
+        <v>1.032</v>
+      </c>
+      <c r="J125" s="384">
+        <v>1.032</v>
       </c>
       <c r="K125" s="96"/>
       <c r="L125" s="97"/>
       <c r="M125" s="97"/>
       <c r="N125" s="98"/>
-      <c r="O125" s="96">
+      <c r="O125" s="382">
         <f>G125*0.7</f>
-        <v>1.085</v>
-      </c>
-      <c r="P125" s="97">
+        <v>0.7</v>
+      </c>
+      <c r="P125" s="383">
+        <f t="shared" si="57"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q125" s="383">
+        <f t="shared" si="58"/>
+        <v>0.72239999999999993</v>
+      </c>
+      <c r="R125" s="384">
         <f t="shared" si="59"/>
-        <v>1.085</v>
-      </c>
-      <c r="Q125" s="97">
-        <f t="shared" si="60"/>
-        <v>1.1199999999999999</v>
-      </c>
-      <c r="R125" s="98">
-        <f t="shared" si="61"/>
-        <v>1.1199999999999999</v>
+        <v>0.72239999999999993</v>
       </c>
       <c r="S125" s="102">
         <v>20</v>
@@ -25577,11 +25614,11 @@
       </c>
       <c r="AI125" s="307"/>
       <c r="AJ125" s="151" t="str">
-        <f t="shared" ref="AJ125:AK129" si="62">C132</f>
+        <f t="shared" ref="AJ125:AK129" si="60">C132</f>
         <v>R-WH_Det_RSDELC_N1</v>
       </c>
       <c r="AK125" s="151" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v xml:space="preserve">Residential Electric Water Heater </v>
       </c>
       <c r="AL125" s="152" t="s">
@@ -25631,11 +25668,11 @@
       <c r="AG126" s="81"/>
       <c r="AI126" s="4"/>
       <c r="AJ126" s="153" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v>R-WH_Det_RENSOL_N1</v>
       </c>
       <c r="AK126" s="153" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v xml:space="preserve">Residential Solar Water Heater </v>
       </c>
       <c r="AL126" s="154" t="s">
@@ -25663,37 +25700,37 @@
       <c r="F127" s="76" t="s">
         <v>803</v>
       </c>
-      <c r="G127" s="96">
-        <v>3.1</v>
-      </c>
-      <c r="H127" s="97">
-        <v>3.25</v>
-      </c>
-      <c r="I127" s="97">
-        <v>3.4</v>
-      </c>
-      <c r="J127" s="98">
-        <v>3.6</v>
+      <c r="G127" s="382">
+        <v>1</v>
+      </c>
+      <c r="H127" s="383">
+        <v>1.048</v>
+      </c>
+      <c r="I127" s="383">
+        <v>1.097</v>
+      </c>
+      <c r="J127" s="383">
+        <v>1.161</v>
       </c>
       <c r="K127" s="96"/>
       <c r="L127" s="97"/>
       <c r="M127" s="97"/>
       <c r="N127" s="98"/>
-      <c r="O127" s="96">
+      <c r="O127" s="382">
         <f>G127*0.7</f>
-        <v>2.17</v>
-      </c>
-      <c r="P127" s="97">
-        <f t="shared" ref="P127" si="63">H127*0.7</f>
-        <v>2.2749999999999999</v>
-      </c>
-      <c r="Q127" s="97">
-        <f t="shared" ref="Q127" si="64">I127*0.7</f>
-        <v>2.38</v>
-      </c>
-      <c r="R127" s="98">
-        <f t="shared" ref="R127" si="65">J127*0.7</f>
-        <v>2.52</v>
+        <v>0.7</v>
+      </c>
+      <c r="P127" s="383">
+        <f t="shared" ref="P127" si="61">H127*0.7</f>
+        <v>0.73360000000000003</v>
+      </c>
+      <c r="Q127" s="383">
+        <f t="shared" ref="Q127" si="62">I127*0.7</f>
+        <v>0.76789999999999992</v>
+      </c>
+      <c r="R127" s="384">
+        <f t="shared" ref="R127" si="63">J127*0.7</f>
+        <v>0.81269999999999998</v>
       </c>
       <c r="S127" s="5">
         <v>20</v>
@@ -25732,11 +25769,11 @@
       </c>
       <c r="AI127" s="4"/>
       <c r="AJ127" s="153" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v>R-WH_Det_GASNAT_N1</v>
       </c>
       <c r="AK127" s="153" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v xml:space="preserve">Residential Gas Water Heater </v>
       </c>
       <c r="AL127" s="154" t="s">
@@ -25786,11 +25823,11 @@
       <c r="AG128" s="81"/>
       <c r="AI128" s="4"/>
       <c r="AJ128" s="153" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v>R-WH_Det_BIOWOO_N1</v>
       </c>
       <c r="AK128" s="153" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v xml:space="preserve">Residential Biomass Water Heater </v>
       </c>
       <c r="AL128" s="154" t="s">
@@ -25818,33 +25855,33 @@
       <c r="F129" s="137" t="s">
         <v>803</v>
       </c>
-      <c r="G129" s="89">
-        <v>0.98</v>
-      </c>
-      <c r="H129" s="78">
-        <v>0.98</v>
-      </c>
-      <c r="I129" s="78">
-        <v>0.98</v>
-      </c>
-      <c r="J129" s="90">
-        <v>0.98</v>
-      </c>
-      <c r="K129" s="89"/>
-      <c r="L129" s="78"/>
-      <c r="M129" s="78"/>
-      <c r="N129" s="90"/>
-      <c r="O129" s="89">
-        <v>0.98</v>
-      </c>
-      <c r="P129" s="78">
-        <v>0.98</v>
-      </c>
-      <c r="Q129" s="78">
-        <v>0.98</v>
-      </c>
-      <c r="R129" s="90">
-        <v>0.98</v>
+      <c r="G129" s="369">
+        <v>1</v>
+      </c>
+      <c r="H129" s="370">
+        <v>1</v>
+      </c>
+      <c r="I129" s="370">
+        <v>1</v>
+      </c>
+      <c r="J129" s="371">
+        <v>1</v>
+      </c>
+      <c r="K129" s="93"/>
+      <c r="L129" s="94"/>
+      <c r="M129" s="94"/>
+      <c r="N129" s="95"/>
+      <c r="O129" s="369">
+        <v>1</v>
+      </c>
+      <c r="P129" s="370">
+        <v>1</v>
+      </c>
+      <c r="Q129" s="370">
+        <v>1</v>
+      </c>
+      <c r="R129" s="371">
+        <v>1</v>
       </c>
       <c r="S129" s="99">
         <v>20</v>
@@ -25879,11 +25916,11 @@
       </c>
       <c r="AI129" s="163"/>
       <c r="AJ129" s="156" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v>R-WH_Det_OILLPG_N1</v>
       </c>
       <c r="AK129" s="156" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v xml:space="preserve">Residential Liquid Petroleum Gas Water Heater </v>
       </c>
       <c r="AL129" s="157" t="s">
@@ -25911,33 +25948,33 @@
       <c r="F130" s="74" t="s">
         <v>803</v>
       </c>
-      <c r="G130" s="91">
-        <v>0.98</v>
-      </c>
-      <c r="H130" s="79">
-        <v>0.98</v>
-      </c>
-      <c r="I130" s="79">
-        <v>0.98</v>
-      </c>
-      <c r="J130" s="92">
-        <v>0.98</v>
-      </c>
-      <c r="K130" s="91"/>
-      <c r="L130" s="79"/>
-      <c r="M130" s="79"/>
-      <c r="N130" s="92"/>
-      <c r="O130" s="91">
-        <v>0.98</v>
-      </c>
-      <c r="P130" s="79">
-        <v>0.98</v>
-      </c>
-      <c r="Q130" s="79">
-        <v>0.98</v>
-      </c>
-      <c r="R130" s="92">
-        <v>0.98</v>
+      <c r="G130" s="382">
+        <v>1</v>
+      </c>
+      <c r="H130" s="383">
+        <v>1</v>
+      </c>
+      <c r="I130" s="383">
+        <v>1</v>
+      </c>
+      <c r="J130" s="384">
+        <v>1</v>
+      </c>
+      <c r="K130" s="96"/>
+      <c r="L130" s="97"/>
+      <c r="M130" s="97"/>
+      <c r="N130" s="98"/>
+      <c r="O130" s="382">
+        <v>1</v>
+      </c>
+      <c r="P130" s="383">
+        <v>1</v>
+      </c>
+      <c r="Q130" s="383">
+        <v>1</v>
+      </c>
+      <c r="R130" s="384">
+        <v>1</v>
       </c>
       <c r="S130" s="102">
         <v>20</v>
@@ -26039,24 +26076,24 @@
       <c r="F132" s="67" t="s">
         <v>444</v>
       </c>
-      <c r="G132" s="89"/>
-      <c r="H132" s="78"/>
-      <c r="I132" s="78"/>
-      <c r="J132" s="90"/>
-      <c r="K132" s="89"/>
-      <c r="L132" s="78"/>
-      <c r="M132" s="78"/>
-      <c r="N132" s="90"/>
-      <c r="O132" s="89">
+      <c r="G132" s="93"/>
+      <c r="H132" s="94"/>
+      <c r="I132" s="94"/>
+      <c r="J132" s="95"/>
+      <c r="K132" s="93"/>
+      <c r="L132" s="94"/>
+      <c r="M132" s="94"/>
+      <c r="N132" s="95"/>
+      <c r="O132" s="369">
         <v>1</v>
       </c>
-      <c r="P132" s="78">
+      <c r="P132" s="370">
         <v>1</v>
       </c>
-      <c r="Q132" s="78">
+      <c r="Q132" s="370">
         <v>1</v>
       </c>
-      <c r="R132" s="90">
+      <c r="R132" s="371">
         <v>1</v>
       </c>
       <c r="S132" s="99">
@@ -26113,16 +26150,16 @@
       <c r="L133" s="79"/>
       <c r="M133" s="79"/>
       <c r="N133" s="92"/>
-      <c r="O133" s="91">
+      <c r="O133" s="366">
         <v>1</v>
       </c>
-      <c r="P133" s="79">
+      <c r="P133" s="367">
         <v>1</v>
       </c>
-      <c r="Q133" s="79">
+      <c r="Q133" s="367">
         <v>1</v>
       </c>
-      <c r="R133" s="92">
+      <c r="R133" s="368">
         <v>1</v>
       </c>
       <c r="S133" s="100">
@@ -26181,17 +26218,17 @@
       <c r="L134" s="78"/>
       <c r="M134" s="78"/>
       <c r="N134" s="90"/>
-      <c r="O134" s="89">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="P134" s="78">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="Q134" s="78">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="R134" s="90">
-        <v>0.60759999999999992</v>
+      <c r="O134" s="363">
+        <v>0.7</v>
+      </c>
+      <c r="P134" s="364">
+        <v>0.7</v>
+      </c>
+      <c r="Q134" s="364">
+        <v>0.7</v>
+      </c>
+      <c r="R134" s="365">
+        <v>0.7</v>
       </c>
       <c r="S134" s="101">
         <v>20</v>
@@ -26247,17 +26284,17 @@
       <c r="L135" s="79"/>
       <c r="M135" s="79"/>
       <c r="N135" s="92"/>
-      <c r="O135" s="91">
-        <v>0.61949999999999994</v>
-      </c>
-      <c r="P135" s="79">
-        <v>0.61949999999999994</v>
-      </c>
-      <c r="Q135" s="79">
-        <v>0.61949999999999994</v>
-      </c>
-      <c r="R135" s="92">
-        <v>0.61949999999999994</v>
+      <c r="O135" s="366">
+        <v>0.7</v>
+      </c>
+      <c r="P135" s="367">
+        <v>0.7</v>
+      </c>
+      <c r="Q135" s="367">
+        <v>0.7</v>
+      </c>
+      <c r="R135" s="368">
+        <v>0.7</v>
       </c>
       <c r="S135" s="100">
         <v>20</v>
@@ -26305,25 +26342,25 @@
       <c r="F136" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="G136" s="89"/>
-      <c r="H136" s="78"/>
-      <c r="I136" s="78"/>
-      <c r="J136" s="90"/>
-      <c r="K136" s="89"/>
-      <c r="L136" s="78"/>
-      <c r="M136" s="78"/>
-      <c r="N136" s="90"/>
-      <c r="O136" s="89">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="P136" s="78">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="Q136" s="78">
-        <v>0.60759999999999992</v>
-      </c>
-      <c r="R136" s="90">
-        <v>0.60759999999999992</v>
+      <c r="G136" s="375"/>
+      <c r="H136" s="376"/>
+      <c r="I136" s="376"/>
+      <c r="J136" s="150"/>
+      <c r="K136" s="375"/>
+      <c r="L136" s="376"/>
+      <c r="M136" s="376"/>
+      <c r="N136" s="150"/>
+      <c r="O136" s="372">
+        <v>0.7</v>
+      </c>
+      <c r="P136" s="373">
+        <v>0.7</v>
+      </c>
+      <c r="Q136" s="373">
+        <v>0.7</v>
+      </c>
+      <c r="R136" s="374">
+        <v>0.7</v>
       </c>
       <c r="S136" s="149">
         <v>20</v>
@@ -26409,20 +26446,20 @@
       <c r="G138" s="164"/>
       <c r="H138" s="165"/>
       <c r="I138" s="165"/>
-      <c r="J138" s="148"/>
-      <c r="K138" s="164">
-        <v>3.2</v>
-      </c>
-      <c r="L138" s="165">
-        <v>3.7</v>
-      </c>
-      <c r="M138" s="165">
-        <v>4</v>
-      </c>
-      <c r="N138" s="148">
-        <v>4</v>
-      </c>
-      <c r="O138" s="164"/>
+      <c r="J138" s="165"/>
+      <c r="K138" s="387">
+        <v>1</v>
+      </c>
+      <c r="L138" s="388">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="M138" s="388">
+        <v>1.25</v>
+      </c>
+      <c r="N138" s="389">
+        <v>1.25</v>
+      </c>
+      <c r="O138" s="165"/>
       <c r="P138" s="165"/>
       <c r="Q138" s="165"/>
       <c r="R138" s="148"/>
@@ -26690,6 +26727,26 @@
     <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="G100:J100"/>
+    <mergeCell ref="K100:N100"/>
+    <mergeCell ref="O100:R100"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="U100:X100"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="K98:N98"/>
+    <mergeCell ref="O98:R98"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="U98:X98"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:X51"/>
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="U6:X6"/>
     <mergeCell ref="G4:J4"/>
@@ -26700,26 +26757,6 @@
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:X51"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="K98:N98"/>
-    <mergeCell ref="O98:R98"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="U98:X98"/>
-    <mergeCell ref="G100:J100"/>
-    <mergeCell ref="K100:N100"/>
-    <mergeCell ref="O100:R100"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="U100:X100"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRes_RSD.xlsx
+++ b/SubRES_TMPL/SubRes_RSD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D28D4E-FD08-497E-ADF8-E36C76EA9A88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0E2799-DC72-43A4-AD9B-FDD5349E5DA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -5511,6 +5511,36 @@
     <xf numFmtId="170" fontId="16" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="16" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="21" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="31" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5592,36 +5622,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="21" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="31" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="20% - Colore 2" xfId="11" xr:uid="{3E3DAF22-4D86-48A9-B6EE-8D230C1E993C}"/>
@@ -7222,14 +7222,14 @@
       <c r="F16" s="217"/>
     </row>
     <row r="17" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="337" t="s">
+      <c r="A17" s="367" t="s">
         <v>490</v>
       </c>
-      <c r="B17" s="337"/>
-      <c r="C17" s="337"/>
-      <c r="D17" s="337"/>
-      <c r="E17" s="337"/>
-      <c r="F17" s="337"/>
+      <c r="B17" s="367"/>
+      <c r="C17" s="367"/>
+      <c r="D17" s="367"/>
+      <c r="E17" s="367"/>
+      <c r="F17" s="367"/>
       <c r="G17" s="219"/>
       <c r="H17" s="219"/>
       <c r="I17" s="220"/>
@@ -7267,13 +7267,13 @@
       <c r="A20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="338" t="s">
+      <c r="B20" s="368" t="s">
         <v>492</v>
       </c>
-      <c r="C20" s="338"/>
-      <c r="D20" s="338"/>
-      <c r="E20" s="338"/>
-      <c r="F20" s="338"/>
+      <c r="C20" s="368"/>
+      <c r="D20" s="368"/>
+      <c r="E20" s="368"/>
+      <c r="F20" s="368"/>
       <c r="G20" s="224"/>
       <c r="H20" s="224"/>
       <c r="I20" s="225"/>
@@ -7287,13 +7287,13 @@
       <c r="A21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="339" t="s">
+      <c r="B21" s="369" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="339"/>
-      <c r="D21" s="339"/>
-      <c r="E21" s="339"/>
-      <c r="F21" s="339"/>
+      <c r="C21" s="369"/>
+      <c r="D21" s="369"/>
+      <c r="E21" s="369"/>
+      <c r="F21" s="369"/>
       <c r="G21" s="224"/>
       <c r="H21" s="224"/>
       <c r="I21" s="225"/>
@@ -7307,13 +7307,13 @@
       <c r="A22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="339" t="s">
+      <c r="B22" s="369" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="339"/>
-      <c r="D22" s="339"/>
-      <c r="E22" s="339"/>
-      <c r="F22" s="339"/>
+      <c r="C22" s="369"/>
+      <c r="D22" s="369"/>
+      <c r="E22" s="369"/>
+      <c r="F22" s="369"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
@@ -7342,22 +7342,22 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="340"/>
-      <c r="B25" s="340"/>
-      <c r="C25" s="340"/>
-      <c r="D25" s="340"/>
-      <c r="E25" s="340"/>
-      <c r="F25" s="340"/>
+      <c r="A25" s="370"/>
+      <c r="B25" s="370"/>
+      <c r="C25" s="370"/>
+      <c r="D25" s="370"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="370"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="336"/>
-      <c r="B26" s="336"/>
-      <c r="C26" s="336"/>
-      <c r="D26" s="336"/>
-      <c r="E26" s="336"/>
-      <c r="F26" s="336"/>
+      <c r="A26" s="366"/>
+      <c r="B26" s="366"/>
+      <c r="C26" s="366"/>
+      <c r="D26" s="366"/>
+      <c r="E26" s="366"/>
+      <c r="F26" s="366"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="217"/>
@@ -7544,16 +7544,16 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="341" t="s">
+      <c r="B2" s="371" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="342"/>
-      <c r="D2" s="342"/>
-      <c r="E2" s="343"/>
-      <c r="G2" s="341" t="s">
+      <c r="C2" s="372"/>
+      <c r="D2" s="372"/>
+      <c r="E2" s="373"/>
+      <c r="G2" s="371" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="343"/>
+      <c r="H2" s="373"/>
       <c r="I2" s="228"/>
       <c r="J2" s="228"/>
       <c r="K2" s="229"/>
@@ -7895,16 +7895,16 @@
     </row>
     <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="344" t="s">
+      <c r="B20" s="374" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="345"/>
-      <c r="D20" s="345"/>
-      <c r="E20" s="346"/>
-      <c r="G20" s="341" t="s">
+      <c r="C20" s="375"/>
+      <c r="D20" s="375"/>
+      <c r="E20" s="376"/>
+      <c r="G20" s="371" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="343"/>
+      <c r="H20" s="373"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="256" t="s">
@@ -8148,16 +8148,16 @@
     </row>
     <row r="37" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="341" t="s">
+      <c r="B38" s="371" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="342"/>
-      <c r="D38" s="342"/>
-      <c r="E38" s="343"/>
-      <c r="G38" s="347" t="s">
+      <c r="C38" s="372"/>
+      <c r="D38" s="372"/>
+      <c r="E38" s="373"/>
+      <c r="G38" s="377" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="348"/>
+      <c r="H38" s="378"/>
     </row>
     <row r="39" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="277" t="s">
@@ -8334,13 +8334,13 @@
       <c r="Q3" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="W3" s="349" t="s">
+      <c r="W3" s="379" t="s">
         <v>755</v>
       </c>
-      <c r="X3" s="349"/>
-      <c r="Y3" s="349"/>
-      <c r="Z3" s="349"/>
-      <c r="AA3" s="349"/>
+      <c r="X3" s="379"/>
+      <c r="Y3" s="379"/>
+      <c r="Z3" s="379"/>
+      <c r="AA3" s="379"/>
     </row>
     <row r="4" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="63" t="s">
@@ -8358,12 +8358,12 @@
       <c r="G4" s="178" t="s">
         <v>339</v>
       </c>
-      <c r="H4" s="353" t="s">
+      <c r="H4" s="383" t="s">
         <v>340</v>
       </c>
-      <c r="I4" s="354"/>
-      <c r="J4" s="354"/>
-      <c r="K4" s="355"/>
+      <c r="I4" s="384"/>
+      <c r="J4" s="384"/>
+      <c r="K4" s="385"/>
       <c r="L4" s="107"/>
       <c r="M4" s="107"/>
       <c r="N4" s="107"/>
@@ -8396,12 +8396,12 @@
       <c r="G5" s="84" t="s">
         <v>313</v>
       </c>
-      <c r="H5" s="356" t="s">
+      <c r="H5" s="386" t="s">
         <v>733</v>
       </c>
-      <c r="I5" s="357"/>
-      <c r="J5" s="357"/>
-      <c r="K5" s="358"/>
+      <c r="I5" s="387"/>
+      <c r="J5" s="387"/>
+      <c r="K5" s="388"/>
       <c r="L5" s="108" t="s">
         <v>488</v>
       </c>
@@ -8632,12 +8632,12 @@
       <c r="G11" s="84" t="s">
         <v>313</v>
       </c>
-      <c r="H11" s="350" t="s">
+      <c r="H11" s="380" t="s">
         <v>733</v>
       </c>
-      <c r="I11" s="351"/>
-      <c r="J11" s="351"/>
-      <c r="K11" s="352"/>
+      <c r="I11" s="381"/>
+      <c r="J11" s="381"/>
+      <c r="K11" s="382"/>
       <c r="L11" s="202"/>
       <c r="M11" s="202"/>
       <c r="N11" s="108" t="s">
@@ -8843,12 +8843,12 @@
       <c r="G17" s="84" t="s">
         <v>313</v>
       </c>
-      <c r="H17" s="350" t="s">
+      <c r="H17" s="380" t="s">
         <v>733</v>
       </c>
-      <c r="I17" s="351"/>
-      <c r="J17" s="351"/>
-      <c r="K17" s="352"/>
+      <c r="I17" s="381"/>
+      <c r="J17" s="381"/>
+      <c r="K17" s="382"/>
       <c r="L17" s="202"/>
       <c r="M17" s="202"/>
       <c r="N17" s="108" t="s">
@@ -16174,7 +16174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F8057-C735-4662-BAA6-EEDCF7B57273}">
   <dimension ref="A2:AO170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N108" sqref="N108"/>
     </sheetView>
   </sheetViews>
@@ -16324,34 +16324,34 @@
       <c r="F4" s="63" t="s">
         <v>335</v>
       </c>
-      <c r="G4" s="359" t="s">
+      <c r="G4" s="389" t="s">
         <v>806</v>
       </c>
-      <c r="H4" s="360"/>
-      <c r="I4" s="360"/>
-      <c r="J4" s="361"/>
-      <c r="K4" s="359" t="s">
+      <c r="H4" s="390"/>
+      <c r="I4" s="390"/>
+      <c r="J4" s="391"/>
+      <c r="K4" s="389" t="s">
         <v>337</v>
       </c>
-      <c r="L4" s="360"/>
-      <c r="M4" s="360"/>
-      <c r="N4" s="361"/>
-      <c r="O4" s="359" t="s">
+      <c r="L4" s="390"/>
+      <c r="M4" s="390"/>
+      <c r="N4" s="391"/>
+      <c r="O4" s="389" t="s">
         <v>338</v>
       </c>
-      <c r="P4" s="360"/>
-      <c r="Q4" s="360"/>
-      <c r="R4" s="361"/>
-      <c r="S4" s="359" t="s">
+      <c r="P4" s="390"/>
+      <c r="Q4" s="390"/>
+      <c r="R4" s="391"/>
+      <c r="S4" s="389" t="s">
         <v>339</v>
       </c>
-      <c r="T4" s="361"/>
-      <c r="U4" s="353" t="s">
+      <c r="T4" s="391"/>
+      <c r="U4" s="383" t="s">
         <v>340</v>
       </c>
-      <c r="V4" s="354"/>
-      <c r="W4" s="354"/>
-      <c r="X4" s="355"/>
+      <c r="V4" s="384"/>
+      <c r="W4" s="384"/>
+      <c r="X4" s="385"/>
       <c r="Y4" s="107"/>
       <c r="Z4" s="107"/>
       <c r="AA4" s="115" t="s">
@@ -16446,34 +16446,34 @@
       <c r="D6" s="85"/>
       <c r="E6" s="85"/>
       <c r="F6" s="86"/>
-      <c r="G6" s="356" t="s">
+      <c r="G6" s="386" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="357"/>
-      <c r="I6" s="357"/>
-      <c r="J6" s="358"/>
-      <c r="K6" s="357" t="s">
+      <c r="H6" s="387"/>
+      <c r="I6" s="387"/>
+      <c r="J6" s="388"/>
+      <c r="K6" s="387" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="357"/>
-      <c r="M6" s="357"/>
-      <c r="N6" s="358"/>
-      <c r="O6" s="356" t="s">
+      <c r="L6" s="387"/>
+      <c r="M6" s="387"/>
+      <c r="N6" s="388"/>
+      <c r="O6" s="386" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="357"/>
-      <c r="Q6" s="357"/>
-      <c r="R6" s="358"/>
-      <c r="S6" s="356" t="s">
+      <c r="P6" s="387"/>
+      <c r="Q6" s="387"/>
+      <c r="R6" s="388"/>
+      <c r="S6" s="386" t="s">
         <v>313</v>
       </c>
-      <c r="T6" s="358"/>
-      <c r="U6" s="356" t="s">
+      <c r="T6" s="388"/>
+      <c r="U6" s="386" t="s">
         <v>346</v>
       </c>
-      <c r="V6" s="357"/>
-      <c r="W6" s="357"/>
-      <c r="X6" s="358"/>
+      <c r="V6" s="387"/>
+      <c r="W6" s="387"/>
+      <c r="X6" s="388"/>
       <c r="Y6" s="108" t="s">
         <v>347</v>
       </c>
@@ -16535,26 +16535,26 @@
       <c r="F7" s="103" t="s">
         <v>410</v>
       </c>
-      <c r="G7" s="369">
+      <c r="G7" s="342">
         <v>1</v>
       </c>
-      <c r="H7" s="370">
+      <c r="H7" s="343">
         <v>1</v>
       </c>
-      <c r="I7" s="370">
+      <c r="I7" s="343">
         <v>1</v>
       </c>
-      <c r="J7" s="371">
+      <c r="J7" s="344">
         <v>1</v>
       </c>
       <c r="K7" s="93"/>
       <c r="L7" s="94"/>
       <c r="M7" s="94"/>
       <c r="N7" s="95"/>
-      <c r="O7" s="369"/>
-      <c r="P7" s="370"/>
-      <c r="Q7" s="370"/>
-      <c r="R7" s="371"/>
+      <c r="O7" s="342"/>
+      <c r="P7" s="343"/>
+      <c r="Q7" s="343"/>
+      <c r="R7" s="344"/>
       <c r="S7" s="99">
         <v>20</v>
       </c>
@@ -16575,10 +16575,10 @@
         <v>1.3043478260869565</v>
       </c>
       <c r="Z7" s="136"/>
-      <c r="AA7" s="391"/>
-      <c r="AB7" s="391"/>
-      <c r="AC7" s="391"/>
-      <c r="AD7" s="391"/>
+      <c r="AA7" s="364"/>
+      <c r="AB7" s="364"/>
+      <c r="AC7" s="364"/>
+      <c r="AD7" s="364"/>
       <c r="AE7" s="133">
         <v>31.54</v>
       </c>
@@ -16622,35 +16622,35 @@
       <c r="F8" s="104" t="s">
         <v>799</v>
       </c>
-      <c r="G8" s="366">
+      <c r="G8" s="339">
         <v>1</v>
       </c>
-      <c r="H8" s="367">
+      <c r="H8" s="340">
         <v>1</v>
       </c>
-      <c r="I8" s="367">
+      <c r="I8" s="340">
         <v>1</v>
       </c>
-      <c r="J8" s="368">
+      <c r="J8" s="341">
         <v>1</v>
       </c>
       <c r="K8" s="91"/>
       <c r="L8" s="79"/>
       <c r="M8" s="79"/>
       <c r="N8" s="92"/>
-      <c r="O8" s="366">
+      <c r="O8" s="339">
         <f>G8*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P8" s="367">
+      <c r="P8" s="340">
         <f t="shared" ref="P8:P9" si="0">H8*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="Q8" s="367">
+      <c r="Q8" s="340">
         <f t="shared" ref="Q8:Q9" si="1">I8*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="R8" s="368">
+      <c r="R8" s="341">
         <f t="shared" ref="R8:R9" si="2">J8*0.7</f>
         <v>0.7</v>
       </c>
@@ -16719,35 +16719,35 @@
       <c r="F9" s="105" t="s">
         <v>799</v>
       </c>
-      <c r="G9" s="363">
+      <c r="G9" s="336">
         <v>1</v>
       </c>
-      <c r="H9" s="364">
+      <c r="H9" s="337">
         <v>1</v>
       </c>
-      <c r="I9" s="364">
+      <c r="I9" s="337">
         <v>1</v>
       </c>
-      <c r="J9" s="365">
+      <c r="J9" s="338">
         <v>1</v>
       </c>
       <c r="K9" s="89"/>
       <c r="L9" s="78"/>
       <c r="M9" s="78"/>
       <c r="N9" s="90"/>
-      <c r="O9" s="363">
+      <c r="O9" s="336">
         <f>G9*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P9" s="364">
+      <c r="P9" s="337">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="Q9" s="364">
+      <c r="Q9" s="337">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="R9" s="365">
+      <c r="R9" s="338">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
@@ -16820,35 +16820,35 @@
       <c r="F10" s="104" t="s">
         <v>799</v>
       </c>
-      <c r="G10" s="366">
+      <c r="G10" s="339">
         <v>1</v>
       </c>
-      <c r="H10" s="367">
+      <c r="H10" s="340">
         <v>1.0249999999999999</v>
       </c>
-      <c r="I10" s="367">
+      <c r="I10" s="340">
         <v>1.0249999999999999</v>
       </c>
-      <c r="J10" s="368">
+      <c r="J10" s="341">
         <v>1.0249999999999999</v>
       </c>
       <c r="K10" s="91"/>
       <c r="L10" s="79"/>
       <c r="M10" s="79"/>
       <c r="N10" s="92"/>
-      <c r="O10" s="366">
+      <c r="O10" s="339">
         <f>G10*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P10" s="367">
+      <c r="P10" s="340">
         <f t="shared" ref="P10:R10" si="5">H10*0.7</f>
         <v>0.71749999999999992</v>
       </c>
-      <c r="Q10" s="367">
+      <c r="Q10" s="340">
         <f t="shared" si="5"/>
         <v>0.71749999999999992</v>
       </c>
-      <c r="R10" s="368">
+      <c r="R10" s="341">
         <f t="shared" si="5"/>
         <v>0.71749999999999992</v>
       </c>
@@ -16919,26 +16919,26 @@
       <c r="F11" s="105" t="s">
         <v>410</v>
       </c>
-      <c r="G11" s="363">
+      <c r="G11" s="336">
         <v>1</v>
       </c>
-      <c r="H11" s="364">
+      <c r="H11" s="337">
         <v>1</v>
       </c>
-      <c r="I11" s="364">
+      <c r="I11" s="337">
         <v>1</v>
       </c>
-      <c r="J11" s="365">
+      <c r="J11" s="338">
         <v>1</v>
       </c>
       <c r="K11" s="89"/>
       <c r="L11" s="78"/>
       <c r="M11" s="78"/>
       <c r="N11" s="90"/>
-      <c r="O11" s="363"/>
-      <c r="P11" s="364"/>
-      <c r="Q11" s="364"/>
-      <c r="R11" s="365"/>
+      <c r="O11" s="336"/>
+      <c r="P11" s="337"/>
+      <c r="Q11" s="337"/>
+      <c r="R11" s="338"/>
       <c r="S11" s="101">
         <v>20</v>
       </c>
@@ -17004,35 +17004,35 @@
       <c r="F12" s="104" t="s">
         <v>799</v>
       </c>
-      <c r="G12" s="366">
+      <c r="G12" s="339">
         <v>1</v>
       </c>
-      <c r="H12" s="367">
+      <c r="H12" s="340">
         <v>1</v>
       </c>
-      <c r="I12" s="367">
+      <c r="I12" s="340">
         <v>1</v>
       </c>
-      <c r="J12" s="368">
+      <c r="J12" s="341">
         <v>1</v>
       </c>
       <c r="K12" s="91"/>
       <c r="L12" s="79"/>
       <c r="M12" s="79"/>
       <c r="N12" s="92"/>
-      <c r="O12" s="366">
+      <c r="O12" s="339">
         <f>G12*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P12" s="367">
+      <c r="P12" s="340">
         <f t="shared" ref="P12:P13" si="6">H12*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="Q12" s="367">
+      <c r="Q12" s="340">
         <f t="shared" ref="Q12:Q13" si="7">I12*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="R12" s="368">
+      <c r="R12" s="341">
         <f t="shared" ref="R12:R13" si="8">J12*0.7</f>
         <v>0.7</v>
       </c>
@@ -17101,35 +17101,35 @@
       <c r="F13" s="105" t="s">
         <v>799</v>
       </c>
-      <c r="G13" s="363">
+      <c r="G13" s="336">
         <v>1</v>
       </c>
-      <c r="H13" s="364">
+      <c r="H13" s="337">
         <v>1</v>
       </c>
-      <c r="I13" s="364">
+      <c r="I13" s="337">
         <v>1</v>
       </c>
-      <c r="J13" s="365">
+      <c r="J13" s="338">
         <v>1</v>
       </c>
       <c r="K13" s="89"/>
       <c r="L13" s="78"/>
       <c r="M13" s="78"/>
       <c r="N13" s="90"/>
-      <c r="O13" s="363">
+      <c r="O13" s="336">
         <f>G13*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P13" s="364">
+      <c r="P13" s="337">
         <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
-      <c r="Q13" s="364">
+      <c r="Q13" s="337">
         <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
-      <c r="R13" s="365">
+      <c r="R13" s="338">
         <f t="shared" si="8"/>
         <v>0.7</v>
       </c>
@@ -17202,35 +17202,35 @@
       <c r="F14" s="104" t="s">
         <v>799</v>
       </c>
-      <c r="G14" s="366">
+      <c r="G14" s="339">
         <v>1</v>
       </c>
-      <c r="H14" s="367">
+      <c r="H14" s="340">
         <v>1.0249999999999999</v>
       </c>
-      <c r="I14" s="367">
+      <c r="I14" s="340">
         <v>1.0249999999999999</v>
       </c>
-      <c r="J14" s="368">
+      <c r="J14" s="341">
         <v>1.0249999999999999</v>
       </c>
       <c r="K14" s="91"/>
       <c r="L14" s="79"/>
       <c r="M14" s="79"/>
       <c r="N14" s="92"/>
-      <c r="O14" s="366">
+      <c r="O14" s="339">
         <f>G14*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P14" s="367">
+      <c r="P14" s="340">
         <f t="shared" ref="P14:R14" si="9">H14*0.7</f>
         <v>0.71749999999999992</v>
       </c>
-      <c r="Q14" s="367">
+      <c r="Q14" s="340">
         <f t="shared" si="9"/>
         <v>0.71749999999999992</v>
       </c>
-      <c r="R14" s="368">
+      <c r="R14" s="341">
         <f t="shared" si="9"/>
         <v>0.71749999999999992</v>
       </c>
@@ -17303,26 +17303,26 @@
       <c r="F15" s="105" t="s">
         <v>410</v>
       </c>
-      <c r="G15" s="363">
+      <c r="G15" s="336">
         <v>1</v>
       </c>
-      <c r="H15" s="364">
+      <c r="H15" s="337">
         <v>1</v>
       </c>
-      <c r="I15" s="364">
+      <c r="I15" s="337">
         <v>1</v>
       </c>
-      <c r="J15" s="365">
+      <c r="J15" s="338">
         <v>1</v>
       </c>
       <c r="K15" s="89"/>
       <c r="L15" s="78"/>
       <c r="M15" s="78"/>
       <c r="N15" s="90"/>
-      <c r="O15" s="363"/>
-      <c r="P15" s="364"/>
-      <c r="Q15" s="364"/>
-      <c r="R15" s="365"/>
+      <c r="O15" s="336"/>
+      <c r="P15" s="337"/>
+      <c r="Q15" s="337"/>
+      <c r="R15" s="338"/>
       <c r="S15" s="101">
         <v>20</v>
       </c>
@@ -17388,35 +17388,35 @@
       <c r="F16" s="104" t="s">
         <v>799</v>
       </c>
-      <c r="G16" s="366">
+      <c r="G16" s="339">
         <v>1</v>
       </c>
-      <c r="H16" s="367">
+      <c r="H16" s="340">
         <v>1</v>
       </c>
-      <c r="I16" s="367">
+      <c r="I16" s="340">
         <v>1</v>
       </c>
-      <c r="J16" s="368">
+      <c r="J16" s="341">
         <v>1</v>
       </c>
       <c r="K16" s="91"/>
       <c r="L16" s="79"/>
       <c r="M16" s="79"/>
       <c r="N16" s="92"/>
-      <c r="O16" s="366">
+      <c r="O16" s="339">
         <f>G16*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P16" s="367">
+      <c r="P16" s="340">
         <f t="shared" ref="P16:R16" si="10">H16*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="Q16" s="367">
+      <c r="Q16" s="340">
         <f t="shared" si="10"/>
         <v>0.7</v>
       </c>
-      <c r="R16" s="368">
+      <c r="R16" s="341">
         <f t="shared" si="10"/>
         <v>0.7</v>
       </c>
@@ -17485,26 +17485,26 @@
       <c r="F17" s="105" t="s">
         <v>410</v>
       </c>
-      <c r="G17" s="363">
+      <c r="G17" s="336">
         <v>1</v>
       </c>
-      <c r="H17" s="364">
+      <c r="H17" s="337">
         <v>1</v>
       </c>
-      <c r="I17" s="364">
+      <c r="I17" s="337">
         <v>1</v>
       </c>
-      <c r="J17" s="365">
+      <c r="J17" s="338">
         <v>1</v>
       </c>
       <c r="K17" s="89"/>
       <c r="L17" s="78"/>
       <c r="M17" s="78"/>
       <c r="N17" s="90"/>
-      <c r="O17" s="363"/>
-      <c r="P17" s="364"/>
-      <c r="Q17" s="364"/>
-      <c r="R17" s="365"/>
+      <c r="O17" s="336"/>
+      <c r="P17" s="337"/>
+      <c r="Q17" s="337"/>
+      <c r="R17" s="338"/>
       <c r="S17" s="101">
         <v>20</v>
       </c>
@@ -17570,36 +17570,36 @@
       <c r="F18" s="104" t="s">
         <v>799</v>
       </c>
-      <c r="G18" s="366">
+      <c r="G18" s="339">
         <v>1</v>
       </c>
-      <c r="H18" s="367">
+      <c r="H18" s="340">
         <v>1</v>
       </c>
-      <c r="I18" s="367">
+      <c r="I18" s="340">
         <v>1</v>
       </c>
-      <c r="J18" s="368">
+      <c r="J18" s="341">
         <v>1</v>
       </c>
       <c r="K18" s="91"/>
       <c r="L18" s="79"/>
       <c r="M18" s="79"/>
       <c r="N18" s="92"/>
-      <c r="O18" s="366">
-        <f>G18*0.7</f>
+      <c r="O18" s="339">
+        <f t="shared" ref="O18:R19" si="11">G18*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P18" s="367">
-        <f>H18*0.7</f>
+      <c r="P18" s="340">
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
-      <c r="Q18" s="367">
-        <f>I18*0.7</f>
+      <c r="Q18" s="340">
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
-      <c r="R18" s="368">
-        <f>J18*0.7</f>
+      <c r="R18" s="341">
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="S18" s="100">
@@ -17657,43 +17657,43 @@
       <c r="C19" s="335" t="s">
         <v>773</v>
       </c>
-      <c r="D19" s="377" t="s">
+      <c r="D19" s="350" t="s">
         <v>774</v>
       </c>
       <c r="E19" s="170" t="s">
         <v>775</v>
       </c>
       <c r="F19" s="143"/>
-      <c r="G19" s="372">
+      <c r="G19" s="345">
         <v>1</v>
       </c>
-      <c r="H19" s="373">
+      <c r="H19" s="346">
         <v>1</v>
       </c>
-      <c r="I19" s="373">
+      <c r="I19" s="346">
         <v>1</v>
       </c>
-      <c r="J19" s="374">
+      <c r="J19" s="347">
         <v>1</v>
       </c>
-      <c r="K19" s="375"/>
-      <c r="L19" s="376"/>
-      <c r="M19" s="376"/>
+      <c r="K19" s="348"/>
+      <c r="L19" s="349"/>
+      <c r="M19" s="349"/>
       <c r="N19" s="150"/>
-      <c r="O19" s="372">
-        <f>G19*0.7</f>
+      <c r="O19" s="345">
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
-      <c r="P19" s="373">
-        <f>H19*0.7</f>
+      <c r="P19" s="346">
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
-      <c r="Q19" s="373">
-        <f>I19*0.7</f>
+      <c r="Q19" s="346">
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
-      <c r="R19" s="374">
-        <f>J19*0.7</f>
+      <c r="R19" s="347">
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="S19" s="149">
@@ -17715,14 +17715,14 @@
       <c r="Y19" s="134">
         <v>1.3043478260869565</v>
       </c>
-      <c r="Z19" s="390"/>
-      <c r="AA19" s="390"/>
-      <c r="AB19" s="390"/>
-      <c r="AC19" s="390"/>
-      <c r="AD19" s="390"/>
-      <c r="AE19" s="390"/>
-      <c r="AF19" s="390"/>
-      <c r="AG19" s="390"/>
+      <c r="Z19" s="363"/>
+      <c r="AA19" s="363"/>
+      <c r="AB19" s="363"/>
+      <c r="AC19" s="363"/>
+      <c r="AD19" s="363"/>
+      <c r="AE19" s="363"/>
+      <c r="AF19" s="363"/>
+      <c r="AG19" s="363"/>
       <c r="AI19" s="158"/>
       <c r="AJ19" s="159" t="str">
         <f>C21</f>
@@ -17779,11 +17779,11 @@
       <c r="AG20" s="81"/>
       <c r="AI20" s="152"/>
       <c r="AJ20" s="151" t="str">
-        <f t="shared" ref="AJ20:AK26" si="11">C23</f>
+        <f t="shared" ref="AJ20:AK26" si="12">C23</f>
         <v>R-SH_Apt_RSDELC_HPN1</v>
       </c>
       <c r="AK20" s="151" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AL20" s="152" t="s">
@@ -17811,16 +17811,16 @@
       <c r="F21" s="129" t="s">
         <v>410</v>
       </c>
-      <c r="G21" s="378">
+      <c r="G21" s="351">
         <v>1</v>
       </c>
-      <c r="H21" s="379">
+      <c r="H21" s="352">
         <v>1</v>
       </c>
-      <c r="I21" s="379">
+      <c r="I21" s="352">
         <v>1</v>
       </c>
-      <c r="J21" s="380">
+      <c r="J21" s="353">
         <v>1</v>
       </c>
       <c r="K21" s="122"/>
@@ -17864,11 +17864,11 @@
       </c>
       <c r="AI21" s="154"/>
       <c r="AJ21" s="153" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>R-HC_Apt_RSDELC_HPN1</v>
       </c>
       <c r="AK21" s="153" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AL21" s="154" t="s">
@@ -17918,11 +17918,11 @@
       <c r="AG22" s="81"/>
       <c r="AI22" s="154"/>
       <c r="AJ22" s="153" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>R-SH_Apt_RSDELC_HPN2</v>
       </c>
       <c r="AK22" s="153" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AL22" s="154" t="s">
@@ -17950,22 +17950,22 @@
       <c r="F23" s="103" t="s">
         <v>410</v>
       </c>
-      <c r="G23" s="369">
+      <c r="G23" s="342">
         <v>1</v>
       </c>
-      <c r="H23" s="370">
+      <c r="H23" s="343">
         <v>1.1559999999999999</v>
       </c>
-      <c r="I23" s="370">
+      <c r="I23" s="343">
         <v>1.25</v>
       </c>
-      <c r="J23" s="371">
+      <c r="J23" s="344">
         <v>1.25</v>
       </c>
-      <c r="K23" s="369"/>
-      <c r="L23" s="370"/>
-      <c r="M23" s="370"/>
-      <c r="N23" s="371"/>
+      <c r="K23" s="342"/>
+      <c r="L23" s="343"/>
+      <c r="M23" s="343"/>
+      <c r="N23" s="344"/>
       <c r="O23" s="93"/>
       <c r="P23" s="94"/>
       <c r="Q23" s="94"/>
@@ -18003,11 +18003,11 @@
       </c>
       <c r="AI23" s="154"/>
       <c r="AJ23" s="153" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>R-H_Apt_RSDELC_HPN1</v>
       </c>
       <c r="AK23" s="153" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AL23" s="154" t="s">
@@ -18035,28 +18035,28 @@
       <c r="F24" s="104" t="s">
         <v>800</v>
       </c>
-      <c r="G24" s="366">
+      <c r="G24" s="339">
         <v>1</v>
       </c>
-      <c r="H24" s="367">
+      <c r="H24" s="340">
         <v>1.1559999999999999</v>
       </c>
-      <c r="I24" s="367">
+      <c r="I24" s="340">
         <v>1.25</v>
       </c>
-      <c r="J24" s="368">
+      <c r="J24" s="341">
         <v>1.25</v>
       </c>
-      <c r="K24" s="366">
+      <c r="K24" s="339">
         <v>1</v>
       </c>
-      <c r="L24" s="367">
+      <c r="L24" s="340">
         <v>1.1559999999999999</v>
       </c>
-      <c r="M24" s="367">
+      <c r="M24" s="340">
         <v>1.25</v>
       </c>
-      <c r="N24" s="368">
+      <c r="N24" s="341">
         <v>1.25</v>
       </c>
       <c r="O24" s="91"/>
@@ -18096,11 +18096,11 @@
       </c>
       <c r="AI24" s="304"/>
       <c r="AJ24" s="153" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>R-H_Apt_RENSOL_HPN2</v>
       </c>
       <c r="AK24" s="153" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
       <c r="AL24" s="154" t="s">
@@ -18128,22 +18128,22 @@
       <c r="F25" s="105" t="s">
         <v>410</v>
       </c>
-      <c r="G25" s="363">
+      <c r="G25" s="336">
         <v>1</v>
       </c>
-      <c r="H25" s="364">
+      <c r="H25" s="337">
         <v>1.1200000000000001</v>
       </c>
-      <c r="I25" s="364">
+      <c r="I25" s="337">
         <v>1.21</v>
       </c>
-      <c r="J25" s="365">
+      <c r="J25" s="338">
         <v>1.21</v>
       </c>
-      <c r="K25" s="363"/>
-      <c r="L25" s="364"/>
-      <c r="M25" s="364"/>
-      <c r="N25" s="365"/>
+      <c r="K25" s="336"/>
+      <c r="L25" s="337"/>
+      <c r="M25" s="337"/>
+      <c r="N25" s="338"/>
       <c r="O25" s="89"/>
       <c r="P25" s="78"/>
       <c r="Q25" s="78"/>
@@ -18181,11 +18181,11 @@
       </c>
       <c r="AI25" s="304"/>
       <c r="AJ25" s="153" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>R-SH_Apt_RSDELC_HPN3</v>
       </c>
       <c r="AK25" s="153" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AL25" s="154" t="s">
@@ -18213,36 +18213,36 @@
       <c r="F26" s="104" t="s">
         <v>799</v>
       </c>
-      <c r="G26" s="366">
+      <c r="G26" s="339">
         <v>1</v>
       </c>
-      <c r="H26" s="367">
+      <c r="H26" s="340">
         <v>1.1200000000000001</v>
       </c>
-      <c r="I26" s="367">
+      <c r="I26" s="340">
         <v>1.21</v>
       </c>
-      <c r="J26" s="368">
+      <c r="J26" s="341">
         <v>1.21</v>
       </c>
-      <c r="K26" s="366"/>
-      <c r="L26" s="367"/>
-      <c r="M26" s="367"/>
-      <c r="N26" s="368"/>
-      <c r="O26" s="366">
+      <c r="K26" s="339"/>
+      <c r="L26" s="340"/>
+      <c r="M26" s="340"/>
+      <c r="N26" s="341"/>
+      <c r="O26" s="339">
         <f>G26*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P26" s="367">
-        <f t="shared" ref="P26:R27" si="12">H26*0.7</f>
+      <c r="P26" s="340">
+        <f t="shared" ref="P26:R27" si="13">H26*0.7</f>
         <v>0.78400000000000003</v>
       </c>
-      <c r="Q26" s="367">
-        <f t="shared" si="12"/>
+      <c r="Q26" s="340">
+        <f t="shared" si="13"/>
         <v>0.84699999999999998</v>
       </c>
-      <c r="R26" s="368">
-        <f t="shared" si="12"/>
+      <c r="R26" s="341">
+        <f t="shared" si="13"/>
         <v>0.84699999999999998</v>
       </c>
       <c r="S26" s="100">
@@ -18278,11 +18278,11 @@
       </c>
       <c r="AI26" s="160"/>
       <c r="AJ26" s="156" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>R-HC_Apt_RSDELC_HPN2</v>
       </c>
       <c r="AK26" s="156" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AL26" s="157" t="s">
@@ -18310,36 +18310,36 @@
       <c r="F27" s="105" t="s">
         <v>799</v>
       </c>
-      <c r="G27" s="363">
+      <c r="G27" s="336">
         <v>1</v>
       </c>
-      <c r="H27" s="364">
+      <c r="H27" s="337">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I27" s="364">
+      <c r="I27" s="337">
         <v>1.19</v>
       </c>
-      <c r="J27" s="365">
+      <c r="J27" s="338">
         <v>1.19</v>
       </c>
-      <c r="K27" s="363"/>
-      <c r="L27" s="364"/>
-      <c r="M27" s="364"/>
-      <c r="N27" s="365"/>
-      <c r="O27" s="363">
+      <c r="K27" s="336"/>
+      <c r="L27" s="337"/>
+      <c r="M27" s="337"/>
+      <c r="N27" s="338"/>
+      <c r="O27" s="336">
         <f>G27*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P27" s="364">
-        <f t="shared" si="12"/>
+      <c r="P27" s="337">
+        <f t="shared" si="13"/>
         <v>0.77700000000000002</v>
       </c>
-      <c r="Q27" s="364">
-        <f t="shared" si="12"/>
+      <c r="Q27" s="337">
+        <f t="shared" si="13"/>
         <v>0.83299999999999996</v>
       </c>
-      <c r="R27" s="365">
-        <f t="shared" si="12"/>
+      <c r="R27" s="338">
+        <f t="shared" si="13"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S27" s="101">
@@ -18411,22 +18411,22 @@
       <c r="F28" s="104" t="s">
         <v>410</v>
       </c>
-      <c r="G28" s="366">
+      <c r="G28" s="339">
         <v>1</v>
       </c>
-      <c r="H28" s="367">
+      <c r="H28" s="340">
         <v>1</v>
       </c>
-      <c r="I28" s="367">
+      <c r="I28" s="340">
         <v>1</v>
       </c>
-      <c r="J28" s="368">
+      <c r="J28" s="341">
         <v>1</v>
       </c>
-      <c r="K28" s="366"/>
-      <c r="L28" s="367"/>
-      <c r="M28" s="367"/>
-      <c r="N28" s="368"/>
+      <c r="K28" s="339"/>
+      <c r="L28" s="340"/>
+      <c r="M28" s="340"/>
+      <c r="N28" s="341"/>
       <c r="O28" s="91"/>
       <c r="P28" s="79"/>
       <c r="Q28" s="79"/>
@@ -18496,33 +18496,33 @@
       <c r="F29" s="143" t="s">
         <v>800</v>
       </c>
-      <c r="G29" s="372">
+      <c r="G29" s="345">
         <v>1</v>
       </c>
-      <c r="H29" s="373">
+      <c r="H29" s="346">
         <v>1</v>
       </c>
-      <c r="I29" s="373">
+      <c r="I29" s="346">
         <v>1</v>
       </c>
-      <c r="J29" s="374">
+      <c r="J29" s="347">
         <v>1</v>
       </c>
-      <c r="K29" s="372">
+      <c r="K29" s="345">
         <v>1</v>
       </c>
-      <c r="L29" s="373">
+      <c r="L29" s="346">
         <v>1</v>
       </c>
-      <c r="M29" s="373">
+      <c r="M29" s="346">
         <v>1</v>
       </c>
-      <c r="N29" s="374">
+      <c r="N29" s="347">
         <v>1</v>
       </c>
-      <c r="O29" s="375"/>
-      <c r="P29" s="376"/>
-      <c r="Q29" s="376"/>
+      <c r="O29" s="348"/>
+      <c r="P29" s="349"/>
+      <c r="Q29" s="349"/>
       <c r="R29" s="150"/>
       <c r="S29" s="149">
         <v>20</v>
@@ -18643,36 +18643,36 @@
       <c r="F31" s="137" t="s">
         <v>799</v>
       </c>
-      <c r="G31" s="369">
+      <c r="G31" s="342">
         <v>1</v>
       </c>
-      <c r="H31" s="370">
+      <c r="H31" s="343">
         <v>1.1719999999999999</v>
       </c>
-      <c r="I31" s="370">
+      <c r="I31" s="343">
         <v>1.1719999999999999</v>
       </c>
-      <c r="J31" s="371">
+      <c r="J31" s="344">
         <v>1.1719999999999999</v>
       </c>
       <c r="K31" s="93"/>
       <c r="L31" s="94"/>
       <c r="M31" s="94"/>
       <c r="N31" s="95"/>
-      <c r="O31" s="369">
+      <c r="O31" s="342">
         <f>G31*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P31" s="370">
-        <f t="shared" ref="P31:R31" si="13">H31*0.7</f>
+      <c r="P31" s="343">
+        <f t="shared" ref="P31:R31" si="14">H31*0.7</f>
         <v>0.82039999999999991</v>
       </c>
-      <c r="Q31" s="370">
-        <f t="shared" si="13"/>
+      <c r="Q31" s="343">
+        <f t="shared" si="14"/>
         <v>0.82039999999999991</v>
       </c>
-      <c r="R31" s="371">
-        <f t="shared" si="13"/>
+      <c r="R31" s="344">
+        <f t="shared" si="14"/>
         <v>0.82039999999999991</v>
       </c>
       <c r="S31" s="137">
@@ -18727,7 +18727,7 @@
       </c>
     </row>
     <row r="32" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C32" s="381" t="str">
+      <c r="C32" s="354" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E32,6)&amp;"_HPN2"</f>
         <v>R-H_Apt_GASNAT_HPN2</v>
       </c>
@@ -18740,43 +18740,43 @@
       <c r="F32" s="74" t="s">
         <v>799</v>
       </c>
-      <c r="G32" s="382">
+      <c r="G32" s="355">
         <v>1</v>
       </c>
-      <c r="H32" s="383">
+      <c r="H32" s="356">
         <v>1</v>
       </c>
-      <c r="I32" s="383">
+      <c r="I32" s="356">
         <v>1.032</v>
       </c>
-      <c r="J32" s="384">
+      <c r="J32" s="357">
         <v>1.032</v>
       </c>
       <c r="K32" s="96"/>
       <c r="L32" s="97"/>
       <c r="M32" s="97"/>
       <c r="N32" s="98"/>
-      <c r="O32" s="382">
+      <c r="O32" s="355">
         <f>G32*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P32" s="383">
-        <f t="shared" ref="P32" si="14">H32*0.7</f>
+      <c r="P32" s="356">
+        <f t="shared" ref="P32" si="15">H32*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="Q32" s="383">
-        <f t="shared" ref="Q32" si="15">I32*0.7</f>
+      <c r="Q32" s="356">
+        <f t="shared" ref="Q32" si="16">I32*0.7</f>
         <v>0.72239999999999993</v>
       </c>
-      <c r="R32" s="384">
-        <f t="shared" ref="R32" si="16">J32*0.7</f>
+      <c r="R32" s="357">
+        <f t="shared" ref="R32" si="17">J32*0.7</f>
         <v>0.72239999999999993</v>
       </c>
       <c r="S32" s="74">
         <v>20</v>
       </c>
       <c r="T32" s="98"/>
-      <c r="U32" s="381">
+      <c r="U32" s="354">
         <v>1065.68</v>
       </c>
       <c r="V32" s="73">
@@ -18805,11 +18805,11 @@
       </c>
       <c r="AI32" s="307"/>
       <c r="AJ32" s="151" t="str">
-        <f t="shared" ref="AJ32:AK36" si="17">C39</f>
+        <f t="shared" ref="AJ32:AK36" si="18">C39</f>
         <v>R-WH_Apt_RSDELC_N1</v>
       </c>
       <c r="AK32" s="151" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">Residential Electric Water Heater </v>
       </c>
       <c r="AL32" s="152" t="s">
@@ -18859,11 +18859,11 @@
       <c r="AG33" s="81"/>
       <c r="AI33" s="4"/>
       <c r="AJ33" s="153" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>R-WH_Apt_RENSOL_N1</v>
       </c>
       <c r="AK33" s="153" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">Residential Solar Water Heater </v>
       </c>
       <c r="AL33" s="154" t="s">
@@ -18891,42 +18891,42 @@
       <c r="F34" s="146" t="s">
         <v>799</v>
       </c>
-      <c r="G34" s="382">
+      <c r="G34" s="355">
         <v>1</v>
       </c>
-      <c r="H34" s="383">
+      <c r="H34" s="356">
         <v>1.048</v>
       </c>
-      <c r="I34" s="383">
+      <c r="I34" s="356">
         <v>1.097</v>
       </c>
-      <c r="J34" s="383">
+      <c r="J34" s="356">
         <v>1.161</v>
       </c>
       <c r="K34" s="96"/>
       <c r="L34" s="97"/>
       <c r="M34" s="97"/>
       <c r="N34" s="98"/>
-      <c r="O34" s="382">
+      <c r="O34" s="355">
         <f>G34*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P34" s="383">
-        <f t="shared" ref="P34:R34" si="18">H34*0.7</f>
+      <c r="P34" s="356">
+        <f t="shared" ref="P34:R34" si="19">H34*0.7</f>
         <v>0.73360000000000003</v>
       </c>
-      <c r="Q34" s="383">
-        <f t="shared" si="18"/>
+      <c r="Q34" s="356">
+        <f t="shared" si="19"/>
         <v>0.76789999999999992</v>
       </c>
-      <c r="R34" s="384">
-        <f t="shared" si="18"/>
+      <c r="R34" s="357">
+        <f t="shared" si="19"/>
         <v>0.81269999999999998</v>
       </c>
-      <c r="S34" s="385">
+      <c r="S34" s="358">
         <v>20</v>
       </c>
-      <c r="T34" s="386"/>
+      <c r="T34" s="359"/>
       <c r="U34" s="127">
         <v>2320</v>
       </c>
@@ -18939,7 +18939,7 @@
       <c r="X34" s="129">
         <v>1765</v>
       </c>
-      <c r="Y34" s="392">
+      <c r="Y34" s="365">
         <f>Y25+Y11</f>
         <v>8.2883317261330767</v>
       </c>
@@ -18961,11 +18961,11 @@
       </c>
       <c r="AI34" s="4"/>
       <c r="AJ34" s="153" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>R-WH_Apt_GASNAT_N1</v>
       </c>
       <c r="AK34" s="153" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">Residential Gas Water Heater </v>
       </c>
       <c r="AL34" s="154" t="s">
@@ -19015,11 +19015,11 @@
       <c r="AG35" s="81"/>
       <c r="AI35" s="4"/>
       <c r="AJ35" s="153" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>R-WH_Apt_BIOWOO_N1</v>
       </c>
       <c r="AK35" s="153" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">Residential Biomass Water Heater </v>
       </c>
       <c r="AL35" s="154" t="s">
@@ -19047,32 +19047,32 @@
       <c r="F36" s="68" t="s">
         <v>799</v>
       </c>
-      <c r="G36" s="369">
+      <c r="G36" s="342">
         <v>1</v>
       </c>
-      <c r="H36" s="370">
+      <c r="H36" s="343">
         <v>1</v>
       </c>
-      <c r="I36" s="370">
+      <c r="I36" s="343">
         <v>1</v>
       </c>
-      <c r="J36" s="371">
+      <c r="J36" s="344">
         <v>1</v>
       </c>
       <c r="K36" s="93"/>
       <c r="L36" s="94"/>
       <c r="M36" s="94"/>
       <c r="N36" s="95"/>
-      <c r="O36" s="369">
+      <c r="O36" s="342">
         <v>1</v>
       </c>
-      <c r="P36" s="370">
+      <c r="P36" s="343">
         <v>1</v>
       </c>
-      <c r="Q36" s="370">
+      <c r="Q36" s="343">
         <v>1</v>
       </c>
-      <c r="R36" s="371">
+      <c r="R36" s="344">
         <v>1</v>
       </c>
       <c r="S36" s="99">
@@ -19108,11 +19108,11 @@
       </c>
       <c r="AI36" s="163"/>
       <c r="AJ36" s="156" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>R-WH_Apt_OILLPG_N1</v>
       </c>
       <c r="AK36" s="156" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">Residential Liquid Petroleum Gas Water Heater </v>
       </c>
       <c r="AL36" s="157" t="s">
@@ -19127,7 +19127,7 @@
       </c>
     </row>
     <row r="37" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C37" s="381" t="str">
+      <c r="C37" s="354" t="str">
         <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E37,6)&amp;"_N2"</f>
         <v>R-H_Apt_RSDHET_N2</v>
       </c>
@@ -19140,39 +19140,39 @@
       <c r="F37" s="75" t="s">
         <v>799</v>
       </c>
-      <c r="G37" s="382">
+      <c r="G37" s="355">
         <v>1</v>
       </c>
-      <c r="H37" s="383">
+      <c r="H37" s="356">
         <v>1</v>
       </c>
-      <c r="I37" s="383">
+      <c r="I37" s="356">
         <v>1</v>
       </c>
-      <c r="J37" s="384">
+      <c r="J37" s="357">
         <v>1</v>
       </c>
       <c r="K37" s="96"/>
       <c r="L37" s="97"/>
       <c r="M37" s="97"/>
       <c r="N37" s="98"/>
-      <c r="O37" s="382">
+      <c r="O37" s="355">
         <v>1</v>
       </c>
-      <c r="P37" s="383">
+      <c r="P37" s="356">
         <v>1</v>
       </c>
-      <c r="Q37" s="383">
+      <c r="Q37" s="356">
         <v>1</v>
       </c>
-      <c r="R37" s="384">
+      <c r="R37" s="357">
         <v>1</v>
       </c>
       <c r="S37" s="102">
         <v>20</v>
       </c>
       <c r="T37" s="98"/>
-      <c r="U37" s="381">
+      <c r="U37" s="354">
         <v>250</v>
       </c>
       <c r="V37" s="73">
@@ -19276,16 +19276,16 @@
       <c r="L39" s="94"/>
       <c r="M39" s="94"/>
       <c r="N39" s="95"/>
-      <c r="O39" s="369">
+      <c r="O39" s="342">
         <v>1</v>
       </c>
-      <c r="P39" s="370">
+      <c r="P39" s="343">
         <v>1</v>
       </c>
-      <c r="Q39" s="370">
+      <c r="Q39" s="343">
         <v>1</v>
       </c>
-      <c r="R39" s="371">
+      <c r="R39" s="344">
         <v>1</v>
       </c>
       <c r="S39" s="99">
@@ -19322,7 +19322,7 @@
     </row>
     <row r="40" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C40" s="70" t="str">
-        <f t="shared" ref="C40:C43" si="19">"R-WH_Apt"&amp;"_"&amp;RIGHT(E40,6)&amp;"_N1"</f>
+        <f t="shared" ref="C40:C43" si="20">"R-WH_Apt"&amp;"_"&amp;RIGHT(E40,6)&amp;"_N1"</f>
         <v>R-WH_Apt_RENSOL_N1</v>
       </c>
       <c r="D40" s="70" t="s">
@@ -19342,16 +19342,16 @@
       <c r="L40" s="79"/>
       <c r="M40" s="79"/>
       <c r="N40" s="92"/>
-      <c r="O40" s="366">
+      <c r="O40" s="339">
         <v>1</v>
       </c>
-      <c r="P40" s="367">
+      <c r="P40" s="340">
         <v>1</v>
       </c>
-      <c r="Q40" s="367">
+      <c r="Q40" s="340">
         <v>1</v>
       </c>
-      <c r="R40" s="368">
+      <c r="R40" s="341">
         <v>1</v>
       </c>
       <c r="S40" s="100">
@@ -19390,7 +19390,7 @@
     </row>
     <row r="41" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C41" s="76" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>R-WH_Apt_GASNAT_N1</v>
       </c>
       <c r="D41" s="76" t="s">
@@ -19410,16 +19410,16 @@
       <c r="L41" s="78"/>
       <c r="M41" s="78"/>
       <c r="N41" s="90"/>
-      <c r="O41" s="363">
+      <c r="O41" s="336">
         <v>0.7</v>
       </c>
-      <c r="P41" s="364">
+      <c r="P41" s="337">
         <v>0.7</v>
       </c>
-      <c r="Q41" s="364">
+      <c r="Q41" s="337">
         <v>0.7</v>
       </c>
-      <c r="R41" s="365">
+      <c r="R41" s="338">
         <v>0.7</v>
       </c>
       <c r="S41" s="101">
@@ -19456,7 +19456,7 @@
     </row>
     <row r="42" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C42" s="70" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>R-WH_Apt_BIOWOO_N1</v>
       </c>
       <c r="D42" s="70" t="s">
@@ -19476,16 +19476,16 @@
       <c r="L42" s="79"/>
       <c r="M42" s="79"/>
       <c r="N42" s="92"/>
-      <c r="O42" s="366">
+      <c r="O42" s="339">
         <v>0.7</v>
       </c>
-      <c r="P42" s="367">
+      <c r="P42" s="340">
         <v>0.7</v>
       </c>
-      <c r="Q42" s="367">
+      <c r="Q42" s="340">
         <v>0.7</v>
       </c>
-      <c r="R42" s="368">
+      <c r="R42" s="341">
         <v>0.7</v>
       </c>
       <c r="S42" s="100">
@@ -19522,7 +19522,7 @@
     </row>
     <row r="43" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C43" s="76" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>R-WH_Apt_OILLPG_N1</v>
       </c>
       <c r="D43" s="138" t="s">
@@ -19534,24 +19534,24 @@
       <c r="F43" s="138" t="s">
         <v>412</v>
       </c>
-      <c r="G43" s="375"/>
-      <c r="H43" s="376"/>
-      <c r="I43" s="376"/>
+      <c r="G43" s="348"/>
+      <c r="H43" s="349"/>
+      <c r="I43" s="349"/>
       <c r="J43" s="150"/>
-      <c r="K43" s="375"/>
-      <c r="L43" s="376"/>
-      <c r="M43" s="376"/>
+      <c r="K43" s="348"/>
+      <c r="L43" s="349"/>
+      <c r="M43" s="349"/>
       <c r="N43" s="150"/>
-      <c r="O43" s="372">
+      <c r="O43" s="345">
         <v>0.7</v>
       </c>
-      <c r="P43" s="373">
+      <c r="P43" s="346">
         <v>0.7</v>
       </c>
-      <c r="Q43" s="373">
+      <c r="Q43" s="346">
         <v>0.7</v>
       </c>
-      <c r="R43" s="374">
+      <c r="R43" s="347">
         <v>0.7</v>
       </c>
       <c r="S43" s="149">
@@ -19639,16 +19639,16 @@
       <c r="H45" s="165"/>
       <c r="I45" s="165"/>
       <c r="J45" s="165"/>
-      <c r="K45" s="387">
+      <c r="K45" s="360">
         <v>1</v>
       </c>
-      <c r="L45" s="388">
+      <c r="L45" s="361">
         <v>1.1559999999999999</v>
       </c>
-      <c r="M45" s="388">
+      <c r="M45" s="361">
         <v>1.25</v>
       </c>
-      <c r="N45" s="389">
+      <c r="N45" s="362">
         <v>1.25</v>
       </c>
       <c r="O45" s="165"/>
@@ -19809,34 +19809,34 @@
       <c r="F51" s="63" t="s">
         <v>335</v>
       </c>
-      <c r="G51" s="359" t="s">
+      <c r="G51" s="389" t="s">
         <v>336</v>
       </c>
-      <c r="H51" s="360"/>
-      <c r="I51" s="360"/>
-      <c r="J51" s="361"/>
-      <c r="K51" s="359" t="s">
+      <c r="H51" s="390"/>
+      <c r="I51" s="390"/>
+      <c r="J51" s="391"/>
+      <c r="K51" s="389" t="s">
         <v>337</v>
       </c>
-      <c r="L51" s="360"/>
-      <c r="M51" s="360"/>
-      <c r="N51" s="361"/>
-      <c r="O51" s="359" t="s">
+      <c r="L51" s="390"/>
+      <c r="M51" s="390"/>
+      <c r="N51" s="391"/>
+      <c r="O51" s="389" t="s">
         <v>338</v>
       </c>
-      <c r="P51" s="360"/>
-      <c r="Q51" s="360"/>
-      <c r="R51" s="361"/>
-      <c r="S51" s="359" t="s">
+      <c r="P51" s="390"/>
+      <c r="Q51" s="390"/>
+      <c r="R51" s="391"/>
+      <c r="S51" s="389" t="s">
         <v>339</v>
       </c>
-      <c r="T51" s="361"/>
-      <c r="U51" s="353" t="s">
+      <c r="T51" s="391"/>
+      <c r="U51" s="383" t="s">
         <v>340</v>
       </c>
-      <c r="V51" s="354"/>
-      <c r="W51" s="354"/>
-      <c r="X51" s="355"/>
+      <c r="V51" s="384"/>
+      <c r="W51" s="384"/>
+      <c r="X51" s="385"/>
       <c r="Y51" s="107"/>
       <c r="Z51" s="107"/>
       <c r="AA51" s="115" t="s">
@@ -19943,34 +19943,34 @@
       <c r="D53" s="85"/>
       <c r="E53" s="85"/>
       <c r="F53" s="86"/>
-      <c r="G53" s="356" t="s">
+      <c r="G53" s="386" t="s">
         <v>56</v>
       </c>
-      <c r="H53" s="357"/>
-      <c r="I53" s="357"/>
-      <c r="J53" s="358"/>
-      <c r="K53" s="357" t="s">
+      <c r="H53" s="387"/>
+      <c r="I53" s="387"/>
+      <c r="J53" s="388"/>
+      <c r="K53" s="387" t="s">
         <v>56</v>
       </c>
-      <c r="L53" s="357"/>
-      <c r="M53" s="357"/>
-      <c r="N53" s="358"/>
-      <c r="O53" s="356" t="s">
+      <c r="L53" s="387"/>
+      <c r="M53" s="387"/>
+      <c r="N53" s="388"/>
+      <c r="O53" s="386" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="357"/>
-      <c r="Q53" s="357"/>
-      <c r="R53" s="358"/>
-      <c r="S53" s="356" t="s">
+      <c r="P53" s="387"/>
+      <c r="Q53" s="387"/>
+      <c r="R53" s="388"/>
+      <c r="S53" s="386" t="s">
         <v>313</v>
       </c>
-      <c r="T53" s="358"/>
-      <c r="U53" s="356" t="s">
+      <c r="T53" s="388"/>
+      <c r="U53" s="386" t="s">
         <v>346</v>
       </c>
-      <c r="V53" s="357"/>
-      <c r="W53" s="357"/>
-      <c r="X53" s="358"/>
+      <c r="V53" s="387"/>
+      <c r="W53" s="387"/>
+      <c r="X53" s="388"/>
       <c r="Y53" s="108" t="s">
         <v>347</v>
       </c>
@@ -20032,26 +20032,26 @@
       <c r="F54" s="76" t="s">
         <v>433</v>
       </c>
-      <c r="G54" s="369">
+      <c r="G54" s="342">
         <v>1</v>
       </c>
-      <c r="H54" s="370">
+      <c r="H54" s="343">
         <v>1</v>
       </c>
-      <c r="I54" s="370">
+      <c r="I54" s="343">
         <v>1</v>
       </c>
-      <c r="J54" s="371">
+      <c r="J54" s="344">
         <v>1</v>
       </c>
       <c r="K54" s="93"/>
       <c r="L54" s="94"/>
       <c r="M54" s="94"/>
       <c r="N54" s="95"/>
-      <c r="O54" s="369"/>
-      <c r="P54" s="370"/>
-      <c r="Q54" s="370"/>
-      <c r="R54" s="371"/>
+      <c r="O54" s="342"/>
+      <c r="P54" s="343"/>
+      <c r="Q54" s="343"/>
+      <c r="R54" s="344"/>
       <c r="S54" s="99">
         <v>20</v>
       </c>
@@ -20085,11 +20085,11 @@
       </c>
       <c r="AI54" s="154"/>
       <c r="AJ54" s="153" t="str">
-        <f t="shared" ref="AJ54:AJ64" si="20">C55</f>
+        <f t="shared" ref="AJ54:AJ64" si="21">C55</f>
         <v>R-H_Att_OILKER_N1</v>
       </c>
       <c r="AK54" s="153" t="str">
-        <f t="shared" ref="AK54:AK64" si="21">D55</f>
+        <f t="shared" ref="AK54:AK64" si="22">D55</f>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AL54" s="154" t="s">
@@ -20117,36 +20117,36 @@
       <c r="F55" s="70" t="s">
         <v>801</v>
       </c>
-      <c r="G55" s="366">
+      <c r="G55" s="339">
         <v>1</v>
       </c>
-      <c r="H55" s="367">
+      <c r="H55" s="340">
         <v>1</v>
       </c>
-      <c r="I55" s="367">
+      <c r="I55" s="340">
         <v>1</v>
       </c>
-      <c r="J55" s="368">
+      <c r="J55" s="341">
         <v>1</v>
       </c>
       <c r="K55" s="91"/>
       <c r="L55" s="79"/>
       <c r="M55" s="79"/>
       <c r="N55" s="92"/>
-      <c r="O55" s="366">
+      <c r="O55" s="339">
         <f>G55*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P55" s="367">
-        <f t="shared" ref="P55:P57" si="22">H55*0.7</f>
+      <c r="P55" s="340">
+        <f t="shared" ref="P55:P57" si="23">H55*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="Q55" s="367">
-        <f t="shared" ref="Q55:Q57" si="23">I55*0.7</f>
+      <c r="Q55" s="340">
+        <f t="shared" ref="Q55:Q57" si="24">I55*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="R55" s="368">
-        <f t="shared" ref="R55:R57" si="24">J55*0.7</f>
+      <c r="R55" s="341">
+        <f t="shared" ref="R55:R57" si="25">J55*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S55" s="100">
@@ -20182,11 +20182,11 @@
       </c>
       <c r="AI55" s="154"/>
       <c r="AJ55" s="153" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>R-H_Att_OILKER_N2</v>
       </c>
       <c r="AK55" s="153" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
       <c r="AL55" s="154" t="s">
@@ -20214,36 +20214,36 @@
       <c r="F56" s="76" t="s">
         <v>801</v>
       </c>
-      <c r="G56" s="363">
+      <c r="G56" s="336">
         <v>1</v>
       </c>
-      <c r="H56" s="364">
+      <c r="H56" s="337">
         <v>1</v>
       </c>
-      <c r="I56" s="364">
+      <c r="I56" s="337">
         <v>1</v>
       </c>
-      <c r="J56" s="365">
+      <c r="J56" s="338">
         <v>1</v>
       </c>
       <c r="K56" s="89"/>
       <c r="L56" s="78"/>
       <c r="M56" s="78"/>
       <c r="N56" s="90"/>
-      <c r="O56" s="363">
+      <c r="O56" s="336">
         <f>G56*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P56" s="364">
-        <f t="shared" si="22"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q56" s="364">
+      <c r="P56" s="337">
         <f t="shared" si="23"/>
         <v>0.7</v>
       </c>
-      <c r="R56" s="365">
+      <c r="Q56" s="337">
         <f t="shared" si="24"/>
+        <v>0.7</v>
+      </c>
+      <c r="R56" s="338">
+        <f t="shared" si="25"/>
         <v>0.7</v>
       </c>
       <c r="S56" s="101">
@@ -20283,11 +20283,11 @@
       </c>
       <c r="AI56" s="154"/>
       <c r="AJ56" s="153" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>R-H_Att_OILKER_N3</v>
       </c>
       <c r="AK56" s="153" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
       <c r="AL56" s="155" t="s">
@@ -20313,36 +20313,36 @@
       <c r="F57" s="70" t="s">
         <v>801</v>
       </c>
-      <c r="G57" s="366">
+      <c r="G57" s="339">
         <v>1</v>
       </c>
-      <c r="H57" s="367">
+      <c r="H57" s="340">
         <v>1.0249999999999999</v>
       </c>
-      <c r="I57" s="367">
+      <c r="I57" s="340">
         <v>1.0249999999999999</v>
       </c>
-      <c r="J57" s="368">
+      <c r="J57" s="341">
         <v>1.0249999999999999</v>
       </c>
       <c r="K57" s="91"/>
       <c r="L57" s="79"/>
       <c r="M57" s="79"/>
       <c r="N57" s="92"/>
-      <c r="O57" s="366">
+      <c r="O57" s="339">
         <f>G57*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P57" s="367">
-        <f t="shared" si="22"/>
-        <v>0.71749999999999992</v>
-      </c>
-      <c r="Q57" s="367">
+      <c r="P57" s="340">
         <f t="shared" si="23"/>
         <v>0.71749999999999992</v>
       </c>
-      <c r="R57" s="368">
+      <c r="Q57" s="340">
         <f t="shared" si="24"/>
+        <v>0.71749999999999992</v>
+      </c>
+      <c r="R57" s="341">
+        <f t="shared" si="25"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S57" s="100">
@@ -20382,11 +20382,11 @@
       </c>
       <c r="AI57" s="154"/>
       <c r="AJ57" s="153" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>R-SH_Att_GASNAT_N1</v>
       </c>
       <c r="AK57" s="153" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AL57" s="154" t="s">
@@ -20414,26 +20414,26 @@
       <c r="F58" s="76" t="s">
         <v>433</v>
       </c>
-      <c r="G58" s="363">
+      <c r="G58" s="336">
         <v>1</v>
       </c>
-      <c r="H58" s="364">
+      <c r="H58" s="337">
         <v>1</v>
       </c>
-      <c r="I58" s="364">
+      <c r="I58" s="337">
         <v>1</v>
       </c>
-      <c r="J58" s="365">
+      <c r="J58" s="338">
         <v>1</v>
       </c>
       <c r="K58" s="89"/>
       <c r="L58" s="78"/>
       <c r="M58" s="78"/>
       <c r="N58" s="90"/>
-      <c r="O58" s="363"/>
-      <c r="P58" s="364"/>
-      <c r="Q58" s="364"/>
-      <c r="R58" s="365"/>
+      <c r="O58" s="336"/>
+      <c r="P58" s="337"/>
+      <c r="Q58" s="337"/>
+      <c r="R58" s="338"/>
       <c r="S58" s="101">
         <v>20</v>
       </c>
@@ -20467,11 +20467,11 @@
       </c>
       <c r="AI58" s="154"/>
       <c r="AJ58" s="153" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>R-H_Att_GASNAT_N1</v>
       </c>
       <c r="AK58" s="153" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AL58" s="154" t="s">
@@ -20499,36 +20499,36 @@
       <c r="F59" s="70" t="s">
         <v>801</v>
       </c>
-      <c r="G59" s="366">
+      <c r="G59" s="339">
         <v>1</v>
       </c>
-      <c r="H59" s="367">
+      <c r="H59" s="340">
         <v>1</v>
       </c>
-      <c r="I59" s="367">
+      <c r="I59" s="340">
         <v>1</v>
       </c>
-      <c r="J59" s="368">
+      <c r="J59" s="341">
         <v>1</v>
       </c>
       <c r="K59" s="91"/>
       <c r="L59" s="79"/>
       <c r="M59" s="79"/>
       <c r="N59" s="92"/>
-      <c r="O59" s="366">
+      <c r="O59" s="339">
         <f>G59*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P59" s="367">
-        <f t="shared" ref="P59:P61" si="25">H59*0.7</f>
+      <c r="P59" s="340">
+        <f t="shared" ref="P59:P61" si="26">H59*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="Q59" s="367">
-        <f t="shared" ref="Q59:Q61" si="26">I59*0.7</f>
+      <c r="Q59" s="340">
+        <f t="shared" ref="Q59:Q61" si="27">I59*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="R59" s="368">
-        <f t="shared" ref="R59:R61" si="27">J59*0.7</f>
+      <c r="R59" s="341">
+        <f t="shared" ref="R59:R61" si="28">J59*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S59" s="100">
@@ -20564,11 +20564,11 @@
       </c>
       <c r="AI59" s="154"/>
       <c r="AJ59" s="153" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>R-H_Att_GASNAT_N2</v>
       </c>
       <c r="AK59" s="153" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
       <c r="AL59" s="154" t="s">
@@ -20596,36 +20596,36 @@
       <c r="F60" s="76" t="s">
         <v>801</v>
       </c>
-      <c r="G60" s="363">
+      <c r="G60" s="336">
         <v>1</v>
       </c>
-      <c r="H60" s="364">
+      <c r="H60" s="337">
         <v>1</v>
       </c>
-      <c r="I60" s="364">
+      <c r="I60" s="337">
         <v>1</v>
       </c>
-      <c r="J60" s="365">
+      <c r="J60" s="338">
         <v>1</v>
       </c>
       <c r="K60" s="89"/>
       <c r="L60" s="78"/>
       <c r="M60" s="78"/>
       <c r="N60" s="90"/>
-      <c r="O60" s="363">
+      <c r="O60" s="336">
         <f>G60*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P60" s="364">
-        <f t="shared" si="25"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q60" s="364">
+      <c r="P60" s="337">
         <f t="shared" si="26"/>
         <v>0.7</v>
       </c>
-      <c r="R60" s="365">
+      <c r="Q60" s="337">
         <f t="shared" si="27"/>
+        <v>0.7</v>
+      </c>
+      <c r="R60" s="338">
+        <f t="shared" si="28"/>
         <v>0.7</v>
       </c>
       <c r="S60" s="101">
@@ -20665,11 +20665,11 @@
       </c>
       <c r="AI60" s="154"/>
       <c r="AJ60" s="153" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>R-H_Att_GASNAT_N3</v>
       </c>
       <c r="AK60" s="153" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
       <c r="AL60" s="154" t="s">
@@ -20697,36 +20697,36 @@
       <c r="F61" s="70" t="s">
         <v>801</v>
       </c>
-      <c r="G61" s="366">
+      <c r="G61" s="339">
         <v>1</v>
       </c>
-      <c r="H61" s="367">
+      <c r="H61" s="340">
         <v>1.0249999999999999</v>
       </c>
-      <c r="I61" s="367">
+      <c r="I61" s="340">
         <v>1.0249999999999999</v>
       </c>
-      <c r="J61" s="368">
+      <c r="J61" s="341">
         <v>1.0249999999999999</v>
       </c>
       <c r="K61" s="91"/>
       <c r="L61" s="79"/>
       <c r="M61" s="79"/>
       <c r="N61" s="92"/>
-      <c r="O61" s="366">
+      <c r="O61" s="339">
         <f>G61*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P61" s="367">
-        <f t="shared" si="25"/>
-        <v>0.71749999999999992</v>
-      </c>
-      <c r="Q61" s="367">
+      <c r="P61" s="340">
         <f t="shared" si="26"/>
         <v>0.71749999999999992</v>
       </c>
-      <c r="R61" s="368">
+      <c r="Q61" s="340">
         <f t="shared" si="27"/>
+        <v>0.71749999999999992</v>
+      </c>
+      <c r="R61" s="341">
+        <f t="shared" si="28"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S61" s="100">
@@ -20766,11 +20766,11 @@
       </c>
       <c r="AI61" s="154"/>
       <c r="AJ61" s="153" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>R-SH_Att_OILLPG_N1</v>
       </c>
       <c r="AK61" s="153" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AL61" s="154" t="s">
@@ -20798,26 +20798,26 @@
       <c r="F62" s="76" t="s">
         <v>433</v>
       </c>
-      <c r="G62" s="363">
+      <c r="G62" s="336">
         <v>1</v>
       </c>
-      <c r="H62" s="364">
+      <c r="H62" s="337">
         <v>1</v>
       </c>
-      <c r="I62" s="364">
+      <c r="I62" s="337">
         <v>1</v>
       </c>
-      <c r="J62" s="365">
+      <c r="J62" s="338">
         <v>1</v>
       </c>
       <c r="K62" s="89"/>
       <c r="L62" s="78"/>
       <c r="M62" s="78"/>
       <c r="N62" s="90"/>
-      <c r="O62" s="363"/>
-      <c r="P62" s="364"/>
-      <c r="Q62" s="364"/>
-      <c r="R62" s="365"/>
+      <c r="O62" s="336"/>
+      <c r="P62" s="337"/>
+      <c r="Q62" s="337"/>
+      <c r="R62" s="338"/>
       <c r="S62" s="101">
         <v>20</v>
       </c>
@@ -20851,11 +20851,11 @@
       </c>
       <c r="AI62" s="154"/>
       <c r="AJ62" s="153" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>R-H_Att_OILLPG_N1</v>
       </c>
       <c r="AK62" s="153" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AL62" s="154" t="s">
@@ -20883,36 +20883,36 @@
       <c r="F63" s="70" t="s">
         <v>801</v>
       </c>
-      <c r="G63" s="366">
+      <c r="G63" s="339">
         <v>1</v>
       </c>
-      <c r="H63" s="367">
+      <c r="H63" s="340">
         <v>1</v>
       </c>
-      <c r="I63" s="367">
+      <c r="I63" s="340">
         <v>1</v>
       </c>
-      <c r="J63" s="368">
+      <c r="J63" s="341">
         <v>1</v>
       </c>
       <c r="K63" s="91"/>
       <c r="L63" s="79"/>
       <c r="M63" s="79"/>
       <c r="N63" s="92"/>
-      <c r="O63" s="366">
+      <c r="O63" s="339">
         <f>G63*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P63" s="367">
-        <f t="shared" ref="P63" si="28">H63*0.7</f>
+      <c r="P63" s="340">
+        <f t="shared" ref="P63" si="29">H63*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="Q63" s="367">
-        <f t="shared" ref="Q63" si="29">I63*0.7</f>
+      <c r="Q63" s="340">
+        <f t="shared" ref="Q63" si="30">I63*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="R63" s="368">
-        <f t="shared" ref="R63" si="30">J63*0.7</f>
+      <c r="R63" s="341">
+        <f t="shared" ref="R63" si="31">J63*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S63" s="100">
@@ -20948,11 +20948,11 @@
       </c>
       <c r="AI63" s="154"/>
       <c r="AJ63" s="153" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>R-SH_Att_BIOWOO_N1</v>
       </c>
       <c r="AK63" s="153" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AL63" s="154" t="s">
@@ -20980,26 +20980,26 @@
       <c r="F64" s="76" t="s">
         <v>433</v>
       </c>
-      <c r="G64" s="363">
+      <c r="G64" s="336">
         <v>1</v>
       </c>
-      <c r="H64" s="364">
+      <c r="H64" s="337">
         <v>1</v>
       </c>
-      <c r="I64" s="364">
+      <c r="I64" s="337">
         <v>1</v>
       </c>
-      <c r="J64" s="365">
+      <c r="J64" s="338">
         <v>1</v>
       </c>
       <c r="K64" s="89"/>
       <c r="L64" s="78"/>
       <c r="M64" s="78"/>
       <c r="N64" s="90"/>
-      <c r="O64" s="363"/>
-      <c r="P64" s="364"/>
-      <c r="Q64" s="364"/>
-      <c r="R64" s="365"/>
+      <c r="O64" s="336"/>
+      <c r="P64" s="337"/>
+      <c r="Q64" s="337"/>
+      <c r="R64" s="338"/>
       <c r="S64" s="101">
         <v>20</v>
       </c>
@@ -21033,11 +21033,11 @@
       </c>
       <c r="AI64" s="157"/>
       <c r="AJ64" s="156" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>R-H_Att_BIOWOO_N1</v>
       </c>
       <c r="AK64" s="156" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AL64" s="157" t="s">
@@ -21065,35 +21065,35 @@
       <c r="F65" s="73" t="s">
         <v>801</v>
       </c>
-      <c r="G65" s="366">
+      <c r="G65" s="339">
         <v>1</v>
       </c>
-      <c r="H65" s="367">
+      <c r="H65" s="340">
         <v>1</v>
       </c>
-      <c r="I65" s="367">
+      <c r="I65" s="340">
         <v>1</v>
       </c>
-      <c r="J65" s="368">
+      <c r="J65" s="341">
         <v>1</v>
       </c>
       <c r="K65" s="91"/>
       <c r="L65" s="79"/>
       <c r="M65" s="79"/>
       <c r="N65" s="92"/>
-      <c r="O65" s="366">
+      <c r="O65" s="339">
         <f>G65*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P65" s="367">
+      <c r="P65" s="340">
         <f>H65*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="Q65" s="367">
+      <c r="Q65" s="340">
         <f>I65*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="R65" s="368">
+      <c r="R65" s="341">
         <f>J65*0.7</f>
         <v>0.7</v>
       </c>
@@ -21184,11 +21184,11 @@
       <c r="AG66" s="81"/>
       <c r="AI66" s="152"/>
       <c r="AJ66" s="151" t="str">
-        <f t="shared" ref="AJ66:AK72" si="31">C69</f>
+        <f t="shared" ref="AJ66:AK72" si="32">C69</f>
         <v>R-SH_Att_RSDELC_HPN1</v>
       </c>
       <c r="AK66" s="151" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AL66" s="152" t="s">
@@ -21216,16 +21216,16 @@
       <c r="F67" s="70" t="s">
         <v>433</v>
       </c>
-      <c r="G67" s="378">
+      <c r="G67" s="351">
         <v>1</v>
       </c>
-      <c r="H67" s="379">
+      <c r="H67" s="352">
         <v>1</v>
       </c>
-      <c r="I67" s="379">
+      <c r="I67" s="352">
         <v>1</v>
       </c>
-      <c r="J67" s="380">
+      <c r="J67" s="353">
         <v>1</v>
       </c>
       <c r="K67" s="122"/>
@@ -21269,11 +21269,11 @@
       </c>
       <c r="AI67" s="154"/>
       <c r="AJ67" s="153" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>R-HC_Att_RSDELC_HPN1</v>
       </c>
       <c r="AK67" s="153" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AL67" s="154" t="s">
@@ -21323,11 +21323,11 @@
       <c r="AG68" s="81"/>
       <c r="AI68" s="154"/>
       <c r="AJ68" s="153" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>R-SH_Att_RSDELC_HPN2</v>
       </c>
       <c r="AK68" s="153" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AL68" s="154" t="s">
@@ -21355,22 +21355,22 @@
       <c r="F69" s="76" t="s">
         <v>433</v>
       </c>
-      <c r="G69" s="369">
+      <c r="G69" s="342">
         <v>1</v>
       </c>
-      <c r="H69" s="370">
+      <c r="H69" s="343">
         <v>1.1559999999999999</v>
       </c>
-      <c r="I69" s="370">
+      <c r="I69" s="343">
         <v>1.25</v>
       </c>
-      <c r="J69" s="371">
+      <c r="J69" s="344">
         <v>1.25</v>
       </c>
-      <c r="K69" s="369"/>
-      <c r="L69" s="370"/>
-      <c r="M69" s="370"/>
-      <c r="N69" s="371"/>
+      <c r="K69" s="342"/>
+      <c r="L69" s="343"/>
+      <c r="M69" s="343"/>
+      <c r="N69" s="344"/>
       <c r="O69" s="93"/>
       <c r="P69" s="94"/>
       <c r="Q69" s="94"/>
@@ -21408,11 +21408,11 @@
       </c>
       <c r="AI69" s="154"/>
       <c r="AJ69" s="153" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>R-H_Att_RSDELC_HPN1</v>
       </c>
       <c r="AK69" s="153" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AL69" s="154" t="s">
@@ -21440,28 +21440,28 @@
       <c r="F70" s="70" t="s">
         <v>802</v>
       </c>
-      <c r="G70" s="366">
+      <c r="G70" s="339">
         <v>1</v>
       </c>
-      <c r="H70" s="367">
+      <c r="H70" s="340">
         <v>1.1559999999999999</v>
       </c>
-      <c r="I70" s="367">
+      <c r="I70" s="340">
         <v>1.25</v>
       </c>
-      <c r="J70" s="368">
+      <c r="J70" s="341">
         <v>1.25</v>
       </c>
-      <c r="K70" s="366">
+      <c r="K70" s="339">
         <v>1</v>
       </c>
-      <c r="L70" s="367">
+      <c r="L70" s="340">
         <v>1.1559999999999999</v>
       </c>
-      <c r="M70" s="367">
+      <c r="M70" s="340">
         <v>1.25</v>
       </c>
-      <c r="N70" s="368">
+      <c r="N70" s="341">
         <v>1.25</v>
       </c>
       <c r="O70" s="91"/>
@@ -21501,11 +21501,11 @@
       </c>
       <c r="AI70" s="304"/>
       <c r="AJ70" s="153" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>R-H_Att_RENSOL_HPN2</v>
       </c>
       <c r="AK70" s="153" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
       <c r="AL70" s="154" t="s">
@@ -21533,22 +21533,22 @@
       <c r="F71" s="76" t="s">
         <v>433</v>
       </c>
-      <c r="G71" s="363">
+      <c r="G71" s="336">
         <v>1</v>
       </c>
-      <c r="H71" s="364">
+      <c r="H71" s="337">
         <v>1.1200000000000001</v>
       </c>
-      <c r="I71" s="364">
+      <c r="I71" s="337">
         <v>1.21</v>
       </c>
-      <c r="J71" s="365">
+      <c r="J71" s="338">
         <v>1.21</v>
       </c>
-      <c r="K71" s="363"/>
-      <c r="L71" s="364"/>
-      <c r="M71" s="364"/>
-      <c r="N71" s="365"/>
+      <c r="K71" s="336"/>
+      <c r="L71" s="337"/>
+      <c r="M71" s="337"/>
+      <c r="N71" s="338"/>
       <c r="O71" s="89"/>
       <c r="P71" s="78"/>
       <c r="Q71" s="78"/>
@@ -21586,11 +21586,11 @@
       </c>
       <c r="AI71" s="304"/>
       <c r="AJ71" s="153" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>R-SH_Att_RSDELC_HPN3</v>
       </c>
       <c r="AK71" s="153" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AL71" s="154" t="s">
@@ -21618,36 +21618,36 @@
       <c r="F72" s="70" t="s">
         <v>801</v>
       </c>
-      <c r="G72" s="366">
+      <c r="G72" s="339">
         <v>1</v>
       </c>
-      <c r="H72" s="367">
+      <c r="H72" s="340">
         <v>1.1200000000000001</v>
       </c>
-      <c r="I72" s="367">
+      <c r="I72" s="340">
         <v>1.21</v>
       </c>
-      <c r="J72" s="368">
+      <c r="J72" s="341">
         <v>1.21</v>
       </c>
-      <c r="K72" s="366"/>
-      <c r="L72" s="367"/>
-      <c r="M72" s="367"/>
-      <c r="N72" s="368"/>
-      <c r="O72" s="366">
+      <c r="K72" s="339"/>
+      <c r="L72" s="340"/>
+      <c r="M72" s="340"/>
+      <c r="N72" s="341"/>
+      <c r="O72" s="339">
         <f>G72*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P72" s="367">
-        <f t="shared" ref="P72:P73" si="32">H72*0.7</f>
+      <c r="P72" s="340">
+        <f t="shared" ref="P72:P73" si="33">H72*0.7</f>
         <v>0.78400000000000003</v>
       </c>
-      <c r="Q72" s="367">
-        <f t="shared" ref="Q72:Q73" si="33">I72*0.7</f>
+      <c r="Q72" s="340">
+        <f t="shared" ref="Q72:Q73" si="34">I72*0.7</f>
         <v>0.84699999999999998</v>
       </c>
-      <c r="R72" s="368">
-        <f t="shared" ref="R72:R73" si="34">J72*0.7</f>
+      <c r="R72" s="341">
+        <f t="shared" ref="R72:R73" si="35">J72*0.7</f>
         <v>0.84699999999999998</v>
       </c>
       <c r="S72" s="100">
@@ -21683,11 +21683,11 @@
       </c>
       <c r="AI72" s="160"/>
       <c r="AJ72" s="156" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>R-HC_Att_RSDELC_HPN2</v>
       </c>
       <c r="AK72" s="156" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AL72" s="157" t="s">
@@ -21715,36 +21715,36 @@
       <c r="F73" s="76" t="s">
         <v>801</v>
       </c>
-      <c r="G73" s="363">
+      <c r="G73" s="336">
         <v>1</v>
       </c>
-      <c r="H73" s="364">
+      <c r="H73" s="337">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I73" s="364">
+      <c r="I73" s="337">
         <v>1.19</v>
       </c>
-      <c r="J73" s="365">
+      <c r="J73" s="338">
         <v>1.19</v>
       </c>
-      <c r="K73" s="363"/>
-      <c r="L73" s="364"/>
-      <c r="M73" s="364"/>
-      <c r="N73" s="365"/>
-      <c r="O73" s="363">
+      <c r="K73" s="336"/>
+      <c r="L73" s="337"/>
+      <c r="M73" s="337"/>
+      <c r="N73" s="338"/>
+      <c r="O73" s="336">
         <f>G73*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P73" s="364">
-        <f t="shared" si="32"/>
+      <c r="P73" s="337">
+        <f t="shared" si="33"/>
         <v>0.77700000000000002</v>
       </c>
-      <c r="Q73" s="364">
-        <f t="shared" si="33"/>
+      <c r="Q73" s="337">
+        <f t="shared" si="34"/>
         <v>0.83299999999999996</v>
       </c>
-      <c r="R73" s="365">
-        <f t="shared" si="34"/>
+      <c r="R73" s="338">
+        <f t="shared" si="35"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S73" s="101">
@@ -21816,22 +21816,22 @@
       <c r="F74" s="70" t="s">
         <v>433</v>
       </c>
-      <c r="G74" s="366">
+      <c r="G74" s="339">
         <v>1</v>
       </c>
-      <c r="H74" s="367">
+      <c r="H74" s="340">
         <v>1</v>
       </c>
-      <c r="I74" s="367">
+      <c r="I74" s="340">
         <v>1</v>
       </c>
-      <c r="J74" s="368">
+      <c r="J74" s="341">
         <v>1</v>
       </c>
-      <c r="K74" s="366"/>
-      <c r="L74" s="367"/>
-      <c r="M74" s="367"/>
-      <c r="N74" s="368"/>
+      <c r="K74" s="339"/>
+      <c r="L74" s="340"/>
+      <c r="M74" s="340"/>
+      <c r="N74" s="341"/>
       <c r="O74" s="91"/>
       <c r="P74" s="79"/>
       <c r="Q74" s="79"/>
@@ -21901,33 +21901,33 @@
       <c r="F75" s="76" t="s">
         <v>802</v>
       </c>
-      <c r="G75" s="372">
+      <c r="G75" s="345">
         <v>1</v>
       </c>
-      <c r="H75" s="373">
+      <c r="H75" s="346">
         <v>1</v>
       </c>
-      <c r="I75" s="373">
+      <c r="I75" s="346">
         <v>1</v>
       </c>
-      <c r="J75" s="374">
+      <c r="J75" s="347">
         <v>1</v>
       </c>
-      <c r="K75" s="372">
+      <c r="K75" s="345">
         <v>1</v>
       </c>
-      <c r="L75" s="373">
+      <c r="L75" s="346">
         <v>1</v>
       </c>
-      <c r="M75" s="373">
+      <c r="M75" s="346">
         <v>1</v>
       </c>
-      <c r="N75" s="374">
+      <c r="N75" s="347">
         <v>1</v>
       </c>
-      <c r="O75" s="375"/>
-      <c r="P75" s="376"/>
-      <c r="Q75" s="376"/>
+      <c r="O75" s="348"/>
+      <c r="P75" s="349"/>
+      <c r="Q75" s="349"/>
       <c r="R75" s="150"/>
       <c r="S75" s="101">
         <v>20</v>
@@ -22048,36 +22048,36 @@
       <c r="F77" s="137" t="s">
         <v>801</v>
       </c>
-      <c r="G77" s="369">
+      <c r="G77" s="342">
         <v>1</v>
       </c>
-      <c r="H77" s="370">
+      <c r="H77" s="343">
         <v>1.1719999999999999</v>
       </c>
-      <c r="I77" s="370">
+      <c r="I77" s="343">
         <v>1.1719999999999999</v>
       </c>
-      <c r="J77" s="371">
+      <c r="J77" s="344">
         <v>1.1719999999999999</v>
       </c>
       <c r="K77" s="93"/>
       <c r="L77" s="94"/>
       <c r="M77" s="94"/>
       <c r="N77" s="95"/>
-      <c r="O77" s="369">
+      <c r="O77" s="342">
         <f>G77*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P77" s="370">
-        <f t="shared" ref="P77:P78" si="35">H77*0.7</f>
+      <c r="P77" s="343">
+        <f t="shared" ref="P77:P78" si="36">H77*0.7</f>
         <v>0.82039999999999991</v>
       </c>
-      <c r="Q77" s="370">
-        <f t="shared" ref="Q77:Q78" si="36">I77*0.7</f>
+      <c r="Q77" s="343">
+        <f t="shared" ref="Q77:Q78" si="37">I77*0.7</f>
         <v>0.82039999999999991</v>
       </c>
-      <c r="R77" s="371">
-        <f t="shared" ref="R77:R78" si="37">J77*0.7</f>
+      <c r="R77" s="344">
+        <f t="shared" ref="R77:R78" si="38">J77*0.7</f>
         <v>0.82039999999999991</v>
       </c>
       <c r="S77" s="99">
@@ -22145,36 +22145,36 @@
       <c r="F78" s="74" t="s">
         <v>801</v>
       </c>
-      <c r="G78" s="382">
+      <c r="G78" s="355">
         <v>1</v>
       </c>
-      <c r="H78" s="383">
+      <c r="H78" s="356">
         <v>1</v>
       </c>
-      <c r="I78" s="383">
+      <c r="I78" s="356">
         <v>1.032</v>
       </c>
-      <c r="J78" s="384">
+      <c r="J78" s="357">
         <v>1.032</v>
       </c>
       <c r="K78" s="96"/>
       <c r="L78" s="97"/>
       <c r="M78" s="97"/>
       <c r="N78" s="98"/>
-      <c r="O78" s="382">
+      <c r="O78" s="355">
         <f>G78*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P78" s="383">
-        <f t="shared" si="35"/>
+      <c r="P78" s="356">
+        <f t="shared" si="36"/>
         <v>0.7</v>
       </c>
-      <c r="Q78" s="383">
-        <f t="shared" si="36"/>
+      <c r="Q78" s="356">
+        <f t="shared" si="37"/>
         <v>0.72239999999999993</v>
       </c>
-      <c r="R78" s="384">
-        <f t="shared" si="37"/>
+      <c r="R78" s="357">
+        <f t="shared" si="38"/>
         <v>0.72239999999999993</v>
       </c>
       <c r="S78" s="102">
@@ -22210,11 +22210,11 @@
       </c>
       <c r="AI78" s="307"/>
       <c r="AJ78" s="151" t="str">
-        <f t="shared" ref="AJ78:AK82" si="38">C85</f>
+        <f t="shared" ref="AJ78:AK82" si="39">C85</f>
         <v>R-WH_Att_RSDELC_N1</v>
       </c>
       <c r="AK78" s="151" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">Residential Electric Water Heater </v>
       </c>
       <c r="AL78" s="152" t="s">
@@ -22264,11 +22264,11 @@
       <c r="AG79" s="81"/>
       <c r="AI79" s="4"/>
       <c r="AJ79" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>R-WH_Att_RENSOL_N1</v>
       </c>
       <c r="AK79" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">Residential Solar Water Heater </v>
       </c>
       <c r="AL79" s="154" t="s">
@@ -22296,36 +22296,36 @@
       <c r="F80" s="76" t="s">
         <v>801</v>
       </c>
-      <c r="G80" s="382">
+      <c r="G80" s="355">
         <v>1</v>
       </c>
-      <c r="H80" s="383">
+      <c r="H80" s="356">
         <v>1.048</v>
       </c>
-      <c r="I80" s="383">
+      <c r="I80" s="356">
         <v>1.097</v>
       </c>
-      <c r="J80" s="383">
+      <c r="J80" s="356">
         <v>1.161</v>
       </c>
       <c r="K80" s="96"/>
       <c r="L80" s="97"/>
       <c r="M80" s="97"/>
       <c r="N80" s="98"/>
-      <c r="O80" s="382">
+      <c r="O80" s="355">
         <f>G80*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P80" s="383">
-        <f t="shared" ref="P80" si="39">H80*0.7</f>
+      <c r="P80" s="356">
+        <f t="shared" ref="P80" si="40">H80*0.7</f>
         <v>0.73360000000000003</v>
       </c>
-      <c r="Q80" s="383">
-        <f t="shared" ref="Q80" si="40">I80*0.7</f>
+      <c r="Q80" s="356">
+        <f t="shared" ref="Q80" si="41">I80*0.7</f>
         <v>0.76789999999999992</v>
       </c>
-      <c r="R80" s="384">
-        <f t="shared" ref="R80" si="41">J80*0.7</f>
+      <c r="R80" s="357">
+        <f t="shared" ref="R80" si="42">J80*0.7</f>
         <v>0.81269999999999998</v>
       </c>
       <c r="S80" s="5">
@@ -22365,11 +22365,11 @@
       </c>
       <c r="AI80" s="4"/>
       <c r="AJ80" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>R-WH_Att_GASNAT_N1</v>
       </c>
       <c r="AK80" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">Residential Gas Water Heater </v>
       </c>
       <c r="AL80" s="154" t="s">
@@ -22419,11 +22419,11 @@
       <c r="AG81" s="81"/>
       <c r="AI81" s="4"/>
       <c r="AJ81" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>R-WH_Att_BIOWOO_N1</v>
       </c>
       <c r="AK81" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">Residential Biomass Water Heater </v>
       </c>
       <c r="AL81" s="154" t="s">
@@ -22451,32 +22451,32 @@
       <c r="F82" s="137" t="s">
         <v>801</v>
       </c>
-      <c r="G82" s="369">
+      <c r="G82" s="342">
         <v>1</v>
       </c>
-      <c r="H82" s="370">
+      <c r="H82" s="343">
         <v>1</v>
       </c>
-      <c r="I82" s="370">
+      <c r="I82" s="343">
         <v>1</v>
       </c>
-      <c r="J82" s="371">
+      <c r="J82" s="344">
         <v>1</v>
       </c>
       <c r="K82" s="93"/>
       <c r="L82" s="94"/>
       <c r="M82" s="94"/>
       <c r="N82" s="95"/>
-      <c r="O82" s="369">
+      <c r="O82" s="342">
         <v>1</v>
       </c>
-      <c r="P82" s="370">
+      <c r="P82" s="343">
         <v>1</v>
       </c>
-      <c r="Q82" s="370">
+      <c r="Q82" s="343">
         <v>1</v>
       </c>
-      <c r="R82" s="371">
+      <c r="R82" s="344">
         <v>1</v>
       </c>
       <c r="S82" s="99">
@@ -22512,11 +22512,11 @@
       </c>
       <c r="AI82" s="163"/>
       <c r="AJ82" s="156" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>R-WH_Att_OILLPG_N1</v>
       </c>
       <c r="AK82" s="156" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve">Residential Liquid Petroleum Gas Water Heater </v>
       </c>
       <c r="AL82" s="157" t="s">
@@ -22544,32 +22544,32 @@
       <c r="F83" s="74" t="s">
         <v>801</v>
       </c>
-      <c r="G83" s="382">
+      <c r="G83" s="355">
         <v>1</v>
       </c>
-      <c r="H83" s="383">
+      <c r="H83" s="356">
         <v>1</v>
       </c>
-      <c r="I83" s="383">
+      <c r="I83" s="356">
         <v>1</v>
       </c>
-      <c r="J83" s="384">
+      <c r="J83" s="357">
         <v>1</v>
       </c>
       <c r="K83" s="96"/>
       <c r="L83" s="97"/>
       <c r="M83" s="97"/>
       <c r="N83" s="98"/>
-      <c r="O83" s="382">
+      <c r="O83" s="355">
         <v>1</v>
       </c>
-      <c r="P83" s="383">
+      <c r="P83" s="356">
         <v>1</v>
       </c>
-      <c r="Q83" s="383">
+      <c r="Q83" s="356">
         <v>1</v>
       </c>
-      <c r="R83" s="384">
+      <c r="R83" s="357">
         <v>1</v>
       </c>
       <c r="S83" s="102">
@@ -22680,16 +22680,16 @@
       <c r="L85" s="94"/>
       <c r="M85" s="94"/>
       <c r="N85" s="95"/>
-      <c r="O85" s="369">
+      <c r="O85" s="342">
         <v>1</v>
       </c>
-      <c r="P85" s="370">
+      <c r="P85" s="343">
         <v>1</v>
       </c>
-      <c r="Q85" s="370">
+      <c r="Q85" s="343">
         <v>1</v>
       </c>
-      <c r="R85" s="371">
+      <c r="R85" s="344">
         <v>1</v>
       </c>
       <c r="S85" s="99">
@@ -22746,16 +22746,16 @@
       <c r="L86" s="79"/>
       <c r="M86" s="79"/>
       <c r="N86" s="92"/>
-      <c r="O86" s="366">
+      <c r="O86" s="339">
         <v>1</v>
       </c>
-      <c r="P86" s="367">
+      <c r="P86" s="340">
         <v>1</v>
       </c>
-      <c r="Q86" s="367">
+      <c r="Q86" s="340">
         <v>1</v>
       </c>
-      <c r="R86" s="368">
+      <c r="R86" s="341">
         <v>1</v>
       </c>
       <c r="S86" s="100">
@@ -22814,16 +22814,16 @@
       <c r="L87" s="78"/>
       <c r="M87" s="78"/>
       <c r="N87" s="90"/>
-      <c r="O87" s="363">
+      <c r="O87" s="336">
         <v>0.7</v>
       </c>
-      <c r="P87" s="364">
+      <c r="P87" s="337">
         <v>0.7</v>
       </c>
-      <c r="Q87" s="364">
+      <c r="Q87" s="337">
         <v>0.7</v>
       </c>
-      <c r="R87" s="365">
+      <c r="R87" s="338">
         <v>0.7</v>
       </c>
       <c r="S87" s="101">
@@ -22880,16 +22880,16 @@
       <c r="L88" s="79"/>
       <c r="M88" s="79"/>
       <c r="N88" s="92"/>
-      <c r="O88" s="366">
+      <c r="O88" s="339">
         <v>0.7</v>
       </c>
-      <c r="P88" s="367">
+      <c r="P88" s="340">
         <v>0.7</v>
       </c>
-      <c r="Q88" s="367">
+      <c r="Q88" s="340">
         <v>0.7</v>
       </c>
-      <c r="R88" s="368">
+      <c r="R88" s="341">
         <v>0.7</v>
       </c>
       <c r="S88" s="100">
@@ -22938,24 +22938,24 @@
       <c r="F89" s="138" t="s">
         <v>436</v>
       </c>
-      <c r="G89" s="375"/>
-      <c r="H89" s="376"/>
-      <c r="I89" s="376"/>
+      <c r="G89" s="348"/>
+      <c r="H89" s="349"/>
+      <c r="I89" s="349"/>
       <c r="J89" s="150"/>
-      <c r="K89" s="375"/>
-      <c r="L89" s="376"/>
-      <c r="M89" s="376"/>
+      <c r="K89" s="348"/>
+      <c r="L89" s="349"/>
+      <c r="M89" s="349"/>
       <c r="N89" s="150"/>
-      <c r="O89" s="372">
+      <c r="O89" s="345">
         <v>0.7</v>
       </c>
-      <c r="P89" s="373">
+      <c r="P89" s="346">
         <v>0.7</v>
       </c>
-      <c r="Q89" s="373">
+      <c r="Q89" s="346">
         <v>0.7</v>
       </c>
-      <c r="R89" s="374">
+      <c r="R89" s="347">
         <v>0.7</v>
       </c>
       <c r="S89" s="149">
@@ -23043,16 +23043,16 @@
       <c r="H91" s="165"/>
       <c r="I91" s="165"/>
       <c r="J91" s="165"/>
-      <c r="K91" s="387">
+      <c r="K91" s="360">
         <v>1</v>
       </c>
-      <c r="L91" s="388">
+      <c r="L91" s="361">
         <v>1.1559999999999999</v>
       </c>
-      <c r="M91" s="388">
+      <c r="M91" s="361">
         <v>1.25</v>
       </c>
-      <c r="N91" s="389">
+      <c r="N91" s="362">
         <v>1.25</v>
       </c>
       <c r="O91" s="165"/>
@@ -23213,34 +23213,34 @@
       <c r="F98" s="63" t="s">
         <v>335</v>
       </c>
-      <c r="G98" s="359" t="s">
+      <c r="G98" s="389" t="s">
         <v>336</v>
       </c>
-      <c r="H98" s="360"/>
-      <c r="I98" s="360"/>
-      <c r="J98" s="361"/>
-      <c r="K98" s="359" t="s">
+      <c r="H98" s="390"/>
+      <c r="I98" s="390"/>
+      <c r="J98" s="391"/>
+      <c r="K98" s="389" t="s">
         <v>337</v>
       </c>
-      <c r="L98" s="360"/>
-      <c r="M98" s="360"/>
-      <c r="N98" s="361"/>
-      <c r="O98" s="359" t="s">
+      <c r="L98" s="390"/>
+      <c r="M98" s="390"/>
+      <c r="N98" s="391"/>
+      <c r="O98" s="389" t="s">
         <v>338</v>
       </c>
-      <c r="P98" s="360"/>
-      <c r="Q98" s="360"/>
-      <c r="R98" s="361"/>
-      <c r="S98" s="359" t="s">
+      <c r="P98" s="390"/>
+      <c r="Q98" s="390"/>
+      <c r="R98" s="391"/>
+      <c r="S98" s="389" t="s">
         <v>339</v>
       </c>
-      <c r="T98" s="361"/>
-      <c r="U98" s="353" t="s">
+      <c r="T98" s="391"/>
+      <c r="U98" s="383" t="s">
         <v>340</v>
       </c>
-      <c r="V98" s="354"/>
-      <c r="W98" s="354"/>
-      <c r="X98" s="355"/>
+      <c r="V98" s="384"/>
+      <c r="W98" s="384"/>
+      <c r="X98" s="385"/>
       <c r="Y98" s="107"/>
       <c r="Z98" s="107"/>
       <c r="AA98" s="115" t="s">
@@ -23347,34 +23347,34 @@
       <c r="D100" s="85"/>
       <c r="E100" s="85"/>
       <c r="F100" s="86"/>
-      <c r="G100" s="356" t="s">
+      <c r="G100" s="386" t="s">
         <v>56</v>
       </c>
-      <c r="H100" s="357"/>
-      <c r="I100" s="357"/>
-      <c r="J100" s="358"/>
-      <c r="K100" s="357" t="s">
+      <c r="H100" s="387"/>
+      <c r="I100" s="387"/>
+      <c r="J100" s="388"/>
+      <c r="K100" s="387" t="s">
         <v>56</v>
       </c>
-      <c r="L100" s="357"/>
-      <c r="M100" s="357"/>
-      <c r="N100" s="358"/>
-      <c r="O100" s="356" t="s">
+      <c r="L100" s="387"/>
+      <c r="M100" s="387"/>
+      <c r="N100" s="388"/>
+      <c r="O100" s="386" t="s">
         <v>56</v>
       </c>
-      <c r="P100" s="357"/>
-      <c r="Q100" s="357"/>
-      <c r="R100" s="358"/>
-      <c r="S100" s="356" t="s">
+      <c r="P100" s="387"/>
+      <c r="Q100" s="387"/>
+      <c r="R100" s="388"/>
+      <c r="S100" s="386" t="s">
         <v>313</v>
       </c>
-      <c r="T100" s="358"/>
-      <c r="U100" s="356" t="s">
+      <c r="T100" s="388"/>
+      <c r="U100" s="386" t="s">
         <v>346</v>
       </c>
-      <c r="V100" s="357"/>
-      <c r="W100" s="357"/>
-      <c r="X100" s="358"/>
+      <c r="V100" s="387"/>
+      <c r="W100" s="387"/>
+      <c r="X100" s="388"/>
       <c r="Y100" s="108" t="s">
         <v>347</v>
       </c>
@@ -23436,26 +23436,26 @@
       <c r="F101" s="76" t="s">
         <v>441</v>
       </c>
-      <c r="G101" s="369">
+      <c r="G101" s="342">
         <v>1</v>
       </c>
-      <c r="H101" s="370">
+      <c r="H101" s="343">
         <v>1</v>
       </c>
-      <c r="I101" s="370">
+      <c r="I101" s="343">
         <v>1</v>
       </c>
-      <c r="J101" s="371">
+      <c r="J101" s="344">
         <v>1</v>
       </c>
       <c r="K101" s="93"/>
       <c r="L101" s="94"/>
       <c r="M101" s="94"/>
       <c r="N101" s="95"/>
-      <c r="O101" s="369"/>
-      <c r="P101" s="370"/>
-      <c r="Q101" s="370"/>
-      <c r="R101" s="371"/>
+      <c r="O101" s="342"/>
+      <c r="P101" s="343"/>
+      <c r="Q101" s="343"/>
+      <c r="R101" s="344"/>
       <c r="S101" s="99">
         <v>20</v>
       </c>
@@ -23489,11 +23489,11 @@
       </c>
       <c r="AI101" s="154"/>
       <c r="AJ101" s="153" t="str">
-        <f t="shared" ref="AJ101:AJ111" si="42">C102</f>
+        <f t="shared" ref="AJ101:AJ111" si="43">C102</f>
         <v>R-H_Det_OILKER_N1</v>
       </c>
       <c r="AK101" s="153" t="str">
-        <f t="shared" ref="AK101:AK111" si="43">D102</f>
+        <f t="shared" ref="AK101:AK111" si="44">D102</f>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AL101" s="154" t="s">
@@ -23521,36 +23521,36 @@
       <c r="F102" s="70" t="s">
         <v>803</v>
       </c>
-      <c r="G102" s="366">
+      <c r="G102" s="339">
         <v>1</v>
       </c>
-      <c r="H102" s="367">
+      <c r="H102" s="340">
         <v>1</v>
       </c>
-      <c r="I102" s="367">
+      <c r="I102" s="340">
         <v>1</v>
       </c>
-      <c r="J102" s="368">
+      <c r="J102" s="341">
         <v>1</v>
       </c>
       <c r="K102" s="91"/>
       <c r="L102" s="79"/>
       <c r="M102" s="79"/>
       <c r="N102" s="92"/>
-      <c r="O102" s="366">
+      <c r="O102" s="339">
         <f>G102*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P102" s="367">
-        <f t="shared" ref="P102:P104" si="44">H102*0.7</f>
+      <c r="P102" s="340">
+        <f t="shared" ref="P102:P104" si="45">H102*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="Q102" s="367">
-        <f t="shared" ref="Q102:Q104" si="45">I102*0.7</f>
+      <c r="Q102" s="340">
+        <f t="shared" ref="Q102:Q104" si="46">I102*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="R102" s="368">
-        <f t="shared" ref="R102:R104" si="46">J102*0.7</f>
+      <c r="R102" s="341">
+        <f t="shared" ref="R102:R104" si="47">J102*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S102" s="100">
@@ -23586,11 +23586,11 @@
       </c>
       <c r="AI102" s="154"/>
       <c r="AJ102" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>R-H_Det_OILKER_N2</v>
       </c>
       <c r="AK102" s="153" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
       <c r="AL102" s="154" t="s">
@@ -23618,36 +23618,36 @@
       <c r="F103" s="76" t="s">
         <v>803</v>
       </c>
-      <c r="G103" s="363">
+      <c r="G103" s="336">
         <v>1</v>
       </c>
-      <c r="H103" s="364">
+      <c r="H103" s="337">
         <v>1</v>
       </c>
-      <c r="I103" s="364">
+      <c r="I103" s="337">
         <v>1</v>
       </c>
-      <c r="J103" s="365">
+      <c r="J103" s="338">
         <v>1</v>
       </c>
       <c r="K103" s="89"/>
       <c r="L103" s="78"/>
       <c r="M103" s="78"/>
       <c r="N103" s="90"/>
-      <c r="O103" s="363">
+      <c r="O103" s="336">
         <f>G103*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P103" s="364">
-        <f t="shared" si="44"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q103" s="364">
+      <c r="P103" s="337">
         <f t="shared" si="45"/>
         <v>0.7</v>
       </c>
-      <c r="R103" s="365">
+      <c r="Q103" s="337">
         <f t="shared" si="46"/>
+        <v>0.7</v>
+      </c>
+      <c r="R103" s="338">
+        <f t="shared" si="47"/>
         <v>0.7</v>
       </c>
       <c r="S103" s="101">
@@ -23687,11 +23687,11 @@
       </c>
       <c r="AI103" s="154"/>
       <c r="AJ103" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>R-H_Det_OILKER_N3</v>
       </c>
       <c r="AK103" s="153" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
       <c r="AL103" s="155" t="s">
@@ -23717,36 +23717,36 @@
       <c r="F104" s="70" t="s">
         <v>803</v>
       </c>
-      <c r="G104" s="366">
+      <c r="G104" s="339">
         <v>1</v>
       </c>
-      <c r="H104" s="367">
+      <c r="H104" s="340">
         <v>1.0249999999999999</v>
       </c>
-      <c r="I104" s="367">
+      <c r="I104" s="340">
         <v>1.0249999999999999</v>
       </c>
-      <c r="J104" s="368">
+      <c r="J104" s="341">
         <v>1.0249999999999999</v>
       </c>
       <c r="K104" s="91"/>
       <c r="L104" s="79"/>
       <c r="M104" s="79"/>
       <c r="N104" s="92"/>
-      <c r="O104" s="366">
+      <c r="O104" s="339">
         <f>G104*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P104" s="367">
-        <f t="shared" si="44"/>
-        <v>0.71749999999999992</v>
-      </c>
-      <c r="Q104" s="367">
+      <c r="P104" s="340">
         <f t="shared" si="45"/>
         <v>0.71749999999999992</v>
       </c>
-      <c r="R104" s="368">
+      <c r="Q104" s="340">
         <f t="shared" si="46"/>
+        <v>0.71749999999999992</v>
+      </c>
+      <c r="R104" s="341">
+        <f t="shared" si="47"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S104" s="100">
@@ -23786,11 +23786,11 @@
       </c>
       <c r="AI104" s="154"/>
       <c r="AJ104" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>R-SH_Det_GASNAT_N1</v>
       </c>
       <c r="AK104" s="153" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AL104" s="154" t="s">
@@ -23818,26 +23818,26 @@
       <c r="F105" s="76" t="s">
         <v>441</v>
       </c>
-      <c r="G105" s="363">
+      <c r="G105" s="336">
         <v>1</v>
       </c>
-      <c r="H105" s="364">
+      <c r="H105" s="337">
         <v>1</v>
       </c>
-      <c r="I105" s="364">
+      <c r="I105" s="337">
         <v>1</v>
       </c>
-      <c r="J105" s="365">
+      <c r="J105" s="338">
         <v>1</v>
       </c>
       <c r="K105" s="89"/>
       <c r="L105" s="78"/>
       <c r="M105" s="78"/>
       <c r="N105" s="90"/>
-      <c r="O105" s="363"/>
-      <c r="P105" s="364"/>
-      <c r="Q105" s="364"/>
-      <c r="R105" s="365"/>
+      <c r="O105" s="336"/>
+      <c r="P105" s="337"/>
+      <c r="Q105" s="337"/>
+      <c r="R105" s="338"/>
       <c r="S105" s="101">
         <v>20</v>
       </c>
@@ -23871,11 +23871,11 @@
       </c>
       <c r="AI105" s="154"/>
       <c r="AJ105" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>R-H_Det_GASNAT_N1</v>
       </c>
       <c r="AK105" s="153" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AL105" s="154" t="s">
@@ -23903,36 +23903,36 @@
       <c r="F106" s="70" t="s">
         <v>803</v>
       </c>
-      <c r="G106" s="366">
+      <c r="G106" s="339">
         <v>1</v>
       </c>
-      <c r="H106" s="367">
+      <c r="H106" s="340">
         <v>1</v>
       </c>
-      <c r="I106" s="367">
+      <c r="I106" s="340">
         <v>1</v>
       </c>
-      <c r="J106" s="368">
+      <c r="J106" s="341">
         <v>1</v>
       </c>
       <c r="K106" s="91"/>
       <c r="L106" s="79"/>
       <c r="M106" s="79"/>
       <c r="N106" s="92"/>
-      <c r="O106" s="366">
+      <c r="O106" s="339">
         <f>G106*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P106" s="367">
-        <f t="shared" ref="P106:P108" si="47">H106*0.7</f>
+      <c r="P106" s="340">
+        <f t="shared" ref="P106:P108" si="48">H106*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="Q106" s="367">
-        <f t="shared" ref="Q106:Q108" si="48">I106*0.7</f>
+      <c r="Q106" s="340">
+        <f t="shared" ref="Q106:Q108" si="49">I106*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="R106" s="368">
-        <f t="shared" ref="R106:R108" si="49">J106*0.7</f>
+      <c r="R106" s="341">
+        <f t="shared" ref="R106:R108" si="50">J106*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S106" s="100">
@@ -23968,11 +23968,11 @@
       </c>
       <c r="AI106" s="154"/>
       <c r="AJ106" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>R-H_Det_GASNAT_N2</v>
       </c>
       <c r="AK106" s="153" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
       <c r="AL106" s="154" t="s">
@@ -24000,36 +24000,36 @@
       <c r="F107" s="76" t="s">
         <v>803</v>
       </c>
-      <c r="G107" s="363">
+      <c r="G107" s="336">
         <v>1</v>
       </c>
-      <c r="H107" s="364">
+      <c r="H107" s="337">
         <v>1</v>
       </c>
-      <c r="I107" s="364">
+      <c r="I107" s="337">
         <v>1</v>
       </c>
-      <c r="J107" s="365">
+      <c r="J107" s="338">
         <v>1</v>
       </c>
       <c r="K107" s="89"/>
       <c r="L107" s="78"/>
       <c r="M107" s="78"/>
       <c r="N107" s="90"/>
-      <c r="O107" s="363">
+      <c r="O107" s="336">
         <f>G107*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P107" s="364">
-        <f t="shared" si="47"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q107" s="364">
+      <c r="P107" s="337">
         <f t="shared" si="48"/>
         <v>0.7</v>
       </c>
-      <c r="R107" s="365">
+      <c r="Q107" s="337">
         <f t="shared" si="49"/>
+        <v>0.7</v>
+      </c>
+      <c r="R107" s="338">
+        <f t="shared" si="50"/>
         <v>0.7</v>
       </c>
       <c r="S107" s="101">
@@ -24069,11 +24069,11 @@
       </c>
       <c r="AI107" s="154"/>
       <c r="AJ107" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>R-H_Det_GASNAT_N3</v>
       </c>
       <c r="AK107" s="153" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
       <c r="AL107" s="154" t="s">
@@ -24101,36 +24101,36 @@
       <c r="F108" s="70" t="s">
         <v>803</v>
       </c>
-      <c r="G108" s="366">
+      <c r="G108" s="339">
         <v>1</v>
       </c>
-      <c r="H108" s="367">
+      <c r="H108" s="340">
         <v>1.0249999999999999</v>
       </c>
-      <c r="I108" s="367">
+      <c r="I108" s="340">
         <v>1.0249999999999999</v>
       </c>
-      <c r="J108" s="368">
+      <c r="J108" s="341">
         <v>1.0249999999999999</v>
       </c>
       <c r="K108" s="91"/>
       <c r="L108" s="79"/>
       <c r="M108" s="79"/>
       <c r="N108" s="92"/>
-      <c r="O108" s="366">
+      <c r="O108" s="339">
         <f>G108*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P108" s="367">
-        <f t="shared" si="47"/>
-        <v>0.71749999999999992</v>
-      </c>
-      <c r="Q108" s="367">
+      <c r="P108" s="340">
         <f t="shared" si="48"/>
         <v>0.71749999999999992</v>
       </c>
-      <c r="R108" s="368">
+      <c r="Q108" s="340">
         <f t="shared" si="49"/>
+        <v>0.71749999999999992</v>
+      </c>
+      <c r="R108" s="341">
+        <f t="shared" si="50"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S108" s="100">
@@ -24170,11 +24170,11 @@
       </c>
       <c r="AI108" s="154"/>
       <c r="AJ108" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>R-SH_Det_OILLPG_N1</v>
       </c>
       <c r="AK108" s="153" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AL108" s="154" t="s">
@@ -24202,26 +24202,26 @@
       <c r="F109" s="76" t="s">
         <v>441</v>
       </c>
-      <c r="G109" s="363">
+      <c r="G109" s="336">
         <v>1</v>
       </c>
-      <c r="H109" s="364">
+      <c r="H109" s="337">
         <v>1</v>
       </c>
-      <c r="I109" s="364">
+      <c r="I109" s="337">
         <v>1</v>
       </c>
-      <c r="J109" s="365">
+      <c r="J109" s="338">
         <v>1</v>
       </c>
       <c r="K109" s="89"/>
       <c r="L109" s="78"/>
       <c r="M109" s="78"/>
       <c r="N109" s="90"/>
-      <c r="O109" s="363"/>
-      <c r="P109" s="364"/>
-      <c r="Q109" s="364"/>
-      <c r="R109" s="365"/>
+      <c r="O109" s="336"/>
+      <c r="P109" s="337"/>
+      <c r="Q109" s="337"/>
+      <c r="R109" s="338"/>
       <c r="S109" s="101">
         <v>20</v>
       </c>
@@ -24255,11 +24255,11 @@
       </c>
       <c r="AI109" s="154"/>
       <c r="AJ109" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>R-H_Det_OILLPG_N1</v>
       </c>
       <c r="AK109" s="153" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AL109" s="154" t="s">
@@ -24287,36 +24287,36 @@
       <c r="F110" s="70" t="s">
         <v>803</v>
       </c>
-      <c r="G110" s="366">
+      <c r="G110" s="339">
         <v>1</v>
       </c>
-      <c r="H110" s="367">
+      <c r="H110" s="340">
         <v>1</v>
       </c>
-      <c r="I110" s="367">
+      <c r="I110" s="340">
         <v>1</v>
       </c>
-      <c r="J110" s="368">
+      <c r="J110" s="341">
         <v>1</v>
       </c>
       <c r="K110" s="91"/>
       <c r="L110" s="79"/>
       <c r="M110" s="79"/>
       <c r="N110" s="92"/>
-      <c r="O110" s="366">
+      <c r="O110" s="339">
         <f>G110*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P110" s="367">
-        <f t="shared" ref="P110" si="50">H110*0.7</f>
+      <c r="P110" s="340">
+        <f t="shared" ref="P110" si="51">H110*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="Q110" s="367">
-        <f t="shared" ref="Q110" si="51">I110*0.7</f>
+      <c r="Q110" s="340">
+        <f t="shared" ref="Q110" si="52">I110*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="R110" s="368">
-        <f t="shared" ref="R110" si="52">J110*0.7</f>
+      <c r="R110" s="341">
+        <f t="shared" ref="R110" si="53">J110*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S110" s="100">
@@ -24352,11 +24352,11 @@
       </c>
       <c r="AI110" s="154"/>
       <c r="AJ110" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>R-SH_Det_BIOWOO_N1</v>
       </c>
       <c r="AK110" s="153" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AL110" s="154" t="s">
@@ -24384,26 +24384,26 @@
       <c r="F111" s="76" t="s">
         <v>441</v>
       </c>
-      <c r="G111" s="363">
+      <c r="G111" s="336">
         <v>1</v>
       </c>
-      <c r="H111" s="364">
+      <c r="H111" s="337">
         <v>1</v>
       </c>
-      <c r="I111" s="364">
+      <c r="I111" s="337">
         <v>1</v>
       </c>
-      <c r="J111" s="365">
+      <c r="J111" s="338">
         <v>1</v>
       </c>
       <c r="K111" s="89"/>
       <c r="L111" s="78"/>
       <c r="M111" s="78"/>
       <c r="N111" s="90"/>
-      <c r="O111" s="363"/>
-      <c r="P111" s="364"/>
-      <c r="Q111" s="364"/>
-      <c r="R111" s="365"/>
+      <c r="O111" s="336"/>
+      <c r="P111" s="337"/>
+      <c r="Q111" s="337"/>
+      <c r="R111" s="338"/>
       <c r="S111" s="101">
         <v>20</v>
       </c>
@@ -24437,11 +24437,11 @@
       </c>
       <c r="AI111" s="157"/>
       <c r="AJ111" s="156" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>R-H_Det_BIOWOO_N1</v>
       </c>
       <c r="AK111" s="156" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AL111" s="157" t="s">
@@ -24469,35 +24469,35 @@
       <c r="F112" s="73" t="s">
         <v>803</v>
       </c>
-      <c r="G112" s="366">
+      <c r="G112" s="339">
         <v>1</v>
       </c>
-      <c r="H112" s="367">
+      <c r="H112" s="340">
         <v>1</v>
       </c>
-      <c r="I112" s="367">
+      <c r="I112" s="340">
         <v>1</v>
       </c>
-      <c r="J112" s="368">
+      <c r="J112" s="341">
         <v>1</v>
       </c>
       <c r="K112" s="91"/>
       <c r="L112" s="79"/>
       <c r="M112" s="79"/>
       <c r="N112" s="92"/>
-      <c r="O112" s="366">
+      <c r="O112" s="339">
         <f>G112*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P112" s="367">
+      <c r="P112" s="340">
         <f>H112*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="Q112" s="367">
+      <c r="Q112" s="340">
         <f>I112*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="R112" s="368">
+      <c r="R112" s="341">
         <f>J112*0.7</f>
         <v>0.7</v>
       </c>
@@ -24588,11 +24588,11 @@
       <c r="AG113" s="81"/>
       <c r="AI113" s="152"/>
       <c r="AJ113" s="151" t="str">
-        <f t="shared" ref="AJ113:AK119" si="53">C116</f>
+        <f t="shared" ref="AJ113:AK119" si="54">C116</f>
         <v>R-SH_Det_RSDELC_HPN1</v>
       </c>
       <c r="AK113" s="151" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AL113" s="152" t="s">
@@ -24620,16 +24620,16 @@
       <c r="F114" s="70" t="s">
         <v>441</v>
       </c>
-      <c r="G114" s="378">
+      <c r="G114" s="351">
         <v>1</v>
       </c>
-      <c r="H114" s="379">
+      <c r="H114" s="352">
         <v>1</v>
       </c>
-      <c r="I114" s="379">
+      <c r="I114" s="352">
         <v>1</v>
       </c>
-      <c r="J114" s="380">
+      <c r="J114" s="353">
         <v>1</v>
       </c>
       <c r="K114" s="122"/>
@@ -24673,11 +24673,11 @@
       </c>
       <c r="AI114" s="154"/>
       <c r="AJ114" s="153" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>R-HC_Det_RSDELC_HPN1</v>
       </c>
       <c r="AK114" s="153" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AL114" s="154" t="s">
@@ -24727,11 +24727,11 @@
       <c r="AG115" s="81"/>
       <c r="AI115" s="154"/>
       <c r="AJ115" s="153" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>R-SH_Det_RSDELC_HPN2</v>
       </c>
       <c r="AK115" s="153" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AL115" s="154" t="s">
@@ -24759,22 +24759,22 @@
       <c r="F116" s="76" t="s">
         <v>441</v>
       </c>
-      <c r="G116" s="369">
+      <c r="G116" s="342">
         <v>1</v>
       </c>
-      <c r="H116" s="370">
+      <c r="H116" s="343">
         <v>1.1559999999999999</v>
       </c>
-      <c r="I116" s="370">
+      <c r="I116" s="343">
         <v>1.25</v>
       </c>
-      <c r="J116" s="371">
+      <c r="J116" s="344">
         <v>1.25</v>
       </c>
-      <c r="K116" s="369"/>
-      <c r="L116" s="370"/>
-      <c r="M116" s="370"/>
-      <c r="N116" s="371"/>
+      <c r="K116" s="342"/>
+      <c r="L116" s="343"/>
+      <c r="M116" s="343"/>
+      <c r="N116" s="344"/>
       <c r="O116" s="93"/>
       <c r="P116" s="94"/>
       <c r="Q116" s="94"/>
@@ -24812,11 +24812,11 @@
       </c>
       <c r="AI116" s="154"/>
       <c r="AJ116" s="153" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>R-H_Det_RSDELC_HPN1</v>
       </c>
       <c r="AK116" s="153" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AL116" s="154" t="s">
@@ -24844,28 +24844,28 @@
       <c r="F117" s="70" t="s">
         <v>804</v>
       </c>
-      <c r="G117" s="366">
+      <c r="G117" s="339">
         <v>1</v>
       </c>
-      <c r="H117" s="367">
+      <c r="H117" s="340">
         <v>1.1559999999999999</v>
       </c>
-      <c r="I117" s="367">
+      <c r="I117" s="340">
         <v>1.25</v>
       </c>
-      <c r="J117" s="368">
+      <c r="J117" s="341">
         <v>1.25</v>
       </c>
-      <c r="K117" s="366">
+      <c r="K117" s="339">
         <v>1</v>
       </c>
-      <c r="L117" s="367">
+      <c r="L117" s="340">
         <v>1.1559999999999999</v>
       </c>
-      <c r="M117" s="367">
+      <c r="M117" s="340">
         <v>1.25</v>
       </c>
-      <c r="N117" s="368">
+      <c r="N117" s="341">
         <v>1.25</v>
       </c>
       <c r="O117" s="91"/>
@@ -24905,11 +24905,11 @@
       </c>
       <c r="AI117" s="304"/>
       <c r="AJ117" s="153" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>R-H_Det_RENSOL_HPN2</v>
       </c>
       <c r="AK117" s="153" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
       <c r="AL117" s="154" t="s">
@@ -24937,22 +24937,22 @@
       <c r="F118" s="76" t="s">
         <v>441</v>
       </c>
-      <c r="G118" s="363">
+      <c r="G118" s="336">
         <v>1</v>
       </c>
-      <c r="H118" s="364">
+      <c r="H118" s="337">
         <v>1.1200000000000001</v>
       </c>
-      <c r="I118" s="364">
+      <c r="I118" s="337">
         <v>1.21</v>
       </c>
-      <c r="J118" s="365">
+      <c r="J118" s="338">
         <v>1.21</v>
       </c>
-      <c r="K118" s="363"/>
-      <c r="L118" s="364"/>
-      <c r="M118" s="364"/>
-      <c r="N118" s="365"/>
+      <c r="K118" s="336"/>
+      <c r="L118" s="337"/>
+      <c r="M118" s="337"/>
+      <c r="N118" s="338"/>
       <c r="O118" s="89"/>
       <c r="P118" s="78"/>
       <c r="Q118" s="78"/>
@@ -24990,11 +24990,11 @@
       </c>
       <c r="AI118" s="304"/>
       <c r="AJ118" s="153" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>R-SH_Det_RSDELC_HPN3</v>
       </c>
       <c r="AK118" s="153" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AL118" s="154" t="s">
@@ -25022,36 +25022,36 @@
       <c r="F119" s="70" t="s">
         <v>803</v>
       </c>
-      <c r="G119" s="366">
+      <c r="G119" s="339">
         <v>1</v>
       </c>
-      <c r="H119" s="367">
+      <c r="H119" s="340">
         <v>1.1200000000000001</v>
       </c>
-      <c r="I119" s="367">
+      <c r="I119" s="340">
         <v>1.21</v>
       </c>
-      <c r="J119" s="368">
+      <c r="J119" s="341">
         <v>1.21</v>
       </c>
-      <c r="K119" s="366"/>
-      <c r="L119" s="367"/>
-      <c r="M119" s="367"/>
-      <c r="N119" s="368"/>
-      <c r="O119" s="366">
+      <c r="K119" s="339"/>
+      <c r="L119" s="340"/>
+      <c r="M119" s="340"/>
+      <c r="N119" s="341"/>
+      <c r="O119" s="339">
         <f>G119*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P119" s="367">
-        <f t="shared" ref="P119:P120" si="54">H119*0.7</f>
+      <c r="P119" s="340">
+        <f t="shared" ref="P119:P120" si="55">H119*0.7</f>
         <v>0.78400000000000003</v>
       </c>
-      <c r="Q119" s="367">
-        <f t="shared" ref="Q119:Q120" si="55">I119*0.7</f>
+      <c r="Q119" s="340">
+        <f t="shared" ref="Q119:Q120" si="56">I119*0.7</f>
         <v>0.84699999999999998</v>
       </c>
-      <c r="R119" s="368">
-        <f t="shared" ref="R119:R120" si="56">J119*0.7</f>
+      <c r="R119" s="341">
+        <f t="shared" ref="R119:R120" si="57">J119*0.7</f>
         <v>0.84699999999999998</v>
       </c>
       <c r="S119" s="100">
@@ -25087,11 +25087,11 @@
       </c>
       <c r="AI119" s="160"/>
       <c r="AJ119" s="156" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>R-HC_Det_RSDELC_HPN2</v>
       </c>
       <c r="AK119" s="156" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AL119" s="157" t="s">
@@ -25119,36 +25119,36 @@
       <c r="F120" s="76" t="s">
         <v>803</v>
       </c>
-      <c r="G120" s="363">
+      <c r="G120" s="336">
         <v>1</v>
       </c>
-      <c r="H120" s="364">
+      <c r="H120" s="337">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I120" s="364">
+      <c r="I120" s="337">
         <v>1.19</v>
       </c>
-      <c r="J120" s="365">
+      <c r="J120" s="338">
         <v>1.19</v>
       </c>
-      <c r="K120" s="363"/>
-      <c r="L120" s="364"/>
-      <c r="M120" s="364"/>
-      <c r="N120" s="365"/>
-      <c r="O120" s="363">
+      <c r="K120" s="336"/>
+      <c r="L120" s="337"/>
+      <c r="M120" s="337"/>
+      <c r="N120" s="338"/>
+      <c r="O120" s="336">
         <f>G120*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P120" s="364">
-        <f t="shared" si="54"/>
+      <c r="P120" s="337">
+        <f t="shared" si="55"/>
         <v>0.77700000000000002</v>
       </c>
-      <c r="Q120" s="364">
-        <f t="shared" si="55"/>
+      <c r="Q120" s="337">
+        <f t="shared" si="56"/>
         <v>0.83299999999999996</v>
       </c>
-      <c r="R120" s="365">
-        <f t="shared" si="56"/>
+      <c r="R120" s="338">
+        <f t="shared" si="57"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S120" s="101">
@@ -25220,22 +25220,22 @@
       <c r="F121" s="70" t="s">
         <v>441</v>
       </c>
-      <c r="G121" s="366">
+      <c r="G121" s="339">
         <v>1</v>
       </c>
-      <c r="H121" s="367">
+      <c r="H121" s="340">
         <v>1</v>
       </c>
-      <c r="I121" s="367">
+      <c r="I121" s="340">
         <v>1</v>
       </c>
-      <c r="J121" s="368">
+      <c r="J121" s="341">
         <v>1</v>
       </c>
-      <c r="K121" s="366"/>
-      <c r="L121" s="367"/>
-      <c r="M121" s="367"/>
-      <c r="N121" s="368"/>
+      <c r="K121" s="339"/>
+      <c r="L121" s="340"/>
+      <c r="M121" s="340"/>
+      <c r="N121" s="341"/>
       <c r="O121" s="91"/>
       <c r="P121" s="79"/>
       <c r="Q121" s="79"/>
@@ -25305,33 +25305,33 @@
       <c r="F122" s="76" t="s">
         <v>804</v>
       </c>
-      <c r="G122" s="372">
+      <c r="G122" s="345">
         <v>1</v>
       </c>
-      <c r="H122" s="373">
+      <c r="H122" s="346">
         <v>1</v>
       </c>
-      <c r="I122" s="373">
+      <c r="I122" s="346">
         <v>1</v>
       </c>
-      <c r="J122" s="374">
+      <c r="J122" s="347">
         <v>1</v>
       </c>
-      <c r="K122" s="372">
+      <c r="K122" s="345">
         <v>1</v>
       </c>
-      <c r="L122" s="373">
+      <c r="L122" s="346">
         <v>1</v>
       </c>
-      <c r="M122" s="373">
+      <c r="M122" s="346">
         <v>1</v>
       </c>
-      <c r="N122" s="374">
+      <c r="N122" s="347">
         <v>1</v>
       </c>
-      <c r="O122" s="375"/>
-      <c r="P122" s="376"/>
-      <c r="Q122" s="376"/>
+      <c r="O122" s="348"/>
+      <c r="P122" s="349"/>
+      <c r="Q122" s="349"/>
       <c r="R122" s="150"/>
       <c r="S122" s="101">
         <v>20</v>
@@ -25452,36 +25452,36 @@
       <c r="F124" s="137" t="s">
         <v>803</v>
       </c>
-      <c r="G124" s="369">
+      <c r="G124" s="342">
         <v>1</v>
       </c>
-      <c r="H124" s="370">
+      <c r="H124" s="343">
         <v>1.1719999999999999</v>
       </c>
-      <c r="I124" s="370">
+      <c r="I124" s="343">
         <v>1.1719999999999999</v>
       </c>
-      <c r="J124" s="371">
+      <c r="J124" s="344">
         <v>1.1719999999999999</v>
       </c>
       <c r="K124" s="93"/>
       <c r="L124" s="94"/>
       <c r="M124" s="94"/>
       <c r="N124" s="95"/>
-      <c r="O124" s="369">
+      <c r="O124" s="342">
         <f>G124*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P124" s="370">
-        <f t="shared" ref="P124:P125" si="57">H124*0.7</f>
+      <c r="P124" s="343">
+        <f t="shared" ref="P124:P125" si="58">H124*0.7</f>
         <v>0.82039999999999991</v>
       </c>
-      <c r="Q124" s="370">
-        <f t="shared" ref="Q124:Q125" si="58">I124*0.7</f>
+      <c r="Q124" s="343">
+        <f t="shared" ref="Q124:Q125" si="59">I124*0.7</f>
         <v>0.82039999999999991</v>
       </c>
-      <c r="R124" s="371">
-        <f t="shared" ref="R124:R125" si="59">J124*0.7</f>
+      <c r="R124" s="344">
+        <f t="shared" ref="R124:R125" si="60">J124*0.7</f>
         <v>0.82039999999999991</v>
       </c>
       <c r="S124" s="99">
@@ -25549,36 +25549,36 @@
       <c r="F125" s="74" t="s">
         <v>803</v>
       </c>
-      <c r="G125" s="382">
+      <c r="G125" s="355">
         <v>1</v>
       </c>
-      <c r="H125" s="383">
+      <c r="H125" s="356">
         <v>1</v>
       </c>
-      <c r="I125" s="383">
+      <c r="I125" s="356">
         <v>1.032</v>
       </c>
-      <c r="J125" s="384">
+      <c r="J125" s="357">
         <v>1.032</v>
       </c>
       <c r="K125" s="96"/>
       <c r="L125" s="97"/>
       <c r="M125" s="97"/>
       <c r="N125" s="98"/>
-      <c r="O125" s="382">
+      <c r="O125" s="355">
         <f>G125*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P125" s="383">
-        <f t="shared" si="57"/>
+      <c r="P125" s="356">
+        <f t="shared" si="58"/>
         <v>0.7</v>
       </c>
-      <c r="Q125" s="383">
-        <f t="shared" si="58"/>
+      <c r="Q125" s="356">
+        <f t="shared" si="59"/>
         <v>0.72239999999999993</v>
       </c>
-      <c r="R125" s="384">
-        <f t="shared" si="59"/>
+      <c r="R125" s="357">
+        <f t="shared" si="60"/>
         <v>0.72239999999999993</v>
       </c>
       <c r="S125" s="102">
@@ -25614,11 +25614,11 @@
       </c>
       <c r="AI125" s="307"/>
       <c r="AJ125" s="151" t="str">
-        <f t="shared" ref="AJ125:AK129" si="60">C132</f>
+        <f t="shared" ref="AJ125:AK129" si="61">C132</f>
         <v>R-WH_Det_RSDELC_N1</v>
       </c>
       <c r="AK125" s="151" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v xml:space="preserve">Residential Electric Water Heater </v>
       </c>
       <c r="AL125" s="152" t="s">
@@ -25668,11 +25668,11 @@
       <c r="AG126" s="81"/>
       <c r="AI126" s="4"/>
       <c r="AJ126" s="153" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>R-WH_Det_RENSOL_N1</v>
       </c>
       <c r="AK126" s="153" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v xml:space="preserve">Residential Solar Water Heater </v>
       </c>
       <c r="AL126" s="154" t="s">
@@ -25700,36 +25700,36 @@
       <c r="F127" s="76" t="s">
         <v>803</v>
       </c>
-      <c r="G127" s="382">
+      <c r="G127" s="355">
         <v>1</v>
       </c>
-      <c r="H127" s="383">
+      <c r="H127" s="356">
         <v>1.048</v>
       </c>
-      <c r="I127" s="383">
+      <c r="I127" s="356">
         <v>1.097</v>
       </c>
-      <c r="J127" s="383">
+      <c r="J127" s="356">
         <v>1.161</v>
       </c>
       <c r="K127" s="96"/>
       <c r="L127" s="97"/>
       <c r="M127" s="97"/>
       <c r="N127" s="98"/>
-      <c r="O127" s="382">
+      <c r="O127" s="355">
         <f>G127*0.7</f>
         <v>0.7</v>
       </c>
-      <c r="P127" s="383">
-        <f t="shared" ref="P127" si="61">H127*0.7</f>
+      <c r="P127" s="356">
+        <f t="shared" ref="P127" si="62">H127*0.7</f>
         <v>0.73360000000000003</v>
       </c>
-      <c r="Q127" s="383">
-        <f t="shared" ref="Q127" si="62">I127*0.7</f>
+      <c r="Q127" s="356">
+        <f t="shared" ref="Q127" si="63">I127*0.7</f>
         <v>0.76789999999999992</v>
       </c>
-      <c r="R127" s="384">
-        <f t="shared" ref="R127" si="63">J127*0.7</f>
+      <c r="R127" s="357">
+        <f t="shared" ref="R127" si="64">J127*0.7</f>
         <v>0.81269999999999998</v>
       </c>
       <c r="S127" s="5">
@@ -25769,11 +25769,11 @@
       </c>
       <c r="AI127" s="4"/>
       <c r="AJ127" s="153" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>R-WH_Det_GASNAT_N1</v>
       </c>
       <c r="AK127" s="153" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v xml:space="preserve">Residential Gas Water Heater </v>
       </c>
       <c r="AL127" s="154" t="s">
@@ -25823,11 +25823,11 @@
       <c r="AG128" s="81"/>
       <c r="AI128" s="4"/>
       <c r="AJ128" s="153" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>R-WH_Det_BIOWOO_N1</v>
       </c>
       <c r="AK128" s="153" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v xml:space="preserve">Residential Biomass Water Heater </v>
       </c>
       <c r="AL128" s="154" t="s">
@@ -25855,32 +25855,32 @@
       <c r="F129" s="137" t="s">
         <v>803</v>
       </c>
-      <c r="G129" s="369">
+      <c r="G129" s="342">
         <v>1</v>
       </c>
-      <c r="H129" s="370">
+      <c r="H129" s="343">
         <v>1</v>
       </c>
-      <c r="I129" s="370">
+      <c r="I129" s="343">
         <v>1</v>
       </c>
-      <c r="J129" s="371">
+      <c r="J129" s="344">
         <v>1</v>
       </c>
       <c r="K129" s="93"/>
       <c r="L129" s="94"/>
       <c r="M129" s="94"/>
       <c r="N129" s="95"/>
-      <c r="O129" s="369">
+      <c r="O129" s="342">
         <v>1</v>
       </c>
-      <c r="P129" s="370">
+      <c r="P129" s="343">
         <v>1</v>
       </c>
-      <c r="Q129" s="370">
+      <c r="Q129" s="343">
         <v>1</v>
       </c>
-      <c r="R129" s="371">
+      <c r="R129" s="344">
         <v>1</v>
       </c>
       <c r="S129" s="99">
@@ -25916,11 +25916,11 @@
       </c>
       <c r="AI129" s="163"/>
       <c r="AJ129" s="156" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>R-WH_Det_OILLPG_N1</v>
       </c>
       <c r="AK129" s="156" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v xml:space="preserve">Residential Liquid Petroleum Gas Water Heater </v>
       </c>
       <c r="AL129" s="157" t="s">
@@ -25948,32 +25948,32 @@
       <c r="F130" s="74" t="s">
         <v>803</v>
       </c>
-      <c r="G130" s="382">
+      <c r="G130" s="355">
         <v>1</v>
       </c>
-      <c r="H130" s="383">
+      <c r="H130" s="356">
         <v>1</v>
       </c>
-      <c r="I130" s="383">
+      <c r="I130" s="356">
         <v>1</v>
       </c>
-      <c r="J130" s="384">
+      <c r="J130" s="357">
         <v>1</v>
       </c>
       <c r="K130" s="96"/>
       <c r="L130" s="97"/>
       <c r="M130" s="97"/>
       <c r="N130" s="98"/>
-      <c r="O130" s="382">
+      <c r="O130" s="355">
         <v>1</v>
       </c>
-      <c r="P130" s="383">
+      <c r="P130" s="356">
         <v>1</v>
       </c>
-      <c r="Q130" s="383">
+      <c r="Q130" s="356">
         <v>1</v>
       </c>
-      <c r="R130" s="384">
+      <c r="R130" s="357">
         <v>1</v>
       </c>
       <c r="S130" s="102">
@@ -26084,16 +26084,16 @@
       <c r="L132" s="94"/>
       <c r="M132" s="94"/>
       <c r="N132" s="95"/>
-      <c r="O132" s="369">
+      <c r="O132" s="342">
         <v>1</v>
       </c>
-      <c r="P132" s="370">
+      <c r="P132" s="343">
         <v>1</v>
       </c>
-      <c r="Q132" s="370">
+      <c r="Q132" s="343">
         <v>1</v>
       </c>
-      <c r="R132" s="371">
+      <c r="R132" s="344">
         <v>1</v>
       </c>
       <c r="S132" s="99">
@@ -26150,16 +26150,16 @@
       <c r="L133" s="79"/>
       <c r="M133" s="79"/>
       <c r="N133" s="92"/>
-      <c r="O133" s="366">
+      <c r="O133" s="339">
         <v>1</v>
       </c>
-      <c r="P133" s="367">
+      <c r="P133" s="340">
         <v>1</v>
       </c>
-      <c r="Q133" s="367">
+      <c r="Q133" s="340">
         <v>1</v>
       </c>
-      <c r="R133" s="368">
+      <c r="R133" s="341">
         <v>1</v>
       </c>
       <c r="S133" s="100">
@@ -26218,16 +26218,16 @@
       <c r="L134" s="78"/>
       <c r="M134" s="78"/>
       <c r="N134" s="90"/>
-      <c r="O134" s="363">
+      <c r="O134" s="336">
         <v>0.7</v>
       </c>
-      <c r="P134" s="364">
+      <c r="P134" s="337">
         <v>0.7</v>
       </c>
-      <c r="Q134" s="364">
+      <c r="Q134" s="337">
         <v>0.7</v>
       </c>
-      <c r="R134" s="365">
+      <c r="R134" s="338">
         <v>0.7</v>
       </c>
       <c r="S134" s="101">
@@ -26284,16 +26284,16 @@
       <c r="L135" s="79"/>
       <c r="M135" s="79"/>
       <c r="N135" s="92"/>
-      <c r="O135" s="366">
+      <c r="O135" s="339">
         <v>0.7</v>
       </c>
-      <c r="P135" s="367">
+      <c r="P135" s="340">
         <v>0.7</v>
       </c>
-      <c r="Q135" s="367">
+      <c r="Q135" s="340">
         <v>0.7</v>
       </c>
-      <c r="R135" s="368">
+      <c r="R135" s="341">
         <v>0.7</v>
       </c>
       <c r="S135" s="100">
@@ -26342,24 +26342,24 @@
       <c r="F136" s="138" t="s">
         <v>444</v>
       </c>
-      <c r="G136" s="375"/>
-      <c r="H136" s="376"/>
-      <c r="I136" s="376"/>
+      <c r="G136" s="348"/>
+      <c r="H136" s="349"/>
+      <c r="I136" s="349"/>
       <c r="J136" s="150"/>
-      <c r="K136" s="375"/>
-      <c r="L136" s="376"/>
-      <c r="M136" s="376"/>
+      <c r="K136" s="348"/>
+      <c r="L136" s="349"/>
+      <c r="M136" s="349"/>
       <c r="N136" s="150"/>
-      <c r="O136" s="372">
+      <c r="O136" s="345">
         <v>0.7</v>
       </c>
-      <c r="P136" s="373">
+      <c r="P136" s="346">
         <v>0.7</v>
       </c>
-      <c r="Q136" s="373">
+      <c r="Q136" s="346">
         <v>0.7</v>
       </c>
-      <c r="R136" s="374">
+      <c r="R136" s="347">
         <v>0.7</v>
       </c>
       <c r="S136" s="149">
@@ -26447,16 +26447,16 @@
       <c r="H138" s="165"/>
       <c r="I138" s="165"/>
       <c r="J138" s="165"/>
-      <c r="K138" s="387">
+      <c r="K138" s="360">
         <v>1</v>
       </c>
-      <c r="L138" s="388">
+      <c r="L138" s="361">
         <v>1.1559999999999999</v>
       </c>
-      <c r="M138" s="388">
+      <c r="M138" s="361">
         <v>1.25</v>
       </c>
-      <c r="N138" s="389">
+      <c r="N138" s="362">
         <v>1.25</v>
       </c>
       <c r="O138" s="165"/>
@@ -26727,26 +26727,6 @@
     <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="G100:J100"/>
-    <mergeCell ref="K100:N100"/>
-    <mergeCell ref="O100:R100"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="U100:X100"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="K98:N98"/>
-    <mergeCell ref="O98:R98"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="U98:X98"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:X51"/>
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="U6:X6"/>
     <mergeCell ref="G4:J4"/>
@@ -26757,6 +26737,26 @@
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="K98:N98"/>
+    <mergeCell ref="O98:R98"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="U98:X98"/>
+    <mergeCell ref="G100:J100"/>
+    <mergeCell ref="K100:N100"/>
+    <mergeCell ref="O100:R100"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="U100:X100"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26770,8 +26770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CED359C-4B42-41C8-A7E8-4F6FC9AE57D2}">
   <dimension ref="C2:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26896,12 +26896,12 @@
       <c r="I5" s="178"/>
       <c r="J5" s="178"/>
       <c r="K5" s="178"/>
-      <c r="L5" s="353" t="s">
+      <c r="L5" s="383" t="s">
         <v>340</v>
       </c>
-      <c r="M5" s="354"/>
-      <c r="N5" s="354"/>
-      <c r="O5" s="355"/>
+      <c r="M5" s="384"/>
+      <c r="N5" s="384"/>
+      <c r="O5" s="385"/>
       <c r="P5" s="107"/>
       <c r="Q5" s="107" t="s">
         <v>341</v>
@@ -26932,12 +26932,12 @@
       <c r="I6" s="84"/>
       <c r="J6" s="84"/>
       <c r="K6" s="84"/>
-      <c r="L6" s="356" t="s">
+      <c r="L6" s="386" t="s">
         <v>346</v>
       </c>
-      <c r="M6" s="357"/>
-      <c r="N6" s="357"/>
-      <c r="O6" s="358"/>
+      <c r="M6" s="387"/>
+      <c r="N6" s="387"/>
+      <c r="O6" s="388"/>
       <c r="P6" s="108" t="s">
         <v>347</v>
       </c>
@@ -27498,10 +27498,10 @@
       <c r="C18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R18" s="362" t="s">
+      <c r="R18" s="392" t="s">
         <v>737</v>
       </c>
-      <c r="S18" s="362"/>
+      <c r="S18" s="392"/>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="198" t="s">
@@ -27528,8 +27528,8 @@
       <c r="J19" s="200" t="s">
         <v>312</v>
       </c>
-      <c r="R19" s="362"/>
-      <c r="S19" s="362"/>
+      <c r="R19" s="392"/>
+      <c r="S19" s="392"/>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="173" t="s">
@@ -27552,8 +27552,8 @@
       <c r="J20" s="175" t="s">
         <v>460</v>
       </c>
-      <c r="R20" s="362"/>
-      <c r="S20" s="362"/>
+      <c r="R20" s="392"/>
+      <c r="S20" s="392"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="173" t="s">
@@ -27576,8 +27576,8 @@
       <c r="J21" s="175" t="s">
         <v>460</v>
       </c>
-      <c r="R21" s="362"/>
-      <c r="S21" s="362"/>
+      <c r="R21" s="392"/>
+      <c r="S21" s="392"/>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="173" t="s">
@@ -27600,8 +27600,8 @@
       <c r="J22" s="175" t="s">
         <v>460</v>
       </c>
-      <c r="R22" s="362"/>
-      <c r="S22" s="362"/>
+      <c r="R22" s="392"/>
+      <c r="S22" s="392"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="173" t="s">
@@ -27813,12 +27813,12 @@
       <c r="I4" s="178"/>
       <c r="J4" s="178"/>
       <c r="K4" s="178"/>
-      <c r="L4" s="353" t="s">
+      <c r="L4" s="383" t="s">
         <v>340</v>
       </c>
-      <c r="M4" s="354"/>
-      <c r="N4" s="354"/>
-      <c r="O4" s="355"/>
+      <c r="M4" s="384"/>
+      <c r="N4" s="384"/>
+      <c r="O4" s="385"/>
       <c r="P4" s="107"/>
       <c r="Q4" s="107" t="s">
         <v>341</v>
@@ -27842,12 +27842,12 @@
       <c r="I5" s="84"/>
       <c r="J5" s="84"/>
       <c r="K5" s="84"/>
-      <c r="L5" s="356" t="s">
+      <c r="L5" s="386" t="s">
         <v>346</v>
       </c>
-      <c r="M5" s="357"/>
-      <c r="N5" s="357"/>
-      <c r="O5" s="358"/>
+      <c r="M5" s="387"/>
+      <c r="N5" s="387"/>
+      <c r="O5" s="388"/>
       <c r="P5" s="108" t="s">
         <v>347</v>
       </c>

--- a/SubRES_TMPL/SubRes_RSD.xlsx
+++ b/SubRES_TMPL/SubRes_RSD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0E2799-DC72-43A4-AD9B-FDD5349E5DA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1679B262-93CB-469A-9CBC-E87C9C7B00BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -2529,27 +2529,6 @@
     <t>Residential Pumps &amp; Fans Detached New</t>
   </si>
   <si>
-    <t>RSDRFN1</t>
-  </si>
-  <si>
-    <t>RSDCKN1</t>
-  </si>
-  <si>
-    <t>RSDCWN1</t>
-  </si>
-  <si>
-    <t>RSDCDN1</t>
-  </si>
-  <si>
-    <t>RSDDWN1</t>
-  </si>
-  <si>
-    <t>RSDOEN1</t>
-  </si>
-  <si>
-    <t>RSDOAN1</t>
-  </si>
-  <si>
     <t>CEFF-I~2040</t>
   </si>
   <si>
@@ -3532,6 +3511,27 @@
   </si>
   <si>
     <t>Thermal efficiency - UPD Tables used</t>
+  </si>
+  <si>
+    <t>R-RSDRFN1</t>
+  </si>
+  <si>
+    <t>R-RSDCKN1</t>
+  </si>
+  <si>
+    <t>R-RSDCWN1</t>
+  </si>
+  <si>
+    <t>R-RSDCDN1</t>
+  </si>
+  <si>
+    <t>R-RSDDWN1</t>
+  </si>
+  <si>
+    <t>R-RSDOEN1</t>
+  </si>
+  <si>
+    <t>R-RSDOAN1</t>
   </si>
 </sst>
 </file>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="17" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="367" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B17" s="367"/>
       <c r="C17" s="367"/>
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="368" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C20" s="368"/>
       <c r="D20" s="368"/>
@@ -7332,7 +7332,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="217" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C24" s="217"/>
       <c r="D24" s="217"/>
@@ -7578,7 +7578,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="232" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G3" s="233"/>
       <c r="H3" s="234" t="s">
@@ -7599,16 +7599,16 @@
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" s="235" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C4" s="236" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="D4" s="237">
         <v>44136</v>
       </c>
       <c r="E4" s="238" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G4" s="239"/>
       <c r="H4" s="240" t="s">
@@ -7638,7 +7638,7 @@
         <v>44169</v>
       </c>
       <c r="E5" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="G5" s="245"/>
       <c r="H5" s="240" t="s">
@@ -7659,16 +7659,16 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="241" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C6" s="242" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D6" s="243">
         <v>44166</v>
       </c>
       <c r="E6" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="G6" s="246" t="s">
         <v>9</v>
@@ -7691,16 +7691,16 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="241" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C7" s="242" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D7" s="247">
         <v>43862</v>
       </c>
       <c r="E7" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="G7" s="248"/>
       <c r="H7" s="240" t="s">
@@ -7724,17 +7724,17 @@
         <v>67</v>
       </c>
       <c r="C8" s="242" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D8" s="247">
         <v>44166</v>
       </c>
       <c r="E8" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="G8" s="249"/>
       <c r="H8" s="240" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="I8" s="194"/>
       <c r="J8" s="194"/>
@@ -7751,16 +7751,16 @@
     </row>
     <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="241" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C9" s="242" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D9" s="247">
         <v>44044</v>
       </c>
       <c r="E9" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="G9" s="250"/>
       <c r="H9" s="251" t="s">
@@ -7769,7 +7769,7 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" s="241" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C10" s="242" t="s">
         <v>69</v>
@@ -7778,12 +7778,12 @@
         <v>44136</v>
       </c>
       <c r="E10" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="241" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C11" s="242" t="s">
         <v>71</v>
@@ -7792,12 +7792,12 @@
         <v>44013</v>
       </c>
       <c r="E11" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="241" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C12" s="242" t="s">
         <v>72</v>
@@ -7806,35 +7806,35 @@
         <v>44136</v>
       </c>
       <c r="E12" s="244" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="241" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C13" s="242" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="D13" s="247">
         <v>44136</v>
       </c>
       <c r="E13" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="241" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="C14" s="242" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D14" s="247">
         <v>44105</v>
       </c>
       <c r="E14" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
@@ -7848,7 +7848,7 @@
         <v>44105</v>
       </c>
       <c r="E15" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
@@ -7862,7 +7862,7 @@
         <v>44166</v>
       </c>
       <c r="E16" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
@@ -7876,7 +7876,7 @@
         <v>44166</v>
       </c>
       <c r="E17" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -7890,7 +7890,7 @@
         <v>44166</v>
       </c>
       <c r="E18" s="255" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -7917,7 +7917,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="259" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G21" s="260" t="s">
         <v>15</v>
@@ -7955,7 +7955,7 @@
         <v>17</v>
       </c>
       <c r="H23" s="266" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7969,7 +7969,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="G24" s="269" t="s">
         <v>80</v>
@@ -7989,7 +7989,7 @@
         <v>43466</v>
       </c>
       <c r="E25" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8003,12 +8003,12 @@
         <v>43952</v>
       </c>
       <c r="E26" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="262" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C27" s="273" t="s">
         <v>88</v>
@@ -8017,133 +8017,133 @@
         <v>43952</v>
       </c>
       <c r="E27" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="262" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C28" s="273" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D28" s="272">
         <v>43983</v>
       </c>
       <c r="E28" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="262" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C29" s="273" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="D29" s="272">
         <v>43983</v>
       </c>
       <c r="E29" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="262" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="C30" s="273" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="D30" s="272">
         <v>43983</v>
       </c>
       <c r="E30" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="262" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C31" s="273" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="D31" s="272">
         <v>43983</v>
       </c>
       <c r="E31" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="262" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C32" s="273" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="D32" s="272">
         <v>43983</v>
       </c>
       <c r="E32" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="262" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C33" s="273" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="D33" s="272">
         <v>43983</v>
       </c>
       <c r="E33" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="262" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C34" s="273" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D34" s="272">
         <v>44044</v>
       </c>
       <c r="E34" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="262" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C35" s="273" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="D35" s="272">
         <v>44044</v>
       </c>
       <c r="E35" s="244" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="274" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C36" s="275" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="D36" s="276">
         <v>44044</v>
       </c>
       <c r="E36" s="255" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -8170,13 +8170,13 @@
         <v>7</v>
       </c>
       <c r="E39" s="279" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G39" s="280" t="s">
         <v>20</v>
       </c>
       <c r="H39" s="280" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="15" x14ac:dyDescent="0.25">
@@ -8184,13 +8184,13 @@
         <v>25</v>
       </c>
       <c r="C40" s="263" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="D40" s="281">
         <v>44166</v>
       </c>
       <c r="E40" s="282" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="G40" s="267"/>
       <c r="H40" s="267"/>
@@ -8259,7 +8259,7 @@
   <dimension ref="A2:AL103"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8311,7 +8311,7 @@
         <v>44</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="I3" s="64" t="s">
         <v>342</v>
@@ -8326,7 +8326,7 @@
         <v>92</v>
       </c>
       <c r="M3" s="64" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="N3" s="64" t="s">
         <v>332</v>
@@ -8335,7 +8335,7 @@
         <v>431</v>
       </c>
       <c r="W3" s="379" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="X3" s="379"/>
       <c r="Y3" s="379"/>
@@ -8371,19 +8371,19 @@
         <v>430</v>
       </c>
       <c r="W4" s="309" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="X4" s="310" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="Y4" s="310" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="Z4" s="310" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="AA4" s="311" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
     <row r="5" spans="3:27" ht="25.5" x14ac:dyDescent="0.2">
@@ -8397,16 +8397,16 @@
         <v>313</v>
       </c>
       <c r="H5" s="386" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="I5" s="387"/>
       <c r="J5" s="387"/>
       <c r="K5" s="388"/>
       <c r="L5" s="108" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="M5" s="108" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="N5" s="108" t="s">
         <v>350</v>
@@ -8415,7 +8415,7 @@
         <v>429</v>
       </c>
       <c r="W5" s="312" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="X5" s="313">
         <v>9418.8988568067343</v>
@@ -8471,7 +8471,7 @@
         <v>2020</v>
       </c>
       <c r="W6" s="315" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="X6" s="316">
         <v>7459.2913438514906</v>
@@ -8505,7 +8505,7 @@
       </c>
       <c r="N7" s="104"/>
       <c r="W7" s="318" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="X7" s="319">
         <v>14041.847426430093</v>
@@ -8539,7 +8539,7 @@
       </c>
       <c r="N8" s="105"/>
       <c r="W8" s="315" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="X8" s="316">
         <v>19924.480375055824</v>
@@ -8573,7 +8573,7 @@
       </c>
       <c r="N9" s="104"/>
       <c r="W9" s="318" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="X9" s="319">
         <v>58904.8034364337</v>
@@ -8607,7 +8607,7 @@
       </c>
       <c r="N10" s="143"/>
       <c r="W10" s="315" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="X10" s="316">
         <v>43739.341649106158</v>
@@ -8633,7 +8633,7 @@
         <v>313</v>
       </c>
       <c r="H11" s="380" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="I11" s="381"/>
       <c r="J11" s="381"/>
@@ -8644,7 +8644,7 @@
         <v>350</v>
       </c>
       <c r="W11" s="318" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="X11" s="319">
         <v>25767.876472761334</v>
@@ -8700,7 +8700,7 @@
         <v>2020</v>
       </c>
       <c r="W12" s="315" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="X12" s="316">
         <v>12331.173226884033</v>
@@ -8734,7 +8734,7 @@
       </c>
       <c r="N13" s="104"/>
       <c r="W13" s="321" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="X13" s="322">
         <v>15211.172212670604</v>
@@ -8768,7 +8768,7 @@
       </c>
       <c r="N14" s="105"/>
       <c r="W14" s="323" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="X14" s="324">
         <v>206798.88499999998</v>
@@ -8802,7 +8802,7 @@
       </c>
       <c r="N15" s="104"/>
       <c r="W15" s="327" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="X15" s="326">
         <v>0.74286208971025169</v>
@@ -8844,7 +8844,7 @@
         <v>313</v>
       </c>
       <c r="H17" s="380" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="I17" s="381"/>
       <c r="J17" s="381"/>
@@ -8934,49 +8934,49 @@
       </c>
       <c r="N20" s="105"/>
       <c r="W20" s="5" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="AF20" s="5" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="AH20" s="329" t="s">
+        <v>756</v>
+      </c>
+      <c r="AI20" s="330" t="s">
         <v>763</v>
       </c>
-      <c r="AI20" s="330" t="s">
-        <v>770</v>
-      </c>
       <c r="AJ20" s="330" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="AK20" s="5" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="AL20" s="328" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
     </row>
     <row r="21" spans="2:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8998,40 +8998,40 @@
       </c>
       <c r="N21" s="104"/>
       <c r="V21" s="5" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="AB21" s="194" t="s">
+        <v>747</v>
+      </c>
+      <c r="AC21" s="194" t="s">
+        <v>759</v>
+      </c>
+      <c r="AD21" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="AE21" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="AF21" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="AC21" s="194" t="s">
-        <v>766</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="AF21" s="5" t="s">
-        <v>761</v>
-      </c>
       <c r="AH21" s="328" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
     </row>
     <row r="22" spans="2:38" ht="15" x14ac:dyDescent="0.2">
@@ -9053,7 +9053,7 @@
       </c>
       <c r="N22" s="143"/>
       <c r="V22" s="5" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="W22" s="185">
         <v>6419</v>
@@ -9110,7 +9110,7 @@
     </row>
     <row r="23" spans="2:38" ht="15" x14ac:dyDescent="0.2">
       <c r="V23" s="5" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="W23" s="185">
         <v>3209</v>
@@ -9164,7 +9164,7 @@
     </row>
     <row r="24" spans="2:38" ht="15" x14ac:dyDescent="0.2">
       <c r="V24" s="5" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="W24" s="185">
         <v>8665</v>
@@ -9228,7 +9228,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="57"/>
       <c r="V25" s="5" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="W25" s="185">
         <v>13570</v>
@@ -9303,7 +9303,7 @@
         <v>312</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="W26" s="185">
         <v>45566</v>
@@ -9357,10 +9357,10 @@
     </row>
     <row r="27" spans="2:38" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="D27" s="59" t="s">
         <v>53</v>
@@ -9372,13 +9372,13 @@
         <v>317</v>
       </c>
       <c r="G27" s="59" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="H27" s="59" t="s">
         <v>319</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="W27" s="185">
         <v>30979</v>
@@ -9432,7 +9432,7 @@
     </row>
     <row r="28" spans="2:38" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="173" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="C28" s="174" t="s">
         <v>404</v>
@@ -9449,7 +9449,7 @@
       <c r="G28" s="174"/>
       <c r="H28" s="175"/>
       <c r="V28" s="5" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="W28" s="185">
         <v>15595</v>
@@ -9503,7 +9503,7 @@
     </row>
     <row r="29" spans="2:38" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="173" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="C29" s="174" t="s">
         <v>405</v>
@@ -9520,7 +9520,7 @@
       <c r="G29" s="174"/>
       <c r="H29" s="175"/>
       <c r="V29" s="5" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="W29" s="185">
         <v>5191</v>
@@ -9574,7 +9574,7 @@
     </row>
     <row r="30" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="173" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="C30" s="176" t="s">
         <v>406</v>
@@ -9591,7 +9591,7 @@
       <c r="G30" s="176"/>
       <c r="H30" s="177"/>
       <c r="V30" s="5" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="W30" s="185">
         <v>5603</v>
@@ -9691,49 +9691,49 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="W35" s="5" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="X35" s="5" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="Y35" s="5" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="Z35" s="5" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="AA35" s="5" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="AB35" s="5" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="AC35" s="5" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="AD35" s="5" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="AE35" s="5" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="AF35" s="5" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="AH35" s="329" t="s">
+        <v>756</v>
+      </c>
+      <c r="AI35" s="330" t="s">
         <v>763</v>
       </c>
-      <c r="AI35" s="330" t="s">
-        <v>770</v>
-      </c>
       <c r="AJ35" s="330" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="AK35" s="5" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="AL35" s="328" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
     </row>
     <row r="36" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9746,40 +9746,40 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="V36" s="5" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="X36" s="5" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="Y36" s="5" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="Z36" s="5" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="AA36" s="5" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="AB36" s="194" t="s">
+        <v>747</v>
+      </c>
+      <c r="AC36" s="194" t="s">
+        <v>759</v>
+      </c>
+      <c r="AD36" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="AE36" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="AF36" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="AC36" s="194" t="s">
-        <v>766</v>
-      </c>
-      <c r="AD36" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="AE36" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="AF36" s="5" t="s">
-        <v>761</v>
-      </c>
       <c r="AH36" s="328" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="15" x14ac:dyDescent="0.2">
@@ -9792,7 +9792,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="V37" s="5" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="W37" s="185">
         <v>30917</v>
@@ -9854,7 +9854,7 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="V38" s="5" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="W38" s="185">
         <v>3722</v>
@@ -9916,7 +9916,7 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="V39" s="5" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="W39" s="185">
         <v>7882</v>
@@ -9978,7 +9978,7 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="V40" s="5" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="W40" s="185">
         <v>27081</v>
@@ -10041,7 +10041,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="V41" s="5" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="W41" s="185">
         <v>161926</v>
@@ -10104,7 +10104,7 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="V42" s="5" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="W42" s="185">
         <v>95372</v>
@@ -10167,7 +10167,7 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="V43" s="5" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="W43" s="185">
         <v>46130</v>
@@ -10230,7 +10230,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="V44" s="5" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="W44" s="185">
         <v>20720</v>
@@ -10296,7 +10296,7 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="V45" s="5" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="W45" s="185">
         <v>21208</v>
@@ -10420,49 +10420,49 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="W49" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="X49" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="Y49" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="Z49" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="AA49" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="AB49" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="AC49" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="AD49" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="AE49" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="AF49" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="AH49" s="329" t="s">
+        <v>756</v>
+      </c>
+      <c r="AI49" s="330" t="s">
+        <v>763</v>
+      </c>
+      <c r="AJ49" s="330" t="s">
+        <v>764</v>
+      </c>
+      <c r="AK49" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="X49" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="Y49" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="Z49" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="AA49" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="AB49" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="AC49" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="AD49" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="AE49" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="AF49" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="AH49" s="329" t="s">
-        <v>763</v>
-      </c>
-      <c r="AI49" s="330" t="s">
-        <v>770</v>
-      </c>
-      <c r="AJ49" s="330" t="s">
-        <v>771</v>
-      </c>
-      <c r="AK49" s="5" t="s">
-        <v>766</v>
-      </c>
       <c r="AL49" s="328" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
     </row>
     <row r="50" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10476,40 +10476,40 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="V50" s="5" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="W50" s="5" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="X50" s="5" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="Y50" s="5" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="Z50" s="5" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="AA50" s="5" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="AB50" s="194" t="s">
+        <v>747</v>
+      </c>
+      <c r="AC50" s="194" t="s">
+        <v>759</v>
+      </c>
+      <c r="AD50" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="AE50" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="AF50" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="AC50" s="194" t="s">
-        <v>766</v>
-      </c>
-      <c r="AD50" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="AE50" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="AF50" s="5" t="s">
-        <v>761</v>
-      </c>
       <c r="AH50" s="328" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
     </row>
     <row r="51" spans="1:38" ht="15" x14ac:dyDescent="0.2">
@@ -10523,7 +10523,7 @@
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="V51" s="5" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="W51" s="185">
         <v>9878</v>
@@ -10586,7 +10586,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="V52" s="5" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="W52" s="185">
         <v>3037</v>
@@ -10649,7 +10649,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="V53" s="5" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="W53" s="185">
         <v>7052</v>
@@ -10712,7 +10712,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="V54" s="5" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="W54" s="185">
         <v>20170</v>
@@ -10775,7 +10775,7 @@
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="V55" s="5" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="W55" s="185">
         <v>97809</v>
@@ -10838,7 +10838,7 @@
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
       <c r="V56" s="5" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="W56" s="185">
         <v>61656</v>
@@ -10901,7 +10901,7 @@
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
       <c r="V57" s="5" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="W57" s="185">
         <v>27666</v>
@@ -10964,7 +10964,7 @@
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="V58" s="5" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="W58" s="185">
         <v>13787</v>
@@ -11027,7 +11027,7 @@
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="V59" s="5" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="W59" s="185">
         <v>24436</v>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="B1" s="180"/>
       <c r="L1" s="182" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="N1" s="5"/>
     </row>
@@ -11362,12 +11362,12 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C3" s="229" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="184" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="185"/>
@@ -11376,7 +11376,7 @@
       <c r="F4" s="186"/>
       <c r="G4" s="186"/>
       <c r="N4" s="184" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -11425,7 +11425,7 @@
         <v>49</v>
       </c>
       <c r="B6" s="181" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C6" s="181" t="str">
         <f t="shared" ref="C6:C69" si="0">VLOOKUP(RIGHT(B6,3),$B$134:$C$140,2,FALSE)&amp;" - "&amp;LEFT(B6,8)</f>
@@ -11448,7 +11448,7 @@
         <v>Bldg_DETPre45-Win</v>
       </c>
       <c r="N6" s="181" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="O6" s="181">
         <v>2020</v>
@@ -11459,7 +11459,7 @@
     </row>
     <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="181" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C7" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11482,7 +11482,7 @@
         <v>Bldg_DETPre69-Win</v>
       </c>
       <c r="N7" s="181" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="O7" s="181">
         <v>2020</v>
@@ -11493,7 +11493,7 @@
     </row>
     <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="181" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="C8" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11516,7 +11516,7 @@
         <v>Bldg_DETPre79-Win</v>
       </c>
       <c r="N8" s="181" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="O8" s="181">
         <v>2020</v>
@@ -11527,7 +11527,7 @@
     </row>
     <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="181" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C9" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11550,7 +11550,7 @@
         <v>Bldg_DETPre89-Win</v>
       </c>
       <c r="N9" s="181" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="O9" s="181">
         <v>2020</v>
@@ -11561,7 +11561,7 @@
     </row>
     <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="181" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C10" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11584,7 +11584,7 @@
         <v>Bldg_DETPre99-Win</v>
       </c>
       <c r="N10" s="181" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="O10" s="181">
         <v>2020</v>
@@ -11595,7 +11595,7 @@
     </row>
     <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="181" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C11" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11618,7 +11618,7 @@
         <v>Bldg_DETPre09-Win</v>
       </c>
       <c r="N11" s="181" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="O11" s="181">
         <v>2020</v>
@@ -11629,7 +11629,7 @@
     </row>
     <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="181" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C12" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11652,7 +11652,7 @@
         <v>Bldg_DETPre45-Win</v>
       </c>
       <c r="N12" s="181" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="O12" s="181">
         <v>2020</v>
@@ -11663,7 +11663,7 @@
     </row>
     <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B13" s="181" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C13" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11686,7 +11686,7 @@
         <v>Bldg_DETPre69-Win</v>
       </c>
       <c r="N13" s="181" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="O13" s="181">
         <v>2020</v>
@@ -11697,7 +11697,7 @@
     </row>
     <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="181" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C14" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11720,7 +11720,7 @@
         <v>Bldg_DETPre79-Win</v>
       </c>
       <c r="N14" s="181" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="O14" s="181">
         <v>2020</v>
@@ -11731,7 +11731,7 @@
     </row>
     <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="181" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C15" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11754,7 +11754,7 @@
         <v>Bldg_DETPre89-Win</v>
       </c>
       <c r="N15" s="181" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="O15" s="181">
         <v>2020</v>
@@ -11765,7 +11765,7 @@
     </row>
     <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B16" s="181" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C16" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11788,7 +11788,7 @@
         <v>Bldg_DETPre99-Win</v>
       </c>
       <c r="N16" s="181" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="O16" s="181">
         <v>2020</v>
@@ -11799,7 +11799,7 @@
     </row>
     <row r="17" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B17" s="181" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="C17" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11822,7 +11822,7 @@
         <v>Bldg_DETPre09-Win</v>
       </c>
       <c r="N17" s="181" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="O17" s="181">
         <v>2020</v>
@@ -11833,7 +11833,7 @@
     </row>
     <row r="18" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B18" s="181" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="C18" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11856,7 +11856,7 @@
         <v>Bldg_DETPre45-Win</v>
       </c>
       <c r="N18" s="181" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="O18" s="181">
         <v>2020</v>
@@ -11867,7 +11867,7 @@
     </row>
     <row r="19" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B19" s="181" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="C19" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11890,7 +11890,7 @@
         <v>Bldg_DETPre69-Win</v>
       </c>
       <c r="N19" s="181" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="O19" s="181">
         <v>2020</v>
@@ -11901,7 +11901,7 @@
     </row>
     <row r="20" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B20" s="181" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="C20" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11924,7 +11924,7 @@
         <v>Bldg_DETPre79-Win</v>
       </c>
       <c r="N20" s="181" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="O20" s="181">
         <v>2020</v>
@@ -11935,7 +11935,7 @@
     </row>
     <row r="21" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B21" s="181" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="C21" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11958,7 +11958,7 @@
         <v>Bldg_DETPre89-Win</v>
       </c>
       <c r="N21" s="181" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="O21" s="181">
         <v>2020</v>
@@ -11969,7 +11969,7 @@
     </row>
     <row r="22" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B22" s="181" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C22" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11992,7 +11992,7 @@
         <v>Bldg_DETPre99-Win</v>
       </c>
       <c r="N22" s="181" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="O22" s="181">
         <v>2020</v>
@@ -12003,7 +12003,7 @@
     </row>
     <row r="23" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="181" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="C23" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12026,7 +12026,7 @@
         <v>Bldg_DETPre09-Win</v>
       </c>
       <c r="N23" s="181" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="O23" s="181">
         <v>2020</v>
@@ -12037,7 +12037,7 @@
     </row>
     <row r="24" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="181" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="C24" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12060,7 +12060,7 @@
         <v>Bldg_DETPre45-Cei</v>
       </c>
       <c r="N24" s="181" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="O24" s="181">
         <v>2020</v>
@@ -12071,7 +12071,7 @@
     </row>
     <row r="25" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B25" s="181" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="C25" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12094,7 +12094,7 @@
         <v>Bldg_DETPre69-Cei</v>
       </c>
       <c r="N25" s="181" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="O25" s="181">
         <v>2020</v>
@@ -12105,7 +12105,7 @@
     </row>
     <row r="26" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="181" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C26" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12128,7 +12128,7 @@
         <v>Bldg_DETPre79-Cei</v>
       </c>
       <c r="N26" s="181" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="O26" s="181">
         <v>2020</v>
@@ -12139,7 +12139,7 @@
     </row>
     <row r="27" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B27" s="181" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="C27" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12162,7 +12162,7 @@
         <v>Bldg_DETPre89-Cei</v>
       </c>
       <c r="N27" s="181" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="O27" s="181">
         <v>2020</v>
@@ -12173,7 +12173,7 @@
     </row>
     <row r="28" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="181" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C28" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12196,7 +12196,7 @@
         <v>Bldg_DETPre99-Cei</v>
       </c>
       <c r="N28" s="181" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="O28" s="181">
         <v>2020</v>
@@ -12207,7 +12207,7 @@
     </row>
     <row r="29" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="181" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="C29" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12230,7 +12230,7 @@
         <v>Bldg_DETPre09-Cei</v>
       </c>
       <c r="N29" s="181" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="O29" s="181">
         <v>2020</v>
@@ -12241,7 +12241,7 @@
     </row>
     <row r="30" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="181" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="C30" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12264,7 +12264,7 @@
         <v>Bldg_DETPre45-Cei</v>
       </c>
       <c r="N30" s="181" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="O30" s="181">
         <v>2020</v>
@@ -12275,7 +12275,7 @@
     </row>
     <row r="31" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B31" s="181" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="C31" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12298,7 +12298,7 @@
         <v>Bldg_DETPre69-Cei</v>
       </c>
       <c r="N31" s="181" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="O31" s="181">
         <v>2020</v>
@@ -12309,7 +12309,7 @@
     </row>
     <row r="32" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="181" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="C32" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12332,7 +12332,7 @@
         <v>Bldg_DETPre79-Cei</v>
       </c>
       <c r="N32" s="181" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="O32" s="181">
         <v>2020</v>
@@ -12343,7 +12343,7 @@
     </row>
     <row r="33" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="181" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C33" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12366,7 +12366,7 @@
         <v>Bldg_DETPre89-Cei</v>
       </c>
       <c r="N33" s="181" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O33" s="181">
         <v>2020</v>
@@ -12377,7 +12377,7 @@
     </row>
     <row r="34" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="181" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C34" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12400,7 +12400,7 @@
         <v>Bldg_DETPre99-Cei</v>
       </c>
       <c r="N34" s="181" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="O34" s="181">
         <v>2020</v>
@@ -12411,7 +12411,7 @@
     </row>
     <row r="35" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B35" s="181" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="C35" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12434,7 +12434,7 @@
         <v>Bldg_DETPre09-Cei</v>
       </c>
       <c r="N35" s="181" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="O35" s="181">
         <v>2020</v>
@@ -12445,7 +12445,7 @@
     </row>
     <row r="36" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B36" s="181" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="C36" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12468,7 +12468,7 @@
         <v>Bldg_DETPre45-Wal</v>
       </c>
       <c r="N36" s="181" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="O36" s="181">
         <v>2020</v>
@@ -12479,7 +12479,7 @@
     </row>
     <row r="37" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B37" s="181" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="C37" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12502,7 +12502,7 @@
         <v>Bldg_DETPre69-Wal</v>
       </c>
       <c r="N37" s="181" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="O37" s="181">
         <v>2020</v>
@@ -12513,7 +12513,7 @@
     </row>
     <row r="38" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="181" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C38" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12536,7 +12536,7 @@
         <v>Bldg_DETPre79-Wal</v>
       </c>
       <c r="N38" s="181" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="O38" s="181">
         <v>2020</v>
@@ -12547,7 +12547,7 @@
     </row>
     <row r="39" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B39" s="181" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="C39" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12570,7 +12570,7 @@
         <v>Bldg_DETPre89-Wal</v>
       </c>
       <c r="N39" s="181" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="O39" s="181">
         <v>2020</v>
@@ -12581,7 +12581,7 @@
     </row>
     <row r="40" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B40" s="181" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C40" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12604,7 +12604,7 @@
         <v>Bldg_DETPre99-Wal</v>
       </c>
       <c r="N40" s="181" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="O40" s="181">
         <v>2020</v>
@@ -12615,7 +12615,7 @@
     </row>
     <row r="41" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B41" s="181" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C41" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12638,7 +12638,7 @@
         <v>Bldg_DETPre09-Wal</v>
       </c>
       <c r="N41" s="181" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="O41" s="181">
         <v>2020</v>
@@ -12649,7 +12649,7 @@
     </row>
     <row r="42" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="181" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C42" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12672,7 +12672,7 @@
         <v>Bldg_DETPre45-Wal</v>
       </c>
       <c r="N42" s="181" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="O42" s="181">
         <v>2020</v>
@@ -12683,7 +12683,7 @@
     </row>
     <row r="43" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" s="181" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C43" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12706,7 +12706,7 @@
         <v>Bldg_DETPre69-Wal</v>
       </c>
       <c r="N43" s="181" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="O43" s="181">
         <v>2020</v>
@@ -12717,7 +12717,7 @@
     </row>
     <row r="44" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B44" s="181" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C44" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12740,7 +12740,7 @@
         <v>Bldg_DETPre79-Wal</v>
       </c>
       <c r="N44" s="181" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O44" s="181">
         <v>2020</v>
@@ -12751,7 +12751,7 @@
     </row>
     <row r="45" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B45" s="181" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C45" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12774,7 +12774,7 @@
         <v>Bldg_DETPre89-Wal</v>
       </c>
       <c r="N45" s="181" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="O45" s="181">
         <v>2020</v>
@@ -12785,7 +12785,7 @@
     </row>
     <row r="46" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B46" s="181" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="C46" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12808,7 +12808,7 @@
         <v>Bldg_DETPre99-Wal</v>
       </c>
       <c r="N46" s="181" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="O46" s="181">
         <v>2020</v>
@@ -12819,7 +12819,7 @@
     </row>
     <row r="47" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B47" s="181" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="C47" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12845,7 +12845,7 @@
         <v>Bldg_DETPre09-Wal</v>
       </c>
       <c r="N47" s="181" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="O47" s="181">
         <v>2020</v>
@@ -12856,7 +12856,7 @@
     </row>
     <row r="48" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B48" s="181" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C48" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12879,7 +12879,7 @@
         <v>Bldg_SDEPre45-Win</v>
       </c>
       <c r="N48" s="181" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="O48" s="181">
         <v>2020</v>
@@ -12890,7 +12890,7 @@
     </row>
     <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B49" s="181" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C49" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12913,7 +12913,7 @@
         <v>Bldg_SDEPre69-Win</v>
       </c>
       <c r="N49" s="181" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="O49" s="181">
         <v>2020</v>
@@ -12924,7 +12924,7 @@
     </row>
     <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B50" s="181" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="C50" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12947,7 +12947,7 @@
         <v>Bldg_SDEPre79-Win</v>
       </c>
       <c r="N50" s="181" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="O50" s="181">
         <v>2020</v>
@@ -12958,7 +12958,7 @@
     </row>
     <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B51" s="181" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C51" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12981,7 +12981,7 @@
         <v>Bldg_SDEPre89-Win</v>
       </c>
       <c r="N51" s="181" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="O51" s="181">
         <v>2020</v>
@@ -12992,7 +12992,7 @@
     </row>
     <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B52" s="181" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C52" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13015,7 +13015,7 @@
         <v>Bldg_SDEPre99-Win</v>
       </c>
       <c r="N52" s="181" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="O52" s="181">
         <v>2020</v>
@@ -13026,7 +13026,7 @@
     </row>
     <row r="53" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B53" s="181" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C53" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13049,7 +13049,7 @@
         <v>Bldg_SDEPre09-Win</v>
       </c>
       <c r="N53" s="181" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="O53" s="181">
         <v>2020</v>
@@ -13060,7 +13060,7 @@
     </row>
     <row r="54" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B54" s="181" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C54" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13083,7 +13083,7 @@
         <v>Bldg_SDEPre45-Win</v>
       </c>
       <c r="N54" s="181" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="O54" s="181">
         <v>2020</v>
@@ -13094,7 +13094,7 @@
     </row>
     <row r="55" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B55" s="181" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C55" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13117,7 +13117,7 @@
         <v>Bldg_SDEPre69-Win</v>
       </c>
       <c r="N55" s="181" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="O55" s="181">
         <v>2020</v>
@@ -13129,7 +13129,7 @@
     <row r="56" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="181" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="C56" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13152,7 +13152,7 @@
         <v>Bldg_SDEPre79-Win</v>
       </c>
       <c r="N56" s="181" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="O56" s="181">
         <v>2020</v>
@@ -13164,7 +13164,7 @@
     <row r="57" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="181" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="C57" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13187,7 +13187,7 @@
         <v>Bldg_SDEPre89-Win</v>
       </c>
       <c r="N57" s="181" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="O57" s="181">
         <v>2020</v>
@@ -13199,7 +13199,7 @@
     <row r="58" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="181" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C58" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13222,7 +13222,7 @@
         <v>Bldg_SDEPre99-Win</v>
       </c>
       <c r="N58" s="181" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="O58" s="181">
         <v>2020</v>
@@ -13234,7 +13234,7 @@
     <row r="59" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="181" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C59" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13257,7 +13257,7 @@
         <v>Bldg_SDEPre09-Win</v>
       </c>
       <c r="N59" s="181" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="O59" s="181">
         <v>2020</v>
@@ -13269,7 +13269,7 @@
     <row r="60" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="181" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C60" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13292,7 +13292,7 @@
         <v>Bldg_SDEPre45-Win</v>
       </c>
       <c r="N60" s="181" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="O60" s="181">
         <v>2020</v>
@@ -13304,7 +13304,7 @@
     <row r="61" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="181" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="C61" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13327,7 +13327,7 @@
         <v>Bldg_SDEPre69-Win</v>
       </c>
       <c r="N61" s="181" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="O61" s="181">
         <v>2020</v>
@@ -13339,7 +13339,7 @@
     <row r="62" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="181" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="C62" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13362,7 +13362,7 @@
         <v>Bldg_SDEPre79-Win</v>
       </c>
       <c r="N62" s="181" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="O62" s="181">
         <v>2020</v>
@@ -13374,7 +13374,7 @@
     <row r="63" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="181" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="C63" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13397,7 +13397,7 @@
         <v>Bldg_SDEPre89-Win</v>
       </c>
       <c r="N63" s="181" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="O63" s="181">
         <v>2020</v>
@@ -13409,7 +13409,7 @@
     <row r="64" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="181" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="C64" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13432,7 +13432,7 @@
         <v>Bldg_SDEPre99-Win</v>
       </c>
       <c r="N64" s="181" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="O64" s="181">
         <v>2020</v>
@@ -13444,7 +13444,7 @@
     <row r="65" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="181" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C65" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13467,7 +13467,7 @@
         <v>Bldg_SDEPre09-Win</v>
       </c>
       <c r="N65" s="181" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="O65" s="181">
         <v>2020</v>
@@ -13479,7 +13479,7 @@
     <row r="66" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="181" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="C66" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13502,7 +13502,7 @@
         <v>Bldg_SDEPre45-Cei</v>
       </c>
       <c r="N66" s="181" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="O66" s="181">
         <v>2020</v>
@@ -13514,7 +13514,7 @@
     <row r="67" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="181" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="C67" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13537,7 +13537,7 @@
         <v>Bldg_SDEPre69-Cei</v>
       </c>
       <c r="N67" s="181" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="O67" s="181">
         <v>2020</v>
@@ -13549,7 +13549,7 @@
     <row r="68" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="181" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="C68" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13572,7 +13572,7 @@
         <v>Bldg_SDEPre79-Cei</v>
       </c>
       <c r="N68" s="181" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="O68" s="181">
         <v>2020</v>
@@ -13584,7 +13584,7 @@
     <row r="69" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="181" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="C69" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13607,7 +13607,7 @@
         <v>Bldg_SDEPre89-Cei</v>
       </c>
       <c r="N69" s="181" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="O69" s="181">
         <v>2020</v>
@@ -13619,7 +13619,7 @@
     <row r="70" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="181" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C70" s="181" t="str">
         <f t="shared" ref="C70:C131" si="2">VLOOKUP(RIGHT(B70,3),$B$134:$C$140,2,FALSE)&amp;" - "&amp;LEFT(B70,8)</f>
@@ -13642,7 +13642,7 @@
         <v>Bldg_SDEPre99-Cei</v>
       </c>
       <c r="N70" s="181" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="O70" s="181">
         <v>2020</v>
@@ -13654,7 +13654,7 @@
     <row r="71" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="181" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="C71" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13677,7 +13677,7 @@
         <v>Bldg_SDEPre09-Cei</v>
       </c>
       <c r="N71" s="181" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="O71" s="181">
         <v>2020</v>
@@ -13689,7 +13689,7 @@
     <row r="72" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="181" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="C72" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13712,7 +13712,7 @@
         <v>Bldg_SDEPre45-Cei</v>
       </c>
       <c r="N72" s="181" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="O72" s="181">
         <v>2020</v>
@@ -13724,7 +13724,7 @@
     <row r="73" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="181" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="C73" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13747,7 +13747,7 @@
         <v>Bldg_SDEPre69-Cei</v>
       </c>
       <c r="N73" s="181" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="O73" s="181">
         <v>2020</v>
@@ -13759,7 +13759,7 @@
     <row r="74" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="181" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C74" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13782,7 +13782,7 @@
         <v>Bldg_SDEPre79-Cei</v>
       </c>
       <c r="N74" s="181" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="O74" s="181">
         <v>2020</v>
@@ -13794,7 +13794,7 @@
     <row r="75" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="181" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C75" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13817,7 +13817,7 @@
         <v>Bldg_SDEPre89-Cei</v>
       </c>
       <c r="N75" s="181" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="O75" s="181">
         <v>2020</v>
@@ -13829,7 +13829,7 @@
     <row r="76" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="181" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C76" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13852,7 +13852,7 @@
         <v>Bldg_SDEPre99-Cei</v>
       </c>
       <c r="N76" s="181" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="O76" s="181">
         <v>2020</v>
@@ -13864,7 +13864,7 @@
     <row r="77" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="181" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="C77" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13887,7 +13887,7 @@
         <v>Bldg_SDEPre09-Cei</v>
       </c>
       <c r="N77" s="181" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="O77" s="181">
         <v>2020</v>
@@ -13899,7 +13899,7 @@
     <row r="78" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="181" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="C78" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13922,7 +13922,7 @@
         <v>Bldg_SDEPre45-Wal</v>
       </c>
       <c r="N78" s="181" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="O78" s="181">
         <v>2020</v>
@@ -13934,7 +13934,7 @@
     <row r="79" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="181" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="C79" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13957,7 +13957,7 @@
         <v>Bldg_SDEPre69-Wal</v>
       </c>
       <c r="N79" s="181" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="O79" s="181">
         <v>2020</v>
@@ -13969,7 +13969,7 @@
     <row r="80" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="181" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="C80" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13992,7 +13992,7 @@
         <v>Bldg_SDEPre79-Wal</v>
       </c>
       <c r="N80" s="181" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="O80" s="181">
         <v>2020</v>
@@ -14004,7 +14004,7 @@
     <row r="81" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="181" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="C81" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14027,7 +14027,7 @@
         <v>Bldg_SDEPre89-Wal</v>
       </c>
       <c r="N81" s="181" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="O81" s="181">
         <v>2020</v>
@@ -14039,7 +14039,7 @@
     <row r="82" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="181" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="C82" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14062,7 +14062,7 @@
         <v>Bldg_SDEPre99-Wal</v>
       </c>
       <c r="N82" s="181" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="O82" s="181">
         <v>2020</v>
@@ -14074,7 +14074,7 @@
     <row r="83" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="181" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="C83" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14097,7 +14097,7 @@
         <v>Bldg_SDEPre09-Wal</v>
       </c>
       <c r="N83" s="181" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="O83" s="181">
         <v>2020</v>
@@ -14109,7 +14109,7 @@
     <row r="84" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="181" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="C84" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14132,7 +14132,7 @@
         <v>Bldg_SDEPre45-Wal</v>
       </c>
       <c r="N84" s="181" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="O84" s="181">
         <v>2020</v>
@@ -14144,7 +14144,7 @@
     <row r="85" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="181" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="C85" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14167,7 +14167,7 @@
         <v>Bldg_SDEPre69-Wal</v>
       </c>
       <c r="N85" s="181" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="O85" s="181">
         <v>2020</v>
@@ -14179,7 +14179,7 @@
     <row r="86" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="181" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="C86" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14202,7 +14202,7 @@
         <v>Bldg_SDEPre79-Wal</v>
       </c>
       <c r="N86" s="181" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="O86" s="181">
         <v>2020</v>
@@ -14214,7 +14214,7 @@
     <row r="87" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="181" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="C87" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14237,7 +14237,7 @@
         <v>Bldg_SDEPre89-Wal</v>
       </c>
       <c r="N87" s="181" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="O87" s="181">
         <v>2020</v>
@@ -14249,7 +14249,7 @@
     <row r="88" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="181" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="C88" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14272,7 +14272,7 @@
         <v>Bldg_SDEPre99-Wal</v>
       </c>
       <c r="N88" s="181" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="O88" s="181">
         <v>2020</v>
@@ -14284,7 +14284,7 @@
     <row r="89" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="181" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C89" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14310,7 +14310,7 @@
         <v>Bldg_SDEPre09-Wal</v>
       </c>
       <c r="N89" s="181" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="O89" s="181">
         <v>2020</v>
@@ -14322,7 +14322,7 @@
     <row r="90" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="181" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C90" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14345,7 +14345,7 @@
         <v>Bldg_FLTPre45-Win</v>
       </c>
       <c r="N90" s="181" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="O90" s="181">
         <v>2020</v>
@@ -14357,7 +14357,7 @@
     <row r="91" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="181" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C91" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14380,7 +14380,7 @@
         <v>Bldg_FLTPre69-Win</v>
       </c>
       <c r="N91" s="181" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="O91" s="181">
         <v>2020</v>
@@ -14392,7 +14392,7 @@
     <row r="92" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="181" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="C92" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14415,7 +14415,7 @@
         <v>Bldg_FLTPre79-Win</v>
       </c>
       <c r="N92" s="181" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="O92" s="181">
         <v>2020</v>
@@ -14427,7 +14427,7 @@
     <row r="93" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="181" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="C93" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14450,7 +14450,7 @@
         <v>Bldg_FLTPre89-Win</v>
       </c>
       <c r="N93" s="181" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="O93" s="181">
         <v>2020</v>
@@ -14462,7 +14462,7 @@
     <row r="94" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="181" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C94" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14485,7 +14485,7 @@
         <v>Bldg_FLTPre99-Win</v>
       </c>
       <c r="N94" s="181" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="O94" s="181">
         <v>2020</v>
@@ -14497,7 +14497,7 @@
     <row r="95" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="181" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="C95" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14520,7 +14520,7 @@
         <v>Bldg_FLTPre09-Win</v>
       </c>
       <c r="N95" s="181" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="O95" s="181">
         <v>2020</v>
@@ -14532,7 +14532,7 @@
     <row r="96" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="181" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="C96" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14555,7 +14555,7 @@
         <v>Bldg_FLTPre45-Win</v>
       </c>
       <c r="N96" s="181" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="O96" s="181">
         <v>2020</v>
@@ -14567,7 +14567,7 @@
     <row r="97" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="181" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="C97" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14590,7 +14590,7 @@
         <v>Bldg_FLTPre69-Win</v>
       </c>
       <c r="N97" s="181" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="O97" s="181">
         <v>2020</v>
@@ -14602,7 +14602,7 @@
     <row r="98" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="181" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C98" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14625,7 +14625,7 @@
         <v>Bldg_FLTPre79-Win</v>
       </c>
       <c r="N98" s="181" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="O98" s="181">
         <v>2020</v>
@@ -14637,7 +14637,7 @@
     <row r="99" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="181" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C99" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14660,7 +14660,7 @@
         <v>Bldg_FLTPre89-Win</v>
       </c>
       <c r="N99" s="181" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="O99" s="181">
         <v>2020</v>
@@ -14672,7 +14672,7 @@
     <row r="100" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="181" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="C100" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14695,7 +14695,7 @@
         <v>Bldg_FLTPre99-Win</v>
       </c>
       <c r="N100" s="181" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="O100" s="181">
         <v>2020</v>
@@ -14707,7 +14707,7 @@
     <row r="101" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="181" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="C101" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14730,7 +14730,7 @@
         <v>Bldg_FLTPre09-Win</v>
       </c>
       <c r="N101" s="181" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="O101" s="181">
         <v>2020</v>
@@ -14742,7 +14742,7 @@
     <row r="102" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="181" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="C102" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14765,7 +14765,7 @@
         <v>Bldg_FLTPre45-Win</v>
       </c>
       <c r="N102" s="181" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="O102" s="181">
         <v>2020</v>
@@ -14777,7 +14777,7 @@
     <row r="103" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="181" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C103" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14800,7 +14800,7 @@
         <v>Bldg_FLTPre69-Win</v>
       </c>
       <c r="N103" s="181" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="O103" s="181">
         <v>2020</v>
@@ -14812,7 +14812,7 @@
     <row r="104" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="181" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="C104" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14835,7 +14835,7 @@
         <v>Bldg_FLTPre79-Win</v>
       </c>
       <c r="N104" s="181" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="O104" s="181">
         <v>2020</v>
@@ -14847,7 +14847,7 @@
     <row r="105" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="181" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C105" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14870,7 +14870,7 @@
         <v>Bldg_FLTPre89-Win</v>
       </c>
       <c r="N105" s="181" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="O105" s="181">
         <v>2020</v>
@@ -14882,7 +14882,7 @@
     <row r="106" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="181" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C106" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14905,7 +14905,7 @@
         <v>Bldg_FLTPre99-Win</v>
       </c>
       <c r="N106" s="181" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="O106" s="181">
         <v>2020</v>
@@ -14917,7 +14917,7 @@
     <row r="107" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="181" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="C107" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14940,7 +14940,7 @@
         <v>Bldg_FLTPre09-Win</v>
       </c>
       <c r="N107" s="181" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="O107" s="181">
         <v>2020</v>
@@ -14952,7 +14952,7 @@
     <row r="108" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="181" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="C108" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14975,7 +14975,7 @@
         <v>Bldg_FLTPre45-Cei</v>
       </c>
       <c r="N108" s="181" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="O108" s="181">
         <v>2020</v>
@@ -14987,7 +14987,7 @@
     <row r="109" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="181" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="C109" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15010,7 +15010,7 @@
         <v>Bldg_FLTPre69-Cei</v>
       </c>
       <c r="N109" s="181" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="O109" s="181">
         <v>2020</v>
@@ -15022,7 +15022,7 @@
     <row r="110" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="181" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="C110" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15045,7 +15045,7 @@
         <v>Bldg_FLTPre79-Cei</v>
       </c>
       <c r="N110" s="181" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="O110" s="181">
         <v>2020</v>
@@ -15057,7 +15057,7 @@
     <row r="111" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="181" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="C111" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15080,7 +15080,7 @@
         <v>Bldg_FLTPre89-Cei</v>
       </c>
       <c r="N111" s="181" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="O111" s="181">
         <v>2020</v>
@@ -15092,7 +15092,7 @@
     <row r="112" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="181" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="C112" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15115,7 +15115,7 @@
         <v>Bldg_FLTPre99-Cei</v>
       </c>
       <c r="N112" s="181" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="O112" s="181">
         <v>2020</v>
@@ -15127,7 +15127,7 @@
     <row r="113" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="181" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="C113" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15150,7 +15150,7 @@
         <v>Bldg_FLTPre09-Cei</v>
       </c>
       <c r="N113" s="181" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="O113" s="181">
         <v>2020</v>
@@ -15162,7 +15162,7 @@
     <row r="114" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="181" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="C114" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15185,7 +15185,7 @@
         <v>Bldg_FLTPre45-Cei</v>
       </c>
       <c r="N114" s="181" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="O114" s="181">
         <v>2020</v>
@@ -15197,7 +15197,7 @@
     <row r="115" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="181" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="C115" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15220,7 +15220,7 @@
         <v>Bldg_FLTPre69-Cei</v>
       </c>
       <c r="N115" s="181" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="O115" s="181">
         <v>2020</v>
@@ -15232,7 +15232,7 @@
     <row r="116" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="181" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="C116" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15255,7 +15255,7 @@
         <v>Bldg_FLTPre79-Cei</v>
       </c>
       <c r="N116" s="181" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="O116" s="181">
         <v>2020</v>
@@ -15267,7 +15267,7 @@
     <row r="117" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="181" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C117" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15290,7 +15290,7 @@
         <v>Bldg_FLTPre89-Cei</v>
       </c>
       <c r="N117" s="181" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="O117" s="181">
         <v>2020</v>
@@ -15302,7 +15302,7 @@
     <row r="118" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="181" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="C118" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15325,7 +15325,7 @@
         <v>Bldg_FLTPre99-Cei</v>
       </c>
       <c r="N118" s="181" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="O118" s="181">
         <v>2020</v>
@@ -15337,7 +15337,7 @@
     <row r="119" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="181" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="C119" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15360,7 +15360,7 @@
         <v>Bldg_FLTPre09-Cei</v>
       </c>
       <c r="N119" s="181" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="O119" s="181">
         <v>2020</v>
@@ -15372,7 +15372,7 @@
     <row r="120" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="181" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="C120" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15395,7 +15395,7 @@
         <v>Bldg_FLTPre45-Wal</v>
       </c>
       <c r="N120" s="181" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="O120" s="181">
         <v>2020</v>
@@ -15407,7 +15407,7 @@
     <row r="121" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="181" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C121" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15430,7 +15430,7 @@
         <v>Bldg_FLTPre69-Wal</v>
       </c>
       <c r="N121" s="181" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="O121" s="181">
         <v>2020</v>
@@ -15442,7 +15442,7 @@
     <row r="122" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="181" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="C122" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15465,7 +15465,7 @@
         <v>Bldg_FLTPre79-Wal</v>
       </c>
       <c r="N122" s="181" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="O122" s="181">
         <v>2020</v>
@@ -15477,7 +15477,7 @@
     <row r="123" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="181" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="C123" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15500,7 +15500,7 @@
         <v>Bldg_FLTPre89-Wal</v>
       </c>
       <c r="N123" s="181" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="O123" s="181">
         <v>2020</v>
@@ -15512,7 +15512,7 @@
     <row r="124" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="181" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C124" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15535,7 +15535,7 @@
         <v>Bldg_FLTPre99-Wal</v>
       </c>
       <c r="N124" s="181" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="O124" s="181">
         <v>2020</v>
@@ -15547,7 +15547,7 @@
     <row r="125" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="181" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C125" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15570,7 +15570,7 @@
         <v>Bldg_FLTPre09-Wal</v>
       </c>
       <c r="N125" s="181" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="O125" s="181">
         <v>2020</v>
@@ -15582,7 +15582,7 @@
     <row r="126" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="181" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C126" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15605,7 +15605,7 @@
         <v>Bldg_FLTPre45-Wal</v>
       </c>
       <c r="N126" s="181" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="O126" s="181">
         <v>2020</v>
@@ -15617,7 +15617,7 @@
     <row r="127" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="181" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="C127" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15640,7 +15640,7 @@
         <v>Bldg_FLTPre69-Wal</v>
       </c>
       <c r="N127" s="181" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="O127" s="181">
         <v>2020</v>
@@ -15652,7 +15652,7 @@
     <row r="128" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="181" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="C128" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15675,7 +15675,7 @@
         <v>Bldg_FLTPre79-Wal</v>
       </c>
       <c r="N128" s="181" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="O128" s="181">
         <v>2020</v>
@@ -15687,7 +15687,7 @@
     <row r="129" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="181" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C129" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15710,7 +15710,7 @@
         <v>Bldg_FLTPre89-Wal</v>
       </c>
       <c r="N129" s="181" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="O129" s="181">
         <v>2020</v>
@@ -15722,7 +15722,7 @@
     <row r="130" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="181" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="C130" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15745,7 +15745,7 @@
         <v>Bldg_FLTPre99-Wal</v>
       </c>
       <c r="N130" s="181" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="O130" s="181">
         <v>2020</v>
@@ -15757,7 +15757,7 @@
     <row r="131" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="181" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C131" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15780,7 +15780,7 @@
         <v>Bldg_FLTPre09-Wal</v>
       </c>
       <c r="N131" s="181" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="O131" s="181">
         <v>2020</v>
@@ -15801,10 +15801,10 @@
     </row>
     <row r="134" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B134" s="190" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="C134" s="190" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="D134" s="5"/>
       <c r="H134" s="186"/>
@@ -15814,55 +15814,55 @@
     </row>
     <row r="135" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B135" s="190" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="C135" s="190" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="D135" s="5"/>
     </row>
     <row r="136" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B136" s="190" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="C136" s="190" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="D136" s="5"/>
     </row>
     <row r="137" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B137" s="190" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="C137" s="190" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="D137" s="5"/>
     </row>
     <row r="138" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B138" s="190" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="C138" s="190" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="D138" s="5"/>
     </row>
     <row r="139" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B139" s="190" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="C139" s="190" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="D139" s="5"/>
     </row>
     <row r="140" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B140" s="190" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="C140" s="190" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="D140" s="5"/>
     </row>
@@ -16174,8 +16174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F8057-C735-4662-BAA6-EEDCF7B57273}">
   <dimension ref="A2:AO170"/>
   <sheetViews>
-    <sheetView topLeftCell="B88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N108" sqref="N108"/>
+    <sheetView tabSelected="1" topLeftCell="B118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L141" sqref="L141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16230,40 +16230,40 @@
         <v>42</v>
       </c>
       <c r="G3" s="64" t="s">
+        <v>685</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>686</v>
+      </c>
+      <c r="I3" s="64" t="s">
+        <v>687</v>
+      </c>
+      <c r="J3" s="64" t="s">
+        <v>688</v>
+      </c>
+      <c r="K3" s="64" t="s">
+        <v>689</v>
+      </c>
+      <c r="L3" s="64" t="s">
+        <v>690</v>
+      </c>
+      <c r="M3" s="64" t="s">
+        <v>691</v>
+      </c>
+      <c r="N3" s="64" t="s">
         <v>692</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="O3" s="64" t="s">
         <v>693</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="P3" s="64" t="s">
         <v>694</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="Q3" s="64" t="s">
         <v>695</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="R3" s="64" t="s">
         <v>696</v>
-      </c>
-      <c r="L3" s="64" t="s">
-        <v>697</v>
-      </c>
-      <c r="M3" s="64" t="s">
-        <v>698</v>
-      </c>
-      <c r="N3" s="64" t="s">
-        <v>699</v>
-      </c>
-      <c r="O3" s="64" t="s">
-        <v>700</v>
-      </c>
-      <c r="P3" s="64" t="s">
-        <v>701</v>
-      </c>
-      <c r="Q3" s="64" t="s">
-        <v>702</v>
-      </c>
-      <c r="R3" s="64" t="s">
-        <v>703</v>
       </c>
       <c r="S3" s="65" t="s">
         <v>44</v>
@@ -16272,7 +16272,7 @@
         <v>330</v>
       </c>
       <c r="U3" s="64" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="V3" s="64" t="s">
         <v>342</v>
@@ -16299,7 +16299,7 @@
         <v>390</v>
       </c>
       <c r="AD3" s="64" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="AE3" s="64" t="s">
         <v>331</v>
@@ -16325,7 +16325,7 @@
         <v>335</v>
       </c>
       <c r="G4" s="389" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="H4" s="390"/>
       <c r="I4" s="390"/>
@@ -16355,16 +16355,16 @@
       <c r="Y4" s="107"/>
       <c r="Z4" s="107"/>
       <c r="AA4" s="115" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="AB4" s="118" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="AC4" s="118" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="AD4" s="118" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="AE4" s="107" t="s">
         <v>127</v>
@@ -16385,7 +16385,7 @@
     </row>
     <row r="5" spans="3:41" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="61" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="D5" s="61"/>
       <c r="E5" s="61"/>
@@ -16530,7 +16530,7 @@
         <v>352</v>
       </c>
       <c r="E7" s="137" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="F7" s="103" t="s">
         <v>410</v>
@@ -16601,7 +16601,7 @@
         <v>16</v>
       </c>
       <c r="AM7" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN7" s="154"/>
       <c r="AO7" s="154" t="s">
@@ -16617,10 +16617,10 @@
         <v>353</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="F8" s="104" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="G8" s="339">
         <v>1</v>
@@ -16698,7 +16698,7 @@
         <v>16</v>
       </c>
       <c r="AM8" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN8" s="154"/>
       <c r="AO8" s="154" t="s">
@@ -16714,10 +16714,10 @@
         <v>354</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="F9" s="105" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="G9" s="336">
         <v>1</v>
@@ -16799,7 +16799,7 @@
         <v>16</v>
       </c>
       <c r="AM9" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN9" s="154"/>
       <c r="AO9" s="154" t="s">
@@ -16815,10 +16815,10 @@
         <v>358</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="F10" s="104" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="G10" s="339">
         <v>1</v>
@@ -16900,7 +16900,7 @@
         <v>16</v>
       </c>
       <c r="AM10" s="155" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN10" s="154"/>
       <c r="AO10" s="154"/>
@@ -16983,7 +16983,7 @@
         <v>16</v>
       </c>
       <c r="AM11" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN11" s="154"/>
       <c r="AO11" s="154" t="s">
@@ -17002,7 +17002,7 @@
         <v>451</v>
       </c>
       <c r="F12" s="104" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="G12" s="339">
         <v>1</v>
@@ -17080,7 +17080,7 @@
         <v>16</v>
       </c>
       <c r="AM12" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN12" s="154"/>
       <c r="AO12" s="154" t="s">
@@ -17096,10 +17096,10 @@
         <v>356</v>
       </c>
       <c r="E13" s="77" t="s">
+        <v>785</v>
+      </c>
+      <c r="F13" s="105" t="s">
         <v>792</v>
-      </c>
-      <c r="F13" s="105" t="s">
-        <v>799</v>
       </c>
       <c r="G13" s="336">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         <v>16</v>
       </c>
       <c r="AM13" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN13" s="154"/>
       <c r="AO13" s="154" t="s">
@@ -17197,10 +17197,10 @@
         <v>357</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F14" s="104" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="G14" s="339">
         <v>1</v>
@@ -17282,7 +17282,7 @@
         <v>16</v>
       </c>
       <c r="AM14" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN14" s="154"/>
       <c r="AO14" s="154" t="s">
@@ -17367,7 +17367,7 @@
         <v>16</v>
       </c>
       <c r="AM15" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN15" s="154"/>
       <c r="AO15" s="154" t="s">
@@ -17386,7 +17386,7 @@
         <v>452</v>
       </c>
       <c r="F16" s="104" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="G16" s="339">
         <v>1</v>
@@ -17464,7 +17464,7 @@
         <v>16</v>
       </c>
       <c r="AM16" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN16" s="154"/>
       <c r="AO16" s="154" t="s">
@@ -17480,7 +17480,7 @@
         <v>363</v>
       </c>
       <c r="E17" s="77" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="F17" s="105" t="s">
         <v>410</v>
@@ -17549,7 +17549,7 @@
         <v>16</v>
       </c>
       <c r="AM17" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN17" s="154"/>
       <c r="AO17" s="154" t="s">
@@ -17565,10 +17565,10 @@
         <v>364</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="F18" s="104" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="G18" s="339">
         <v>1</v>
@@ -17646,7 +17646,7 @@
         <v>16</v>
       </c>
       <c r="AM18" s="157" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN18" s="157"/>
       <c r="AO18" s="157" t="s">
@@ -17655,13 +17655,13 @@
     </row>
     <row r="19" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="335" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="D19" s="350" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="E19" s="170" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="F19" s="143"/>
       <c r="G19" s="345">
@@ -17736,7 +17736,7 @@
         <v>16</v>
       </c>
       <c r="AM19" s="158" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN19" s="158"/>
       <c r="AO19" s="158" t="s">
@@ -17790,7 +17790,7 @@
         <v>16</v>
       </c>
       <c r="AM20" s="152" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN20" s="152"/>
       <c r="AO20" s="152" t="s">
@@ -17875,7 +17875,7 @@
         <v>16</v>
       </c>
       <c r="AM21" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN21" s="154"/>
       <c r="AO21" s="154" t="s">
@@ -17929,7 +17929,7 @@
         <v>16</v>
       </c>
       <c r="AM22" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN22" s="154"/>
       <c r="AO22" s="154" t="s">
@@ -18014,7 +18014,7 @@
         <v>16</v>
       </c>
       <c r="AM23" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN23" s="154"/>
       <c r="AO23" s="154" t="s">
@@ -18033,7 +18033,7 @@
         <v>448</v>
       </c>
       <c r="F24" s="104" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="G24" s="339">
         <v>1</v>
@@ -18107,7 +18107,7 @@
         <v>16</v>
       </c>
       <c r="AM24" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN24" s="154"/>
       <c r="AO24" s="154" t="s">
@@ -18192,7 +18192,7 @@
         <v>16</v>
       </c>
       <c r="AM25" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN25" s="154"/>
       <c r="AO25" s="154" t="s">
@@ -18211,7 +18211,7 @@
         <v>448</v>
       </c>
       <c r="F26" s="104" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="G26" s="339">
         <v>1</v>
@@ -18289,7 +18289,7 @@
         <v>16</v>
       </c>
       <c r="AM26" s="157" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN26" s="157"/>
       <c r="AO26" s="157" t="s">
@@ -18305,10 +18305,10 @@
         <v>373</v>
       </c>
       <c r="E27" s="77" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="F27" s="105" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="G27" s="336">
         <v>1</v>
@@ -18390,7 +18390,7 @@
         <v>16</v>
       </c>
       <c r="AM27" s="152" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN27" s="152"/>
       <c r="AO27" s="152" t="s">
@@ -18475,7 +18475,7 @@
         <v>16</v>
       </c>
       <c r="AM28" s="157" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN28" s="157"/>
       <c r="AO28" s="157" t="s">
@@ -18494,7 +18494,7 @@
         <v>448</v>
       </c>
       <c r="F29" s="143" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="G29" s="345">
         <v>1</v>
@@ -18568,7 +18568,7 @@
         <v>16</v>
       </c>
       <c r="AM29" s="158" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN29" s="158"/>
       <c r="AO29" s="158" t="s">
@@ -18622,7 +18622,7 @@
         <v>16</v>
       </c>
       <c r="AM30" s="152" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN30" s="152"/>
       <c r="AO30" s="152" t="s">
@@ -18641,7 +18641,7 @@
         <v>451</v>
       </c>
       <c r="F31" s="137" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="G31" s="342">
         <v>1</v>
@@ -18719,7 +18719,7 @@
         <v>16</v>
       </c>
       <c r="AM31" s="157" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN31" s="157"/>
       <c r="AO31" s="157" t="s">
@@ -18738,7 +18738,7 @@
         <v>451</v>
       </c>
       <c r="F32" s="74" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="G32" s="355">
         <v>1</v>
@@ -18816,7 +18816,7 @@
         <v>16</v>
       </c>
       <c r="AM32" s="152" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN32" s="152"/>
       <c r="AO32" s="152" t="s">
@@ -18870,7 +18870,7 @@
         <v>16</v>
       </c>
       <c r="AM33" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN33" s="154"/>
       <c r="AO33" s="154" t="s">
@@ -18886,10 +18886,10 @@
         <v>402</v>
       </c>
       <c r="E34" s="172" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="F34" s="146" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="G34" s="355">
         <v>1</v>
@@ -18972,7 +18972,7 @@
         <v>16</v>
       </c>
       <c r="AM34" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN34" s="154"/>
       <c r="AO34" s="154" t="s">
@@ -19026,7 +19026,7 @@
         <v>16</v>
       </c>
       <c r="AM35" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN35" s="154"/>
       <c r="AO35" s="154" t="s">
@@ -19042,10 +19042,10 @@
         <v>380</v>
       </c>
       <c r="E36" s="137" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="G36" s="342">
         <v>1</v>
@@ -19119,7 +19119,7 @@
         <v>16</v>
       </c>
       <c r="AM36" s="157" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN36" s="157"/>
       <c r="AO36" s="157" t="s">
@@ -19135,10 +19135,10 @@
         <v>381</v>
       </c>
       <c r="E37" s="74" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F37" s="75" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="G37" s="355">
         <v>1</v>
@@ -19212,7 +19212,7 @@
         <v>16</v>
       </c>
       <c r="AM37" s="152" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN37" s="152"/>
       <c r="AO37" s="152" t="s">
@@ -19329,7 +19329,7 @@
         <v>384</v>
       </c>
       <c r="E40" s="71" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F40" s="70" t="s">
         <v>412</v>
@@ -19463,7 +19463,7 @@
         <v>385</v>
       </c>
       <c r="E42" s="71" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="F42" s="70" t="s">
         <v>412</v>
@@ -19706,40 +19706,40 @@
         <v>42</v>
       </c>
       <c r="G50" s="64" t="s">
+        <v>700</v>
+      </c>
+      <c r="H50" s="64" t="s">
+        <v>701</v>
+      </c>
+      <c r="I50" s="64" t="s">
+        <v>702</v>
+      </c>
+      <c r="J50" s="64" t="s">
+        <v>703</v>
+      </c>
+      <c r="K50" s="64" t="s">
+        <v>704</v>
+      </c>
+      <c r="L50" s="64" t="s">
+        <v>705</v>
+      </c>
+      <c r="M50" s="64" t="s">
+        <v>706</v>
+      </c>
+      <c r="N50" s="64" t="s">
         <v>707</v>
       </c>
-      <c r="H50" s="64" t="s">
+      <c r="O50" s="64" t="s">
         <v>708</v>
       </c>
-      <c r="I50" s="64" t="s">
+      <c r="P50" s="64" t="s">
         <v>709</v>
       </c>
-      <c r="J50" s="64" t="s">
+      <c r="Q50" s="64" t="s">
         <v>710</v>
       </c>
-      <c r="K50" s="64" t="s">
+      <c r="R50" s="64" t="s">
         <v>711</v>
-      </c>
-      <c r="L50" s="64" t="s">
-        <v>712</v>
-      </c>
-      <c r="M50" s="64" t="s">
-        <v>713</v>
-      </c>
-      <c r="N50" s="64" t="s">
-        <v>714</v>
-      </c>
-      <c r="O50" s="64" t="s">
-        <v>715</v>
-      </c>
-      <c r="P50" s="64" t="s">
-        <v>716</v>
-      </c>
-      <c r="Q50" s="64" t="s">
-        <v>717</v>
-      </c>
-      <c r="R50" s="64" t="s">
-        <v>718</v>
       </c>
       <c r="S50" s="65" t="s">
         <v>44</v>
@@ -19748,7 +19748,7 @@
         <v>330</v>
       </c>
       <c r="U50" s="64" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="V50" s="64" t="s">
         <v>342</v>
@@ -19775,7 +19775,7 @@
         <v>390</v>
       </c>
       <c r="AD50" s="64" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="AE50" s="64" t="s">
         <v>331</v>
@@ -19840,16 +19840,16 @@
       <c r="Y51" s="107"/>
       <c r="Z51" s="107"/>
       <c r="AA51" s="115" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="AB51" s="118" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="AC51" s="118" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="AD51" s="118" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="AE51" s="107" t="s">
         <v>127</v>
@@ -19882,7 +19882,7 @@
     </row>
     <row r="52" spans="3:41" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C52" s="61" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="D52" s="61"/>
       <c r="E52" s="61"/>
@@ -20011,7 +20011,7 @@
         <v>16</v>
       </c>
       <c r="AM53" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN53" s="154"/>
       <c r="AO53" s="154" t="s">
@@ -20027,7 +20027,7 @@
         <v>352</v>
       </c>
       <c r="E54" s="77" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="F54" s="76" t="s">
         <v>433</v>
@@ -20096,7 +20096,7 @@
         <v>16</v>
       </c>
       <c r="AM54" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN54" s="154"/>
       <c r="AO54" s="154" t="s">
@@ -20112,10 +20112,10 @@
         <v>353</v>
       </c>
       <c r="E55" s="71" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="F55" s="70" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="G55" s="339">
         <v>1</v>
@@ -20193,7 +20193,7 @@
         <v>16</v>
       </c>
       <c r="AM55" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN55" s="154"/>
       <c r="AO55" s="154" t="s">
@@ -20209,10 +20209,10 @@
         <v>354</v>
       </c>
       <c r="E56" s="77" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="F56" s="76" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="G56" s="336">
         <v>1</v>
@@ -20294,7 +20294,7 @@
         <v>16</v>
       </c>
       <c r="AM56" s="155" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN56" s="154"/>
       <c r="AO56" s="154"/>
@@ -20308,10 +20308,10 @@
         <v>358</v>
       </c>
       <c r="E57" s="71" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="F57" s="70" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="G57" s="339">
         <v>1</v>
@@ -20393,7 +20393,7 @@
         <v>16</v>
       </c>
       <c r="AM57" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN57" s="154"/>
       <c r="AO57" s="154" t="s">
@@ -20478,7 +20478,7 @@
         <v>16</v>
       </c>
       <c r="AM58" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN58" s="154"/>
       <c r="AO58" s="154" t="s">
@@ -20497,7 +20497,7 @@
         <v>451</v>
       </c>
       <c r="F59" s="70" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="G59" s="339">
         <v>1</v>
@@ -20575,7 +20575,7 @@
         <v>16</v>
       </c>
       <c r="AM59" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN59" s="154"/>
       <c r="AO59" s="154" t="s">
@@ -20591,10 +20591,10 @@
         <v>356</v>
       </c>
       <c r="E60" s="77" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="F60" s="76" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="G60" s="336">
         <v>1</v>
@@ -20676,7 +20676,7 @@
         <v>16</v>
       </c>
       <c r="AM60" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN60" s="154"/>
       <c r="AO60" s="154" t="s">
@@ -20692,10 +20692,10 @@
         <v>357</v>
       </c>
       <c r="E61" s="71" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F61" s="70" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="G61" s="339">
         <v>1</v>
@@ -20777,7 +20777,7 @@
         <v>16</v>
       </c>
       <c r="AM61" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN61" s="154"/>
       <c r="AO61" s="154" t="s">
@@ -20862,7 +20862,7 @@
         <v>16</v>
       </c>
       <c r="AM62" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN62" s="154"/>
       <c r="AO62" s="154" t="s">
@@ -20881,7 +20881,7 @@
         <v>452</v>
       </c>
       <c r="F63" s="70" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="G63" s="339">
         <v>1</v>
@@ -20959,7 +20959,7 @@
         <v>16</v>
       </c>
       <c r="AM63" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN63" s="154"/>
       <c r="AO63" s="154" t="s">
@@ -20975,7 +20975,7 @@
         <v>363</v>
       </c>
       <c r="E64" s="77" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="F64" s="76" t="s">
         <v>433</v>
@@ -21044,7 +21044,7 @@
         <v>16</v>
       </c>
       <c r="AM64" s="157" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN64" s="157"/>
       <c r="AO64" s="157" t="s">
@@ -21060,10 +21060,10 @@
         <v>364</v>
       </c>
       <c r="E65" s="74" t="s">
+        <v>787</v>
+      </c>
+      <c r="F65" s="73" t="s">
         <v>794</v>
-      </c>
-      <c r="F65" s="73" t="s">
-        <v>801</v>
       </c>
       <c r="G65" s="339">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         <v>16</v>
       </c>
       <c r="AM65" s="158" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN65" s="158"/>
       <c r="AO65" s="158" t="s">
@@ -21195,7 +21195,7 @@
         <v>16</v>
       </c>
       <c r="AM66" s="152" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN66" s="152"/>
       <c r="AO66" s="152" t="s">
@@ -21280,7 +21280,7 @@
         <v>16</v>
       </c>
       <c r="AM67" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN67" s="154"/>
       <c r="AO67" s="154" t="s">
@@ -21334,7 +21334,7 @@
         <v>16</v>
       </c>
       <c r="AM68" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN68" s="154"/>
       <c r="AO68" s="154" t="s">
@@ -21419,7 +21419,7 @@
         <v>16</v>
       </c>
       <c r="AM69" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN69" s="154"/>
       <c r="AO69" s="154" t="s">
@@ -21438,7 +21438,7 @@
         <v>448</v>
       </c>
       <c r="F70" s="70" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="G70" s="339">
         <v>1</v>
@@ -21512,7 +21512,7 @@
         <v>16</v>
       </c>
       <c r="AM70" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN70" s="154"/>
       <c r="AO70" s="154" t="s">
@@ -21597,7 +21597,7 @@
         <v>16</v>
       </c>
       <c r="AM71" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN71" s="154"/>
       <c r="AO71" s="154" t="s">
@@ -21616,7 +21616,7 @@
         <v>448</v>
       </c>
       <c r="F72" s="70" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="G72" s="339">
         <v>1</v>
@@ -21694,7 +21694,7 @@
         <v>16</v>
       </c>
       <c r="AM72" s="157" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN72" s="157"/>
       <c r="AO72" s="157" t="s">
@@ -21710,10 +21710,10 @@
         <v>373</v>
       </c>
       <c r="E73" s="77" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="F73" s="76" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="G73" s="336">
         <v>1</v>
@@ -21795,7 +21795,7 @@
         <v>16</v>
       </c>
       <c r="AM73" s="152" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN73" s="152"/>
       <c r="AO73" s="152" t="s">
@@ -21880,7 +21880,7 @@
         <v>16</v>
       </c>
       <c r="AM74" s="157" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN74" s="157"/>
       <c r="AO74" s="157" t="s">
@@ -21899,7 +21899,7 @@
         <v>448</v>
       </c>
       <c r="F75" s="76" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="G75" s="345">
         <v>1</v>
@@ -21973,7 +21973,7 @@
         <v>16</v>
       </c>
       <c r="AM75" s="158" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN75" s="158"/>
       <c r="AO75" s="158" t="s">
@@ -22027,7 +22027,7 @@
         <v>16</v>
       </c>
       <c r="AM76" s="152" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN76" s="152"/>
       <c r="AO76" s="152" t="s">
@@ -22046,7 +22046,7 @@
         <v>451</v>
       </c>
       <c r="F77" s="137" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="G77" s="342">
         <v>1</v>
@@ -22124,7 +22124,7 @@
         <v>16</v>
       </c>
       <c r="AM77" s="157" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN77" s="157"/>
       <c r="AO77" s="157" t="s">
@@ -22143,7 +22143,7 @@
         <v>451</v>
       </c>
       <c r="F78" s="74" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="G78" s="355">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         <v>16</v>
       </c>
       <c r="AM78" s="152" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN78" s="152"/>
       <c r="AO78" s="152" t="s">
@@ -22275,7 +22275,7 @@
         <v>16</v>
       </c>
       <c r="AM79" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN79" s="154"/>
       <c r="AO79" s="154" t="s">
@@ -22291,10 +22291,10 @@
         <v>402</v>
       </c>
       <c r="E80" s="172" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="F80" s="76" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="G80" s="355">
         <v>1</v>
@@ -22376,7 +22376,7 @@
         <v>16</v>
       </c>
       <c r="AM80" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN80" s="154"/>
       <c r="AO80" s="154" t="s">
@@ -22430,7 +22430,7 @@
         <v>16</v>
       </c>
       <c r="AM81" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN81" s="154"/>
       <c r="AO81" s="154" t="s">
@@ -22446,10 +22446,10 @@
         <v>380</v>
       </c>
       <c r="E82" s="137" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F82" s="137" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="G82" s="342">
         <v>1</v>
@@ -22523,7 +22523,7 @@
         <v>16</v>
       </c>
       <c r="AM82" s="157" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN82" s="157"/>
       <c r="AO82" s="157" t="s">
@@ -22539,10 +22539,10 @@
         <v>381</v>
       </c>
       <c r="E83" s="74" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F83" s="74" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="G83" s="355">
         <v>1</v>
@@ -22616,7 +22616,7 @@
         <v>16</v>
       </c>
       <c r="AM83" s="152" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN83" s="152"/>
       <c r="AO83" s="152" t="s">
@@ -22733,7 +22733,7 @@
         <v>384</v>
       </c>
       <c r="E86" s="71" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F86" s="70" t="s">
         <v>436</v>
@@ -22867,7 +22867,7 @@
         <v>385</v>
       </c>
       <c r="E88" s="71" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="F88" s="70" t="s">
         <v>436</v>
@@ -23110,40 +23110,40 @@
         <v>42</v>
       </c>
       <c r="G97" s="64" t="s">
+        <v>712</v>
+      </c>
+      <c r="H97" s="64" t="s">
+        <v>713</v>
+      </c>
+      <c r="I97" s="64" t="s">
+        <v>714</v>
+      </c>
+      <c r="J97" s="64" t="s">
+        <v>715</v>
+      </c>
+      <c r="K97" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="L97" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="M97" s="64" t="s">
+        <v>718</v>
+      </c>
+      <c r="N97" s="64" t="s">
         <v>719</v>
       </c>
-      <c r="H97" s="64" t="s">
+      <c r="O97" s="64" t="s">
         <v>720</v>
       </c>
-      <c r="I97" s="64" t="s">
+      <c r="P97" s="64" t="s">
         <v>721</v>
       </c>
-      <c r="J97" s="64" t="s">
+      <c r="Q97" s="64" t="s">
         <v>722</v>
       </c>
-      <c r="K97" s="64" t="s">
+      <c r="R97" s="64" t="s">
         <v>723</v>
-      </c>
-      <c r="L97" s="64" t="s">
-        <v>724</v>
-      </c>
-      <c r="M97" s="64" t="s">
-        <v>725</v>
-      </c>
-      <c r="N97" s="64" t="s">
-        <v>726</v>
-      </c>
-      <c r="O97" s="64" t="s">
-        <v>727</v>
-      </c>
-      <c r="P97" s="64" t="s">
-        <v>728</v>
-      </c>
-      <c r="Q97" s="64" t="s">
-        <v>729</v>
-      </c>
-      <c r="R97" s="64" t="s">
-        <v>730</v>
       </c>
       <c r="S97" s="65" t="s">
         <v>44</v>
@@ -23152,7 +23152,7 @@
         <v>330</v>
       </c>
       <c r="U97" s="64" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="V97" s="64" t="s">
         <v>342</v>
@@ -23179,7 +23179,7 @@
         <v>390</v>
       </c>
       <c r="AD97" s="64" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="AE97" s="64" t="s">
         <v>331</v>
@@ -23244,16 +23244,16 @@
       <c r="Y98" s="107"/>
       <c r="Z98" s="107"/>
       <c r="AA98" s="115" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="AB98" s="118" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="AC98" s="118" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="AD98" s="118" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="AE98" s="107" t="s">
         <v>127</v>
@@ -23286,7 +23286,7 @@
     </row>
     <row r="99" spans="3:41" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C99" s="61" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="D99" s="61"/>
       <c r="E99" s="61"/>
@@ -23415,7 +23415,7 @@
         <v>16</v>
       </c>
       <c r="AM100" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN100" s="154"/>
       <c r="AO100" s="154" t="s">
@@ -23431,7 +23431,7 @@
         <v>352</v>
       </c>
       <c r="E101" s="77" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="F101" s="76" t="s">
         <v>441</v>
@@ -23500,7 +23500,7 @@
         <v>16</v>
       </c>
       <c r="AM101" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN101" s="154"/>
       <c r="AO101" s="154" t="s">
@@ -23516,10 +23516,10 @@
         <v>353</v>
       </c>
       <c r="E102" s="71" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="F102" s="70" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="G102" s="339">
         <v>1</v>
@@ -23597,7 +23597,7 @@
         <v>16</v>
       </c>
       <c r="AM102" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN102" s="154"/>
       <c r="AO102" s="154" t="s">
@@ -23613,10 +23613,10 @@
         <v>354</v>
       </c>
       <c r="E103" s="77" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="F103" s="76" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="G103" s="336">
         <v>1</v>
@@ -23698,7 +23698,7 @@
         <v>16</v>
       </c>
       <c r="AM103" s="155" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN103" s="154"/>
       <c r="AO103" s="154"/>
@@ -23712,10 +23712,10 @@
         <v>358</v>
       </c>
       <c r="E104" s="71" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="F104" s="70" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="G104" s="339">
         <v>1</v>
@@ -23797,7 +23797,7 @@
         <v>16</v>
       </c>
       <c r="AM104" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN104" s="154"/>
       <c r="AO104" s="154" t="s">
@@ -23882,7 +23882,7 @@
         <v>16</v>
       </c>
       <c r="AM105" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN105" s="154"/>
       <c r="AO105" s="154" t="s">
@@ -23901,7 +23901,7 @@
         <v>451</v>
       </c>
       <c r="F106" s="70" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="G106" s="339">
         <v>1</v>
@@ -23979,7 +23979,7 @@
         <v>16</v>
       </c>
       <c r="AM106" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN106" s="154"/>
       <c r="AO106" s="154" t="s">
@@ -23995,10 +23995,10 @@
         <v>356</v>
       </c>
       <c r="E107" s="77" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="F107" s="76" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="G107" s="336">
         <v>1</v>
@@ -24080,7 +24080,7 @@
         <v>16</v>
       </c>
       <c r="AM107" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN107" s="154"/>
       <c r="AO107" s="154" t="s">
@@ -24096,10 +24096,10 @@
         <v>357</v>
       </c>
       <c r="E108" s="71" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F108" s="70" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="G108" s="339">
         <v>1</v>
@@ -24181,7 +24181,7 @@
         <v>16</v>
       </c>
       <c r="AM108" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN108" s="154"/>
       <c r="AO108" s="154" t="s">
@@ -24266,7 +24266,7 @@
         <v>16</v>
       </c>
       <c r="AM109" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN109" s="154"/>
       <c r="AO109" s="154" t="s">
@@ -24285,7 +24285,7 @@
         <v>452</v>
       </c>
       <c r="F110" s="70" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="G110" s="339">
         <v>1</v>
@@ -24363,7 +24363,7 @@
         <v>16</v>
       </c>
       <c r="AM110" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN110" s="154"/>
       <c r="AO110" s="154" t="s">
@@ -24379,7 +24379,7 @@
         <v>363</v>
       </c>
       <c r="E111" s="77" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="F111" s="76" t="s">
         <v>441</v>
@@ -24448,7 +24448,7 @@
         <v>16</v>
       </c>
       <c r="AM111" s="157" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN111" s="157"/>
       <c r="AO111" s="157" t="s">
@@ -24464,10 +24464,10 @@
         <v>364</v>
       </c>
       <c r="E112" s="74" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="F112" s="73" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="G112" s="339">
         <v>1</v>
@@ -24545,7 +24545,7 @@
         <v>16</v>
       </c>
       <c r="AM112" s="158" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN112" s="158"/>
       <c r="AO112" s="158" t="s">
@@ -24599,7 +24599,7 @@
         <v>16</v>
       </c>
       <c r="AM113" s="152" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN113" s="152"/>
       <c r="AO113" s="152" t="s">
@@ -24684,7 +24684,7 @@
         <v>16</v>
       </c>
       <c r="AM114" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN114" s="154"/>
       <c r="AO114" s="154" t="s">
@@ -24738,7 +24738,7 @@
         <v>16</v>
       </c>
       <c r="AM115" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN115" s="154"/>
       <c r="AO115" s="154" t="s">
@@ -24823,7 +24823,7 @@
         <v>16</v>
       </c>
       <c r="AM116" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN116" s="154"/>
       <c r="AO116" s="154" t="s">
@@ -24842,7 +24842,7 @@
         <v>448</v>
       </c>
       <c r="F117" s="70" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="G117" s="339">
         <v>1</v>
@@ -24916,7 +24916,7 @@
         <v>16</v>
       </c>
       <c r="AM117" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN117" s="154"/>
       <c r="AO117" s="154" t="s">
@@ -25001,7 +25001,7 @@
         <v>16</v>
       </c>
       <c r="AM118" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN118" s="154"/>
       <c r="AO118" s="154" t="s">
@@ -25020,7 +25020,7 @@
         <v>448</v>
       </c>
       <c r="F119" s="70" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="G119" s="339">
         <v>1</v>
@@ -25098,7 +25098,7 @@
         <v>16</v>
       </c>
       <c r="AM119" s="157" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN119" s="157"/>
       <c r="AO119" s="157" t="s">
@@ -25114,10 +25114,10 @@
         <v>373</v>
       </c>
       <c r="E120" s="77" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="F120" s="76" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="G120" s="336">
         <v>1</v>
@@ -25199,7 +25199,7 @@
         <v>16</v>
       </c>
       <c r="AM120" s="152" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN120" s="152"/>
       <c r="AO120" s="152" t="s">
@@ -25284,7 +25284,7 @@
         <v>16</v>
       </c>
       <c r="AM121" s="157" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN121" s="157"/>
       <c r="AO121" s="157" t="s">
@@ -25303,7 +25303,7 @@
         <v>448</v>
       </c>
       <c r="F122" s="76" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="G122" s="345">
         <v>1</v>
@@ -25377,7 +25377,7 @@
         <v>16</v>
       </c>
       <c r="AM122" s="158" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN122" s="158"/>
       <c r="AO122" s="158" t="s">
@@ -25431,7 +25431,7 @@
         <v>16</v>
       </c>
       <c r="AM123" s="152" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN123" s="152"/>
       <c r="AO123" s="152" t="s">
@@ -25450,7 +25450,7 @@
         <v>451</v>
       </c>
       <c r="F124" s="137" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="G124" s="342">
         <v>1</v>
@@ -25528,7 +25528,7 @@
         <v>16</v>
       </c>
       <c r="AM124" s="157" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN124" s="157"/>
       <c r="AO124" s="157" t="s">
@@ -25547,7 +25547,7 @@
         <v>451</v>
       </c>
       <c r="F125" s="74" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="G125" s="355">
         <v>1</v>
@@ -25625,7 +25625,7 @@
         <v>16</v>
       </c>
       <c r="AM125" s="152" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN125" s="152"/>
       <c r="AO125" s="152" t="s">
@@ -25679,7 +25679,7 @@
         <v>16</v>
       </c>
       <c r="AM126" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN126" s="154"/>
       <c r="AO126" s="154" t="s">
@@ -25695,10 +25695,10 @@
         <v>402</v>
       </c>
       <c r="E127" s="172" t="s">
+        <v>789</v>
+      </c>
+      <c r="F127" s="76" t="s">
         <v>796</v>
-      </c>
-      <c r="F127" s="76" t="s">
-        <v>803</v>
       </c>
       <c r="G127" s="355">
         <v>1</v>
@@ -25780,7 +25780,7 @@
         <v>16</v>
       </c>
       <c r="AM127" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN127" s="154"/>
       <c r="AO127" s="154" t="s">
@@ -25834,7 +25834,7 @@
         <v>16</v>
       </c>
       <c r="AM128" s="154" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN128" s="154"/>
       <c r="AO128" s="154" t="s">
@@ -25850,10 +25850,10 @@
         <v>380</v>
       </c>
       <c r="E129" s="137" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F129" s="137" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="G129" s="342">
         <v>1</v>
@@ -25927,7 +25927,7 @@
         <v>16</v>
       </c>
       <c r="AM129" s="157" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN129" s="157"/>
       <c r="AO129" s="157" t="s">
@@ -25943,10 +25943,10 @@
         <v>381</v>
       </c>
       <c r="E130" s="74" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F130" s="74" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="G130" s="355">
         <v>1</v>
@@ -26020,7 +26020,7 @@
         <v>16</v>
       </c>
       <c r="AM130" s="152" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AN130" s="152"/>
       <c r="AO130" s="152" t="s">
@@ -26137,7 +26137,7 @@
         <v>384</v>
       </c>
       <c r="E133" s="71" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F133" s="70" t="s">
         <v>444</v>
@@ -26271,7 +26271,7 @@
         <v>385</v>
       </c>
       <c r="E135" s="71" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="F135" s="70" t="s">
         <v>444</v>
@@ -26547,6 +26547,12 @@
         <v>26</v>
       </c>
       <c r="B145" s="60"/>
+      <c r="C145" s="57"/>
+      <c r="D145" s="57"/>
+      <c r="E145" s="57"/>
+      <c r="F145" s="57"/>
+      <c r="G145" s="57"/>
+      <c r="H145" s="57"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="58" t="s">
@@ -26555,12 +26561,24 @@
       <c r="B146" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="C146" s="57"/>
-      <c r="D146" s="57"/>
-      <c r="E146" s="57"/>
-      <c r="F146" s="57"/>
-      <c r="G146" s="57"/>
-      <c r="H146" s="57"/>
+      <c r="C146" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D146" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F146" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G146" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H146" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="I146" s="57"/>
     </row>
     <row r="147" spans="1:9" ht="45" x14ac:dyDescent="0.2">
@@ -26570,80 +26588,74 @@
       <c r="B147" s="167" t="s">
         <v>323</v>
       </c>
-      <c r="C147" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D147" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="E147" s="58" t="s">
+      <c r="C147" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="D147" s="167" t="s">
+        <v>34</v>
+      </c>
+      <c r="E147" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="F147" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="G147" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H147" s="58" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="F147" s="167" t="s">
+        <v>324</v>
+      </c>
+      <c r="G147" s="167" t="s">
+        <v>35</v>
+      </c>
+      <c r="H147" s="167" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="162" t="s">
         <v>325</v>
       </c>
       <c r="B148" s="153" t="s">
-        <v>805</v>
-      </c>
-      <c r="C148" s="167" t="s">
-        <v>33</v>
-      </c>
-      <c r="D148" s="167" t="s">
-        <v>34</v>
-      </c>
-      <c r="E148" s="167" t="s">
-        <v>29</v>
-      </c>
-      <c r="F148" s="167" t="s">
-        <v>324</v>
-      </c>
-      <c r="G148" s="167" t="s">
-        <v>35</v>
-      </c>
-      <c r="H148" s="167" t="s">
-        <v>36</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="C148" s="153" t="s">
+        <v>391</v>
+      </c>
+      <c r="D148" s="154" t="s">
+        <v>398</v>
+      </c>
+      <c r="E148" s="154" t="s">
+        <v>397</v>
+      </c>
+      <c r="F148" s="154"/>
+      <c r="G148" s="154"/>
+      <c r="H148" s="162"/>
     </row>
     <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="153" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="C149" s="153" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D149" s="154" t="s">
-        <v>398</v>
+        <v>326</v>
       </c>
       <c r="E149" s="154" t="s">
         <v>397</v>
       </c>
       <c r="F149" s="154"/>
       <c r="G149" s="154"/>
-      <c r="H149" s="162"/>
+      <c r="H149" s="4"/>
       <c r="I149" s="57"/>
     </row>
     <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="153" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="C150" s="153" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D150" s="154" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E150" s="154" t="s">
         <v>397</v>
@@ -26656,51 +26668,51 @@
     <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="162"/>
       <c r="B151" s="153" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="C151" s="153" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D151" s="154" t="s">
-        <v>327</v>
+        <v>399</v>
       </c>
       <c r="E151" s="154" t="s">
         <v>397</v>
       </c>
       <c r="F151" s="154"/>
       <c r="G151" s="154"/>
-      <c r="H151" s="4"/>
+      <c r="H151" s="162"/>
       <c r="I151" s="57"/>
     </row>
     <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="153" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="C152" s="153" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D152" s="154" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E152" s="154" t="s">
         <v>397</v>
       </c>
       <c r="F152" s="154"/>
       <c r="G152" s="154"/>
-      <c r="H152" s="162"/>
+      <c r="H152" s="4"/>
       <c r="I152" s="57"/>
     </row>
     <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="153" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="C153" s="153" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D153" s="154" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E153" s="154" t="s">
         <v>397</v>
@@ -26710,23 +26722,29 @@
       <c r="H153" s="4"/>
       <c r="I153" s="57"/>
     </row>
-    <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="C154" s="153" t="s">
-        <v>396</v>
-      </c>
-      <c r="D154" s="154" t="s">
-        <v>401</v>
-      </c>
-      <c r="E154" s="154" t="s">
-        <v>397</v>
-      </c>
-      <c r="F154" s="154"/>
-      <c r="G154" s="154"/>
-      <c r="H154" s="4"/>
-    </row>
     <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="G100:J100"/>
+    <mergeCell ref="K100:N100"/>
+    <mergeCell ref="O100:R100"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="U100:X100"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="K98:N98"/>
+    <mergeCell ref="O98:R98"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="U98:X98"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:X51"/>
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="U6:X6"/>
     <mergeCell ref="G4:J4"/>
@@ -26737,26 +26755,6 @@
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:X51"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="K98:N98"/>
-    <mergeCell ref="O98:R98"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="U98:X98"/>
-    <mergeCell ref="G100:J100"/>
-    <mergeCell ref="K100:N100"/>
-    <mergeCell ref="O100:R100"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="U100:X100"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26770,8 +26768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CED359C-4B42-41C8-A7E8-4F6FC9AE57D2}">
   <dimension ref="C2:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26843,16 +26841,16 @@
         <v>447</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="J4" s="64" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="K4" s="64" t="s">
         <v>345</v>
       </c>
       <c r="L4" s="64" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="M4" s="64" t="s">
         <v>342</v>
@@ -26911,11 +26909,11 @@
       </c>
       <c r="S5" s="107"/>
       <c r="U5" s="107" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="V5" s="107"/>
       <c r="W5" s="107" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="6" spans="3:23" x14ac:dyDescent="0.2">
@@ -26951,19 +26949,19 @@
         <v>350</v>
       </c>
       <c r="U6" s="108" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="V6" s="117" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="W6" s="108" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="7" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C7" s="203" t="str">
         <f>D20</f>
-        <v>RSDRFN1</v>
+        <v>R-RSDRFN1</v>
       </c>
       <c r="D7" s="204" t="str">
         <f>E20</f>
@@ -27025,7 +27023,7 @@
     <row r="8" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C8" s="206" t="str">
         <f>D21</f>
-        <v>RSDCKN1</v>
+        <v>R-RSDCKN1</v>
       </c>
       <c r="D8" s="196" t="str">
         <f>E21</f>
@@ -27195,7 +27193,7 @@
     <row r="11" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C11" s="208" t="str">
         <f>D22</f>
-        <v>RSDCWN1</v>
+        <v>R-RSDCWN1</v>
       </c>
       <c r="D11" s="197" t="str">
         <f>E22</f>
@@ -27257,7 +27255,7 @@
     <row r="12" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C12" s="206" t="str">
         <f t="shared" ref="C12:D15" si="2">D23</f>
-        <v>RSDCDN1</v>
+        <v>R-RSDCDN1</v>
       </c>
       <c r="D12" s="196" t="str">
         <f t="shared" si="2"/>
@@ -27319,7 +27317,7 @@
     <row r="13" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C13" s="208" t="str">
         <f t="shared" si="2"/>
-        <v>RSDDWN1</v>
+        <v>R-RSDDWN1</v>
       </c>
       <c r="D13" s="197" t="str">
         <f t="shared" si="2"/>
@@ -27381,7 +27379,7 @@
     <row r="14" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C14" s="206" t="str">
         <f t="shared" si="2"/>
-        <v>RSDOEN1</v>
+        <v>R-RSDOEN1</v>
       </c>
       <c r="D14" s="196" t="str">
         <f t="shared" si="2"/>
@@ -27432,7 +27430,7 @@
     <row r="15" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C15" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>RSDOAN1</v>
+        <v>R-RSDOAN1</v>
       </c>
       <c r="D15" s="211" t="str">
         <f t="shared" si="2"/>
@@ -27480,18 +27478,18 @@
         <v>2020</v>
       </c>
       <c r="T15" s="194" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="U15" s="287" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="3:23" x14ac:dyDescent="0.2">
       <c r="T16" s="194" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.2">
@@ -27499,7 +27497,7 @@
         <v>38</v>
       </c>
       <c r="R18" s="392" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="S18" s="392"/>
     </row>
@@ -27533,10 +27531,10 @@
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="173" t="s">
-        <v>732</v>
+        <v>49</v>
       </c>
       <c r="D20" s="174" t="s">
-        <v>479</v>
+        <v>800</v>
       </c>
       <c r="E20" s="174" t="s">
         <v>458</v>
@@ -27557,10 +27555,10 @@
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="173" t="s">
-        <v>732</v>
+        <v>49</v>
       </c>
       <c r="D21" s="174" t="s">
-        <v>480</v>
+        <v>801</v>
       </c>
       <c r="E21" s="174" t="s">
         <v>461</v>
@@ -27581,10 +27579,10 @@
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="173" t="s">
-        <v>732</v>
+        <v>49</v>
       </c>
       <c r="D22" s="174" t="s">
-        <v>481</v>
+        <v>802</v>
       </c>
       <c r="E22" s="174" t="s">
         <v>462</v>
@@ -27605,10 +27603,10 @@
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="173" t="s">
-        <v>732</v>
+        <v>49</v>
       </c>
       <c r="D23" s="174" t="s">
-        <v>482</v>
+        <v>803</v>
       </c>
       <c r="E23" s="174" t="s">
         <v>463</v>
@@ -27627,10 +27625,10 @@
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="173" t="s">
-        <v>732</v>
+        <v>49</v>
       </c>
       <c r="D24" s="174" t="s">
-        <v>483</v>
+        <v>804</v>
       </c>
       <c r="E24" s="174" t="s">
         <v>464</v>
@@ -27649,10 +27647,10 @@
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="173" t="s">
-        <v>732</v>
+        <v>49</v>
       </c>
       <c r="D25" s="174" t="s">
-        <v>484</v>
+        <v>805</v>
       </c>
       <c r="E25" s="174" t="s">
         <v>465</v>
@@ -27671,10 +27669,10 @@
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="173" t="s">
-        <v>732</v>
+        <v>49</v>
       </c>
       <c r="D26" s="176" t="s">
-        <v>485</v>
+        <v>806</v>
       </c>
       <c r="E26" s="176" t="s">
         <v>466</v>
@@ -27717,7 +27715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFF4867-10C8-4ED5-9BE1-6E89AAC9887A}">
   <dimension ref="C2:W347"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -27760,16 +27758,16 @@
         <v>447</v>
       </c>
       <c r="I3" s="64" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="J3" s="64" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="K3" s="64" t="s">
         <v>345</v>
       </c>
       <c r="L3" s="64" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="M3" s="64" t="s">
         <v>342</v>
@@ -27912,10 +27910,10 @@
         <v>2020</v>
       </c>
       <c r="U6" s="194" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="W6" s="290" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="7" spans="3:23" x14ac:dyDescent="0.2">
@@ -27969,7 +27967,7 @@
         <v>2020</v>
       </c>
       <c r="U7" s="287" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="8" spans="3:23" x14ac:dyDescent="0.2">
@@ -28023,7 +28021,7 @@
         <v>2020</v>
       </c>
       <c r="U8" s="194" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="9" spans="3:23" x14ac:dyDescent="0.2">
@@ -30769,49 +30767,49 @@
         <v>98</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="9" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
       <c r="U1" s="9" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="AA1" s="11"/>
       <c r="AB1" s="9" t="s">

--- a/SubRES_TMPL/SubRes_RSD.xlsx
+++ b/SubRES_TMPL/SubRes_RSD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1679B262-93CB-469A-9CBC-E87C9C7B00BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B239BD1-4829-4D6A-BDF3-37F802F72231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -2445,12 +2445,6 @@
     <t>RSDCK</t>
   </si>
   <si>
-    <t>RSDGASNAT</t>
-  </si>
-  <si>
-    <t>RSDOILLPG</t>
-  </si>
-  <si>
     <t>RSDCW</t>
   </si>
   <si>
@@ -3417,9 +3411,6 @@
     <t>Residential  Hydrotreated vegetable oil - New 1 SH</t>
   </si>
   <si>
-    <t>RSDBIODSL</t>
-  </si>
-  <si>
     <t>LIFE</t>
   </si>
   <si>
@@ -3459,36 +3450,9 @@
     <t>EFF-2050</t>
   </si>
   <si>
-    <t>RSDOILKER</t>
-  </si>
-  <si>
-    <t>RSDRENSOL,RSDOILKER</t>
-  </si>
-  <si>
-    <t>RSDBIOWOO,RSDOILKER</t>
-  </si>
-  <si>
-    <t>RSDRENSOL,RSDGASNAT</t>
-  </si>
-  <si>
-    <t>RSDBIOWOO,RSDGASNAT</t>
-  </si>
-  <si>
-    <t>RSDBIOWOO</t>
-  </si>
-  <si>
-    <t>RSDELC,RSDRENSOL</t>
-  </si>
-  <si>
-    <t>RSDELC,RSDGASNAT</t>
-  </si>
-  <si>
     <t>RSDHET</t>
   </si>
   <si>
-    <t>RSDRENSOL</t>
-  </si>
-  <si>
     <t>RSDSH_Apt,RSDWH_Apt</t>
   </si>
   <si>
@@ -3532,6 +3496,42 @@
   </si>
   <si>
     <t>R-RSDOAN1</t>
+  </si>
+  <si>
+    <t>RSDKER</t>
+  </si>
+  <si>
+    <t>RSDLPG</t>
+  </si>
+  <si>
+    <t>RSDSOL,RSDKER</t>
+  </si>
+  <si>
+    <t>RSDWOO,RSDKER</t>
+  </si>
+  <si>
+    <t>RSDWOO</t>
+  </si>
+  <si>
+    <t>RSDGAS</t>
+  </si>
+  <si>
+    <t>RSDSOL,RSDGAS</t>
+  </si>
+  <si>
+    <t>RSDWOO,RSDGAS</t>
+  </si>
+  <si>
+    <t>RSDBDL</t>
+  </si>
+  <si>
+    <t>RSDELC,RSDSOL</t>
+  </si>
+  <si>
+    <t>RSDELC,RSDGAS</t>
+  </si>
+  <si>
+    <t>RSDSOL</t>
   </si>
 </sst>
 </file>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="17" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="367" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B17" s="367"/>
       <c r="C17" s="367"/>
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="368" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C20" s="368"/>
       <c r="D20" s="368"/>
@@ -7332,7 +7332,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="217" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C24" s="217"/>
       <c r="D24" s="217"/>
@@ -7578,7 +7578,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="232" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G3" s="233"/>
       <c r="H3" s="234" t="s">
@@ -7599,16 +7599,16 @@
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" s="235" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C4" s="236" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D4" s="237">
         <v>44136</v>
       </c>
       <c r="E4" s="238" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G4" s="239"/>
       <c r="H4" s="240" t="s">
@@ -7638,7 +7638,7 @@
         <v>44169</v>
       </c>
       <c r="E5" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G5" s="245"/>
       <c r="H5" s="240" t="s">
@@ -7659,16 +7659,16 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="241" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C6" s="242" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D6" s="243">
         <v>44166</v>
       </c>
       <c r="E6" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G6" s="246" t="s">
         <v>9</v>
@@ -7691,16 +7691,16 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="241" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C7" s="242" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D7" s="247">
         <v>43862</v>
       </c>
       <c r="E7" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G7" s="248"/>
       <c r="H7" s="240" t="s">
@@ -7724,17 +7724,17 @@
         <v>67</v>
       </c>
       <c r="C8" s="242" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D8" s="247">
         <v>44166</v>
       </c>
       <c r="E8" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G8" s="249"/>
       <c r="H8" s="240" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I8" s="194"/>
       <c r="J8" s="194"/>
@@ -7751,16 +7751,16 @@
     </row>
     <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="241" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C9" s="242" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D9" s="247">
         <v>44044</v>
       </c>
       <c r="E9" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G9" s="250"/>
       <c r="H9" s="251" t="s">
@@ -7769,7 +7769,7 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" s="241" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C10" s="242" t="s">
         <v>69</v>
@@ -7778,12 +7778,12 @@
         <v>44136</v>
       </c>
       <c r="E10" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="241" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C11" s="242" t="s">
         <v>71</v>
@@ -7792,12 +7792,12 @@
         <v>44013</v>
       </c>
       <c r="E11" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="241" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C12" s="242" t="s">
         <v>72</v>
@@ -7806,35 +7806,35 @@
         <v>44136</v>
       </c>
       <c r="E12" s="244" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="241" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C13" s="242" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D13" s="247">
         <v>44136</v>
       </c>
       <c r="E13" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="241" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C14" s="242" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D14" s="247">
         <v>44105</v>
       </c>
       <c r="E14" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
@@ -7848,7 +7848,7 @@
         <v>44105</v>
       </c>
       <c r="E15" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
@@ -7862,7 +7862,7 @@
         <v>44166</v>
       </c>
       <c r="E16" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
@@ -7876,7 +7876,7 @@
         <v>44166</v>
       </c>
       <c r="E17" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -7890,7 +7890,7 @@
         <v>44166</v>
       </c>
       <c r="E18" s="255" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -7917,7 +7917,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="259" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G21" s="260" t="s">
         <v>15</v>
@@ -7955,7 +7955,7 @@
         <v>17</v>
       </c>
       <c r="H23" s="266" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7969,7 +7969,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G24" s="269" t="s">
         <v>80</v>
@@ -7989,7 +7989,7 @@
         <v>43466</v>
       </c>
       <c r="E25" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8003,12 +8003,12 @@
         <v>43952</v>
       </c>
       <c r="E26" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="262" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C27" s="273" t="s">
         <v>88</v>
@@ -8017,133 +8017,133 @@
         <v>43952</v>
       </c>
       <c r="E27" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="262" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C28" s="273" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D28" s="272">
         <v>43983</v>
       </c>
       <c r="E28" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="262" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C29" s="273" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D29" s="272">
         <v>43983</v>
       </c>
       <c r="E29" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="262" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C30" s="273" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D30" s="272">
         <v>43983</v>
       </c>
       <c r="E30" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="262" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C31" s="273" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D31" s="272">
         <v>43983</v>
       </c>
       <c r="E31" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="262" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C32" s="273" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D32" s="272">
         <v>43983</v>
       </c>
       <c r="E32" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="262" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C33" s="273" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D33" s="272">
         <v>43983</v>
       </c>
       <c r="E33" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="262" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C34" s="273" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D34" s="272">
         <v>44044</v>
       </c>
       <c r="E34" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="262" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C35" s="273" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D35" s="272">
         <v>44044</v>
       </c>
       <c r="E35" s="244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="274" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C36" s="275" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D36" s="276">
         <v>44044</v>
       </c>
       <c r="E36" s="255" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -8170,13 +8170,13 @@
         <v>7</v>
       </c>
       <c r="E39" s="279" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G39" s="280" t="s">
         <v>20</v>
       </c>
       <c r="H39" s="280" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="15" x14ac:dyDescent="0.25">
@@ -8184,13 +8184,13 @@
         <v>25</v>
       </c>
       <c r="C40" s="263" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D40" s="281">
         <v>44166</v>
       </c>
       <c r="E40" s="282" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G40" s="267"/>
       <c r="H40" s="267"/>
@@ -8311,7 +8311,7 @@
         <v>44</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I3" s="64" t="s">
         <v>342</v>
@@ -8326,7 +8326,7 @@
         <v>92</v>
       </c>
       <c r="M3" s="64" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="N3" s="64" t="s">
         <v>332</v>
@@ -8335,7 +8335,7 @@
         <v>431</v>
       </c>
       <c r="W3" s="379" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="X3" s="379"/>
       <c r="Y3" s="379"/>
@@ -8371,19 +8371,19 @@
         <v>430</v>
       </c>
       <c r="W4" s="309" t="s">
+        <v>747</v>
+      </c>
+      <c r="X4" s="310" t="s">
+        <v>748</v>
+      </c>
+      <c r="Y4" s="310" t="s">
         <v>749</v>
       </c>
-      <c r="X4" s="310" t="s">
+      <c r="Z4" s="310" t="s">
         <v>750</v>
       </c>
-      <c r="Y4" s="310" t="s">
+      <c r="AA4" s="311" t="s">
         <v>751</v>
-      </c>
-      <c r="Z4" s="310" t="s">
-        <v>752</v>
-      </c>
-      <c r="AA4" s="311" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="5" spans="3:27" ht="25.5" x14ac:dyDescent="0.2">
@@ -8397,16 +8397,16 @@
         <v>313</v>
       </c>
       <c r="H5" s="386" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="I5" s="387"/>
       <c r="J5" s="387"/>
       <c r="K5" s="388"/>
       <c r="L5" s="108" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M5" s="108" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="N5" s="108" t="s">
         <v>350</v>
@@ -8415,7 +8415,7 @@
         <v>429</v>
       </c>
       <c r="W5" s="312" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="X5" s="313">
         <v>9418.8988568067343</v>
@@ -8471,7 +8471,7 @@
         <v>2020</v>
       </c>
       <c r="W6" s="315" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="X6" s="316">
         <v>7459.2913438514906</v>
@@ -8505,7 +8505,7 @@
       </c>
       <c r="N7" s="104"/>
       <c r="W7" s="318" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="X7" s="319">
         <v>14041.847426430093</v>
@@ -8539,7 +8539,7 @@
       </c>
       <c r="N8" s="105"/>
       <c r="W8" s="315" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="X8" s="316">
         <v>19924.480375055824</v>
@@ -8573,7 +8573,7 @@
       </c>
       <c r="N9" s="104"/>
       <c r="W9" s="318" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="X9" s="319">
         <v>58904.8034364337</v>
@@ -8607,7 +8607,7 @@
       </c>
       <c r="N10" s="143"/>
       <c r="W10" s="315" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="X10" s="316">
         <v>43739.341649106158</v>
@@ -8633,7 +8633,7 @@
         <v>313</v>
       </c>
       <c r="H11" s="380" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="I11" s="381"/>
       <c r="J11" s="381"/>
@@ -8644,7 +8644,7 @@
         <v>350</v>
       </c>
       <c r="W11" s="318" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="X11" s="319">
         <v>25767.876472761334</v>
@@ -8700,7 +8700,7 @@
         <v>2020</v>
       </c>
       <c r="W12" s="315" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="X12" s="316">
         <v>12331.173226884033</v>
@@ -8734,7 +8734,7 @@
       </c>
       <c r="N13" s="104"/>
       <c r="W13" s="321" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="X13" s="322">
         <v>15211.172212670604</v>
@@ -8768,7 +8768,7 @@
       </c>
       <c r="N14" s="105"/>
       <c r="W14" s="323" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="X14" s="324">
         <v>206798.88499999998</v>
@@ -8802,7 +8802,7 @@
       </c>
       <c r="N15" s="104"/>
       <c r="W15" s="327" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="X15" s="326">
         <v>0.74286208971025169</v>
@@ -8844,7 +8844,7 @@
         <v>313</v>
       </c>
       <c r="H17" s="380" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="I17" s="381"/>
       <c r="J17" s="381"/>
@@ -8934,49 +8934,49 @@
       </c>
       <c r="N20" s="105"/>
       <c r="W20" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="AF20" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="AH20" s="329" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AI20" s="330" t="s">
+        <v>761</v>
+      </c>
+      <c r="AJ20" s="330" t="s">
+        <v>762</v>
+      </c>
+      <c r="AK20" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="AL20" s="328" t="s">
         <v>763</v>
-      </c>
-      <c r="AJ20" s="330" t="s">
-        <v>764</v>
-      </c>
-      <c r="AK20" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="AL20" s="328" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="21" spans="2:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8998,40 +8998,40 @@
       </c>
       <c r="N21" s="104"/>
       <c r="V21" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="W21" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="W21" s="5" t="s">
+      <c r="X21" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y21" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="X21" s="5" t="s">
+      <c r="Z21" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="AA21" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="AB21" s="194" t="s">
         <v>745</v>
       </c>
-      <c r="Y21" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="Z21" s="5" t="s">
+      <c r="AC21" s="194" t="s">
         <v>757</v>
       </c>
-      <c r="AA21" s="5" t="s">
+      <c r="AD21" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="AB21" s="194" t="s">
-        <v>747</v>
-      </c>
-      <c r="AC21" s="194" t="s">
+      <c r="AE21" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="AD21" s="5" t="s">
+      <c r="AF21" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="AH21" s="328" t="s">
         <v>760</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="AF21" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="AH21" s="328" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="22" spans="2:38" ht="15" x14ac:dyDescent="0.2">
@@ -9053,7 +9053,7 @@
       </c>
       <c r="N22" s="143"/>
       <c r="V22" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="W22" s="185">
         <v>6419</v>
@@ -9110,7 +9110,7 @@
     </row>
     <row r="23" spans="2:38" ht="15" x14ac:dyDescent="0.2">
       <c r="V23" s="5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="W23" s="185">
         <v>3209</v>
@@ -9164,7 +9164,7 @@
     </row>
     <row r="24" spans="2:38" ht="15" x14ac:dyDescent="0.2">
       <c r="V24" s="5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="W24" s="185">
         <v>8665</v>
@@ -9228,7 +9228,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="57"/>
       <c r="V25" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W25" s="185">
         <v>13570</v>
@@ -9303,7 +9303,7 @@
         <v>312</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="W26" s="185">
         <v>45566</v>
@@ -9357,10 +9357,10 @@
     </row>
     <row r="27" spans="2:38" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D27" s="59" t="s">
         <v>53</v>
@@ -9372,13 +9372,13 @@
         <v>317</v>
       </c>
       <c r="G27" s="59" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H27" s="59" t="s">
         <v>319</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="W27" s="185">
         <v>30979</v>
@@ -9432,7 +9432,7 @@
     </row>
     <row r="28" spans="2:38" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="173" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C28" s="174" t="s">
         <v>404</v>
@@ -9449,7 +9449,7 @@
       <c r="G28" s="174"/>
       <c r="H28" s="175"/>
       <c r="V28" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="W28" s="185">
         <v>15595</v>
@@ -9503,7 +9503,7 @@
     </row>
     <row r="29" spans="2:38" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="173" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C29" s="174" t="s">
         <v>405</v>
@@ -9520,7 +9520,7 @@
       <c r="G29" s="174"/>
       <c r="H29" s="175"/>
       <c r="V29" s="5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="W29" s="185">
         <v>5191</v>
@@ -9574,7 +9574,7 @@
     </row>
     <row r="30" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="173" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C30" s="176" t="s">
         <v>406</v>
@@ -9591,7 +9591,7 @@
       <c r="G30" s="176"/>
       <c r="H30" s="177"/>
       <c r="V30" s="5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="W30" s="185">
         <v>5603</v>
@@ -9691,49 +9691,49 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="W35" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="X35" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="Y35" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="Z35" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AA35" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AB35" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AC35" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AD35" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AE35" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AF35" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AH35" s="329" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AI35" s="330" t="s">
+        <v>761</v>
+      </c>
+      <c r="AJ35" s="330" t="s">
+        <v>762</v>
+      </c>
+      <c r="AK35" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="AL35" s="328" t="s">
         <v>763</v>
-      </c>
-      <c r="AJ35" s="330" t="s">
-        <v>764</v>
-      </c>
-      <c r="AK35" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="AL35" s="328" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="36" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9746,40 +9746,40 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="V36" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="W36" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="W36" s="5" t="s">
+      <c r="X36" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y36" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="X36" s="5" t="s">
+      <c r="Z36" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="AA36" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="AB36" s="194" t="s">
         <v>745</v>
       </c>
-      <c r="Y36" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="Z36" s="5" t="s">
+      <c r="AC36" s="194" t="s">
         <v>757</v>
       </c>
-      <c r="AA36" s="5" t="s">
+      <c r="AD36" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="AB36" s="194" t="s">
-        <v>747</v>
-      </c>
-      <c r="AC36" s="194" t="s">
+      <c r="AE36" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="AD36" s="5" t="s">
+      <c r="AF36" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="AH36" s="328" t="s">
         <v>760</v>
-      </c>
-      <c r="AE36" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="AF36" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="AH36" s="328" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="15" x14ac:dyDescent="0.2">
@@ -9792,7 +9792,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="V37" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="W37" s="185">
         <v>30917</v>
@@ -9854,7 +9854,7 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="V38" s="5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="W38" s="185">
         <v>3722</v>
@@ -9916,7 +9916,7 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="V39" s="5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="W39" s="185">
         <v>7882</v>
@@ -9978,7 +9978,7 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="V40" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W40" s="185">
         <v>27081</v>
@@ -10041,7 +10041,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="V41" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="W41" s="185">
         <v>161926</v>
@@ -10104,7 +10104,7 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="V42" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="W42" s="185">
         <v>95372</v>
@@ -10167,7 +10167,7 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="V43" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="W43" s="185">
         <v>46130</v>
@@ -10230,7 +10230,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="V44" s="5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="W44" s="185">
         <v>20720</v>
@@ -10296,7 +10296,7 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="V45" s="5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="W45" s="185">
         <v>21208</v>
@@ -10420,49 +10420,49 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="W49" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="X49" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="Y49" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="Z49" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AA49" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AB49" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AC49" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AD49" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AE49" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AF49" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AH49" s="329" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AI49" s="330" t="s">
+        <v>761</v>
+      </c>
+      <c r="AJ49" s="330" t="s">
+        <v>762</v>
+      </c>
+      <c r="AK49" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="AL49" s="328" t="s">
         <v>763</v>
-      </c>
-      <c r="AJ49" s="330" t="s">
-        <v>764</v>
-      </c>
-      <c r="AK49" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="AL49" s="328" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="50" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10476,40 +10476,40 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="V50" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="W50" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="W50" s="5" t="s">
+      <c r="X50" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y50" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="X50" s="5" t="s">
+      <c r="Z50" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="AA50" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="AB50" s="194" t="s">
         <v>745</v>
       </c>
-      <c r="Y50" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="Z50" s="5" t="s">
+      <c r="AC50" s="194" t="s">
         <v>757</v>
       </c>
-      <c r="AA50" s="5" t="s">
+      <c r="AD50" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="AB50" s="194" t="s">
-        <v>747</v>
-      </c>
-      <c r="AC50" s="194" t="s">
+      <c r="AE50" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="AD50" s="5" t="s">
+      <c r="AF50" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="AH50" s="328" t="s">
         <v>760</v>
-      </c>
-      <c r="AE50" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="AF50" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="AH50" s="328" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="51" spans="1:38" ht="15" x14ac:dyDescent="0.2">
@@ -10523,7 +10523,7 @@
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="V51" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="W51" s="185">
         <v>9878</v>
@@ -10586,7 +10586,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="V52" s="5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="W52" s="185">
         <v>3037</v>
@@ -10649,7 +10649,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="V53" s="5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="W53" s="185">
         <v>7052</v>
@@ -10712,7 +10712,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="V54" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="W54" s="185">
         <v>20170</v>
@@ -10775,7 +10775,7 @@
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="V55" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="W55" s="185">
         <v>97809</v>
@@ -10838,7 +10838,7 @@
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
       <c r="V56" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="W56" s="185">
         <v>61656</v>
@@ -10901,7 +10901,7 @@
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
       <c r="V57" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="W57" s="185">
         <v>27666</v>
@@ -10964,7 +10964,7 @@
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="V58" s="5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="W58" s="185">
         <v>13787</v>
@@ -11027,7 +11027,7 @@
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="V59" s="5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="W59" s="185">
         <v>24436</v>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="B1" s="180"/>
       <c r="L1" s="182" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N1" s="5"/>
     </row>
@@ -11362,12 +11362,12 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C3" s="229" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="184" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="185"/>
@@ -11376,7 +11376,7 @@
       <c r="F4" s="186"/>
       <c r="G4" s="186"/>
       <c r="N4" s="184" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -11425,7 +11425,7 @@
         <v>49</v>
       </c>
       <c r="B6" s="181" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C6" s="181" t="str">
         <f t="shared" ref="C6:C69" si="0">VLOOKUP(RIGHT(B6,3),$B$134:$C$140,2,FALSE)&amp;" - "&amp;LEFT(B6,8)</f>
@@ -11448,7 +11448,7 @@
         <v>Bldg_DETPre45-Win</v>
       </c>
       <c r="N6" s="181" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="O6" s="181">
         <v>2020</v>
@@ -11459,7 +11459,7 @@
     </row>
     <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="181" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C7" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11482,7 +11482,7 @@
         <v>Bldg_DETPre69-Win</v>
       </c>
       <c r="N7" s="181" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="O7" s="181">
         <v>2020</v>
@@ -11493,7 +11493,7 @@
     </row>
     <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="181" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C8" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11516,7 +11516,7 @@
         <v>Bldg_DETPre79-Win</v>
       </c>
       <c r="N8" s="181" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="O8" s="181">
         <v>2020</v>
@@ -11527,7 +11527,7 @@
     </row>
     <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="181" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C9" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11550,7 +11550,7 @@
         <v>Bldg_DETPre89-Win</v>
       </c>
       <c r="N9" s="181" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O9" s="181">
         <v>2020</v>
@@ -11561,7 +11561,7 @@
     </row>
     <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="181" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C10" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11584,7 +11584,7 @@
         <v>Bldg_DETPre99-Win</v>
       </c>
       <c r="N10" s="181" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="O10" s="181">
         <v>2020</v>
@@ -11595,7 +11595,7 @@
     </row>
     <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="181" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C11" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11618,7 +11618,7 @@
         <v>Bldg_DETPre09-Win</v>
       </c>
       <c r="N11" s="181" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="O11" s="181">
         <v>2020</v>
@@ -11629,7 +11629,7 @@
     </row>
     <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="181" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C12" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11652,7 +11652,7 @@
         <v>Bldg_DETPre45-Win</v>
       </c>
       <c r="N12" s="181" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="O12" s="181">
         <v>2020</v>
@@ -11663,7 +11663,7 @@
     </row>
     <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B13" s="181" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C13" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11686,7 +11686,7 @@
         <v>Bldg_DETPre69-Win</v>
       </c>
       <c r="N13" s="181" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="O13" s="181">
         <v>2020</v>
@@ -11697,7 +11697,7 @@
     </row>
     <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="181" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C14" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11720,7 +11720,7 @@
         <v>Bldg_DETPre79-Win</v>
       </c>
       <c r="N14" s="181" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="O14" s="181">
         <v>2020</v>
@@ -11731,7 +11731,7 @@
     </row>
     <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="181" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C15" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11754,7 +11754,7 @@
         <v>Bldg_DETPre89-Win</v>
       </c>
       <c r="N15" s="181" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="O15" s="181">
         <v>2020</v>
@@ -11765,7 +11765,7 @@
     </row>
     <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B16" s="181" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C16" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11788,7 +11788,7 @@
         <v>Bldg_DETPre99-Win</v>
       </c>
       <c r="N16" s="181" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="O16" s="181">
         <v>2020</v>
@@ -11799,7 +11799,7 @@
     </row>
     <row r="17" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B17" s="181" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C17" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11822,7 +11822,7 @@
         <v>Bldg_DETPre09-Win</v>
       </c>
       <c r="N17" s="181" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="O17" s="181">
         <v>2020</v>
@@ -11833,7 +11833,7 @@
     </row>
     <row r="18" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B18" s="181" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C18" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11856,7 +11856,7 @@
         <v>Bldg_DETPre45-Win</v>
       </c>
       <c r="N18" s="181" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="O18" s="181">
         <v>2020</v>
@@ -11867,7 +11867,7 @@
     </row>
     <row r="19" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B19" s="181" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C19" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11890,7 +11890,7 @@
         <v>Bldg_DETPre69-Win</v>
       </c>
       <c r="N19" s="181" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="O19" s="181">
         <v>2020</v>
@@ -11901,7 +11901,7 @@
     </row>
     <row r="20" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B20" s="181" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C20" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11924,7 +11924,7 @@
         <v>Bldg_DETPre79-Win</v>
       </c>
       <c r="N20" s="181" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="O20" s="181">
         <v>2020</v>
@@ -11935,7 +11935,7 @@
     </row>
     <row r="21" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B21" s="181" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C21" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11958,7 +11958,7 @@
         <v>Bldg_DETPre89-Win</v>
       </c>
       <c r="N21" s="181" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="O21" s="181">
         <v>2020</v>
@@ -11969,7 +11969,7 @@
     </row>
     <row r="22" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B22" s="181" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C22" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11992,7 +11992,7 @@
         <v>Bldg_DETPre99-Win</v>
       </c>
       <c r="N22" s="181" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="O22" s="181">
         <v>2020</v>
@@ -12003,7 +12003,7 @@
     </row>
     <row r="23" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="181" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C23" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12026,7 +12026,7 @@
         <v>Bldg_DETPre09-Win</v>
       </c>
       <c r="N23" s="181" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O23" s="181">
         <v>2020</v>
@@ -12037,7 +12037,7 @@
     </row>
     <row r="24" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="181" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C24" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12060,7 +12060,7 @@
         <v>Bldg_DETPre45-Cei</v>
       </c>
       <c r="N24" s="181" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="O24" s="181">
         <v>2020</v>
@@ -12071,7 +12071,7 @@
     </row>
     <row r="25" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B25" s="181" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C25" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12094,7 +12094,7 @@
         <v>Bldg_DETPre69-Cei</v>
       </c>
       <c r="N25" s="181" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O25" s="181">
         <v>2020</v>
@@ -12105,7 +12105,7 @@
     </row>
     <row r="26" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="181" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C26" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12128,7 +12128,7 @@
         <v>Bldg_DETPre79-Cei</v>
       </c>
       <c r="N26" s="181" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="O26" s="181">
         <v>2020</v>
@@ -12139,7 +12139,7 @@
     </row>
     <row r="27" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B27" s="181" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C27" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12162,7 +12162,7 @@
         <v>Bldg_DETPre89-Cei</v>
       </c>
       <c r="N27" s="181" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="O27" s="181">
         <v>2020</v>
@@ -12173,7 +12173,7 @@
     </row>
     <row r="28" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="181" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C28" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12196,7 +12196,7 @@
         <v>Bldg_DETPre99-Cei</v>
       </c>
       <c r="N28" s="181" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="O28" s="181">
         <v>2020</v>
@@ -12207,7 +12207,7 @@
     </row>
     <row r="29" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="181" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C29" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12230,7 +12230,7 @@
         <v>Bldg_DETPre09-Cei</v>
       </c>
       <c r="N29" s="181" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="O29" s="181">
         <v>2020</v>
@@ -12241,7 +12241,7 @@
     </row>
     <row r="30" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="181" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C30" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12264,7 +12264,7 @@
         <v>Bldg_DETPre45-Cei</v>
       </c>
       <c r="N30" s="181" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="O30" s="181">
         <v>2020</v>
@@ -12275,7 +12275,7 @@
     </row>
     <row r="31" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B31" s="181" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C31" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12298,7 +12298,7 @@
         <v>Bldg_DETPre69-Cei</v>
       </c>
       <c r="N31" s="181" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O31" s="181">
         <v>2020</v>
@@ -12309,7 +12309,7 @@
     </row>
     <row r="32" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="181" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C32" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12332,7 +12332,7 @@
         <v>Bldg_DETPre79-Cei</v>
       </c>
       <c r="N32" s="181" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="O32" s="181">
         <v>2020</v>
@@ -12343,7 +12343,7 @@
     </row>
     <row r="33" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="181" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C33" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12366,7 +12366,7 @@
         <v>Bldg_DETPre89-Cei</v>
       </c>
       <c r="N33" s="181" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="O33" s="181">
         <v>2020</v>
@@ -12377,7 +12377,7 @@
     </row>
     <row r="34" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="181" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C34" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12400,7 +12400,7 @@
         <v>Bldg_DETPre99-Cei</v>
       </c>
       <c r="N34" s="181" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="O34" s="181">
         <v>2020</v>
@@ -12411,7 +12411,7 @@
     </row>
     <row r="35" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B35" s="181" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C35" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12434,7 +12434,7 @@
         <v>Bldg_DETPre09-Cei</v>
       </c>
       <c r="N35" s="181" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="O35" s="181">
         <v>2020</v>
@@ -12445,7 +12445,7 @@
     </row>
     <row r="36" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B36" s="181" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C36" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12468,7 +12468,7 @@
         <v>Bldg_DETPre45-Wal</v>
       </c>
       <c r="N36" s="181" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="O36" s="181">
         <v>2020</v>
@@ -12479,7 +12479,7 @@
     </row>
     <row r="37" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B37" s="181" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C37" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12502,7 +12502,7 @@
         <v>Bldg_DETPre69-Wal</v>
       </c>
       <c r="N37" s="181" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="O37" s="181">
         <v>2020</v>
@@ -12513,7 +12513,7 @@
     </row>
     <row r="38" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="181" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C38" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12536,7 +12536,7 @@
         <v>Bldg_DETPre79-Wal</v>
       </c>
       <c r="N38" s="181" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="O38" s="181">
         <v>2020</v>
@@ -12547,7 +12547,7 @@
     </row>
     <row r="39" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B39" s="181" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C39" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12570,7 +12570,7 @@
         <v>Bldg_DETPre89-Wal</v>
       </c>
       <c r="N39" s="181" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="O39" s="181">
         <v>2020</v>
@@ -12581,7 +12581,7 @@
     </row>
     <row r="40" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B40" s="181" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C40" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12604,7 +12604,7 @@
         <v>Bldg_DETPre99-Wal</v>
       </c>
       <c r="N40" s="181" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O40" s="181">
         <v>2020</v>
@@ -12615,7 +12615,7 @@
     </row>
     <row r="41" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B41" s="181" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C41" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12638,7 +12638,7 @@
         <v>Bldg_DETPre09-Wal</v>
       </c>
       <c r="N41" s="181" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="O41" s="181">
         <v>2020</v>
@@ -12649,7 +12649,7 @@
     </row>
     <row r="42" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="181" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C42" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12672,7 +12672,7 @@
         <v>Bldg_DETPre45-Wal</v>
       </c>
       <c r="N42" s="181" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="O42" s="181">
         <v>2020</v>
@@ -12683,7 +12683,7 @@
     </row>
     <row r="43" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" s="181" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C43" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12706,7 +12706,7 @@
         <v>Bldg_DETPre69-Wal</v>
       </c>
       <c r="N43" s="181" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="O43" s="181">
         <v>2020</v>
@@ -12717,7 +12717,7 @@
     </row>
     <row r="44" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B44" s="181" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C44" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12740,7 +12740,7 @@
         <v>Bldg_DETPre79-Wal</v>
       </c>
       <c r="N44" s="181" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="O44" s="181">
         <v>2020</v>
@@ -12751,7 +12751,7 @@
     </row>
     <row r="45" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B45" s="181" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C45" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12774,7 +12774,7 @@
         <v>Bldg_DETPre89-Wal</v>
       </c>
       <c r="N45" s="181" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="O45" s="181">
         <v>2020</v>
@@ -12785,7 +12785,7 @@
     </row>
     <row r="46" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B46" s="181" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C46" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12808,7 +12808,7 @@
         <v>Bldg_DETPre99-Wal</v>
       </c>
       <c r="N46" s="181" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="O46" s="181">
         <v>2020</v>
@@ -12819,7 +12819,7 @@
     </row>
     <row r="47" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B47" s="181" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C47" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12845,7 +12845,7 @@
         <v>Bldg_DETPre09-Wal</v>
       </c>
       <c r="N47" s="181" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="O47" s="181">
         <v>2020</v>
@@ -12856,7 +12856,7 @@
     </row>
     <row r="48" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B48" s="181" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C48" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12879,7 +12879,7 @@
         <v>Bldg_SDEPre45-Win</v>
       </c>
       <c r="N48" s="181" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O48" s="181">
         <v>2020</v>
@@ -12890,7 +12890,7 @@
     </row>
     <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B49" s="181" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C49" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12913,7 +12913,7 @@
         <v>Bldg_SDEPre69-Win</v>
       </c>
       <c r="N49" s="181" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="O49" s="181">
         <v>2020</v>
@@ -12924,7 +12924,7 @@
     </row>
     <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B50" s="181" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C50" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12947,7 +12947,7 @@
         <v>Bldg_SDEPre79-Win</v>
       </c>
       <c r="N50" s="181" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="O50" s="181">
         <v>2020</v>
@@ -12958,7 +12958,7 @@
     </row>
     <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B51" s="181" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C51" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12981,7 +12981,7 @@
         <v>Bldg_SDEPre89-Win</v>
       </c>
       <c r="N51" s="181" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O51" s="181">
         <v>2020</v>
@@ -12992,7 +12992,7 @@
     </row>
     <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B52" s="181" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C52" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13015,7 +13015,7 @@
         <v>Bldg_SDEPre99-Win</v>
       </c>
       <c r="N52" s="181" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O52" s="181">
         <v>2020</v>
@@ -13026,7 +13026,7 @@
     </row>
     <row r="53" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B53" s="181" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C53" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13049,7 +13049,7 @@
         <v>Bldg_SDEPre09-Win</v>
       </c>
       <c r="N53" s="181" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="O53" s="181">
         <v>2020</v>
@@ -13060,7 +13060,7 @@
     </row>
     <row r="54" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B54" s="181" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C54" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13083,7 +13083,7 @@
         <v>Bldg_SDEPre45-Win</v>
       </c>
       <c r="N54" s="181" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O54" s="181">
         <v>2020</v>
@@ -13094,7 +13094,7 @@
     </row>
     <row r="55" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B55" s="181" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C55" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13117,7 +13117,7 @@
         <v>Bldg_SDEPre69-Win</v>
       </c>
       <c r="N55" s="181" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O55" s="181">
         <v>2020</v>
@@ -13129,7 +13129,7 @@
     <row r="56" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="181" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C56" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13152,7 +13152,7 @@
         <v>Bldg_SDEPre79-Win</v>
       </c>
       <c r="N56" s="181" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="O56" s="181">
         <v>2020</v>
@@ -13164,7 +13164,7 @@
     <row r="57" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="181" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C57" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13187,7 +13187,7 @@
         <v>Bldg_SDEPre89-Win</v>
       </c>
       <c r="N57" s="181" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="O57" s="181">
         <v>2020</v>
@@ -13199,7 +13199,7 @@
     <row r="58" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="181" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C58" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13222,7 +13222,7 @@
         <v>Bldg_SDEPre99-Win</v>
       </c>
       <c r="N58" s="181" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="O58" s="181">
         <v>2020</v>
@@ -13234,7 +13234,7 @@
     <row r="59" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="181" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C59" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13257,7 +13257,7 @@
         <v>Bldg_SDEPre09-Win</v>
       </c>
       <c r="N59" s="181" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="O59" s="181">
         <v>2020</v>
@@ -13269,7 +13269,7 @@
     <row r="60" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="181" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C60" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13292,7 +13292,7 @@
         <v>Bldg_SDEPre45-Win</v>
       </c>
       <c r="N60" s="181" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="O60" s="181">
         <v>2020</v>
@@ -13304,7 +13304,7 @@
     <row r="61" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="181" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C61" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13327,7 +13327,7 @@
         <v>Bldg_SDEPre69-Win</v>
       </c>
       <c r="N61" s="181" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="O61" s="181">
         <v>2020</v>
@@ -13339,7 +13339,7 @@
     <row r="62" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="181" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C62" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13362,7 +13362,7 @@
         <v>Bldg_SDEPre79-Win</v>
       </c>
       <c r="N62" s="181" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="O62" s="181">
         <v>2020</v>
@@ -13374,7 +13374,7 @@
     <row r="63" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="181" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C63" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13397,7 +13397,7 @@
         <v>Bldg_SDEPre89-Win</v>
       </c>
       <c r="N63" s="181" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="O63" s="181">
         <v>2020</v>
@@ -13409,7 +13409,7 @@
     <row r="64" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="181" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C64" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13432,7 +13432,7 @@
         <v>Bldg_SDEPre99-Win</v>
       </c>
       <c r="N64" s="181" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="O64" s="181">
         <v>2020</v>
@@ -13444,7 +13444,7 @@
     <row r="65" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="181" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C65" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13467,7 +13467,7 @@
         <v>Bldg_SDEPre09-Win</v>
       </c>
       <c r="N65" s="181" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="O65" s="181">
         <v>2020</v>
@@ -13479,7 +13479,7 @@
     <row r="66" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="181" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C66" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13502,7 +13502,7 @@
         <v>Bldg_SDEPre45-Cei</v>
       </c>
       <c r="N66" s="181" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="O66" s="181">
         <v>2020</v>
@@ -13514,7 +13514,7 @@
     <row r="67" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="181" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C67" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13537,7 +13537,7 @@
         <v>Bldg_SDEPre69-Cei</v>
       </c>
       <c r="N67" s="181" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="O67" s="181">
         <v>2020</v>
@@ -13549,7 +13549,7 @@
     <row r="68" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="181" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C68" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13572,7 +13572,7 @@
         <v>Bldg_SDEPre79-Cei</v>
       </c>
       <c r="N68" s="181" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="O68" s="181">
         <v>2020</v>
@@ -13584,7 +13584,7 @@
     <row r="69" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="181" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C69" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13607,7 +13607,7 @@
         <v>Bldg_SDEPre89-Cei</v>
       </c>
       <c r="N69" s="181" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="O69" s="181">
         <v>2020</v>
@@ -13619,7 +13619,7 @@
     <row r="70" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="181" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C70" s="181" t="str">
         <f t="shared" ref="C70:C131" si="2">VLOOKUP(RIGHT(B70,3),$B$134:$C$140,2,FALSE)&amp;" - "&amp;LEFT(B70,8)</f>
@@ -13642,7 +13642,7 @@
         <v>Bldg_SDEPre99-Cei</v>
       </c>
       <c r="N70" s="181" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="O70" s="181">
         <v>2020</v>
@@ -13654,7 +13654,7 @@
     <row r="71" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="181" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C71" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13677,7 +13677,7 @@
         <v>Bldg_SDEPre09-Cei</v>
       </c>
       <c r="N71" s="181" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="O71" s="181">
         <v>2020</v>
@@ -13689,7 +13689,7 @@
     <row r="72" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="181" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C72" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13712,7 +13712,7 @@
         <v>Bldg_SDEPre45-Cei</v>
       </c>
       <c r="N72" s="181" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="O72" s="181">
         <v>2020</v>
@@ -13724,7 +13724,7 @@
     <row r="73" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="181" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C73" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13747,7 +13747,7 @@
         <v>Bldg_SDEPre69-Cei</v>
       </c>
       <c r="N73" s="181" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="O73" s="181">
         <v>2020</v>
@@ -13759,7 +13759,7 @@
     <row r="74" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="181" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C74" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13782,7 +13782,7 @@
         <v>Bldg_SDEPre79-Cei</v>
       </c>
       <c r="N74" s="181" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="O74" s="181">
         <v>2020</v>
@@ -13794,7 +13794,7 @@
     <row r="75" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="181" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C75" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13817,7 +13817,7 @@
         <v>Bldg_SDEPre89-Cei</v>
       </c>
       <c r="N75" s="181" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="O75" s="181">
         <v>2020</v>
@@ -13829,7 +13829,7 @@
     <row r="76" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="181" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C76" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13852,7 +13852,7 @@
         <v>Bldg_SDEPre99-Cei</v>
       </c>
       <c r="N76" s="181" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="O76" s="181">
         <v>2020</v>
@@ -13864,7 +13864,7 @@
     <row r="77" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="181" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C77" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13887,7 +13887,7 @@
         <v>Bldg_SDEPre09-Cei</v>
       </c>
       <c r="N77" s="181" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="O77" s="181">
         <v>2020</v>
@@ -13899,7 +13899,7 @@
     <row r="78" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="181" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C78" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13922,7 +13922,7 @@
         <v>Bldg_SDEPre45-Wal</v>
       </c>
       <c r="N78" s="181" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="O78" s="181">
         <v>2020</v>
@@ -13934,7 +13934,7 @@
     <row r="79" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="181" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C79" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13957,7 +13957,7 @@
         <v>Bldg_SDEPre69-Wal</v>
       </c>
       <c r="N79" s="181" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="O79" s="181">
         <v>2020</v>
@@ -13969,7 +13969,7 @@
     <row r="80" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="181" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C80" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13992,7 +13992,7 @@
         <v>Bldg_SDEPre79-Wal</v>
       </c>
       <c r="N80" s="181" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="O80" s="181">
         <v>2020</v>
@@ -14004,7 +14004,7 @@
     <row r="81" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="181" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C81" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14027,7 +14027,7 @@
         <v>Bldg_SDEPre89-Wal</v>
       </c>
       <c r="N81" s="181" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O81" s="181">
         <v>2020</v>
@@ -14039,7 +14039,7 @@
     <row r="82" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="181" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C82" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14062,7 +14062,7 @@
         <v>Bldg_SDEPre99-Wal</v>
       </c>
       <c r="N82" s="181" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="O82" s="181">
         <v>2020</v>
@@ -14074,7 +14074,7 @@
     <row r="83" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="181" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C83" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14097,7 +14097,7 @@
         <v>Bldg_SDEPre09-Wal</v>
       </c>
       <c r="N83" s="181" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="O83" s="181">
         <v>2020</v>
@@ -14109,7 +14109,7 @@
     <row r="84" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="181" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C84" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14132,7 +14132,7 @@
         <v>Bldg_SDEPre45-Wal</v>
       </c>
       <c r="N84" s="181" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="O84" s="181">
         <v>2020</v>
@@ -14144,7 +14144,7 @@
     <row r="85" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="181" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C85" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14167,7 +14167,7 @@
         <v>Bldg_SDEPre69-Wal</v>
       </c>
       <c r="N85" s="181" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="O85" s="181">
         <v>2020</v>
@@ -14179,7 +14179,7 @@
     <row r="86" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="181" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C86" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14202,7 +14202,7 @@
         <v>Bldg_SDEPre79-Wal</v>
       </c>
       <c r="N86" s="181" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="O86" s="181">
         <v>2020</v>
@@ -14214,7 +14214,7 @@
     <row r="87" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="181" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C87" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14237,7 +14237,7 @@
         <v>Bldg_SDEPre89-Wal</v>
       </c>
       <c r="N87" s="181" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="O87" s="181">
         <v>2020</v>
@@ -14249,7 +14249,7 @@
     <row r="88" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="181" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C88" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14272,7 +14272,7 @@
         <v>Bldg_SDEPre99-Wal</v>
       </c>
       <c r="N88" s="181" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="O88" s="181">
         <v>2020</v>
@@ -14284,7 +14284,7 @@
     <row r="89" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="181" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C89" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14310,7 +14310,7 @@
         <v>Bldg_SDEPre09-Wal</v>
       </c>
       <c r="N89" s="181" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="O89" s="181">
         <v>2020</v>
@@ -14322,7 +14322,7 @@
     <row r="90" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="181" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C90" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14345,7 +14345,7 @@
         <v>Bldg_FLTPre45-Win</v>
       </c>
       <c r="N90" s="181" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O90" s="181">
         <v>2020</v>
@@ -14357,7 +14357,7 @@
     <row r="91" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="181" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C91" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14380,7 +14380,7 @@
         <v>Bldg_FLTPre69-Win</v>
       </c>
       <c r="N91" s="181" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="O91" s="181">
         <v>2020</v>
@@ -14392,7 +14392,7 @@
     <row r="92" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="181" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C92" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14415,7 +14415,7 @@
         <v>Bldg_FLTPre79-Win</v>
       </c>
       <c r="N92" s="181" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="O92" s="181">
         <v>2020</v>
@@ -14427,7 +14427,7 @@
     <row r="93" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="181" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C93" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14450,7 +14450,7 @@
         <v>Bldg_FLTPre89-Win</v>
       </c>
       <c r="N93" s="181" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="O93" s="181">
         <v>2020</v>
@@ -14462,7 +14462,7 @@
     <row r="94" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="181" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C94" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14485,7 +14485,7 @@
         <v>Bldg_FLTPre99-Win</v>
       </c>
       <c r="N94" s="181" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="O94" s="181">
         <v>2020</v>
@@ -14497,7 +14497,7 @@
     <row r="95" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="181" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C95" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14520,7 +14520,7 @@
         <v>Bldg_FLTPre09-Win</v>
       </c>
       <c r="N95" s="181" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="O95" s="181">
         <v>2020</v>
@@ -14532,7 +14532,7 @@
     <row r="96" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="181" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C96" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14555,7 +14555,7 @@
         <v>Bldg_FLTPre45-Win</v>
       </c>
       <c r="N96" s="181" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O96" s="181">
         <v>2020</v>
@@ -14567,7 +14567,7 @@
     <row r="97" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="181" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C97" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14590,7 +14590,7 @@
         <v>Bldg_FLTPre69-Win</v>
       </c>
       <c r="N97" s="181" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O97" s="181">
         <v>2020</v>
@@ -14602,7 +14602,7 @@
     <row r="98" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="181" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C98" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14625,7 +14625,7 @@
         <v>Bldg_FLTPre79-Win</v>
       </c>
       <c r="N98" s="181" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="O98" s="181">
         <v>2020</v>
@@ -14637,7 +14637,7 @@
     <row r="99" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="181" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C99" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14660,7 +14660,7 @@
         <v>Bldg_FLTPre89-Win</v>
       </c>
       <c r="N99" s="181" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="O99" s="181">
         <v>2020</v>
@@ -14672,7 +14672,7 @@
     <row r="100" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="181" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C100" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14695,7 +14695,7 @@
         <v>Bldg_FLTPre99-Win</v>
       </c>
       <c r="N100" s="181" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="O100" s="181">
         <v>2020</v>
@@ -14707,7 +14707,7 @@
     <row r="101" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="181" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C101" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14730,7 +14730,7 @@
         <v>Bldg_FLTPre09-Win</v>
       </c>
       <c r="N101" s="181" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O101" s="181">
         <v>2020</v>
@@ -14742,7 +14742,7 @@
     <row r="102" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="181" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C102" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14765,7 +14765,7 @@
         <v>Bldg_FLTPre45-Win</v>
       </c>
       <c r="N102" s="181" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="O102" s="181">
         <v>2020</v>
@@ -14777,7 +14777,7 @@
     <row r="103" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="181" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C103" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14800,7 +14800,7 @@
         <v>Bldg_FLTPre69-Win</v>
       </c>
       <c r="N103" s="181" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="O103" s="181">
         <v>2020</v>
@@ -14812,7 +14812,7 @@
     <row r="104" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="181" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C104" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14835,7 +14835,7 @@
         <v>Bldg_FLTPre79-Win</v>
       </c>
       <c r="N104" s="181" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="O104" s="181">
         <v>2020</v>
@@ -14847,7 +14847,7 @@
     <row r="105" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="181" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C105" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14870,7 +14870,7 @@
         <v>Bldg_FLTPre89-Win</v>
       </c>
       <c r="N105" s="181" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="O105" s="181">
         <v>2020</v>
@@ -14882,7 +14882,7 @@
     <row r="106" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="181" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C106" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14905,7 +14905,7 @@
         <v>Bldg_FLTPre99-Win</v>
       </c>
       <c r="N106" s="181" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="O106" s="181">
         <v>2020</v>
@@ -14917,7 +14917,7 @@
     <row r="107" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="181" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C107" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14940,7 +14940,7 @@
         <v>Bldg_FLTPre09-Win</v>
       </c>
       <c r="N107" s="181" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="O107" s="181">
         <v>2020</v>
@@ -14952,7 +14952,7 @@
     <row r="108" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="181" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C108" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14975,7 +14975,7 @@
         <v>Bldg_FLTPre45-Cei</v>
       </c>
       <c r="N108" s="181" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="O108" s="181">
         <v>2020</v>
@@ -14987,7 +14987,7 @@
     <row r="109" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="181" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C109" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15010,7 +15010,7 @@
         <v>Bldg_FLTPre69-Cei</v>
       </c>
       <c r="N109" s="181" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="O109" s="181">
         <v>2020</v>
@@ -15022,7 +15022,7 @@
     <row r="110" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="181" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C110" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15045,7 +15045,7 @@
         <v>Bldg_FLTPre79-Cei</v>
       </c>
       <c r="N110" s="181" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O110" s="181">
         <v>2020</v>
@@ -15057,7 +15057,7 @@
     <row r="111" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="181" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C111" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15080,7 +15080,7 @@
         <v>Bldg_FLTPre89-Cei</v>
       </c>
       <c r="N111" s="181" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="O111" s="181">
         <v>2020</v>
@@ -15092,7 +15092,7 @@
     <row r="112" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="181" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C112" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15115,7 +15115,7 @@
         <v>Bldg_FLTPre99-Cei</v>
       </c>
       <c r="N112" s="181" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="O112" s="181">
         <v>2020</v>
@@ -15127,7 +15127,7 @@
     <row r="113" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="181" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C113" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15150,7 +15150,7 @@
         <v>Bldg_FLTPre09-Cei</v>
       </c>
       <c r="N113" s="181" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="O113" s="181">
         <v>2020</v>
@@ -15162,7 +15162,7 @@
     <row r="114" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="181" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C114" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15185,7 +15185,7 @@
         <v>Bldg_FLTPre45-Cei</v>
       </c>
       <c r="N114" s="181" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="O114" s="181">
         <v>2020</v>
@@ -15197,7 +15197,7 @@
     <row r="115" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="181" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C115" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15220,7 +15220,7 @@
         <v>Bldg_FLTPre69-Cei</v>
       </c>
       <c r="N115" s="181" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="O115" s="181">
         <v>2020</v>
@@ -15232,7 +15232,7 @@
     <row r="116" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="181" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C116" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15255,7 +15255,7 @@
         <v>Bldg_FLTPre79-Cei</v>
       </c>
       <c r="N116" s="181" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="O116" s="181">
         <v>2020</v>
@@ -15267,7 +15267,7 @@
     <row r="117" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="181" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C117" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15290,7 +15290,7 @@
         <v>Bldg_FLTPre89-Cei</v>
       </c>
       <c r="N117" s="181" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="O117" s="181">
         <v>2020</v>
@@ -15302,7 +15302,7 @@
     <row r="118" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="181" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C118" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15325,7 +15325,7 @@
         <v>Bldg_FLTPre99-Cei</v>
       </c>
       <c r="N118" s="181" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="O118" s="181">
         <v>2020</v>
@@ -15337,7 +15337,7 @@
     <row r="119" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="181" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C119" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15360,7 +15360,7 @@
         <v>Bldg_FLTPre09-Cei</v>
       </c>
       <c r="N119" s="181" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="O119" s="181">
         <v>2020</v>
@@ -15372,7 +15372,7 @@
     <row r="120" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="181" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C120" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15395,7 +15395,7 @@
         <v>Bldg_FLTPre45-Wal</v>
       </c>
       <c r="N120" s="181" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="O120" s="181">
         <v>2020</v>
@@ -15407,7 +15407,7 @@
     <row r="121" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="181" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C121" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15430,7 +15430,7 @@
         <v>Bldg_FLTPre69-Wal</v>
       </c>
       <c r="N121" s="181" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="O121" s="181">
         <v>2020</v>
@@ -15442,7 +15442,7 @@
     <row r="122" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="181" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C122" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15465,7 +15465,7 @@
         <v>Bldg_FLTPre79-Wal</v>
       </c>
       <c r="N122" s="181" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="O122" s="181">
         <v>2020</v>
@@ -15477,7 +15477,7 @@
     <row r="123" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="181" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C123" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15500,7 +15500,7 @@
         <v>Bldg_FLTPre89-Wal</v>
       </c>
       <c r="N123" s="181" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="O123" s="181">
         <v>2020</v>
@@ -15512,7 +15512,7 @@
     <row r="124" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="181" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C124" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15535,7 +15535,7 @@
         <v>Bldg_FLTPre99-Wal</v>
       </c>
       <c r="N124" s="181" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="O124" s="181">
         <v>2020</v>
@@ -15547,7 +15547,7 @@
     <row r="125" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="181" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C125" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15570,7 +15570,7 @@
         <v>Bldg_FLTPre09-Wal</v>
       </c>
       <c r="N125" s="181" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="O125" s="181">
         <v>2020</v>
@@ -15582,7 +15582,7 @@
     <row r="126" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="181" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C126" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15605,7 +15605,7 @@
         <v>Bldg_FLTPre45-Wal</v>
       </c>
       <c r="N126" s="181" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="O126" s="181">
         <v>2020</v>
@@ -15617,7 +15617,7 @@
     <row r="127" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="181" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C127" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15640,7 +15640,7 @@
         <v>Bldg_FLTPre69-Wal</v>
       </c>
       <c r="N127" s="181" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="O127" s="181">
         <v>2020</v>
@@ -15652,7 +15652,7 @@
     <row r="128" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="181" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C128" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15675,7 +15675,7 @@
         <v>Bldg_FLTPre79-Wal</v>
       </c>
       <c r="N128" s="181" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O128" s="181">
         <v>2020</v>
@@ -15687,7 +15687,7 @@
     <row r="129" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="181" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C129" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15710,7 +15710,7 @@
         <v>Bldg_FLTPre89-Wal</v>
       </c>
       <c r="N129" s="181" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="O129" s="181">
         <v>2020</v>
@@ -15722,7 +15722,7 @@
     <row r="130" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="181" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C130" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15745,7 +15745,7 @@
         <v>Bldg_FLTPre99-Wal</v>
       </c>
       <c r="N130" s="181" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="O130" s="181">
         <v>2020</v>
@@ -15757,7 +15757,7 @@
     <row r="131" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="181" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C131" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15780,7 +15780,7 @@
         <v>Bldg_FLTPre09-Wal</v>
       </c>
       <c r="N131" s="181" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O131" s="181">
         <v>2020</v>
@@ -15801,10 +15801,10 @@
     </row>
     <row r="134" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B134" s="190" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C134" s="190" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D134" s="5"/>
       <c r="H134" s="186"/>
@@ -15814,55 +15814,55 @@
     </row>
     <row r="135" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B135" s="190" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C135" s="190" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D135" s="5"/>
     </row>
     <row r="136" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B136" s="190" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C136" s="190" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D136" s="5"/>
     </row>
     <row r="137" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B137" s="190" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C137" s="190" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D137" s="5"/>
     </row>
     <row r="138" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B138" s="190" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C138" s="190" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D138" s="5"/>
     </row>
     <row r="139" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B139" s="190" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C139" s="190" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D139" s="5"/>
     </row>
     <row r="140" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B140" s="190" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C140" s="190" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D140" s="5"/>
     </row>
@@ -16174,8 +16174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F8057-C735-4662-BAA6-EEDCF7B57273}">
   <dimension ref="A2:AO170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L141" sqref="L141"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16230,40 +16230,40 @@
         <v>42</v>
       </c>
       <c r="G3" s="64" t="s">
+        <v>683</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>684</v>
+      </c>
+      <c r="I3" s="64" t="s">
         <v>685</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="J3" s="64" t="s">
         <v>686</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="K3" s="64" t="s">
         <v>687</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="L3" s="64" t="s">
         <v>688</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="M3" s="64" t="s">
         <v>689</v>
       </c>
-      <c r="L3" s="64" t="s">
+      <c r="N3" s="64" t="s">
         <v>690</v>
       </c>
-      <c r="M3" s="64" t="s">
+      <c r="O3" s="64" t="s">
         <v>691</v>
       </c>
-      <c r="N3" s="64" t="s">
+      <c r="P3" s="64" t="s">
         <v>692</v>
       </c>
-      <c r="O3" s="64" t="s">
+      <c r="Q3" s="64" t="s">
         <v>693</v>
       </c>
-      <c r="P3" s="64" t="s">
+      <c r="R3" s="64" t="s">
         <v>694</v>
-      </c>
-      <c r="Q3" s="64" t="s">
-        <v>695</v>
-      </c>
-      <c r="R3" s="64" t="s">
-        <v>696</v>
       </c>
       <c r="S3" s="65" t="s">
         <v>44</v>
@@ -16272,7 +16272,7 @@
         <v>330</v>
       </c>
       <c r="U3" s="64" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="V3" s="64" t="s">
         <v>342</v>
@@ -16299,7 +16299,7 @@
         <v>390</v>
       </c>
       <c r="AD3" s="64" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AE3" s="64" t="s">
         <v>331</v>
@@ -16325,7 +16325,7 @@
         <v>335</v>
       </c>
       <c r="G4" s="389" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="H4" s="390"/>
       <c r="I4" s="390"/>
@@ -16355,16 +16355,16 @@
       <c r="Y4" s="107"/>
       <c r="Z4" s="107"/>
       <c r="AA4" s="115" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AB4" s="118" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AC4" s="118" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AD4" s="118" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AE4" s="107" t="s">
         <v>127</v>
@@ -16385,7 +16385,7 @@
     </row>
     <row r="5" spans="3:41" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="61" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D5" s="61"/>
       <c r="E5" s="61"/>
@@ -16523,14 +16523,14 @@
     </row>
     <row r="7" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="76" t="str">
-        <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E7,6)&amp;"_N1"</f>
-        <v>R-SH_Apt_OILKER_N1</v>
+        <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E7,3)&amp;"_N1"</f>
+        <v>R-SH_Apt_KER_N1</v>
       </c>
       <c r="D7" s="66" t="s">
         <v>352</v>
       </c>
       <c r="E7" s="137" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
       <c r="F7" s="103" t="s">
         <v>410</v>
@@ -16591,7 +16591,7 @@
       </c>
       <c r="AJ7" s="153" t="str">
         <f>C7</f>
-        <v>R-SH_Apt_OILKER_N1</v>
+        <v>R-SH_Apt_KER_N1</v>
       </c>
       <c r="AK7" s="153" t="str">
         <f>D7</f>
@@ -16601,7 +16601,7 @@
         <v>16</v>
       </c>
       <c r="AM7" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN7" s="154"/>
       <c r="AO7" s="154" t="s">
@@ -16610,17 +16610,17 @@
     </row>
     <row r="8" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" s="70" t="str">
-        <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E8,6)&amp;"_N1"</f>
-        <v>R-H_Apt_OILKER_N1</v>
+        <f>"R-HW_Apt"&amp;"_"&amp;RIGHT(E8,3)&amp;"_N1"</f>
+        <v>R-HW_Apt_KER_N1</v>
       </c>
       <c r="D8" s="69" t="s">
         <v>353</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
       <c r="F8" s="104" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G8" s="339">
         <v>1</v>
@@ -16688,7 +16688,7 @@
       <c r="AI8" s="154"/>
       <c r="AJ8" s="153" t="str">
         <f t="shared" ref="AJ8:AJ17" si="3">C8</f>
-        <v>R-H_Apt_OILKER_N1</v>
+        <v>R-HW_Apt_KER_N1</v>
       </c>
       <c r="AK8" s="153" t="str">
         <f t="shared" ref="AK8:AK17" si="4">D8</f>
@@ -16698,7 +16698,7 @@
         <v>16</v>
       </c>
       <c r="AM8" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN8" s="154"/>
       <c r="AO8" s="154" t="s">
@@ -16707,17 +16707,17 @@
     </row>
     <row r="9" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="76" t="str">
-        <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E9,6)&amp;"_N2"</f>
-        <v>R-H_Apt_OILKER_N2</v>
+        <f>"R-HW_Apt"&amp;"_"&amp;RIGHT(E9,3)&amp;"_N2"</f>
+        <v>R-HW_Apt_KER_N2</v>
       </c>
       <c r="D9" s="87" t="s">
         <v>354</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="F9" s="105" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G9" s="336">
         <v>1</v>
@@ -16789,7 +16789,7 @@
       <c r="AI9" s="154"/>
       <c r="AJ9" s="153" t="str">
         <f t="shared" si="3"/>
-        <v>R-H_Apt_OILKER_N2</v>
+        <v>R-HW_Apt_KER_N2</v>
       </c>
       <c r="AK9" s="153" t="str">
         <f t="shared" si="4"/>
@@ -16799,7 +16799,7 @@
         <v>16</v>
       </c>
       <c r="AM9" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN9" s="154"/>
       <c r="AO9" s="154" t="s">
@@ -16808,17 +16808,17 @@
     </row>
     <row r="10" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" s="70" t="str">
-        <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E10,6)&amp;"_N3"</f>
-        <v>R-H_Apt_OILKER_N3</v>
+        <f>"R-HW_Apt"&amp;"_"&amp;RIGHT(E10,3)&amp;"_N3"</f>
+        <v>R-HW_Apt_KER_N3</v>
       </c>
       <c r="D10" s="69" t="s">
         <v>358</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="F10" s="104" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G10" s="339">
         <v>1</v>
@@ -16890,7 +16890,7 @@
       <c r="AI10" s="154"/>
       <c r="AJ10" s="153" t="str">
         <f t="shared" si="3"/>
-        <v>R-H_Apt_OILKER_N3</v>
+        <v>R-HW_Apt_KER_N3</v>
       </c>
       <c r="AK10" s="153" t="str">
         <f t="shared" si="4"/>
@@ -16900,21 +16900,21 @@
         <v>16</v>
       </c>
       <c r="AM10" s="155" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN10" s="154"/>
       <c r="AO10" s="154"/>
     </row>
     <row r="11" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C11" s="76" t="str">
-        <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E11,6)&amp;"_N1"</f>
-        <v>R-SH_Apt_GASNAT_N1</v>
+        <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E11,3)&amp;"_N1"</f>
+        <v>R-SH_Apt_GAS_N1</v>
       </c>
       <c r="D11" s="87" t="s">
         <v>351</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="F11" s="105" t="s">
         <v>410</v>
@@ -16973,7 +16973,7 @@
       <c r="AI11" s="154"/>
       <c r="AJ11" s="153" t="str">
         <f t="shared" si="3"/>
-        <v>R-SH_Apt_GASNAT_N1</v>
+        <v>R-SH_Apt_GAS_N1</v>
       </c>
       <c r="AK11" s="153" t="str">
         <f t="shared" si="4"/>
@@ -16983,7 +16983,7 @@
         <v>16</v>
       </c>
       <c r="AM11" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN11" s="154"/>
       <c r="AO11" s="154" t="s">
@@ -16992,17 +16992,17 @@
     </row>
     <row r="12" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="70" t="str">
-        <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E12,6)&amp;"_N1"</f>
-        <v>R-H_Apt_GASNAT_N1</v>
+        <f>"R-HW_Apt"&amp;"_"&amp;RIGHT(E12,3)&amp;"_N1"</f>
+        <v>R-HW_Apt_GAS_N1</v>
       </c>
       <c r="D12" s="69" t="s">
         <v>355</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="F12" s="104" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G12" s="339">
         <v>1</v>
@@ -17070,7 +17070,7 @@
       <c r="AI12" s="154"/>
       <c r="AJ12" s="153" t="str">
         <f t="shared" si="3"/>
-        <v>R-H_Apt_GASNAT_N1</v>
+        <v>R-HW_Apt_GAS_N1</v>
       </c>
       <c r="AK12" s="153" t="str">
         <f t="shared" si="4"/>
@@ -17080,7 +17080,7 @@
         <v>16</v>
       </c>
       <c r="AM12" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN12" s="154"/>
       <c r="AO12" s="154" t="s">
@@ -17089,17 +17089,17 @@
     </row>
     <row r="13" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C13" s="76" t="str">
-        <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E13,6)&amp;"_N2"</f>
-        <v>R-H_Apt_GASNAT_N2</v>
+        <f>"R-HW_Apt"&amp;"_"&amp;RIGHT(E13,3)&amp;"_N2"</f>
+        <v>R-HW_Apt_GAS_N2</v>
       </c>
       <c r="D13" s="87" t="s">
         <v>356</v>
       </c>
       <c r="E13" s="77" t="s">
-        <v>785</v>
+        <v>801</v>
       </c>
       <c r="F13" s="105" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G13" s="336">
         <v>1</v>
@@ -17171,7 +17171,7 @@
       <c r="AI13" s="154"/>
       <c r="AJ13" s="153" t="str">
         <f t="shared" si="3"/>
-        <v>R-H_Apt_GASNAT_N2</v>
+        <v>R-HW_Apt_GAS_N2</v>
       </c>
       <c r="AK13" s="153" t="str">
         <f t="shared" si="4"/>
@@ -17181,7 +17181,7 @@
         <v>16</v>
       </c>
       <c r="AM13" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN13" s="154"/>
       <c r="AO13" s="154" t="s">
@@ -17190,17 +17190,17 @@
     </row>
     <row r="14" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C14" s="70" t="str">
-        <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E14,6)&amp;"_N3"</f>
-        <v>R-H_Apt_GASNAT_N3</v>
+        <f>"R-HW_Apt"&amp;"_"&amp;RIGHT(E14,3)&amp;"_N3"</f>
+        <v>R-HW_Apt_GAS_N3</v>
       </c>
       <c r="D14" s="69" t="s">
         <v>357</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>786</v>
+        <v>802</v>
       </c>
       <c r="F14" s="104" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G14" s="339">
         <v>1</v>
@@ -17272,7 +17272,7 @@
       <c r="AI14" s="154"/>
       <c r="AJ14" s="153" t="str">
         <f t="shared" si="3"/>
-        <v>R-H_Apt_GASNAT_N3</v>
+        <v>R-HW_Apt_GAS_N3</v>
       </c>
       <c r="AK14" s="153" t="str">
         <f t="shared" si="4"/>
@@ -17282,7 +17282,7 @@
         <v>16</v>
       </c>
       <c r="AM14" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN14" s="154"/>
       <c r="AO14" s="154" t="s">
@@ -17291,14 +17291,14 @@
     </row>
     <row r="15" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C15" s="76" t="str">
-        <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E15,6)&amp;"_N1"</f>
-        <v>R-SH_Apt_OILLPG_N1</v>
+        <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E15,3)&amp;"_N1"</f>
+        <v>R-SH_Apt_LPG_N1</v>
       </c>
       <c r="D15" s="87" t="s">
         <v>361</v>
       </c>
       <c r="E15" s="77" t="s">
-        <v>452</v>
+        <v>796</v>
       </c>
       <c r="F15" s="105" t="s">
         <v>410</v>
@@ -17357,7 +17357,7 @@
       <c r="AI15" s="154"/>
       <c r="AJ15" s="153" t="str">
         <f t="shared" si="3"/>
-        <v>R-SH_Apt_OILLPG_N1</v>
+        <v>R-SH_Apt_LPG_N1</v>
       </c>
       <c r="AK15" s="153" t="str">
         <f t="shared" si="4"/>
@@ -17367,7 +17367,7 @@
         <v>16</v>
       </c>
       <c r="AM15" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN15" s="154"/>
       <c r="AO15" s="154" t="s">
@@ -17376,17 +17376,17 @@
     </row>
     <row r="16" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C16" s="70" t="str">
-        <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E16,6)&amp;"_N1"</f>
-        <v>R-H_Apt_OILLPG_N1</v>
+        <f>"R-HW_Apt"&amp;"_"&amp;RIGHT(E16,3)&amp;"_N1"</f>
+        <v>R-HW_Apt_LPG_N1</v>
       </c>
       <c r="D16" s="69" t="s">
         <v>362</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>452</v>
+        <v>796</v>
       </c>
       <c r="F16" s="104" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G16" s="339">
         <v>1</v>
@@ -17454,7 +17454,7 @@
       <c r="AI16" s="154"/>
       <c r="AJ16" s="153" t="str">
         <f t="shared" si="3"/>
-        <v>R-H_Apt_OILLPG_N1</v>
+        <v>R-HW_Apt_LPG_N1</v>
       </c>
       <c r="AK16" s="153" t="str">
         <f t="shared" si="4"/>
@@ -17464,7 +17464,7 @@
         <v>16</v>
       </c>
       <c r="AM16" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN16" s="154"/>
       <c r="AO16" s="154" t="s">
@@ -17473,14 +17473,14 @@
     </row>
     <row r="17" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C17" s="76" t="str">
-        <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E17,6)&amp;"_N1"</f>
-        <v>R-SH_Apt_BIOWOO_N1</v>
+        <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E17,3)&amp;"_N1"</f>
+        <v>R-SH_Apt_WOO_N1</v>
       </c>
       <c r="D17" s="87" t="s">
         <v>363</v>
       </c>
       <c r="E17" s="77" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="F17" s="105" t="s">
         <v>410</v>
@@ -17539,7 +17539,7 @@
       <c r="AI17" s="154"/>
       <c r="AJ17" s="153" t="str">
         <f t="shared" si="3"/>
-        <v>R-SH_Apt_BIOWOO_N1</v>
+        <v>R-SH_Apt_WOO_N1</v>
       </c>
       <c r="AK17" s="153" t="str">
         <f t="shared" si="4"/>
@@ -17549,7 +17549,7 @@
         <v>16</v>
       </c>
       <c r="AM17" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN17" s="154"/>
       <c r="AO17" s="154" t="s">
@@ -17558,17 +17558,17 @@
     </row>
     <row r="18" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="73" t="str">
-        <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E18,6)&amp;"_N1"</f>
-        <v>R-H_Apt_BIOWOO_N1</v>
+        <f>"R-HW_Apt"&amp;"_"&amp;RIGHT(E18,3)&amp;"_N1"</f>
+        <v>R-HW_Apt_WOO_N1</v>
       </c>
       <c r="D18" s="69" t="s">
         <v>364</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="F18" s="104" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G18" s="339">
         <v>1</v>
@@ -17636,7 +17636,7 @@
       <c r="AI18" s="157"/>
       <c r="AJ18" s="156" t="str">
         <f>C18</f>
-        <v>R-H_Apt_BIOWOO_N1</v>
+        <v>R-HW_Apt_WOO_N1</v>
       </c>
       <c r="AK18" s="156" t="str">
         <f>D18</f>
@@ -17646,7 +17646,7 @@
         <v>16</v>
       </c>
       <c r="AM18" s="157" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN18" s="157"/>
       <c r="AO18" s="157" t="s">
@@ -17655,13 +17655,13 @@
     </row>
     <row r="19" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="335" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D19" s="350" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E19" s="170" t="s">
-        <v>768</v>
+        <v>803</v>
       </c>
       <c r="F19" s="143"/>
       <c r="G19" s="345">
@@ -17726,7 +17726,7 @@
       <c r="AI19" s="158"/>
       <c r="AJ19" s="159" t="str">
         <f>C21</f>
-        <v>R-SH_Apt_RSDELC_N1</v>
+        <v>R-SH_Apt_ELC_N1</v>
       </c>
       <c r="AK19" s="159" t="str">
         <f>D21</f>
@@ -17736,7 +17736,7 @@
         <v>16</v>
       </c>
       <c r="AM19" s="158" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN19" s="158"/>
       <c r="AO19" s="158" t="s">
@@ -17780,7 +17780,7 @@
       <c r="AI20" s="152"/>
       <c r="AJ20" s="151" t="str">
         <f t="shared" ref="AJ20:AK26" si="12">C23</f>
-        <v>R-SH_Apt_RSDELC_HPN1</v>
+        <v>R-SH_Apt_ELC_HPN1</v>
       </c>
       <c r="AK20" s="151" t="str">
         <f t="shared" si="12"/>
@@ -17790,7 +17790,7 @@
         <v>16</v>
       </c>
       <c r="AM20" s="152" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN20" s="152"/>
       <c r="AO20" s="152" t="s">
@@ -17799,8 +17799,8 @@
     </row>
     <row r="21" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C21" s="144" t="str">
-        <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E21,6)&amp;"_N1"</f>
-        <v>R-SH_Apt_RSDELC_N1</v>
+        <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E21,3)&amp;"_N1"</f>
+        <v>R-SH_Apt_ELC_N1</v>
       </c>
       <c r="D21" s="128" t="s">
         <v>366</v>
@@ -17865,7 +17865,7 @@
       <c r="AI21" s="154"/>
       <c r="AJ21" s="153" t="str">
         <f t="shared" si="12"/>
-        <v>R-HC_Apt_RSDELC_HPN1</v>
+        <v>R-HC_Apt_ELC_HPN1</v>
       </c>
       <c r="AK21" s="153" t="str">
         <f t="shared" si="12"/>
@@ -17875,7 +17875,7 @@
         <v>16</v>
       </c>
       <c r="AM21" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN21" s="154"/>
       <c r="AO21" s="154" t="s">
@@ -17919,7 +17919,7 @@
       <c r="AI22" s="154"/>
       <c r="AJ22" s="153" t="str">
         <f t="shared" si="12"/>
-        <v>R-SH_Apt_RSDELC_HPN2</v>
+        <v>R-SH_Apt_ELC_HPN2</v>
       </c>
       <c r="AK22" s="153" t="str">
         <f t="shared" si="12"/>
@@ -17929,7 +17929,7 @@
         <v>16</v>
       </c>
       <c r="AM22" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN22" s="154"/>
       <c r="AO22" s="154" t="s">
@@ -17938,8 +17938,8 @@
     </row>
     <row r="23" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C23" s="66" t="str">
-        <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E23,6)&amp;"_HPN1"</f>
-        <v>R-SH_Apt_RSDELC_HPN1</v>
+        <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E23,3)&amp;"_HPN1"</f>
+        <v>R-SH_Apt_ELC_HPN1</v>
       </c>
       <c r="D23" s="67" t="s">
         <v>369</v>
@@ -18004,7 +18004,7 @@
       <c r="AI23" s="154"/>
       <c r="AJ23" s="153" t="str">
         <f t="shared" si="12"/>
-        <v>R-H_Apt_RSDELC_HPN1</v>
+        <v>R-HW_Apt_ELC_HPN1</v>
       </c>
       <c r="AK23" s="153" t="str">
         <f t="shared" si="12"/>
@@ -18014,7 +18014,7 @@
         <v>16</v>
       </c>
       <c r="AM23" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN23" s="154"/>
       <c r="AO23" s="154" t="s">
@@ -18023,8 +18023,8 @@
     </row>
     <row r="24" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C24" s="69" t="str">
-        <f>"R-HC_Apt"&amp;"_"&amp;RIGHT(E24,6)&amp;"_HPN1"</f>
-        <v>R-HC_Apt_RSDELC_HPN1</v>
+        <f>"R-HC_Apt"&amp;"_"&amp;RIGHT(E24,3)&amp;"_HPN1"</f>
+        <v>R-HC_Apt_ELC_HPN1</v>
       </c>
       <c r="D24" s="70" t="s">
         <v>370</v>
@@ -18033,7 +18033,7 @@
         <v>448</v>
       </c>
       <c r="F24" s="104" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="G24" s="339">
         <v>1</v>
@@ -18097,7 +18097,7 @@
       <c r="AI24" s="304"/>
       <c r="AJ24" s="153" t="str">
         <f t="shared" si="12"/>
-        <v>R-H_Apt_RENSOL_HPN2</v>
+        <v>R-HW_Apt_SOL_HPN2</v>
       </c>
       <c r="AK24" s="153" t="str">
         <f t="shared" si="12"/>
@@ -18107,7 +18107,7 @@
         <v>16</v>
       </c>
       <c r="AM24" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN24" s="154"/>
       <c r="AO24" s="154" t="s">
@@ -18116,8 +18116,8 @@
     </row>
     <row r="25" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C25" s="87" t="str">
-        <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E25,6)&amp;"_HPN2"</f>
-        <v>R-SH_Apt_RSDELC_HPN2</v>
+        <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E25,3)&amp;"_HPN2"</f>
+        <v>R-SH_Apt_ELC_HPN2</v>
       </c>
       <c r="D25" s="76" t="s">
         <v>371</v>
@@ -18182,7 +18182,7 @@
       <c r="AI25" s="304"/>
       <c r="AJ25" s="153" t="str">
         <f t="shared" si="12"/>
-        <v>R-SH_Apt_RSDELC_HPN3</v>
+        <v>R-SH_Apt_ELC_HPN3</v>
       </c>
       <c r="AK25" s="153" t="str">
         <f t="shared" si="12"/>
@@ -18192,7 +18192,7 @@
         <v>16</v>
       </c>
       <c r="AM25" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN25" s="154"/>
       <c r="AO25" s="154" t="s">
@@ -18201,8 +18201,8 @@
     </row>
     <row r="26" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="69" t="str">
-        <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E26,6)&amp;"_HPN1"</f>
-        <v>R-H_Apt_RSDELC_HPN1</v>
+        <f>"R-HW_Apt"&amp;"_"&amp;RIGHT(E26,3)&amp;"_HPN1"</f>
+        <v>R-HW_Apt_ELC_HPN1</v>
       </c>
       <c r="D26" s="70" t="s">
         <v>372</v>
@@ -18211,7 +18211,7 @@
         <v>448</v>
       </c>
       <c r="F26" s="104" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G26" s="339">
         <v>1</v>
@@ -18279,7 +18279,7 @@
       <c r="AI26" s="160"/>
       <c r="AJ26" s="156" t="str">
         <f t="shared" si="12"/>
-        <v>R-HC_Apt_RSDELC_HPN2</v>
+        <v>R-HC_Apt_ELC_HPN2</v>
       </c>
       <c r="AK26" s="156" t="str">
         <f t="shared" si="12"/>
@@ -18289,7 +18289,7 @@
         <v>16</v>
       </c>
       <c r="AM26" s="157" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN26" s="157"/>
       <c r="AO26" s="157" t="s">
@@ -18298,17 +18298,17 @@
     </row>
     <row r="27" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C27" s="87" t="str">
-        <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E27,6)&amp;"_HPN2"</f>
-        <v>R-H_Apt_RENSOL_HPN2</v>
+        <f>"R-HW_Apt"&amp;"_"&amp;RIGHT(E27,3)&amp;"_HPN2"</f>
+        <v>R-HW_Apt_SOL_HPN2</v>
       </c>
       <c r="D27" s="76" t="s">
         <v>373</v>
       </c>
       <c r="E27" s="77" t="s">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="F27" s="105" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G27" s="336">
         <v>1</v>
@@ -18380,7 +18380,7 @@
       <c r="AI27" s="161"/>
       <c r="AJ27" s="151" t="str">
         <f>C31</f>
-        <v>R-H_Apt_GASNAT_HPN1</v>
+        <v>R-HW_Apt_GAS_HPN1</v>
       </c>
       <c r="AK27" s="151" t="str">
         <f>D31</f>
@@ -18390,7 +18390,7 @@
         <v>16</v>
       </c>
       <c r="AM27" s="152" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN27" s="152"/>
       <c r="AO27" s="152" t="s">
@@ -18399,8 +18399,8 @@
     </row>
     <row r="28" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="69" t="str">
-        <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E28,6)&amp;"_HPN3"</f>
-        <v>R-SH_Apt_RSDELC_HPN3</v>
+        <f>"R-SH_Apt"&amp;"_"&amp;RIGHT(E28,3)&amp;"_HPN3"</f>
+        <v>R-SH_Apt_ELC_HPN3</v>
       </c>
       <c r="D28" s="70" t="s">
         <v>374</v>
@@ -18465,7 +18465,7 @@
       <c r="AI28" s="305"/>
       <c r="AJ28" s="156" t="str">
         <f>C32</f>
-        <v>R-H_Apt_GASNAT_HPN2</v>
+        <v>R-HW_Apt_GAS_HPN2</v>
       </c>
       <c r="AK28" s="156" t="str">
         <f>D32</f>
@@ -18475,7 +18475,7 @@
         <v>16</v>
       </c>
       <c r="AM28" s="157" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN28" s="157"/>
       <c r="AO28" s="157" t="s">
@@ -18484,8 +18484,8 @@
     </row>
     <row r="29" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="142" t="str">
-        <f>"R-HC_Apt"&amp;"_"&amp;RIGHT(E29,6)&amp;"_HPN2"</f>
-        <v>R-HC_Apt_RSDELC_HPN2</v>
+        <f>"R-HC_Apt"&amp;"_"&amp;RIGHT(E29,3)&amp;"_HPN2"</f>
+        <v>R-HC_Apt_ELC_HPN2</v>
       </c>
       <c r="D29" s="138" t="s">
         <v>375</v>
@@ -18494,7 +18494,7 @@
         <v>448</v>
       </c>
       <c r="F29" s="143" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="G29" s="345">
         <v>1</v>
@@ -18558,7 +18558,7 @@
       <c r="AI29" s="306"/>
       <c r="AJ29" s="159" t="str">
         <f>C34</f>
-        <v>R-H_Apt_GASNAT_HHPN1</v>
+        <v>R-HW_Apt_GAS_HHPN1</v>
       </c>
       <c r="AK29" s="159" t="str">
         <f>D34</f>
@@ -18568,7 +18568,7 @@
         <v>16</v>
       </c>
       <c r="AM29" s="158" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN29" s="158"/>
       <c r="AO29" s="158" t="s">
@@ -18612,7 +18612,7 @@
       <c r="AI30" s="307"/>
       <c r="AJ30" s="151" t="str">
         <f>C36</f>
-        <v>R-H_Apt_RSDHET_N1</v>
+        <v>R-HW_Apt_HET_N1</v>
       </c>
       <c r="AK30" s="151" t="str">
         <f>D36</f>
@@ -18622,7 +18622,7 @@
         <v>16</v>
       </c>
       <c r="AM30" s="152" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN30" s="152"/>
       <c r="AO30" s="152" t="s">
@@ -18631,17 +18631,17 @@
     </row>
     <row r="31" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="66" t="str">
-        <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E31,6)&amp;"_HPN1"</f>
-        <v>R-H_Apt_GASNAT_HPN1</v>
+        <f>"R-HW_Apt"&amp;"_"&amp;RIGHT(E31,3)&amp;"_HPN1"</f>
+        <v>R-HW_Apt_GAS_HPN1</v>
       </c>
       <c r="D31" s="67" t="s">
         <v>377</v>
       </c>
       <c r="E31" s="137" t="s">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="F31" s="137" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G31" s="342">
         <v>1</v>
@@ -18709,7 +18709,7 @@
       <c r="AI31" s="163"/>
       <c r="AJ31" s="156" t="str">
         <f>C37</f>
-        <v>R-H_Apt_RSDHET_N2</v>
+        <v>R-HW_Apt_HET_N2</v>
       </c>
       <c r="AK31" s="156" t="str">
         <f>D37</f>
@@ -18719,7 +18719,7 @@
         <v>16</v>
       </c>
       <c r="AM31" s="157" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN31" s="157"/>
       <c r="AO31" s="157" t="s">
@@ -18728,17 +18728,17 @@
     </row>
     <row r="32" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C32" s="354" t="str">
-        <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E32,6)&amp;"_HPN2"</f>
-        <v>R-H_Apt_GASNAT_HPN2</v>
+        <f>"R-HW_Apt"&amp;"_"&amp;RIGHT(E32,3)&amp;"_HPN2"</f>
+        <v>R-HW_Apt_GAS_HPN2</v>
       </c>
       <c r="D32" s="73" t="s">
         <v>378</v>
       </c>
       <c r="E32" s="74" t="s">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="F32" s="74" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G32" s="355">
         <v>1</v>
@@ -18806,7 +18806,7 @@
       <c r="AI32" s="307"/>
       <c r="AJ32" s="151" t="str">
         <f t="shared" ref="AJ32:AK36" si="18">C39</f>
-        <v>R-WH_Apt_RSDELC_N1</v>
+        <v>R-WH_Apt_ELC_N1</v>
       </c>
       <c r="AK32" s="151" t="str">
         <f t="shared" si="18"/>
@@ -18816,7 +18816,7 @@
         <v>16</v>
       </c>
       <c r="AM32" s="152" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN32" s="152"/>
       <c r="AO32" s="152" t="s">
@@ -18860,7 +18860,7 @@
       <c r="AI33" s="4"/>
       <c r="AJ33" s="153" t="str">
         <f t="shared" si="18"/>
-        <v>R-WH_Apt_RENSOL_N1</v>
+        <v>R-WH_Apt_SOL_N1</v>
       </c>
       <c r="AK33" s="153" t="str">
         <f t="shared" si="18"/>
@@ -18870,7 +18870,7 @@
         <v>16</v>
       </c>
       <c r="AM33" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN33" s="154"/>
       <c r="AO33" s="154" t="s">
@@ -18879,17 +18879,17 @@
     </row>
     <row r="34" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C34" s="144" t="str">
-        <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E34,6)&amp;"_HHPN1"</f>
-        <v>R-H_Apt_GASNAT_HHPN1</v>
+        <f>"R-HW_Apt"&amp;"_"&amp;RIGHT(E34,3)&amp;"_HHPN1"</f>
+        <v>R-HW_Apt_GAS_HHPN1</v>
       </c>
       <c r="D34" s="128" t="s">
         <v>402</v>
       </c>
       <c r="E34" s="172" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="F34" s="146" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G34" s="355">
         <v>1</v>
@@ -18962,7 +18962,7 @@
       <c r="AI34" s="4"/>
       <c r="AJ34" s="153" t="str">
         <f t="shared" si="18"/>
-        <v>R-WH_Apt_GASNAT_N1</v>
+        <v>R-WH_Apt_GAS_N1</v>
       </c>
       <c r="AK34" s="153" t="str">
         <f t="shared" si="18"/>
@@ -18972,7 +18972,7 @@
         <v>16</v>
       </c>
       <c r="AM34" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN34" s="154"/>
       <c r="AO34" s="154" t="s">
@@ -19016,7 +19016,7 @@
       <c r="AI35" s="4"/>
       <c r="AJ35" s="153" t="str">
         <f t="shared" si="18"/>
-        <v>R-WH_Apt_BIOWOO_N1</v>
+        <v>R-WH_Apt_WOO_N1</v>
       </c>
       <c r="AK35" s="153" t="str">
         <f t="shared" si="18"/>
@@ -19026,7 +19026,7 @@
         <v>16</v>
       </c>
       <c r="AM35" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN35" s="154"/>
       <c r="AO35" s="154" t="s">
@@ -19035,17 +19035,17 @@
     </row>
     <row r="36" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="66" t="str">
-        <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E36,6)&amp;"_N1"</f>
-        <v>R-H_Apt_RSDHET_N1</v>
+        <f>"R-HW_Apt"&amp;"_"&amp;RIGHT(E36,3)&amp;"_N1"</f>
+        <v>R-HW_Apt_HET_N1</v>
       </c>
       <c r="D36" s="67" t="s">
         <v>380</v>
       </c>
       <c r="E36" s="137" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G36" s="342">
         <v>1</v>
@@ -19109,7 +19109,7 @@
       <c r="AI36" s="163"/>
       <c r="AJ36" s="156" t="str">
         <f t="shared" si="18"/>
-        <v>R-WH_Apt_OILLPG_N1</v>
+        <v>R-WH_Apt_LPG_N1</v>
       </c>
       <c r="AK36" s="156" t="str">
         <f t="shared" si="18"/>
@@ -19119,7 +19119,7 @@
         <v>16</v>
       </c>
       <c r="AM36" s="157" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN36" s="157"/>
       <c r="AO36" s="157" t="s">
@@ -19128,17 +19128,17 @@
     </row>
     <row r="37" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C37" s="354" t="str">
-        <f>"R-H_Apt"&amp;"_"&amp;RIGHT(E37,6)&amp;"_N2"</f>
-        <v>R-H_Apt_RSDHET_N2</v>
+        <f>"R-HW_Apt"&amp;"_"&amp;RIGHT(E37,3)&amp;"_N2"</f>
+        <v>R-HW_Apt_HET_N2</v>
       </c>
       <c r="D37" s="73" t="s">
         <v>381</v>
       </c>
       <c r="E37" s="74" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="F37" s="75" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G37" s="355">
         <v>1</v>
@@ -19202,7 +19202,7 @@
       <c r="AI37" s="4"/>
       <c r="AJ37" s="153" t="str">
         <f>C45</f>
-        <v>R-SC_Apt_RSDELC_N1</v>
+        <v>R-SC_Apt_ELC_N1</v>
       </c>
       <c r="AK37" s="153" t="str">
         <f>D45</f>
@@ -19212,7 +19212,7 @@
         <v>16</v>
       </c>
       <c r="AM37" s="152" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN37" s="152"/>
       <c r="AO37" s="152" t="s">
@@ -19256,8 +19256,8 @@
     </row>
     <row r="39" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C39" s="76" t="str">
-        <f>"R-WH_Apt"&amp;"_"&amp;RIGHT(E39,6)&amp;"_N1"</f>
-        <v>R-WH_Apt_RSDELC_N1</v>
+        <f>"R-WH_Apt"&amp;"_"&amp;RIGHT(E39,3)&amp;"_N1"</f>
+        <v>R-WH_Apt_ELC_N1</v>
       </c>
       <c r="D39" s="67" t="s">
         <v>383</v>
@@ -19322,14 +19322,14 @@
     </row>
     <row r="40" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C40" s="70" t="str">
-        <f t="shared" ref="C40:C43" si="20">"R-WH_Apt"&amp;"_"&amp;RIGHT(E40,6)&amp;"_N1"</f>
-        <v>R-WH_Apt_RENSOL_N1</v>
+        <f>"R-WH_Apt"&amp;"_"&amp;RIGHT(E40,3)&amp;"_N1"</f>
+        <v>R-WH_Apt_SOL_N1</v>
       </c>
       <c r="D40" s="70" t="s">
         <v>384</v>
       </c>
       <c r="E40" s="71" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="F40" s="70" t="s">
         <v>412</v>
@@ -19390,14 +19390,14 @@
     </row>
     <row r="41" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C41" s="76" t="str">
-        <f t="shared" si="20"/>
-        <v>R-WH_Apt_GASNAT_N1</v>
+        <f>"R-WH_Apt"&amp;"_"&amp;RIGHT(E41,3)&amp;"_N1"</f>
+        <v>R-WH_Apt_GAS_N1</v>
       </c>
       <c r="D41" s="76" t="s">
         <v>386</v>
       </c>
       <c r="E41" s="77" t="s">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="F41" s="76" t="s">
         <v>412</v>
@@ -19456,14 +19456,14 @@
     </row>
     <row r="42" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C42" s="70" t="str">
-        <f t="shared" si="20"/>
-        <v>R-WH_Apt_BIOWOO_N1</v>
+        <f>"R-WH_Apt"&amp;"_"&amp;RIGHT(E42,3)&amp;"_N1"</f>
+        <v>R-WH_Apt_WOO_N1</v>
       </c>
       <c r="D42" s="70" t="s">
         <v>385</v>
       </c>
       <c r="E42" s="71" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="F42" s="70" t="s">
         <v>412</v>
@@ -19522,14 +19522,14 @@
     </row>
     <row r="43" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C43" s="76" t="str">
-        <f t="shared" si="20"/>
-        <v>R-WH_Apt_OILLPG_N1</v>
+        <f>"R-WH_Apt"&amp;"_"&amp;RIGHT(E43,3)&amp;"_N1"</f>
+        <v>R-WH_Apt_LPG_N1</v>
       </c>
       <c r="D43" s="138" t="s">
         <v>387</v>
       </c>
       <c r="E43" s="170" t="s">
-        <v>452</v>
+        <v>796</v>
       </c>
       <c r="F43" s="138" t="s">
         <v>412</v>
@@ -19623,8 +19623,8 @@
     </row>
     <row r="45" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C45" s="76" t="str">
-        <f>"R-SC_Apt"&amp;"_"&amp;RIGHT(E45,6)&amp;"_N1"</f>
-        <v>R-SC_Apt_RSDELC_N1</v>
+        <f>"R-SC_Apt"&amp;"_"&amp;RIGHT(E45,3)&amp;"_N1"</f>
+        <v>R-SC_Apt_ELC_N1</v>
       </c>
       <c r="D45" s="145" t="s">
         <v>389</v>
@@ -19706,40 +19706,40 @@
         <v>42</v>
       </c>
       <c r="G50" s="64" t="s">
+        <v>698</v>
+      </c>
+      <c r="H50" s="64" t="s">
+        <v>699</v>
+      </c>
+      <c r="I50" s="64" t="s">
         <v>700</v>
       </c>
-      <c r="H50" s="64" t="s">
+      <c r="J50" s="64" t="s">
         <v>701</v>
       </c>
-      <c r="I50" s="64" t="s">
+      <c r="K50" s="64" t="s">
         <v>702</v>
       </c>
-      <c r="J50" s="64" t="s">
+      <c r="L50" s="64" t="s">
         <v>703</v>
       </c>
-      <c r="K50" s="64" t="s">
+      <c r="M50" s="64" t="s">
         <v>704</v>
       </c>
-      <c r="L50" s="64" t="s">
+      <c r="N50" s="64" t="s">
         <v>705</v>
       </c>
-      <c r="M50" s="64" t="s">
+      <c r="O50" s="64" t="s">
         <v>706</v>
       </c>
-      <c r="N50" s="64" t="s">
+      <c r="P50" s="64" t="s">
         <v>707</v>
       </c>
-      <c r="O50" s="64" t="s">
+      <c r="Q50" s="64" t="s">
         <v>708</v>
       </c>
-      <c r="P50" s="64" t="s">
+      <c r="R50" s="64" t="s">
         <v>709</v>
-      </c>
-      <c r="Q50" s="64" t="s">
-        <v>710</v>
-      </c>
-      <c r="R50" s="64" t="s">
-        <v>711</v>
       </c>
       <c r="S50" s="65" t="s">
         <v>44</v>
@@ -19748,7 +19748,7 @@
         <v>330</v>
       </c>
       <c r="U50" s="64" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="V50" s="64" t="s">
         <v>342</v>
@@ -19775,7 +19775,7 @@
         <v>390</v>
       </c>
       <c r="AD50" s="64" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AE50" s="64" t="s">
         <v>331</v>
@@ -19840,16 +19840,16 @@
       <c r="Y51" s="107"/>
       <c r="Z51" s="107"/>
       <c r="AA51" s="115" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AB51" s="118" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AC51" s="118" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AD51" s="118" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AE51" s="107" t="s">
         <v>127</v>
@@ -19882,7 +19882,7 @@
     </row>
     <row r="52" spans="3:41" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C52" s="61" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D52" s="61"/>
       <c r="E52" s="61"/>
@@ -20001,7 +20001,7 @@
       </c>
       <c r="AJ53" s="153" t="str">
         <f>C54</f>
-        <v>R-SH_Att_OILKER_N1</v>
+        <v>R-SH_Att_KER_N1</v>
       </c>
       <c r="AK53" s="153" t="str">
         <f>D54</f>
@@ -20011,7 +20011,7 @@
         <v>16</v>
       </c>
       <c r="AM53" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN53" s="154"/>
       <c r="AO53" s="154" t="s">
@@ -20020,14 +20020,14 @@
     </row>
     <row r="54" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C54" s="76" t="str">
-        <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E54,6)&amp;"_N1"</f>
-        <v>R-SH_Att_OILKER_N1</v>
+        <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E54,3)&amp;"_N1"</f>
+        <v>R-SH_Att_KER_N1</v>
       </c>
       <c r="D54" s="76" t="s">
         <v>352</v>
       </c>
-      <c r="E54" s="77" t="s">
-        <v>782</v>
+      <c r="E54" s="137" t="s">
+        <v>795</v>
       </c>
       <c r="F54" s="76" t="s">
         <v>433</v>
@@ -20085,18 +20085,18 @@
       </c>
       <c r="AI54" s="154"/>
       <c r="AJ54" s="153" t="str">
-        <f t="shared" ref="AJ54:AJ64" si="21">C55</f>
-        <v>R-H_Att_OILKER_N1</v>
+        <f t="shared" ref="AJ54:AJ64" si="20">C55</f>
+        <v>R-HW_Att_KER_N1</v>
       </c>
       <c r="AK54" s="153" t="str">
-        <f t="shared" ref="AK54:AK64" si="22">D55</f>
+        <f t="shared" ref="AK54:AK64" si="21">D55</f>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AL54" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM54" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN54" s="154"/>
       <c r="AO54" s="154" t="s">
@@ -20105,17 +20105,17 @@
     </row>
     <row r="55" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C55" s="70" t="str">
-        <f>"R-H_Att"&amp;"_"&amp;RIGHT(E55,6)&amp;"_N1"</f>
-        <v>R-H_Att_OILKER_N1</v>
+        <f>"R-HW_Att"&amp;"_"&amp;RIGHT(E55,3)&amp;"_N1"</f>
+        <v>R-HW_Att_KER_N1</v>
       </c>
       <c r="D55" s="70" t="s">
         <v>353</v>
       </c>
       <c r="E55" s="71" t="s">
+        <v>795</v>
+      </c>
+      <c r="F55" s="70" t="s">
         <v>782</v>
-      </c>
-      <c r="F55" s="70" t="s">
-        <v>794</v>
       </c>
       <c r="G55" s="339">
         <v>1</v>
@@ -20138,15 +20138,15 @@
         <v>0.7</v>
       </c>
       <c r="P55" s="340">
-        <f t="shared" ref="P55:P57" si="23">H55*0.7</f>
+        <f t="shared" ref="P55:P57" si="22">H55*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q55" s="340">
-        <f t="shared" ref="Q55:Q57" si="24">I55*0.7</f>
+        <f t="shared" ref="Q55:Q57" si="23">I55*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R55" s="341">
-        <f t="shared" ref="R55:R57" si="25">J55*0.7</f>
+        <f t="shared" ref="R55:R57" si="24">J55*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S55" s="100">
@@ -20182,18 +20182,18 @@
       </c>
       <c r="AI55" s="154"/>
       <c r="AJ55" s="153" t="str">
+        <f t="shared" si="20"/>
+        <v>R-HW_Att_KER_N2</v>
+      </c>
+      <c r="AK55" s="153" t="str">
         <f t="shared" si="21"/>
-        <v>R-H_Att_OILKER_N2</v>
-      </c>
-      <c r="AK55" s="153" t="str">
-        <f t="shared" si="22"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
       <c r="AL55" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM55" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN55" s="154"/>
       <c r="AO55" s="154" t="s">
@@ -20202,17 +20202,17 @@
     </row>
     <row r="56" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C56" s="76" t="str">
-        <f>"R-H_Att"&amp;"_"&amp;RIGHT(E56,6)&amp;"_N2"</f>
-        <v>R-H_Att_OILKER_N2</v>
+        <f>"R-HW_Att"&amp;"_"&amp;RIGHT(E56,3)&amp;"_N2"</f>
+        <v>R-HW_Att_KER_N2</v>
       </c>
       <c r="D56" s="76" t="s">
         <v>354</v>
       </c>
       <c r="E56" s="77" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="F56" s="76" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G56" s="336">
         <v>1</v>
@@ -20235,15 +20235,15 @@
         <v>0.7</v>
       </c>
       <c r="P56" s="337">
+        <f t="shared" si="22"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q56" s="337">
         <f t="shared" si="23"/>
         <v>0.7</v>
       </c>
-      <c r="Q56" s="337">
+      <c r="R56" s="338">
         <f t="shared" si="24"/>
-        <v>0.7</v>
-      </c>
-      <c r="R56" s="338">
-        <f t="shared" si="25"/>
         <v>0.7</v>
       </c>
       <c r="S56" s="101">
@@ -20283,35 +20283,35 @@
       </c>
       <c r="AI56" s="154"/>
       <c r="AJ56" s="153" t="str">
+        <f t="shared" si="20"/>
+        <v>R-HW_Att_KER_N3</v>
+      </c>
+      <c r="AK56" s="153" t="str">
         <f t="shared" si="21"/>
-        <v>R-H_Att_OILKER_N3</v>
-      </c>
-      <c r="AK56" s="153" t="str">
-        <f t="shared" si="22"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
       <c r="AL56" s="155" t="s">
         <v>16</v>
       </c>
       <c r="AM56" s="155" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN56" s="154"/>
       <c r="AO56" s="154"/>
     </row>
     <row r="57" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C57" s="70" t="str">
-        <f>"R-H_Att"&amp;"_"&amp;RIGHT(E57,6)&amp;"_N3"</f>
-        <v>R-H_Att_OILKER_N3</v>
+        <f>"R-HW_Att"&amp;"_"&amp;RIGHT(E57,3)&amp;"_N3"</f>
+        <v>R-HW_Att_KER_N3</v>
       </c>
       <c r="D57" s="70" t="s">
         <v>358</v>
       </c>
       <c r="E57" s="71" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="F57" s="70" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G57" s="339">
         <v>1</v>
@@ -20334,15 +20334,15 @@
         <v>0.7</v>
       </c>
       <c r="P57" s="340">
+        <f t="shared" si="22"/>
+        <v>0.71749999999999992</v>
+      </c>
+      <c r="Q57" s="340">
         <f t="shared" si="23"/>
         <v>0.71749999999999992</v>
       </c>
-      <c r="Q57" s="340">
+      <c r="R57" s="341">
         <f t="shared" si="24"/>
-        <v>0.71749999999999992</v>
-      </c>
-      <c r="R57" s="341">
-        <f t="shared" si="25"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S57" s="100">
@@ -20382,18 +20382,18 @@
       </c>
       <c r="AI57" s="154"/>
       <c r="AJ57" s="153" t="str">
+        <f t="shared" si="20"/>
+        <v>R-SH_Att_GAS_N1</v>
+      </c>
+      <c r="AK57" s="153" t="str">
         <f t="shared" si="21"/>
-        <v>R-SH_Att_GASNAT_N1</v>
-      </c>
-      <c r="AK57" s="153" t="str">
-        <f t="shared" si="22"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AL57" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM57" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN57" s="154"/>
       <c r="AO57" s="154" t="s">
@@ -20402,14 +20402,14 @@
     </row>
     <row r="58" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C58" s="76" t="str">
-        <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E58,6)&amp;"_N1"</f>
-        <v>R-SH_Att_GASNAT_N1</v>
+        <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E58,3)&amp;"_N1"</f>
+        <v>R-SH_Att_GAS_N1</v>
       </c>
       <c r="D58" s="76" t="s">
         <v>351</v>
       </c>
       <c r="E58" s="77" t="s">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="F58" s="76" t="s">
         <v>433</v>
@@ -20467,18 +20467,18 @@
       </c>
       <c r="AI58" s="154"/>
       <c r="AJ58" s="153" t="str">
+        <f t="shared" si="20"/>
+        <v>R-HW_Att_GAS_N1</v>
+      </c>
+      <c r="AK58" s="153" t="str">
         <f t="shared" si="21"/>
-        <v>R-H_Att_GASNAT_N1</v>
-      </c>
-      <c r="AK58" s="153" t="str">
-        <f t="shared" si="22"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AL58" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM58" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN58" s="154"/>
       <c r="AO58" s="154" t="s">
@@ -20487,17 +20487,17 @@
     </row>
     <row r="59" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C59" s="70" t="str">
-        <f>"R-H_Att"&amp;"_"&amp;RIGHT(E59,6)&amp;"_N1"</f>
-        <v>R-H_Att_GASNAT_N1</v>
+        <f>"R-HW_Att"&amp;"_"&amp;RIGHT(E59,3)&amp;"_N1"</f>
+        <v>R-HW_Att_GAS_N1</v>
       </c>
       <c r="D59" s="70" t="s">
         <v>355</v>
       </c>
       <c r="E59" s="71" t="s">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="F59" s="70" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G59" s="339">
         <v>1</v>
@@ -20520,15 +20520,15 @@
         <v>0.7</v>
       </c>
       <c r="P59" s="340">
-        <f t="shared" ref="P59:P61" si="26">H59*0.7</f>
+        <f t="shared" ref="P59:P61" si="25">H59*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q59" s="340">
-        <f t="shared" ref="Q59:Q61" si="27">I59*0.7</f>
+        <f t="shared" ref="Q59:Q61" si="26">I59*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R59" s="341">
-        <f t="shared" ref="R59:R61" si="28">J59*0.7</f>
+        <f t="shared" ref="R59:R61" si="27">J59*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S59" s="100">
@@ -20564,18 +20564,18 @@
       </c>
       <c r="AI59" s="154"/>
       <c r="AJ59" s="153" t="str">
+        <f t="shared" si="20"/>
+        <v>R-HW_Att_GAS_N2</v>
+      </c>
+      <c r="AK59" s="153" t="str">
         <f t="shared" si="21"/>
-        <v>R-H_Att_GASNAT_N2</v>
-      </c>
-      <c r="AK59" s="153" t="str">
-        <f t="shared" si="22"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
       <c r="AL59" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM59" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN59" s="154"/>
       <c r="AO59" s="154" t="s">
@@ -20584,17 +20584,17 @@
     </row>
     <row r="60" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C60" s="76" t="str">
-        <f>"R-H_Att"&amp;"_"&amp;RIGHT(E60,6)&amp;"_N2"</f>
-        <v>R-H_Att_GASNAT_N2</v>
+        <f>"R-HW_Att"&amp;"_"&amp;RIGHT(E60,3)&amp;"_N2"</f>
+        <v>R-HW_Att_GAS_N2</v>
       </c>
       <c r="D60" s="76" t="s">
         <v>356</v>
       </c>
       <c r="E60" s="77" t="s">
-        <v>785</v>
+        <v>801</v>
       </c>
       <c r="F60" s="76" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G60" s="336">
         <v>1</v>
@@ -20617,15 +20617,15 @@
         <v>0.7</v>
       </c>
       <c r="P60" s="337">
+        <f t="shared" si="25"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q60" s="337">
         <f t="shared" si="26"/>
         <v>0.7</v>
       </c>
-      <c r="Q60" s="337">
+      <c r="R60" s="338">
         <f t="shared" si="27"/>
-        <v>0.7</v>
-      </c>
-      <c r="R60" s="338">
-        <f t="shared" si="28"/>
         <v>0.7</v>
       </c>
       <c r="S60" s="101">
@@ -20665,18 +20665,18 @@
       </c>
       <c r="AI60" s="154"/>
       <c r="AJ60" s="153" t="str">
+        <f t="shared" si="20"/>
+        <v>R-HW_Att_GAS_N3</v>
+      </c>
+      <c r="AK60" s="153" t="str">
         <f t="shared" si="21"/>
-        <v>R-H_Att_GASNAT_N3</v>
-      </c>
-      <c r="AK60" s="153" t="str">
-        <f t="shared" si="22"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
       <c r="AL60" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM60" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN60" s="154"/>
       <c r="AO60" s="154" t="s">
@@ -20685,17 +20685,17 @@
     </row>
     <row r="61" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C61" s="70" t="str">
-        <f>"R-H_Att"&amp;"_"&amp;RIGHT(E61,6)&amp;"_N3"</f>
-        <v>R-H_Att_GASNAT_N3</v>
+        <f>"R-HW_Att"&amp;"_"&amp;RIGHT(E61,3)&amp;"_N3"</f>
+        <v>R-HW_Att_GAS_N3</v>
       </c>
       <c r="D61" s="70" t="s">
         <v>357</v>
       </c>
       <c r="E61" s="71" t="s">
-        <v>786</v>
+        <v>802</v>
       </c>
       <c r="F61" s="70" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G61" s="339">
         <v>1</v>
@@ -20718,15 +20718,15 @@
         <v>0.7</v>
       </c>
       <c r="P61" s="340">
+        <f t="shared" si="25"/>
+        <v>0.71749999999999992</v>
+      </c>
+      <c r="Q61" s="340">
         <f t="shared" si="26"/>
         <v>0.71749999999999992</v>
       </c>
-      <c r="Q61" s="340">
+      <c r="R61" s="341">
         <f t="shared" si="27"/>
-        <v>0.71749999999999992</v>
-      </c>
-      <c r="R61" s="341">
-        <f t="shared" si="28"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S61" s="100">
@@ -20766,18 +20766,18 @@
       </c>
       <c r="AI61" s="154"/>
       <c r="AJ61" s="153" t="str">
+        <f t="shared" si="20"/>
+        <v>R-SH_Att_LPG_N1</v>
+      </c>
+      <c r="AK61" s="153" t="str">
         <f t="shared" si="21"/>
-        <v>R-SH_Att_OILLPG_N1</v>
-      </c>
-      <c r="AK61" s="153" t="str">
-        <f t="shared" si="22"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AL61" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM61" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN61" s="154"/>
       <c r="AO61" s="154" t="s">
@@ -20786,14 +20786,14 @@
     </row>
     <row r="62" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C62" s="76" t="str">
-        <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E62,6)&amp;"_N1"</f>
-        <v>R-SH_Att_OILLPG_N1</v>
+        <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E62,3)&amp;"_N1"</f>
+        <v>R-SH_Att_LPG_N1</v>
       </c>
       <c r="D62" s="76" t="s">
         <v>361</v>
       </c>
       <c r="E62" s="77" t="s">
-        <v>452</v>
+        <v>796</v>
       </c>
       <c r="F62" s="76" t="s">
         <v>433</v>
@@ -20851,18 +20851,18 @@
       </c>
       <c r="AI62" s="154"/>
       <c r="AJ62" s="153" t="str">
+        <f t="shared" si="20"/>
+        <v>R-HW_Att_LPG_N1</v>
+      </c>
+      <c r="AK62" s="153" t="str">
         <f t="shared" si="21"/>
-        <v>R-H_Att_OILLPG_N1</v>
-      </c>
-      <c r="AK62" s="153" t="str">
-        <f t="shared" si="22"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AL62" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM62" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN62" s="154"/>
       <c r="AO62" s="154" t="s">
@@ -20871,17 +20871,17 @@
     </row>
     <row r="63" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C63" s="70" t="str">
-        <f>"R-H_Att"&amp;"_"&amp;RIGHT(E63,6)&amp;"_N1"</f>
-        <v>R-H_Att_OILLPG_N1</v>
+        <f>"R-HW_Att"&amp;"_"&amp;RIGHT(E63,3)&amp;"_N1"</f>
+        <v>R-HW_Att_LPG_N1</v>
       </c>
       <c r="D63" s="70" t="s">
         <v>362</v>
       </c>
       <c r="E63" s="71" t="s">
-        <v>452</v>
+        <v>796</v>
       </c>
       <c r="F63" s="70" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G63" s="339">
         <v>1</v>
@@ -20904,15 +20904,15 @@
         <v>0.7</v>
       </c>
       <c r="P63" s="340">
-        <f t="shared" ref="P63" si="29">H63*0.7</f>
+        <f t="shared" ref="P63" si="28">H63*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q63" s="340">
-        <f t="shared" ref="Q63" si="30">I63*0.7</f>
+        <f t="shared" ref="Q63" si="29">I63*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R63" s="341">
-        <f t="shared" ref="R63" si="31">J63*0.7</f>
+        <f t="shared" ref="R63" si="30">J63*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S63" s="100">
@@ -20948,18 +20948,18 @@
       </c>
       <c r="AI63" s="154"/>
       <c r="AJ63" s="153" t="str">
+        <f t="shared" si="20"/>
+        <v>R-SH_Att_WOO_N1</v>
+      </c>
+      <c r="AK63" s="153" t="str">
         <f t="shared" si="21"/>
-        <v>R-SH_Att_BIOWOO_N1</v>
-      </c>
-      <c r="AK63" s="153" t="str">
-        <f t="shared" si="22"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AL63" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM63" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN63" s="154"/>
       <c r="AO63" s="154" t="s">
@@ -20968,14 +20968,14 @@
     </row>
     <row r="64" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C64" s="76" t="str">
-        <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E64,6)&amp;"_N1"</f>
-        <v>R-SH_Att_BIOWOO_N1</v>
+        <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E64,3)&amp;"_N1"</f>
+        <v>R-SH_Att_WOO_N1</v>
       </c>
       <c r="D64" s="76" t="s">
         <v>363</v>
       </c>
       <c r="E64" s="77" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="F64" s="76" t="s">
         <v>433</v>
@@ -21033,18 +21033,18 @@
       </c>
       <c r="AI64" s="157"/>
       <c r="AJ64" s="156" t="str">
+        <f t="shared" si="20"/>
+        <v>R-HW_Att_WOO_N1</v>
+      </c>
+      <c r="AK64" s="156" t="str">
         <f t="shared" si="21"/>
-        <v>R-H_Att_BIOWOO_N1</v>
-      </c>
-      <c r="AK64" s="156" t="str">
-        <f t="shared" si="22"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AL64" s="157" t="s">
         <v>16</v>
       </c>
       <c r="AM64" s="157" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN64" s="157"/>
       <c r="AO64" s="157" t="s">
@@ -21053,17 +21053,17 @@
     </row>
     <row r="65" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C65" s="73" t="str">
-        <f>"R-H_Att"&amp;"_"&amp;RIGHT(E65,6)&amp;"_N1"</f>
-        <v>R-H_Att_BIOWOO_N1</v>
+        <f>"R-HW_Att"&amp;"_"&amp;RIGHT(E65,3)&amp;"_N1"</f>
+        <v>R-HW_Att_WOO_N1</v>
       </c>
       <c r="D65" s="73" t="s">
         <v>364</v>
       </c>
-      <c r="E65" s="74" t="s">
-        <v>787</v>
+      <c r="E65" s="71" t="s">
+        <v>799</v>
       </c>
       <c r="F65" s="73" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G65" s="339">
         <v>1</v>
@@ -21131,7 +21131,7 @@
       <c r="AI65" s="158"/>
       <c r="AJ65" s="159" t="str">
         <f>C67</f>
-        <v>R-SH_Att_RSDELC_N1</v>
+        <v>R-SH_Att_ELC_N1</v>
       </c>
       <c r="AK65" s="159" t="str">
         <f>D67</f>
@@ -21141,7 +21141,7 @@
         <v>16</v>
       </c>
       <c r="AM65" s="158" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN65" s="158"/>
       <c r="AO65" s="158" t="s">
@@ -21184,18 +21184,18 @@
       <c r="AG66" s="81"/>
       <c r="AI66" s="152"/>
       <c r="AJ66" s="151" t="str">
-        <f t="shared" ref="AJ66:AK72" si="32">C69</f>
-        <v>R-SH_Att_RSDELC_HPN1</v>
+        <f t="shared" ref="AJ66:AK72" si="31">C69</f>
+        <v>R-SH_Att_ELC_HPN1</v>
       </c>
       <c r="AK66" s="151" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AL66" s="152" t="s">
         <v>16</v>
       </c>
       <c r="AM66" s="152" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN66" s="152"/>
       <c r="AO66" s="152" t="s">
@@ -21203,14 +21203,14 @@
       </c>
     </row>
     <row r="67" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C67" s="76" t="str">
-        <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E67,6)&amp;"_N1"</f>
-        <v>R-SH_Att_RSDELC_N1</v>
+      <c r="C67" s="144" t="str">
+        <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E67,3)&amp;"_N1"</f>
+        <v>R-SH_Att_ELC_N1</v>
       </c>
       <c r="D67" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="E67" s="71" t="s">
+      <c r="E67" s="172" t="s">
         <v>448</v>
       </c>
       <c r="F67" s="70" t="s">
@@ -21269,18 +21269,18 @@
       </c>
       <c r="AI67" s="154"/>
       <c r="AJ67" s="153" t="str">
-        <f t="shared" si="32"/>
-        <v>R-HC_Att_RSDELC_HPN1</v>
+        <f t="shared" si="31"/>
+        <v>R-HC_Att_ELC_HPN1</v>
       </c>
       <c r="AK67" s="153" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AL67" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM67" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN67" s="154"/>
       <c r="AO67" s="154" t="s">
@@ -21323,18 +21323,18 @@
       <c r="AG68" s="81"/>
       <c r="AI68" s="154"/>
       <c r="AJ68" s="153" t="str">
-        <f t="shared" si="32"/>
-        <v>R-SH_Att_RSDELC_HPN2</v>
+        <f t="shared" si="31"/>
+        <v>R-SH_Att_ELC_HPN2</v>
       </c>
       <c r="AK68" s="153" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AL68" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM68" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN68" s="154"/>
       <c r="AO68" s="154" t="s">
@@ -21342,14 +21342,14 @@
       </c>
     </row>
     <row r="69" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C69" s="76" t="str">
-        <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E69,6)&amp;"_HPN1"</f>
-        <v>R-SH_Att_RSDELC_HPN1</v>
+      <c r="C69" s="66" t="str">
+        <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E69,3)&amp;"_HPN1"</f>
+        <v>R-SH_Att_ELC_HPN1</v>
       </c>
       <c r="D69" s="76" t="s">
         <v>369</v>
       </c>
-      <c r="E69" s="77" t="s">
+      <c r="E69" s="137" t="s">
         <v>448</v>
       </c>
       <c r="F69" s="76" t="s">
@@ -21408,18 +21408,18 @@
       </c>
       <c r="AI69" s="154"/>
       <c r="AJ69" s="153" t="str">
-        <f t="shared" si="32"/>
-        <v>R-H_Att_RSDELC_HPN1</v>
+        <f t="shared" si="31"/>
+        <v>R-HW_Att_ELC_HPN1</v>
       </c>
       <c r="AK69" s="153" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AL69" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM69" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN69" s="154"/>
       <c r="AO69" s="154" t="s">
@@ -21427,9 +21427,9 @@
       </c>
     </row>
     <row r="70" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C70" s="76" t="str">
-        <f>"R-HC_Att"&amp;"_"&amp;RIGHT(E70,6)&amp;"_HPN1"</f>
-        <v>R-HC_Att_RSDELC_HPN1</v>
+      <c r="C70" s="69" t="str">
+        <f>"R-HC_Att"&amp;"_"&amp;RIGHT(E70,3)&amp;"_HPN1"</f>
+        <v>R-HC_Att_ELC_HPN1</v>
       </c>
       <c r="D70" s="70" t="s">
         <v>370</v>
@@ -21438,7 +21438,7 @@
         <v>448</v>
       </c>
       <c r="F70" s="70" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="G70" s="339">
         <v>1</v>
@@ -21501,18 +21501,18 @@
       </c>
       <c r="AI70" s="304"/>
       <c r="AJ70" s="153" t="str">
-        <f t="shared" si="32"/>
-        <v>R-H_Att_RENSOL_HPN2</v>
+        <f t="shared" si="31"/>
+        <v>R-HW_Att_SOL_HPN2</v>
       </c>
       <c r="AK70" s="153" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
       <c r="AL70" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM70" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN70" s="154"/>
       <c r="AO70" s="154" t="s">
@@ -21520,9 +21520,9 @@
       </c>
     </row>
     <row r="71" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C71" s="76" t="str">
-        <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E71,6)&amp;"_HPN2"</f>
-        <v>R-SH_Att_RSDELC_HPN2</v>
+      <c r="C71" s="87" t="str">
+        <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E71,3)&amp;"_HPN2"</f>
+        <v>R-SH_Att_ELC_HPN2</v>
       </c>
       <c r="D71" s="76" t="s">
         <v>371</v>
@@ -21586,18 +21586,18 @@
       </c>
       <c r="AI71" s="304"/>
       <c r="AJ71" s="153" t="str">
-        <f t="shared" si="32"/>
-        <v>R-SH_Att_RSDELC_HPN3</v>
+        <f t="shared" si="31"/>
+        <v>R-SH_Att_ELC_HPN3</v>
       </c>
       <c r="AK71" s="153" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AL71" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM71" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN71" s="154"/>
       <c r="AO71" s="154" t="s">
@@ -21605,9 +21605,9 @@
       </c>
     </row>
     <row r="72" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="76" t="str">
-        <f>"R-H_Att"&amp;"_"&amp;RIGHT(E72,6)&amp;"_HPN1"</f>
-        <v>R-H_Att_RSDELC_HPN1</v>
+      <c r="C72" s="69" t="str">
+        <f>"R-HW_Att"&amp;"_"&amp;RIGHT(E72,3)&amp;"_HPN1"</f>
+        <v>R-HW_Att_ELC_HPN1</v>
       </c>
       <c r="D72" s="70" t="s">
         <v>372</v>
@@ -21616,7 +21616,7 @@
         <v>448</v>
       </c>
       <c r="F72" s="70" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G72" s="339">
         <v>1</v>
@@ -21639,15 +21639,15 @@
         <v>0.7</v>
       </c>
       <c r="P72" s="340">
-        <f t="shared" ref="P72:P73" si="33">H72*0.7</f>
+        <f t="shared" ref="P72:P73" si="32">H72*0.7</f>
         <v>0.78400000000000003</v>
       </c>
       <c r="Q72" s="340">
-        <f t="shared" ref="Q72:Q73" si="34">I72*0.7</f>
+        <f t="shared" ref="Q72:Q73" si="33">I72*0.7</f>
         <v>0.84699999999999998</v>
       </c>
       <c r="R72" s="341">
-        <f t="shared" ref="R72:R73" si="35">J72*0.7</f>
+        <f t="shared" ref="R72:R73" si="34">J72*0.7</f>
         <v>0.84699999999999998</v>
       </c>
       <c r="S72" s="100">
@@ -21683,18 +21683,18 @@
       </c>
       <c r="AI72" s="160"/>
       <c r="AJ72" s="156" t="str">
-        <f t="shared" si="32"/>
-        <v>R-HC_Att_RSDELC_HPN2</v>
+        <f t="shared" si="31"/>
+        <v>R-HC_Att_ELC_HPN2</v>
       </c>
       <c r="AK72" s="156" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AL72" s="157" t="s">
         <v>16</v>
       </c>
       <c r="AM72" s="157" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN72" s="157"/>
       <c r="AO72" s="157" t="s">
@@ -21702,18 +21702,18 @@
       </c>
     </row>
     <row r="73" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C73" s="76" t="str">
-        <f>"R-H_Att"&amp;"_"&amp;RIGHT(E73,6)&amp;"_HPN2"</f>
-        <v>R-H_Att_RENSOL_HPN2</v>
+      <c r="C73" s="87" t="str">
+        <f>"R-HW_Att"&amp;"_"&amp;RIGHT(E73,3)&amp;"_HPN2"</f>
+        <v>R-HW_Att_SOL_HPN2</v>
       </c>
       <c r="D73" s="76" t="s">
         <v>373</v>
       </c>
       <c r="E73" s="77" t="s">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="F73" s="76" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G73" s="336">
         <v>1</v>
@@ -21736,15 +21736,15 @@
         <v>0.7</v>
       </c>
       <c r="P73" s="337">
+        <f t="shared" si="32"/>
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="Q73" s="337">
         <f t="shared" si="33"/>
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="Q73" s="337">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="R73" s="338">
         <f t="shared" si="34"/>
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="R73" s="338">
-        <f t="shared" si="35"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S73" s="101">
@@ -21785,7 +21785,7 @@
       <c r="AI73" s="161"/>
       <c r="AJ73" s="151" t="str">
         <f>C77</f>
-        <v>R-H_Att_GASNAT_HPN1</v>
+        <v>R-HW_Att_GAS_HPN1</v>
       </c>
       <c r="AK73" s="151" t="str">
         <f>D77</f>
@@ -21795,7 +21795,7 @@
         <v>16</v>
       </c>
       <c r="AM73" s="152" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN73" s="152"/>
       <c r="AO73" s="152" t="s">
@@ -21803,9 +21803,9 @@
       </c>
     </row>
     <row r="74" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="76" t="str">
-        <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E74,6)&amp;"_HPN3"</f>
-        <v>R-SH_Att_RSDELC_HPN3</v>
+      <c r="C74" s="69" t="str">
+        <f>"R-SH_Att"&amp;"_"&amp;RIGHT(E74,3)&amp;"_HPN3"</f>
+        <v>R-SH_Att_ELC_HPN3</v>
       </c>
       <c r="D74" s="70" t="s">
         <v>374</v>
@@ -21870,7 +21870,7 @@
       <c r="AI74" s="305"/>
       <c r="AJ74" s="156" t="str">
         <f>C78</f>
-        <v>R-H_Att_GASNAT_HPN2</v>
+        <v>R-HW_Att_GAS_HPN2</v>
       </c>
       <c r="AK74" s="156" t="str">
         <f>D78</f>
@@ -21880,7 +21880,7 @@
         <v>16</v>
       </c>
       <c r="AM74" s="157" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN74" s="157"/>
       <c r="AO74" s="157" t="s">
@@ -21888,18 +21888,18 @@
       </c>
     </row>
     <row r="75" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="76" t="str">
-        <f>"R-HC_Att"&amp;"_"&amp;RIGHT(E75,6)&amp;"_HPN2"</f>
-        <v>R-HC_Att_RSDELC_HPN2</v>
+      <c r="C75" s="142" t="str">
+        <f>"R-HC_Att"&amp;"_"&amp;RIGHT(E75,3)&amp;"_HPN2"</f>
+        <v>R-HC_Att_ELC_HPN2</v>
       </c>
       <c r="D75" s="76" t="s">
         <v>375</v>
       </c>
-      <c r="E75" s="77" t="s">
+      <c r="E75" s="170" t="s">
         <v>448</v>
       </c>
       <c r="F75" s="76" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="G75" s="345">
         <v>1</v>
@@ -21963,7 +21963,7 @@
       <c r="AI75" s="306"/>
       <c r="AJ75" s="159" t="str">
         <f>C80</f>
-        <v>R-H_Att_GASNAT_HHPN1</v>
+        <v>R-HW_Att_GAS_HHPN1</v>
       </c>
       <c r="AK75" s="159" t="str">
         <f>D80</f>
@@ -21973,7 +21973,7 @@
         <v>16</v>
       </c>
       <c r="AM75" s="158" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN75" s="158"/>
       <c r="AO75" s="158" t="s">
@@ -22017,7 +22017,7 @@
       <c r="AI76" s="307"/>
       <c r="AJ76" s="151" t="str">
         <f>C82</f>
-        <v>R-H_Att_RSDHET_N1</v>
+        <v>R-HW_Att_HET_N1</v>
       </c>
       <c r="AK76" s="151" t="str">
         <f>D82</f>
@@ -22027,7 +22027,7 @@
         <v>16</v>
       </c>
       <c r="AM76" s="152" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN76" s="152"/>
       <c r="AO76" s="152" t="s">
@@ -22035,18 +22035,18 @@
       </c>
     </row>
     <row r="77" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="76" t="str">
-        <f>"R-H_Att"&amp;"_"&amp;RIGHT(E77,6)&amp;"_HPN1"</f>
-        <v>R-H_Att_GASNAT_HPN1</v>
+      <c r="C77" s="66" t="str">
+        <f>"R-HW_Att"&amp;"_"&amp;RIGHT(E77,3)&amp;"_HPN1"</f>
+        <v>R-HW_Att_GAS_HPN1</v>
       </c>
       <c r="D77" s="67" t="s">
         <v>377</v>
       </c>
       <c r="E77" s="137" t="s">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="F77" s="137" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G77" s="342">
         <v>1</v>
@@ -22069,15 +22069,15 @@
         <v>0.7</v>
       </c>
       <c r="P77" s="343">
-        <f t="shared" ref="P77:P78" si="36">H77*0.7</f>
+        <f t="shared" ref="P77:P78" si="35">H77*0.7</f>
         <v>0.82039999999999991</v>
       </c>
       <c r="Q77" s="343">
-        <f t="shared" ref="Q77:Q78" si="37">I77*0.7</f>
+        <f t="shared" ref="Q77:Q78" si="36">I77*0.7</f>
         <v>0.82039999999999991</v>
       </c>
       <c r="R77" s="344">
-        <f t="shared" ref="R77:R78" si="38">J77*0.7</f>
+        <f t="shared" ref="R77:R78" si="37">J77*0.7</f>
         <v>0.82039999999999991</v>
       </c>
       <c r="S77" s="99">
@@ -22114,7 +22114,7 @@
       <c r="AI77" s="163"/>
       <c r="AJ77" s="156" t="str">
         <f>C83</f>
-        <v>R-H_Att_RSDHET_N2</v>
+        <v>R-HW_Att_HET_N2</v>
       </c>
       <c r="AK77" s="156" t="str">
         <f>D83</f>
@@ -22124,7 +22124,7 @@
         <v>16</v>
       </c>
       <c r="AM77" s="157" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN77" s="157"/>
       <c r="AO77" s="157" t="s">
@@ -22132,18 +22132,18 @@
       </c>
     </row>
     <row r="78" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C78" s="76" t="str">
-        <f>"R-H_Att"&amp;"_"&amp;RIGHT(E78,6)&amp;"_HPN2"</f>
-        <v>R-H_Att_GASNAT_HPN2</v>
+      <c r="C78" s="354" t="str">
+        <f>"R-HW_Att"&amp;"_"&amp;RIGHT(E78,3)&amp;"_HPN2"</f>
+        <v>R-HW_Att_GAS_HPN2</v>
       </c>
       <c r="D78" s="73" t="s">
         <v>378</v>
       </c>
       <c r="E78" s="74" t="s">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="F78" s="74" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G78" s="355">
         <v>1</v>
@@ -22166,15 +22166,15 @@
         <v>0.7</v>
       </c>
       <c r="P78" s="356">
+        <f t="shared" si="35"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q78" s="356">
         <f t="shared" si="36"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q78" s="356">
+        <v>0.72239999999999993</v>
+      </c>
+      <c r="R78" s="357">
         <f t="shared" si="37"/>
-        <v>0.72239999999999993</v>
-      </c>
-      <c r="R78" s="357">
-        <f t="shared" si="38"/>
         <v>0.72239999999999993</v>
       </c>
       <c r="S78" s="102">
@@ -22210,18 +22210,18 @@
       </c>
       <c r="AI78" s="307"/>
       <c r="AJ78" s="151" t="str">
-        <f t="shared" ref="AJ78:AK82" si="39">C85</f>
-        <v>R-WH_Att_RSDELC_N1</v>
+        <f t="shared" ref="AJ78:AK82" si="38">C85</f>
+        <v>R-WH_Att_ELC_N1</v>
       </c>
       <c r="AK78" s="151" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">Residential Electric Water Heater </v>
       </c>
       <c r="AL78" s="152" t="s">
         <v>16</v>
       </c>
       <c r="AM78" s="152" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN78" s="152"/>
       <c r="AO78" s="152" t="s">
@@ -22264,18 +22264,18 @@
       <c r="AG79" s="81"/>
       <c r="AI79" s="4"/>
       <c r="AJ79" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v>R-WH_Att_RENSOL_N1</v>
+        <f t="shared" si="38"/>
+        <v>R-WH_Att_SOL_N1</v>
       </c>
       <c r="AK79" s="153" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">Residential Solar Water Heater </v>
       </c>
       <c r="AL79" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM79" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN79" s="154"/>
       <c r="AO79" s="154" t="s">
@@ -22283,18 +22283,18 @@
       </c>
     </row>
     <row r="80" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C80" s="76" t="str">
-        <f>"R-H_Att"&amp;"_"&amp;RIGHT(E80,6)&amp;"_HHPN1"</f>
-        <v>R-H_Att_GASNAT_HHPN1</v>
+      <c r="C80" s="144" t="str">
+        <f>"R-HW_Att"&amp;"_"&amp;RIGHT(E80,3)&amp;"_HHPN1"</f>
+        <v>R-HW_Att_GAS_HHPN1</v>
       </c>
       <c r="D80" s="128" t="s">
         <v>402</v>
       </c>
       <c r="E80" s="172" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="F80" s="76" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G80" s="355">
         <v>1</v>
@@ -22317,15 +22317,15 @@
         <v>0.7</v>
       </c>
       <c r="P80" s="356">
-        <f t="shared" ref="P80" si="40">H80*0.7</f>
+        <f t="shared" ref="P80" si="39">H80*0.7</f>
         <v>0.73360000000000003</v>
       </c>
       <c r="Q80" s="356">
-        <f t="shared" ref="Q80" si="41">I80*0.7</f>
+        <f t="shared" ref="Q80" si="40">I80*0.7</f>
         <v>0.76789999999999992</v>
       </c>
       <c r="R80" s="357">
-        <f t="shared" ref="R80" si="42">J80*0.7</f>
+        <f t="shared" ref="R80" si="41">J80*0.7</f>
         <v>0.81269999999999998</v>
       </c>
       <c r="S80" s="5">
@@ -22365,18 +22365,18 @@
       </c>
       <c r="AI80" s="4"/>
       <c r="AJ80" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v>R-WH_Att_GASNAT_N1</v>
+        <f t="shared" si="38"/>
+        <v>R-WH_Att_GAS_N1</v>
       </c>
       <c r="AK80" s="153" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">Residential Gas Water Heater </v>
       </c>
       <c r="AL80" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM80" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN80" s="154"/>
       <c r="AO80" s="154" t="s">
@@ -22419,18 +22419,18 @@
       <c r="AG81" s="81"/>
       <c r="AI81" s="4"/>
       <c r="AJ81" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v>R-WH_Att_BIOWOO_N1</v>
+        <f t="shared" si="38"/>
+        <v>R-WH_Att_WOO_N1</v>
       </c>
       <c r="AK81" s="153" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">Residential Biomass Water Heater </v>
       </c>
       <c r="AL81" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM81" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN81" s="154"/>
       <c r="AO81" s="154" t="s">
@@ -22438,18 +22438,18 @@
       </c>
     </row>
     <row r="82" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="70" t="str">
-        <f>"R-H_Att"&amp;"_"&amp;RIGHT(E82,6)&amp;"_N1"</f>
-        <v>R-H_Att_RSDHET_N1</v>
+      <c r="C82" s="66" t="str">
+        <f>"R-HW_Att"&amp;"_"&amp;RIGHT(E82,3)&amp;"_N1"</f>
+        <v>R-HW_Att_HET_N1</v>
       </c>
       <c r="D82" s="67" t="s">
         <v>380</v>
       </c>
       <c r="E82" s="137" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="F82" s="137" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G82" s="342">
         <v>1</v>
@@ -22512,18 +22512,18 @@
       </c>
       <c r="AI82" s="163"/>
       <c r="AJ82" s="156" t="str">
-        <f t="shared" si="39"/>
-        <v>R-WH_Att_OILLPG_N1</v>
+        <f t="shared" si="38"/>
+        <v>R-WH_Att_LPG_N1</v>
       </c>
       <c r="AK82" s="156" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve">Residential Liquid Petroleum Gas Water Heater </v>
       </c>
       <c r="AL82" s="157" t="s">
         <v>16</v>
       </c>
       <c r="AM82" s="157" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN82" s="157"/>
       <c r="AO82" s="157" t="s">
@@ -22531,18 +22531,18 @@
       </c>
     </row>
     <row r="83" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C83" s="70" t="str">
-        <f>"R-H_Att"&amp;"_"&amp;RIGHT(E83,6)&amp;"_N2"</f>
-        <v>R-H_Att_RSDHET_N2</v>
+      <c r="C83" s="354" t="str">
+        <f>"R-HW_Att"&amp;"_"&amp;RIGHT(E83,3)&amp;"_N2"</f>
+        <v>R-HW_Att_HET_N2</v>
       </c>
       <c r="D83" s="73" t="s">
         <v>381</v>
       </c>
       <c r="E83" s="74" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="F83" s="74" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G83" s="355">
         <v>1</v>
@@ -22606,7 +22606,7 @@
       <c r="AI83" s="4"/>
       <c r="AJ83" s="153" t="str">
         <f>C91</f>
-        <v>R-SC_Att_RSDELC_N1</v>
+        <v>R-SC_Att_ELC_N1</v>
       </c>
       <c r="AK83" s="153" t="str">
         <f>D91</f>
@@ -22616,7 +22616,7 @@
         <v>16</v>
       </c>
       <c r="AM83" s="152" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN83" s="152"/>
       <c r="AO83" s="152" t="s">
@@ -22660,8 +22660,8 @@
     </row>
     <row r="85" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C85" s="76" t="str">
-        <f>"R-WH_Att"&amp;"_"&amp;RIGHT(E85,6)&amp;"_N1"</f>
-        <v>R-WH_Att_RSDELC_N1</v>
+        <f>"R-WH_Att"&amp;"_"&amp;RIGHT(E85,3)&amp;"_N1"</f>
+        <v>R-WH_Att_ELC_N1</v>
       </c>
       <c r="D85" s="67" t="s">
         <v>383</v>
@@ -22725,15 +22725,15 @@
       </c>
     </row>
     <row r="86" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C86" s="76" t="str">
-        <f>"R-WH_Att"&amp;"_"&amp;RIGHT(E86,6)&amp;"_N1"</f>
-        <v>R-WH_Att_RENSOL_N1</v>
+      <c r="C86" s="70" t="str">
+        <f>"R-WH_Att"&amp;"_"&amp;RIGHT(E86,3)&amp;"_N1"</f>
+        <v>R-WH_Att_SOL_N1</v>
       </c>
       <c r="D86" s="70" t="s">
         <v>384</v>
       </c>
       <c r="E86" s="71" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="F86" s="70" t="s">
         <v>436</v>
@@ -22794,14 +22794,14 @@
     </row>
     <row r="87" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C87" s="76" t="str">
-        <f>"R-WH_Att"&amp;"_"&amp;RIGHT(E87,6)&amp;"_N1"</f>
-        <v>R-WH_Att_GASNAT_N1</v>
+        <f>"R-WH_Att"&amp;"_"&amp;RIGHT(E87,3)&amp;"_N1"</f>
+        <v>R-WH_Att_GAS_N1</v>
       </c>
       <c r="D87" s="76" t="s">
         <v>386</v>
       </c>
       <c r="E87" s="77" t="s">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="F87" s="76" t="s">
         <v>436</v>
@@ -22859,15 +22859,15 @@
       </c>
     </row>
     <row r="88" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C88" s="76" t="str">
-        <f>"R-WH_Att"&amp;"_"&amp;RIGHT(E88,6)&amp;"_N1"</f>
-        <v>R-WH_Att_BIOWOO_N1</v>
+      <c r="C88" s="70" t="str">
+        <f>"R-WH_Att"&amp;"_"&amp;RIGHT(E88,3)&amp;"_N1"</f>
+        <v>R-WH_Att_WOO_N1</v>
       </c>
       <c r="D88" s="70" t="s">
         <v>385</v>
       </c>
       <c r="E88" s="71" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="F88" s="70" t="s">
         <v>436</v>
@@ -22926,14 +22926,14 @@
     </row>
     <row r="89" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C89" s="76" t="str">
-        <f>"R-WH_Att"&amp;"_"&amp;RIGHT(E89,6)&amp;"_N1"</f>
-        <v>R-WH_Att_OILLPG_N1</v>
+        <f>"R-WH_Att"&amp;"_"&amp;RIGHT(E89,3)&amp;"_N1"</f>
+        <v>R-WH_Att_LPG_N1</v>
       </c>
       <c r="D89" s="138" t="s">
         <v>387</v>
       </c>
       <c r="E89" s="170" t="s">
-        <v>452</v>
+        <v>796</v>
       </c>
       <c r="F89" s="138" t="s">
         <v>436</v>
@@ -23027,8 +23027,8 @@
     </row>
     <row r="91" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C91" s="76" t="str">
-        <f>"R-SC_Att"&amp;"_"&amp;RIGHT(E91,6)&amp;"_N1"</f>
-        <v>R-SC_Att_RSDELC_N1</v>
+        <f>"R-SC_Att"&amp;"_"&amp;RIGHT(E91,3)&amp;"_N1"</f>
+        <v>R-SC_Att_ELC_N1</v>
       </c>
       <c r="D91" s="145" t="s">
         <v>389</v>
@@ -23110,40 +23110,40 @@
         <v>42</v>
       </c>
       <c r="G97" s="64" t="s">
+        <v>710</v>
+      </c>
+      <c r="H97" s="64" t="s">
+        <v>711</v>
+      </c>
+      <c r="I97" s="64" t="s">
         <v>712</v>
       </c>
-      <c r="H97" s="64" t="s">
+      <c r="J97" s="64" t="s">
         <v>713</v>
       </c>
-      <c r="I97" s="64" t="s">
+      <c r="K97" s="64" t="s">
         <v>714</v>
       </c>
-      <c r="J97" s="64" t="s">
+      <c r="L97" s="64" t="s">
         <v>715</v>
       </c>
-      <c r="K97" s="64" t="s">
+      <c r="M97" s="64" t="s">
         <v>716</v>
       </c>
-      <c r="L97" s="64" t="s">
+      <c r="N97" s="64" t="s">
         <v>717</v>
       </c>
-      <c r="M97" s="64" t="s">
+      <c r="O97" s="64" t="s">
         <v>718</v>
       </c>
-      <c r="N97" s="64" t="s">
+      <c r="P97" s="64" t="s">
         <v>719</v>
       </c>
-      <c r="O97" s="64" t="s">
+      <c r="Q97" s="64" t="s">
         <v>720</v>
       </c>
-      <c r="P97" s="64" t="s">
+      <c r="R97" s="64" t="s">
         <v>721</v>
-      </c>
-      <c r="Q97" s="64" t="s">
-        <v>722</v>
-      </c>
-      <c r="R97" s="64" t="s">
-        <v>723</v>
       </c>
       <c r="S97" s="65" t="s">
         <v>44</v>
@@ -23152,7 +23152,7 @@
         <v>330</v>
       </c>
       <c r="U97" s="64" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="V97" s="64" t="s">
         <v>342</v>
@@ -23179,7 +23179,7 @@
         <v>390</v>
       </c>
       <c r="AD97" s="64" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AE97" s="64" t="s">
         <v>331</v>
@@ -23244,16 +23244,16 @@
       <c r="Y98" s="107"/>
       <c r="Z98" s="107"/>
       <c r="AA98" s="115" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AB98" s="118" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AC98" s="118" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AD98" s="118" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AE98" s="107" t="s">
         <v>127</v>
@@ -23286,7 +23286,7 @@
     </row>
     <row r="99" spans="3:41" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C99" s="61" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D99" s="61"/>
       <c r="E99" s="61"/>
@@ -23405,7 +23405,7 @@
       </c>
       <c r="AJ100" s="153" t="str">
         <f>C101</f>
-        <v>R-SH_Det_OILKER_N1</v>
+        <v>R-SH_Det_KER_N1</v>
       </c>
       <c r="AK100" s="153" t="str">
         <f>D101</f>
@@ -23415,7 +23415,7 @@
         <v>16</v>
       </c>
       <c r="AM100" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN100" s="154"/>
       <c r="AO100" s="154" t="s">
@@ -23424,14 +23424,14 @@
     </row>
     <row r="101" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C101" s="76" t="str">
-        <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E101,6)&amp;"_N1"</f>
-        <v>R-SH_Det_OILKER_N1</v>
+        <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E101,3)&amp;"_N1"</f>
+        <v>R-SH_Det_KER_N1</v>
       </c>
       <c r="D101" s="76" t="s">
         <v>352</v>
       </c>
-      <c r="E101" s="77" t="s">
-        <v>782</v>
+      <c r="E101" s="137" t="s">
+        <v>795</v>
       </c>
       <c r="F101" s="76" t="s">
         <v>441</v>
@@ -23489,18 +23489,18 @@
       </c>
       <c r="AI101" s="154"/>
       <c r="AJ101" s="153" t="str">
-        <f t="shared" ref="AJ101:AJ111" si="43">C102</f>
-        <v>R-H_Det_OILKER_N1</v>
+        <f t="shared" ref="AJ101:AJ111" si="42">C102</f>
+        <v>R-HW_Det_KER_N1</v>
       </c>
       <c r="AK101" s="153" t="str">
-        <f t="shared" ref="AK101:AK111" si="44">D102</f>
+        <f t="shared" ref="AK101:AK111" si="43">D102</f>
         <v>Residential Kerosene Heating Oil - New 2 SH + WH</v>
       </c>
       <c r="AL101" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM101" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN101" s="154"/>
       <c r="AO101" s="154" t="s">
@@ -23509,17 +23509,17 @@
     </row>
     <row r="102" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C102" s="70" t="str">
-        <f>"R-H_Det"&amp;"_"&amp;RIGHT(E102,6)&amp;"_N1"</f>
-        <v>R-H_Det_OILKER_N1</v>
+        <f>"R-HW_Det"&amp;"_"&amp;RIGHT(E102,3)&amp;"_N1"</f>
+        <v>R-HW_Det_KER_N1</v>
       </c>
       <c r="D102" s="70" t="s">
         <v>353</v>
       </c>
       <c r="E102" s="71" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
       <c r="F102" s="70" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="G102" s="339">
         <v>1</v>
@@ -23542,15 +23542,15 @@
         <v>0.7</v>
       </c>
       <c r="P102" s="340">
-        <f t="shared" ref="P102:P104" si="45">H102*0.7</f>
+        <f t="shared" ref="P102:P104" si="44">H102*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q102" s="340">
-        <f t="shared" ref="Q102:Q104" si="46">I102*0.7</f>
+        <f t="shared" ref="Q102:Q104" si="45">I102*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R102" s="341">
-        <f t="shared" ref="R102:R104" si="47">J102*0.7</f>
+        <f t="shared" ref="R102:R104" si="46">J102*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S102" s="100">
@@ -23586,18 +23586,18 @@
       </c>
       <c r="AI102" s="154"/>
       <c r="AJ102" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v>R-HW_Det_KER_N2</v>
+      </c>
+      <c r="AK102" s="153" t="str">
         <f t="shared" si="43"/>
-        <v>R-H_Det_OILKER_N2</v>
-      </c>
-      <c r="AK102" s="153" t="str">
-        <f t="shared" si="44"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Solar</v>
       </c>
       <c r="AL102" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM102" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN102" s="154"/>
       <c r="AO102" s="154" t="s">
@@ -23606,17 +23606,17 @@
     </row>
     <row r="103" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C103" s="76" t="str">
-        <f>"R-H_Det"&amp;"_"&amp;RIGHT(E103,6)&amp;"_N2"</f>
-        <v>R-H_Det_OILKER_N2</v>
+        <f>"R-HW_Det"&amp;"_"&amp;RIGHT(E103,3)&amp;"_N2"</f>
+        <v>R-HW_Det_KER_N2</v>
       </c>
       <c r="D103" s="76" t="s">
         <v>354</v>
       </c>
       <c r="E103" s="77" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="F103" s="76" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="G103" s="336">
         <v>1</v>
@@ -23639,15 +23639,15 @@
         <v>0.7</v>
       </c>
       <c r="P103" s="337">
+        <f t="shared" si="44"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q103" s="337">
         <f t="shared" si="45"/>
         <v>0.7</v>
       </c>
-      <c r="Q103" s="337">
+      <c r="R103" s="338">
         <f t="shared" si="46"/>
-        <v>0.7</v>
-      </c>
-      <c r="R103" s="338">
-        <f t="shared" si="47"/>
         <v>0.7</v>
       </c>
       <c r="S103" s="101">
@@ -23687,35 +23687,35 @@
       </c>
       <c r="AI103" s="154"/>
       <c r="AJ103" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v>R-HW_Det_KER_N3</v>
+      </c>
+      <c r="AK103" s="153" t="str">
         <f t="shared" si="43"/>
-        <v>R-H_Det_OILKER_N3</v>
-      </c>
-      <c r="AK103" s="153" t="str">
-        <f t="shared" si="44"/>
         <v>Residential Kerosene Heating Oil - New 3 SH+WH + Wood Stove</v>
       </c>
       <c r="AL103" s="155" t="s">
         <v>16</v>
       </c>
       <c r="AM103" s="155" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN103" s="154"/>
       <c r="AO103" s="154"/>
     </row>
     <row r="104" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C104" s="70" t="str">
-        <f>"R-H_Det"&amp;"_"&amp;RIGHT(E104,6)&amp;"_N3"</f>
-        <v>R-H_Det_OILKER_N3</v>
+        <f>"R-HW_Det"&amp;"_"&amp;RIGHT(E104,3)&amp;"_N3"</f>
+        <v>R-HW_Det_KER_N3</v>
       </c>
       <c r="D104" s="70" t="s">
         <v>358</v>
       </c>
       <c r="E104" s="71" t="s">
+        <v>798</v>
+      </c>
+      <c r="F104" s="70" t="s">
         <v>784</v>
-      </c>
-      <c r="F104" s="70" t="s">
-        <v>796</v>
       </c>
       <c r="G104" s="339">
         <v>1</v>
@@ -23738,15 +23738,15 @@
         <v>0.7</v>
       </c>
       <c r="P104" s="340">
+        <f t="shared" si="44"/>
+        <v>0.71749999999999992</v>
+      </c>
+      <c r="Q104" s="340">
         <f t="shared" si="45"/>
         <v>0.71749999999999992</v>
       </c>
-      <c r="Q104" s="340">
+      <c r="R104" s="341">
         <f t="shared" si="46"/>
-        <v>0.71749999999999992</v>
-      </c>
-      <c r="R104" s="341">
-        <f t="shared" si="47"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S104" s="100">
@@ -23786,18 +23786,18 @@
       </c>
       <c r="AI104" s="154"/>
       <c r="AJ104" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v>R-SH_Det_GAS_N1</v>
+      </c>
+      <c r="AK104" s="153" t="str">
         <f t="shared" si="43"/>
-        <v>R-SH_Det_GASNAT_N1</v>
-      </c>
-      <c r="AK104" s="153" t="str">
-        <f t="shared" si="44"/>
         <v>Residential Natural Gas Heating - New 1 SH</v>
       </c>
       <c r="AL104" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM104" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN104" s="154"/>
       <c r="AO104" s="154" t="s">
@@ -23806,14 +23806,14 @@
     </row>
     <row r="105" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C105" s="76" t="str">
-        <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E105,6)&amp;"_N1"</f>
-        <v>R-SH_Det_GASNAT_N1</v>
+        <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E105,3)&amp;"_N1"</f>
+        <v>R-SH_Det_GAS_N1</v>
       </c>
       <c r="D105" s="76" t="s">
         <v>351</v>
       </c>
       <c r="E105" s="77" t="s">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="F105" s="76" t="s">
         <v>441</v>
@@ -23871,18 +23871,18 @@
       </c>
       <c r="AI105" s="154"/>
       <c r="AJ105" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v>R-HW_Det_GAS_N1</v>
+      </c>
+      <c r="AK105" s="153" t="str">
         <f t="shared" si="43"/>
-        <v>R-H_Det_GASNAT_N1</v>
-      </c>
-      <c r="AK105" s="153" t="str">
-        <f t="shared" si="44"/>
         <v>Residential Natural Gas Heating - New 2 SH + WH</v>
       </c>
       <c r="AL105" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM105" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN105" s="154"/>
       <c r="AO105" s="154" t="s">
@@ -23891,17 +23891,17 @@
     </row>
     <row r="106" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C106" s="70" t="str">
-        <f>"R-H_Det"&amp;"_"&amp;RIGHT(E106,6)&amp;"_N1"</f>
-        <v>R-H_Det_GASNAT_N1</v>
+        <f>"R-HW_Det"&amp;"_"&amp;RIGHT(E106,3)&amp;"_N1"</f>
+        <v>R-HW_Det_GAS_N1</v>
       </c>
       <c r="D106" s="70" t="s">
         <v>355</v>
       </c>
       <c r="E106" s="71" t="s">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="F106" s="70" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="G106" s="339">
         <v>1</v>
@@ -23924,15 +23924,15 @@
         <v>0.7</v>
       </c>
       <c r="P106" s="340">
-        <f t="shared" ref="P106:P108" si="48">H106*0.7</f>
+        <f t="shared" ref="P106:P108" si="47">H106*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q106" s="340">
-        <f t="shared" ref="Q106:Q108" si="49">I106*0.7</f>
+        <f t="shared" ref="Q106:Q108" si="48">I106*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R106" s="341">
-        <f t="shared" ref="R106:R108" si="50">J106*0.7</f>
+        <f t="shared" ref="R106:R108" si="49">J106*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S106" s="100">
@@ -23968,18 +23968,18 @@
       </c>
       <c r="AI106" s="154"/>
       <c r="AJ106" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v>R-HW_Det_GAS_N2</v>
+      </c>
+      <c r="AK106" s="153" t="str">
         <f t="shared" si="43"/>
-        <v>R-H_Det_GASNAT_N2</v>
-      </c>
-      <c r="AK106" s="153" t="str">
-        <f t="shared" si="44"/>
         <v>Residential Natural Gas Heating - New 3 SH + WH + Solar</v>
       </c>
       <c r="AL106" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM106" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN106" s="154"/>
       <c r="AO106" s="154" t="s">
@@ -23988,17 +23988,17 @@
     </row>
     <row r="107" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C107" s="76" t="str">
-        <f>"R-H_Det"&amp;"_"&amp;RIGHT(E107,6)&amp;"_N2"</f>
-        <v>R-H_Det_GASNAT_N2</v>
+        <f>"R-HW_Det"&amp;"_"&amp;RIGHT(E107,3)&amp;"_N2"</f>
+        <v>R-HW_Det_GAS_N2</v>
       </c>
       <c r="D107" s="76" t="s">
         <v>356</v>
       </c>
       <c r="E107" s="77" t="s">
-        <v>785</v>
+        <v>801</v>
       </c>
       <c r="F107" s="76" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="G107" s="336">
         <v>1</v>
@@ -24021,15 +24021,15 @@
         <v>0.7</v>
       </c>
       <c r="P107" s="337">
+        <f t="shared" si="47"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q107" s="337">
         <f t="shared" si="48"/>
         <v>0.7</v>
       </c>
-      <c r="Q107" s="337">
+      <c r="R107" s="338">
         <f t="shared" si="49"/>
-        <v>0.7</v>
-      </c>
-      <c r="R107" s="338">
-        <f t="shared" si="50"/>
         <v>0.7</v>
       </c>
       <c r="S107" s="101">
@@ -24069,18 +24069,18 @@
       </c>
       <c r="AI107" s="154"/>
       <c r="AJ107" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v>R-HW_Det_GAS_N3</v>
+      </c>
+      <c r="AK107" s="153" t="str">
         <f t="shared" si="43"/>
-        <v>R-H_Det_GASNAT_N3</v>
-      </c>
-      <c r="AK107" s="153" t="str">
-        <f t="shared" si="44"/>
         <v>Residential Natural Gas Heating - New 4 SH + WH + Wood Stove</v>
       </c>
       <c r="AL107" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM107" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN107" s="154"/>
       <c r="AO107" s="154" t="s">
@@ -24089,17 +24089,17 @@
     </row>
     <row r="108" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C108" s="70" t="str">
-        <f>"R-H_Det"&amp;"_"&amp;RIGHT(E108,6)&amp;"_N3"</f>
-        <v>R-H_Det_GASNAT_N3</v>
+        <f>"R-HW_Det"&amp;"_"&amp;RIGHT(E108,3)&amp;"_N3"</f>
+        <v>R-HW_Det_GAS_N3</v>
       </c>
       <c r="D108" s="70" t="s">
         <v>357</v>
       </c>
       <c r="E108" s="71" t="s">
-        <v>786</v>
+        <v>802</v>
       </c>
       <c r="F108" s="70" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="G108" s="339">
         <v>1</v>
@@ -24122,15 +24122,15 @@
         <v>0.7</v>
       </c>
       <c r="P108" s="340">
+        <f t="shared" si="47"/>
+        <v>0.71749999999999992</v>
+      </c>
+      <c r="Q108" s="340">
         <f t="shared" si="48"/>
         <v>0.71749999999999992</v>
       </c>
-      <c r="Q108" s="340">
+      <c r="R108" s="341">
         <f t="shared" si="49"/>
-        <v>0.71749999999999992</v>
-      </c>
-      <c r="R108" s="341">
-        <f t="shared" si="50"/>
         <v>0.71749999999999992</v>
       </c>
       <c r="S108" s="100">
@@ -24170,18 +24170,18 @@
       </c>
       <c r="AI108" s="154"/>
       <c r="AJ108" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v>R-SH_Det_LPG_N1</v>
+      </c>
+      <c r="AK108" s="153" t="str">
         <f t="shared" si="43"/>
-        <v>R-SH_Det_OILLPG_N1</v>
-      </c>
-      <c r="AK108" s="153" t="str">
-        <f t="shared" si="44"/>
         <v>Residential Liquid Petroleum Gas- New 1 SH</v>
       </c>
       <c r="AL108" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM108" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN108" s="154"/>
       <c r="AO108" s="154" t="s">
@@ -24190,14 +24190,14 @@
     </row>
     <row r="109" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C109" s="76" t="str">
-        <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E109,6)&amp;"_N1"</f>
-        <v>R-SH_Det_OILLPG_N1</v>
+        <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E109,3)&amp;"_N1"</f>
+        <v>R-SH_Det_LPG_N1</v>
       </c>
       <c r="D109" s="76" t="s">
         <v>361</v>
       </c>
       <c r="E109" s="77" t="s">
-        <v>452</v>
+        <v>796</v>
       </c>
       <c r="F109" s="76" t="s">
         <v>441</v>
@@ -24255,18 +24255,18 @@
       </c>
       <c r="AI109" s="154"/>
       <c r="AJ109" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v>R-HW_Det_LPG_N1</v>
+      </c>
+      <c r="AK109" s="153" t="str">
         <f t="shared" si="43"/>
-        <v>R-H_Det_OILLPG_N1</v>
-      </c>
-      <c r="AK109" s="153" t="str">
-        <f t="shared" si="44"/>
         <v>Residential Liquid Petroleum Gas- New 2 SH + WH</v>
       </c>
       <c r="AL109" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM109" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN109" s="154"/>
       <c r="AO109" s="154" t="s">
@@ -24275,17 +24275,17 @@
     </row>
     <row r="110" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C110" s="70" t="str">
-        <f>"R-H_Det"&amp;"_"&amp;RIGHT(E110,6)&amp;"_N1"</f>
-        <v>R-H_Det_OILLPG_N1</v>
+        <f>"R-HW_Det"&amp;"_"&amp;RIGHT(E110,3)&amp;"_N1"</f>
+        <v>R-HW_Det_LPG_N1</v>
       </c>
       <c r="D110" s="70" t="s">
         <v>362</v>
       </c>
       <c r="E110" s="71" t="s">
-        <v>452</v>
+        <v>796</v>
       </c>
       <c r="F110" s="70" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="G110" s="339">
         <v>1</v>
@@ -24308,15 +24308,15 @@
         <v>0.7</v>
       </c>
       <c r="P110" s="340">
-        <f t="shared" ref="P110" si="51">H110*0.7</f>
+        <f t="shared" ref="P110" si="50">H110*0.7</f>
         <v>0.7</v>
       </c>
       <c r="Q110" s="340">
-        <f t="shared" ref="Q110" si="52">I110*0.7</f>
+        <f t="shared" ref="Q110" si="51">I110*0.7</f>
         <v>0.7</v>
       </c>
       <c r="R110" s="341">
-        <f t="shared" ref="R110" si="53">J110*0.7</f>
+        <f t="shared" ref="R110" si="52">J110*0.7</f>
         <v>0.7</v>
       </c>
       <c r="S110" s="100">
@@ -24352,18 +24352,18 @@
       </c>
       <c r="AI110" s="154"/>
       <c r="AJ110" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v>R-SH_Det_WOO_N1</v>
+      </c>
+      <c r="AK110" s="153" t="str">
         <f t="shared" si="43"/>
-        <v>R-SH_Det_BIOWOO_N1</v>
-      </c>
-      <c r="AK110" s="153" t="str">
-        <f t="shared" si="44"/>
         <v>Residential Biomass Boiler - New 1 SH</v>
       </c>
       <c r="AL110" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM110" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN110" s="154"/>
       <c r="AO110" s="154" t="s">
@@ -24372,14 +24372,14 @@
     </row>
     <row r="111" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C111" s="76" t="str">
-        <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E111,6)&amp;"_N1"</f>
-        <v>R-SH_Det_BIOWOO_N1</v>
+        <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E111,3)&amp;"_N1"</f>
+        <v>R-SH_Det_WOO_N1</v>
       </c>
       <c r="D111" s="76" t="s">
         <v>363</v>
       </c>
       <c r="E111" s="77" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="F111" s="76" t="s">
         <v>441</v>
@@ -24437,18 +24437,18 @@
       </c>
       <c r="AI111" s="157"/>
       <c r="AJ111" s="156" t="str">
+        <f t="shared" si="42"/>
+        <v>R-HW_Det_WOO_N1</v>
+      </c>
+      <c r="AK111" s="156" t="str">
         <f t="shared" si="43"/>
-        <v>R-H_Det_BIOWOO_N1</v>
-      </c>
-      <c r="AK111" s="156" t="str">
-        <f t="shared" si="44"/>
         <v>Residential Biomass Boiler - New 2 SH + WH</v>
       </c>
       <c r="AL111" s="157" t="s">
         <v>16</v>
       </c>
       <c r="AM111" s="157" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN111" s="157"/>
       <c r="AO111" s="157" t="s">
@@ -24457,17 +24457,17 @@
     </row>
     <row r="112" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C112" s="73" t="str">
-        <f>"R-H_Det"&amp;"_"&amp;RIGHT(E112,6)&amp;"_N1"</f>
-        <v>R-H_Det_BIOWOO_N1</v>
+        <f>"R-HW_Det"&amp;"_"&amp;RIGHT(E112,3)&amp;"_N1"</f>
+        <v>R-HW_Det_WOO_N1</v>
       </c>
       <c r="D112" s="73" t="s">
         <v>364</v>
       </c>
-      <c r="E112" s="74" t="s">
-        <v>787</v>
+      <c r="E112" s="71" t="s">
+        <v>799</v>
       </c>
       <c r="F112" s="73" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="G112" s="339">
         <v>1</v>
@@ -24535,7 +24535,7 @@
       <c r="AI112" s="158"/>
       <c r="AJ112" s="159" t="str">
         <f>C114</f>
-        <v>R-SH_Det_RSDELC_N1</v>
+        <v>R-SH_Det_ELC_N1</v>
       </c>
       <c r="AK112" s="159" t="str">
         <f>D114</f>
@@ -24545,7 +24545,7 @@
         <v>16</v>
       </c>
       <c r="AM112" s="158" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN112" s="158"/>
       <c r="AO112" s="158" t="s">
@@ -24588,18 +24588,18 @@
       <c r="AG113" s="81"/>
       <c r="AI113" s="152"/>
       <c r="AJ113" s="151" t="str">
-        <f t="shared" ref="AJ113:AK119" si="54">C116</f>
-        <v>R-SH_Det_RSDELC_HPN1</v>
+        <f t="shared" ref="AJ113:AK119" si="53">C116</f>
+        <v>R-SH_Det_ELC_HPN1</v>
       </c>
       <c r="AK113" s="151" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>Residential Electric Heat Pump - Air to Air - SH</v>
       </c>
       <c r="AL113" s="152" t="s">
         <v>16</v>
       </c>
       <c r="AM113" s="152" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN113" s="152"/>
       <c r="AO113" s="152" t="s">
@@ -24607,14 +24607,14 @@
       </c>
     </row>
     <row r="114" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C114" s="76" t="str">
-        <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E114,6)&amp;"_N1"</f>
-        <v>R-SH_Det_RSDELC_N1</v>
+      <c r="C114" s="144" t="str">
+        <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E114,3)&amp;"_N1"</f>
+        <v>R-SH_Det_ELC_N1</v>
       </c>
       <c r="D114" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="E114" s="71" t="s">
+      <c r="E114" s="172" t="s">
         <v>448</v>
       </c>
       <c r="F114" s="70" t="s">
@@ -24673,18 +24673,18 @@
       </c>
       <c r="AI114" s="154"/>
       <c r="AJ114" s="153" t="str">
-        <f t="shared" si="54"/>
-        <v>R-HC_Det_RSDELC_HPN1</v>
+        <f t="shared" si="53"/>
+        <v>R-HC_Det_ELC_HPN1</v>
       </c>
       <c r="AK114" s="153" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>Residential Electric Heat Pump - Air to Air - SH + SC</v>
       </c>
       <c r="AL114" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM114" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN114" s="154"/>
       <c r="AO114" s="154" t="s">
@@ -24727,18 +24727,18 @@
       <c r="AG115" s="81"/>
       <c r="AI115" s="154"/>
       <c r="AJ115" s="153" t="str">
-        <f t="shared" si="54"/>
-        <v>R-SH_Det_RSDELC_HPN2</v>
+        <f t="shared" si="53"/>
+        <v>R-SH_Det_ELC_HPN2</v>
       </c>
       <c r="AK115" s="153" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>Residential Electric Heat Pump - Air to Water - SH</v>
       </c>
       <c r="AL115" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM115" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN115" s="154"/>
       <c r="AO115" s="154" t="s">
@@ -24746,14 +24746,14 @@
       </c>
     </row>
     <row r="116" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C116" s="76" t="str">
-        <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E116,6)&amp;"_HPN1"</f>
-        <v>R-SH_Det_RSDELC_HPN1</v>
+      <c r="C116" s="66" t="str">
+        <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E116,3)&amp;"_HPN1"</f>
+        <v>R-SH_Det_ELC_HPN1</v>
       </c>
       <c r="D116" s="76" t="s">
         <v>369</v>
       </c>
-      <c r="E116" s="77" t="s">
+      <c r="E116" s="137" t="s">
         <v>448</v>
       </c>
       <c r="F116" s="76" t="s">
@@ -24812,18 +24812,18 @@
       </c>
       <c r="AI116" s="154"/>
       <c r="AJ116" s="153" t="str">
-        <f t="shared" si="54"/>
-        <v>R-H_Det_RSDELC_HPN1</v>
+        <f t="shared" si="53"/>
+        <v>R-HW_Det_ELC_HPN1</v>
       </c>
       <c r="AK116" s="153" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH</v>
       </c>
       <c r="AL116" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM116" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN116" s="154"/>
       <c r="AO116" s="154" t="s">
@@ -24831,9 +24831,9 @@
       </c>
     </row>
     <row r="117" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C117" s="76" t="str">
-        <f>"R-HC_Det"&amp;"_"&amp;RIGHT(E117,6)&amp;"_HPN1"</f>
-        <v>R-HC_Det_RSDELC_HPN1</v>
+      <c r="C117" s="69" t="str">
+        <f>"R-HC_Det"&amp;"_"&amp;RIGHT(E117,3)&amp;"_HPN1"</f>
+        <v>R-HC_Det_ELC_HPN1</v>
       </c>
       <c r="D117" s="70" t="s">
         <v>370</v>
@@ -24842,7 +24842,7 @@
         <v>448</v>
       </c>
       <c r="F117" s="70" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="G117" s="339">
         <v>1</v>
@@ -24905,18 +24905,18 @@
       </c>
       <c r="AI117" s="304"/>
       <c r="AJ117" s="153" t="str">
-        <f t="shared" si="54"/>
-        <v>R-H_Det_RENSOL_HPN2</v>
+        <f t="shared" si="53"/>
+        <v>R-HW_Det_SOL_HPN2</v>
       </c>
       <c r="AK117" s="153" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>Residential Electric Heat Pump - Air to Water - SH + WH + Solar</v>
       </c>
       <c r="AL117" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM117" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN117" s="154"/>
       <c r="AO117" s="154" t="s">
@@ -24924,9 +24924,9 @@
       </c>
     </row>
     <row r="118" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C118" s="76" t="str">
-        <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E118,6)&amp;"_HPN2"</f>
-        <v>R-SH_Det_RSDELC_HPN2</v>
+      <c r="C118" s="87" t="str">
+        <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E118,3)&amp;"_HPN2"</f>
+        <v>R-SH_Det_ELC_HPN2</v>
       </c>
       <c r="D118" s="76" t="s">
         <v>371</v>
@@ -24990,18 +24990,18 @@
       </c>
       <c r="AI118" s="304"/>
       <c r="AJ118" s="153" t="str">
-        <f t="shared" si="54"/>
-        <v>R-SH_Det_RSDELC_HPN3</v>
+        <f t="shared" si="53"/>
+        <v>R-SH_Det_ELC_HPN3</v>
       </c>
       <c r="AK118" s="153" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH</v>
       </c>
       <c r="AL118" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM118" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN118" s="154"/>
       <c r="AO118" s="154" t="s">
@@ -25009,9 +25009,9 @@
       </c>
     </row>
     <row r="119" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C119" s="76" t="str">
-        <f>"R-H_Det"&amp;"_"&amp;RIGHT(E119,6)&amp;"_HPN1"</f>
-        <v>R-H_Det_RSDELC_HPN1</v>
+      <c r="C119" s="69" t="str">
+        <f>"R-HW_Det"&amp;"_"&amp;RIGHT(E119,3)&amp;"_HPN1"</f>
+        <v>R-HW_Det_ELC_HPN1</v>
       </c>
       <c r="D119" s="70" t="s">
         <v>372</v>
@@ -25020,7 +25020,7 @@
         <v>448</v>
       </c>
       <c r="F119" s="70" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="G119" s="339">
         <v>1</v>
@@ -25043,15 +25043,15 @@
         <v>0.7</v>
       </c>
       <c r="P119" s="340">
-        <f t="shared" ref="P119:P120" si="55">H119*0.7</f>
+        <f t="shared" ref="P119:P120" si="54">H119*0.7</f>
         <v>0.78400000000000003</v>
       </c>
       <c r="Q119" s="340">
-        <f t="shared" ref="Q119:Q120" si="56">I119*0.7</f>
+        <f t="shared" ref="Q119:Q120" si="55">I119*0.7</f>
         <v>0.84699999999999998</v>
       </c>
       <c r="R119" s="341">
-        <f t="shared" ref="R119:R120" si="57">J119*0.7</f>
+        <f t="shared" ref="R119:R120" si="56">J119*0.7</f>
         <v>0.84699999999999998</v>
       </c>
       <c r="S119" s="100">
@@ -25087,18 +25087,18 @@
       </c>
       <c r="AI119" s="160"/>
       <c r="AJ119" s="156" t="str">
-        <f t="shared" si="54"/>
-        <v>R-HC_Det_RSDELC_HPN2</v>
+        <f t="shared" si="53"/>
+        <v>R-HC_Det_ELC_HPN2</v>
       </c>
       <c r="AK119" s="156" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>Residential Electric Heat Pump - Ground to Water - SH + SC</v>
       </c>
       <c r="AL119" s="157" t="s">
         <v>16</v>
       </c>
       <c r="AM119" s="157" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN119" s="157"/>
       <c r="AO119" s="157" t="s">
@@ -25106,18 +25106,18 @@
       </c>
     </row>
     <row r="120" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C120" s="76" t="str">
-        <f>"R-H_Det"&amp;"_"&amp;RIGHT(E120,6)&amp;"_HPN2"</f>
-        <v>R-H_Det_RENSOL_HPN2</v>
+      <c r="C120" s="87" t="str">
+        <f>"R-HW_Det"&amp;"_"&amp;RIGHT(E120,3)&amp;"_HPN2"</f>
+        <v>R-HW_Det_SOL_HPN2</v>
       </c>
       <c r="D120" s="76" t="s">
         <v>373</v>
       </c>
       <c r="E120" s="77" t="s">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="F120" s="76" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="G120" s="336">
         <v>1</v>
@@ -25140,15 +25140,15 @@
         <v>0.7</v>
       </c>
       <c r="P120" s="337">
+        <f t="shared" si="54"/>
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="Q120" s="337">
         <f t="shared" si="55"/>
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="Q120" s="337">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="R120" s="338">
         <f t="shared" si="56"/>
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="R120" s="338">
-        <f t="shared" si="57"/>
         <v>0.83299999999999996</v>
       </c>
       <c r="S120" s="101">
@@ -25189,7 +25189,7 @@
       <c r="AI120" s="161"/>
       <c r="AJ120" s="151" t="str">
         <f>C124</f>
-        <v>R-H_Det_GASNAT_HPN1</v>
+        <v>R-HW_Det_GAS_HPN1</v>
       </c>
       <c r="AK120" s="151" t="str">
         <f>D124</f>
@@ -25199,7 +25199,7 @@
         <v>16</v>
       </c>
       <c r="AM120" s="152" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN120" s="152"/>
       <c r="AO120" s="152" t="s">
@@ -25207,9 +25207,9 @@
       </c>
     </row>
     <row r="121" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C121" s="76" t="str">
-        <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E121,6)&amp;"_HPN3"</f>
-        <v>R-SH_Det_RSDELC_HPN3</v>
+      <c r="C121" s="69" t="str">
+        <f>"R-SH_Det"&amp;"_"&amp;RIGHT(E121,3)&amp;"_HPN3"</f>
+        <v>R-SH_Det_ELC_HPN3</v>
       </c>
       <c r="D121" s="70" t="s">
         <v>374</v>
@@ -25274,7 +25274,7 @@
       <c r="AI121" s="305"/>
       <c r="AJ121" s="156" t="str">
         <f>C125</f>
-        <v>R-H_Det_GASNAT_HPN2</v>
+        <v>R-HW_Det_GAS_HPN2</v>
       </c>
       <c r="AK121" s="156" t="str">
         <f>D125</f>
@@ -25284,7 +25284,7 @@
         <v>16</v>
       </c>
       <c r="AM121" s="157" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN121" s="157"/>
       <c r="AO121" s="157" t="s">
@@ -25292,18 +25292,18 @@
       </c>
     </row>
     <row r="122" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C122" s="76" t="str">
-        <f>"R-HC_Det"&amp;"_"&amp;RIGHT(E122,6)&amp;"_HPN2"</f>
-        <v>R-HC_Det_RSDELC_HPN2</v>
+      <c r="C122" s="142" t="str">
+        <f>"R-HC_Det"&amp;"_"&amp;RIGHT(E122,3)&amp;"_HPN2"</f>
+        <v>R-HC_Det_ELC_HPN2</v>
       </c>
       <c r="D122" s="76" t="s">
         <v>375</v>
       </c>
-      <c r="E122" s="77" t="s">
+      <c r="E122" s="170" t="s">
         <v>448</v>
       </c>
       <c r="F122" s="76" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="G122" s="345">
         <v>1</v>
@@ -25367,7 +25367,7 @@
       <c r="AI122" s="306"/>
       <c r="AJ122" s="159" t="str">
         <f>C127</f>
-        <v>R-H_Det_GASNAT_HHPN1</v>
+        <v>R-HW_Det_GAS_HHPN1</v>
       </c>
       <c r="AK122" s="159" t="str">
         <f>D127</f>
@@ -25377,7 +25377,7 @@
         <v>16</v>
       </c>
       <c r="AM122" s="158" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN122" s="158"/>
       <c r="AO122" s="158" t="s">
@@ -25421,7 +25421,7 @@
       <c r="AI123" s="307"/>
       <c r="AJ123" s="151" t="str">
         <f>C129</f>
-        <v>R-H_Det_RSDHET_N1</v>
+        <v>R-HW_Det_HET_N1</v>
       </c>
       <c r="AK123" s="151" t="str">
         <f>D129</f>
@@ -25431,7 +25431,7 @@
         <v>16</v>
       </c>
       <c r="AM123" s="152" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN123" s="152"/>
       <c r="AO123" s="152" t="s">
@@ -25439,18 +25439,18 @@
       </c>
     </row>
     <row r="124" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C124" s="76" t="str">
-        <f>"R-H_Det"&amp;"_"&amp;RIGHT(E124,6)&amp;"_HPN1"</f>
-        <v>R-H_Det_GASNAT_HPN1</v>
+      <c r="C124" s="66" t="str">
+        <f>"R-HW_Det"&amp;"_"&amp;RIGHT(E124,3)&amp;"_HPN1"</f>
+        <v>R-HW_Det_GAS_HPN1</v>
       </c>
       <c r="D124" s="67" t="s">
         <v>377</v>
       </c>
       <c r="E124" s="137" t="s">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="F124" s="137" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="G124" s="342">
         <v>1</v>
@@ -25473,15 +25473,15 @@
         <v>0.7</v>
       </c>
       <c r="P124" s="343">
-        <f t="shared" ref="P124:P125" si="58">H124*0.7</f>
+        <f t="shared" ref="P124:P125" si="57">H124*0.7</f>
         <v>0.82039999999999991</v>
       </c>
       <c r="Q124" s="343">
-        <f t="shared" ref="Q124:Q125" si="59">I124*0.7</f>
+        <f t="shared" ref="Q124:Q125" si="58">I124*0.7</f>
         <v>0.82039999999999991</v>
       </c>
       <c r="R124" s="344">
-        <f t="shared" ref="R124:R125" si="60">J124*0.7</f>
+        <f t="shared" ref="R124:R125" si="59">J124*0.7</f>
         <v>0.82039999999999991</v>
       </c>
       <c r="S124" s="99">
@@ -25518,7 +25518,7 @@
       <c r="AI124" s="163"/>
       <c r="AJ124" s="156" t="str">
         <f>C130</f>
-        <v>R-H_Det_RSDHET_N2</v>
+        <v>R-HW_Det_HET_N2</v>
       </c>
       <c r="AK124" s="156" t="str">
         <f>D130</f>
@@ -25528,7 +25528,7 @@
         <v>16</v>
       </c>
       <c r="AM124" s="157" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN124" s="157"/>
       <c r="AO124" s="157" t="s">
@@ -25536,18 +25536,18 @@
       </c>
     </row>
     <row r="125" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C125" s="76" t="str">
-        <f>"R-H_Det"&amp;"_"&amp;RIGHT(E125,6)&amp;"_HPN2"</f>
-        <v>R-H_Det_GASNAT_HPN2</v>
+      <c r="C125" s="354" t="str">
+        <f>"R-HW_Det"&amp;"_"&amp;RIGHT(E125,3)&amp;"_HPN2"</f>
+        <v>R-HW_Det_GAS_HPN2</v>
       </c>
       <c r="D125" s="73" t="s">
         <v>378</v>
       </c>
       <c r="E125" s="74" t="s">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="F125" s="74" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="G125" s="355">
         <v>1</v>
@@ -25570,15 +25570,15 @@
         <v>0.7</v>
       </c>
       <c r="P125" s="356">
+        <f t="shared" si="57"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q125" s="356">
         <f t="shared" si="58"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q125" s="356">
+        <v>0.72239999999999993</v>
+      </c>
+      <c r="R125" s="357">
         <f t="shared" si="59"/>
-        <v>0.72239999999999993</v>
-      </c>
-      <c r="R125" s="357">
-        <f t="shared" si="60"/>
         <v>0.72239999999999993</v>
       </c>
       <c r="S125" s="102">
@@ -25614,18 +25614,18 @@
       </c>
       <c r="AI125" s="307"/>
       <c r="AJ125" s="151" t="str">
-        <f t="shared" ref="AJ125:AK129" si="61">C132</f>
-        <v>R-WH_Det_RSDELC_N1</v>
+        <f t="shared" ref="AJ125:AK129" si="60">C132</f>
+        <v>R-WH_Det_ELC_N1</v>
       </c>
       <c r="AK125" s="151" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v xml:space="preserve">Residential Electric Water Heater </v>
       </c>
       <c r="AL125" s="152" t="s">
         <v>16</v>
       </c>
       <c r="AM125" s="152" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN125" s="152"/>
       <c r="AO125" s="152" t="s">
@@ -25668,18 +25668,18 @@
       <c r="AG126" s="81"/>
       <c r="AI126" s="4"/>
       <c r="AJ126" s="153" t="str">
-        <f t="shared" si="61"/>
-        <v>R-WH_Det_RENSOL_N1</v>
+        <f t="shared" si="60"/>
+        <v>R-WH_Det_SOL_N1</v>
       </c>
       <c r="AK126" s="153" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v xml:space="preserve">Residential Solar Water Heater </v>
       </c>
       <c r="AL126" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM126" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN126" s="154"/>
       <c r="AO126" s="154" t="s">
@@ -25687,18 +25687,18 @@
       </c>
     </row>
     <row r="127" spans="3:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C127" s="76" t="str">
-        <f>"R-H_Det"&amp;"_"&amp;RIGHT(E127,6)&amp;"_HHPN1"</f>
-        <v>R-H_Det_GASNAT_HHPN1</v>
+      <c r="C127" s="144" t="str">
+        <f>"R-HW_Det"&amp;"_"&amp;RIGHT(E127,3)&amp;"_HHPN1"</f>
+        <v>R-HW_Det_GAS_HHPN1</v>
       </c>
       <c r="D127" s="128" t="s">
         <v>402</v>
       </c>
       <c r="E127" s="172" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="F127" s="76" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="G127" s="355">
         <v>1</v>
@@ -25721,15 +25721,15 @@
         <v>0.7</v>
       </c>
       <c r="P127" s="356">
-        <f t="shared" ref="P127" si="62">H127*0.7</f>
+        <f t="shared" ref="P127" si="61">H127*0.7</f>
         <v>0.73360000000000003</v>
       </c>
       <c r="Q127" s="356">
-        <f t="shared" ref="Q127" si="63">I127*0.7</f>
+        <f t="shared" ref="Q127" si="62">I127*0.7</f>
         <v>0.76789999999999992</v>
       </c>
       <c r="R127" s="357">
-        <f t="shared" ref="R127" si="64">J127*0.7</f>
+        <f t="shared" ref="R127" si="63">J127*0.7</f>
         <v>0.81269999999999998</v>
       </c>
       <c r="S127" s="5">
@@ -25769,18 +25769,18 @@
       </c>
       <c r="AI127" s="4"/>
       <c r="AJ127" s="153" t="str">
-        <f t="shared" si="61"/>
-        <v>R-WH_Det_GASNAT_N1</v>
+        <f t="shared" si="60"/>
+        <v>R-WH_Det_GAS_N1</v>
       </c>
       <c r="AK127" s="153" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v xml:space="preserve">Residential Gas Water Heater </v>
       </c>
       <c r="AL127" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM127" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN127" s="154"/>
       <c r="AO127" s="154" t="s">
@@ -25823,18 +25823,18 @@
       <c r="AG128" s="81"/>
       <c r="AI128" s="4"/>
       <c r="AJ128" s="153" t="str">
-        <f t="shared" si="61"/>
-        <v>R-WH_Det_BIOWOO_N1</v>
+        <f t="shared" si="60"/>
+        <v>R-WH_Det_WOO_N1</v>
       </c>
       <c r="AK128" s="153" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v xml:space="preserve">Residential Biomass Water Heater </v>
       </c>
       <c r="AL128" s="154" t="s">
         <v>16</v>
       </c>
       <c r="AM128" s="154" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN128" s="154"/>
       <c r="AO128" s="154" t="s">
@@ -25842,18 +25842,18 @@
       </c>
     </row>
     <row r="129" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="70" t="str">
-        <f>"R-H_Det"&amp;"_"&amp;RIGHT(E129,6)&amp;"_N1"</f>
-        <v>R-H_Det_RSDHET_N1</v>
+      <c r="C129" s="66" t="str">
+        <f>"R-HW_Det"&amp;"_"&amp;RIGHT(E129,3)&amp;"_N1"</f>
+        <v>R-HW_Det_HET_N1</v>
       </c>
       <c r="D129" s="67" t="s">
         <v>380</v>
       </c>
       <c r="E129" s="137" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="F129" s="137" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="G129" s="342">
         <v>1</v>
@@ -25916,18 +25916,18 @@
       </c>
       <c r="AI129" s="163"/>
       <c r="AJ129" s="156" t="str">
-        <f t="shared" si="61"/>
-        <v>R-WH_Det_OILLPG_N1</v>
+        <f t="shared" si="60"/>
+        <v>R-WH_Det_LPG_N1</v>
       </c>
       <c r="AK129" s="156" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v xml:space="preserve">Residential Liquid Petroleum Gas Water Heater </v>
       </c>
       <c r="AL129" s="157" t="s">
         <v>16</v>
       </c>
       <c r="AM129" s="157" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN129" s="157"/>
       <c r="AO129" s="157" t="s">
@@ -25935,18 +25935,18 @@
       </c>
     </row>
     <row r="130" spans="1:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="C130" s="70" t="str">
-        <f>"R-H_Det"&amp;"_"&amp;RIGHT(E130,6)&amp;"_N2"</f>
-        <v>R-H_Det_RSDHET_N2</v>
+      <c r="C130" s="354" t="str">
+        <f>"R-HW_Det"&amp;"_"&amp;RIGHT(E130,3)&amp;"_N2"</f>
+        <v>R-HW_Det_HET_N2</v>
       </c>
       <c r="D130" s="73" t="s">
         <v>381</v>
       </c>
       <c r="E130" s="74" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="F130" s="74" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="G130" s="355">
         <v>1</v>
@@ -26010,7 +26010,7 @@
       <c r="AI130" s="4"/>
       <c r="AJ130" s="153" t="str">
         <f>C138</f>
-        <v>R-SC_Det_RSDELC_N1</v>
+        <v>R-SC_Det_ELC_N1</v>
       </c>
       <c r="AK130" s="153" t="str">
         <f>D138</f>
@@ -26020,7 +26020,7 @@
         <v>16</v>
       </c>
       <c r="AM130" s="152" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AN130" s="152"/>
       <c r="AO130" s="152" t="s">
@@ -26064,8 +26064,8 @@
     </row>
     <row r="132" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C132" s="76" t="str">
-        <f>"R-WH_Det"&amp;"_"&amp;RIGHT(E132,6)&amp;"_N1"</f>
-        <v>R-WH_Det_RSDELC_N1</v>
+        <f>"R-WH_Det"&amp;"_"&amp;RIGHT(E132,3)&amp;"_N1"</f>
+        <v>R-WH_Det_ELC_N1</v>
       </c>
       <c r="D132" s="67" t="s">
         <v>383</v>
@@ -26129,15 +26129,15 @@
       </c>
     </row>
     <row r="133" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="C133" s="76" t="str">
-        <f>"R-WH_Det"&amp;"_"&amp;RIGHT(E133,6)&amp;"_N1"</f>
-        <v>R-WH_Det_RENSOL_N1</v>
+      <c r="C133" s="70" t="str">
+        <f>"R-WH_Det"&amp;"_"&amp;RIGHT(E133,3)&amp;"_N1"</f>
+        <v>R-WH_Det_SOL_N1</v>
       </c>
       <c r="D133" s="70" t="s">
         <v>384</v>
       </c>
       <c r="E133" s="71" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="F133" s="70" t="s">
         <v>444</v>
@@ -26198,14 +26198,14 @@
     </row>
     <row r="134" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C134" s="76" t="str">
-        <f>"R-WH_Det"&amp;"_"&amp;RIGHT(E134,6)&amp;"_N1"</f>
-        <v>R-WH_Det_GASNAT_N1</v>
+        <f>"R-WH_Det"&amp;"_"&amp;RIGHT(E134,3)&amp;"_N1"</f>
+        <v>R-WH_Det_GAS_N1</v>
       </c>
       <c r="D134" s="76" t="s">
         <v>386</v>
       </c>
       <c r="E134" s="77" t="s">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="F134" s="76" t="s">
         <v>444</v>
@@ -26263,15 +26263,15 @@
       </c>
     </row>
     <row r="135" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="C135" s="76" t="str">
-        <f>"R-WH_Det"&amp;"_"&amp;RIGHT(E135,6)&amp;"_N1"</f>
-        <v>R-WH_Det_BIOWOO_N1</v>
+      <c r="C135" s="70" t="str">
+        <f>"R-WH_Det"&amp;"_"&amp;RIGHT(E135,3)&amp;"_N1"</f>
+        <v>R-WH_Det_WOO_N1</v>
       </c>
       <c r="D135" s="70" t="s">
         <v>385</v>
       </c>
       <c r="E135" s="71" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="F135" s="70" t="s">
         <v>444</v>
@@ -26330,14 +26330,14 @@
     </row>
     <row r="136" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C136" s="76" t="str">
-        <f>"R-WH_Det"&amp;"_"&amp;RIGHT(E136,6)&amp;"_N1"</f>
-        <v>R-WH_Det_OILLPG_N1</v>
+        <f>"R-WH_Det"&amp;"_"&amp;RIGHT(E136,3)&amp;"_N1"</f>
+        <v>R-WH_Det_LPG_N1</v>
       </c>
       <c r="D136" s="138" t="s">
         <v>387</v>
       </c>
       <c r="E136" s="170" t="s">
-        <v>452</v>
+        <v>796</v>
       </c>
       <c r="F136" s="138" t="s">
         <v>444</v>
@@ -26431,8 +26431,8 @@
     </row>
     <row r="138" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C138" s="76" t="str">
-        <f>"R-SC_Det"&amp;"_"&amp;RIGHT(E138,6)&amp;"_N1"</f>
-        <v>R-SC_Det_RSDELC_N1</v>
+        <f>"R-SC_Det"&amp;"_"&amp;RIGHT(E138,3)&amp;"_N1"</f>
+        <v>R-SC_Det_ELC_N1</v>
       </c>
       <c r="D138" s="145" t="s">
         <v>389</v>
@@ -26612,7 +26612,7 @@
         <v>325</v>
       </c>
       <c r="B148" s="153" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="C148" s="153" t="s">
         <v>391</v>
@@ -26630,7 +26630,7 @@
     <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="153" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="C149" s="153" t="s">
         <v>392</v>
@@ -26649,7 +26649,7 @@
     <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="153" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="C150" s="153" t="s">
         <v>393</v>
@@ -26668,7 +26668,7 @@
     <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="162"/>
       <c r="B151" s="153" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="C151" s="153" t="s">
         <v>394</v>
@@ -26687,7 +26687,7 @@
     <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="153" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="C152" s="153" t="s">
         <v>395</v>
@@ -26706,7 +26706,7 @@
     <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="153" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="C153" s="153" t="s">
         <v>396</v>
@@ -26725,26 +26725,6 @@
     <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="G100:J100"/>
-    <mergeCell ref="K100:N100"/>
-    <mergeCell ref="O100:R100"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="U100:X100"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="K98:N98"/>
-    <mergeCell ref="O98:R98"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="U98:X98"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:X51"/>
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="U6:X6"/>
     <mergeCell ref="G4:J4"/>
@@ -26755,6 +26735,26 @@
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="K98:N98"/>
+    <mergeCell ref="O98:R98"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="U98:X98"/>
+    <mergeCell ref="G100:J100"/>
+    <mergeCell ref="K100:N100"/>
+    <mergeCell ref="O100:R100"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="U100:X100"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26768,8 +26768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CED359C-4B42-41C8-A7E8-4F6FC9AE57D2}">
   <dimension ref="C2:W35"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C26"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26841,16 +26841,16 @@
         <v>447</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J4" s="64" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K4" s="64" t="s">
         <v>345</v>
       </c>
       <c r="L4" s="64" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="M4" s="64" t="s">
         <v>342</v>
@@ -26909,11 +26909,11 @@
       </c>
       <c r="S5" s="107"/>
       <c r="U5" s="107" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="V5" s="107"/>
       <c r="W5" s="107" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="3:23" x14ac:dyDescent="0.2">
@@ -26949,13 +26949,13 @@
         <v>350</v>
       </c>
       <c r="U6" s="108" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="V6" s="117" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="W6" s="108" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="7" spans="3:23" x14ac:dyDescent="0.2">
@@ -27086,7 +27086,7 @@
       <c r="C9" s="208"/>
       <c r="D9" s="197"/>
       <c r="E9" s="197" t="s">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="F9" s="209"/>
       <c r="G9" s="215">
@@ -27140,7 +27140,7 @@
       <c r="C10" s="206"/>
       <c r="D10" s="196"/>
       <c r="E10" s="196" t="s">
-        <v>452</v>
+        <v>796</v>
       </c>
       <c r="F10" s="207"/>
       <c r="G10" s="214">
@@ -27203,7 +27203,7 @@
         <v>448</v>
       </c>
       <c r="F11" s="209" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G11" s="215">
         <v>10</v>
@@ -27265,7 +27265,7 @@
         <v>448</v>
       </c>
       <c r="F12" s="207" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G12" s="214">
         <v>10</v>
@@ -27327,7 +27327,7 @@
         <v>448</v>
       </c>
       <c r="F13" s="209" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G13" s="215">
         <v>10</v>
@@ -27389,7 +27389,7 @@
         <v>448</v>
       </c>
       <c r="F14" s="207" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G14" s="214">
         <v>10</v>
@@ -27440,7 +27440,7 @@
         <v>448</v>
       </c>
       <c r="F15" s="212" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G15" s="216">
         <v>10</v>
@@ -27478,18 +27478,18 @@
         <v>2020</v>
       </c>
       <c r="T15" s="194" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="U15" s="287" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" spans="3:23" x14ac:dyDescent="0.2">
       <c r="T16" s="194" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.2">
@@ -27497,7 +27497,7 @@
         <v>38</v>
       </c>
       <c r="R18" s="392" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="S18" s="392"/>
     </row>
@@ -27534,21 +27534,21 @@
         <v>49</v>
       </c>
       <c r="D20" s="174" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="E20" s="174" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F20" s="174" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="174" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H20" s="174"/>
       <c r="I20" s="174"/>
       <c r="J20" s="175" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="R20" s="392"/>
       <c r="S20" s="392"/>
@@ -27558,21 +27558,21 @@
         <v>49</v>
       </c>
       <c r="D21" s="174" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="E21" s="174" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F21" s="174" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="174" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H21" s="174"/>
       <c r="I21" s="174"/>
       <c r="J21" s="175" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="R21" s="392"/>
       <c r="S21" s="392"/>
@@ -27582,21 +27582,21 @@
         <v>49</v>
       </c>
       <c r="D22" s="174" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="E22" s="174" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F22" s="174" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="174" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H22" s="174"/>
       <c r="I22" s="174"/>
       <c r="J22" s="175" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="R22" s="392"/>
       <c r="S22" s="392"/>
@@ -27606,21 +27606,21 @@
         <v>49</v>
       </c>
       <c r="D23" s="174" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="E23" s="174" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F23" s="174" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="174" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H23" s="174"/>
       <c r="I23" s="174"/>
       <c r="J23" s="175" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.2">
@@ -27628,21 +27628,21 @@
         <v>49</v>
       </c>
       <c r="D24" s="174" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="E24" s="174" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F24" s="174" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="174" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H24" s="174"/>
       <c r="I24" s="174"/>
       <c r="J24" s="175" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.2">
@@ -27650,21 +27650,21 @@
         <v>49</v>
       </c>
       <c r="D25" s="174" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="E25" s="174" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F25" s="174" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="174" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H25" s="174"/>
       <c r="I25" s="174"/>
       <c r="J25" s="175" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.2">
@@ -27672,21 +27672,21 @@
         <v>49</v>
       </c>
       <c r="D26" s="176" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="E26" s="176" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F26" s="176" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="176" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H26" s="176"/>
       <c r="I26" s="176"/>
       <c r="J26" s="177" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27758,16 +27758,16 @@
         <v>447</v>
       </c>
       <c r="I3" s="64" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J3" s="64" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K3" s="64" t="s">
         <v>345</v>
       </c>
       <c r="L3" s="64" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="M3" s="64" t="s">
         <v>342</v>
@@ -27910,10 +27910,10 @@
         <v>2020</v>
       </c>
       <c r="U6" s="194" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="W6" s="290" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7" spans="3:23" x14ac:dyDescent="0.2">
@@ -27967,7 +27967,7 @@
         <v>2020</v>
       </c>
       <c r="U7" s="287" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="8" spans="3:23" x14ac:dyDescent="0.2">
@@ -28021,7 +28021,7 @@
         <v>2020</v>
       </c>
       <c r="U8" s="194" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="9" spans="3:23" x14ac:dyDescent="0.2">
@@ -28210,10 +28210,10 @@
         <v>49</v>
       </c>
       <c r="D16" s="194" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>16</v>
@@ -28229,10 +28229,10 @@
         <v>49</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>16</v>
@@ -28248,10 +28248,10 @@
         <v>49</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>16</v>
@@ -28267,10 +28267,10 @@
         <v>49</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>16</v>
@@ -28288,10 +28288,10 @@
         <v>49</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>16</v>
@@ -28309,10 +28309,10 @@
         <v>49</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>16</v>
@@ -30767,49 +30767,49 @@
         <v>98</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>772</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>773</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>774</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>775</v>
       </c>
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
       <c r="U1" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="X1" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>778</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>780</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>781</v>
       </c>
       <c r="AA1" s="11"/>
       <c r="AB1" s="9" t="s">

--- a/SubRES_TMPL/SubRes_RSD.xlsx
+++ b/SubRES_TMPL/SubRes_RSD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC8C483-25D5-4F33-9526-EFFFF1D6CB6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DBB256-029D-4C2A-82C3-4CAAA7730958}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
+    <workbookView xWindow="690" yWindow="2715" windowWidth="14400" windowHeight="6795" firstSheet="4" activeTab="6" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -98,78 +98,6 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{E178D96D-2199-4142-A136-D18CCE9B3BCA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alessandro Chiodi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Wrong calculation of these indexes!t! The index shall be estimated relatively to BY technology. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U6" authorId="0" shapeId="0" xr:uid="{A9205C3D-A502-4275-86B1-F52A4D2678E1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alessandro Chiodi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Wrong unit! The chosen capacity unit is 'kunit', not kW!</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y6" authorId="0" shapeId="0" xr:uid="{5300CA7A-0ADE-4AC0-96EE-0CDBAA0A3AEB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alessandro Chiodi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Wrong unit! The chosen capacity unit is 'kunit', not kW!</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="AF7" authorId="0" shapeId="0" xr:uid="{374DB055-F5C1-43ED-915B-ECEEEDC762B6}">
       <text>
         <r>
@@ -801,54 +729,6 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{C72F7DCB-450D-4644-9E13-D78EAD7F6744}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alessandro Chiodi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Wrong unit! The chosen capacity unit is 'kunit', not kW!</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P6" authorId="0" shapeId="0" xr:uid="{AFD45750-5F08-4529-8BDC-469C169AEBB5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Alessandro Chiodi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Wrong unit! The chosen capacity unit is 'kunit', not kW!</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="L7" authorId="0" shapeId="0" xr:uid="{26227E42-266E-4D7E-9CCC-4136610DED2C}">
       <text>
         <r>
@@ -883,30 +763,6 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{78EAD3C8-7AFC-4116-9BB3-83D0685AE9BF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-These efficiencies are completely different (lower) than the ones assumed for the BY (1). Are you assuming here higher efficiency?</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="Q7" authorId="0" shapeId="0" xr:uid="{144293F5-CA78-47DF-9990-9E4B53D88CB1}">
       <text>
         <r>
@@ -1234,7 +1090,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="815">
   <si>
     <t>Document type:</t>
   </si>
@@ -3297,6 +3153,18 @@
     <t>CEFF~RSDSH_Apt~2050</t>
   </si>
   <si>
+    <t>CEFF~RSDSC_Apt</t>
+  </si>
+  <si>
+    <t>CEFF~RSDSC_Apt~2030</t>
+  </si>
+  <si>
+    <t>CEFF~RSDSC_Apt~2040</t>
+  </si>
+  <si>
+    <t>CEFF~RSDSC_Apt~2050</t>
+  </si>
+  <si>
     <t>CEFF~RSDWH_Apt</t>
   </si>
   <si>
@@ -3321,6 +3189,18 @@
     <t>CEFF~RSDSH_Att~2050</t>
   </si>
   <si>
+    <t>CEFF~RSDSC_Att</t>
+  </si>
+  <si>
+    <t>CEFF~RSDSC_Att~2030</t>
+  </si>
+  <si>
+    <t>CEFF~RSDSC_Att~2040</t>
+  </si>
+  <si>
+    <t>CEFF~RSDSC_Att~2050</t>
+  </si>
+  <si>
     <t>CEFF~RSDWH_Att</t>
   </si>
   <si>
@@ -3345,6 +3225,18 @@
     <t>CEFF~RSDSH_Det~2050</t>
   </si>
   <si>
+    <t>CEFF~RSDSC_Det</t>
+  </si>
+  <si>
+    <t>CEFF~RSDSC_Det~2030</t>
+  </si>
+  <si>
+    <t>CEFF~RSDSC_Det~2040</t>
+  </si>
+  <si>
+    <t>CEFF~RSDSC_Det~2050</t>
+  </si>
+  <si>
     <t>CEFF~RSDWH_Det</t>
   </si>
   <si>
@@ -3480,6 +3372,9 @@
     <t>SpaceCooling</t>
   </si>
   <si>
+    <t>*R-H_Apt_HVO_N1</t>
+  </si>
+  <si>
     <t>Residential  Hydrotreated vegetable oil - New 1 SH</t>
   </si>
   <si>
@@ -3576,6 +3471,9 @@
     <t>RSDBDL</t>
   </si>
   <si>
+    <t>RSDELC,RSDSOL</t>
+  </si>
+  <si>
     <t>RSDELC,RSDGAS</t>
   </si>
   <si>
@@ -3633,85 +3531,31 @@
     <t>Share-I~UP~RSDGAS</t>
   </si>
   <si>
-    <t>*R-SH_Apt_HVO_N1</t>
-  </si>
-  <si>
-    <t>RSDSOL,RSDELC</t>
-  </si>
-  <si>
-    <t>RSDGAS,RSDELC</t>
-  </si>
-  <si>
-    <t>RSDAC_Apt</t>
-  </si>
-  <si>
-    <t>RSDAC_Det</t>
-  </si>
-  <si>
-    <t>RSDAC_Att</t>
-  </si>
-  <si>
-    <t>CEFF~RSDAC_Apt</t>
-  </si>
-  <si>
-    <t>CEFF~RSDAC_Apt~2030</t>
-  </si>
-  <si>
-    <t>CEFF~RSDAC_Apt~2040</t>
-  </si>
-  <si>
-    <t>CEFF~RSDAC_Apt~2050</t>
-  </si>
-  <si>
-    <t>CEFF~RSDAC_Att</t>
-  </si>
-  <si>
-    <t>CEFF~RSDAC_Att~2030</t>
-  </si>
-  <si>
-    <t>CEFF~RSDAC_Att~2040</t>
-  </si>
-  <si>
-    <t>CEFF~RSDAC_Att~2050</t>
-  </si>
-  <si>
-    <t>CEFF~RSDAC_Det</t>
-  </si>
-  <si>
-    <t>CEFF~RSDAC_Det~2030</t>
-  </si>
-  <si>
-    <t>CEFF~RSDAC_Det~2040</t>
-  </si>
-  <si>
-    <t>CEFF~RSDAC_Det~2050</t>
-  </si>
-  <si>
-    <t>R-RF_N1</t>
-  </si>
-  <si>
-    <t>R-CK_N1</t>
-  </si>
-  <si>
-    <t>R-CD_N1</t>
-  </si>
-  <si>
-    <t>R-DW_N1</t>
-  </si>
-  <si>
-    <t>R-OE_N1</t>
-  </si>
-  <si>
-    <t>R-OA_N1</t>
-  </si>
-  <si>
-    <t>R-CW_N1</t>
-  </si>
-  <si>
-    <t>kunit to PJ</t>
-  </si>
-  <si>
-    <t>kunits to PJ</t>
+    <t>kUnit to PJ</t>
+  </si>
+  <si>
+    <t>PJa to PJ</t>
+  </si>
+  <si>
+    <t>R-RSDRF_N1</t>
+  </si>
+  <si>
+    <t>R-RSDCK_N1</t>
+  </si>
+  <si>
+    <t>R-RSDCW_N1</t>
+  </si>
+  <si>
+    <t>R-RSDCD_N1</t>
+  </si>
+  <si>
+    <t>R-RSDDW_N1</t>
+  </si>
+  <si>
+    <t>R-RSDOE_N1</t>
+  </si>
+  <si>
+    <t>R-RSDOA_N1</t>
   </si>
 </sst>
 </file>
@@ -3729,7 +3573,7 @@
     <numFmt numFmtId="170" formatCode="0.00000"/>
     <numFmt numFmtId="171" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4085,19 +3929,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="32">
@@ -5087,7 +4918,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="397">
+  <cellXfs count="393">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5734,10 +5565,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="16" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7419,14 +7246,14 @@
       <c r="F16" s="217"/>
     </row>
     <row r="17" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="371" t="s">
+      <c r="A17" s="367" t="s">
         <v>474</v>
       </c>
-      <c r="B17" s="371"/>
-      <c r="C17" s="371"/>
-      <c r="D17" s="371"/>
-      <c r="E17" s="371"/>
-      <c r="F17" s="371"/>
+      <c r="B17" s="367"/>
+      <c r="C17" s="367"/>
+      <c r="D17" s="367"/>
+      <c r="E17" s="367"/>
+      <c r="F17" s="367"/>
       <c r="G17" s="219"/>
       <c r="H17" s="219"/>
       <c r="I17" s="220"/>
@@ -7464,13 +7291,13 @@
       <c r="A20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="372" t="s">
+      <c r="B20" s="368" t="s">
         <v>476</v>
       </c>
-      <c r="C20" s="372"/>
-      <c r="D20" s="372"/>
-      <c r="E20" s="372"/>
-      <c r="F20" s="372"/>
+      <c r="C20" s="368"/>
+      <c r="D20" s="368"/>
+      <c r="E20" s="368"/>
+      <c r="F20" s="368"/>
       <c r="G20" s="224"/>
       <c r="H20" s="224"/>
       <c r="I20" s="225"/>
@@ -7484,13 +7311,13 @@
       <c r="A21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="373" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="373"/>
-      <c r="D21" s="373"/>
-      <c r="E21" s="373"/>
-      <c r="F21" s="373"/>
+      <c r="B21" s="369" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="369"/>
+      <c r="D21" s="369"/>
+      <c r="E21" s="369"/>
+      <c r="F21" s="369"/>
       <c r="G21" s="224"/>
       <c r="H21" s="224"/>
       <c r="I21" s="225"/>
@@ -7504,13 +7331,13 @@
       <c r="A22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="373" t="s">
+      <c r="B22" s="369" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="373"/>
-      <c r="D22" s="373"/>
-      <c r="E22" s="373"/>
-      <c r="F22" s="373"/>
+      <c r="C22" s="369"/>
+      <c r="D22" s="369"/>
+      <c r="E22" s="369"/>
+      <c r="F22" s="369"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
@@ -7539,22 +7366,22 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="374"/>
-      <c r="B25" s="374"/>
-      <c r="C25" s="374"/>
-      <c r="D25" s="374"/>
-      <c r="E25" s="374"/>
-      <c r="F25" s="374"/>
+      <c r="A25" s="370"/>
+      <c r="B25" s="370"/>
+      <c r="C25" s="370"/>
+      <c r="D25" s="370"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="370"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="370"/>
-      <c r="B26" s="370"/>
-      <c r="C26" s="370"/>
-      <c r="D26" s="370"/>
-      <c r="E26" s="370"/>
-      <c r="F26" s="370"/>
+      <c r="A26" s="366"/>
+      <c r="B26" s="366"/>
+      <c r="C26" s="366"/>
+      <c r="D26" s="366"/>
+      <c r="E26" s="366"/>
+      <c r="F26" s="366"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="217"/>
@@ -7741,16 +7568,16 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="375" t="s">
+      <c r="B2" s="371" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="376"/>
-      <c r="D2" s="376"/>
-      <c r="E2" s="377"/>
-      <c r="G2" s="375" t="s">
+      <c r="C2" s="372"/>
+      <c r="D2" s="372"/>
+      <c r="E2" s="373"/>
+      <c r="G2" s="371" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="377"/>
+      <c r="H2" s="373"/>
       <c r="I2" s="228"/>
       <c r="J2" s="228"/>
       <c r="K2" s="229"/>
@@ -8092,16 +7919,16 @@
     </row>
     <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="378" t="s">
+      <c r="B20" s="374" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="379"/>
-      <c r="D20" s="379"/>
-      <c r="E20" s="380"/>
-      <c r="G20" s="375" t="s">
+      <c r="C20" s="375"/>
+      <c r="D20" s="375"/>
+      <c r="E20" s="376"/>
+      <c r="G20" s="371" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="377"/>
+      <c r="H20" s="373"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="256" t="s">
@@ -8345,16 +8172,16 @@
     </row>
     <row r="37" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="375" t="s">
+      <c r="B38" s="371" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="376"/>
-      <c r="D38" s="376"/>
-      <c r="E38" s="377"/>
-      <c r="G38" s="381" t="s">
+      <c r="C38" s="372"/>
+      <c r="D38" s="372"/>
+      <c r="E38" s="373"/>
+      <c r="G38" s="377" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="382"/>
+      <c r="H38" s="378"/>
     </row>
     <row r="39" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="277" t="s">
@@ -8508,7 +8335,7 @@
         <v>44</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="I3" s="64" t="s">
         <v>342</v>
@@ -8523,7 +8350,7 @@
         <v>92</v>
       </c>
       <c r="M3" s="64" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="N3" s="64" t="s">
         <v>332</v>
@@ -8531,13 +8358,13 @@
       <c r="Q3" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="W3" s="383" t="s">
-        <v>723</v>
-      </c>
-      <c r="X3" s="383"/>
-      <c r="Y3" s="383"/>
-      <c r="Z3" s="383"/>
-      <c r="AA3" s="383"/>
+      <c r="W3" s="379" t="s">
+        <v>735</v>
+      </c>
+      <c r="X3" s="379"/>
+      <c r="Y3" s="379"/>
+      <c r="Z3" s="379"/>
+      <c r="AA3" s="379"/>
     </row>
     <row r="4" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="63" t="s">
@@ -8555,12 +8382,12 @@
       <c r="G4" s="178" t="s">
         <v>339</v>
       </c>
-      <c r="H4" s="387" t="s">
+      <c r="H4" s="383" t="s">
         <v>340</v>
       </c>
-      <c r="I4" s="388"/>
-      <c r="J4" s="388"/>
-      <c r="K4" s="389"/>
+      <c r="I4" s="384"/>
+      <c r="J4" s="384"/>
+      <c r="K4" s="385"/>
       <c r="L4" s="107"/>
       <c r="M4" s="107"/>
       <c r="N4" s="107"/>
@@ -8568,19 +8395,19 @@
         <v>423</v>
       </c>
       <c r="W4" s="309" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="X4" s="310" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="Y4" s="310" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="Z4" s="310" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="AA4" s="311" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
     </row>
     <row r="5" spans="3:27" ht="25.5" x14ac:dyDescent="0.2">
@@ -8593,17 +8420,17 @@
       <c r="G5" s="84" t="s">
         <v>313</v>
       </c>
-      <c r="H5" s="390" t="s">
-        <v>701</v>
-      </c>
-      <c r="I5" s="391"/>
-      <c r="J5" s="391"/>
-      <c r="K5" s="392"/>
+      <c r="H5" s="386" t="s">
+        <v>713</v>
+      </c>
+      <c r="I5" s="387"/>
+      <c r="J5" s="387"/>
+      <c r="K5" s="388"/>
       <c r="L5" s="108" t="s">
         <v>472</v>
       </c>
       <c r="M5" s="108" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="N5" s="108" t="s">
         <v>349</v>
@@ -8612,7 +8439,7 @@
         <v>422</v>
       </c>
       <c r="W5" s="312" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="X5" s="313">
         <v>9418.8988568067343</v>
@@ -8668,7 +8495,7 @@
         <v>2020</v>
       </c>
       <c r="W6" s="315" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="X6" s="316">
         <v>7459.2913438514906</v>
@@ -8702,7 +8529,7 @@
       </c>
       <c r="N7" s="104"/>
       <c r="W7" s="318" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="X7" s="319">
         <v>14041.847426430093</v>
@@ -8736,7 +8563,7 @@
       </c>
       <c r="N8" s="105"/>
       <c r="W8" s="315" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="X8" s="316">
         <v>19924.480375055824</v>
@@ -8770,7 +8597,7 @@
       </c>
       <c r="N9" s="104"/>
       <c r="W9" s="318" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="X9" s="319">
         <v>58904.8034364337</v>
@@ -8804,7 +8631,7 @@
       </c>
       <c r="N10" s="143"/>
       <c r="W10" s="315" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="X10" s="316">
         <v>43739.341649106158</v>
@@ -8829,19 +8656,19 @@
       <c r="G11" s="84" t="s">
         <v>313</v>
       </c>
-      <c r="H11" s="384" t="s">
-        <v>701</v>
-      </c>
-      <c r="I11" s="385"/>
-      <c r="J11" s="385"/>
-      <c r="K11" s="386"/>
+      <c r="H11" s="380" t="s">
+        <v>713</v>
+      </c>
+      <c r="I11" s="381"/>
+      <c r="J11" s="381"/>
+      <c r="K11" s="382"/>
       <c r="L11" s="202"/>
       <c r="M11" s="202"/>
       <c r="N11" s="108" t="s">
         <v>349</v>
       </c>
       <c r="W11" s="318" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="X11" s="319">
         <v>25767.876472761334</v>
@@ -8897,7 +8724,7 @@
         <v>2020</v>
       </c>
       <c r="W12" s="315" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="X12" s="316">
         <v>12331.173226884033</v>
@@ -8931,7 +8758,7 @@
       </c>
       <c r="N13" s="104"/>
       <c r="W13" s="321" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="X13" s="322">
         <v>15211.172212670604</v>
@@ -8965,7 +8792,7 @@
       </c>
       <c r="N14" s="105"/>
       <c r="W14" s="323" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="X14" s="324">
         <v>206798.88499999998</v>
@@ -8999,7 +8826,7 @@
       </c>
       <c r="N15" s="104"/>
       <c r="W15" s="327" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="X15" s="326">
         <v>0.74286208971025169</v>
@@ -9040,12 +8867,12 @@
       <c r="G17" s="84" t="s">
         <v>313</v>
       </c>
-      <c r="H17" s="384" t="s">
-        <v>701</v>
-      </c>
-      <c r="I17" s="385"/>
-      <c r="J17" s="385"/>
-      <c r="K17" s="386"/>
+      <c r="H17" s="380" t="s">
+        <v>713</v>
+      </c>
+      <c r="I17" s="381"/>
+      <c r="J17" s="381"/>
+      <c r="K17" s="382"/>
       <c r="L17" s="202"/>
       <c r="M17" s="202"/>
       <c r="N17" s="108" t="s">
@@ -9131,49 +8958,49 @@
       </c>
       <c r="N20" s="105"/>
       <c r="W20" s="5" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="AF20" s="5" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="AH20" s="329" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="AI20" s="330" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="AJ20" s="330" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="AK20" s="5" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="AL20" s="328" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
     </row>
     <row r="21" spans="2:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9195,40 +9022,40 @@
       </c>
       <c r="N21" s="104"/>
       <c r="V21" s="5" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="AB21" s="194" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="AC21" s="194" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="AH21" s="328" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
     </row>
     <row r="22" spans="2:38" ht="15" x14ac:dyDescent="0.2">
@@ -9250,7 +9077,7 @@
       </c>
       <c r="N22" s="143"/>
       <c r="V22" s="5" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="W22" s="185">
         <v>6419</v>
@@ -9307,7 +9134,7 @@
     </row>
     <row r="23" spans="2:38" ht="15" x14ac:dyDescent="0.2">
       <c r="V23" s="5" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="W23" s="185">
         <v>3209</v>
@@ -9361,7 +9188,7 @@
     </row>
     <row r="24" spans="2:38" ht="15" x14ac:dyDescent="0.2">
       <c r="V24" s="5" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="W24" s="185">
         <v>8665</v>
@@ -9425,7 +9252,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="57"/>
       <c r="V25" s="5" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="W25" s="185">
         <v>13570</v>
@@ -9500,7 +9327,7 @@
         <v>312</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="W26" s="185">
         <v>45566</v>
@@ -9575,7 +9402,7 @@
         <v>319</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="W27" s="185">
         <v>30979</v>
@@ -9629,7 +9456,7 @@
     </row>
     <row r="28" spans="2:38" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="173" t="s">
-        <v>776</v>
+        <v>790</v>
       </c>
       <c r="C28" s="174" t="s">
         <v>397</v>
@@ -9646,7 +9473,7 @@
       <c r="G28" s="174"/>
       <c r="H28" s="175"/>
       <c r="V28" s="5" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="W28" s="185">
         <v>15595</v>
@@ -9700,7 +9527,7 @@
     </row>
     <row r="29" spans="2:38" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="173" t="s">
-        <v>776</v>
+        <v>790</v>
       </c>
       <c r="C29" s="174" t="s">
         <v>398</v>
@@ -9717,7 +9544,7 @@
       <c r="G29" s="174"/>
       <c r="H29" s="175"/>
       <c r="V29" s="5" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="W29" s="185">
         <v>5191</v>
@@ -9771,7 +9598,7 @@
     </row>
     <row r="30" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="173" t="s">
-        <v>776</v>
+        <v>790</v>
       </c>
       <c r="C30" s="176" t="s">
         <v>399</v>
@@ -9788,7 +9615,7 @@
       <c r="G30" s="176"/>
       <c r="H30" s="177"/>
       <c r="V30" s="5" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="W30" s="185">
         <v>5603</v>
@@ -9888,49 +9715,49 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="W35" s="5" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="X35" s="5" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="Y35" s="5" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="Z35" s="5" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="AA35" s="5" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="AB35" s="5" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="AC35" s="5" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="AD35" s="5" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="AE35" s="5" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="AF35" s="5" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="AH35" s="329" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="AI35" s="330" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="AJ35" s="330" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="AK35" s="5" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="AL35" s="328" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
     </row>
     <row r="36" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9943,40 +9770,40 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="V36" s="5" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="X36" s="5" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="Y36" s="5" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="Z36" s="5" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="AA36" s="5" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="AB36" s="194" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="AC36" s="194" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="AD36" s="5" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="AE36" s="5" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="AF36" s="5" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="AH36" s="328" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="15" x14ac:dyDescent="0.2">
@@ -9989,7 +9816,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="V37" s="5" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="W37" s="185">
         <v>30917</v>
@@ -10051,7 +9878,7 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="V38" s="5" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="W38" s="185">
         <v>3722</v>
@@ -10113,7 +9940,7 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="V39" s="5" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="W39" s="185">
         <v>7882</v>
@@ -10175,7 +10002,7 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="V40" s="5" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="W40" s="185">
         <v>27081</v>
@@ -10238,7 +10065,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="V41" s="5" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="W41" s="185">
         <v>161926</v>
@@ -10301,7 +10128,7 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="V42" s="5" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="W42" s="185">
         <v>95372</v>
@@ -10364,7 +10191,7 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="V43" s="5" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="W43" s="185">
         <v>46130</v>
@@ -10427,7 +10254,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="V44" s="5" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="W44" s="185">
         <v>20720</v>
@@ -10493,7 +10320,7 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="V45" s="5" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="W45" s="185">
         <v>21208</v>
@@ -10617,49 +10444,49 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="W49" s="5" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="X49" s="5" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="Y49" s="5" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="Z49" s="5" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="AA49" s="5" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="AB49" s="5" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="AC49" s="5" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="AD49" s="5" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="AE49" s="5" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="AF49" s="5" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="AH49" s="329" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="AI49" s="330" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="AJ49" s="330" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="AK49" s="5" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="AL49" s="328" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
     </row>
     <row r="50" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10673,40 +10500,40 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="V50" s="5" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="W50" s="5" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="X50" s="5" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="Y50" s="5" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="Z50" s="5" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="AA50" s="5" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="AB50" s="194" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="AC50" s="194" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="AD50" s="5" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="AE50" s="5" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="AF50" s="5" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="AH50" s="328" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
     </row>
     <row r="51" spans="1:38" ht="15" x14ac:dyDescent="0.2">
@@ -10720,7 +10547,7 @@
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="V51" s="5" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="W51" s="185">
         <v>9878</v>
@@ -10783,7 +10610,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="V52" s="5" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="W52" s="185">
         <v>3037</v>
@@ -10846,7 +10673,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="V53" s="5" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="W53" s="185">
         <v>7052</v>
@@ -10909,7 +10736,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="V54" s="5" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="W54" s="185">
         <v>20170</v>
@@ -10972,7 +10799,7 @@
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="V55" s="5" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="W55" s="185">
         <v>97809</v>
@@ -11035,7 +10862,7 @@
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
       <c r="V56" s="5" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="W56" s="185">
         <v>61656</v>
@@ -11098,7 +10925,7 @@
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
       <c r="V57" s="5" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="W57" s="185">
         <v>27666</v>
@@ -11161,7 +10988,7 @@
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="V58" s="5" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="W58" s="185">
         <v>13787</v>
@@ -11224,7 +11051,7 @@
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="V59" s="5" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="W59" s="185">
         <v>24436</v>
@@ -11559,7 +11386,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C3" s="229" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
@@ -16371,8 +16198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F8057-C735-4662-BAA6-EEDCF7B57273}">
   <dimension ref="A2:AO170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16439,28 +16266,28 @@
         <v>679</v>
       </c>
       <c r="K3" s="64" t="s">
-        <v>798</v>
+        <v>680</v>
       </c>
       <c r="L3" s="64" t="s">
-        <v>799</v>
+        <v>681</v>
       </c>
       <c r="M3" s="64" t="s">
-        <v>800</v>
+        <v>682</v>
       </c>
       <c r="N3" s="64" t="s">
-        <v>801</v>
+        <v>683</v>
       </c>
       <c r="O3" s="64" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="P3" s="64" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="Q3" s="64" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="R3" s="64" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="S3" s="65" t="s">
         <v>44</v>
@@ -16469,7 +16296,7 @@
         <v>330</v>
       </c>
       <c r="U3" s="64" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="V3" s="64" t="s">
         <v>342</v>
@@ -16487,22 +16314,22 @@
         <v>93</v>
       </c>
       <c r="AA3" s="64" t="s">
-        <v>789</v>
+        <v>803</v>
       </c>
       <c r="AB3" s="64" t="s">
-        <v>790</v>
+        <v>804</v>
       </c>
       <c r="AC3" s="64" t="s">
-        <v>791</v>
+        <v>805</v>
       </c>
       <c r="AD3" s="64" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="AE3" s="64" t="s">
         <v>331</v>
       </c>
       <c r="AF3" s="64" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
       <c r="AG3" s="64" t="s">
         <v>332</v>
@@ -16510,7 +16337,7 @@
     </row>
     <row r="4" spans="3:41" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C4" s="63" t="s">
-        <v>786</v>
+        <v>800</v>
       </c>
       <c r="D4" s="63" t="s">
         <v>53</v>
@@ -16521,34 +16348,34 @@
       <c r="F4" s="63" t="s">
         <v>335</v>
       </c>
-      <c r="G4" s="393" t="s">
-        <v>763</v>
-      </c>
-      <c r="H4" s="394"/>
-      <c r="I4" s="394"/>
-      <c r="J4" s="395"/>
-      <c r="K4" s="393" t="s">
+      <c r="G4" s="389" t="s">
+        <v>776</v>
+      </c>
+      <c r="H4" s="390"/>
+      <c r="I4" s="390"/>
+      <c r="J4" s="391"/>
+      <c r="K4" s="389" t="s">
         <v>337</v>
       </c>
-      <c r="L4" s="394"/>
-      <c r="M4" s="394"/>
-      <c r="N4" s="395"/>
-      <c r="O4" s="393" t="s">
+      <c r="L4" s="390"/>
+      <c r="M4" s="390"/>
+      <c r="N4" s="391"/>
+      <c r="O4" s="389" t="s">
         <v>338</v>
       </c>
-      <c r="P4" s="394"/>
-      <c r="Q4" s="394"/>
-      <c r="R4" s="395"/>
-      <c r="S4" s="393" t="s">
+      <c r="P4" s="390"/>
+      <c r="Q4" s="390"/>
+      <c r="R4" s="391"/>
+      <c r="S4" s="389" t="s">
         <v>339</v>
       </c>
-      <c r="T4" s="395"/>
-      <c r="U4" s="387" t="s">
+      <c r="T4" s="391"/>
+      <c r="U4" s="383" t="s">
         <v>340</v>
       </c>
-      <c r="V4" s="388"/>
-      <c r="W4" s="388"/>
-      <c r="X4" s="389"/>
+      <c r="V4" s="384"/>
+      <c r="W4" s="384"/>
+      <c r="X4" s="385"/>
       <c r="Y4" s="107"/>
       <c r="Z4" s="107"/>
       <c r="AA4" s="115" t="s">
@@ -16561,7 +16388,7 @@
         <v>661</v>
       </c>
       <c r="AD4" s="118" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="AE4" s="107" t="s">
         <v>127</v>
@@ -16582,7 +16409,7 @@
     </row>
     <row r="5" spans="3:41" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="61" t="s">
-        <v>785</v>
+        <v>799</v>
       </c>
       <c r="D5" s="61"/>
       <c r="E5" s="61"/>
@@ -16638,39 +16465,39 @@
     </row>
     <row r="6" spans="3:41" ht="33.75" x14ac:dyDescent="0.2">
       <c r="C6" s="84" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="D6" s="85"/>
       <c r="E6" s="85"/>
       <c r="F6" s="86"/>
-      <c r="G6" s="390" t="s">
+      <c r="G6" s="386" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="391"/>
-      <c r="I6" s="391"/>
-      <c r="J6" s="392"/>
-      <c r="K6" s="391" t="s">
+      <c r="H6" s="387"/>
+      <c r="I6" s="387"/>
+      <c r="J6" s="388"/>
+      <c r="K6" s="387" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="391"/>
-      <c r="M6" s="391"/>
-      <c r="N6" s="392"/>
-      <c r="O6" s="390" t="s">
+      <c r="L6" s="387"/>
+      <c r="M6" s="387"/>
+      <c r="N6" s="388"/>
+      <c r="O6" s="386" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="391"/>
-      <c r="Q6" s="391"/>
-      <c r="R6" s="392"/>
-      <c r="S6" s="390" t="s">
+      <c r="P6" s="387"/>
+      <c r="Q6" s="387"/>
+      <c r="R6" s="388"/>
+      <c r="S6" s="386" t="s">
         <v>313</v>
       </c>
-      <c r="T6" s="392"/>
-      <c r="U6" s="390" t="s">
+      <c r="T6" s="388"/>
+      <c r="U6" s="386" t="s">
         <v>346</v>
       </c>
-      <c r="V6" s="391"/>
-      <c r="W6" s="391"/>
-      <c r="X6" s="392"/>
+      <c r="V6" s="387"/>
+      <c r="W6" s="387"/>
+      <c r="X6" s="388"/>
       <c r="Y6" s="108" t="s">
         <v>347</v>
       </c>
@@ -16688,7 +16515,7 @@
       </c>
       <c r="AD6" s="108"/>
       <c r="AE6" s="117" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="AF6" s="108" t="s">
         <v>56</v>
@@ -16727,7 +16554,7 @@
         <v>351</v>
       </c>
       <c r="E7" s="137" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="F7" s="103" t="s">
         <v>403</v>
@@ -16814,10 +16641,10 @@
         <v>352</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="F8" s="104" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="G8" s="339">
         <v>1</v>
@@ -16911,10 +16738,10 @@
         <v>353</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="F9" s="105" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="G9" s="336">
         <v>1</v>
@@ -17012,10 +16839,10 @@
         <v>357</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="F10" s="104" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="G10" s="339">
         <v>1</v>
@@ -17111,7 +16938,7 @@
         <v>350</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="F11" s="105" t="s">
         <v>403</v>
@@ -17196,10 +17023,10 @@
         <v>354</v>
       </c>
       <c r="E12" s="71" t="s">
+        <v>782</v>
+      </c>
+      <c r="F12" s="104" t="s">
         <v>769</v>
-      </c>
-      <c r="F12" s="104" t="s">
-        <v>756</v>
       </c>
       <c r="G12" s="339">
         <v>1</v>
@@ -17293,10 +17120,10 @@
         <v>355</v>
       </c>
       <c r="E13" s="77" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
       <c r="F13" s="105" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="G13" s="336">
         <v>1</v>
@@ -17394,10 +17221,10 @@
         <v>356</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
       <c r="F14" s="104" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="G14" s="339">
         <v>1</v>
@@ -17495,7 +17322,7 @@
         <v>358</v>
       </c>
       <c r="E15" s="77" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="F15" s="105" t="s">
         <v>403</v>
@@ -17580,10 +17407,10 @@
         <v>359</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="F16" s="104" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="G16" s="339">
         <v>1</v>
@@ -17677,7 +17504,7 @@
         <v>360</v>
       </c>
       <c r="E17" s="77" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="F17" s="105" t="s">
         <v>403</v>
@@ -17762,10 +17589,10 @@
         <v>361</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="F18" s="104" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="G18" s="339">
         <v>1</v>
@@ -17852,13 +17679,13 @@
     </row>
     <row r="19" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="335" t="s">
-        <v>792</v>
+        <v>753</v>
       </c>
       <c r="D19" s="350" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="E19" s="170" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="F19" s="143"/>
       <c r="G19" s="345">
@@ -17942,7 +17769,7 @@
     </row>
     <row r="20" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C20" s="80" t="s">
-        <v>778</v>
+        <v>792</v>
       </c>
       <c r="D20" s="80"/>
       <c r="E20" s="81"/>
@@ -18062,7 +17889,7 @@
       <c r="AI21" s="154"/>
       <c r="AJ21" s="153" t="str">
         <f t="shared" si="12"/>
-        <v>R-SC_Apt_ELC_HPN1</v>
+        <v>R-HC_Apt_ELC_HPN1</v>
       </c>
       <c r="AK21" s="153" t="str">
         <f t="shared" si="12"/>
@@ -18081,7 +17908,7 @@
     </row>
     <row r="22" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C22" s="80" t="s">
-        <v>779</v>
+        <v>793</v>
       </c>
       <c r="D22" s="80"/>
       <c r="E22" s="81"/>
@@ -18220,8 +18047,8 @@
     </row>
     <row r="24" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C24" s="69" t="str">
-        <f>"R-SC_Apt"&amp;"_"&amp;RIGHT(E24,3)&amp;"_HPN1"</f>
-        <v>R-SC_Apt_ELC_HPN1</v>
+        <f>"R-HC_Apt"&amp;"_"&amp;RIGHT(E24,3)&amp;"_HPN1"</f>
+        <v>R-HC_Apt_ELC_HPN1</v>
       </c>
       <c r="D24" s="70" t="s">
         <v>365</v>
@@ -18230,7 +18057,7 @@
         <v>441</v>
       </c>
       <c r="F24" s="104" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="G24" s="339">
         <v>1</v>
@@ -18294,7 +18121,7 @@
       <c r="AI24" s="304"/>
       <c r="AJ24" s="153" t="str">
         <f t="shared" si="12"/>
-        <v>R-SW_Apt_ELC_HPN2</v>
+        <v>R-SW_Apt_SOL_HPN2</v>
       </c>
       <c r="AK24" s="153" t="str">
         <f t="shared" si="12"/>
@@ -18408,7 +18235,7 @@
         <v>441</v>
       </c>
       <c r="F26" s="104" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="G26" s="339">
         <v>1</v>
@@ -18496,16 +18323,16 @@
     <row r="27" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C27" s="87" t="str">
         <f>"R-SW_Apt"&amp;"_"&amp;RIGHT(E27,3)&amp;"_HPN2"</f>
-        <v>R-SW_Apt_ELC_HPN2</v>
+        <v>R-SW_Apt_SOL_HPN2</v>
       </c>
       <c r="D27" s="76" t="s">
         <v>368</v>
       </c>
       <c r="E27" s="77" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F27" s="105" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="G27" s="336">
         <v>1</v>
@@ -18691,7 +18518,7 @@
         <v>441</v>
       </c>
       <c r="F29" s="143" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="G29" s="345">
         <v>1</v>
@@ -18755,7 +18582,7 @@
       <c r="AI29" s="306"/>
       <c r="AJ29" s="159" t="str">
         <f>C34</f>
-        <v>R-SW_Apt_ELC_HHPN1</v>
+        <v>R-SW_Apt_GAS_HHPN1</v>
       </c>
       <c r="AK29" s="159" t="str">
         <f>D34</f>
@@ -18774,7 +18601,7 @@
     </row>
     <row r="30" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C30" s="80" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="D30" s="80"/>
       <c r="E30" s="81"/>
@@ -18835,10 +18662,10 @@
         <v>372</v>
       </c>
       <c r="E31" s="137" t="s">
+        <v>782</v>
+      </c>
+      <c r="F31" s="137" t="s">
         <v>769</v>
-      </c>
-      <c r="F31" s="137" t="s">
-        <v>756</v>
       </c>
       <c r="G31" s="342">
         <v>1</v>
@@ -18906,7 +18733,7 @@
       <c r="AI31" s="163"/>
       <c r="AJ31" s="156" t="str">
         <f>C37</f>
-        <v>*R-SW_Apt_HET_N2</v>
+        <v>R-SW_Apt_HET_N2</v>
       </c>
       <c r="AK31" s="156" t="str">
         <f>D37</f>
@@ -18932,10 +18759,10 @@
         <v>373</v>
       </c>
       <c r="E32" s="74" t="s">
+        <v>782</v>
+      </c>
+      <c r="F32" s="74" t="s">
         <v>769</v>
-      </c>
-      <c r="F32" s="74" t="s">
-        <v>756</v>
       </c>
       <c r="G32" s="355">
         <v>1</v>
@@ -19022,7 +18849,7 @@
     </row>
     <row r="33" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C33" s="80" t="s">
-        <v>781</v>
+        <v>795</v>
       </c>
       <c r="D33" s="80"/>
       <c r="E33" s="81"/>
@@ -19077,16 +18904,16 @@
     <row r="34" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C34" s="144" t="str">
         <f>"R-SW_Apt"&amp;"_"&amp;RIGHT(E34,3)&amp;"_HHPN1"</f>
-        <v>R-SW_Apt_ELC_HHPN1</v>
+        <v>R-SW_Apt_GAS_HHPN1</v>
       </c>
       <c r="D34" s="128" t="s">
         <v>395</v>
       </c>
       <c r="E34" s="172" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="F34" s="146" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="G34" s="355">
         <v>1</v>
@@ -19178,7 +19005,7 @@
     </row>
     <row r="35" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C35" s="80" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="D35" s="80"/>
       <c r="E35" s="81"/>
@@ -19239,10 +19066,10 @@
         <v>375</v>
       </c>
       <c r="E36" s="137" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="G36" s="342">
         <v>1</v>
@@ -19325,17 +19152,17 @@
     </row>
     <row r="37" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C37" s="354" t="str">
-        <f>"*R-SW_Apt"&amp;"_"&amp;RIGHT(E37,3)&amp;"_N2"</f>
-        <v>*R-SW_Apt_HET_N2</v>
+        <f>"R-SW_Apt"&amp;"_"&amp;RIGHT(E37,3)&amp;"_N2"</f>
+        <v>R-SW_Apt_HET_N2</v>
       </c>
       <c r="D37" s="73" t="s">
         <v>376</v>
       </c>
       <c r="E37" s="74" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
       <c r="F37" s="75" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="G37" s="355">
         <v>1</v>
@@ -19399,7 +19226,7 @@
       <c r="AI37" s="4"/>
       <c r="AJ37" s="153" t="str">
         <f>C45</f>
-        <v>R-AC_Apt_ELC_N1</v>
+        <v>R-SC_Apt_ELC_N1</v>
       </c>
       <c r="AK37" s="153" t="str">
         <f>D45</f>
@@ -19418,7 +19245,7 @@
     </row>
     <row r="38" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C38" s="80" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="D38" s="80"/>
       <c r="E38" s="81"/>
@@ -19526,7 +19353,7 @@
         <v>379</v>
       </c>
       <c r="E40" s="71" t="s">
-        <v>774</v>
+        <v>788</v>
       </c>
       <c r="F40" s="70" t="s">
         <v>405</v>
@@ -19594,7 +19421,7 @@
         <v>381</v>
       </c>
       <c r="E41" s="77" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="F41" s="76" t="s">
         <v>405</v>
@@ -19660,7 +19487,7 @@
         <v>380</v>
       </c>
       <c r="E42" s="71" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="F42" s="70" t="s">
         <v>405</v>
@@ -19726,7 +19553,7 @@
         <v>382</v>
       </c>
       <c r="E43" s="170" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="F43" s="138" t="s">
         <v>405</v>
@@ -19785,7 +19612,7 @@
     </row>
     <row r="44" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C44" s="80" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="D44" s="80"/>
       <c r="E44" s="81"/>
@@ -19820,8 +19647,8 @@
     </row>
     <row r="45" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C45" s="76" t="str">
-        <f>"R-AC_Apt"&amp;"_"&amp;RIGHT(E45,3)&amp;"_N1"</f>
-        <v>R-AC_Apt_ELC_N1</v>
+        <f>"R-SC_Apt"&amp;"_"&amp;RIGHT(E45,3)&amp;"_N1"</f>
+        <v>R-SC_Apt_ELC_N1</v>
       </c>
       <c r="D45" s="145" t="s">
         <v>383</v>
@@ -19830,7 +19657,7 @@
         <v>441</v>
       </c>
       <c r="F45" s="169" t="s">
-        <v>795</v>
+        <v>404</v>
       </c>
       <c r="G45" s="164"/>
       <c r="H45" s="165"/>
@@ -19903,40 +19730,40 @@
         <v>42</v>
       </c>
       <c r="G50" s="64" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="H50" s="64" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="I50" s="64" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="J50" s="64" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="K50" s="64" t="s">
-        <v>802</v>
+        <v>692</v>
       </c>
       <c r="L50" s="64" t="s">
-        <v>803</v>
+        <v>693</v>
       </c>
       <c r="M50" s="64" t="s">
-        <v>804</v>
+        <v>694</v>
       </c>
       <c r="N50" s="64" t="s">
-        <v>805</v>
+        <v>695</v>
       </c>
       <c r="O50" s="64" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="P50" s="64" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="Q50" s="64" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="R50" s="64" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="S50" s="65" t="s">
         <v>44</v>
@@ -19945,7 +19772,7 @@
         <v>330</v>
       </c>
       <c r="U50" s="64" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="V50" s="64" t="s">
         <v>342</v>
@@ -19963,22 +19790,22 @@
         <v>93</v>
       </c>
       <c r="AA50" s="64" t="s">
-        <v>789</v>
+        <v>803</v>
       </c>
       <c r="AB50" s="64" t="s">
-        <v>790</v>
+        <v>804</v>
       </c>
       <c r="AC50" s="64" t="s">
-        <v>791</v>
+        <v>805</v>
       </c>
       <c r="AD50" s="64" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="AE50" s="64" t="s">
         <v>331</v>
       </c>
       <c r="AF50" s="64" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
       <c r="AG50" s="64" t="s">
         <v>332</v>
@@ -20006,34 +19833,34 @@
       <c r="F51" s="63" t="s">
         <v>335</v>
       </c>
-      <c r="G51" s="393" t="s">
+      <c r="G51" s="389" t="s">
         <v>336</v>
       </c>
-      <c r="H51" s="394"/>
-      <c r="I51" s="394"/>
-      <c r="J51" s="395"/>
-      <c r="K51" s="393" t="s">
+      <c r="H51" s="390"/>
+      <c r="I51" s="390"/>
+      <c r="J51" s="391"/>
+      <c r="K51" s="389" t="s">
         <v>337</v>
       </c>
-      <c r="L51" s="394"/>
-      <c r="M51" s="394"/>
-      <c r="N51" s="395"/>
-      <c r="O51" s="393" t="s">
+      <c r="L51" s="390"/>
+      <c r="M51" s="390"/>
+      <c r="N51" s="391"/>
+      <c r="O51" s="389" t="s">
         <v>338</v>
       </c>
-      <c r="P51" s="394"/>
-      <c r="Q51" s="394"/>
-      <c r="R51" s="395"/>
-      <c r="S51" s="393" t="s">
+      <c r="P51" s="390"/>
+      <c r="Q51" s="390"/>
+      <c r="R51" s="391"/>
+      <c r="S51" s="389" t="s">
         <v>339</v>
       </c>
-      <c r="T51" s="395"/>
-      <c r="U51" s="387" t="s">
+      <c r="T51" s="391"/>
+      <c r="U51" s="383" t="s">
         <v>340</v>
       </c>
-      <c r="V51" s="388"/>
-      <c r="W51" s="388"/>
-      <c r="X51" s="389"/>
+      <c r="V51" s="384"/>
+      <c r="W51" s="384"/>
+      <c r="X51" s="385"/>
       <c r="Y51" s="107"/>
       <c r="Z51" s="107"/>
       <c r="AA51" s="115" t="s">
@@ -20046,7 +19873,7 @@
         <v>661</v>
       </c>
       <c r="AD51" s="118" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="AE51" s="107" t="s">
         <v>127</v>
@@ -20079,7 +19906,7 @@
     </row>
     <row r="52" spans="3:41" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C52" s="61" t="s">
-        <v>787</v>
+        <v>801</v>
       </c>
       <c r="D52" s="61"/>
       <c r="E52" s="61"/>
@@ -20135,39 +19962,39 @@
     </row>
     <row r="53" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C53" s="84" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="D53" s="85"/>
       <c r="E53" s="85"/>
       <c r="F53" s="86"/>
-      <c r="G53" s="390" t="s">
+      <c r="G53" s="386" t="s">
         <v>56</v>
       </c>
-      <c r="H53" s="391"/>
-      <c r="I53" s="391"/>
-      <c r="J53" s="392"/>
-      <c r="K53" s="391" t="s">
+      <c r="H53" s="387"/>
+      <c r="I53" s="387"/>
+      <c r="J53" s="388"/>
+      <c r="K53" s="387" t="s">
         <v>56</v>
       </c>
-      <c r="L53" s="391"/>
-      <c r="M53" s="391"/>
-      <c r="N53" s="392"/>
-      <c r="O53" s="390" t="s">
+      <c r="L53" s="387"/>
+      <c r="M53" s="387"/>
+      <c r="N53" s="388"/>
+      <c r="O53" s="386" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="391"/>
-      <c r="Q53" s="391"/>
-      <c r="R53" s="392"/>
-      <c r="S53" s="390" t="s">
+      <c r="P53" s="387"/>
+      <c r="Q53" s="387"/>
+      <c r="R53" s="388"/>
+      <c r="S53" s="386" t="s">
         <v>313</v>
       </c>
-      <c r="T53" s="392"/>
-      <c r="U53" s="390" t="s">
+      <c r="T53" s="388"/>
+      <c r="U53" s="386" t="s">
         <v>346</v>
       </c>
-      <c r="V53" s="391"/>
-      <c r="W53" s="391"/>
-      <c r="X53" s="392"/>
+      <c r="V53" s="387"/>
+      <c r="W53" s="387"/>
+      <c r="X53" s="388"/>
       <c r="Y53" s="108" t="s">
         <v>347</v>
       </c>
@@ -20185,7 +20012,7 @@
       </c>
       <c r="AD53" s="108"/>
       <c r="AE53" s="117" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="AF53" s="108" t="s">
         <v>56</v>
@@ -20224,7 +20051,7 @@
         <v>351</v>
       </c>
       <c r="E54" s="137" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="F54" s="76" t="s">
         <v>426</v>
@@ -20309,10 +20136,10 @@
         <v>352</v>
       </c>
       <c r="E55" s="71" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="F55" s="70" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="G55" s="339">
         <v>1</v>
@@ -20406,10 +20233,10 @@
         <v>353</v>
       </c>
       <c r="E56" s="77" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="F56" s="76" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="G56" s="336">
         <v>1</v>
@@ -20505,10 +20332,10 @@
         <v>357</v>
       </c>
       <c r="E57" s="71" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="F57" s="70" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="G57" s="339">
         <v>1</v>
@@ -20606,7 +20433,7 @@
         <v>350</v>
       </c>
       <c r="E58" s="77" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="F58" s="76" t="s">
         <v>426</v>
@@ -20691,10 +20518,10 @@
         <v>354</v>
       </c>
       <c r="E59" s="71" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="F59" s="70" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="G59" s="339">
         <v>1</v>
@@ -20788,10 +20615,10 @@
         <v>355</v>
       </c>
       <c r="E60" s="77" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
       <c r="F60" s="76" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="G60" s="336">
         <v>1</v>
@@ -20889,10 +20716,10 @@
         <v>356</v>
       </c>
       <c r="E61" s="71" t="s">
+        <v>784</v>
+      </c>
+      <c r="F61" s="70" t="s">
         <v>771</v>
-      </c>
-      <c r="F61" s="70" t="s">
-        <v>758</v>
       </c>
       <c r="G61" s="339">
         <v>1</v>
@@ -20990,7 +20817,7 @@
         <v>358</v>
       </c>
       <c r="E62" s="77" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="F62" s="76" t="s">
         <v>426</v>
@@ -21075,10 +20902,10 @@
         <v>359</v>
       </c>
       <c r="E63" s="71" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="F63" s="70" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="G63" s="339">
         <v>1</v>
@@ -21172,7 +20999,7 @@
         <v>360</v>
       </c>
       <c r="E64" s="77" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="F64" s="76" t="s">
         <v>426</v>
@@ -21257,10 +21084,10 @@
         <v>361</v>
       </c>
       <c r="E65" s="71" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="F65" s="73" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="G65" s="339">
         <v>1</v>
@@ -21347,7 +21174,7 @@
     </row>
     <row r="66" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C66" s="80" t="s">
-        <v>778</v>
+        <v>792</v>
       </c>
       <c r="D66" s="80"/>
       <c r="E66" s="81"/>
@@ -21467,7 +21294,7 @@
       <c r="AI67" s="154"/>
       <c r="AJ67" s="153" t="str">
         <f t="shared" si="31"/>
-        <v>R-SC_Att_ELC_HPN1</v>
+        <v>R-HC_Att_ELC_HPN1</v>
       </c>
       <c r="AK67" s="153" t="str">
         <f t="shared" si="31"/>
@@ -21486,7 +21313,7 @@
     </row>
     <row r="68" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C68" s="80" t="s">
-        <v>779</v>
+        <v>793</v>
       </c>
       <c r="D68" s="80"/>
       <c r="E68" s="81"/>
@@ -21625,8 +21452,8 @@
     </row>
     <row r="70" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C70" s="69" t="str">
-        <f>"R-SC_Att"&amp;"_"&amp;RIGHT(E70,3)&amp;"_HPN1"</f>
-        <v>R-SC_Att_ELC_HPN1</v>
+        <f>"R-HC_Att"&amp;"_"&amp;RIGHT(E70,3)&amp;"_HPN1"</f>
+        <v>R-HC_Att_ELC_HPN1</v>
       </c>
       <c r="D70" s="70" t="s">
         <v>365</v>
@@ -21635,7 +21462,7 @@
         <v>441</v>
       </c>
       <c r="F70" s="70" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="G70" s="339">
         <v>1</v>
@@ -21699,7 +21526,7 @@
       <c r="AI70" s="304"/>
       <c r="AJ70" s="153" t="str">
         <f t="shared" si="31"/>
-        <v>R-SW_Att_ELC_HPN2</v>
+        <v>R-SW_Att_SOL_HPN2</v>
       </c>
       <c r="AK70" s="153" t="str">
         <f t="shared" si="31"/>
@@ -21813,7 +21640,7 @@
         <v>441</v>
       </c>
       <c r="F72" s="70" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="G72" s="339">
         <v>1</v>
@@ -21901,16 +21728,16 @@
     <row r="73" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C73" s="87" t="str">
         <f>"R-SW_Att"&amp;"_"&amp;RIGHT(E73,3)&amp;"_HPN2"</f>
-        <v>R-SW_Att_ELC_HPN2</v>
+        <v>R-SW_Att_SOL_HPN2</v>
       </c>
       <c r="D73" s="76" t="s">
         <v>368</v>
       </c>
       <c r="E73" s="77" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F73" s="76" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="G73" s="336">
         <v>1</v>
@@ -22096,7 +21923,7 @@
         <v>441</v>
       </c>
       <c r="F75" s="76" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="G75" s="345">
         <v>1</v>
@@ -22179,7 +22006,7 @@
     </row>
     <row r="76" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C76" s="80" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="D76" s="80"/>
       <c r="E76" s="81"/>
@@ -22240,10 +22067,10 @@
         <v>372</v>
       </c>
       <c r="E77" s="137" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="F77" s="137" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="G77" s="342">
         <v>1</v>
@@ -22311,7 +22138,7 @@
       <c r="AI77" s="163"/>
       <c r="AJ77" s="156" t="str">
         <f>C83</f>
-        <v>*R-SW_Att_HET_N2</v>
+        <v>R-SW_Att_HET_N2</v>
       </c>
       <c r="AK77" s="156" t="str">
         <f>D83</f>
@@ -22337,10 +22164,10 @@
         <v>373</v>
       </c>
       <c r="E78" s="74" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="F78" s="74" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="G78" s="355">
         <v>1</v>
@@ -22488,10 +22315,10 @@
         <v>395</v>
       </c>
       <c r="E80" s="172" t="s">
-        <v>773</v>
+        <v>787</v>
       </c>
       <c r="F80" s="76" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="G80" s="355">
         <v>1</v>
@@ -22643,10 +22470,10 @@
         <v>375</v>
       </c>
       <c r="E82" s="137" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
       <c r="F82" s="137" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="G82" s="342">
         <v>1</v>
@@ -22729,17 +22556,17 @@
     </row>
     <row r="83" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C83" s="354" t="str">
-        <f>"*R-SW_Att"&amp;"_"&amp;RIGHT(E83,3)&amp;"_N2"</f>
-        <v>*R-SW_Att_HET_N2</v>
+        <f>"R-SW_Att"&amp;"_"&amp;RIGHT(E83,3)&amp;"_N2"</f>
+        <v>R-SW_Att_HET_N2</v>
       </c>
       <c r="D83" s="73" t="s">
         <v>376</v>
       </c>
       <c r="E83" s="74" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
       <c r="F83" s="74" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="G83" s="355">
         <v>1</v>
@@ -22803,7 +22630,7 @@
       <c r="AI83" s="4"/>
       <c r="AJ83" s="153" t="str">
         <f>C91</f>
-        <v>R-AC_Att_ELC_N1</v>
+        <v>R-SC_Att_ELC_N1</v>
       </c>
       <c r="AK83" s="153" t="str">
         <f>D91</f>
@@ -22930,7 +22757,7 @@
         <v>379</v>
       </c>
       <c r="E86" s="71" t="s">
-        <v>774</v>
+        <v>788</v>
       </c>
       <c r="F86" s="70" t="s">
         <v>429</v>
@@ -22998,7 +22825,7 @@
         <v>381</v>
       </c>
       <c r="E87" s="77" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="F87" s="76" t="s">
         <v>429</v>
@@ -23064,7 +22891,7 @@
         <v>380</v>
       </c>
       <c r="E88" s="71" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="F88" s="70" t="s">
         <v>429</v>
@@ -23130,7 +22957,7 @@
         <v>382</v>
       </c>
       <c r="E89" s="170" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="F89" s="138" t="s">
         <v>429</v>
@@ -23189,7 +23016,7 @@
     </row>
     <row r="90" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C90" s="80" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="D90" s="80"/>
       <c r="E90" s="81"/>
@@ -23224,8 +23051,8 @@
     </row>
     <row r="91" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C91" s="76" t="str">
-        <f>"R-AC_Att"&amp;"_"&amp;RIGHT(E91,3)&amp;"_N1"</f>
-        <v>R-AC_Att_ELC_N1</v>
+        <f>"R-SC_Att"&amp;"_"&amp;RIGHT(E91,3)&amp;"_N1"</f>
+        <v>R-SC_Att_ELC_N1</v>
       </c>
       <c r="D91" s="145" t="s">
         <v>383</v>
@@ -23234,7 +23061,7 @@
         <v>441</v>
       </c>
       <c r="F91" s="169" t="s">
-        <v>797</v>
+        <v>428</v>
       </c>
       <c r="G91" s="164"/>
       <c r="H91" s="165"/>
@@ -23307,40 +23134,40 @@
         <v>42</v>
       </c>
       <c r="G97" s="64" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="H97" s="64" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="I97" s="64" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="J97" s="64" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="K97" s="64" t="s">
-        <v>806</v>
+        <v>704</v>
       </c>
       <c r="L97" s="64" t="s">
-        <v>807</v>
+        <v>705</v>
       </c>
       <c r="M97" s="64" t="s">
-        <v>808</v>
+        <v>706</v>
       </c>
       <c r="N97" s="64" t="s">
-        <v>809</v>
+        <v>707</v>
       </c>
       <c r="O97" s="64" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="P97" s="64" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="Q97" s="64" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="R97" s="64" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="S97" s="65" t="s">
         <v>44</v>
@@ -23349,7 +23176,7 @@
         <v>330</v>
       </c>
       <c r="U97" s="64" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="V97" s="64" t="s">
         <v>342</v>
@@ -23367,22 +23194,22 @@
         <v>93</v>
       </c>
       <c r="AA97" s="64" t="s">
-        <v>789</v>
+        <v>803</v>
       </c>
       <c r="AB97" s="64" t="s">
-        <v>790</v>
+        <v>804</v>
       </c>
       <c r="AC97" s="64" t="s">
-        <v>791</v>
+        <v>805</v>
       </c>
       <c r="AD97" s="64" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="AE97" s="64" t="s">
         <v>331</v>
       </c>
       <c r="AF97" s="64" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
       <c r="AG97" s="64" t="s">
         <v>332</v>
@@ -23410,34 +23237,34 @@
       <c r="F98" s="63" t="s">
         <v>335</v>
       </c>
-      <c r="G98" s="393" t="s">
+      <c r="G98" s="389" t="s">
         <v>336</v>
       </c>
-      <c r="H98" s="394"/>
-      <c r="I98" s="394"/>
-      <c r="J98" s="395"/>
-      <c r="K98" s="393" t="s">
+      <c r="H98" s="390"/>
+      <c r="I98" s="390"/>
+      <c r="J98" s="391"/>
+      <c r="K98" s="389" t="s">
         <v>337</v>
       </c>
-      <c r="L98" s="394"/>
-      <c r="M98" s="394"/>
-      <c r="N98" s="395"/>
-      <c r="O98" s="393" t="s">
+      <c r="L98" s="390"/>
+      <c r="M98" s="390"/>
+      <c r="N98" s="391"/>
+      <c r="O98" s="389" t="s">
         <v>338</v>
       </c>
-      <c r="P98" s="394"/>
-      <c r="Q98" s="394"/>
-      <c r="R98" s="395"/>
-      <c r="S98" s="393" t="s">
+      <c r="P98" s="390"/>
+      <c r="Q98" s="390"/>
+      <c r="R98" s="391"/>
+      <c r="S98" s="389" t="s">
         <v>339</v>
       </c>
-      <c r="T98" s="395"/>
-      <c r="U98" s="387" t="s">
+      <c r="T98" s="391"/>
+      <c r="U98" s="383" t="s">
         <v>340</v>
       </c>
-      <c r="V98" s="388"/>
-      <c r="W98" s="388"/>
-      <c r="X98" s="389"/>
+      <c r="V98" s="384"/>
+      <c r="W98" s="384"/>
+      <c r="X98" s="385"/>
       <c r="Y98" s="107"/>
       <c r="Z98" s="107"/>
       <c r="AA98" s="115" t="s">
@@ -23450,7 +23277,7 @@
         <v>661</v>
       </c>
       <c r="AD98" s="118" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="AE98" s="107" t="s">
         <v>127</v>
@@ -23483,7 +23310,7 @@
     </row>
     <row r="99" spans="3:41" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C99" s="61" t="s">
-        <v>788</v>
+        <v>802</v>
       </c>
       <c r="D99" s="61"/>
       <c r="E99" s="61"/>
@@ -23539,39 +23366,39 @@
     </row>
     <row r="100" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C100" s="84" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="D100" s="85"/>
       <c r="E100" s="85"/>
       <c r="F100" s="86"/>
-      <c r="G100" s="390" t="s">
+      <c r="G100" s="386" t="s">
         <v>56</v>
       </c>
-      <c r="H100" s="391"/>
-      <c r="I100" s="391"/>
-      <c r="J100" s="392"/>
-      <c r="K100" s="391" t="s">
+      <c r="H100" s="387"/>
+      <c r="I100" s="387"/>
+      <c r="J100" s="388"/>
+      <c r="K100" s="387" t="s">
         <v>56</v>
       </c>
-      <c r="L100" s="391"/>
-      <c r="M100" s="391"/>
-      <c r="N100" s="392"/>
-      <c r="O100" s="390" t="s">
+      <c r="L100" s="387"/>
+      <c r="M100" s="387"/>
+      <c r="N100" s="388"/>
+      <c r="O100" s="386" t="s">
         <v>56</v>
       </c>
-      <c r="P100" s="391"/>
-      <c r="Q100" s="391"/>
-      <c r="R100" s="392"/>
-      <c r="S100" s="390" t="s">
+      <c r="P100" s="387"/>
+      <c r="Q100" s="387"/>
+      <c r="R100" s="388"/>
+      <c r="S100" s="386" t="s">
         <v>313</v>
       </c>
-      <c r="T100" s="392"/>
-      <c r="U100" s="390" t="s">
+      <c r="T100" s="388"/>
+      <c r="U100" s="386" t="s">
         <v>346</v>
       </c>
-      <c r="V100" s="391"/>
-      <c r="W100" s="391"/>
-      <c r="X100" s="392"/>
+      <c r="V100" s="387"/>
+      <c r="W100" s="387"/>
+      <c r="X100" s="388"/>
       <c r="Y100" s="108" t="s">
         <v>347</v>
       </c>
@@ -23589,7 +23416,7 @@
       </c>
       <c r="AD100" s="108"/>
       <c r="AE100" s="117" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="AF100" s="108" t="s">
         <v>56</v>
@@ -23628,7 +23455,7 @@
         <v>351</v>
       </c>
       <c r="E101" s="137" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="F101" s="76" t="s">
         <v>434</v>
@@ -23713,10 +23540,10 @@
         <v>352</v>
       </c>
       <c r="E102" s="71" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="F102" s="70" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="G102" s="339">
         <v>1</v>
@@ -23810,10 +23637,10 @@
         <v>353</v>
       </c>
       <c r="E103" s="77" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="F103" s="76" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="G103" s="336">
         <v>1</v>
@@ -23909,10 +23736,10 @@
         <v>357</v>
       </c>
       <c r="E104" s="71" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="F104" s="70" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="G104" s="339">
         <v>1</v>
@@ -24010,7 +23837,7 @@
         <v>350</v>
       </c>
       <c r="E105" s="77" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="F105" s="76" t="s">
         <v>434</v>
@@ -24095,10 +23922,10 @@
         <v>354</v>
       </c>
       <c r="E106" s="71" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="F106" s="70" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="G106" s="339">
         <v>1</v>
@@ -24192,10 +24019,10 @@
         <v>355</v>
       </c>
       <c r="E107" s="77" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
       <c r="F107" s="76" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="G107" s="336">
         <v>1</v>
@@ -24293,10 +24120,10 @@
         <v>356</v>
       </c>
       <c r="E108" s="71" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
       <c r="F108" s="70" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="G108" s="339">
         <v>1</v>
@@ -24394,7 +24221,7 @@
         <v>358</v>
       </c>
       <c r="E109" s="77" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="F109" s="76" t="s">
         <v>434</v>
@@ -24479,10 +24306,10 @@
         <v>359</v>
       </c>
       <c r="E110" s="71" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="F110" s="70" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="G110" s="339">
         <v>1</v>
@@ -24576,7 +24403,7 @@
         <v>360</v>
       </c>
       <c r="E111" s="77" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="F111" s="76" t="s">
         <v>434</v>
@@ -24661,10 +24488,10 @@
         <v>361</v>
       </c>
       <c r="E112" s="71" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="F112" s="73" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="G112" s="339">
         <v>1</v>
@@ -24751,7 +24578,7 @@
     </row>
     <row r="113" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C113" s="80" t="s">
-        <v>778</v>
+        <v>792</v>
       </c>
       <c r="D113" s="80"/>
       <c r="E113" s="81"/>
@@ -24871,7 +24698,7 @@
       <c r="AI114" s="154"/>
       <c r="AJ114" s="153" t="str">
         <f t="shared" si="53"/>
-        <v>R-SC_Det_ELC_HPN1</v>
+        <v>R-HC_Det_ELC_HPN1</v>
       </c>
       <c r="AK114" s="153" t="str">
         <f t="shared" si="53"/>
@@ -24890,7 +24717,7 @@
     </row>
     <row r="115" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C115" s="80" t="s">
-        <v>779</v>
+        <v>793</v>
       </c>
       <c r="D115" s="80"/>
       <c r="E115" s="81"/>
@@ -25029,8 +24856,8 @@
     </row>
     <row r="117" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C117" s="69" t="str">
-        <f>"R-SC_Det"&amp;"_"&amp;RIGHT(E117,3)&amp;"_HPN1"</f>
-        <v>R-SC_Det_ELC_HPN1</v>
+        <f>"R-HC_Det"&amp;"_"&amp;RIGHT(E117,3)&amp;"_HPN1"</f>
+        <v>R-HC_Det_ELC_HPN1</v>
       </c>
       <c r="D117" s="70" t="s">
         <v>365</v>
@@ -25039,7 +24866,7 @@
         <v>441</v>
       </c>
       <c r="F117" s="70" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="G117" s="339">
         <v>1</v>
@@ -25103,7 +24930,7 @@
       <c r="AI117" s="304"/>
       <c r="AJ117" s="153" t="str">
         <f t="shared" si="53"/>
-        <v>R-SW_Det_ELC_HPN2</v>
+        <v>R-SW_Det_SOL_HPN2</v>
       </c>
       <c r="AK117" s="153" t="str">
         <f t="shared" si="53"/>
@@ -25217,7 +25044,7 @@
         <v>441</v>
       </c>
       <c r="F119" s="70" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="G119" s="339">
         <v>1</v>
@@ -25305,16 +25132,16 @@
     <row r="120" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C120" s="87" t="str">
         <f>"R-SW_Det"&amp;"_"&amp;RIGHT(E120,3)&amp;"_HPN2"</f>
-        <v>R-SW_Det_ELC_HPN2</v>
+        <v>R-SW_Det_SOL_HPN2</v>
       </c>
       <c r="D120" s="76" t="s">
         <v>368</v>
       </c>
       <c r="E120" s="77" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F120" s="76" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="G120" s="336">
         <v>1</v>
@@ -25500,7 +25327,7 @@
         <v>441</v>
       </c>
       <c r="F122" s="76" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="G122" s="345">
         <v>1</v>
@@ -25644,10 +25471,10 @@
         <v>372</v>
       </c>
       <c r="E124" s="137" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="F124" s="137" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="G124" s="342">
         <v>1</v>
@@ -25715,7 +25542,7 @@
       <c r="AI124" s="163"/>
       <c r="AJ124" s="156" t="str">
         <f>C130</f>
-        <v>*R-SW_Det_HET_N2</v>
+        <v>R-SW_Det_HET_N2</v>
       </c>
       <c r="AK124" s="156" t="str">
         <f>D130</f>
@@ -25741,10 +25568,10 @@
         <v>373</v>
       </c>
       <c r="E125" s="74" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="F125" s="74" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="G125" s="355">
         <v>1</v>
@@ -25831,7 +25658,7 @@
     </row>
     <row r="126" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C126" s="80" t="s">
-        <v>781</v>
+        <v>795</v>
       </c>
       <c r="D126" s="80"/>
       <c r="E126" s="81"/>
@@ -25892,10 +25719,10 @@
         <v>395</v>
       </c>
       <c r="E127" s="172" t="s">
+        <v>787</v>
+      </c>
+      <c r="F127" s="76" t="s">
         <v>773</v>
-      </c>
-      <c r="F127" s="76" t="s">
-        <v>760</v>
       </c>
       <c r="G127" s="355">
         <v>1</v>
@@ -25986,7 +25813,7 @@
     </row>
     <row r="128" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C128" s="80" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="D128" s="80"/>
       <c r="E128" s="81"/>
@@ -26047,10 +25874,10 @@
         <v>375</v>
       </c>
       <c r="E129" s="137" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
       <c r="F129" s="137" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="G129" s="342">
         <v>1</v>
@@ -26133,17 +25960,17 @@
     </row>
     <row r="130" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C130" s="354" t="str">
-        <f>"*R-SW_Det"&amp;"_"&amp;RIGHT(E130,3)&amp;"_N2"</f>
-        <v>*R-SW_Det_HET_N2</v>
+        <f>"R-SW_Det"&amp;"_"&amp;RIGHT(E130,3)&amp;"_N2"</f>
+        <v>R-SW_Det_HET_N2</v>
       </c>
       <c r="D130" s="73" t="s">
         <v>376</v>
       </c>
       <c r="E130" s="74" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
       <c r="F130" s="74" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="G130" s="355">
         <v>1</v>
@@ -26207,7 +26034,7 @@
       <c r="AI130" s="4"/>
       <c r="AJ130" s="153" t="str">
         <f>C138</f>
-        <v>R-AC_Det_ELC_N1</v>
+        <v>R-SC_Det_ELC_N1</v>
       </c>
       <c r="AK130" s="153" t="str">
         <f>D138</f>
@@ -26226,7 +26053,7 @@
     </row>
     <row r="131" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C131" s="80" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="D131" s="80"/>
       <c r="E131" s="81"/>
@@ -26334,7 +26161,7 @@
         <v>379</v>
       </c>
       <c r="E133" s="71" t="s">
-        <v>774</v>
+        <v>788</v>
       </c>
       <c r="F133" s="70" t="s">
         <v>437</v>
@@ -26402,7 +26229,7 @@
         <v>381</v>
       </c>
       <c r="E134" s="77" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="F134" s="76" t="s">
         <v>437</v>
@@ -26468,7 +26295,7 @@
         <v>380</v>
       </c>
       <c r="E135" s="71" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="F135" s="70" t="s">
         <v>437</v>
@@ -26534,7 +26361,7 @@
         <v>382</v>
       </c>
       <c r="E136" s="170" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="F136" s="138" t="s">
         <v>437</v>
@@ -26593,7 +26420,7 @@
     </row>
     <row r="137" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C137" s="80" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="D137" s="80"/>
       <c r="E137" s="81"/>
@@ -26628,8 +26455,8 @@
     </row>
     <row r="138" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C138" s="76" t="str">
-        <f>"R-AC_Det"&amp;"_"&amp;RIGHT(E138,3)&amp;"_N1"</f>
-        <v>R-AC_Det_ELC_N1</v>
+        <f>"R-SC_Det"&amp;"_"&amp;RIGHT(E138,3)&amp;"_N1"</f>
+        <v>R-SC_Det_ELC_N1</v>
       </c>
       <c r="D138" s="145" t="s">
         <v>383</v>
@@ -26638,7 +26465,7 @@
         <v>441</v>
       </c>
       <c r="F138" s="169" t="s">
-        <v>796</v>
+        <v>436</v>
       </c>
       <c r="G138" s="164"/>
       <c r="H138" s="165"/>
@@ -26809,7 +26636,7 @@
         <v>325</v>
       </c>
       <c r="B148" s="153" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="C148" s="153" t="s">
         <v>384</v>
@@ -26827,7 +26654,7 @@
     <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="153" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="C149" s="153" t="s">
         <v>385</v>
@@ -26846,7 +26673,7 @@
     <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="153" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="C150" s="153" t="s">
         <v>386</v>
@@ -26865,7 +26692,7 @@
     <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="162"/>
       <c r="B151" s="153" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="C151" s="153" t="s">
         <v>387</v>
@@ -26884,7 +26711,7 @@
     <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="153" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="C152" s="153" t="s">
         <v>388</v>
@@ -26903,7 +26730,7 @@
     <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="153" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="C153" s="153" t="s">
         <v>389</v>
@@ -26922,26 +26749,6 @@
     <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="G100:J100"/>
-    <mergeCell ref="K100:N100"/>
-    <mergeCell ref="O100:R100"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="U100:X100"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="K98:N98"/>
-    <mergeCell ref="O98:R98"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="U98:X98"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:X51"/>
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="U6:X6"/>
     <mergeCell ref="G4:J4"/>
@@ -26952,6 +26759,26 @@
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="K98:N98"/>
+    <mergeCell ref="O98:R98"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="U98:X98"/>
+    <mergeCell ref="G100:J100"/>
+    <mergeCell ref="K100:N100"/>
+    <mergeCell ref="O100:R100"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="U100:X100"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26965,8 +26792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CED359C-4B42-41C8-A7E8-4F6FC9AE57D2}">
   <dimension ref="C2:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27047,7 +26874,7 @@
         <v>345</v>
       </c>
       <c r="L4" s="64" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="M4" s="64" t="s">
         <v>342</v>
@@ -27062,7 +26889,7 @@
         <v>92</v>
       </c>
       <c r="Q4" s="64" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
       <c r="R4" s="64" t="s">
         <v>331</v>
@@ -27091,12 +26918,12 @@
       <c r="I5" s="178"/>
       <c r="J5" s="178"/>
       <c r="K5" s="178"/>
-      <c r="L5" s="387" t="s">
+      <c r="L5" s="383" t="s">
         <v>340</v>
       </c>
-      <c r="M5" s="388"/>
-      <c r="N5" s="388"/>
-      <c r="O5" s="389"/>
+      <c r="M5" s="384"/>
+      <c r="N5" s="384"/>
+      <c r="O5" s="385"/>
       <c r="P5" s="107"/>
       <c r="Q5" s="107" t="s">
         <v>341</v>
@@ -27127,12 +26954,12 @@
       <c r="I6" s="84"/>
       <c r="J6" s="84"/>
       <c r="K6" s="84"/>
-      <c r="L6" s="390" t="s">
+      <c r="L6" s="386" t="s">
         <v>346</v>
       </c>
-      <c r="M6" s="391"/>
-      <c r="N6" s="391"/>
-      <c r="O6" s="392"/>
+      <c r="M6" s="387"/>
+      <c r="N6" s="387"/>
+      <c r="O6" s="388"/>
       <c r="P6" s="108" t="s">
         <v>347</v>
       </c>
@@ -27140,7 +26967,7 @@
         <v>56</v>
       </c>
       <c r="R6" s="117" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="S6" s="108" t="s">
         <v>349</v>
@@ -27158,7 +26985,7 @@
     <row r="7" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C7" s="203" t="str">
         <f>D20</f>
-        <v>R-RF_N1</v>
+        <v>R-RSDRF_N1</v>
       </c>
       <c r="D7" s="204" t="str">
         <f>E20</f>
@@ -27220,7 +27047,7 @@
     <row r="8" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C8" s="206" t="str">
         <f>D21</f>
-        <v>R-CK_N1</v>
+        <v>R-RSDCK_N1</v>
       </c>
       <c r="D8" s="196" t="str">
         <f>E21</f>
@@ -27283,7 +27110,7 @@
       <c r="C9" s="208"/>
       <c r="D9" s="197"/>
       <c r="E9" s="197" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="F9" s="209"/>
       <c r="G9" s="215">
@@ -27337,7 +27164,7 @@
       <c r="C10" s="206"/>
       <c r="D10" s="196"/>
       <c r="E10" s="196" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="F10" s="207"/>
       <c r="G10" s="214">
@@ -27390,7 +27217,7 @@
     <row r="11" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C11" s="208" t="str">
         <f>D22</f>
-        <v>R-CW_N1</v>
+        <v>R-RSDCW_N1</v>
       </c>
       <c r="D11" s="197" t="str">
         <f>E22</f>
@@ -27452,7 +27279,7 @@
     <row r="12" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C12" s="206" t="str">
         <f t="shared" ref="C12:D15" si="2">D23</f>
-        <v>R-CD_N1</v>
+        <v>R-RSDCD_N1</v>
       </c>
       <c r="D12" s="196" t="str">
         <f t="shared" si="2"/>
@@ -27514,7 +27341,7 @@
     <row r="13" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C13" s="208" t="str">
         <f t="shared" si="2"/>
-        <v>R-DW_N1</v>
+        <v>R-RSDDW_N1</v>
       </c>
       <c r="D13" s="197" t="str">
         <f t="shared" si="2"/>
@@ -27576,7 +27403,7 @@
     <row r="14" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C14" s="206" t="str">
         <f t="shared" si="2"/>
-        <v>R-OE_N1</v>
+        <v>R-RSDOE_N1</v>
       </c>
       <c r="D14" s="196" t="str">
         <f t="shared" si="2"/>
@@ -27627,7 +27454,7 @@
     <row r="15" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C15" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>R-OA_N1</v>
+        <v>R-RSDOA_N1</v>
       </c>
       <c r="D15" s="211" t="str">
         <f t="shared" si="2"/>
@@ -27674,18 +27501,18 @@
       <c r="S15" s="216">
         <v>2020</v>
       </c>
-      <c r="T15" s="194" t="s">
+      <c r="U15" s="194" t="s">
         <v>662</v>
       </c>
-      <c r="U15" s="287" t="s">
+      <c r="V15" s="287" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="16" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="T16" s="194" t="s">
+      <c r="U16" s="194" t="s">
         <v>663</v>
       </c>
-      <c r="U16" s="5" t="s">
+      <c r="V16" s="5" t="s">
         <v>664</v>
       </c>
     </row>
@@ -27693,10 +27520,10 @@
       <c r="C18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R18" s="396" t="s">
-        <v>705</v>
-      </c>
-      <c r="S18" s="396"/>
+      <c r="R18" s="392" t="s">
+        <v>717</v>
+      </c>
+      <c r="S18" s="392"/>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="198" t="s">
@@ -27723,15 +27550,15 @@
       <c r="J19" s="200" t="s">
         <v>312</v>
       </c>
-      <c r="R19" s="396"/>
-      <c r="S19" s="396"/>
+      <c r="R19" s="392"/>
+      <c r="S19" s="392"/>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="173" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="174" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E20" s="174" t="s">
         <v>449</v>
@@ -27747,15 +27574,15 @@
       <c r="J20" s="175" t="s">
         <v>451</v>
       </c>
-      <c r="R20" s="396"/>
-      <c r="S20" s="396"/>
+      <c r="R20" s="392"/>
+      <c r="S20" s="392"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="173" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="174" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E21" s="174" t="s">
         <v>452</v>
@@ -27771,15 +27598,15 @@
       <c r="J21" s="175" t="s">
         <v>451</v>
       </c>
-      <c r="R21" s="396"/>
-      <c r="S21" s="396"/>
+      <c r="R21" s="392"/>
+      <c r="S21" s="392"/>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="173" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="174" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="E22" s="174" t="s">
         <v>453</v>
@@ -27795,15 +27622,15 @@
       <c r="J22" s="175" t="s">
         <v>451</v>
       </c>
-      <c r="R22" s="396"/>
-      <c r="S22" s="396"/>
+      <c r="R22" s="392"/>
+      <c r="S22" s="392"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="173" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="174" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E23" s="174" t="s">
         <v>454</v>
@@ -27825,7 +27652,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="174" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E24" s="174" t="s">
         <v>455</v>
@@ -27847,7 +27674,7 @@
         <v>49</v>
       </c>
       <c r="D25" s="174" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E25" s="174" t="s">
         <v>456</v>
@@ -27869,7 +27696,7 @@
         <v>49</v>
       </c>
       <c r="D26" s="176" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E26" s="176" t="s">
         <v>457</v>
@@ -27900,7 +27727,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="U15" r:id="rId1" xr:uid="{8872A4E8-1ED1-45C9-9AE2-8045F13A0849}"/>
+    <hyperlink ref="V15" r:id="rId1" xr:uid="{8872A4E8-1ED1-45C9-9AE2-8045F13A0849}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -27912,8 +27739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFF4867-10C8-4ED5-9BE1-6E89AAC9887A}">
   <dimension ref="C2:W347"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27964,7 +27791,7 @@
         <v>345</v>
       </c>
       <c r="L3" s="64" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="M3" s="64" t="s">
         <v>342</v>
@@ -27979,7 +27806,7 @@
         <v>92</v>
       </c>
       <c r="Q3" s="64" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
       <c r="R3" s="64" t="s">
         <v>331</v>
@@ -28008,12 +27835,12 @@
       <c r="I4" s="178"/>
       <c r="J4" s="178"/>
       <c r="K4" s="178"/>
-      <c r="L4" s="387" t="s">
+      <c r="L4" s="383" t="s">
         <v>340</v>
       </c>
-      <c r="M4" s="388"/>
-      <c r="N4" s="388"/>
-      <c r="O4" s="389"/>
+      <c r="M4" s="384"/>
+      <c r="N4" s="384"/>
+      <c r="O4" s="385"/>
       <c r="P4" s="107"/>
       <c r="Q4" s="107" t="s">
         <v>341</v>
@@ -28037,12 +27864,12 @@
       <c r="I5" s="84"/>
       <c r="J5" s="84"/>
       <c r="K5" s="84"/>
-      <c r="L5" s="390" t="s">
+      <c r="L5" s="386" t="s">
         <v>346</v>
       </c>
-      <c r="M5" s="391"/>
-      <c r="N5" s="391"/>
-      <c r="O5" s="392"/>
+      <c r="M5" s="387"/>
+      <c r="N5" s="387"/>
+      <c r="O5" s="388"/>
       <c r="P5" s="108" t="s">
         <v>347</v>
       </c>
@@ -28050,7 +27877,7 @@
         <v>56</v>
       </c>
       <c r="R5" s="117" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="S5" s="108" t="s">
         <v>349</v>
@@ -28074,16 +27901,16 @@
       <c r="G6" s="213">
         <v>10</v>
       </c>
-      <c r="H6" s="366">
+      <c r="H6" s="203">
         <v>0.4</v>
       </c>
-      <c r="I6" s="367">
+      <c r="I6" s="204">
         <v>0.4</v>
       </c>
-      <c r="J6" s="366">
+      <c r="J6" s="203">
         <v>0.4</v>
       </c>
-      <c r="K6" s="367">
+      <c r="K6" s="204">
         <v>0.4</v>
       </c>
       <c r="L6" s="203">
@@ -28131,16 +27958,16 @@
       <c r="G7" s="214">
         <v>15</v>
       </c>
-      <c r="H7" s="368">
+      <c r="H7" s="206">
         <v>0.6</v>
       </c>
-      <c r="I7" s="369">
+      <c r="I7" s="196">
         <v>0.6</v>
       </c>
-      <c r="J7" s="368">
+      <c r="J7" s="206">
         <v>0.6</v>
       </c>
-      <c r="K7" s="369">
+      <c r="K7" s="196">
         <v>0.6</v>
       </c>
       <c r="L7" s="206">
@@ -28185,16 +28012,16 @@
       <c r="G8" s="215">
         <v>10</v>
       </c>
-      <c r="H8" s="366">
+      <c r="H8" s="203">
         <v>0.4</v>
       </c>
-      <c r="I8" s="367">
+      <c r="I8" s="204">
         <v>0.4</v>
       </c>
-      <c r="J8" s="366">
+      <c r="J8" s="203">
         <v>0.4</v>
       </c>
-      <c r="K8" s="367">
+      <c r="K8" s="204">
         <v>0.4</v>
       </c>
       <c r="L8" s="203">
@@ -28239,16 +28066,16 @@
       <c r="G9" s="214">
         <v>15</v>
       </c>
-      <c r="H9" s="368">
+      <c r="H9" s="206">
         <v>0.6</v>
       </c>
-      <c r="I9" s="369">
+      <c r="I9" s="196">
         <v>0.6</v>
       </c>
-      <c r="J9" s="368">
+      <c r="J9" s="206">
         <v>0.6</v>
       </c>
-      <c r="K9" s="369">
+      <c r="K9" s="196">
         <v>0.6</v>
       </c>
       <c r="L9" s="206">
@@ -28290,16 +28117,16 @@
       <c r="G10" s="215">
         <v>10</v>
       </c>
-      <c r="H10" s="366">
+      <c r="H10" s="203">
         <v>0.4</v>
       </c>
-      <c r="I10" s="367">
+      <c r="I10" s="204">
         <v>0.4</v>
       </c>
-      <c r="J10" s="366">
+      <c r="J10" s="203">
         <v>0.4</v>
       </c>
-      <c r="K10" s="367">
+      <c r="K10" s="204">
         <v>0.4</v>
       </c>
       <c r="L10" s="203">
@@ -28341,16 +28168,16 @@
       <c r="G11" s="214">
         <v>15</v>
       </c>
-      <c r="H11" s="368">
+      <c r="H11" s="206">
         <v>0.6</v>
       </c>
-      <c r="I11" s="369">
+      <c r="I11" s="196">
         <v>0.6</v>
       </c>
-      <c r="J11" s="368">
+      <c r="J11" s="206">
         <v>0.6</v>
       </c>
-      <c r="K11" s="369">
+      <c r="K11" s="196">
         <v>0.6</v>
       </c>
       <c r="L11" s="206">
@@ -30964,49 +30791,49 @@
         <v>98</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="9" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>746</v>
+        <v>759</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
       <c r="U1" s="9" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>754</v>
+        <v>767</v>
       </c>
       <c r="AA1" s="11"/>
       <c r="AB1" s="9" t="s">

--- a/SubRES_TMPL/SubRes_RSD.xlsx
+++ b/SubRES_TMPL/SubRes_RSD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DBB256-029D-4C2A-82C3-4CAAA7730958}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B611D6F3-ABF8-4EFB-8C0B-0971D131E48B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="2715" windowWidth="14400" windowHeight="6795" firstSheet="4" activeTab="6" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" firstSheet="4" activeTab="5" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -729,7 +729,56 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="L7" authorId="0" shapeId="0" xr:uid="{26227E42-266E-4D7E-9CCC-4136610DED2C}">
+    <comment ref="L15" authorId="0" shapeId="0" xr:uid="{790549C2-8A6D-471D-9A64-5C29761E2A5B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Used units/kW of a fridge just to have something
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R15" authorId="0" shapeId="0" xr:uid="{D4205CCA-7C8D-4F75-8CA5-D31091C09E06}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+currently handled through AFA applied in trans </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L33" authorId="0" shapeId="0" xr:uid="{26227E42-266E-4D7E-9CCC-4136610DED2C}">
       <text>
         <r>
           <rPr>
@@ -784,6 +833,30 @@
           </rPr>
           <t xml:space="preserve">
 From TIMES-Starter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R11" authorId="0" shapeId="0" xr:uid="{6876A02F-5A8C-48F2-BDD7-27F3CD50F139}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+currently handled through AFA applied in trans </t>
         </r>
       </text>
     </comment>
@@ -1090,7 +1163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2898" uniqueCount="815">
   <si>
     <t>Document type:</t>
   </si>
@@ -2440,9 +2513,6 @@
   </si>
   <si>
     <t>Residential Refrigeration - New</t>
-  </si>
-  <si>
-    <t>PJa</t>
   </si>
   <si>
     <t>NO</t>
@@ -3534,9 +3604,6 @@
     <t>kUnit to PJ</t>
   </si>
   <si>
-    <t>PJa to PJ</t>
-  </si>
-  <si>
     <t>R-RSDRF_N1</t>
   </si>
   <si>
@@ -3556,13 +3623,19 @@
   </si>
   <si>
     <t>R-RSDOA_N1</t>
+  </si>
+  <si>
+    <t>kUnits to PJ</t>
+  </si>
+  <si>
+    <t>M€/kUnits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -3572,8 +3645,9 @@
     <numFmt numFmtId="169" formatCode="#,##0.0"/>
     <numFmt numFmtId="170" formatCode="0.00000"/>
     <numFmt numFmtId="171" formatCode="#,##0.000"/>
+    <numFmt numFmtId="172" formatCode="0.000"/>
   </numFmts>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3929,6 +4003,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="32">
@@ -4918,7 +5005,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="393">
+  <cellXfs count="407">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5565,6 +5652,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="16" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="40" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="40" fillId="21" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="40" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="40" fillId="21" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="40" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="32" fillId="21" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="32" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="32" fillId="21" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7246,14 +7347,14 @@
       <c r="F16" s="217"/>
     </row>
     <row r="17" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="367" t="s">
-        <v>474</v>
-      </c>
-      <c r="B17" s="367"/>
-      <c r="C17" s="367"/>
-      <c r="D17" s="367"/>
-      <c r="E17" s="367"/>
-      <c r="F17" s="367"/>
+      <c r="A17" s="381" t="s">
+        <v>473</v>
+      </c>
+      <c r="B17" s="381"/>
+      <c r="C17" s="381"/>
+      <c r="D17" s="381"/>
+      <c r="E17" s="381"/>
+      <c r="F17" s="381"/>
       <c r="G17" s="219"/>
       <c r="H17" s="219"/>
       <c r="I17" s="220"/>
@@ -7291,13 +7392,13 @@
       <c r="A20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="368" t="s">
-        <v>476</v>
-      </c>
-      <c r="C20" s="368"/>
-      <c r="D20" s="368"/>
-      <c r="E20" s="368"/>
-      <c r="F20" s="368"/>
+      <c r="B20" s="382" t="s">
+        <v>475</v>
+      </c>
+      <c r="C20" s="382"/>
+      <c r="D20" s="382"/>
+      <c r="E20" s="382"/>
+      <c r="F20" s="382"/>
       <c r="G20" s="224"/>
       <c r="H20" s="224"/>
       <c r="I20" s="225"/>
@@ -7311,13 +7412,13 @@
       <c r="A21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="369" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="369"/>
-      <c r="D21" s="369"/>
-      <c r="E21" s="369"/>
-      <c r="F21" s="369"/>
+      <c r="B21" s="383" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="383"/>
+      <c r="D21" s="383"/>
+      <c r="E21" s="383"/>
+      <c r="F21" s="383"/>
       <c r="G21" s="224"/>
       <c r="H21" s="224"/>
       <c r="I21" s="225"/>
@@ -7331,13 +7432,13 @@
       <c r="A22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="369" t="s">
+      <c r="B22" s="383" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="369"/>
-      <c r="D22" s="369"/>
-      <c r="E22" s="369"/>
-      <c r="F22" s="369"/>
+      <c r="C22" s="383"/>
+      <c r="D22" s="383"/>
+      <c r="E22" s="383"/>
+      <c r="F22" s="383"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
@@ -7356,7 +7457,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="217" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C24" s="217"/>
       <c r="D24" s="217"/>
@@ -7366,22 +7467,22 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="370"/>
-      <c r="B25" s="370"/>
-      <c r="C25" s="370"/>
-      <c r="D25" s="370"/>
-      <c r="E25" s="370"/>
-      <c r="F25" s="370"/>
+      <c r="A25" s="384"/>
+      <c r="B25" s="384"/>
+      <c r="C25" s="384"/>
+      <c r="D25" s="384"/>
+      <c r="E25" s="384"/>
+      <c r="F25" s="384"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="366"/>
-      <c r="B26" s="366"/>
-      <c r="C26" s="366"/>
-      <c r="D26" s="366"/>
-      <c r="E26" s="366"/>
-      <c r="F26" s="366"/>
+      <c r="A26" s="380"/>
+      <c r="B26" s="380"/>
+      <c r="C26" s="380"/>
+      <c r="D26" s="380"/>
+      <c r="E26" s="380"/>
+      <c r="F26" s="380"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="217"/>
@@ -7568,16 +7669,16 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="371" t="s">
+      <c r="B2" s="385" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="372"/>
-      <c r="D2" s="372"/>
-      <c r="E2" s="373"/>
-      <c r="G2" s="371" t="s">
+      <c r="C2" s="386"/>
+      <c r="D2" s="386"/>
+      <c r="E2" s="387"/>
+      <c r="G2" s="385" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="373"/>
+      <c r="H2" s="387"/>
       <c r="I2" s="228"/>
       <c r="J2" s="228"/>
       <c r="K2" s="229"/>
@@ -7602,7 +7703,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="232" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G3" s="233"/>
       <c r="H3" s="234" t="s">
@@ -7623,16 +7724,16 @@
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" s="235" t="s">
+        <v>477</v>
+      </c>
+      <c r="C4" s="236" t="s">
         <v>478</v>
-      </c>
-      <c r="C4" s="236" t="s">
-        <v>479</v>
       </c>
       <c r="D4" s="237">
         <v>44136</v>
       </c>
       <c r="E4" s="238" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G4" s="239"/>
       <c r="H4" s="240" t="s">
@@ -7662,7 +7763,7 @@
         <v>44169</v>
       </c>
       <c r="E5" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G5" s="245"/>
       <c r="H5" s="240" t="s">
@@ -7683,16 +7784,16 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="241" t="s">
+        <v>481</v>
+      </c>
+      <c r="C6" s="242" t="s">
         <v>482</v>
-      </c>
-      <c r="C6" s="242" t="s">
-        <v>483</v>
       </c>
       <c r="D6" s="243">
         <v>44166</v>
       </c>
       <c r="E6" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G6" s="246" t="s">
         <v>9</v>
@@ -7715,16 +7816,16 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="241" t="s">
+        <v>483</v>
+      </c>
+      <c r="C7" s="242" t="s">
         <v>484</v>
-      </c>
-      <c r="C7" s="242" t="s">
-        <v>485</v>
       </c>
       <c r="D7" s="247">
         <v>43862</v>
       </c>
       <c r="E7" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G7" s="248"/>
       <c r="H7" s="240" t="s">
@@ -7748,17 +7849,17 @@
         <v>67</v>
       </c>
       <c r="C8" s="242" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D8" s="247">
         <v>44166</v>
       </c>
       <c r="E8" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G8" s="249"/>
       <c r="H8" s="240" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I8" s="194"/>
       <c r="J8" s="194"/>
@@ -7775,16 +7876,16 @@
     </row>
     <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="241" t="s">
+        <v>487</v>
+      </c>
+      <c r="C9" s="242" t="s">
         <v>488</v>
-      </c>
-      <c r="C9" s="242" t="s">
-        <v>489</v>
       </c>
       <c r="D9" s="247">
         <v>44044</v>
       </c>
       <c r="E9" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G9" s="250"/>
       <c r="H9" s="251" t="s">
@@ -7793,7 +7894,7 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" s="241" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C10" s="242" t="s">
         <v>69</v>
@@ -7802,12 +7903,12 @@
         <v>44136</v>
       </c>
       <c r="E10" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="241" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C11" s="242" t="s">
         <v>71</v>
@@ -7816,12 +7917,12 @@
         <v>44013</v>
       </c>
       <c r="E11" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="241" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C12" s="242" t="s">
         <v>72</v>
@@ -7830,35 +7931,35 @@
         <v>44136</v>
       </c>
       <c r="E12" s="244" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="241" t="s">
+        <v>492</v>
+      </c>
+      <c r="C13" s="242" t="s">
         <v>493</v>
-      </c>
-      <c r="C13" s="242" t="s">
-        <v>494</v>
       </c>
       <c r="D13" s="247">
         <v>44136</v>
       </c>
       <c r="E13" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="241" t="s">
+        <v>494</v>
+      </c>
+      <c r="C14" s="242" t="s">
         <v>495</v>
-      </c>
-      <c r="C14" s="242" t="s">
-        <v>496</v>
       </c>
       <c r="D14" s="247">
         <v>44105</v>
       </c>
       <c r="E14" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
@@ -7872,7 +7973,7 @@
         <v>44105</v>
       </c>
       <c r="E15" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
@@ -7886,7 +7987,7 @@
         <v>44166</v>
       </c>
       <c r="E16" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
@@ -7900,7 +8001,7 @@
         <v>44166</v>
       </c>
       <c r="E17" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -7914,21 +8015,21 @@
         <v>44166</v>
       </c>
       <c r="E18" s="255" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="374" t="s">
+      <c r="B20" s="388" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="375"/>
-      <c r="D20" s="375"/>
-      <c r="E20" s="376"/>
-      <c r="G20" s="371" t="s">
+      <c r="C20" s="389"/>
+      <c r="D20" s="389"/>
+      <c r="E20" s="390"/>
+      <c r="G20" s="385" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="373"/>
+      <c r="H20" s="387"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="256" t="s">
@@ -7941,7 +8042,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="259" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G21" s="260" t="s">
         <v>15</v>
@@ -7979,7 +8080,7 @@
         <v>17</v>
       </c>
       <c r="H23" s="266" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7993,7 +8094,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G24" s="269" t="s">
         <v>80</v>
@@ -8013,7 +8114,7 @@
         <v>43466</v>
       </c>
       <c r="E25" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8027,12 +8128,12 @@
         <v>43952</v>
       </c>
       <c r="E26" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="262" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C27" s="273" t="s">
         <v>88</v>
@@ -8041,147 +8142,147 @@
         <v>43952</v>
       </c>
       <c r="E27" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="262" t="s">
+        <v>498</v>
+      </c>
+      <c r="C28" s="273" t="s">
         <v>499</v>
-      </c>
-      <c r="C28" s="273" t="s">
-        <v>500</v>
       </c>
       <c r="D28" s="272">
         <v>43983</v>
       </c>
       <c r="E28" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="262" t="s">
+        <v>500</v>
+      </c>
+      <c r="C29" s="273" t="s">
         <v>501</v>
-      </c>
-      <c r="C29" s="273" t="s">
-        <v>502</v>
       </c>
       <c r="D29" s="272">
         <v>43983</v>
       </c>
       <c r="E29" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="262" t="s">
+        <v>502</v>
+      </c>
+      <c r="C30" s="273" t="s">
         <v>503</v>
-      </c>
-      <c r="C30" s="273" t="s">
-        <v>504</v>
       </c>
       <c r="D30" s="272">
         <v>43983</v>
       </c>
       <c r="E30" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="262" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C31" s="273" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D31" s="272">
         <v>43983</v>
       </c>
       <c r="E31" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="262" t="s">
+        <v>505</v>
+      </c>
+      <c r="C32" s="273" t="s">
         <v>506</v>
-      </c>
-      <c r="C32" s="273" t="s">
-        <v>507</v>
       </c>
       <c r="D32" s="272">
         <v>43983</v>
       </c>
       <c r="E32" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="262" t="s">
+        <v>507</v>
+      </c>
+      <c r="C33" s="273" t="s">
         <v>508</v>
-      </c>
-      <c r="C33" s="273" t="s">
-        <v>509</v>
       </c>
       <c r="D33" s="272">
         <v>43983</v>
       </c>
       <c r="E33" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="262" t="s">
+        <v>509</v>
+      </c>
+      <c r="C34" s="273" t="s">
         <v>510</v>
-      </c>
-      <c r="C34" s="273" t="s">
-        <v>511</v>
       </c>
       <c r="D34" s="272">
         <v>44044</v>
       </c>
       <c r="E34" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="262" t="s">
+        <v>511</v>
+      </c>
+      <c r="C35" s="273" t="s">
         <v>512</v>
-      </c>
-      <c r="C35" s="273" t="s">
-        <v>513</v>
       </c>
       <c r="D35" s="272">
         <v>44044</v>
       </c>
       <c r="E35" s="244" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="274" t="s">
+        <v>511</v>
+      </c>
+      <c r="C36" s="275" t="s">
         <v>512</v>
-      </c>
-      <c r="C36" s="275" t="s">
-        <v>513</v>
       </c>
       <c r="D36" s="276">
         <v>44044</v>
       </c>
       <c r="E36" s="255" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="371" t="s">
+      <c r="B38" s="385" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="372"/>
-      <c r="D38" s="372"/>
-      <c r="E38" s="373"/>
-      <c r="G38" s="377" t="s">
+      <c r="C38" s="386"/>
+      <c r="D38" s="386"/>
+      <c r="E38" s="387"/>
+      <c r="G38" s="391" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="378"/>
+      <c r="H38" s="392"/>
     </row>
     <row r="39" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="277" t="s">
@@ -8194,13 +8295,13 @@
         <v>7</v>
       </c>
       <c r="E39" s="279" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G39" s="280" t="s">
         <v>20</v>
       </c>
       <c r="H39" s="280" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="15" x14ac:dyDescent="0.25">
@@ -8208,13 +8309,13 @@
         <v>25</v>
       </c>
       <c r="C40" s="263" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D40" s="281">
         <v>44166</v>
       </c>
       <c r="E40" s="282" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G40" s="267"/>
       <c r="H40" s="267"/>
@@ -8335,7 +8436,7 @@
         <v>44</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I3" s="64" t="s">
         <v>342</v>
@@ -8350,7 +8451,7 @@
         <v>92</v>
       </c>
       <c r="M3" s="64" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N3" s="64" t="s">
         <v>332</v>
@@ -8358,13 +8459,13 @@
       <c r="Q3" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="W3" s="379" t="s">
-        <v>735</v>
-      </c>
-      <c r="X3" s="379"/>
-      <c r="Y3" s="379"/>
-      <c r="Z3" s="379"/>
-      <c r="AA3" s="379"/>
+      <c r="W3" s="393" t="s">
+        <v>734</v>
+      </c>
+      <c r="X3" s="393"/>
+      <c r="Y3" s="393"/>
+      <c r="Z3" s="393"/>
+      <c r="AA3" s="393"/>
     </row>
     <row r="4" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="63" t="s">
@@ -8382,12 +8483,12 @@
       <c r="G4" s="178" t="s">
         <v>339</v>
       </c>
-      <c r="H4" s="383" t="s">
+      <c r="H4" s="397" t="s">
         <v>340</v>
       </c>
-      <c r="I4" s="384"/>
-      <c r="J4" s="384"/>
-      <c r="K4" s="385"/>
+      <c r="I4" s="398"/>
+      <c r="J4" s="398"/>
+      <c r="K4" s="399"/>
       <c r="L4" s="107"/>
       <c r="M4" s="107"/>
       <c r="N4" s="107"/>
@@ -8395,19 +8496,19 @@
         <v>423</v>
       </c>
       <c r="W4" s="309" t="s">
+        <v>735</v>
+      </c>
+      <c r="X4" s="310" t="s">
         <v>736</v>
       </c>
-      <c r="X4" s="310" t="s">
+      <c r="Y4" s="310" t="s">
         <v>737</v>
       </c>
-      <c r="Y4" s="310" t="s">
+      <c r="Z4" s="310" t="s">
         <v>738</v>
       </c>
-      <c r="Z4" s="310" t="s">
+      <c r="AA4" s="311" t="s">
         <v>739</v>
-      </c>
-      <c r="AA4" s="311" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="5" spans="3:27" ht="25.5" x14ac:dyDescent="0.2">
@@ -8420,17 +8521,17 @@
       <c r="G5" s="84" t="s">
         <v>313</v>
       </c>
-      <c r="H5" s="386" t="s">
+      <c r="H5" s="400" t="s">
+        <v>712</v>
+      </c>
+      <c r="I5" s="401"/>
+      <c r="J5" s="401"/>
+      <c r="K5" s="402"/>
+      <c r="L5" s="108" t="s">
+        <v>471</v>
+      </c>
+      <c r="M5" s="108" t="s">
         <v>713</v>
-      </c>
-      <c r="I5" s="387"/>
-      <c r="J5" s="387"/>
-      <c r="K5" s="388"/>
-      <c r="L5" s="108" t="s">
-        <v>472</v>
-      </c>
-      <c r="M5" s="108" t="s">
-        <v>714</v>
       </c>
       <c r="N5" s="108" t="s">
         <v>349</v>
@@ -8439,7 +8540,7 @@
         <v>422</v>
       </c>
       <c r="W5" s="312" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="X5" s="313">
         <v>9418.8988568067343</v>
@@ -8495,7 +8596,7 @@
         <v>2020</v>
       </c>
       <c r="W6" s="315" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="X6" s="316">
         <v>7459.2913438514906</v>
@@ -8529,7 +8630,7 @@
       </c>
       <c r="N7" s="104"/>
       <c r="W7" s="318" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="X7" s="319">
         <v>14041.847426430093</v>
@@ -8563,7 +8664,7 @@
       </c>
       <c r="N8" s="105"/>
       <c r="W8" s="315" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="X8" s="316">
         <v>19924.480375055824</v>
@@ -8597,7 +8698,7 @@
       </c>
       <c r="N9" s="104"/>
       <c r="W9" s="318" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="X9" s="319">
         <v>58904.8034364337</v>
@@ -8631,7 +8732,7 @@
       </c>
       <c r="N10" s="143"/>
       <c r="W10" s="315" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="X10" s="316">
         <v>43739.341649106158</v>
@@ -8656,19 +8757,19 @@
       <c r="G11" s="84" t="s">
         <v>313</v>
       </c>
-      <c r="H11" s="380" t="s">
-        <v>713</v>
-      </c>
-      <c r="I11" s="381"/>
-      <c r="J11" s="381"/>
-      <c r="K11" s="382"/>
+      <c r="H11" s="394" t="s">
+        <v>712</v>
+      </c>
+      <c r="I11" s="395"/>
+      <c r="J11" s="395"/>
+      <c r="K11" s="396"/>
       <c r="L11" s="202"/>
       <c r="M11" s="202"/>
       <c r="N11" s="108" t="s">
         <v>349</v>
       </c>
       <c r="W11" s="318" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="X11" s="319">
         <v>25767.876472761334</v>
@@ -8724,7 +8825,7 @@
         <v>2020</v>
       </c>
       <c r="W12" s="315" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="X12" s="316">
         <v>12331.173226884033</v>
@@ -8758,7 +8859,7 @@
       </c>
       <c r="N13" s="104"/>
       <c r="W13" s="321" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="X13" s="322">
         <v>15211.172212670604</v>
@@ -8792,7 +8893,7 @@
       </c>
       <c r="N14" s="105"/>
       <c r="W14" s="323" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="X14" s="324">
         <v>206798.88499999998</v>
@@ -8826,7 +8927,7 @@
       </c>
       <c r="N15" s="104"/>
       <c r="W15" s="327" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="X15" s="326">
         <v>0.74286208971025169</v>
@@ -8867,12 +8968,12 @@
       <c r="G17" s="84" t="s">
         <v>313</v>
       </c>
-      <c r="H17" s="380" t="s">
-        <v>713</v>
-      </c>
-      <c r="I17" s="381"/>
-      <c r="J17" s="381"/>
-      <c r="K17" s="382"/>
+      <c r="H17" s="394" t="s">
+        <v>712</v>
+      </c>
+      <c r="I17" s="395"/>
+      <c r="J17" s="395"/>
+      <c r="K17" s="396"/>
       <c r="L17" s="202"/>
       <c r="M17" s="202"/>
       <c r="N17" s="108" t="s">
@@ -8958,49 +9059,49 @@
       </c>
       <c r="N20" s="105"/>
       <c r="W20" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AF20" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AH20" s="329" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AI20" s="330" t="s">
+        <v>749</v>
+      </c>
+      <c r="AJ20" s="330" t="s">
         <v>750</v>
       </c>
-      <c r="AJ20" s="330" t="s">
+      <c r="AK20" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="AL20" s="328" t="s">
         <v>751</v>
-      </c>
-      <c r="AK20" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="AL20" s="328" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="21" spans="2:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9022,40 +9123,40 @@
       </c>
       <c r="N21" s="104"/>
       <c r="V21" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="W21" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="X21" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="X21" s="5" t="s">
+      <c r="Y21" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="Y21" s="5" t="s">
+      <c r="Z21" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="AA21" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="AB21" s="194" t="s">
         <v>733</v>
       </c>
-      <c r="Z21" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="AA21" s="5" t="s">
+      <c r="AC21" s="194" t="s">
         <v>745</v>
       </c>
-      <c r="AB21" s="194" t="s">
-        <v>734</v>
-      </c>
-      <c r="AC21" s="194" t="s">
+      <c r="AD21" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="AD21" s="5" t="s">
+      <c r="AE21" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="AE21" s="5" t="s">
+      <c r="AF21" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="AH21" s="328" t="s">
         <v>748</v>
-      </c>
-      <c r="AF21" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="AH21" s="328" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="22" spans="2:38" ht="15" x14ac:dyDescent="0.2">
@@ -9077,7 +9178,7 @@
       </c>
       <c r="N22" s="143"/>
       <c r="V22" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="W22" s="185">
         <v>6419</v>
@@ -9134,7 +9235,7 @@
     </row>
     <row r="23" spans="2:38" ht="15" x14ac:dyDescent="0.2">
       <c r="V23" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="W23" s="185">
         <v>3209</v>
@@ -9188,7 +9289,7 @@
     </row>
     <row r="24" spans="2:38" ht="15" x14ac:dyDescent="0.2">
       <c r="V24" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="W24" s="185">
         <v>8665</v>
@@ -9252,7 +9353,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="57"/>
       <c r="V25" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W25" s="185">
         <v>13570</v>
@@ -9327,7 +9428,7 @@
         <v>312</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W26" s="185">
         <v>45566</v>
@@ -9381,10 +9482,10 @@
     </row>
     <row r="27" spans="2:38" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
+        <v>515</v>
+      </c>
+      <c r="C27" s="59" t="s">
         <v>516</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>517</v>
       </c>
       <c r="D27" s="59" t="s">
         <v>53</v>
@@ -9396,13 +9497,13 @@
         <v>317</v>
       </c>
       <c r="G27" s="59" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H27" s="59" t="s">
         <v>319</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W27" s="185">
         <v>30979</v>
@@ -9456,7 +9557,7 @@
     </row>
     <row r="28" spans="2:38" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="173" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C28" s="174" t="s">
         <v>397</v>
@@ -9473,7 +9574,7 @@
       <c r="G28" s="174"/>
       <c r="H28" s="175"/>
       <c r="V28" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="W28" s="185">
         <v>15595</v>
@@ -9527,7 +9628,7 @@
     </row>
     <row r="29" spans="2:38" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="173" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C29" s="174" t="s">
         <v>398</v>
@@ -9544,7 +9645,7 @@
       <c r="G29" s="174"/>
       <c r="H29" s="175"/>
       <c r="V29" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="W29" s="185">
         <v>5191</v>
@@ -9598,7 +9699,7 @@
     </row>
     <row r="30" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="173" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C30" s="176" t="s">
         <v>399</v>
@@ -9615,7 +9716,7 @@
       <c r="G30" s="176"/>
       <c r="H30" s="177"/>
       <c r="V30" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="W30" s="185">
         <v>5603</v>
@@ -9715,49 +9816,49 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="W35" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="X35" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Y35" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Z35" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AA35" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AB35" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AC35" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AD35" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AE35" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AF35" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AH35" s="329" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AI35" s="330" t="s">
+        <v>749</v>
+      </c>
+      <c r="AJ35" s="330" t="s">
         <v>750</v>
       </c>
-      <c r="AJ35" s="330" t="s">
+      <c r="AK35" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="AL35" s="328" t="s">
         <v>751</v>
-      </c>
-      <c r="AK35" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="AL35" s="328" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="36" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9770,40 +9871,40 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="V36" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="W36" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="X36" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="X36" s="5" t="s">
+      <c r="Y36" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="Y36" s="5" t="s">
+      <c r="Z36" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="AA36" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="AB36" s="194" t="s">
         <v>733</v>
       </c>
-      <c r="Z36" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="AA36" s="5" t="s">
+      <c r="AC36" s="194" t="s">
         <v>745</v>
       </c>
-      <c r="AB36" s="194" t="s">
-        <v>734</v>
-      </c>
-      <c r="AC36" s="194" t="s">
+      <c r="AD36" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="AD36" s="5" t="s">
+      <c r="AE36" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="AE36" s="5" t="s">
+      <c r="AF36" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="AH36" s="328" t="s">
         <v>748</v>
-      </c>
-      <c r="AF36" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="AH36" s="328" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="15" x14ac:dyDescent="0.2">
@@ -9816,7 +9917,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="V37" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="W37" s="185">
         <v>30917</v>
@@ -9878,7 +9979,7 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="V38" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="W38" s="185">
         <v>3722</v>
@@ -9940,7 +10041,7 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="V39" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="W39" s="185">
         <v>7882</v>
@@ -10002,7 +10103,7 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="V40" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W40" s="185">
         <v>27081</v>
@@ -10065,7 +10166,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="V41" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W41" s="185">
         <v>161926</v>
@@ -10128,7 +10229,7 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="V42" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W42" s="185">
         <v>95372</v>
@@ -10191,7 +10292,7 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="V43" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="W43" s="185">
         <v>46130</v>
@@ -10254,7 +10355,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="V44" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="W44" s="185">
         <v>20720</v>
@@ -10320,7 +10421,7 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="V45" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="W45" s="185">
         <v>21208</v>
@@ -10444,49 +10545,49 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="W49" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="X49" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Y49" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Z49" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AA49" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AB49" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AC49" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AD49" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AE49" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AF49" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AH49" s="329" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AI49" s="330" t="s">
+        <v>749</v>
+      </c>
+      <c r="AJ49" s="330" t="s">
         <v>750</v>
       </c>
-      <c r="AJ49" s="330" t="s">
+      <c r="AK49" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="AL49" s="328" t="s">
         <v>751</v>
-      </c>
-      <c r="AK49" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="AL49" s="328" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="50" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10500,40 +10601,40 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="V50" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="W50" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="X50" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="X50" s="5" t="s">
+      <c r="Y50" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="Y50" s="5" t="s">
+      <c r="Z50" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="AA50" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="AB50" s="194" t="s">
         <v>733</v>
       </c>
-      <c r="Z50" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="AA50" s="5" t="s">
+      <c r="AC50" s="194" t="s">
         <v>745</v>
       </c>
-      <c r="AB50" s="194" t="s">
-        <v>734</v>
-      </c>
-      <c r="AC50" s="194" t="s">
+      <c r="AD50" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="AD50" s="5" t="s">
+      <c r="AE50" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="AE50" s="5" t="s">
+      <c r="AF50" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="AH50" s="328" t="s">
         <v>748</v>
-      </c>
-      <c r="AF50" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="AH50" s="328" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="51" spans="1:38" ht="15" x14ac:dyDescent="0.2">
@@ -10547,7 +10648,7 @@
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="V51" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="W51" s="185">
         <v>9878</v>
@@ -10610,7 +10711,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="V52" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="W52" s="185">
         <v>3037</v>
@@ -10673,7 +10774,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="V53" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="W53" s="185">
         <v>7052</v>
@@ -10736,7 +10837,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="V54" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="W54" s="185">
         <v>20170</v>
@@ -10799,7 +10900,7 @@
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="V55" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W55" s="185">
         <v>97809</v>
@@ -10862,7 +10963,7 @@
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
       <c r="V56" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W56" s="185">
         <v>61656</v>
@@ -10925,7 +11026,7 @@
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
       <c r="V57" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="W57" s="185">
         <v>27666</v>
@@ -10988,7 +11089,7 @@
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="V58" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="W58" s="185">
         <v>13787</v>
@@ -11051,7 +11152,7 @@
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="V59" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="W59" s="185">
         <v>24436</v>
@@ -11375,7 +11476,7 @@
       </c>
       <c r="B1" s="180"/>
       <c r="L1" s="182" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N1" s="5"/>
     </row>
@@ -11386,12 +11487,12 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C3" s="229" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="184" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="185"/>
@@ -11400,7 +11501,7 @@
       <c r="F4" s="186"/>
       <c r="G4" s="186"/>
       <c r="N4" s="184" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -11449,7 +11550,7 @@
         <v>49</v>
       </c>
       <c r="B6" s="181" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C6" s="181" t="str">
         <f t="shared" ref="C6:C69" si="0">VLOOKUP(RIGHT(B6,3),$B$134:$C$140,2,FALSE)&amp;" - "&amp;LEFT(B6,8)</f>
@@ -11472,7 +11573,7 @@
         <v>Bldg_DETPre45-Win</v>
       </c>
       <c r="N6" s="181" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O6" s="181">
         <v>2020</v>
@@ -11483,7 +11584,7 @@
     </row>
     <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="181" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C7" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11506,7 +11607,7 @@
         <v>Bldg_DETPre69-Win</v>
       </c>
       <c r="N7" s="181" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O7" s="181">
         <v>2020</v>
@@ -11517,7 +11618,7 @@
     </row>
     <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="181" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C8" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11540,7 +11641,7 @@
         <v>Bldg_DETPre79-Win</v>
       </c>
       <c r="N8" s="181" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O8" s="181">
         <v>2020</v>
@@ -11551,7 +11652,7 @@
     </row>
     <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="181" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C9" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11574,7 +11675,7 @@
         <v>Bldg_DETPre89-Win</v>
       </c>
       <c r="N9" s="181" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O9" s="181">
         <v>2020</v>
@@ -11585,7 +11686,7 @@
     </row>
     <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="181" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C10" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11608,7 +11709,7 @@
         <v>Bldg_DETPre99-Win</v>
       </c>
       <c r="N10" s="181" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O10" s="181">
         <v>2020</v>
@@ -11619,7 +11720,7 @@
     </row>
     <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="181" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C11" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11642,7 +11743,7 @@
         <v>Bldg_DETPre09-Win</v>
       </c>
       <c r="N11" s="181" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O11" s="181">
         <v>2020</v>
@@ -11653,7 +11754,7 @@
     </row>
     <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="181" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C12" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11676,7 +11777,7 @@
         <v>Bldg_DETPre45-Win</v>
       </c>
       <c r="N12" s="181" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O12" s="181">
         <v>2020</v>
@@ -11687,7 +11788,7 @@
     </row>
     <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B13" s="181" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C13" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11710,7 +11811,7 @@
         <v>Bldg_DETPre69-Win</v>
       </c>
       <c r="N13" s="181" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O13" s="181">
         <v>2020</v>
@@ -11721,7 +11822,7 @@
     </row>
     <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="181" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C14" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11744,7 +11845,7 @@
         <v>Bldg_DETPre79-Win</v>
       </c>
       <c r="N14" s="181" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O14" s="181">
         <v>2020</v>
@@ -11755,7 +11856,7 @@
     </row>
     <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="181" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C15" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11778,7 +11879,7 @@
         <v>Bldg_DETPre89-Win</v>
       </c>
       <c r="N15" s="181" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O15" s="181">
         <v>2020</v>
@@ -11789,7 +11890,7 @@
     </row>
     <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B16" s="181" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C16" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11812,7 +11913,7 @@
         <v>Bldg_DETPre99-Win</v>
       </c>
       <c r="N16" s="181" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O16" s="181">
         <v>2020</v>
@@ -11823,7 +11924,7 @@
     </row>
     <row r="17" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B17" s="181" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C17" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11846,7 +11947,7 @@
         <v>Bldg_DETPre09-Win</v>
       </c>
       <c r="N17" s="181" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O17" s="181">
         <v>2020</v>
@@ -11857,7 +11958,7 @@
     </row>
     <row r="18" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B18" s="181" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C18" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11880,7 +11981,7 @@
         <v>Bldg_DETPre45-Win</v>
       </c>
       <c r="N18" s="181" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O18" s="181">
         <v>2020</v>
@@ -11891,7 +11992,7 @@
     </row>
     <row r="19" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B19" s="181" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C19" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11914,7 +12015,7 @@
         <v>Bldg_DETPre69-Win</v>
       </c>
       <c r="N19" s="181" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O19" s="181">
         <v>2020</v>
@@ -11925,7 +12026,7 @@
     </row>
     <row r="20" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B20" s="181" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C20" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11948,7 +12049,7 @@
         <v>Bldg_DETPre79-Win</v>
       </c>
       <c r="N20" s="181" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O20" s="181">
         <v>2020</v>
@@ -11959,7 +12060,7 @@
     </row>
     <row r="21" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B21" s="181" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C21" s="181" t="str">
         <f t="shared" si="0"/>
@@ -11982,7 +12083,7 @@
         <v>Bldg_DETPre89-Win</v>
       </c>
       <c r="N21" s="181" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O21" s="181">
         <v>2020</v>
@@ -11993,7 +12094,7 @@
     </row>
     <row r="22" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B22" s="181" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C22" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12016,7 +12117,7 @@
         <v>Bldg_DETPre99-Win</v>
       </c>
       <c r="N22" s="181" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O22" s="181">
         <v>2020</v>
@@ -12027,7 +12128,7 @@
     </row>
     <row r="23" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="181" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C23" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12050,7 +12151,7 @@
         <v>Bldg_DETPre09-Win</v>
       </c>
       <c r="N23" s="181" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O23" s="181">
         <v>2020</v>
@@ -12061,7 +12162,7 @@
     </row>
     <row r="24" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="181" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C24" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12084,7 +12185,7 @@
         <v>Bldg_DETPre45-Cei</v>
       </c>
       <c r="N24" s="181" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O24" s="181">
         <v>2020</v>
@@ -12095,7 +12196,7 @@
     </row>
     <row r="25" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B25" s="181" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C25" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12118,7 +12219,7 @@
         <v>Bldg_DETPre69-Cei</v>
       </c>
       <c r="N25" s="181" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O25" s="181">
         <v>2020</v>
@@ -12129,7 +12230,7 @@
     </row>
     <row r="26" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="181" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C26" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12152,7 +12253,7 @@
         <v>Bldg_DETPre79-Cei</v>
       </c>
       <c r="N26" s="181" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O26" s="181">
         <v>2020</v>
@@ -12163,7 +12264,7 @@
     </row>
     <row r="27" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B27" s="181" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C27" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12186,7 +12287,7 @@
         <v>Bldg_DETPre89-Cei</v>
       </c>
       <c r="N27" s="181" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O27" s="181">
         <v>2020</v>
@@ -12197,7 +12298,7 @@
     </row>
     <row r="28" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="181" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C28" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12220,7 +12321,7 @@
         <v>Bldg_DETPre99-Cei</v>
       </c>
       <c r="N28" s="181" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O28" s="181">
         <v>2020</v>
@@ -12231,7 +12332,7 @@
     </row>
     <row r="29" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="181" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C29" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12254,7 +12355,7 @@
         <v>Bldg_DETPre09-Cei</v>
       </c>
       <c r="N29" s="181" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O29" s="181">
         <v>2020</v>
@@ -12265,7 +12366,7 @@
     </row>
     <row r="30" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="181" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C30" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12288,7 +12389,7 @@
         <v>Bldg_DETPre45-Cei</v>
       </c>
       <c r="N30" s="181" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O30" s="181">
         <v>2020</v>
@@ -12299,7 +12400,7 @@
     </row>
     <row r="31" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B31" s="181" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C31" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12322,7 +12423,7 @@
         <v>Bldg_DETPre69-Cei</v>
       </c>
       <c r="N31" s="181" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O31" s="181">
         <v>2020</v>
@@ -12333,7 +12434,7 @@
     </row>
     <row r="32" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="181" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C32" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12356,7 +12457,7 @@
         <v>Bldg_DETPre79-Cei</v>
       </c>
       <c r="N32" s="181" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O32" s="181">
         <v>2020</v>
@@ -12367,7 +12468,7 @@
     </row>
     <row r="33" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="181" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C33" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12390,7 +12491,7 @@
         <v>Bldg_DETPre89-Cei</v>
       </c>
       <c r="N33" s="181" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O33" s="181">
         <v>2020</v>
@@ -12401,7 +12502,7 @@
     </row>
     <row r="34" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="181" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C34" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12424,7 +12525,7 @@
         <v>Bldg_DETPre99-Cei</v>
       </c>
       <c r="N34" s="181" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O34" s="181">
         <v>2020</v>
@@ -12435,7 +12536,7 @@
     </row>
     <row r="35" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B35" s="181" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C35" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12458,7 +12559,7 @@
         <v>Bldg_DETPre09-Cei</v>
       </c>
       <c r="N35" s="181" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O35" s="181">
         <v>2020</v>
@@ -12469,7 +12570,7 @@
     </row>
     <row r="36" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B36" s="181" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C36" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12492,7 +12593,7 @@
         <v>Bldg_DETPre45-Wal</v>
       </c>
       <c r="N36" s="181" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O36" s="181">
         <v>2020</v>
@@ -12503,7 +12604,7 @@
     </row>
     <row r="37" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B37" s="181" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C37" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12526,7 +12627,7 @@
         <v>Bldg_DETPre69-Wal</v>
       </c>
       <c r="N37" s="181" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O37" s="181">
         <v>2020</v>
@@ -12537,7 +12638,7 @@
     </row>
     <row r="38" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="181" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C38" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12560,7 +12661,7 @@
         <v>Bldg_DETPre79-Wal</v>
       </c>
       <c r="N38" s="181" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O38" s="181">
         <v>2020</v>
@@ -12571,7 +12672,7 @@
     </row>
     <row r="39" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B39" s="181" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C39" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12594,7 +12695,7 @@
         <v>Bldg_DETPre89-Wal</v>
       </c>
       <c r="N39" s="181" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="O39" s="181">
         <v>2020</v>
@@ -12605,7 +12706,7 @@
     </row>
     <row r="40" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B40" s="181" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C40" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12628,7 +12729,7 @@
         <v>Bldg_DETPre99-Wal</v>
       </c>
       <c r="N40" s="181" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O40" s="181">
         <v>2020</v>
@@ -12639,7 +12740,7 @@
     </row>
     <row r="41" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B41" s="181" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C41" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12662,7 +12763,7 @@
         <v>Bldg_DETPre09-Wal</v>
       </c>
       <c r="N41" s="181" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O41" s="181">
         <v>2020</v>
@@ -12673,7 +12774,7 @@
     </row>
     <row r="42" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="181" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C42" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12696,7 +12797,7 @@
         <v>Bldg_DETPre45-Wal</v>
       </c>
       <c r="N42" s="181" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O42" s="181">
         <v>2020</v>
@@ -12707,7 +12808,7 @@
     </row>
     <row r="43" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" s="181" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C43" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12730,7 +12831,7 @@
         <v>Bldg_DETPre69-Wal</v>
       </c>
       <c r="N43" s="181" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O43" s="181">
         <v>2020</v>
@@ -12741,7 +12842,7 @@
     </row>
     <row r="44" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B44" s="181" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C44" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12764,7 +12865,7 @@
         <v>Bldg_DETPre79-Wal</v>
       </c>
       <c r="N44" s="181" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O44" s="181">
         <v>2020</v>
@@ -12775,7 +12876,7 @@
     </row>
     <row r="45" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B45" s="181" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C45" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12798,7 +12899,7 @@
         <v>Bldg_DETPre89-Wal</v>
       </c>
       <c r="N45" s="181" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O45" s="181">
         <v>2020</v>
@@ -12809,7 +12910,7 @@
     </row>
     <row r="46" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B46" s="181" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C46" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12832,7 +12933,7 @@
         <v>Bldg_DETPre99-Wal</v>
       </c>
       <c r="N46" s="181" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O46" s="181">
         <v>2020</v>
@@ -12843,7 +12944,7 @@
     </row>
     <row r="47" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B47" s="181" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C47" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12869,7 +12970,7 @@
         <v>Bldg_DETPre09-Wal</v>
       </c>
       <c r="N47" s="181" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O47" s="181">
         <v>2020</v>
@@ -12880,7 +12981,7 @@
     </row>
     <row r="48" spans="2:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B48" s="181" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C48" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12903,7 +13004,7 @@
         <v>Bldg_SDEPre45-Win</v>
       </c>
       <c r="N48" s="181" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="O48" s="181">
         <v>2020</v>
@@ -12914,7 +13015,7 @@
     </row>
     <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B49" s="181" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C49" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12937,7 +13038,7 @@
         <v>Bldg_SDEPre69-Win</v>
       </c>
       <c r="N49" s="181" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="O49" s="181">
         <v>2020</v>
@@ -12948,7 +13049,7 @@
     </row>
     <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B50" s="181" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C50" s="181" t="str">
         <f t="shared" si="0"/>
@@ -12971,7 +13072,7 @@
         <v>Bldg_SDEPre79-Win</v>
       </c>
       <c r="N50" s="181" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O50" s="181">
         <v>2020</v>
@@ -12982,7 +13083,7 @@
     </row>
     <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B51" s="181" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C51" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13005,7 +13106,7 @@
         <v>Bldg_SDEPre89-Win</v>
       </c>
       <c r="N51" s="181" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O51" s="181">
         <v>2020</v>
@@ -13016,7 +13117,7 @@
     </row>
     <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B52" s="181" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C52" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13039,7 +13140,7 @@
         <v>Bldg_SDEPre99-Win</v>
       </c>
       <c r="N52" s="181" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O52" s="181">
         <v>2020</v>
@@ -13050,7 +13151,7 @@
     </row>
     <row r="53" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B53" s="181" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C53" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13073,7 +13174,7 @@
         <v>Bldg_SDEPre09-Win</v>
       </c>
       <c r="N53" s="181" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O53" s="181">
         <v>2020</v>
@@ -13084,7 +13185,7 @@
     </row>
     <row r="54" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B54" s="181" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C54" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13107,7 +13208,7 @@
         <v>Bldg_SDEPre45-Win</v>
       </c>
       <c r="N54" s="181" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O54" s="181">
         <v>2020</v>
@@ -13118,7 +13219,7 @@
     </row>
     <row r="55" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B55" s="181" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C55" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13141,7 +13242,7 @@
         <v>Bldg_SDEPre69-Win</v>
       </c>
       <c r="N55" s="181" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O55" s="181">
         <v>2020</v>
@@ -13153,7 +13254,7 @@
     <row r="56" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="181" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C56" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13176,7 +13277,7 @@
         <v>Bldg_SDEPre79-Win</v>
       </c>
       <c r="N56" s="181" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O56" s="181">
         <v>2020</v>
@@ -13188,7 +13289,7 @@
     <row r="57" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="181" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C57" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13211,7 +13312,7 @@
         <v>Bldg_SDEPre89-Win</v>
       </c>
       <c r="N57" s="181" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O57" s="181">
         <v>2020</v>
@@ -13223,7 +13324,7 @@
     <row r="58" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="181" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C58" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13246,7 +13347,7 @@
         <v>Bldg_SDEPre99-Win</v>
       </c>
       <c r="N58" s="181" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O58" s="181">
         <v>2020</v>
@@ -13258,7 +13359,7 @@
     <row r="59" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="181" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C59" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13281,7 +13382,7 @@
         <v>Bldg_SDEPre09-Win</v>
       </c>
       <c r="N59" s="181" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O59" s="181">
         <v>2020</v>
@@ -13293,7 +13394,7 @@
     <row r="60" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="181" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C60" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13316,7 +13417,7 @@
         <v>Bldg_SDEPre45-Win</v>
       </c>
       <c r="N60" s="181" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O60" s="181">
         <v>2020</v>
@@ -13328,7 +13429,7 @@
     <row r="61" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="181" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C61" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13351,7 +13452,7 @@
         <v>Bldg_SDEPre69-Win</v>
       </c>
       <c r="N61" s="181" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O61" s="181">
         <v>2020</v>
@@ -13363,7 +13464,7 @@
     <row r="62" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="181" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C62" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13386,7 +13487,7 @@
         <v>Bldg_SDEPre79-Win</v>
       </c>
       <c r="N62" s="181" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O62" s="181">
         <v>2020</v>
@@ -13398,7 +13499,7 @@
     <row r="63" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="181" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C63" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13421,7 +13522,7 @@
         <v>Bldg_SDEPre89-Win</v>
       </c>
       <c r="N63" s="181" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O63" s="181">
         <v>2020</v>
@@ -13433,7 +13534,7 @@
     <row r="64" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="181" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C64" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13456,7 +13557,7 @@
         <v>Bldg_SDEPre99-Win</v>
       </c>
       <c r="N64" s="181" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O64" s="181">
         <v>2020</v>
@@ -13468,7 +13569,7 @@
     <row r="65" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="181" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C65" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13491,7 +13592,7 @@
         <v>Bldg_SDEPre09-Win</v>
       </c>
       <c r="N65" s="181" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O65" s="181">
         <v>2020</v>
@@ -13503,7 +13604,7 @@
     <row r="66" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="181" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C66" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13526,7 +13627,7 @@
         <v>Bldg_SDEPre45-Cei</v>
       </c>
       <c r="N66" s="181" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O66" s="181">
         <v>2020</v>
@@ -13538,7 +13639,7 @@
     <row r="67" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="181" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C67" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13561,7 +13662,7 @@
         <v>Bldg_SDEPre69-Cei</v>
       </c>
       <c r="N67" s="181" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O67" s="181">
         <v>2020</v>
@@ -13573,7 +13674,7 @@
     <row r="68" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="181" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C68" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13596,7 +13697,7 @@
         <v>Bldg_SDEPre79-Cei</v>
       </c>
       <c r="N68" s="181" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O68" s="181">
         <v>2020</v>
@@ -13608,7 +13709,7 @@
     <row r="69" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="181" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C69" s="181" t="str">
         <f t="shared" si="0"/>
@@ -13631,7 +13732,7 @@
         <v>Bldg_SDEPre89-Cei</v>
       </c>
       <c r="N69" s="181" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O69" s="181">
         <v>2020</v>
@@ -13643,7 +13744,7 @@
     <row r="70" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="181" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C70" s="181" t="str">
         <f t="shared" ref="C70:C131" si="2">VLOOKUP(RIGHT(B70,3),$B$134:$C$140,2,FALSE)&amp;" - "&amp;LEFT(B70,8)</f>
@@ -13666,7 +13767,7 @@
         <v>Bldg_SDEPre99-Cei</v>
       </c>
       <c r="N70" s="181" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O70" s="181">
         <v>2020</v>
@@ -13678,7 +13779,7 @@
     <row r="71" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="181" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C71" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13701,7 +13802,7 @@
         <v>Bldg_SDEPre09-Cei</v>
       </c>
       <c r="N71" s="181" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O71" s="181">
         <v>2020</v>
@@ -13713,7 +13814,7 @@
     <row r="72" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="181" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C72" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13736,7 +13837,7 @@
         <v>Bldg_SDEPre45-Cei</v>
       </c>
       <c r="N72" s="181" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="O72" s="181">
         <v>2020</v>
@@ -13748,7 +13849,7 @@
     <row r="73" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="181" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C73" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13771,7 +13872,7 @@
         <v>Bldg_SDEPre69-Cei</v>
       </c>
       <c r="N73" s="181" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O73" s="181">
         <v>2020</v>
@@ -13783,7 +13884,7 @@
     <row r="74" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="181" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C74" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13806,7 +13907,7 @@
         <v>Bldg_SDEPre79-Cei</v>
       </c>
       <c r="N74" s="181" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O74" s="181">
         <v>2020</v>
@@ -13818,7 +13919,7 @@
     <row r="75" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="181" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C75" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13841,7 +13942,7 @@
         <v>Bldg_SDEPre89-Cei</v>
       </c>
       <c r="N75" s="181" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O75" s="181">
         <v>2020</v>
@@ -13853,7 +13954,7 @@
     <row r="76" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="181" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C76" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13876,7 +13977,7 @@
         <v>Bldg_SDEPre99-Cei</v>
       </c>
       <c r="N76" s="181" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="O76" s="181">
         <v>2020</v>
@@ -13888,7 +13989,7 @@
     <row r="77" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="181" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C77" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13911,7 +14012,7 @@
         <v>Bldg_SDEPre09-Cei</v>
       </c>
       <c r="N77" s="181" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="O77" s="181">
         <v>2020</v>
@@ -13923,7 +14024,7 @@
     <row r="78" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="181" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C78" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13946,7 +14047,7 @@
         <v>Bldg_SDEPre45-Wal</v>
       </c>
       <c r="N78" s="181" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="O78" s="181">
         <v>2020</v>
@@ -13958,7 +14059,7 @@
     <row r="79" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="181" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C79" s="181" t="str">
         <f t="shared" si="2"/>
@@ -13981,7 +14082,7 @@
         <v>Bldg_SDEPre69-Wal</v>
       </c>
       <c r="N79" s="181" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O79" s="181">
         <v>2020</v>
@@ -13993,7 +14094,7 @@
     <row r="80" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="181" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C80" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14016,7 +14117,7 @@
         <v>Bldg_SDEPre79-Wal</v>
       </c>
       <c r="N80" s="181" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O80" s="181">
         <v>2020</v>
@@ -14028,7 +14129,7 @@
     <row r="81" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="181" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C81" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14051,7 +14152,7 @@
         <v>Bldg_SDEPre89-Wal</v>
       </c>
       <c r="N81" s="181" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O81" s="181">
         <v>2020</v>
@@ -14063,7 +14164,7 @@
     <row r="82" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="181" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C82" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14086,7 +14187,7 @@
         <v>Bldg_SDEPre99-Wal</v>
       </c>
       <c r="N82" s="181" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="O82" s="181">
         <v>2020</v>
@@ -14098,7 +14199,7 @@
     <row r="83" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="181" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C83" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14121,7 +14222,7 @@
         <v>Bldg_SDEPre09-Wal</v>
       </c>
       <c r="N83" s="181" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O83" s="181">
         <v>2020</v>
@@ -14133,7 +14234,7 @@
     <row r="84" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="181" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C84" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14156,7 +14257,7 @@
         <v>Bldg_SDEPre45-Wal</v>
       </c>
       <c r="N84" s="181" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="O84" s="181">
         <v>2020</v>
@@ -14168,7 +14269,7 @@
     <row r="85" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="181" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C85" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14191,7 +14292,7 @@
         <v>Bldg_SDEPre69-Wal</v>
       </c>
       <c r="N85" s="181" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O85" s="181">
         <v>2020</v>
@@ -14203,7 +14304,7 @@
     <row r="86" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="181" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C86" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14226,7 +14327,7 @@
         <v>Bldg_SDEPre79-Wal</v>
       </c>
       <c r="N86" s="181" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="O86" s="181">
         <v>2020</v>
@@ -14238,7 +14339,7 @@
     <row r="87" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="181" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C87" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14261,7 +14362,7 @@
         <v>Bldg_SDEPre89-Wal</v>
       </c>
       <c r="N87" s="181" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O87" s="181">
         <v>2020</v>
@@ -14273,7 +14374,7 @@
     <row r="88" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="181" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C88" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14296,7 +14397,7 @@
         <v>Bldg_SDEPre99-Wal</v>
       </c>
       <c r="N88" s="181" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="O88" s="181">
         <v>2020</v>
@@ -14308,7 +14409,7 @@
     <row r="89" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="181" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C89" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14334,7 +14435,7 @@
         <v>Bldg_SDEPre09-Wal</v>
       </c>
       <c r="N89" s="181" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="O89" s="181">
         <v>2020</v>
@@ -14346,7 +14447,7 @@
     <row r="90" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="181" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C90" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14369,7 +14470,7 @@
         <v>Bldg_FLTPre45-Win</v>
       </c>
       <c r="N90" s="181" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O90" s="181">
         <v>2020</v>
@@ -14381,7 +14482,7 @@
     <row r="91" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="181" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C91" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14404,7 +14505,7 @@
         <v>Bldg_FLTPre69-Win</v>
       </c>
       <c r="N91" s="181" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="O91" s="181">
         <v>2020</v>
@@ -14416,7 +14517,7 @@
     <row r="92" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="181" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C92" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14439,7 +14540,7 @@
         <v>Bldg_FLTPre79-Win</v>
       </c>
       <c r="N92" s="181" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O92" s="181">
         <v>2020</v>
@@ -14451,7 +14552,7 @@
     <row r="93" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="181" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C93" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14474,7 +14575,7 @@
         <v>Bldg_FLTPre89-Win</v>
       </c>
       <c r="N93" s="181" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O93" s="181">
         <v>2020</v>
@@ -14486,7 +14587,7 @@
     <row r="94" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="181" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C94" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14509,7 +14610,7 @@
         <v>Bldg_FLTPre99-Win</v>
       </c>
       <c r="N94" s="181" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O94" s="181">
         <v>2020</v>
@@ -14521,7 +14622,7 @@
     <row r="95" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="181" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C95" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14544,7 +14645,7 @@
         <v>Bldg_FLTPre09-Win</v>
       </c>
       <c r="N95" s="181" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="O95" s="181">
         <v>2020</v>
@@ -14556,7 +14657,7 @@
     <row r="96" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="181" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C96" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14579,7 +14680,7 @@
         <v>Bldg_FLTPre45-Win</v>
       </c>
       <c r="N96" s="181" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O96" s="181">
         <v>2020</v>
@@ -14591,7 +14692,7 @@
     <row r="97" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="181" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C97" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14614,7 +14715,7 @@
         <v>Bldg_FLTPre69-Win</v>
       </c>
       <c r="N97" s="181" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O97" s="181">
         <v>2020</v>
@@ -14626,7 +14727,7 @@
     <row r="98" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="181" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C98" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14649,7 +14750,7 @@
         <v>Bldg_FLTPre79-Win</v>
       </c>
       <c r="N98" s="181" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O98" s="181">
         <v>2020</v>
@@ -14661,7 +14762,7 @@
     <row r="99" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="181" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C99" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14684,7 +14785,7 @@
         <v>Bldg_FLTPre89-Win</v>
       </c>
       <c r="N99" s="181" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O99" s="181">
         <v>2020</v>
@@ -14696,7 +14797,7 @@
     <row r="100" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="181" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C100" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14719,7 +14820,7 @@
         <v>Bldg_FLTPre99-Win</v>
       </c>
       <c r="N100" s="181" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="O100" s="181">
         <v>2020</v>
@@ -14731,7 +14832,7 @@
     <row r="101" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="181" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C101" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14754,7 +14855,7 @@
         <v>Bldg_FLTPre09-Win</v>
       </c>
       <c r="N101" s="181" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="O101" s="181">
         <v>2020</v>
@@ -14766,7 +14867,7 @@
     <row r="102" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="181" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C102" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14789,7 +14890,7 @@
         <v>Bldg_FLTPre45-Win</v>
       </c>
       <c r="N102" s="181" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O102" s="181">
         <v>2020</v>
@@ -14801,7 +14902,7 @@
     <row r="103" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="181" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C103" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14824,7 +14925,7 @@
         <v>Bldg_FLTPre69-Win</v>
       </c>
       <c r="N103" s="181" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O103" s="181">
         <v>2020</v>
@@ -14836,7 +14937,7 @@
     <row r="104" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="181" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C104" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14859,7 +14960,7 @@
         <v>Bldg_FLTPre79-Win</v>
       </c>
       <c r="N104" s="181" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O104" s="181">
         <v>2020</v>
@@ -14871,7 +14972,7 @@
     <row r="105" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="181" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C105" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14894,7 +14995,7 @@
         <v>Bldg_FLTPre89-Win</v>
       </c>
       <c r="N105" s="181" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="O105" s="181">
         <v>2020</v>
@@ -14906,7 +15007,7 @@
     <row r="106" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="181" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C106" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14929,7 +15030,7 @@
         <v>Bldg_FLTPre99-Win</v>
       </c>
       <c r="N106" s="181" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="O106" s="181">
         <v>2020</v>
@@ -14941,7 +15042,7 @@
     <row r="107" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="181" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C107" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14964,7 +15065,7 @@
         <v>Bldg_FLTPre09-Win</v>
       </c>
       <c r="N107" s="181" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="O107" s="181">
         <v>2020</v>
@@ -14976,7 +15077,7 @@
     <row r="108" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="181" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C108" s="181" t="str">
         <f t="shared" si="2"/>
@@ -14999,7 +15100,7 @@
         <v>Bldg_FLTPre45-Cei</v>
       </c>
       <c r="N108" s="181" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="O108" s="181">
         <v>2020</v>
@@ -15011,7 +15112,7 @@
     <row r="109" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="181" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C109" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15034,7 +15135,7 @@
         <v>Bldg_FLTPre69-Cei</v>
       </c>
       <c r="N109" s="181" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O109" s="181">
         <v>2020</v>
@@ -15046,7 +15147,7 @@
     <row r="110" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="181" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C110" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15069,7 +15170,7 @@
         <v>Bldg_FLTPre79-Cei</v>
       </c>
       <c r="N110" s="181" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O110" s="181">
         <v>2020</v>
@@ -15081,7 +15182,7 @@
     <row r="111" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="181" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C111" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15104,7 +15205,7 @@
         <v>Bldg_FLTPre89-Cei</v>
       </c>
       <c r="N111" s="181" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O111" s="181">
         <v>2020</v>
@@ -15116,7 +15217,7 @@
     <row r="112" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="181" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C112" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15139,7 +15240,7 @@
         <v>Bldg_FLTPre99-Cei</v>
       </c>
       <c r="N112" s="181" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="O112" s="181">
         <v>2020</v>
@@ -15151,7 +15252,7 @@
     <row r="113" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="181" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C113" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15174,7 +15275,7 @@
         <v>Bldg_FLTPre09-Cei</v>
       </c>
       <c r="N113" s="181" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O113" s="181">
         <v>2020</v>
@@ -15186,7 +15287,7 @@
     <row r="114" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="181" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C114" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15209,7 +15310,7 @@
         <v>Bldg_FLTPre45-Cei</v>
       </c>
       <c r="N114" s="181" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O114" s="181">
         <v>2020</v>
@@ -15221,7 +15322,7 @@
     <row r="115" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="181" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C115" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15244,7 +15345,7 @@
         <v>Bldg_FLTPre69-Cei</v>
       </c>
       <c r="N115" s="181" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O115" s="181">
         <v>2020</v>
@@ -15256,7 +15357,7 @@
     <row r="116" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="181" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C116" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15279,7 +15380,7 @@
         <v>Bldg_FLTPre79-Cei</v>
       </c>
       <c r="N116" s="181" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O116" s="181">
         <v>2020</v>
@@ -15291,7 +15392,7 @@
     <row r="117" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="181" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C117" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15314,7 +15415,7 @@
         <v>Bldg_FLTPre89-Cei</v>
       </c>
       <c r="N117" s="181" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O117" s="181">
         <v>2020</v>
@@ -15326,7 +15427,7 @@
     <row r="118" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="181" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C118" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15349,7 +15450,7 @@
         <v>Bldg_FLTPre99-Cei</v>
       </c>
       <c r="N118" s="181" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="O118" s="181">
         <v>2020</v>
@@ -15361,7 +15462,7 @@
     <row r="119" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="181" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C119" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15384,7 +15485,7 @@
         <v>Bldg_FLTPre09-Cei</v>
       </c>
       <c r="N119" s="181" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="O119" s="181">
         <v>2020</v>
@@ -15396,7 +15497,7 @@
     <row r="120" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="181" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C120" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15419,7 +15520,7 @@
         <v>Bldg_FLTPre45-Wal</v>
       </c>
       <c r="N120" s="181" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O120" s="181">
         <v>2020</v>
@@ -15431,7 +15532,7 @@
     <row r="121" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="181" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C121" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15454,7 +15555,7 @@
         <v>Bldg_FLTPre69-Wal</v>
       </c>
       <c r="N121" s="181" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O121" s="181">
         <v>2020</v>
@@ -15466,7 +15567,7 @@
     <row r="122" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="181" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C122" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15489,7 +15590,7 @@
         <v>Bldg_FLTPre79-Wal</v>
       </c>
       <c r="N122" s="181" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O122" s="181">
         <v>2020</v>
@@ -15501,7 +15602,7 @@
     <row r="123" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="181" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C123" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15524,7 +15625,7 @@
         <v>Bldg_FLTPre89-Wal</v>
       </c>
       <c r="N123" s="181" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="O123" s="181">
         <v>2020</v>
@@ -15536,7 +15637,7 @@
     <row r="124" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="181" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C124" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15559,7 +15660,7 @@
         <v>Bldg_FLTPre99-Wal</v>
       </c>
       <c r="N124" s="181" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="O124" s="181">
         <v>2020</v>
@@ -15571,7 +15672,7 @@
     <row r="125" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="181" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C125" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15594,7 +15695,7 @@
         <v>Bldg_FLTPre09-Wal</v>
       </c>
       <c r="N125" s="181" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O125" s="181">
         <v>2020</v>
@@ -15606,7 +15707,7 @@
     <row r="126" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="181" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C126" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15629,7 +15730,7 @@
         <v>Bldg_FLTPre45-Wal</v>
       </c>
       <c r="N126" s="181" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O126" s="181">
         <v>2020</v>
@@ -15641,7 +15742,7 @@
     <row r="127" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="181" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C127" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15664,7 +15765,7 @@
         <v>Bldg_FLTPre69-Wal</v>
       </c>
       <c r="N127" s="181" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O127" s="181">
         <v>2020</v>
@@ -15676,7 +15777,7 @@
     <row r="128" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="181" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C128" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15699,7 +15800,7 @@
         <v>Bldg_FLTPre79-Wal</v>
       </c>
       <c r="N128" s="181" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O128" s="181">
         <v>2020</v>
@@ -15711,7 +15812,7 @@
     <row r="129" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="181" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C129" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15734,7 +15835,7 @@
         <v>Bldg_FLTPre89-Wal</v>
       </c>
       <c r="N129" s="181" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="O129" s="181">
         <v>2020</v>
@@ -15746,7 +15847,7 @@
     <row r="130" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="181" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C130" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15769,7 +15870,7 @@
         <v>Bldg_FLTPre99-Wal</v>
       </c>
       <c r="N130" s="181" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="O130" s="181">
         <v>2020</v>
@@ -15781,7 +15882,7 @@
     <row r="131" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="181" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C131" s="181" t="str">
         <f t="shared" si="2"/>
@@ -15804,7 +15905,7 @@
         <v>Bldg_FLTPre09-Wal</v>
       </c>
       <c r="N131" s="181" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O131" s="181">
         <v>2020</v>
@@ -15825,10 +15926,10 @@
     </row>
     <row r="134" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B134" s="190" t="s">
+        <v>646</v>
+      </c>
+      <c r="C134" s="190" t="s">
         <v>647</v>
-      </c>
-      <c r="C134" s="190" t="s">
-        <v>648</v>
       </c>
       <c r="D134" s="5"/>
       <c r="H134" s="186"/>
@@ -15838,55 +15939,55 @@
     </row>
     <row r="135" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B135" s="190" t="s">
+        <v>648</v>
+      </c>
+      <c r="C135" s="190" t="s">
         <v>649</v>
-      </c>
-      <c r="C135" s="190" t="s">
-        <v>650</v>
       </c>
       <c r="D135" s="5"/>
     </row>
     <row r="136" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B136" s="190" t="s">
+        <v>650</v>
+      </c>
+      <c r="C136" s="190" t="s">
         <v>651</v>
-      </c>
-      <c r="C136" s="190" t="s">
-        <v>652</v>
       </c>
       <c r="D136" s="5"/>
     </row>
     <row r="137" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B137" s="190" t="s">
+        <v>652</v>
+      </c>
+      <c r="C137" s="190" t="s">
         <v>653</v>
-      </c>
-      <c r="C137" s="190" t="s">
-        <v>654</v>
       </c>
       <c r="D137" s="5"/>
     </row>
     <row r="138" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B138" s="190" t="s">
+        <v>654</v>
+      </c>
+      <c r="C138" s="190" t="s">
         <v>655</v>
-      </c>
-      <c r="C138" s="190" t="s">
-        <v>656</v>
       </c>
       <c r="D138" s="5"/>
     </row>
     <row r="139" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B139" s="190" t="s">
+        <v>656</v>
+      </c>
+      <c r="C139" s="190" t="s">
         <v>657</v>
-      </c>
-      <c r="C139" s="190" t="s">
-        <v>658</v>
       </c>
       <c r="D139" s="5"/>
     </row>
     <row r="140" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="B140" s="190" t="s">
+        <v>658</v>
+      </c>
+      <c r="C140" s="190" t="s">
         <v>659</v>
-      </c>
-      <c r="C140" s="190" t="s">
-        <v>660</v>
       </c>
       <c r="D140" s="5"/>
     </row>
@@ -16198,8 +16299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F8057-C735-4662-BAA6-EEDCF7B57273}">
   <dimension ref="A2:AO170"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16254,40 +16355,40 @@
         <v>42</v>
       </c>
       <c r="G3" s="64" t="s">
+        <v>675</v>
+      </c>
+      <c r="H3" s="64" t="s">
         <v>676</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="I3" s="64" t="s">
         <v>677</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="J3" s="64" t="s">
         <v>678</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="K3" s="64" t="s">
         <v>679</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="L3" s="64" t="s">
         <v>680</v>
       </c>
-      <c r="L3" s="64" t="s">
+      <c r="M3" s="64" t="s">
         <v>681</v>
       </c>
-      <c r="M3" s="64" t="s">
+      <c r="N3" s="64" t="s">
         <v>682</v>
       </c>
-      <c r="N3" s="64" t="s">
+      <c r="O3" s="64" t="s">
         <v>683</v>
       </c>
-      <c r="O3" s="64" t="s">
+      <c r="P3" s="64" t="s">
         <v>684</v>
       </c>
-      <c r="P3" s="64" t="s">
+      <c r="Q3" s="64" t="s">
         <v>685</v>
       </c>
-      <c r="Q3" s="64" t="s">
+      <c r="R3" s="64" t="s">
         <v>686</v>
-      </c>
-      <c r="R3" s="64" t="s">
-        <v>687</v>
       </c>
       <c r="S3" s="65" t="s">
         <v>44</v>
@@ -16296,7 +16397,7 @@
         <v>330</v>
       </c>
       <c r="U3" s="64" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="V3" s="64" t="s">
         <v>342</v>
@@ -16314,22 +16415,22 @@
         <v>93</v>
       </c>
       <c r="AA3" s="64" t="s">
+        <v>802</v>
+      </c>
+      <c r="AB3" s="64" t="s">
         <v>803</v>
       </c>
-      <c r="AB3" s="64" t="s">
+      <c r="AC3" s="64" t="s">
         <v>804</v>
       </c>
-      <c r="AC3" s="64" t="s">
-        <v>805</v>
-      </c>
       <c r="AD3" s="64" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AE3" s="64" t="s">
         <v>331</v>
       </c>
       <c r="AF3" s="64" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AG3" s="64" t="s">
         <v>332</v>
@@ -16337,7 +16438,7 @@
     </row>
     <row r="4" spans="3:41" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C4" s="63" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D4" s="63" t="s">
         <v>53</v>
@@ -16348,47 +16449,47 @@
       <c r="F4" s="63" t="s">
         <v>335</v>
       </c>
-      <c r="G4" s="389" t="s">
-        <v>776</v>
-      </c>
-      <c r="H4" s="390"/>
-      <c r="I4" s="390"/>
-      <c r="J4" s="391"/>
-      <c r="K4" s="389" t="s">
+      <c r="G4" s="403" t="s">
+        <v>775</v>
+      </c>
+      <c r="H4" s="404"/>
+      <c r="I4" s="404"/>
+      <c r="J4" s="405"/>
+      <c r="K4" s="403" t="s">
         <v>337</v>
       </c>
-      <c r="L4" s="390"/>
-      <c r="M4" s="390"/>
-      <c r="N4" s="391"/>
-      <c r="O4" s="389" t="s">
+      <c r="L4" s="404"/>
+      <c r="M4" s="404"/>
+      <c r="N4" s="405"/>
+      <c r="O4" s="403" t="s">
         <v>338</v>
       </c>
-      <c r="P4" s="390"/>
-      <c r="Q4" s="390"/>
-      <c r="R4" s="391"/>
-      <c r="S4" s="389" t="s">
+      <c r="P4" s="404"/>
+      <c r="Q4" s="404"/>
+      <c r="R4" s="405"/>
+      <c r="S4" s="403" t="s">
         <v>339</v>
       </c>
-      <c r="T4" s="391"/>
-      <c r="U4" s="383" t="s">
+      <c r="T4" s="405"/>
+      <c r="U4" s="397" t="s">
         <v>340</v>
       </c>
-      <c r="V4" s="384"/>
-      <c r="W4" s="384"/>
-      <c r="X4" s="385"/>
+      <c r="V4" s="398"/>
+      <c r="W4" s="398"/>
+      <c r="X4" s="399"/>
       <c r="Y4" s="107"/>
       <c r="Z4" s="107"/>
       <c r="AA4" s="115" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AB4" s="118" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AC4" s="118" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AD4" s="118" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AE4" s="107" t="s">
         <v>127</v>
@@ -16409,7 +16510,7 @@
     </row>
     <row r="5" spans="3:41" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="61" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D5" s="61"/>
       <c r="E5" s="61"/>
@@ -16465,39 +16566,39 @@
     </row>
     <row r="6" spans="3:41" ht="33.75" x14ac:dyDescent="0.2">
       <c r="C6" s="84" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D6" s="85"/>
       <c r="E6" s="85"/>
       <c r="F6" s="86"/>
-      <c r="G6" s="386" t="s">
+      <c r="G6" s="400" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="387"/>
-      <c r="I6" s="387"/>
-      <c r="J6" s="388"/>
-      <c r="K6" s="387" t="s">
+      <c r="H6" s="401"/>
+      <c r="I6" s="401"/>
+      <c r="J6" s="402"/>
+      <c r="K6" s="401" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="387"/>
-      <c r="M6" s="387"/>
-      <c r="N6" s="388"/>
-      <c r="O6" s="386" t="s">
+      <c r="L6" s="401"/>
+      <c r="M6" s="401"/>
+      <c r="N6" s="402"/>
+      <c r="O6" s="400" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="387"/>
-      <c r="Q6" s="387"/>
-      <c r="R6" s="388"/>
-      <c r="S6" s="386" t="s">
+      <c r="P6" s="401"/>
+      <c r="Q6" s="401"/>
+      <c r="R6" s="402"/>
+      <c r="S6" s="400" t="s">
         <v>313</v>
       </c>
-      <c r="T6" s="388"/>
-      <c r="U6" s="386" t="s">
+      <c r="T6" s="402"/>
+      <c r="U6" s="400" t="s">
         <v>346</v>
       </c>
-      <c r="V6" s="387"/>
-      <c r="W6" s="387"/>
-      <c r="X6" s="388"/>
+      <c r="V6" s="401"/>
+      <c r="W6" s="401"/>
+      <c r="X6" s="402"/>
       <c r="Y6" s="108" t="s">
         <v>347</v>
       </c>
@@ -16515,7 +16616,7 @@
       </c>
       <c r="AD6" s="108"/>
       <c r="AE6" s="117" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AF6" s="108" t="s">
         <v>56</v>
@@ -16554,7 +16655,7 @@
         <v>351</v>
       </c>
       <c r="E7" s="137" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F7" s="103" t="s">
         <v>403</v>
@@ -16625,7 +16726,7 @@
         <v>16</v>
       </c>
       <c r="AM7" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN7" s="154"/>
       <c r="AO7" s="154" t="s">
@@ -16641,10 +16742,10 @@
         <v>352</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F8" s="104" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G8" s="339">
         <v>1</v>
@@ -16722,7 +16823,7 @@
         <v>16</v>
       </c>
       <c r="AM8" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN8" s="154"/>
       <c r="AO8" s="154" t="s">
@@ -16738,10 +16839,10 @@
         <v>353</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F9" s="105" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G9" s="336">
         <v>1</v>
@@ -16823,7 +16924,7 @@
         <v>16</v>
       </c>
       <c r="AM9" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN9" s="154"/>
       <c r="AO9" s="154" t="s">
@@ -16839,10 +16940,10 @@
         <v>357</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F10" s="104" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G10" s="339">
         <v>1</v>
@@ -16924,7 +17025,7 @@
         <v>16</v>
       </c>
       <c r="AM10" s="155" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN10" s="154"/>
       <c r="AO10" s="154"/>
@@ -16938,7 +17039,7 @@
         <v>350</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F11" s="105" t="s">
         <v>403</v>
@@ -17007,7 +17108,7 @@
         <v>16</v>
       </c>
       <c r="AM11" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN11" s="154"/>
       <c r="AO11" s="154" t="s">
@@ -17023,10 +17124,10 @@
         <v>354</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F12" s="104" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G12" s="339">
         <v>1</v>
@@ -17104,7 +17205,7 @@
         <v>16</v>
       </c>
       <c r="AM12" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN12" s="154"/>
       <c r="AO12" s="154" t="s">
@@ -17120,10 +17221,10 @@
         <v>355</v>
       </c>
       <c r="E13" s="77" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F13" s="105" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G13" s="336">
         <v>1</v>
@@ -17205,7 +17306,7 @@
         <v>16</v>
       </c>
       <c r="AM13" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN13" s="154"/>
       <c r="AO13" s="154" t="s">
@@ -17221,10 +17322,10 @@
         <v>356</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F14" s="104" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G14" s="339">
         <v>1</v>
@@ -17306,7 +17407,7 @@
         <v>16</v>
       </c>
       <c r="AM14" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN14" s="154"/>
       <c r="AO14" s="154" t="s">
@@ -17322,7 +17423,7 @@
         <v>358</v>
       </c>
       <c r="E15" s="77" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F15" s="105" t="s">
         <v>403</v>
@@ -17391,7 +17492,7 @@
         <v>16</v>
       </c>
       <c r="AM15" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN15" s="154"/>
       <c r="AO15" s="154" t="s">
@@ -17407,10 +17508,10 @@
         <v>359</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F16" s="104" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G16" s="339">
         <v>1</v>
@@ -17488,7 +17589,7 @@
         <v>16</v>
       </c>
       <c r="AM16" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN16" s="154"/>
       <c r="AO16" s="154" t="s">
@@ -17504,7 +17605,7 @@
         <v>360</v>
       </c>
       <c r="E17" s="77" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F17" s="105" t="s">
         <v>403</v>
@@ -17573,7 +17674,7 @@
         <v>16</v>
       </c>
       <c r="AM17" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN17" s="154"/>
       <c r="AO17" s="154" t="s">
@@ -17589,10 +17690,10 @@
         <v>361</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F18" s="104" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G18" s="339">
         <v>1</v>
@@ -17670,7 +17771,7 @@
         <v>16</v>
       </c>
       <c r="AM18" s="157" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN18" s="157"/>
       <c r="AO18" s="157" t="s">
@@ -17679,13 +17780,13 @@
     </row>
     <row r="19" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="335" t="s">
+        <v>752</v>
+      </c>
+      <c r="D19" s="350" t="s">
         <v>753</v>
       </c>
-      <c r="D19" s="350" t="s">
-        <v>754</v>
-      </c>
       <c r="E19" s="170" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F19" s="143"/>
       <c r="G19" s="345">
@@ -17760,7 +17861,7 @@
         <v>16</v>
       </c>
       <c r="AM19" s="158" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN19" s="158"/>
       <c r="AO19" s="158" t="s">
@@ -17769,7 +17870,7 @@
     </row>
     <row r="20" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C20" s="80" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D20" s="80"/>
       <c r="E20" s="81"/>
@@ -17814,7 +17915,7 @@
         <v>16</v>
       </c>
       <c r="AM20" s="152" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN20" s="152"/>
       <c r="AO20" s="152" t="s">
@@ -17899,7 +18000,7 @@
         <v>16</v>
       </c>
       <c r="AM21" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN21" s="154"/>
       <c r="AO21" s="154" t="s">
@@ -17908,7 +18009,7 @@
     </row>
     <row r="22" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C22" s="80" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D22" s="80"/>
       <c r="E22" s="81"/>
@@ -17953,7 +18054,7 @@
         <v>16</v>
       </c>
       <c r="AM22" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN22" s="154"/>
       <c r="AO22" s="154" t="s">
@@ -18038,7 +18139,7 @@
         <v>16</v>
       </c>
       <c r="AM23" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN23" s="154"/>
       <c r="AO23" s="154" t="s">
@@ -18057,7 +18158,7 @@
         <v>441</v>
       </c>
       <c r="F24" s="104" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G24" s="339">
         <v>1</v>
@@ -18131,7 +18232,7 @@
         <v>16</v>
       </c>
       <c r="AM24" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN24" s="154"/>
       <c r="AO24" s="154" t="s">
@@ -18216,7 +18317,7 @@
         <v>16</v>
       </c>
       <c r="AM25" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN25" s="154"/>
       <c r="AO25" s="154" t="s">
@@ -18235,7 +18336,7 @@
         <v>441</v>
       </c>
       <c r="F26" s="104" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G26" s="339">
         <v>1</v>
@@ -18313,7 +18414,7 @@
         <v>16</v>
       </c>
       <c r="AM26" s="157" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN26" s="157"/>
       <c r="AO26" s="157" t="s">
@@ -18329,10 +18430,10 @@
         <v>368</v>
       </c>
       <c r="E27" s="77" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F27" s="105" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G27" s="336">
         <v>1</v>
@@ -18414,7 +18515,7 @@
         <v>16</v>
       </c>
       <c r="AM27" s="152" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN27" s="152"/>
       <c r="AO27" s="152" t="s">
@@ -18499,7 +18600,7 @@
         <v>16</v>
       </c>
       <c r="AM28" s="157" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN28" s="157"/>
       <c r="AO28" s="157" t="s">
@@ -18518,7 +18619,7 @@
         <v>441</v>
       </c>
       <c r="F29" s="143" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G29" s="345">
         <v>1</v>
@@ -18592,7 +18693,7 @@
         <v>16</v>
       </c>
       <c r="AM29" s="158" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN29" s="158"/>
       <c r="AO29" s="158" t="s">
@@ -18601,7 +18702,7 @@
     </row>
     <row r="30" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C30" s="80" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D30" s="80"/>
       <c r="E30" s="81"/>
@@ -18646,7 +18747,7 @@
         <v>16</v>
       </c>
       <c r="AM30" s="152" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN30" s="152"/>
       <c r="AO30" s="152" t="s">
@@ -18662,10 +18763,10 @@
         <v>372</v>
       </c>
       <c r="E31" s="137" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F31" s="137" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G31" s="342">
         <v>1</v>
@@ -18743,7 +18844,7 @@
         <v>16</v>
       </c>
       <c r="AM31" s="157" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN31" s="157"/>
       <c r="AO31" s="157" t="s">
@@ -18759,10 +18860,10 @@
         <v>373</v>
       </c>
       <c r="E32" s="74" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F32" s="74" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G32" s="355">
         <v>1</v>
@@ -18840,7 +18941,7 @@
         <v>16</v>
       </c>
       <c r="AM32" s="152" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN32" s="152"/>
       <c r="AO32" s="152" t="s">
@@ -18849,7 +18950,7 @@
     </row>
     <row r="33" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C33" s="80" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D33" s="80"/>
       <c r="E33" s="81"/>
@@ -18894,7 +18995,7 @@
         <v>16</v>
       </c>
       <c r="AM33" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN33" s="154"/>
       <c r="AO33" s="154" t="s">
@@ -18910,10 +19011,10 @@
         <v>395</v>
       </c>
       <c r="E34" s="172" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F34" s="146" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G34" s="355">
         <v>1</v>
@@ -18996,7 +19097,7 @@
         <v>16</v>
       </c>
       <c r="AM34" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN34" s="154"/>
       <c r="AO34" s="154" t="s">
@@ -19005,7 +19106,7 @@
     </row>
     <row r="35" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C35" s="80" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D35" s="80"/>
       <c r="E35" s="81"/>
@@ -19050,7 +19151,7 @@
         <v>16</v>
       </c>
       <c r="AM35" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN35" s="154"/>
       <c r="AO35" s="154" t="s">
@@ -19066,10 +19167,10 @@
         <v>375</v>
       </c>
       <c r="E36" s="137" t="s">
+        <v>767</v>
+      </c>
+      <c r="F36" s="68" t="s">
         <v>768</v>
-      </c>
-      <c r="F36" s="68" t="s">
-        <v>769</v>
       </c>
       <c r="G36" s="342">
         <v>1</v>
@@ -19143,7 +19244,7 @@
         <v>16</v>
       </c>
       <c r="AM36" s="157" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN36" s="157"/>
       <c r="AO36" s="157" t="s">
@@ -19159,10 +19260,10 @@
         <v>376</v>
       </c>
       <c r="E37" s="74" t="s">
+        <v>767</v>
+      </c>
+      <c r="F37" s="75" t="s">
         <v>768</v>
-      </c>
-      <c r="F37" s="75" t="s">
-        <v>769</v>
       </c>
       <c r="G37" s="355">
         <v>1</v>
@@ -19236,7 +19337,7 @@
         <v>16</v>
       </c>
       <c r="AM37" s="152" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN37" s="152"/>
       <c r="AO37" s="152" t="s">
@@ -19245,7 +19346,7 @@
     </row>
     <row r="38" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C38" s="80" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D38" s="80"/>
       <c r="E38" s="81"/>
@@ -19353,7 +19454,7 @@
         <v>379</v>
       </c>
       <c r="E40" s="71" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F40" s="70" t="s">
         <v>405</v>
@@ -19421,7 +19522,7 @@
         <v>381</v>
       </c>
       <c r="E41" s="77" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F41" s="76" t="s">
         <v>405</v>
@@ -19487,7 +19588,7 @@
         <v>380</v>
       </c>
       <c r="E42" s="71" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F42" s="70" t="s">
         <v>405</v>
@@ -19553,7 +19654,7 @@
         <v>382</v>
       </c>
       <c r="E43" s="170" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F43" s="138" t="s">
         <v>405</v>
@@ -19612,7 +19713,7 @@
     </row>
     <row r="44" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C44" s="80" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D44" s="80"/>
       <c r="E44" s="81"/>
@@ -19730,40 +19831,40 @@
         <v>42</v>
       </c>
       <c r="G50" s="64" t="s">
+        <v>687</v>
+      </c>
+      <c r="H50" s="64" t="s">
         <v>688</v>
       </c>
-      <c r="H50" s="64" t="s">
+      <c r="I50" s="64" t="s">
         <v>689</v>
       </c>
-      <c r="I50" s="64" t="s">
+      <c r="J50" s="64" t="s">
         <v>690</v>
       </c>
-      <c r="J50" s="64" t="s">
+      <c r="K50" s="64" t="s">
         <v>691</v>
       </c>
-      <c r="K50" s="64" t="s">
+      <c r="L50" s="64" t="s">
         <v>692</v>
       </c>
-      <c r="L50" s="64" t="s">
+      <c r="M50" s="64" t="s">
         <v>693</v>
       </c>
-      <c r="M50" s="64" t="s">
+      <c r="N50" s="64" t="s">
         <v>694</v>
       </c>
-      <c r="N50" s="64" t="s">
+      <c r="O50" s="64" t="s">
         <v>695</v>
       </c>
-      <c r="O50" s="64" t="s">
+      <c r="P50" s="64" t="s">
         <v>696</v>
       </c>
-      <c r="P50" s="64" t="s">
+      <c r="Q50" s="64" t="s">
         <v>697</v>
       </c>
-      <c r="Q50" s="64" t="s">
+      <c r="R50" s="64" t="s">
         <v>698</v>
-      </c>
-      <c r="R50" s="64" t="s">
-        <v>699</v>
       </c>
       <c r="S50" s="65" t="s">
         <v>44</v>
@@ -19772,7 +19873,7 @@
         <v>330</v>
       </c>
       <c r="U50" s="64" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="V50" s="64" t="s">
         <v>342</v>
@@ -19790,22 +19891,22 @@
         <v>93</v>
       </c>
       <c r="AA50" s="64" t="s">
+        <v>802</v>
+      </c>
+      <c r="AB50" s="64" t="s">
         <v>803</v>
       </c>
-      <c r="AB50" s="64" t="s">
+      <c r="AC50" s="64" t="s">
         <v>804</v>
       </c>
-      <c r="AC50" s="64" t="s">
-        <v>805</v>
-      </c>
       <c r="AD50" s="64" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AE50" s="64" t="s">
         <v>331</v>
       </c>
       <c r="AF50" s="64" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AG50" s="64" t="s">
         <v>332</v>
@@ -19833,47 +19934,47 @@
       <c r="F51" s="63" t="s">
         <v>335</v>
       </c>
-      <c r="G51" s="389" t="s">
+      <c r="G51" s="403" t="s">
         <v>336</v>
       </c>
-      <c r="H51" s="390"/>
-      <c r="I51" s="390"/>
-      <c r="J51" s="391"/>
-      <c r="K51" s="389" t="s">
+      <c r="H51" s="404"/>
+      <c r="I51" s="404"/>
+      <c r="J51" s="405"/>
+      <c r="K51" s="403" t="s">
         <v>337</v>
       </c>
-      <c r="L51" s="390"/>
-      <c r="M51" s="390"/>
-      <c r="N51" s="391"/>
-      <c r="O51" s="389" t="s">
+      <c r="L51" s="404"/>
+      <c r="M51" s="404"/>
+      <c r="N51" s="405"/>
+      <c r="O51" s="403" t="s">
         <v>338</v>
       </c>
-      <c r="P51" s="390"/>
-      <c r="Q51" s="390"/>
-      <c r="R51" s="391"/>
-      <c r="S51" s="389" t="s">
+      <c r="P51" s="404"/>
+      <c r="Q51" s="404"/>
+      <c r="R51" s="405"/>
+      <c r="S51" s="403" t="s">
         <v>339</v>
       </c>
-      <c r="T51" s="391"/>
-      <c r="U51" s="383" t="s">
+      <c r="T51" s="405"/>
+      <c r="U51" s="397" t="s">
         <v>340</v>
       </c>
-      <c r="V51" s="384"/>
-      <c r="W51" s="384"/>
-      <c r="X51" s="385"/>
+      <c r="V51" s="398"/>
+      <c r="W51" s="398"/>
+      <c r="X51" s="399"/>
       <c r="Y51" s="107"/>
       <c r="Z51" s="107"/>
       <c r="AA51" s="115" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AB51" s="118" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AC51" s="118" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AD51" s="118" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AE51" s="107" t="s">
         <v>127</v>
@@ -19906,7 +20007,7 @@
     </row>
     <row r="52" spans="3:41" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C52" s="61" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D52" s="61"/>
       <c r="E52" s="61"/>
@@ -19962,39 +20063,39 @@
     </row>
     <row r="53" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C53" s="84" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D53" s="85"/>
       <c r="E53" s="85"/>
       <c r="F53" s="86"/>
-      <c r="G53" s="386" t="s">
+      <c r="G53" s="400" t="s">
         <v>56</v>
       </c>
-      <c r="H53" s="387"/>
-      <c r="I53" s="387"/>
-      <c r="J53" s="388"/>
-      <c r="K53" s="387" t="s">
+      <c r="H53" s="401"/>
+      <c r="I53" s="401"/>
+      <c r="J53" s="402"/>
+      <c r="K53" s="401" t="s">
         <v>56</v>
       </c>
-      <c r="L53" s="387"/>
-      <c r="M53" s="387"/>
-      <c r="N53" s="388"/>
-      <c r="O53" s="386" t="s">
+      <c r="L53" s="401"/>
+      <c r="M53" s="401"/>
+      <c r="N53" s="402"/>
+      <c r="O53" s="400" t="s">
         <v>56</v>
       </c>
-      <c r="P53" s="387"/>
-      <c r="Q53" s="387"/>
-      <c r="R53" s="388"/>
-      <c r="S53" s="386" t="s">
+      <c r="P53" s="401"/>
+      <c r="Q53" s="401"/>
+      <c r="R53" s="402"/>
+      <c r="S53" s="400" t="s">
         <v>313</v>
       </c>
-      <c r="T53" s="388"/>
-      <c r="U53" s="386" t="s">
+      <c r="T53" s="402"/>
+      <c r="U53" s="400" t="s">
         <v>346</v>
       </c>
-      <c r="V53" s="387"/>
-      <c r="W53" s="387"/>
-      <c r="X53" s="388"/>
+      <c r="V53" s="401"/>
+      <c r="W53" s="401"/>
+      <c r="X53" s="402"/>
       <c r="Y53" s="108" t="s">
         <v>347</v>
       </c>
@@ -20012,7 +20113,7 @@
       </c>
       <c r="AD53" s="108"/>
       <c r="AE53" s="117" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AF53" s="108" t="s">
         <v>56</v>
@@ -20035,7 +20136,7 @@
         <v>16</v>
       </c>
       <c r="AM53" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN53" s="154"/>
       <c r="AO53" s="154" t="s">
@@ -20051,7 +20152,7 @@
         <v>351</v>
       </c>
       <c r="E54" s="137" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F54" s="76" t="s">
         <v>426</v>
@@ -20120,7 +20221,7 @@
         <v>16</v>
       </c>
       <c r="AM54" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN54" s="154"/>
       <c r="AO54" s="154" t="s">
@@ -20136,10 +20237,10 @@
         <v>352</v>
       </c>
       <c r="E55" s="71" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F55" s="70" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G55" s="339">
         <v>1</v>
@@ -20217,7 +20318,7 @@
         <v>16</v>
       </c>
       <c r="AM55" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN55" s="154"/>
       <c r="AO55" s="154" t="s">
@@ -20233,10 +20334,10 @@
         <v>353</v>
       </c>
       <c r="E56" s="77" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F56" s="76" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G56" s="336">
         <v>1</v>
@@ -20318,7 +20419,7 @@
         <v>16</v>
       </c>
       <c r="AM56" s="155" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN56" s="154"/>
       <c r="AO56" s="154"/>
@@ -20332,10 +20433,10 @@
         <v>357</v>
       </c>
       <c r="E57" s="71" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F57" s="70" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G57" s="339">
         <v>1</v>
@@ -20417,7 +20518,7 @@
         <v>16</v>
       </c>
       <c r="AM57" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN57" s="154"/>
       <c r="AO57" s="154" t="s">
@@ -20433,7 +20534,7 @@
         <v>350</v>
       </c>
       <c r="E58" s="77" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F58" s="76" t="s">
         <v>426</v>
@@ -20502,7 +20603,7 @@
         <v>16</v>
       </c>
       <c r="AM58" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN58" s="154"/>
       <c r="AO58" s="154" t="s">
@@ -20518,10 +20619,10 @@
         <v>354</v>
       </c>
       <c r="E59" s="71" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F59" s="70" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G59" s="339">
         <v>1</v>
@@ -20599,7 +20700,7 @@
         <v>16</v>
       </c>
       <c r="AM59" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN59" s="154"/>
       <c r="AO59" s="154" t="s">
@@ -20615,10 +20716,10 @@
         <v>355</v>
       </c>
       <c r="E60" s="77" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F60" s="76" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G60" s="336">
         <v>1</v>
@@ -20700,7 +20801,7 @@
         <v>16</v>
       </c>
       <c r="AM60" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN60" s="154"/>
       <c r="AO60" s="154" t="s">
@@ -20716,10 +20817,10 @@
         <v>356</v>
       </c>
       <c r="E61" s="71" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F61" s="70" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G61" s="339">
         <v>1</v>
@@ -20801,7 +20902,7 @@
         <v>16</v>
       </c>
       <c r="AM61" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN61" s="154"/>
       <c r="AO61" s="154" t="s">
@@ -20817,7 +20918,7 @@
         <v>358</v>
       </c>
       <c r="E62" s="77" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F62" s="76" t="s">
         <v>426</v>
@@ -20886,7 +20987,7 @@
         <v>16</v>
       </c>
       <c r="AM62" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN62" s="154"/>
       <c r="AO62" s="154" t="s">
@@ -20902,10 +21003,10 @@
         <v>359</v>
       </c>
       <c r="E63" s="71" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F63" s="70" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G63" s="339">
         <v>1</v>
@@ -20983,7 +21084,7 @@
         <v>16</v>
       </c>
       <c r="AM63" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN63" s="154"/>
       <c r="AO63" s="154" t="s">
@@ -20999,7 +21100,7 @@
         <v>360</v>
       </c>
       <c r="E64" s="77" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F64" s="76" t="s">
         <v>426</v>
@@ -21068,7 +21169,7 @@
         <v>16</v>
       </c>
       <c r="AM64" s="157" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN64" s="157"/>
       <c r="AO64" s="157" t="s">
@@ -21084,10 +21185,10 @@
         <v>361</v>
       </c>
       <c r="E65" s="71" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F65" s="73" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G65" s="339">
         <v>1</v>
@@ -21165,7 +21266,7 @@
         <v>16</v>
       </c>
       <c r="AM65" s="158" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN65" s="158"/>
       <c r="AO65" s="158" t="s">
@@ -21174,7 +21275,7 @@
     </row>
     <row r="66" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C66" s="80" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D66" s="80"/>
       <c r="E66" s="81"/>
@@ -21219,7 +21320,7 @@
         <v>16</v>
       </c>
       <c r="AM66" s="152" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN66" s="152"/>
       <c r="AO66" s="152" t="s">
@@ -21304,7 +21405,7 @@
         <v>16</v>
       </c>
       <c r="AM67" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN67" s="154"/>
       <c r="AO67" s="154" t="s">
@@ -21313,7 +21414,7 @@
     </row>
     <row r="68" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C68" s="80" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D68" s="80"/>
       <c r="E68" s="81"/>
@@ -21358,7 +21459,7 @@
         <v>16</v>
       </c>
       <c r="AM68" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN68" s="154"/>
       <c r="AO68" s="154" t="s">
@@ -21443,7 +21544,7 @@
         <v>16</v>
       </c>
       <c r="AM69" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN69" s="154"/>
       <c r="AO69" s="154" t="s">
@@ -21462,7 +21563,7 @@
         <v>441</v>
       </c>
       <c r="F70" s="70" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G70" s="339">
         <v>1</v>
@@ -21536,7 +21637,7 @@
         <v>16</v>
       </c>
       <c r="AM70" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN70" s="154"/>
       <c r="AO70" s="154" t="s">
@@ -21621,7 +21722,7 @@
         <v>16</v>
       </c>
       <c r="AM71" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN71" s="154"/>
       <c r="AO71" s="154" t="s">
@@ -21640,7 +21741,7 @@
         <v>441</v>
       </c>
       <c r="F72" s="70" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G72" s="339">
         <v>1</v>
@@ -21718,7 +21819,7 @@
         <v>16</v>
       </c>
       <c r="AM72" s="157" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN72" s="157"/>
       <c r="AO72" s="157" t="s">
@@ -21734,10 +21835,10 @@
         <v>368</v>
       </c>
       <c r="E73" s="77" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F73" s="76" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G73" s="336">
         <v>1</v>
@@ -21819,7 +21920,7 @@
         <v>16</v>
       </c>
       <c r="AM73" s="152" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN73" s="152"/>
       <c r="AO73" s="152" t="s">
@@ -21904,7 +22005,7 @@
         <v>16</v>
       </c>
       <c r="AM74" s="157" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN74" s="157"/>
       <c r="AO74" s="157" t="s">
@@ -21923,7 +22024,7 @@
         <v>441</v>
       </c>
       <c r="F75" s="76" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G75" s="345">
         <v>1</v>
@@ -21997,7 +22098,7 @@
         <v>16</v>
       </c>
       <c r="AM75" s="158" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN75" s="158"/>
       <c r="AO75" s="158" t="s">
@@ -22006,7 +22107,7 @@
     </row>
     <row r="76" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C76" s="80" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D76" s="80"/>
       <c r="E76" s="81"/>
@@ -22051,7 +22152,7 @@
         <v>16</v>
       </c>
       <c r="AM76" s="152" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN76" s="152"/>
       <c r="AO76" s="152" t="s">
@@ -22067,10 +22168,10 @@
         <v>372</v>
       </c>
       <c r="E77" s="137" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F77" s="137" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G77" s="342">
         <v>1</v>
@@ -22148,7 +22249,7 @@
         <v>16</v>
       </c>
       <c r="AM77" s="157" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN77" s="157"/>
       <c r="AO77" s="157" t="s">
@@ -22164,10 +22265,10 @@
         <v>373</v>
       </c>
       <c r="E78" s="74" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F78" s="74" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G78" s="355">
         <v>1</v>
@@ -22245,7 +22346,7 @@
         <v>16</v>
       </c>
       <c r="AM78" s="152" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN78" s="152"/>
       <c r="AO78" s="152" t="s">
@@ -22299,7 +22400,7 @@
         <v>16</v>
       </c>
       <c r="AM79" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN79" s="154"/>
       <c r="AO79" s="154" t="s">
@@ -22315,10 +22416,10 @@
         <v>395</v>
       </c>
       <c r="E80" s="172" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F80" s="76" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G80" s="355">
         <v>1</v>
@@ -22400,7 +22501,7 @@
         <v>16</v>
       </c>
       <c r="AM80" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN80" s="154"/>
       <c r="AO80" s="154" t="s">
@@ -22454,7 +22555,7 @@
         <v>16</v>
       </c>
       <c r="AM81" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN81" s="154"/>
       <c r="AO81" s="154" t="s">
@@ -22470,10 +22571,10 @@
         <v>375</v>
       </c>
       <c r="E82" s="137" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F82" s="137" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G82" s="342">
         <v>1</v>
@@ -22547,7 +22648,7 @@
         <v>16</v>
       </c>
       <c r="AM82" s="157" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN82" s="157"/>
       <c r="AO82" s="157" t="s">
@@ -22563,10 +22664,10 @@
         <v>376</v>
       </c>
       <c r="E83" s="74" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F83" s="74" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G83" s="355">
         <v>1</v>
@@ -22640,7 +22741,7 @@
         <v>16</v>
       </c>
       <c r="AM83" s="152" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN83" s="152"/>
       <c r="AO83" s="152" t="s">
@@ -22757,7 +22858,7 @@
         <v>379</v>
       </c>
       <c r="E86" s="71" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F86" s="70" t="s">
         <v>429</v>
@@ -22825,7 +22926,7 @@
         <v>381</v>
       </c>
       <c r="E87" s="77" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F87" s="76" t="s">
         <v>429</v>
@@ -22891,7 +22992,7 @@
         <v>380</v>
       </c>
       <c r="E88" s="71" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F88" s="70" t="s">
         <v>429</v>
@@ -22957,7 +23058,7 @@
         <v>382</v>
       </c>
       <c r="E89" s="170" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F89" s="138" t="s">
         <v>429</v>
@@ -23016,7 +23117,7 @@
     </row>
     <row r="90" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C90" s="80" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D90" s="80"/>
       <c r="E90" s="81"/>
@@ -23134,40 +23235,40 @@
         <v>42</v>
       </c>
       <c r="G97" s="64" t="s">
+        <v>699</v>
+      </c>
+      <c r="H97" s="64" t="s">
         <v>700</v>
       </c>
-      <c r="H97" s="64" t="s">
+      <c r="I97" s="64" t="s">
         <v>701</v>
       </c>
-      <c r="I97" s="64" t="s">
+      <c r="J97" s="64" t="s">
         <v>702</v>
       </c>
-      <c r="J97" s="64" t="s">
+      <c r="K97" s="64" t="s">
         <v>703</v>
       </c>
-      <c r="K97" s="64" t="s">
+      <c r="L97" s="64" t="s">
         <v>704</v>
       </c>
-      <c r="L97" s="64" t="s">
+      <c r="M97" s="64" t="s">
         <v>705</v>
       </c>
-      <c r="M97" s="64" t="s">
+      <c r="N97" s="64" t="s">
         <v>706</v>
       </c>
-      <c r="N97" s="64" t="s">
+      <c r="O97" s="64" t="s">
         <v>707</v>
       </c>
-      <c r="O97" s="64" t="s">
+      <c r="P97" s="64" t="s">
         <v>708</v>
       </c>
-      <c r="P97" s="64" t="s">
+      <c r="Q97" s="64" t="s">
         <v>709</v>
       </c>
-      <c r="Q97" s="64" t="s">
+      <c r="R97" s="64" t="s">
         <v>710</v>
-      </c>
-      <c r="R97" s="64" t="s">
-        <v>711</v>
       </c>
       <c r="S97" s="65" t="s">
         <v>44</v>
@@ -23176,7 +23277,7 @@
         <v>330</v>
       </c>
       <c r="U97" s="64" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="V97" s="64" t="s">
         <v>342</v>
@@ -23194,22 +23295,22 @@
         <v>93</v>
       </c>
       <c r="AA97" s="64" t="s">
+        <v>802</v>
+      </c>
+      <c r="AB97" s="64" t="s">
         <v>803</v>
       </c>
-      <c r="AB97" s="64" t="s">
+      <c r="AC97" s="64" t="s">
         <v>804</v>
       </c>
-      <c r="AC97" s="64" t="s">
-        <v>805</v>
-      </c>
       <c r="AD97" s="64" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AE97" s="64" t="s">
         <v>331</v>
       </c>
       <c r="AF97" s="64" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AG97" s="64" t="s">
         <v>332</v>
@@ -23237,47 +23338,47 @@
       <c r="F98" s="63" t="s">
         <v>335</v>
       </c>
-      <c r="G98" s="389" t="s">
+      <c r="G98" s="403" t="s">
         <v>336</v>
       </c>
-      <c r="H98" s="390"/>
-      <c r="I98" s="390"/>
-      <c r="J98" s="391"/>
-      <c r="K98" s="389" t="s">
+      <c r="H98" s="404"/>
+      <c r="I98" s="404"/>
+      <c r="J98" s="405"/>
+      <c r="K98" s="403" t="s">
         <v>337</v>
       </c>
-      <c r="L98" s="390"/>
-      <c r="M98" s="390"/>
-      <c r="N98" s="391"/>
-      <c r="O98" s="389" t="s">
+      <c r="L98" s="404"/>
+      <c r="M98" s="404"/>
+      <c r="N98" s="405"/>
+      <c r="O98" s="403" t="s">
         <v>338</v>
       </c>
-      <c r="P98" s="390"/>
-      <c r="Q98" s="390"/>
-      <c r="R98" s="391"/>
-      <c r="S98" s="389" t="s">
+      <c r="P98" s="404"/>
+      <c r="Q98" s="404"/>
+      <c r="R98" s="405"/>
+      <c r="S98" s="403" t="s">
         <v>339</v>
       </c>
-      <c r="T98" s="391"/>
-      <c r="U98" s="383" t="s">
+      <c r="T98" s="405"/>
+      <c r="U98" s="397" t="s">
         <v>340</v>
       </c>
-      <c r="V98" s="384"/>
-      <c r="W98" s="384"/>
-      <c r="X98" s="385"/>
+      <c r="V98" s="398"/>
+      <c r="W98" s="398"/>
+      <c r="X98" s="399"/>
       <c r="Y98" s="107"/>
       <c r="Z98" s="107"/>
       <c r="AA98" s="115" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AB98" s="118" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AC98" s="118" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AD98" s="118" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AE98" s="107" t="s">
         <v>127</v>
@@ -23310,7 +23411,7 @@
     </row>
     <row r="99" spans="3:41" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C99" s="61" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D99" s="61"/>
       <c r="E99" s="61"/>
@@ -23366,39 +23467,39 @@
     </row>
     <row r="100" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C100" s="84" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D100" s="85"/>
       <c r="E100" s="85"/>
       <c r="F100" s="86"/>
-      <c r="G100" s="386" t="s">
+      <c r="G100" s="400" t="s">
         <v>56</v>
       </c>
-      <c r="H100" s="387"/>
-      <c r="I100" s="387"/>
-      <c r="J100" s="388"/>
-      <c r="K100" s="387" t="s">
+      <c r="H100" s="401"/>
+      <c r="I100" s="401"/>
+      <c r="J100" s="402"/>
+      <c r="K100" s="401" t="s">
         <v>56</v>
       </c>
-      <c r="L100" s="387"/>
-      <c r="M100" s="387"/>
-      <c r="N100" s="388"/>
-      <c r="O100" s="386" t="s">
+      <c r="L100" s="401"/>
+      <c r="M100" s="401"/>
+      <c r="N100" s="402"/>
+      <c r="O100" s="400" t="s">
         <v>56</v>
       </c>
-      <c r="P100" s="387"/>
-      <c r="Q100" s="387"/>
-      <c r="R100" s="388"/>
-      <c r="S100" s="386" t="s">
+      <c r="P100" s="401"/>
+      <c r="Q100" s="401"/>
+      <c r="R100" s="402"/>
+      <c r="S100" s="400" t="s">
         <v>313</v>
       </c>
-      <c r="T100" s="388"/>
-      <c r="U100" s="386" t="s">
+      <c r="T100" s="402"/>
+      <c r="U100" s="400" t="s">
         <v>346</v>
       </c>
-      <c r="V100" s="387"/>
-      <c r="W100" s="387"/>
-      <c r="X100" s="388"/>
+      <c r="V100" s="401"/>
+      <c r="W100" s="401"/>
+      <c r="X100" s="402"/>
       <c r="Y100" s="108" t="s">
         <v>347</v>
       </c>
@@ -23416,7 +23517,7 @@
       </c>
       <c r="AD100" s="108"/>
       <c r="AE100" s="117" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AF100" s="108" t="s">
         <v>56</v>
@@ -23439,7 +23540,7 @@
         <v>16</v>
       </c>
       <c r="AM100" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN100" s="154"/>
       <c r="AO100" s="154" t="s">
@@ -23455,7 +23556,7 @@
         <v>351</v>
       </c>
       <c r="E101" s="137" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F101" s="76" t="s">
         <v>434</v>
@@ -23524,7 +23625,7 @@
         <v>16</v>
       </c>
       <c r="AM101" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN101" s="154"/>
       <c r="AO101" s="154" t="s">
@@ -23540,10 +23641,10 @@
         <v>352</v>
       </c>
       <c r="E102" s="71" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F102" s="70" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G102" s="339">
         <v>1</v>
@@ -23621,7 +23722,7 @@
         <v>16</v>
       </c>
       <c r="AM102" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN102" s="154"/>
       <c r="AO102" s="154" t="s">
@@ -23637,10 +23738,10 @@
         <v>353</v>
       </c>
       <c r="E103" s="77" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F103" s="76" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G103" s="336">
         <v>1</v>
@@ -23722,7 +23823,7 @@
         <v>16</v>
       </c>
       <c r="AM103" s="155" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN103" s="154"/>
       <c r="AO103" s="154"/>
@@ -23736,10 +23837,10 @@
         <v>357</v>
       </c>
       <c r="E104" s="71" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F104" s="70" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G104" s="339">
         <v>1</v>
@@ -23821,7 +23922,7 @@
         <v>16</v>
       </c>
       <c r="AM104" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN104" s="154"/>
       <c r="AO104" s="154" t="s">
@@ -23837,7 +23938,7 @@
         <v>350</v>
       </c>
       <c r="E105" s="77" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F105" s="76" t="s">
         <v>434</v>
@@ -23906,7 +24007,7 @@
         <v>16</v>
       </c>
       <c r="AM105" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN105" s="154"/>
       <c r="AO105" s="154" t="s">
@@ -23922,10 +24023,10 @@
         <v>354</v>
       </c>
       <c r="E106" s="71" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F106" s="70" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G106" s="339">
         <v>1</v>
@@ -24003,7 +24104,7 @@
         <v>16</v>
       </c>
       <c r="AM106" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN106" s="154"/>
       <c r="AO106" s="154" t="s">
@@ -24019,10 +24120,10 @@
         <v>355</v>
       </c>
       <c r="E107" s="77" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F107" s="76" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G107" s="336">
         <v>1</v>
@@ -24104,7 +24205,7 @@
         <v>16</v>
       </c>
       <c r="AM107" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN107" s="154"/>
       <c r="AO107" s="154" t="s">
@@ -24120,10 +24221,10 @@
         <v>356</v>
       </c>
       <c r="E108" s="71" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F108" s="70" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G108" s="339">
         <v>1</v>
@@ -24205,7 +24306,7 @@
         <v>16</v>
       </c>
       <c r="AM108" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN108" s="154"/>
       <c r="AO108" s="154" t="s">
@@ -24221,7 +24322,7 @@
         <v>358</v>
       </c>
       <c r="E109" s="77" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F109" s="76" t="s">
         <v>434</v>
@@ -24290,7 +24391,7 @@
         <v>16</v>
       </c>
       <c r="AM109" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN109" s="154"/>
       <c r="AO109" s="154" t="s">
@@ -24306,10 +24407,10 @@
         <v>359</v>
       </c>
       <c r="E110" s="71" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F110" s="70" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G110" s="339">
         <v>1</v>
@@ -24387,7 +24488,7 @@
         <v>16</v>
       </c>
       <c r="AM110" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN110" s="154"/>
       <c r="AO110" s="154" t="s">
@@ -24403,7 +24504,7 @@
         <v>360</v>
       </c>
       <c r="E111" s="77" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F111" s="76" t="s">
         <v>434</v>
@@ -24472,7 +24573,7 @@
         <v>16</v>
       </c>
       <c r="AM111" s="157" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN111" s="157"/>
       <c r="AO111" s="157" t="s">
@@ -24488,10 +24589,10 @@
         <v>361</v>
       </c>
       <c r="E112" s="71" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F112" s="73" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G112" s="339">
         <v>1</v>
@@ -24569,7 +24670,7 @@
         <v>16</v>
       </c>
       <c r="AM112" s="158" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN112" s="158"/>
       <c r="AO112" s="158" t="s">
@@ -24578,7 +24679,7 @@
     </row>
     <row r="113" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C113" s="80" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D113" s="80"/>
       <c r="E113" s="81"/>
@@ -24623,7 +24724,7 @@
         <v>16</v>
       </c>
       <c r="AM113" s="152" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN113" s="152"/>
       <c r="AO113" s="152" t="s">
@@ -24708,7 +24809,7 @@
         <v>16</v>
       </c>
       <c r="AM114" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN114" s="154"/>
       <c r="AO114" s="154" t="s">
@@ -24717,7 +24818,7 @@
     </row>
     <row r="115" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C115" s="80" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D115" s="80"/>
       <c r="E115" s="81"/>
@@ -24762,7 +24863,7 @@
         <v>16</v>
       </c>
       <c r="AM115" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN115" s="154"/>
       <c r="AO115" s="154" t="s">
@@ -24847,7 +24948,7 @@
         <v>16</v>
       </c>
       <c r="AM116" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN116" s="154"/>
       <c r="AO116" s="154" t="s">
@@ -24866,7 +24967,7 @@
         <v>441</v>
       </c>
       <c r="F117" s="70" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G117" s="339">
         <v>1</v>
@@ -24940,7 +25041,7 @@
         <v>16</v>
       </c>
       <c r="AM117" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN117" s="154"/>
       <c r="AO117" s="154" t="s">
@@ -25025,7 +25126,7 @@
         <v>16</v>
       </c>
       <c r="AM118" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN118" s="154"/>
       <c r="AO118" s="154" t="s">
@@ -25044,7 +25145,7 @@
         <v>441</v>
       </c>
       <c r="F119" s="70" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G119" s="339">
         <v>1</v>
@@ -25122,7 +25223,7 @@
         <v>16</v>
       </c>
       <c r="AM119" s="157" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN119" s="157"/>
       <c r="AO119" s="157" t="s">
@@ -25138,10 +25239,10 @@
         <v>368</v>
       </c>
       <c r="E120" s="77" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F120" s="76" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G120" s="336">
         <v>1</v>
@@ -25223,7 +25324,7 @@
         <v>16</v>
       </c>
       <c r="AM120" s="152" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN120" s="152"/>
       <c r="AO120" s="152" t="s">
@@ -25308,7 +25409,7 @@
         <v>16</v>
       </c>
       <c r="AM121" s="157" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN121" s="157"/>
       <c r="AO121" s="157" t="s">
@@ -25327,7 +25428,7 @@
         <v>441</v>
       </c>
       <c r="F122" s="76" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G122" s="345">
         <v>1</v>
@@ -25401,7 +25502,7 @@
         <v>16</v>
       </c>
       <c r="AM122" s="158" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN122" s="158"/>
       <c r="AO122" s="158" t="s">
@@ -25455,7 +25556,7 @@
         <v>16</v>
       </c>
       <c r="AM123" s="152" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN123" s="152"/>
       <c r="AO123" s="152" t="s">
@@ -25471,10 +25572,10 @@
         <v>372</v>
       </c>
       <c r="E124" s="137" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F124" s="137" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G124" s="342">
         <v>1</v>
@@ -25552,7 +25653,7 @@
         <v>16</v>
       </c>
       <c r="AM124" s="157" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN124" s="157"/>
       <c r="AO124" s="157" t="s">
@@ -25568,10 +25669,10 @@
         <v>373</v>
       </c>
       <c r="E125" s="74" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F125" s="74" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G125" s="355">
         <v>1</v>
@@ -25649,7 +25750,7 @@
         <v>16</v>
       </c>
       <c r="AM125" s="152" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN125" s="152"/>
       <c r="AO125" s="152" t="s">
@@ -25658,7 +25759,7 @@
     </row>
     <row r="126" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C126" s="80" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D126" s="80"/>
       <c r="E126" s="81"/>
@@ -25703,7 +25804,7 @@
         <v>16</v>
       </c>
       <c r="AM126" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN126" s="154"/>
       <c r="AO126" s="154" t="s">
@@ -25719,10 +25820,10 @@
         <v>395</v>
       </c>
       <c r="E127" s="172" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F127" s="76" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G127" s="355">
         <v>1</v>
@@ -25804,7 +25905,7 @@
         <v>16</v>
       </c>
       <c r="AM127" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN127" s="154"/>
       <c r="AO127" s="154" t="s">
@@ -25813,7 +25914,7 @@
     </row>
     <row r="128" spans="3:41" ht="15" x14ac:dyDescent="0.25">
       <c r="C128" s="80" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D128" s="80"/>
       <c r="E128" s="81"/>
@@ -25858,7 +25959,7 @@
         <v>16</v>
       </c>
       <c r="AM128" s="154" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN128" s="154"/>
       <c r="AO128" s="154" t="s">
@@ -25874,10 +25975,10 @@
         <v>375</v>
       </c>
       <c r="E129" s="137" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F129" s="137" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G129" s="342">
         <v>1</v>
@@ -25951,7 +26052,7 @@
         <v>16</v>
       </c>
       <c r="AM129" s="157" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN129" s="157"/>
       <c r="AO129" s="157" t="s">
@@ -25967,10 +26068,10 @@
         <v>376</v>
       </c>
       <c r="E130" s="74" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F130" s="74" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G130" s="355">
         <v>1</v>
@@ -26044,7 +26145,7 @@
         <v>16</v>
       </c>
       <c r="AM130" s="152" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN130" s="152"/>
       <c r="AO130" s="152" t="s">
@@ -26053,7 +26154,7 @@
     </row>
     <row r="131" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C131" s="80" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D131" s="80"/>
       <c r="E131" s="81"/>
@@ -26161,7 +26262,7 @@
         <v>379</v>
       </c>
       <c r="E133" s="71" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F133" s="70" t="s">
         <v>437</v>
@@ -26229,7 +26330,7 @@
         <v>381</v>
       </c>
       <c r="E134" s="77" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F134" s="76" t="s">
         <v>437</v>
@@ -26295,7 +26396,7 @@
         <v>380</v>
       </c>
       <c r="E135" s="71" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F135" s="70" t="s">
         <v>437</v>
@@ -26361,7 +26462,7 @@
         <v>382</v>
       </c>
       <c r="E136" s="170" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F136" s="138" t="s">
         <v>437</v>
@@ -26420,7 +26521,7 @@
     </row>
     <row r="137" spans="1:41" x14ac:dyDescent="0.2">
       <c r="C137" s="80" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D137" s="80"/>
       <c r="E137" s="81"/>
@@ -26636,7 +26737,7 @@
         <v>325</v>
       </c>
       <c r="B148" s="153" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C148" s="153" t="s">
         <v>384</v>
@@ -26654,7 +26755,7 @@
     <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="153" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C149" s="153" t="s">
         <v>385</v>
@@ -26673,7 +26774,7 @@
     <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="153" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C150" s="153" t="s">
         <v>386</v>
@@ -26692,7 +26793,7 @@
     <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="162"/>
       <c r="B151" s="153" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C151" s="153" t="s">
         <v>387</v>
@@ -26711,7 +26812,7 @@
     <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="153" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C152" s="153" t="s">
         <v>388</v>
@@ -26730,7 +26831,7 @@
     <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="153" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C153" s="153" t="s">
         <v>389</v>
@@ -26749,6 +26850,26 @@
     <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="G100:J100"/>
+    <mergeCell ref="K100:N100"/>
+    <mergeCell ref="O100:R100"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="U100:X100"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="K98:N98"/>
+    <mergeCell ref="O98:R98"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="U98:X98"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:X51"/>
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="U6:X6"/>
     <mergeCell ref="G4:J4"/>
@@ -26759,26 +26880,6 @@
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:X51"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="O53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="K98:N98"/>
-    <mergeCell ref="O98:R98"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="U98:X98"/>
-    <mergeCell ref="G100:J100"/>
-    <mergeCell ref="K100:N100"/>
-    <mergeCell ref="O100:R100"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="U100:X100"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26790,10 +26891,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CED359C-4B42-41C8-A7E8-4F6FC9AE57D2}">
-  <dimension ref="C2:W35"/>
+  <dimension ref="C2:W41"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26865,16 +26966,16 @@
         <v>440</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J4" s="64" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K4" s="64" t="s">
         <v>345</v>
       </c>
       <c r="L4" s="64" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M4" s="64" t="s">
         <v>342</v>
@@ -26889,7 +26990,7 @@
         <v>92</v>
       </c>
       <c r="Q4" s="64" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R4" s="64" t="s">
         <v>331</v>
@@ -26918,12 +27019,12 @@
       <c r="I5" s="178"/>
       <c r="J5" s="178"/>
       <c r="K5" s="178"/>
-      <c r="L5" s="383" t="s">
+      <c r="L5" s="397" t="s">
         <v>340</v>
       </c>
-      <c r="M5" s="384"/>
-      <c r="N5" s="384"/>
-      <c r="O5" s="385"/>
+      <c r="M5" s="398"/>
+      <c r="N5" s="398"/>
+      <c r="O5" s="399"/>
       <c r="P5" s="107"/>
       <c r="Q5" s="107" t="s">
         <v>341</v>
@@ -26933,11 +27034,11 @@
       </c>
       <c r="S5" s="107"/>
       <c r="U5" s="107" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="V5" s="107"/>
       <c r="W5" s="107" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6" spans="3:23" x14ac:dyDescent="0.2">
@@ -26954,12 +27055,12 @@
       <c r="I6" s="84"/>
       <c r="J6" s="84"/>
       <c r="K6" s="84"/>
-      <c r="L6" s="386" t="s">
-        <v>346</v>
-      </c>
-      <c r="M6" s="387"/>
-      <c r="N6" s="387"/>
-      <c r="O6" s="388"/>
+      <c r="L6" s="400" t="s">
+        <v>814</v>
+      </c>
+      <c r="M6" s="401"/>
+      <c r="N6" s="401"/>
+      <c r="O6" s="402"/>
       <c r="P6" s="108" t="s">
         <v>347</v>
       </c>
@@ -26967,19 +27068,19 @@
         <v>56</v>
       </c>
       <c r="R6" s="117" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="S6" s="108" t="s">
         <v>349</v>
       </c>
       <c r="U6" s="108" t="s">
+        <v>665</v>
+      </c>
+      <c r="V6" s="117" t="s">
+        <v>668</v>
+      </c>
+      <c r="W6" s="108" t="s">
         <v>666</v>
-      </c>
-      <c r="V6" s="117" t="s">
-        <v>669</v>
-      </c>
-      <c r="W6" s="108" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="7" spans="3:23" x14ac:dyDescent="0.2">
@@ -27012,21 +27113,25 @@
       <c r="K7" s="205">
         <v>0.85</v>
       </c>
-      <c r="L7" s="203">
-        <v>2400</v>
-      </c>
-      <c r="M7" s="203">
-        <v>2400</v>
-      </c>
-      <c r="N7" s="203">
-        <v>2400</v>
-      </c>
-      <c r="O7" s="203">
-        <v>2400</v>
+      <c r="L7" s="368">
+        <f t="shared" ref="L7:O13" si="0">L33/$V7/1000</f>
+        <v>0.432</v>
+      </c>
+      <c r="M7" s="368">
+        <f t="shared" si="0"/>
+        <v>0.432</v>
+      </c>
+      <c r="N7" s="368">
+        <f t="shared" si="0"/>
+        <v>0.432</v>
+      </c>
+      <c r="O7" s="368">
+        <f t="shared" si="0"/>
+        <v>0.432</v>
       </c>
       <c r="P7" s="213"/>
       <c r="Q7" s="213"/>
-      <c r="R7" s="213">
+      <c r="R7" s="374">
         <v>1</v>
       </c>
       <c r="S7" s="213">
@@ -27040,7 +27145,7 @@
         <v>5.5555555555555554</v>
       </c>
       <c r="W7" s="288">
-        <f>L7/V7</f>
+        <f t="shared" ref="W7:W13" si="1">L33/V7</f>
         <v>432</v>
       </c>
     </row>
@@ -27074,21 +27179,25 @@
       <c r="K8" s="207">
         <v>0.8</v>
       </c>
-      <c r="L8" s="206">
-        <v>175</v>
-      </c>
-      <c r="M8" s="206">
-        <v>175</v>
-      </c>
-      <c r="N8" s="206">
-        <v>175</v>
-      </c>
-      <c r="O8" s="206">
-        <v>175</v>
+      <c r="L8" s="369">
+        <f t="shared" si="0"/>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="M8" s="369">
+        <f t="shared" si="0"/>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="N8" s="369">
+        <f t="shared" si="0"/>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="O8" s="369">
+        <f t="shared" si="0"/>
+        <v>0.61250000000000004</v>
       </c>
       <c r="P8" s="214"/>
       <c r="Q8" s="214"/>
-      <c r="R8" s="214">
+      <c r="R8" s="375">
         <v>1</v>
       </c>
       <c r="S8" s="214">
@@ -27098,11 +27207,11 @@
         <v>3.5</v>
       </c>
       <c r="V8" s="288">
-        <f t="shared" ref="V8:V13" si="0">1/U8</f>
+        <f t="shared" ref="V8:V13" si="2">1/U8</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="W8" s="288">
-        <f t="shared" ref="W8:W13" si="1">L8/V8</f>
+        <f t="shared" si="1"/>
         <v>612.5</v>
       </c>
     </row>
@@ -27110,7 +27219,7 @@
       <c r="C9" s="208"/>
       <c r="D9" s="197"/>
       <c r="E9" s="197" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F9" s="209"/>
       <c r="G9" s="215">
@@ -27128,21 +27237,25 @@
       <c r="K9" s="209">
         <v>0.68</v>
       </c>
-      <c r="L9" s="208">
-        <v>175</v>
-      </c>
-      <c r="M9" s="208">
-        <v>175</v>
-      </c>
-      <c r="N9" s="208">
-        <v>175</v>
-      </c>
-      <c r="O9" s="208">
-        <v>175</v>
+      <c r="L9" s="370">
+        <f t="shared" si="0"/>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="M9" s="370">
+        <f t="shared" si="0"/>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="N9" s="370">
+        <f t="shared" si="0"/>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="O9" s="370">
+        <f t="shared" si="0"/>
+        <v>0.61250000000000004</v>
       </c>
       <c r="P9" s="215"/>
       <c r="Q9" s="215"/>
-      <c r="R9" s="215">
+      <c r="R9" s="376">
         <v>1</v>
       </c>
       <c r="S9" s="215">
@@ -27152,7 +27265,7 @@
         <v>3.5</v>
       </c>
       <c r="V9" s="288">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="W9" s="288">
@@ -27164,7 +27277,7 @@
       <c r="C10" s="206"/>
       <c r="D10" s="196"/>
       <c r="E10" s="196" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F10" s="207"/>
       <c r="G10" s="214">
@@ -27182,21 +27295,25 @@
       <c r="K10" s="209">
         <v>0.68</v>
       </c>
-      <c r="L10" s="206">
-        <v>175</v>
-      </c>
-      <c r="M10" s="206">
-        <v>175</v>
-      </c>
-      <c r="N10" s="206">
-        <v>175</v>
-      </c>
-      <c r="O10" s="206">
-        <v>175</v>
+      <c r="L10" s="369">
+        <f t="shared" si="0"/>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="M10" s="369">
+        <f t="shared" si="0"/>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="N10" s="369">
+        <f t="shared" si="0"/>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="O10" s="369">
+        <f t="shared" si="0"/>
+        <v>0.61250000000000004</v>
       </c>
       <c r="P10" s="214"/>
       <c r="Q10" s="214"/>
-      <c r="R10" s="214">
+      <c r="R10" s="375">
         <v>1</v>
       </c>
       <c r="S10" s="214">
@@ -27206,7 +27323,7 @@
         <v>3.5</v>
       </c>
       <c r="V10" s="288">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="W10" s="288">
@@ -27244,21 +27361,25 @@
       <c r="K11" s="209">
         <v>0.7</v>
       </c>
-      <c r="L11" s="208">
-        <v>251</v>
-      </c>
-      <c r="M11" s="208">
-        <v>251</v>
-      </c>
-      <c r="N11" s="208">
-        <v>251</v>
-      </c>
-      <c r="O11" s="208">
-        <v>251</v>
+      <c r="L11" s="370">
+        <f t="shared" si="0"/>
+        <v>0.55220000000000002</v>
+      </c>
+      <c r="M11" s="370">
+        <f t="shared" si="0"/>
+        <v>0.55220000000000002</v>
+      </c>
+      <c r="N11" s="370">
+        <f t="shared" si="0"/>
+        <v>0.55220000000000002</v>
+      </c>
+      <c r="O11" s="370">
+        <f t="shared" si="0"/>
+        <v>0.55220000000000002</v>
       </c>
       <c r="P11" s="215"/>
       <c r="Q11" s="215"/>
-      <c r="R11" s="215">
+      <c r="R11" s="376">
         <v>1</v>
       </c>
       <c r="S11" s="215">
@@ -27268,7 +27389,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="V11" s="288">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="W11" s="288">
@@ -27278,11 +27399,11 @@
     </row>
     <row r="12" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C12" s="206" t="str">
-        <f t="shared" ref="C12:D15" si="2">D23</f>
+        <f t="shared" ref="C12:D15" si="3">D23</f>
         <v>R-RSDCD_N1</v>
       </c>
       <c r="D12" s="196" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Residential Cloth Drying demand - New</v>
       </c>
       <c r="E12" s="196" t="s">
@@ -27306,21 +27427,25 @@
       <c r="K12" s="207">
         <v>0.6</v>
       </c>
-      <c r="L12" s="206">
-        <v>214</v>
-      </c>
-      <c r="M12" s="206">
-        <v>214</v>
-      </c>
-      <c r="N12" s="206">
-        <v>214</v>
-      </c>
-      <c r="O12" s="206">
-        <v>214</v>
+      <c r="L12" s="369">
+        <f t="shared" si="0"/>
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="M12" s="369">
+        <f t="shared" si="0"/>
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="N12" s="369">
+        <f t="shared" si="0"/>
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="O12" s="369">
+        <f t="shared" si="0"/>
+        <v>0.53500000000000003</v>
       </c>
       <c r="P12" s="214"/>
       <c r="Q12" s="214"/>
-      <c r="R12" s="214">
+      <c r="R12" s="375">
         <v>1</v>
       </c>
       <c r="S12" s="214">
@@ -27330,7 +27455,7 @@
         <v>2.5</v>
       </c>
       <c r="V12" s="288">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
       <c r="W12" s="288">
@@ -27340,11 +27465,11 @@
     </row>
     <row r="13" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C13" s="208" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>R-RSDDW_N1</v>
       </c>
       <c r="D13" s="197" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Residential Dish Washing demand - New</v>
       </c>
       <c r="E13" s="197" t="s">
@@ -27368,21 +27493,25 @@
       <c r="K13" s="209">
         <v>0.7</v>
       </c>
-      <c r="L13" s="208">
-        <v>191</v>
-      </c>
-      <c r="M13" s="208">
-        <v>191</v>
-      </c>
-      <c r="N13" s="208">
-        <v>191</v>
-      </c>
-      <c r="O13" s="208">
-        <v>191</v>
+      <c r="L13" s="370">
+        <f t="shared" ref="L13" si="4">L39/$V13/1000</f>
+        <v>0.42019999999999996</v>
+      </c>
+      <c r="M13" s="370">
+        <f t="shared" ref="M13" si="5">M39/$V13/1000</f>
+        <v>0.42019999999999996</v>
+      </c>
+      <c r="N13" s="370">
+        <f t="shared" si="0"/>
+        <v>0.42019999999999996</v>
+      </c>
+      <c r="O13" s="370">
+        <f t="shared" si="0"/>
+        <v>0.42019999999999996</v>
       </c>
       <c r="P13" s="215"/>
       <c r="Q13" s="215"/>
-      <c r="R13" s="215">
+      <c r="R13" s="376">
         <v>1</v>
       </c>
       <c r="S13" s="215">
@@ -27392,7 +27521,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="V13" s="288">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="W13" s="288">
@@ -27402,11 +27531,11 @@
     </row>
     <row r="14" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C14" s="206" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>R-RSDOE_N1</v>
       </c>
       <c r="D14" s="196" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Residential ELC Appliances - New</v>
       </c>
       <c r="E14" s="196" t="s">
@@ -27430,21 +27559,25 @@
       <c r="K14" s="207">
         <v>0.85</v>
       </c>
-      <c r="L14" s="206">
-        <v>5000</v>
-      </c>
-      <c r="M14" s="206">
-        <v>5000</v>
-      </c>
-      <c r="N14" s="206">
-        <v>5000</v>
-      </c>
-      <c r="O14" s="206">
-        <v>5000</v>
+      <c r="L14" s="378">
+        <f>L40/$V7/1000</f>
+        <v>0.9</v>
+      </c>
+      <c r="M14" s="378">
+        <f t="shared" ref="M14:O14" si="6">M40/$V7/1000</f>
+        <v>0.9</v>
+      </c>
+      <c r="N14" s="378">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="O14" s="378">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
       </c>
       <c r="P14" s="214"/>
       <c r="Q14" s="214"/>
-      <c r="R14" s="214">
+      <c r="R14" s="375">
         <v>1</v>
       </c>
       <c r="S14" s="214">
@@ -27453,11 +27586,11 @@
     </row>
     <row r="15" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C15" s="210" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>R-RSDOA_N1</v>
       </c>
       <c r="D15" s="211" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Residential Other Applications - New</v>
       </c>
       <c r="E15" s="211" t="s">
@@ -27481,49 +27614,53 @@
       <c r="K15" s="212">
         <v>0.85</v>
       </c>
-      <c r="L15" s="210">
-        <v>5000</v>
-      </c>
-      <c r="M15" s="210">
-        <v>5000</v>
-      </c>
-      <c r="N15" s="210">
-        <v>5000</v>
-      </c>
-      <c r="O15" s="210">
-        <v>5000</v>
+      <c r="L15" s="379">
+        <f>L41/$V7/1000</f>
+        <v>0.9</v>
+      </c>
+      <c r="M15" s="379">
+        <f t="shared" ref="M15:O15" si="7">M41/$V7/1000</f>
+        <v>0.9</v>
+      </c>
+      <c r="N15" s="379">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="O15" s="379">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
       </c>
       <c r="P15" s="216"/>
       <c r="Q15" s="216"/>
-      <c r="R15" s="216">
+      <c r="R15" s="377">
         <v>1</v>
       </c>
       <c r="S15" s="216">
         <v>2020</v>
       </c>
       <c r="U15" s="194" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="V15" s="287" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="3:23" x14ac:dyDescent="0.2">
       <c r="U16" s="194" t="s">
+        <v>662</v>
+      </c>
+      <c r="V16" s="5" t="s">
         <v>663</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R18" s="392" t="s">
-        <v>717</v>
-      </c>
-      <c r="S18" s="392"/>
+      <c r="R18" s="406" t="s">
+        <v>716</v>
+      </c>
+      <c r="S18" s="406"/>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="198" t="s">
@@ -27550,15 +27687,15 @@
       <c r="J19" s="200" t="s">
         <v>312</v>
       </c>
-      <c r="R19" s="392"/>
-      <c r="S19" s="392"/>
+      <c r="R19" s="406"/>
+      <c r="S19" s="406"/>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="173" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="174" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E20" s="174" t="s">
         <v>449</v>
@@ -27567,84 +27704,84 @@
         <v>16</v>
       </c>
       <c r="G20" s="174" t="s">
-        <v>450</v>
+        <v>396</v>
       </c>
       <c r="H20" s="174"/>
       <c r="I20" s="174"/>
       <c r="J20" s="175" t="s">
-        <v>451</v>
-      </c>
-      <c r="R20" s="392"/>
-      <c r="S20" s="392"/>
+        <v>450</v>
+      </c>
+      <c r="R20" s="406"/>
+      <c r="S20" s="406"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="173" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="174" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E21" s="174" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F21" s="174" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="174" t="s">
-        <v>450</v>
+        <v>396</v>
       </c>
       <c r="H21" s="174"/>
       <c r="I21" s="174"/>
       <c r="J21" s="175" t="s">
-        <v>451</v>
-      </c>
-      <c r="R21" s="392"/>
-      <c r="S21" s="392"/>
+        <v>450</v>
+      </c>
+      <c r="R21" s="406"/>
+      <c r="S21" s="406"/>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="173" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="174" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E22" s="174" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F22" s="174" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="174" t="s">
-        <v>450</v>
+        <v>396</v>
       </c>
       <c r="H22" s="174"/>
       <c r="I22" s="174"/>
       <c r="J22" s="175" t="s">
-        <v>451</v>
-      </c>
-      <c r="R22" s="392"/>
-      <c r="S22" s="392"/>
+        <v>450</v>
+      </c>
+      <c r="R22" s="406"/>
+      <c r="S22" s="406"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="173" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="174" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E23" s="174" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F23" s="174" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="174" t="s">
-        <v>450</v>
+        <v>396</v>
       </c>
       <c r="H23" s="174"/>
       <c r="I23" s="174"/>
       <c r="J23" s="175" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.2">
@@ -27652,21 +27789,21 @@
         <v>49</v>
       </c>
       <c r="D24" s="174" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E24" s="174" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F24" s="174" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="174" t="s">
-        <v>450</v>
+        <v>396</v>
       </c>
       <c r="H24" s="174"/>
       <c r="I24" s="174"/>
       <c r="J24" s="175" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.2">
@@ -27674,21 +27811,21 @@
         <v>49</v>
       </c>
       <c r="D25" s="174" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E25" s="174" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F25" s="174" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="174" t="s">
-        <v>450</v>
+        <v>396</v>
       </c>
       <c r="H25" s="174"/>
       <c r="I25" s="174"/>
       <c r="J25" s="175" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.2">
@@ -27696,29 +27833,303 @@
         <v>49</v>
       </c>
       <c r="D26" s="176" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E26" s="176" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F26" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="176" t="s">
-        <v>450</v>
+      <c r="G26" s="174" t="s">
+        <v>396</v>
       </c>
       <c r="H26" s="176"/>
       <c r="I26" s="176"/>
       <c r="J26" s="177" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="H30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L30" s="64" t="s">
+        <v>715</v>
+      </c>
+      <c r="M30" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="N30" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="O30" s="64" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="H31" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="L31" s="397" t="s">
+        <v>340</v>
+      </c>
+      <c r="M31" s="398"/>
+      <c r="N31" s="398"/>
+      <c r="O31" s="399"/>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="H32" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="L32" s="400" t="s">
+        <v>346</v>
+      </c>
+      <c r="M32" s="401"/>
+      <c r="N32" s="401"/>
+      <c r="O32" s="402"/>
+    </row>
+    <row r="33" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H33" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="L33" s="203">
+        <v>2400</v>
+      </c>
+      <c r="M33" s="203">
+        <v>2400</v>
+      </c>
+      <c r="N33" s="203">
+        <v>2400</v>
+      </c>
+      <c r="O33" s="203">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="34" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H34" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="J34" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="L34" s="206">
+        <v>175</v>
+      </c>
+      <c r="M34" s="206">
+        <v>175</v>
+      </c>
+      <c r="N34" s="206">
+        <v>175</v>
+      </c>
+      <c r="O34" s="206">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J35" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="L35" s="208">
+        <v>175</v>
+      </c>
+      <c r="M35" s="208">
+        <v>175</v>
+      </c>
+      <c r="N35" s="208">
+        <v>175</v>
+      </c>
+      <c r="O35" s="208">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J36" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="L36" s="206">
+        <v>175</v>
+      </c>
+      <c r="M36" s="206">
+        <v>175</v>
+      </c>
+      <c r="N36" s="206">
+        <v>175</v>
+      </c>
+      <c r="O36" s="206">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H37" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="L37" s="208">
+        <v>251</v>
+      </c>
+      <c r="M37" s="208">
+        <v>251</v>
+      </c>
+      <c r="N37" s="208">
+        <v>251</v>
+      </c>
+      <c r="O37" s="208">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H38" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="L38" s="206">
+        <v>214</v>
+      </c>
+      <c r="M38" s="206">
+        <v>214</v>
+      </c>
+      <c r="N38" s="206">
+        <v>214</v>
+      </c>
+      <c r="O38" s="206">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H39" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="L39" s="208">
+        <v>191</v>
+      </c>
+      <c r="M39" s="208">
+        <v>191</v>
+      </c>
+      <c r="N39" s="208">
+        <v>191</v>
+      </c>
+      <c r="O39" s="208">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H40" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="L40" s="206">
+        <v>5000</v>
+      </c>
+      <c r="M40" s="206">
+        <v>5000</v>
+      </c>
+      <c r="N40" s="206">
+        <v>5000</v>
+      </c>
+      <c r="O40" s="206">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="41" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H41" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="L41" s="210">
+        <v>5000</v>
+      </c>
+      <c r="M41" s="210">
+        <v>5000</v>
+      </c>
+      <c r="N41" s="210">
+        <v>5000</v>
+      </c>
+      <c r="O41" s="210">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="R18:S22"/>
+    <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="R18:S22"/>
   </mergeCells>
   <conditionalFormatting sqref="I19:I26">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="between">
@@ -27737,10 +28148,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFF4867-10C8-4ED5-9BE1-6E89AAC9887A}">
-  <dimension ref="C2:W347"/>
+  <dimension ref="C2:Z347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27757,12 +28168,12 @@
     <col min="34" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:26" x14ac:dyDescent="0.2">
       <c r="F2" s="51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="3:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="61" t="s">
         <v>39</v>
       </c>
@@ -27782,16 +28193,16 @@
         <v>440</v>
       </c>
       <c r="I3" s="64" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J3" s="64" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K3" s="64" t="s">
         <v>345</v>
       </c>
       <c r="L3" s="64" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M3" s="64" t="s">
         <v>342</v>
@@ -27806,7 +28217,7 @@
         <v>92</v>
       </c>
       <c r="Q3" s="64" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R3" s="64" t="s">
         <v>331</v>
@@ -27815,7 +28226,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="3:23" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C4" s="63" t="s">
         <v>333</v>
       </c>
@@ -27835,12 +28246,12 @@
       <c r="I4" s="178"/>
       <c r="J4" s="178"/>
       <c r="K4" s="178"/>
-      <c r="L4" s="383" t="s">
+      <c r="L4" s="397" t="s">
         <v>340</v>
       </c>
-      <c r="M4" s="384"/>
-      <c r="N4" s="384"/>
-      <c r="O4" s="385"/>
+      <c r="M4" s="398"/>
+      <c r="N4" s="398"/>
+      <c r="O4" s="399"/>
       <c r="P4" s="107"/>
       <c r="Q4" s="107" t="s">
         <v>341</v>
@@ -27850,7 +28261,7 @@
       </c>
       <c r="S4" s="107"/>
     </row>
-    <row r="5" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C5" s="84" t="s">
         <v>409</v>
       </c>
@@ -27864,12 +28275,12 @@
       <c r="I5" s="84"/>
       <c r="J5" s="84"/>
       <c r="K5" s="84"/>
-      <c r="L5" s="386" t="s">
-        <v>346</v>
-      </c>
-      <c r="M5" s="387"/>
-      <c r="N5" s="387"/>
-      <c r="O5" s="388"/>
+      <c r="L5" s="400" t="s">
+        <v>814</v>
+      </c>
+      <c r="M5" s="401"/>
+      <c r="N5" s="401"/>
+      <c r="O5" s="402"/>
       <c r="P5" s="108" t="s">
         <v>347</v>
       </c>
@@ -27877,13 +28288,13 @@
         <v>56</v>
       </c>
       <c r="R5" s="117" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="S5" s="108" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C6" s="203" t="str">
         <f t="shared" ref="C6:D11" si="0">D16</f>
         <v>R-LT_Apt_N1</v>
@@ -27892,7 +28303,7 @@
         <f t="shared" si="0"/>
         <v>Residential Lighting Apartment New</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="201" t="s">
         <v>441</v>
       </c>
       <c r="F6" s="205" t="s">
@@ -27913,34 +28324,41 @@
       <c r="K6" s="204">
         <v>0.4</v>
       </c>
-      <c r="L6" s="203">
-        <v>1750</v>
-      </c>
-      <c r="M6" s="203">
-        <v>1750</v>
-      </c>
-      <c r="N6" s="203">
-        <v>1750</v>
-      </c>
-      <c r="O6" s="203">
-        <v>1750</v>
+      <c r="L6" s="366">
+        <f t="shared" ref="L6:O11" si="1">L29/1000*$Z6/1000</f>
+        <v>1.1375E-2</v>
+      </c>
+      <c r="M6" s="366">
+        <f t="shared" si="1"/>
+        <v>1.1375E-2</v>
+      </c>
+      <c r="N6" s="366">
+        <f t="shared" si="1"/>
+        <v>1.1375E-2</v>
+      </c>
+      <c r="O6" s="366">
+        <f t="shared" si="1"/>
+        <v>1.1375E-2</v>
       </c>
       <c r="P6" s="213"/>
       <c r="Q6" s="213"/>
-      <c r="R6" s="213">
+      <c r="R6" s="371">
         <v>1</v>
       </c>
       <c r="S6" s="213">
         <v>2020</v>
       </c>
       <c r="U6" s="194" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="W6" s="290" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="7" spans="3:23" x14ac:dyDescent="0.2">
+        <v>672</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C7" s="206" t="str">
         <f t="shared" si="0"/>
         <v>R-PF_Apt_N1</v>
@@ -27970,31 +28388,38 @@
       <c r="K7" s="196">
         <v>0.6</v>
       </c>
-      <c r="L7" s="206">
-        <v>3000</v>
-      </c>
-      <c r="M7" s="206">
-        <v>3000</v>
-      </c>
-      <c r="N7" s="206">
-        <v>3000</v>
-      </c>
-      <c r="O7" s="206">
-        <v>3000</v>
+      <c r="L7" s="367">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="M7" s="367">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N7" s="367">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="O7" s="367">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
       </c>
       <c r="P7" s="214"/>
       <c r="Q7" s="214"/>
-      <c r="R7" s="214">
+      <c r="R7" s="372">
         <v>1</v>
       </c>
       <c r="S7" s="214">
         <v>2020</v>
       </c>
       <c r="U7" s="287" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="8" spans="3:23" x14ac:dyDescent="0.2">
+        <v>670</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C8" s="203" t="str">
         <f t="shared" si="0"/>
         <v>R-LT_Att_N1</v>
@@ -28003,7 +28428,7 @@
         <f t="shared" si="0"/>
         <v>Residential Lighting Attached New</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="201" t="s">
         <v>441</v>
       </c>
       <c r="F8" s="209" t="s">
@@ -28024,31 +28449,38 @@
       <c r="K8" s="204">
         <v>0.4</v>
       </c>
-      <c r="L8" s="203">
-        <v>1750</v>
-      </c>
-      <c r="M8" s="203">
-        <v>1750</v>
-      </c>
-      <c r="N8" s="203">
-        <v>1750</v>
-      </c>
-      <c r="O8" s="203">
-        <v>1750</v>
+      <c r="L8" s="366">
+        <f t="shared" si="1"/>
+        <v>1.1375E-2</v>
+      </c>
+      <c r="M8" s="366">
+        <f t="shared" si="1"/>
+        <v>1.1375E-2</v>
+      </c>
+      <c r="N8" s="366">
+        <f t="shared" si="1"/>
+        <v>1.1375E-2</v>
+      </c>
+      <c r="O8" s="366">
+        <f t="shared" si="1"/>
+        <v>1.1375E-2</v>
       </c>
       <c r="P8" s="215"/>
       <c r="Q8" s="215"/>
-      <c r="R8" s="215">
+      <c r="R8" s="373">
         <v>1</v>
       </c>
       <c r="S8" s="215">
         <v>2020</v>
       </c>
       <c r="U8" s="194" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="9" spans="3:23" x14ac:dyDescent="0.2">
+        <v>671</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C9" s="206" t="str">
         <f t="shared" si="0"/>
         <v>R-PF_Att_N1</v>
@@ -28078,28 +28510,35 @@
       <c r="K9" s="196">
         <v>0.6</v>
       </c>
-      <c r="L9" s="206">
-        <v>3000</v>
-      </c>
-      <c r="M9" s="206">
-        <v>3000</v>
-      </c>
-      <c r="N9" s="206">
-        <v>3000</v>
-      </c>
-      <c r="O9" s="206">
-        <v>3000</v>
+      <c r="L9" s="367">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="M9" s="367">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N9" s="367">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="O9" s="367">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
       </c>
       <c r="P9" s="214"/>
       <c r="Q9" s="214"/>
-      <c r="R9" s="214">
+      <c r="R9" s="372">
         <v>1</v>
       </c>
       <c r="S9" s="214">
         <v>2020</v>
       </c>
-    </row>
-    <row r="10" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Z9" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C10" s="203" t="str">
         <f t="shared" si="0"/>
         <v>R-LT_Det_N1</v>
@@ -28108,7 +28547,7 @@
         <f t="shared" si="0"/>
         <v>Residential Lighting Detached New</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="201" t="s">
         <v>441</v>
       </c>
       <c r="F10" s="209" t="s">
@@ -28129,28 +28568,35 @@
       <c r="K10" s="204">
         <v>0.4</v>
       </c>
-      <c r="L10" s="203">
-        <v>1750</v>
-      </c>
-      <c r="M10" s="203">
-        <v>1750</v>
-      </c>
-      <c r="N10" s="203">
-        <v>1750</v>
-      </c>
-      <c r="O10" s="203">
-        <v>1750</v>
+      <c r="L10" s="366">
+        <f t="shared" si="1"/>
+        <v>1.1375E-2</v>
+      </c>
+      <c r="M10" s="366">
+        <f t="shared" si="1"/>
+        <v>1.1375E-2</v>
+      </c>
+      <c r="N10" s="366">
+        <f t="shared" si="1"/>
+        <v>1.1375E-2</v>
+      </c>
+      <c r="O10" s="366">
+        <f t="shared" si="1"/>
+        <v>1.1375E-2</v>
       </c>
       <c r="P10" s="215"/>
       <c r="Q10" s="215"/>
-      <c r="R10" s="215">
+      <c r="R10" s="373">
         <v>1</v>
       </c>
       <c r="S10" s="215">
         <v>2020</v>
       </c>
-    </row>
-    <row r="11" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Z10" s="5">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C11" s="206" t="str">
         <f t="shared" si="0"/>
         <v>R-PF_Det_N1</v>
@@ -28180,33 +28626,40 @@
       <c r="K11" s="196">
         <v>0.6</v>
       </c>
-      <c r="L11" s="206">
-        <v>3000</v>
-      </c>
-      <c r="M11" s="206">
-        <v>3000</v>
-      </c>
-      <c r="N11" s="206">
-        <v>3000</v>
-      </c>
-      <c r="O11" s="206">
-        <v>3000</v>
+      <c r="L11" s="367">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="M11" s="367">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="N11" s="367">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="O11" s="367">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
       </c>
       <c r="P11" s="214"/>
       <c r="Q11" s="214"/>
-      <c r="R11" s="214">
+      <c r="R11" s="372">
         <v>1</v>
       </c>
       <c r="S11" s="214">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Z11" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C14" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C15" s="198" t="s">
         <v>45</v>
       </c>
@@ -28229,15 +28682,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C16" s="173" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="194" t="s">
+        <v>457</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>458</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>459</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>16</v>
@@ -28253,10 +28706,10 @@
         <v>49</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>460</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>461</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>16</v>
@@ -28272,10 +28725,10 @@
         <v>49</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>462</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>463</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>16</v>
@@ -28291,10 +28744,10 @@
         <v>49</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>464</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>465</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>16</v>
@@ -28312,10 +28765,10 @@
         <v>49</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>466</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>467</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>16</v>
@@ -28333,10 +28786,10 @@
         <v>49</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>468</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>469</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>16</v>
@@ -28365,95 +28818,246 @@
       <c r="T25" s="289"/>
       <c r="U25" s="289"/>
     </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:21" ht="30" x14ac:dyDescent="0.2">
+      <c r="J26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" s="64" t="s">
+        <v>715</v>
+      </c>
+      <c r="M26" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="N26" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="O26" s="64" t="s">
+        <v>344</v>
+      </c>
       <c r="T26" s="289"/>
       <c r="U26" s="289"/>
     </row>
     <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="J27" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" s="397" t="s">
+        <v>340</v>
+      </c>
+      <c r="M27" s="398"/>
+      <c r="N27" s="398"/>
+      <c r="O27" s="399"/>
       <c r="T27" s="289"/>
       <c r="U27" s="289"/>
     </row>
     <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="J28" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="L28" s="400" t="s">
+        <v>346</v>
+      </c>
+      <c r="M28" s="401"/>
+      <c r="N28" s="401"/>
+      <c r="O28" s="402"/>
       <c r="T28" s="289"/>
       <c r="U28" s="289"/>
     </row>
     <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="J29" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="L29" s="203">
+        <v>1750</v>
+      </c>
+      <c r="M29" s="203">
+        <v>1750</v>
+      </c>
+      <c r="N29" s="203">
+        <v>1750</v>
+      </c>
+      <c r="O29" s="203">
+        <v>1750</v>
+      </c>
+      <c r="S29" s="5">
+        <f>L29/1000*Z6</f>
+        <v>11.375</v>
+      </c>
       <c r="T29" s="289"/>
       <c r="U29" s="289"/>
     </row>
     <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="J30" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="L30" s="206">
+        <v>3000</v>
+      </c>
+      <c r="M30" s="206">
+        <v>3000</v>
+      </c>
+      <c r="N30" s="206">
+        <v>3000</v>
+      </c>
+      <c r="O30" s="206">
+        <v>3000</v>
+      </c>
       <c r="T30" s="289"/>
       <c r="U30" s="289"/>
     </row>
     <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="J31" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="L31" s="203">
+        <v>1750</v>
+      </c>
+      <c r="M31" s="203">
+        <v>1750</v>
+      </c>
+      <c r="N31" s="203">
+        <v>1750</v>
+      </c>
+      <c r="O31" s="203">
+        <v>1750</v>
+      </c>
       <c r="T31" s="289"/>
       <c r="U31" s="289"/>
     </row>
     <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="J32" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="L32" s="206">
+        <v>3000</v>
+      </c>
+      <c r="M32" s="206">
+        <v>3000</v>
+      </c>
+      <c r="N32" s="206">
+        <v>3000</v>
+      </c>
+      <c r="O32" s="206">
+        <v>3000</v>
+      </c>
       <c r="T32" s="289"/>
       <c r="U32" s="289"/>
     </row>
-    <row r="33" spans="20:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J33" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="L33" s="203">
+        <v>1750</v>
+      </c>
+      <c r="M33" s="203">
+        <v>1750</v>
+      </c>
+      <c r="N33" s="203">
+        <v>1750</v>
+      </c>
+      <c r="O33" s="203">
+        <v>1750</v>
+      </c>
       <c r="T33" s="289"/>
       <c r="U33" s="289"/>
     </row>
-    <row r="34" spans="20:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J34" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="L34" s="206">
+        <v>3000</v>
+      </c>
+      <c r="M34" s="206">
+        <v>3000</v>
+      </c>
+      <c r="N34" s="206">
+        <v>3000</v>
+      </c>
+      <c r="O34" s="206">
+        <v>3000</v>
+      </c>
       <c r="T34" s="289"/>
       <c r="U34" s="289"/>
     </row>
-    <row r="35" spans="20:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="10:21" x14ac:dyDescent="0.2">
       <c r="T35" s="289"/>
       <c r="U35" s="289"/>
     </row>
-    <row r="36" spans="20:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="10:21" x14ac:dyDescent="0.2">
       <c r="T36" s="289"/>
       <c r="U36" s="289"/>
     </row>
-    <row r="37" spans="20:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="10:21" x14ac:dyDescent="0.2">
       <c r="T37" s="289"/>
       <c r="U37" s="289"/>
     </row>
-    <row r="38" spans="20:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="10:21" x14ac:dyDescent="0.2">
       <c r="T38" s="289"/>
       <c r="U38" s="289"/>
     </row>
-    <row r="39" spans="20:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="10:21" x14ac:dyDescent="0.2">
       <c r="T39" s="289"/>
       <c r="U39" s="289"/>
     </row>
-    <row r="40" spans="20:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="10:21" x14ac:dyDescent="0.2">
       <c r="T40" s="289"/>
       <c r="U40" s="289"/>
     </row>
-    <row r="41" spans="20:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="10:21" x14ac:dyDescent="0.2">
       <c r="T41" s="289"/>
       <c r="U41" s="289"/>
     </row>
-    <row r="42" spans="20:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="10:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T42" s="289"/>
       <c r="U42" s="289"/>
     </row>
-    <row r="43" spans="20:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="10:21" x14ac:dyDescent="0.2">
       <c r="T43" s="289"/>
       <c r="U43" s="289"/>
     </row>
-    <row r="44" spans="20:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="10:21" x14ac:dyDescent="0.2">
       <c r="T44" s="289"/>
       <c r="U44" s="289"/>
     </row>
-    <row r="45" spans="20:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="10:21" x14ac:dyDescent="0.2">
       <c r="T45" s="289"/>
       <c r="U45" s="289"/>
     </row>
-    <row r="46" spans="20:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="10:21" x14ac:dyDescent="0.2">
       <c r="T46" s="289"/>
       <c r="U46" s="289"/>
     </row>
-    <row r="47" spans="20:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="10:21" x14ac:dyDescent="0.2">
       <c r="T47" s="289"/>
       <c r="U47" s="289"/>
     </row>
-    <row r="48" spans="20:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="10:21" x14ac:dyDescent="0.2">
       <c r="T48" s="289"/>
       <c r="U48" s="289"/>
     </row>
@@ -29654,7 +30258,9 @@
       <c r="U347" s="289"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L28:O28"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="L5:O5"/>
   </mergeCells>
@@ -29671,8 +30277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2D0172-8312-40B1-9B5A-8DF7E42AC88D}">
   <dimension ref="A1:AS91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30791,49 +31397,49 @@
         <v>98</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>757</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>760</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>761</v>
       </c>
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
       <c r="U1" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="V1" s="9" t="s">
         <v>762</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>766</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>767</v>
       </c>
       <c r="AA1" s="11"/>
       <c r="AB1" s="9" t="s">

--- a/SubRES_TMPL/SubRes_RSD.xlsx
+++ b/SubRES_TMPL/SubRes_RSD.xlsx
@@ -3,10 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF80CAE7-5D88-4B1E-9069-EEB21E60744A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF652C77-F333-44A4-9D61-A75D56752D33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9D5618E0-D2A2-4912-B654-2E39BDAED497}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -687,7 +686,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L33" authorId="0" shapeId="0" xr:uid="{26227E42-266E-4D7E-9CCC-4136610DED2C}">
+    <comment ref="L35" authorId="0" shapeId="0" xr:uid="{26227E42-266E-4D7E-9CCC-4136610DED2C}">
       <text>
         <r>
           <rPr>
@@ -8420,7 +8419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3461" uniqueCount="1035">
   <si>
     <t>Document type:</t>
   </si>
@@ -11537,6 +11536,15 @@
   </si>
   <si>
     <t>Residential  Hydrotreated vegetable oil - New 1 SH + WH</t>
+  </si>
+  <si>
+    <t>Residential Cooking - Electricity - New</t>
+  </si>
+  <si>
+    <t>Residential Cooking - GAS - New</t>
+  </si>
+  <si>
+    <t>Residential Cooking - LPG - New</t>
   </si>
 </sst>
 </file>
@@ -15646,10 +15654,7 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:F17"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16101,10 +16106,7 @@
   </sheetPr>
   <dimension ref="B1:T45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16835,10 +16837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4660B878-9B9C-4131-8EFF-29EF25ED69C5}">
   <dimension ref="A2:AL103"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19861,10 +19860,7 @@
   </sheetPr>
   <dimension ref="A1:Q202"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -24713,10 +24709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F8057-C735-4662-BAA6-EEDCF7B57273}">
   <dimension ref="A2:AO162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
-    </sheetView>
-    <sheetView topLeftCell="D23" workbookViewId="1">
+    <sheetView topLeftCell="D23" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -35192,21 +35185,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CED359C-4B42-41C8-A7E8-4F6FC9AE57D2}">
-  <dimension ref="C2:W41"/>
+  <dimension ref="C2:W43"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="10.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="59.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="63.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" style="5" customWidth="1"/>
     <col min="8" max="15" width="10.7109375" style="5" customWidth="1"/>
     <col min="16" max="18" width="12.28515625" style="5" customWidth="1"/>
@@ -35416,19 +35408,19 @@
         <v>0.85</v>
       </c>
       <c r="L7" s="358">
-        <f>L33/$V7/1000</f>
+        <f>L35/$V7/1000</f>
         <v>0.432</v>
       </c>
       <c r="M7" s="358">
-        <f>M33/$V7/1000</f>
+        <f>M35/$V7/1000</f>
         <v>0.432</v>
       </c>
       <c r="N7" s="358">
-        <f t="shared" ref="L7:O13" si="0">N33/$V7/1000</f>
+        <f>N35/$V7/1000</f>
         <v>0.432</v>
       </c>
       <c r="O7" s="358">
-        <f t="shared" si="0"/>
+        <f>O35/$V7/1000</f>
         <v>0.432</v>
       </c>
       <c r="P7" s="212"/>
@@ -35447,13 +35439,13 @@
         <v>5.5555555555555554</v>
       </c>
       <c r="W7" s="287">
-        <f t="shared" ref="W7:W13" si="1">L33/V7</f>
+        <f>L35/V7</f>
         <v>432</v>
       </c>
     </row>
     <row r="8" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C8" s="205" t="str">
-        <f>LEFT($D$21,7)&amp;"_"&amp;RIGHT(E8,3)&amp;"_N1"</f>
+        <f>D21</f>
         <v>R-RSDCK_ELC_N1</v>
       </c>
       <c r="D8" s="195" t="str">
@@ -35482,19 +35474,19 @@
         <v>0.8</v>
       </c>
       <c r="L8" s="359">
-        <f t="shared" si="0"/>
+        <f>L36/$V8/1000</f>
         <v>0.61250000000000004</v>
       </c>
       <c r="M8" s="359">
-        <f t="shared" si="0"/>
+        <f>M36/$V8/1000</f>
         <v>0.61250000000000004</v>
       </c>
       <c r="N8" s="359">
-        <f t="shared" si="0"/>
+        <f>N36/$V8/1000</f>
         <v>0.61250000000000004</v>
       </c>
       <c r="O8" s="359">
-        <f t="shared" si="0"/>
+        <f>O36/$V8/1000</f>
         <v>0.61250000000000004</v>
       </c>
       <c r="P8" s="213"/>
@@ -35509,21 +35501,21 @@
         <v>3.5</v>
       </c>
       <c r="V8" s="287">
-        <f t="shared" ref="V8:V13" si="2">1/U8</f>
+        <f t="shared" ref="V8:V13" si="0">1/U8</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="W8" s="287">
-        <f t="shared" si="1"/>
+        <f>L36/V8</f>
         <v>612.5</v>
       </c>
     </row>
     <row r="9" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="C9" s="207" t="str">
-        <f t="shared" ref="C9:C10" si="3">LEFT($D$21,7)&amp;"_"&amp;RIGHT(E9,3)&amp;"_N1"</f>
+      <c r="C9" s="205" t="str">
+        <f t="shared" ref="C9:C10" si="1">D22</f>
         <v>R-RSDCK_GAS_N1</v>
       </c>
       <c r="D9" s="196" t="str">
-        <f t="shared" ref="D9:D10" si="4">LEFT($E$21,20)&amp;"_"&amp;RIGHT(E9,3)&amp;" - New"</f>
+        <f t="shared" ref="D9:D10" si="2">LEFT($E$21,20)&amp;"_"&amp;RIGHT(E9,3)&amp;" - New"</f>
         <v>Residential Cooking _GAS - New</v>
       </c>
       <c r="E9" s="196" t="s">
@@ -35548,19 +35540,19 @@
         <v>0.68</v>
       </c>
       <c r="L9" s="360">
-        <f t="shared" si="0"/>
+        <f>L37/$V9/1000</f>
         <v>0.61250000000000004</v>
       </c>
       <c r="M9" s="360">
-        <f t="shared" si="0"/>
+        <f>M37/$V9/1000</f>
         <v>0.61250000000000004</v>
       </c>
       <c r="N9" s="360">
-        <f t="shared" si="0"/>
+        <f>N37/$V9/1000</f>
         <v>0.61250000000000004</v>
       </c>
       <c r="O9" s="360">
-        <f t="shared" si="0"/>
+        <f>O37/$V9/1000</f>
         <v>0.61250000000000004</v>
       </c>
       <c r="P9" s="214"/>
@@ -35575,21 +35567,21 @@
         <v>3.5</v>
       </c>
       <c r="V9" s="287">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="W9" s="287">
-        <f t="shared" si="1"/>
+        <f>L37/V9</f>
         <v>612.5</v>
       </c>
     </row>
     <row r="10" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C10" s="205" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>R-RSDCK_LPG_N1</v>
       </c>
       <c r="D10" s="195" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Residential Cooking _LPG - New</v>
       </c>
       <c r="E10" s="195" t="s">
@@ -35614,19 +35606,19 @@
         <v>0.68</v>
       </c>
       <c r="L10" s="359">
-        <f t="shared" si="0"/>
+        <f>L38/$V10/1000</f>
         <v>0.61250000000000004</v>
       </c>
       <c r="M10" s="359">
-        <f t="shared" si="0"/>
+        <f>M38/$V10/1000</f>
         <v>0.61250000000000004</v>
       </c>
       <c r="N10" s="359">
-        <f t="shared" si="0"/>
+        <f>N38/$V10/1000</f>
         <v>0.61250000000000004</v>
       </c>
       <c r="O10" s="359">
-        <f t="shared" si="0"/>
+        <f>O38/$V10/1000</f>
         <v>0.61250000000000004</v>
       </c>
       <c r="P10" s="213"/>
@@ -35641,21 +35633,21 @@
         <v>3.5</v>
       </c>
       <c r="V10" s="287">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="W10" s="287">
-        <f t="shared" si="1"/>
+        <f>L38/V10</f>
         <v>612.5</v>
       </c>
     </row>
     <row r="11" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C11" s="207" t="str">
-        <f>D22</f>
+        <f>D24</f>
         <v>R-RSDCW_N1</v>
       </c>
       <c r="D11" s="196" t="str">
-        <f>E22</f>
+        <f>E24</f>
         <v>Residential Cloth Washing demand - New</v>
       </c>
       <c r="E11" s="196" t="s">
@@ -35680,19 +35672,19 @@
         <v>0.7</v>
       </c>
       <c r="L11" s="360">
-        <f t="shared" si="0"/>
+        <f>L39/$V11/1000</f>
         <v>0.55220000000000002</v>
       </c>
       <c r="M11" s="360">
-        <f t="shared" si="0"/>
+        <f>M39/$V11/1000</f>
         <v>0.55220000000000002</v>
       </c>
       <c r="N11" s="360">
-        <f t="shared" si="0"/>
+        <f>N39/$V11/1000</f>
         <v>0.55220000000000002</v>
       </c>
       <c r="O11" s="360">
-        <f t="shared" si="0"/>
+        <f>O39/$V11/1000</f>
         <v>0.55220000000000002</v>
       </c>
       <c r="P11" s="214"/>
@@ -35707,21 +35699,21 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="V11" s="287">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="W11" s="287">
-        <f t="shared" si="1"/>
+        <f>L39/V11</f>
         <v>552.20000000000005</v>
       </c>
     </row>
     <row r="12" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C12" s="205" t="str">
-        <f t="shared" ref="C12:D15" si="5">D23</f>
+        <f>D25</f>
         <v>R-RSDCD_N1</v>
       </c>
       <c r="D12" s="195" t="str">
-        <f t="shared" si="5"/>
+        <f>E25</f>
         <v>Residential Cloth Drying demand - New</v>
       </c>
       <c r="E12" s="195" t="s">
@@ -35746,19 +35738,19 @@
         <v>0.6</v>
       </c>
       <c r="L12" s="359">
-        <f t="shared" si="0"/>
+        <f>L40/$V12/1000</f>
         <v>0.53500000000000003</v>
       </c>
       <c r="M12" s="359">
-        <f t="shared" si="0"/>
+        <f>M40/$V12/1000</f>
         <v>0.53500000000000003</v>
       </c>
       <c r="N12" s="359">
-        <f t="shared" si="0"/>
+        <f>N40/$V12/1000</f>
         <v>0.53500000000000003</v>
       </c>
       <c r="O12" s="359">
-        <f t="shared" si="0"/>
+        <f>O40/$V12/1000</f>
         <v>0.53500000000000003</v>
       </c>
       <c r="P12" s="213"/>
@@ -35773,21 +35765,21 @@
         <v>2.5</v>
       </c>
       <c r="V12" s="287">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="W12" s="287">
-        <f t="shared" si="1"/>
+        <f>L40/V12</f>
         <v>535</v>
       </c>
     </row>
     <row r="13" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C13" s="207" t="str">
-        <f t="shared" si="5"/>
+        <f>D26</f>
         <v>R-RSDDW_N1</v>
       </c>
       <c r="D13" s="196" t="str">
-        <f t="shared" si="5"/>
+        <f>E26</f>
         <v>Residential Dish Washing demand - New</v>
       </c>
       <c r="E13" s="196" t="s">
@@ -35812,19 +35804,19 @@
         <v>0.7</v>
       </c>
       <c r="L13" s="360">
-        <f t="shared" ref="L13" si="6">L39/$V13/1000</f>
+        <f>L41/$V13/1000</f>
         <v>0.42019999999999996</v>
       </c>
       <c r="M13" s="360">
-        <f t="shared" ref="M13" si="7">M39/$V13/1000</f>
+        <f>M41/$V13/1000</f>
         <v>0.42019999999999996</v>
       </c>
       <c r="N13" s="360">
-        <f t="shared" si="0"/>
+        <f>N41/$V13/1000</f>
         <v>0.42019999999999996</v>
       </c>
       <c r="O13" s="360">
-        <f t="shared" si="0"/>
+        <f>O41/$V13/1000</f>
         <v>0.42019999999999996</v>
       </c>
       <c r="P13" s="214"/>
@@ -35839,21 +35831,21 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="V13" s="287">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="W13" s="287">
-        <f t="shared" si="1"/>
+        <f>L41/V13</f>
         <v>420.2</v>
       </c>
     </row>
     <row r="14" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C14" s="205" t="str">
-        <f t="shared" si="5"/>
+        <f>D27</f>
         <v>R-RSDOE_N1</v>
       </c>
       <c r="D14" s="195" t="str">
-        <f t="shared" si="5"/>
+        <f>E27</f>
         <v>Residential ELC Appliances - New</v>
       </c>
       <c r="E14" s="195" t="s">
@@ -35878,19 +35870,19 @@
         <v>0.85</v>
       </c>
       <c r="L14" s="368">
-        <f>L40/$V7/1000</f>
+        <f>L42/$V7/1000</f>
         <v>0.9</v>
       </c>
       <c r="M14" s="368">
-        <f t="shared" ref="M14:O14" si="8">M40/$V7/1000</f>
+        <f>M42/$V7/1000</f>
         <v>0.9</v>
       </c>
       <c r="N14" s="368">
-        <f t="shared" si="8"/>
+        <f>N42/$V7/1000</f>
         <v>0.9</v>
       </c>
       <c r="O14" s="368">
-        <f t="shared" si="8"/>
+        <f>O42/$V7/1000</f>
         <v>0.9</v>
       </c>
       <c r="P14" s="213"/>
@@ -35904,11 +35896,11 @@
     </row>
     <row r="15" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C15" s="207" t="str">
-        <f t="shared" si="5"/>
+        <f>D28</f>
         <v>R-RSDOA_N1</v>
       </c>
       <c r="D15" s="196" t="str">
-        <f t="shared" si="5"/>
+        <f>E28</f>
         <v>Residential Other Applications - New</v>
       </c>
       <c r="E15" s="196" t="s">
@@ -35933,19 +35925,19 @@
         <v>0.85</v>
       </c>
       <c r="L15" s="369">
-        <f>L41/$V7/1000</f>
+        <f>L43/$V7/1000</f>
         <v>0.9</v>
       </c>
       <c r="M15" s="369">
-        <f t="shared" ref="M15:O15" si="9">M41/$V7/1000</f>
+        <f>M43/$V7/1000</f>
         <v>0.9</v>
       </c>
       <c r="N15" s="369">
-        <f t="shared" si="9"/>
+        <f>N43/$V7/1000</f>
         <v>0.9</v>
       </c>
       <c r="O15" s="369">
-        <f t="shared" si="9"/>
+        <f>O43/$V7/1000</f>
         <v>0.9</v>
       </c>
       <c r="P15" s="215"/>
@@ -36036,11 +36028,12 @@
       <c r="C21" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="173" t="s">
-        <v>789</v>
+      <c r="D21" s="173" t="str">
+        <f>_xlfn.TEXTJOIN("_",TRUE,"R-RSDCK",RIGHT(E8,3),"N1")</f>
+        <v>R-RSDCK_ELC_N1</v>
       </c>
       <c r="E21" s="173" t="s">
-        <v>446</v>
+        <v>1032</v>
       </c>
       <c r="F21" s="173" t="s">
         <v>16</v>
@@ -36060,11 +36053,12 @@
       <c r="C22" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="173" t="s">
-        <v>790</v>
+      <c r="D22" s="173" t="str">
+        <f t="shared" ref="D22:D23" si="3">_xlfn.TEXTJOIN("_",TRUE,"R-RSDCK",RIGHT(E9,3),"N1")</f>
+        <v>R-RSDCK_GAS_N1</v>
       </c>
       <c r="E22" s="173" t="s">
-        <v>447</v>
+        <v>1033</v>
       </c>
       <c r="F22" s="173" t="s">
         <v>16</v>
@@ -36084,11 +36078,12 @@
       <c r="C23" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="173" t="s">
-        <v>791</v>
+      <c r="D23" s="173" t="str">
+        <f t="shared" si="3"/>
+        <v>R-RSDCK_LPG_N1</v>
       </c>
       <c r="E23" s="173" t="s">
-        <v>448</v>
+        <v>1034</v>
       </c>
       <c r="F23" s="173" t="s">
         <v>16</v>
@@ -36107,10 +36102,10 @@
         <v>48</v>
       </c>
       <c r="D24" s="173" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E24" s="173" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F24" s="173" t="s">
         <v>16</v>
@@ -36129,10 +36124,10 @@
         <v>48</v>
       </c>
       <c r="D25" s="173" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E25" s="173" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F25" s="173" t="s">
         <v>16</v>
@@ -36150,153 +36145,163 @@
       <c r="C26" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="175" t="s">
-        <v>794</v>
-      </c>
-      <c r="E26" s="175" t="s">
-        <v>451</v>
-      </c>
-      <c r="F26" s="175" t="s">
+      <c r="D26" s="173" t="s">
+        <v>792</v>
+      </c>
+      <c r="E26" s="173" t="s">
+        <v>449</v>
+      </c>
+      <c r="F26" s="173" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="173" t="s">
         <v>391</v>
       </c>
-      <c r="H26" s="175"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="176" t="s">
+      <c r="H26" s="173"/>
+      <c r="I26" s="173"/>
+      <c r="J26" s="174" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="30" spans="3:19" ht="30" x14ac:dyDescent="0.2">
-      <c r="H30" s="5" t="s">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C27" s="172" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="173" t="s">
+        <v>793</v>
+      </c>
+      <c r="E27" s="173" t="s">
+        <v>450</v>
+      </c>
+      <c r="F27" s="173" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="173" t="s">
+        <v>391</v>
+      </c>
+      <c r="H27" s="173"/>
+      <c r="I27" s="173"/>
+      <c r="J27" s="174" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C28" s="172" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="175" t="s">
+        <v>794</v>
+      </c>
+      <c r="E28" s="175" t="s">
+        <v>451</v>
+      </c>
+      <c r="F28" s="175" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="173" t="s">
+        <v>391</v>
+      </c>
+      <c r="H28" s="175"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="176" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" ht="30" x14ac:dyDescent="0.2">
+      <c r="H32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L30" s="64" t="s">
+      <c r="L32" s="64" t="s">
         <v>698</v>
       </c>
-      <c r="M30" s="64" t="s">
+      <c r="M32" s="64" t="s">
         <v>341</v>
       </c>
-      <c r="N30" s="64" t="s">
+      <c r="N32" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="O30" s="64" t="s">
+      <c r="O32" s="64" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="H31" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="L31" s="498" t="s">
-        <v>339</v>
-      </c>
-      <c r="M31" s="499"/>
-      <c r="N31" s="499"/>
-      <c r="O31" s="500"/>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="H32" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="L32" s="501" t="s">
-        <v>345</v>
-      </c>
-      <c r="M32" s="502"/>
-      <c r="N32" s="502"/>
-      <c r="O32" s="503"/>
     </row>
     <row r="33" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H33" s="5" t="s">
-        <v>788</v>
+        <v>332</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>444</v>
+        <v>52</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>436</v>
+        <v>333</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="L33" s="202">
-        <v>2400</v>
-      </c>
-      <c r="M33" s="202">
-        <v>2400</v>
-      </c>
-      <c r="N33" s="202">
-        <v>2400</v>
-      </c>
-      <c r="O33" s="202">
-        <v>2400</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="L33" s="498" t="s">
+        <v>339</v>
+      </c>
+      <c r="M33" s="499"/>
+      <c r="N33" s="499"/>
+      <c r="O33" s="500"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="L34" s="501" t="s">
+        <v>345</v>
+      </c>
+      <c r="M34" s="502"/>
+      <c r="N34" s="502"/>
+      <c r="O34" s="503"/>
+    </row>
+    <row r="35" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H35" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="L35" s="202">
+        <v>2400</v>
+      </c>
+      <c r="M35" s="202">
+        <v>2400</v>
+      </c>
+      <c r="N35" s="202">
+        <v>2400</v>
+      </c>
+      <c r="O35" s="202">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="36" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H36" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I36" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J36" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K36" s="5" t="s">
         <v>438</v>
-      </c>
-      <c r="L34" s="205">
-        <v>175</v>
-      </c>
-      <c r="M34" s="205">
-        <v>175</v>
-      </c>
-      <c r="N34" s="205">
-        <v>175</v>
-      </c>
-      <c r="O34" s="205">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="35" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J35" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="L35" s="207">
-        <v>175</v>
-      </c>
-      <c r="M35" s="207">
-        <v>175</v>
-      </c>
-      <c r="N35" s="207">
-        <v>175</v>
-      </c>
-      <c r="O35" s="207">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="J36" s="5" t="s">
-        <v>760</v>
       </c>
       <c r="L36" s="205">
         <v>175</v>
@@ -36312,144 +36317,178 @@
       </c>
     </row>
     <row r="37" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H37" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>447</v>
-      </c>
       <c r="J37" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>439</v>
+        <v>764</v>
       </c>
       <c r="L37" s="207">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="M37" s="207">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="N37" s="207">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="O37" s="207">
-        <v>251</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H38" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>448</v>
-      </c>
       <c r="J38" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>440</v>
+        <v>760</v>
       </c>
       <c r="L38" s="205">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="M38" s="205">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="N38" s="205">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="O38" s="205">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H39" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>436</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L39" s="207">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="M39" s="207">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="N39" s="207">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="O39" s="207">
-        <v>191</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H40" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>436</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L40" s="205">
-        <v>5000</v>
+        <v>214</v>
       </c>
       <c r="M40" s="205">
-        <v>5000</v>
+        <v>214</v>
       </c>
       <c r="N40" s="205">
-        <v>5000</v>
+        <v>214</v>
       </c>
       <c r="O40" s="205">
-        <v>5000</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H41" s="5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>436</v>
       </c>
       <c r="K41" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="L41" s="207">
+        <v>191</v>
+      </c>
+      <c r="M41" s="207">
+        <v>191</v>
+      </c>
+      <c r="N41" s="207">
+        <v>191</v>
+      </c>
+      <c r="O41" s="207">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H42" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="L42" s="205">
+        <v>5000</v>
+      </c>
+      <c r="M42" s="205">
+        <v>5000</v>
+      </c>
+      <c r="N42" s="205">
+        <v>5000</v>
+      </c>
+      <c r="O42" s="205">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="43" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H43" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="K43" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="L41" s="209">
+      <c r="L43" s="209">
         <v>5000</v>
       </c>
-      <c r="M41" s="209">
+      <c r="M43" s="209">
         <v>5000</v>
       </c>
-      <c r="N41" s="209">
+      <c r="N43" s="209">
         <v>5000</v>
       </c>
-      <c r="O41" s="209">
+      <c r="O43" s="209">
         <v>5000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L33:O33"/>
     <mergeCell ref="R18:S22"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
   </mergeCells>
-  <conditionalFormatting sqref="I19:I26">
+  <conditionalFormatting sqref="I19:I28">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="between">
       <formula>0.000000001</formula>
       <formula>1</formula>
@@ -36468,10 +36507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFF4867-10C8-4ED5-9BE1-6E89AAC9887A}">
   <dimension ref="C2:Z347"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -38596,10 +38632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2D0172-8312-40B1-9B5A-8DF7E42AC88D}">
   <dimension ref="A1:AS91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -47200,9 +47233,6 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="1">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/SubRES_TMPL/SubRes_RSD.xlsx
+++ b/SubRES_TMPL/SubRes_RSD.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF652C77-F333-44A4-9D61-A75D56752D33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83529AB5-6210-4925-9568-D4A6A371E194}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="4" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -8419,7 +8419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3461" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3461" uniqueCount="1047">
   <si>
     <t>Document type:</t>
   </si>
@@ -11545,6 +11545,42 @@
   </si>
   <si>
     <t>Residential Cooking - LPG - New</t>
+  </si>
+  <si>
+    <t>CEFF~RSDSH_Det</t>
+  </si>
+  <si>
+    <t>CEFF~RSDSH_Det~2030</t>
+  </si>
+  <si>
+    <t>CEFF~RSDSH_Det~2040</t>
+  </si>
+  <si>
+    <t>CEFF~RSDSH_Det~2050</t>
+  </si>
+  <si>
+    <t>CEFF~RSDSC_Det</t>
+  </si>
+  <si>
+    <t>CEFF~RSDSC_Det~2030</t>
+  </si>
+  <si>
+    <t>CEFF~RSDSC_Det~2040</t>
+  </si>
+  <si>
+    <t>CEFF~RSDSC_Det~2050</t>
+  </si>
+  <si>
+    <t>CEFF~RSDWH_Det</t>
+  </si>
+  <si>
+    <t>CEFF~RSDWH_Det~2030</t>
+  </si>
+  <si>
+    <t>CEFF~RSDWH_Det~2040</t>
+  </si>
+  <si>
+    <t>CEFF~RSDWH_Det~2050</t>
   </si>
 </sst>
 </file>
@@ -14048,6 +14084,15 @@
     <xf numFmtId="0" fontId="16" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14057,22 +14102,13 @@
     <xf numFmtId="0" fontId="16" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -24709,8 +24745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F8057-C735-4662-BAA6-EEDCF7B57273}">
   <dimension ref="A2:AO162"/>
   <sheetViews>
-    <sheetView topLeftCell="D23" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24865,28 +24901,28 @@
       <c r="F4" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="G4" s="504" t="s">
+      <c r="G4" s="507" t="s">
         <v>758</v>
       </c>
-      <c r="H4" s="505"/>
-      <c r="I4" s="505"/>
-      <c r="J4" s="506"/>
-      <c r="K4" s="504" t="s">
+      <c r="H4" s="508"/>
+      <c r="I4" s="508"/>
+      <c r="J4" s="509"/>
+      <c r="K4" s="507" t="s">
         <v>336</v>
       </c>
-      <c r="L4" s="505"/>
-      <c r="M4" s="505"/>
-      <c r="N4" s="506"/>
-      <c r="O4" s="504" t="s">
+      <c r="L4" s="508"/>
+      <c r="M4" s="508"/>
+      <c r="N4" s="509"/>
+      <c r="O4" s="507" t="s">
         <v>337</v>
       </c>
-      <c r="P4" s="505"/>
-      <c r="Q4" s="505"/>
-      <c r="R4" s="506"/>
-      <c r="S4" s="504" t="s">
+      <c r="P4" s="508"/>
+      <c r="Q4" s="508"/>
+      <c r="R4" s="509"/>
+      <c r="S4" s="507" t="s">
         <v>338</v>
       </c>
-      <c r="T4" s="506"/>
+      <c r="T4" s="509"/>
       <c r="U4" s="498" t="s">
         <v>339</v>
       </c>
@@ -24924,7 +24960,7 @@
       <c r="AN4" s="57"/>
       <c r="AO4" s="57"/>
     </row>
-    <row r="5" spans="3:41" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="61" t="s">
         <v>781</v>
       </c>
@@ -27758,28 +27794,28 @@
       <c r="F42" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="G42" s="504" t="s">
+      <c r="G42" s="507" t="s">
         <v>335</v>
       </c>
-      <c r="H42" s="505"/>
-      <c r="I42" s="505"/>
-      <c r="J42" s="506"/>
-      <c r="K42" s="504" t="s">
+      <c r="H42" s="508"/>
+      <c r="I42" s="508"/>
+      <c r="J42" s="509"/>
+      <c r="K42" s="507" t="s">
         <v>336</v>
       </c>
-      <c r="L42" s="505"/>
-      <c r="M42" s="505"/>
-      <c r="N42" s="506"/>
-      <c r="O42" s="504" t="s">
+      <c r="L42" s="508"/>
+      <c r="M42" s="508"/>
+      <c r="N42" s="509"/>
+      <c r="O42" s="507" t="s">
         <v>337</v>
       </c>
-      <c r="P42" s="505"/>
-      <c r="Q42" s="505"/>
-      <c r="R42" s="506"/>
-      <c r="S42" s="504" t="s">
+      <c r="P42" s="508"/>
+      <c r="Q42" s="508"/>
+      <c r="R42" s="509"/>
+      <c r="S42" s="507" t="s">
         <v>338</v>
       </c>
-      <c r="T42" s="506"/>
+      <c r="T42" s="509"/>
       <c r="U42" s="498" t="s">
         <v>339</v>
       </c>
@@ -27817,7 +27853,7 @@
       <c r="AN42" s="57"/>
       <c r="AO42" s="57"/>
     </row>
-    <row r="43" spans="3:41" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C43" s="61" t="s">
         <v>783</v>
       </c>
@@ -27898,16 +27934,16 @@
       <c r="P44" s="502"/>
       <c r="Q44" s="502"/>
       <c r="R44" s="503"/>
-      <c r="S44" s="507" t="s">
+      <c r="S44" s="504" t="s">
         <v>312</v>
       </c>
-      <c r="T44" s="508"/>
-      <c r="U44" s="507" t="s">
+      <c r="T44" s="505"/>
+      <c r="U44" s="504" t="s">
         <v>1007</v>
       </c>
-      <c r="V44" s="509"/>
-      <c r="W44" s="509"/>
-      <c r="X44" s="508"/>
+      <c r="V44" s="506"/>
+      <c r="W44" s="506"/>
+      <c r="X44" s="505"/>
       <c r="Y44" s="475" t="s">
         <v>1019</v>
       </c>
@@ -31199,40 +31235,40 @@
         <v>41</v>
       </c>
       <c r="G87" s="64" t="s">
-        <v>682</v>
+        <v>1035</v>
       </c>
       <c r="H87" s="64" t="s">
-        <v>683</v>
+        <v>1036</v>
       </c>
       <c r="I87" s="64" t="s">
-        <v>684</v>
+        <v>1037</v>
       </c>
       <c r="J87" s="64" t="s">
-        <v>685</v>
+        <v>1038</v>
       </c>
       <c r="K87" s="64" t="s">
-        <v>686</v>
+        <v>1039</v>
       </c>
       <c r="L87" s="64" t="s">
-        <v>687</v>
+        <v>1040</v>
       </c>
       <c r="M87" s="64" t="s">
-        <v>688</v>
+        <v>1041</v>
       </c>
       <c r="N87" s="64" t="s">
-        <v>689</v>
+        <v>1042</v>
       </c>
       <c r="O87" s="64" t="s">
-        <v>690</v>
+        <v>1043</v>
       </c>
       <c r="P87" s="64" t="s">
-        <v>691</v>
+        <v>1044</v>
       </c>
       <c r="Q87" s="64" t="s">
-        <v>692</v>
+        <v>1045</v>
       </c>
       <c r="R87" s="64" t="s">
-        <v>693</v>
+        <v>1046</v>
       </c>
       <c r="S87" s="65" t="s">
         <v>43</v>
@@ -31293,28 +31329,28 @@
       <c r="F88" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="G88" s="504" t="s">
+      <c r="G88" s="507" t="s">
         <v>335</v>
       </c>
-      <c r="H88" s="505"/>
-      <c r="I88" s="505"/>
-      <c r="J88" s="506"/>
-      <c r="K88" s="504" t="s">
+      <c r="H88" s="508"/>
+      <c r="I88" s="508"/>
+      <c r="J88" s="509"/>
+      <c r="K88" s="507" t="s">
         <v>336</v>
       </c>
-      <c r="L88" s="505"/>
-      <c r="M88" s="505"/>
-      <c r="N88" s="506"/>
-      <c r="O88" s="504" t="s">
+      <c r="L88" s="508"/>
+      <c r="M88" s="508"/>
+      <c r="N88" s="509"/>
+      <c r="O88" s="507" t="s">
         <v>337</v>
       </c>
-      <c r="P88" s="505"/>
-      <c r="Q88" s="505"/>
-      <c r="R88" s="506"/>
-      <c r="S88" s="504" t="s">
+      <c r="P88" s="508"/>
+      <c r="Q88" s="508"/>
+      <c r="R88" s="509"/>
+      <c r="S88" s="507" t="s">
         <v>338</v>
       </c>
-      <c r="T88" s="506"/>
+      <c r="T88" s="509"/>
       <c r="U88" s="498" t="s">
         <v>339</v>
       </c>
@@ -31352,7 +31388,7 @@
       <c r="AN88" s="57"/>
       <c r="AO88" s="57"/>
     </row>
-    <row r="89" spans="3:41" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C89" s="61" t="s">
         <v>783</v>
       </c>
@@ -31433,16 +31469,16 @@
       <c r="P90" s="502"/>
       <c r="Q90" s="502"/>
       <c r="R90" s="503"/>
-      <c r="S90" s="507" t="s">
+      <c r="S90" s="504" t="s">
         <v>312</v>
       </c>
-      <c r="T90" s="508"/>
-      <c r="U90" s="507" t="s">
+      <c r="T90" s="505"/>
+      <c r="U90" s="504" t="s">
         <v>1007</v>
       </c>
-      <c r="V90" s="509"/>
-      <c r="W90" s="509"/>
-      <c r="X90" s="508"/>
+      <c r="V90" s="506"/>
+      <c r="W90" s="506"/>
+      <c r="X90" s="505"/>
       <c r="Y90" s="475" t="s">
         <v>1019</v>
       </c>
@@ -35144,26 +35180,6 @@
     <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="G90:J90"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="O90:R90"/>
-    <mergeCell ref="S90:T90"/>
-    <mergeCell ref="U90:X90"/>
-    <mergeCell ref="G88:J88"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="O88:R88"/>
-    <mergeCell ref="S88:T88"/>
-    <mergeCell ref="U88:X88"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="O44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:X44"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="O42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:X42"/>
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="U6:X6"/>
     <mergeCell ref="G4:J4"/>
@@ -35174,6 +35190,26 @@
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="O42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="O44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:X44"/>
+    <mergeCell ref="G88:J88"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="O88:R88"/>
+    <mergeCell ref="S88:T88"/>
+    <mergeCell ref="U88:X88"/>
+    <mergeCell ref="G90:J90"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="O90:R90"/>
+    <mergeCell ref="S90:T90"/>
+    <mergeCell ref="U90:X90"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35187,7 +35223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CED359C-4B42-41C8-A7E8-4F6FC9AE57D2}">
   <dimension ref="C2:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -35349,12 +35385,12 @@
       <c r="I6" s="84"/>
       <c r="J6" s="84"/>
       <c r="K6" s="84"/>
-      <c r="L6" s="507" t="s">
+      <c r="L6" s="504" t="s">
         <v>1007</v>
       </c>
-      <c r="M6" s="509"/>
-      <c r="N6" s="509"/>
-      <c r="O6" s="508"/>
+      <c r="M6" s="506"/>
+      <c r="N6" s="506"/>
+      <c r="O6" s="505"/>
       <c r="P6" s="475" t="s">
         <v>1019</v>
       </c>
@@ -35408,19 +35444,19 @@
         <v>0.85</v>
       </c>
       <c r="L7" s="358">
-        <f>L35/$V7/1000</f>
+        <f t="shared" ref="L7:O13" si="0">L35/$V7/1000</f>
         <v>0.432</v>
       </c>
       <c r="M7" s="358">
-        <f>M35/$V7/1000</f>
+        <f t="shared" si="0"/>
         <v>0.432</v>
       </c>
       <c r="N7" s="358">
-        <f>N35/$V7/1000</f>
+        <f t="shared" si="0"/>
         <v>0.432</v>
       </c>
       <c r="O7" s="358">
-        <f>O35/$V7/1000</f>
+        <f t="shared" si="0"/>
         <v>0.432</v>
       </c>
       <c r="P7" s="212"/>
@@ -35439,7 +35475,7 @@
         <v>5.5555555555555554</v>
       </c>
       <c r="W7" s="287">
-        <f>L35/V7</f>
+        <f t="shared" ref="W7:W13" si="1">L35/V7</f>
         <v>432</v>
       </c>
     </row>
@@ -35474,19 +35510,19 @@
         <v>0.8</v>
       </c>
       <c r="L8" s="359">
-        <f>L36/$V8/1000</f>
+        <f t="shared" si="0"/>
         <v>0.61250000000000004</v>
       </c>
       <c r="M8" s="359">
-        <f>M36/$V8/1000</f>
+        <f t="shared" si="0"/>
         <v>0.61250000000000004</v>
       </c>
       <c r="N8" s="359">
-        <f>N36/$V8/1000</f>
+        <f t="shared" si="0"/>
         <v>0.61250000000000004</v>
       </c>
       <c r="O8" s="359">
-        <f>O36/$V8/1000</f>
+        <f t="shared" si="0"/>
         <v>0.61250000000000004</v>
       </c>
       <c r="P8" s="213"/>
@@ -35501,21 +35537,21 @@
         <v>3.5</v>
       </c>
       <c r="V8" s="287">
-        <f t="shared" ref="V8:V13" si="0">1/U8</f>
+        <f t="shared" ref="V8:V13" si="2">1/U8</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="W8" s="287">
-        <f>L36/V8</f>
+        <f t="shared" si="1"/>
         <v>612.5</v>
       </c>
     </row>
     <row r="9" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C9" s="205" t="str">
-        <f t="shared" ref="C9:C10" si="1">D22</f>
+        <f t="shared" ref="C9:C10" si="3">D22</f>
         <v>R-RSDCK_GAS_N1</v>
       </c>
       <c r="D9" s="196" t="str">
-        <f t="shared" ref="D9:D10" si="2">LEFT($E$21,20)&amp;"_"&amp;RIGHT(E9,3)&amp;" - New"</f>
+        <f t="shared" ref="D9:D10" si="4">LEFT($E$21,20)&amp;"_"&amp;RIGHT(E9,3)&amp;" - New"</f>
         <v>Residential Cooking _GAS - New</v>
       </c>
       <c r="E9" s="196" t="s">
@@ -35540,19 +35576,19 @@
         <v>0.68</v>
       </c>
       <c r="L9" s="360">
-        <f>L37/$V9/1000</f>
+        <f t="shared" si="0"/>
         <v>0.61250000000000004</v>
       </c>
       <c r="M9" s="360">
-        <f>M37/$V9/1000</f>
+        <f t="shared" si="0"/>
         <v>0.61250000000000004</v>
       </c>
       <c r="N9" s="360">
-        <f>N37/$V9/1000</f>
+        <f t="shared" si="0"/>
         <v>0.61250000000000004</v>
       </c>
       <c r="O9" s="360">
-        <f>O37/$V9/1000</f>
+        <f t="shared" si="0"/>
         <v>0.61250000000000004</v>
       </c>
       <c r="P9" s="214"/>
@@ -35567,21 +35603,21 @@
         <v>3.5</v>
       </c>
       <c r="V9" s="287">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="W9" s="287">
-        <f>L37/V9</f>
+        <f t="shared" si="1"/>
         <v>612.5</v>
       </c>
     </row>
     <row r="10" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C10" s="205" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>R-RSDCK_LPG_N1</v>
       </c>
       <c r="D10" s="195" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Residential Cooking _LPG - New</v>
       </c>
       <c r="E10" s="195" t="s">
@@ -35606,19 +35642,19 @@
         <v>0.68</v>
       </c>
       <c r="L10" s="359">
-        <f>L38/$V10/1000</f>
+        <f t="shared" si="0"/>
         <v>0.61250000000000004</v>
       </c>
       <c r="M10" s="359">
-        <f>M38/$V10/1000</f>
+        <f t="shared" si="0"/>
         <v>0.61250000000000004</v>
       </c>
       <c r="N10" s="359">
-        <f>N38/$V10/1000</f>
+        <f t="shared" si="0"/>
         <v>0.61250000000000004</v>
       </c>
       <c r="O10" s="359">
-        <f>O38/$V10/1000</f>
+        <f t="shared" si="0"/>
         <v>0.61250000000000004</v>
       </c>
       <c r="P10" s="213"/>
@@ -35633,21 +35669,21 @@
         <v>3.5</v>
       </c>
       <c r="V10" s="287">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="W10" s="287">
-        <f>L38/V10</f>
+        <f t="shared" si="1"/>
         <v>612.5</v>
       </c>
     </row>
     <row r="11" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C11" s="207" t="str">
-        <f>D24</f>
+        <f t="shared" ref="C11:D15" si="5">D24</f>
         <v>R-RSDCW_N1</v>
       </c>
       <c r="D11" s="196" t="str">
-        <f>E24</f>
+        <f t="shared" si="5"/>
         <v>Residential Cloth Washing demand - New</v>
       </c>
       <c r="E11" s="196" t="s">
@@ -35672,19 +35708,19 @@
         <v>0.7</v>
       </c>
       <c r="L11" s="360">
-        <f>L39/$V11/1000</f>
+        <f t="shared" si="0"/>
         <v>0.55220000000000002</v>
       </c>
       <c r="M11" s="360">
-        <f>M39/$V11/1000</f>
+        <f t="shared" si="0"/>
         <v>0.55220000000000002</v>
       </c>
       <c r="N11" s="360">
-        <f>N39/$V11/1000</f>
+        <f t="shared" si="0"/>
         <v>0.55220000000000002</v>
       </c>
       <c r="O11" s="360">
-        <f>O39/$V11/1000</f>
+        <f t="shared" si="0"/>
         <v>0.55220000000000002</v>
       </c>
       <c r="P11" s="214"/>
@@ -35699,21 +35735,21 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="V11" s="287">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="W11" s="287">
-        <f>L39/V11</f>
+        <f t="shared" si="1"/>
         <v>552.20000000000005</v>
       </c>
     </row>
     <row r="12" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C12" s="205" t="str">
-        <f>D25</f>
+        <f t="shared" si="5"/>
         <v>R-RSDCD_N1</v>
       </c>
       <c r="D12" s="195" t="str">
-        <f>E25</f>
+        <f t="shared" si="5"/>
         <v>Residential Cloth Drying demand - New</v>
       </c>
       <c r="E12" s="195" t="s">
@@ -35738,19 +35774,19 @@
         <v>0.6</v>
       </c>
       <c r="L12" s="359">
-        <f>L40/$V12/1000</f>
+        <f t="shared" si="0"/>
         <v>0.53500000000000003</v>
       </c>
       <c r="M12" s="359">
-        <f>M40/$V12/1000</f>
+        <f t="shared" si="0"/>
         <v>0.53500000000000003</v>
       </c>
       <c r="N12" s="359">
-        <f>N40/$V12/1000</f>
+        <f t="shared" si="0"/>
         <v>0.53500000000000003</v>
       </c>
       <c r="O12" s="359">
-        <f>O40/$V12/1000</f>
+        <f t="shared" si="0"/>
         <v>0.53500000000000003</v>
       </c>
       <c r="P12" s="213"/>
@@ -35765,21 +35801,21 @@
         <v>2.5</v>
       </c>
       <c r="V12" s="287">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
       <c r="W12" s="287">
-        <f>L40/V12</f>
+        <f t="shared" si="1"/>
         <v>535</v>
       </c>
     </row>
     <row r="13" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C13" s="207" t="str">
-        <f>D26</f>
+        <f t="shared" si="5"/>
         <v>R-RSDDW_N1</v>
       </c>
       <c r="D13" s="196" t="str">
-        <f>E26</f>
+        <f t="shared" si="5"/>
         <v>Residential Dish Washing demand - New</v>
       </c>
       <c r="E13" s="196" t="s">
@@ -35804,19 +35840,19 @@
         <v>0.7</v>
       </c>
       <c r="L13" s="360">
-        <f>L41/$V13/1000</f>
+        <f t="shared" si="0"/>
         <v>0.42019999999999996</v>
       </c>
       <c r="M13" s="360">
-        <f>M41/$V13/1000</f>
+        <f t="shared" si="0"/>
         <v>0.42019999999999996</v>
       </c>
       <c r="N13" s="360">
-        <f>N41/$V13/1000</f>
+        <f t="shared" si="0"/>
         <v>0.42019999999999996</v>
       </c>
       <c r="O13" s="360">
-        <f>O41/$V13/1000</f>
+        <f t="shared" si="0"/>
         <v>0.42019999999999996</v>
       </c>
       <c r="P13" s="214"/>
@@ -35831,21 +35867,21 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="V13" s="287">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="W13" s="287">
-        <f>L41/V13</f>
+        <f t="shared" si="1"/>
         <v>420.2</v>
       </c>
     </row>
     <row r="14" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C14" s="205" t="str">
-        <f>D27</f>
+        <f t="shared" si="5"/>
         <v>R-RSDOE_N1</v>
       </c>
       <c r="D14" s="195" t="str">
-        <f>E27</f>
+        <f t="shared" si="5"/>
         <v>Residential ELC Appliances - New</v>
       </c>
       <c r="E14" s="195" t="s">
@@ -35896,11 +35932,11 @@
     </row>
     <row r="15" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C15" s="207" t="str">
-        <f>D28</f>
+        <f t="shared" si="5"/>
         <v>R-RSDOA_N1</v>
       </c>
       <c r="D15" s="196" t="str">
-        <f>E28</f>
+        <f t="shared" si="5"/>
         <v>Residential Other Applications - New</v>
       </c>
       <c r="E15" s="196" t="s">
@@ -36054,7 +36090,7 @@
         <v>48</v>
       </c>
       <c r="D22" s="173" t="str">
-        <f t="shared" ref="D22:D23" si="3">_xlfn.TEXTJOIN("_",TRUE,"R-RSDCK",RIGHT(E9,3),"N1")</f>
+        <f t="shared" ref="D22:D23" si="6">_xlfn.TEXTJOIN("_",TRUE,"R-RSDCK",RIGHT(E9,3),"N1")</f>
         <v>R-RSDCK_GAS_N1</v>
       </c>
       <c r="E22" s="173" t="s">
@@ -36079,7 +36115,7 @@
         <v>48</v>
       </c>
       <c r="D23" s="173" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>R-RSDCK_LPG_N1</v>
       </c>
       <c r="E23" s="173" t="s">
@@ -47644,103 +47680,103 @@
       <c r="C4" s="381" t="s">
         <v>805</v>
       </c>
-      <c r="D4" s="511" t="s">
+      <c r="D4" s="512" t="s">
         <v>806</v>
       </c>
-      <c r="E4" s="512"/>
-      <c r="F4" s="512"/>
-      <c r="G4" s="512"/>
+      <c r="E4" s="511"/>
+      <c r="F4" s="511"/>
+      <c r="G4" s="511"/>
       <c r="H4" s="513"/>
-      <c r="I4" s="512" t="s">
+      <c r="I4" s="511" t="s">
         <v>807</v>
       </c>
-      <c r="J4" s="512"/>
-      <c r="K4" s="512"/>
-      <c r="L4" s="512"/>
+      <c r="J4" s="511"/>
+      <c r="K4" s="511"/>
+      <c r="L4" s="511"/>
       <c r="M4" s="513"/>
-      <c r="N4" s="512" t="s">
+      <c r="N4" s="511" t="s">
         <v>808</v>
       </c>
-      <c r="O4" s="512"/>
-      <c r="P4" s="512"/>
-      <c r="Q4" s="512"/>
+      <c r="O4" s="511"/>
+      <c r="P4" s="511"/>
+      <c r="Q4" s="511"/>
       <c r="R4" s="513"/>
-      <c r="S4" s="512" t="s">
+      <c r="S4" s="511" t="s">
         <v>809</v>
       </c>
-      <c r="T4" s="512"/>
-      <c r="U4" s="512"/>
-      <c r="V4" s="512"/>
+      <c r="T4" s="511"/>
+      <c r="U4" s="511"/>
+      <c r="V4" s="511"/>
       <c r="W4" s="513"/>
-      <c r="X4" s="512" t="s">
+      <c r="X4" s="511" t="s">
         <v>810</v>
       </c>
-      <c r="Y4" s="512"/>
-      <c r="Z4" s="512"/>
-      <c r="AA4" s="512"/>
+      <c r="Y4" s="511"/>
+      <c r="Z4" s="511"/>
+      <c r="AA4" s="511"/>
       <c r="AB4" s="513"/>
-      <c r="AC4" s="512" t="s">
+      <c r="AC4" s="511" t="s">
         <v>811</v>
       </c>
-      <c r="AD4" s="512"/>
-      <c r="AE4" s="512"/>
-      <c r="AF4" s="512"/>
+      <c r="AD4" s="511"/>
+      <c r="AE4" s="511"/>
+      <c r="AF4" s="511"/>
       <c r="AG4" s="513"/>
-      <c r="AH4" s="512" t="s">
+      <c r="AH4" s="511" t="s">
         <v>812</v>
       </c>
-      <c r="AI4" s="512"/>
-      <c r="AJ4" s="512"/>
-      <c r="AK4" s="512"/>
+      <c r="AI4" s="511"/>
+      <c r="AJ4" s="511"/>
+      <c r="AK4" s="511"/>
       <c r="AL4" s="513"/>
-      <c r="AM4" s="512" t="s">
+      <c r="AM4" s="511" t="s">
         <v>813</v>
       </c>
-      <c r="AN4" s="512"/>
-      <c r="AO4" s="512"/>
-      <c r="AP4" s="512"/>
+      <c r="AN4" s="511"/>
+      <c r="AO4" s="511"/>
+      <c r="AP4" s="511"/>
       <c r="AQ4" s="513"/>
-      <c r="AR4" s="512" t="s">
+      <c r="AR4" s="511" t="s">
         <v>814</v>
       </c>
-      <c r="AS4" s="512"/>
-      <c r="AT4" s="512"/>
-      <c r="AU4" s="512"/>
+      <c r="AS4" s="511"/>
+      <c r="AT4" s="511"/>
+      <c r="AU4" s="511"/>
       <c r="AV4" s="513"/>
-      <c r="AW4" s="512" t="s">
+      <c r="AW4" s="511" t="s">
         <v>815</v>
       </c>
-      <c r="AX4" s="512"/>
-      <c r="AY4" s="512"/>
-      <c r="AZ4" s="512"/>
-      <c r="BA4" s="512"/>
-      <c r="BB4" s="511" t="s">
+      <c r="AX4" s="511"/>
+      <c r="AY4" s="511"/>
+      <c r="AZ4" s="511"/>
+      <c r="BA4" s="511"/>
+      <c r="BB4" s="512" t="s">
         <v>816</v>
       </c>
-      <c r="BC4" s="512"/>
-      <c r="BD4" s="512"/>
-      <c r="BE4" s="512"/>
+      <c r="BC4" s="511"/>
+      <c r="BD4" s="511"/>
+      <c r="BE4" s="511"/>
       <c r="BF4" s="513"/>
-      <c r="BG4" s="512" t="s">
+      <c r="BG4" s="511" t="s">
         <v>817</v>
       </c>
-      <c r="BH4" s="512"/>
-      <c r="BI4" s="512"/>
-      <c r="BJ4" s="512"/>
-      <c r="BK4" s="512"/>
-      <c r="BL4" s="511" t="s">
+      <c r="BH4" s="511"/>
+      <c r="BI4" s="511"/>
+      <c r="BJ4" s="511"/>
+      <c r="BK4" s="511"/>
+      <c r="BL4" s="512" t="s">
         <v>818</v>
       </c>
-      <c r="BM4" s="512"/>
-      <c r="BN4" s="512"/>
-      <c r="BO4" s="512"/>
-      <c r="BP4" s="512"/>
-      <c r="BQ4" s="511" t="s">
+      <c r="BM4" s="511"/>
+      <c r="BN4" s="511"/>
+      <c r="BO4" s="511"/>
+      <c r="BP4" s="511"/>
+      <c r="BQ4" s="512" t="s">
         <v>819</v>
       </c>
-      <c r="BR4" s="512"/>
-      <c r="BS4" s="512"/>
-      <c r="BT4" s="512"/>
+      <c r="BR4" s="511"/>
+      <c r="BS4" s="511"/>
+      <c r="BT4" s="511"/>
       <c r="BU4" s="513"/>
       <c r="BV4" s="382" t="s">
         <v>820</v>
@@ -61334,6 +61370,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -61346,11 +61387,6 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/SubRES_TMPL/SubRes_RSD.xlsx
+++ b/SubRES_TMPL/SubRes_RSD.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83529AB5-6210-4925-9568-D4A6A371E194}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368500FC-3941-49B5-921B-DC1190A35F03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="4" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -645,7 +645,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -654,7 +654,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Used units/kW of a fridge just to have something
@@ -11599,7 +11599,7 @@
     <numFmt numFmtId="171" formatCode="#,##0.000"/>
     <numFmt numFmtId="172" formatCode="0.000"/>
   </numFmts>
-  <fonts count="71" x14ac:knownFonts="1">
+  <fonts count="69" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -11957,21 +11957,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -13053,7 +13041,7 @@
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="517">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -13706,8 +13694,20 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="32" fillId="21" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -13718,112 +13718,121 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="31" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="31" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="31" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="31" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="31" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="63" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="31" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="31" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="31" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="32" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="32" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="31" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="31" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="65" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="65" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="32" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="32" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="65" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="65" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="65" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="65" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="66" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="67" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="67" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="67" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="67" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="66" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -13832,171 +13841,150 @@
     <xf numFmtId="3" fontId="67" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="67" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="68" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="68" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="66" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="69" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="64" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="70" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="64" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="70" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="66" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="66" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="68" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="65" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="66" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="66" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="66" fillId="0" borderId="10" xfId="15" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="66" fillId="0" borderId="25" xfId="15" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="66" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="66" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="66" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="68" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="68" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="67" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="65" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="66" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="68" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="66" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="164" fontId="65" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="68" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="68" fillId="0" borderId="10" xfId="15" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="68" fillId="0" borderId="25" xfId="15" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="65" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="65" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="65" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="65" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="68" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="65" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="65" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="65" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="65" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="67" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="65" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="68" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="65" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="68" fillId="0" borderId="0" xfId="15" applyFont="1"/>
-    <xf numFmtId="164" fontId="67" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="65" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="65" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="65" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="65" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="65" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="65" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="65" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="67" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="67" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="67" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="65" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="67" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="65" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="67" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="67" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="67" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="67" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="67" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="67" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="67" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="67" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="67" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="67" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="67" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="67" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="67" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="67" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="67" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="67" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="65" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="67" fillId="0" borderId="10" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="65" fillId="0" borderId="10" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="68" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="66" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -14084,6 +14072,15 @@
     <xf numFmtId="0" fontId="16" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -14093,34 +14090,25 @@
     <xf numFmtId="0" fontId="16" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="32" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="32" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -24745,7 +24733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F8057-C735-4662-BAA6-EEDCF7B57273}">
   <dimension ref="A2:AO162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -24901,28 +24889,28 @@
       <c r="F4" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="G4" s="507" t="s">
+      <c r="G4" s="504" t="s">
         <v>758</v>
       </c>
-      <c r="H4" s="508"/>
-      <c r="I4" s="508"/>
-      <c r="J4" s="509"/>
-      <c r="K4" s="507" t="s">
+      <c r="H4" s="505"/>
+      <c r="I4" s="505"/>
+      <c r="J4" s="506"/>
+      <c r="K4" s="504" t="s">
         <v>336</v>
       </c>
-      <c r="L4" s="508"/>
-      <c r="M4" s="508"/>
-      <c r="N4" s="509"/>
-      <c r="O4" s="507" t="s">
+      <c r="L4" s="505"/>
+      <c r="M4" s="505"/>
+      <c r="N4" s="506"/>
+      <c r="O4" s="504" t="s">
         <v>337</v>
       </c>
-      <c r="P4" s="508"/>
-      <c r="Q4" s="508"/>
-      <c r="R4" s="509"/>
-      <c r="S4" s="507" t="s">
+      <c r="P4" s="505"/>
+      <c r="Q4" s="505"/>
+      <c r="R4" s="506"/>
+      <c r="S4" s="504" t="s">
         <v>338</v>
       </c>
-      <c r="T4" s="509"/>
+      <c r="T4" s="506"/>
       <c r="U4" s="498" t="s">
         <v>339</v>
       </c>
@@ -27794,28 +27782,28 @@
       <c r="F42" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="G42" s="507" t="s">
+      <c r="G42" s="504" t="s">
         <v>335</v>
       </c>
-      <c r="H42" s="508"/>
-      <c r="I42" s="508"/>
-      <c r="J42" s="509"/>
-      <c r="K42" s="507" t="s">
+      <c r="H42" s="505"/>
+      <c r="I42" s="505"/>
+      <c r="J42" s="506"/>
+      <c r="K42" s="504" t="s">
         <v>336</v>
       </c>
-      <c r="L42" s="508"/>
-      <c r="M42" s="508"/>
-      <c r="N42" s="509"/>
-      <c r="O42" s="507" t="s">
+      <c r="L42" s="505"/>
+      <c r="M42" s="505"/>
+      <c r="N42" s="506"/>
+      <c r="O42" s="504" t="s">
         <v>337</v>
       </c>
-      <c r="P42" s="508"/>
-      <c r="Q42" s="508"/>
-      <c r="R42" s="509"/>
-      <c r="S42" s="507" t="s">
+      <c r="P42" s="505"/>
+      <c r="Q42" s="505"/>
+      <c r="R42" s="506"/>
+      <c r="S42" s="504" t="s">
         <v>338</v>
       </c>
-      <c r="T42" s="509"/>
+      <c r="T42" s="506"/>
       <c r="U42" s="498" t="s">
         <v>339</v>
       </c>
@@ -27934,16 +27922,16 @@
       <c r="P44" s="502"/>
       <c r="Q44" s="502"/>
       <c r="R44" s="503"/>
-      <c r="S44" s="504" t="s">
+      <c r="S44" s="507" t="s">
         <v>312</v>
       </c>
-      <c r="T44" s="505"/>
-      <c r="U44" s="504" t="s">
+      <c r="T44" s="508"/>
+      <c r="U44" s="507" t="s">
         <v>1007</v>
       </c>
-      <c r="V44" s="506"/>
-      <c r="W44" s="506"/>
-      <c r="X44" s="505"/>
+      <c r="V44" s="509"/>
+      <c r="W44" s="509"/>
+      <c r="X44" s="508"/>
       <c r="Y44" s="475" t="s">
         <v>1019</v>
       </c>
@@ -31329,28 +31317,28 @@
       <c r="F88" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="G88" s="507" t="s">
+      <c r="G88" s="504" t="s">
         <v>335</v>
       </c>
-      <c r="H88" s="508"/>
-      <c r="I88" s="508"/>
-      <c r="J88" s="509"/>
-      <c r="K88" s="507" t="s">
+      <c r="H88" s="505"/>
+      <c r="I88" s="505"/>
+      <c r="J88" s="506"/>
+      <c r="K88" s="504" t="s">
         <v>336</v>
       </c>
-      <c r="L88" s="508"/>
-      <c r="M88" s="508"/>
-      <c r="N88" s="509"/>
-      <c r="O88" s="507" t="s">
+      <c r="L88" s="505"/>
+      <c r="M88" s="505"/>
+      <c r="N88" s="506"/>
+      <c r="O88" s="504" t="s">
         <v>337</v>
       </c>
-      <c r="P88" s="508"/>
-      <c r="Q88" s="508"/>
-      <c r="R88" s="509"/>
-      <c r="S88" s="507" t="s">
+      <c r="P88" s="505"/>
+      <c r="Q88" s="505"/>
+      <c r="R88" s="506"/>
+      <c r="S88" s="504" t="s">
         <v>338</v>
       </c>
-      <c r="T88" s="509"/>
+      <c r="T88" s="506"/>
       <c r="U88" s="498" t="s">
         <v>339</v>
       </c>
@@ -31469,16 +31457,16 @@
       <c r="P90" s="502"/>
       <c r="Q90" s="502"/>
       <c r="R90" s="503"/>
-      <c r="S90" s="504" t="s">
+      <c r="S90" s="507" t="s">
         <v>312</v>
       </c>
-      <c r="T90" s="505"/>
-      <c r="U90" s="504" t="s">
+      <c r="T90" s="508"/>
+      <c r="U90" s="507" t="s">
         <v>1007</v>
       </c>
-      <c r="V90" s="506"/>
-      <c r="W90" s="506"/>
-      <c r="X90" s="505"/>
+      <c r="V90" s="509"/>
+      <c r="W90" s="509"/>
+      <c r="X90" s="508"/>
       <c r="Y90" s="475" t="s">
         <v>1019</v>
       </c>
@@ -35180,6 +35168,26 @@
     <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="G90:J90"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="O90:R90"/>
+    <mergeCell ref="S90:T90"/>
+    <mergeCell ref="U90:X90"/>
+    <mergeCell ref="G88:J88"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="O88:R88"/>
+    <mergeCell ref="S88:T88"/>
+    <mergeCell ref="U88:X88"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="O44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:X44"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="O42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:X42"/>
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="U6:X6"/>
     <mergeCell ref="G4:J4"/>
@@ -35190,26 +35198,6 @@
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="O42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="O44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:X44"/>
-    <mergeCell ref="G88:J88"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="O88:R88"/>
-    <mergeCell ref="S88:T88"/>
-    <mergeCell ref="U88:X88"/>
-    <mergeCell ref="G90:J90"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="O90:R90"/>
-    <mergeCell ref="S90:T90"/>
-    <mergeCell ref="U90:X90"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35385,12 +35373,12 @@
       <c r="I6" s="84"/>
       <c r="J6" s="84"/>
       <c r="K6" s="84"/>
-      <c r="L6" s="504" t="s">
+      <c r="L6" s="507" t="s">
         <v>1007</v>
       </c>
-      <c r="M6" s="506"/>
-      <c r="N6" s="506"/>
-      <c r="O6" s="505"/>
+      <c r="M6" s="509"/>
+      <c r="N6" s="509"/>
+      <c r="O6" s="508"/>
       <c r="P6" s="475" t="s">
         <v>1019</v>
       </c>
@@ -47680,103 +47668,103 @@
       <c r="C4" s="381" t="s">
         <v>805</v>
       </c>
-      <c r="D4" s="512" t="s">
+      <c r="D4" s="511" t="s">
         <v>806</v>
       </c>
-      <c r="E4" s="511"/>
-      <c r="F4" s="511"/>
-      <c r="G4" s="511"/>
+      <c r="E4" s="512"/>
+      <c r="F4" s="512"/>
+      <c r="G4" s="512"/>
       <c r="H4" s="513"/>
-      <c r="I4" s="511" t="s">
+      <c r="I4" s="512" t="s">
         <v>807</v>
       </c>
-      <c r="J4" s="511"/>
-      <c r="K4" s="511"/>
-      <c r="L4" s="511"/>
+      <c r="J4" s="512"/>
+      <c r="K4" s="512"/>
+      <c r="L4" s="512"/>
       <c r="M4" s="513"/>
-      <c r="N4" s="511" t="s">
+      <c r="N4" s="512" t="s">
         <v>808</v>
       </c>
-      <c r="O4" s="511"/>
-      <c r="P4" s="511"/>
-      <c r="Q4" s="511"/>
+      <c r="O4" s="512"/>
+      <c r="P4" s="512"/>
+      <c r="Q4" s="512"/>
       <c r="R4" s="513"/>
-      <c r="S4" s="511" t="s">
+      <c r="S4" s="512" t="s">
         <v>809</v>
       </c>
-      <c r="T4" s="511"/>
-      <c r="U4" s="511"/>
-      <c r="V4" s="511"/>
+      <c r="T4" s="512"/>
+      <c r="U4" s="512"/>
+      <c r="V4" s="512"/>
       <c r="W4" s="513"/>
-      <c r="X4" s="511" t="s">
+      <c r="X4" s="512" t="s">
         <v>810</v>
       </c>
-      <c r="Y4" s="511"/>
-      <c r="Z4" s="511"/>
-      <c r="AA4" s="511"/>
+      <c r="Y4" s="512"/>
+      <c r="Z4" s="512"/>
+      <c r="AA4" s="512"/>
       <c r="AB4" s="513"/>
-      <c r="AC4" s="511" t="s">
+      <c r="AC4" s="512" t="s">
         <v>811</v>
       </c>
-      <c r="AD4" s="511"/>
-      <c r="AE4" s="511"/>
-      <c r="AF4" s="511"/>
+      <c r="AD4" s="512"/>
+      <c r="AE4" s="512"/>
+      <c r="AF4" s="512"/>
       <c r="AG4" s="513"/>
-      <c r="AH4" s="511" t="s">
+      <c r="AH4" s="512" t="s">
         <v>812</v>
       </c>
-      <c r="AI4" s="511"/>
-      <c r="AJ4" s="511"/>
-      <c r="AK4" s="511"/>
+      <c r="AI4" s="512"/>
+      <c r="AJ4" s="512"/>
+      <c r="AK4" s="512"/>
       <c r="AL4" s="513"/>
-      <c r="AM4" s="511" t="s">
+      <c r="AM4" s="512" t="s">
         <v>813</v>
       </c>
-      <c r="AN4" s="511"/>
-      <c r="AO4" s="511"/>
-      <c r="AP4" s="511"/>
+      <c r="AN4" s="512"/>
+      <c r="AO4" s="512"/>
+      <c r="AP4" s="512"/>
       <c r="AQ4" s="513"/>
-      <c r="AR4" s="511" t="s">
+      <c r="AR4" s="512" t="s">
         <v>814</v>
       </c>
-      <c r="AS4" s="511"/>
-      <c r="AT4" s="511"/>
-      <c r="AU4" s="511"/>
+      <c r="AS4" s="512"/>
+      <c r="AT4" s="512"/>
+      <c r="AU4" s="512"/>
       <c r="AV4" s="513"/>
-      <c r="AW4" s="511" t="s">
+      <c r="AW4" s="512" t="s">
         <v>815</v>
       </c>
-      <c r="AX4" s="511"/>
-      <c r="AY4" s="511"/>
-      <c r="AZ4" s="511"/>
-      <c r="BA4" s="511"/>
-      <c r="BB4" s="512" t="s">
+      <c r="AX4" s="512"/>
+      <c r="AY4" s="512"/>
+      <c r="AZ4" s="512"/>
+      <c r="BA4" s="512"/>
+      <c r="BB4" s="511" t="s">
         <v>816</v>
       </c>
-      <c r="BC4" s="511"/>
-      <c r="BD4" s="511"/>
-      <c r="BE4" s="511"/>
+      <c r="BC4" s="512"/>
+      <c r="BD4" s="512"/>
+      <c r="BE4" s="512"/>
       <c r="BF4" s="513"/>
-      <c r="BG4" s="511" t="s">
+      <c r="BG4" s="512" t="s">
         <v>817</v>
       </c>
-      <c r="BH4" s="511"/>
-      <c r="BI4" s="511"/>
-      <c r="BJ4" s="511"/>
-      <c r="BK4" s="511"/>
-      <c r="BL4" s="512" t="s">
+      <c r="BH4" s="512"/>
+      <c r="BI4" s="512"/>
+      <c r="BJ4" s="512"/>
+      <c r="BK4" s="512"/>
+      <c r="BL4" s="511" t="s">
         <v>818</v>
       </c>
-      <c r="BM4" s="511"/>
-      <c r="BN4" s="511"/>
-      <c r="BO4" s="511"/>
-      <c r="BP4" s="511"/>
-      <c r="BQ4" s="512" t="s">
+      <c r="BM4" s="512"/>
+      <c r="BN4" s="512"/>
+      <c r="BO4" s="512"/>
+      <c r="BP4" s="512"/>
+      <c r="BQ4" s="511" t="s">
         <v>819</v>
       </c>
-      <c r="BR4" s="511"/>
-      <c r="BS4" s="511"/>
-      <c r="BT4" s="511"/>
+      <c r="BR4" s="512"/>
+      <c r="BS4" s="512"/>
+      <c r="BT4" s="512"/>
       <c r="BU4" s="513"/>
       <c r="BV4" s="382" t="s">
         <v>820</v>
@@ -61370,11 +61358,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -61387,6 +61370,11 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/SubRES_TMPL/SubRes_RSD.xlsx
+++ b/SubRES_TMPL/SubRes_RSD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368500FC-3941-49B5-921B-DC1190A35F03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEEAD6E-7D5C-4AC6-9978-1B5F78804ACD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
   </bookViews>
@@ -141,6 +141,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="U9" authorId="0" shapeId="0" xr:uid="{63B921D2-6C99-4179-84DD-FD0464B7BACF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Data from AECOM report - https://www.gov.ie/en/publication/8b915-cost-optimal-residential-report-ireland-2018/</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AF18" authorId="0" shapeId="0" xr:uid="{F19EEDD9-40FA-4C77-BA59-94989115B440}">
       <text>
         <r>
@@ -11599,7 +11623,7 @@
     <numFmt numFmtId="171" formatCode="#,##0.000"/>
     <numFmt numFmtId="172" formatCode="0.000"/>
   </numFmts>
-  <fonts count="69" x14ac:knownFonts="1">
+  <fonts count="71" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -12048,8 +12072,21 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12237,6 +12274,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13043,7 +13092,7 @@
     <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="54" fillId="0" borderId="0" applyFon